--- a/clang-x86/Scattered unsuccessful looukp.xlsx
+++ b/clang-x86/Scattered unsuccessful looukp.xlsx
@@ -58,8 +58,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -553,430 +552,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0199746</v>
+                  <v>0.020381</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0223711</v>
+                  <v>0.0231567</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0279843</v>
+                  <v>0.0281757</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0374557</v>
+                  <v>0.0352799</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0541003</v>
+                  <v>0.04539</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0739308</v>
+                  <v>0.06491429999999999</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0908332</v>
+                  <v>0.0891632</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.119418</v>
+                  <v>0.112722</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0160955</v>
+                  <v>0.017053</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0165233</v>
+                  <v>0.0176131</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0170052</v>
+                  <v>0.018294</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0176545</v>
+                  <v>0.019009</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.018734</v>
+                  <v>0.0202027</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.020118</v>
+                  <v>0.0216873</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0231423</v>
+                  <v>0.0238871</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0275752</v>
+                  <v>0.0283309</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0337269</v>
+                  <v>0.0347629</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0441174</v>
+                  <v>0.0427405</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0560327</v>
+                  <v>0.0557526</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0735251</v>
+                  <v>0.0731723</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.09810720000000001</v>
+                  <v>0.0958377</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.118682</v>
+                  <v>0.12115</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0168617</v>
+                  <v>0.0167999</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.017117</v>
+                  <v>0.017383</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0179684</v>
+                  <v>0.0183382</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.018842</v>
+                  <v>0.0193988</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.020762</v>
+                  <v>0.0205537</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0229493</v>
+                  <v>0.0226966</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0261253</v>
+                  <v>0.0250047</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0299548</v>
+                  <v>0.0309238</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0351932</v>
+                  <v>0.0361738</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0437828</v>
+                  <v>0.0455675</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0554948</v>
+                  <v>0.0564017</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.07231650000000001</v>
+                  <v>0.0722527</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.09074749999999999</v>
+                  <v>0.09413820000000001</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.117374</v>
+                  <v>0.118638</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0170956</v>
+                  <v>0.0174142</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0178543</v>
+                  <v>0.0181997</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0189841</v>
+                  <v>0.0191908</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0200948</v>
+                  <v>0.0204403</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0217684</v>
+                  <v>0.021836</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0244338</v>
+                  <v>0.0239224</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0277674</v>
+                  <v>0.0276839</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0324631</v>
+                  <v>0.0315092</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0387566</v>
+                  <v>0.0372217</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.044976</v>
+                  <v>0.0454352</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0559175</v>
+                  <v>0.0550601</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0710027</v>
+                  <v>0.0703042</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0908212</v>
+                  <v>0.0905224</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.117424</v>
+                  <v>0.115437</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.140864</v>
+                  <v>0.1408</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0189027</v>
+                  <v>0.0192387</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0201008</v>
+                  <v>0.0204627</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.021583</v>
+                  <v>0.0220737</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0235148</v>
+                  <v>0.0239349</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0261005</v>
+                  <v>0.0262923</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0293833</v>
+                  <v>0.0297657</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0337692</v>
+                  <v>0.0341001</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0392899</v>
+                  <v>0.0395028</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.046662</v>
+                  <v>0.0465838</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0562823</v>
+                  <v>0.0559668</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0701638</v>
+                  <v>0.0699388</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0890341</v>
+                  <v>0.0889996</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.114833</v>
+                  <v>0.114856</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.144939</v>
+                  <v>0.145398</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0197502</v>
+                  <v>0.0196969</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0210028</v>
+                  <v>0.02093</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0227789</v>
+                  <v>0.0224969</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0246593</v>
+                  <v>0.0245783</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0270269</v>
+                  <v>0.027095</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0302493</v>
+                  <v>0.0303959</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0342455</v>
+                  <v>0.0348732</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0395435</v>
+                  <v>0.0401107</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0466214</v>
+                  <v>0.0469689</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0559597</v>
+                  <v>0.056182</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0685593</v>
+                  <v>0.0692083</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0867699</v>
+                  <v>0.0876976</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.111201</v>
+                  <v>0.112624</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.141494</v>
+                  <v>0.143056</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0200207</v>
+                  <v>0.0203051</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0212269</v>
+                  <v>0.0214311</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0226945</v>
+                  <v>0.0227951</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0246895</v>
+                  <v>0.0248606</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0274303</v>
+                  <v>0.0274961</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0301632</v>
+                  <v>0.0304265</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.0343383</v>
+                  <v>0.034491</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0393209</v>
+                  <v>0.0392189</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0454285</v>
+                  <v>0.0454425</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0543419</v>
+                  <v>0.054124</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.06590409999999999</v>
+                  <v>0.0660497</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.08316999999999999</v>
+                  <v>0.0833161</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.106615</v>
+                  <v>0.107117</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.136838</v>
+                  <v>0.137068</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.0207148</v>
+                  <v>0.0205917</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0218231</v>
+                  <v>0.0217319</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.0235618</v>
+                  <v>0.0234086</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.0254205</v>
+                  <v>0.0249196</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0277238</v>
+                  <v>0.0271441</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0309717</v>
+                  <v>0.0301186</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.034493</v>
+                  <v>0.034225</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0401348</v>
+                  <v>0.0395874</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0464552</v>
+                  <v>0.046425</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0546064</v>
+                  <v>0.0547381</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.065411</v>
+                  <v>0.0655719</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.08111790000000001</v>
+                  <v>0.0810201</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.10261</v>
+                  <v>0.103131</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.131855</v>
+                  <v>0.132455</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.167859</v>
+                  <v>0.167936</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.0308739</v>
+                  <v>0.0314641</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.032613</v>
+                  <v>0.0327748</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.034221</v>
+                  <v>0.0344387</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.0360225</v>
+                  <v>0.0359115</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.0383657</v>
+                  <v>0.0384212</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.0408546</v>
+                  <v>0.0411013</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.0441552</v>
+                  <v>0.0443196</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.0485179</v>
+                  <v>0.0490798</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.0552273</v>
+                  <v>0.0556472</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.06492580000000001</v>
+                  <v>0.0652692</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.0791367</v>
+                  <v>0.080124</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.0999347</v>
+                  <v>0.100594</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.128094</v>
+                  <v>0.128412</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.163548</v>
+                  <v>0.163387</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.0346339</v>
+                  <v>0.0342733</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.0355354</v>
+                  <v>0.0354023</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.0372352</v>
+                  <v>0.0369613</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.0385047</v>
+                  <v>0.0386997</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.0411049</v>
+                  <v>0.0406429</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.0439798</v>
+                  <v>0.0434292</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.04739</v>
+                  <v>0.0467513</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.0521658</v>
+                  <v>0.0511822</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.0586895</v>
+                  <v>0.0585649</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.0680711</v>
+                  <v>0.0673728</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.0820838</v>
+                  <v>0.08104450000000001</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.101855</v>
+                  <v>0.101034</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.12951</v>
+                  <v>0.128826</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.163867</v>
+                  <v>0.16274</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.0468922</v>
+                  <v>0.0471946</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.0482012</v>
+                  <v>0.0480173</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.0491648</v>
+                  <v>0.0491618</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.0527207</v>
+                  <v>0.0504992</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.0528154</v>
+                  <v>0.0529453</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.055782</v>
+                  <v>0.0554429</v>
                 </pt>
               </numCache>
             </numRef>
@@ -987,7 +986,7 @@
           <idx val="4"/>
           <order val="1"/>
           <tx>
-            <v>foa_unordered_rc16_map</v>
+            <v>boost::unordered_flat_map</v>
           </tx>
           <spPr>
             <a:ln>
@@ -1447,430 +1446,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0185839</v>
+                  <v>0.0243821</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0180835</v>
+                  <v>0.0263419</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0186575</v>
+                  <v>0.03189</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0219409</v>
+                  <v>0.0372784</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0348619</v>
+                  <v>0.0515556</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.046746</v>
+                  <v>0.06764829999999999</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0887013</v>
+                  <v>0.08149480000000001</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.119804</v>
+                  <v>0.129222</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0180709</v>
+                  <v>0.0208127</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0184204</v>
+                  <v>0.0213278</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0189457</v>
+                  <v>0.0218828</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0193755</v>
+                  <v>0.02263</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0198448</v>
+                  <v>0.0232512</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.020306</v>
+                  <v>0.0241428</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0209034</v>
+                  <v>0.0268695</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0227075</v>
+                  <v>0.0288871</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0253999</v>
+                  <v>0.0328262</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0319034</v>
+                  <v>0.0390993</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0383341</v>
+                  <v>0.0470423</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0568493</v>
+                  <v>0.0633778</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0838647</v>
+                  <v>0.088602</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.131653</v>
+                  <v>0.13405</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0187591</v>
+                  <v>0.0214978</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0191409</v>
+                  <v>0.0219645</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0197405</v>
+                  <v>0.0227306</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.020439</v>
+                  <v>0.0236983</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0212415</v>
+                  <v>0.0246423</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0219892</v>
+                  <v>0.025917</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0234121</v>
+                  <v>0.0281203</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0264304</v>
+                  <v>0.0305191</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0302305</v>
+                  <v>0.0351044</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0366198</v>
+                  <v>0.0407874</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0459437</v>
+                  <v>0.0501899</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0594599</v>
+                  <v>0.06329070000000001</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0878531</v>
+                  <v>0.0883089</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.129282</v>
+                  <v>0.125523</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0198852</v>
+                  <v>0.0226441</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0203496</v>
+                  <v>0.0231278</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0210131</v>
+                  <v>0.0239266</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0216736</v>
+                  <v>0.024755</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0228112</v>
+                  <v>0.0260181</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0240973</v>
+                  <v>0.0274856</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0257658</v>
+                  <v>0.0292543</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0290975</v>
+                  <v>0.0326774</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0349767</v>
+                  <v>0.0370439</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.0398391</v>
+                  <v>0.0430271</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0491529</v>
+                  <v>0.0514098</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.06340750000000001</v>
+                  <v>0.0649906</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0843724</v>
+                  <v>0.0841389</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.121267</v>
+                  <v>0.117343</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.167097</v>
+                  <v>0.163332</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0213247</v>
+                  <v>0.0241041</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0219345</v>
+                  <v>0.0248142</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.022889</v>
+                  <v>0.0258859</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0238477</v>
+                  <v>0.0269065</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0253224</v>
+                  <v>0.0285555</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0275992</v>
+                  <v>0.0308138</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0302451</v>
+                  <v>0.0334128</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0345438</v>
+                  <v>0.0373409</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0408319</v>
+                  <v>0.043244</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0492235</v>
+                  <v>0.0514921</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.061553</v>
+                  <v>0.0631197</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0805206</v>
+                  <v>0.08064549999999999</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.113447</v>
+                  <v>0.111224</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.161291</v>
+                  <v>0.156782</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0217627</v>
+                  <v>0.0246273</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.022553</v>
+                  <v>0.0254874</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0235574</v>
+                  <v>0.026515</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0246975</v>
+                  <v>0.0276786</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0260874</v>
+                  <v>0.0291119</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0279758</v>
+                  <v>0.0311576</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.030811</v>
+                  <v>0.0339469</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.034622</v>
+                  <v>0.0377205</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0402214</v>
+                  <v>0.0430427</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.047952</v>
+                  <v>0.0505867</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0592906</v>
+                  <v>0.0612508</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.07559440000000001</v>
+                  <v>0.0763192</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.103124</v>
+                  <v>0.101765</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.148399</v>
+                  <v>0.144347</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0223391</v>
+                  <v>0.0253488</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0231769</v>
+                  <v>0.026265</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0241129</v>
+                  <v>0.0271908</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0252673</v>
+                  <v>0.0284288</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0268372</v>
+                  <v>0.03001</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0286828</v>
+                  <v>0.0319039</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.0310672</v>
+                  <v>0.0343672</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0345672</v>
+                  <v>0.0378547</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0394295</v>
+                  <v>0.0426376</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0468561</v>
+                  <v>0.0498571</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0569589</v>
+                  <v>0.059631</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.07245</v>
+                  <v>0.0742997</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.09784569999999999</v>
+                  <v>0.0979019</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.139669</v>
+                  <v>0.137136</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.0237499</v>
+                  <v>0.0270102</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0249294</v>
+                  <v>0.0282021</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.0266465</v>
+                  <v>0.0301873</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.0293475</v>
+                  <v>0.0330636</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0325618</v>
+                  <v>0.0367725</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0359918</v>
+                  <v>0.0404956</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0391962</v>
+                  <v>0.0438179</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0423199</v>
+                  <v>0.0472354</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0459227</v>
+                  <v>0.0509235</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0516739</v>
+                  <v>0.0560138</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.0586182</v>
+                  <v>0.06314790000000001</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.07141210000000001</v>
+                  <v>0.07436619999999999</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.09303640000000001</v>
+                  <v>0.0937021</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.131746</v>
+                  <v>0.129268</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.183631</v>
+                  <v>0.180556</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.0382801</v>
+                  <v>0.0432623</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.0392846</v>
+                  <v>0.0443061</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.040221</v>
+                  <v>0.0453678</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.0413197</v>
+                  <v>0.0466564</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.0426685</v>
+                  <v>0.0481</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.0443478</v>
+                  <v>0.0498885</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.0465075</v>
+                  <v>0.0522653</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.0495102</v>
+                  <v>0.0552329</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.0538235</v>
+                  <v>0.0592122</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.0601526</v>
+                  <v>0.0652914</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.0710412</v>
+                  <v>0.0749547</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.0895113</v>
+                  <v>0.09116730000000001</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.122948</v>
+                  <v>0.12157</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.172866</v>
+                  <v>0.169666</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.0424721</v>
+                  <v>0.0485409</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.0434258</v>
+                  <v>0.0498932</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.044818</v>
+                  <v>0.0510164</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.0458006</v>
+                  <v>0.0521044</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.0473031</v>
+                  <v>0.0539084</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.0493497</v>
+                  <v>0.0557247</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.0516778</v>
+                  <v>0.0579581</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.0546998</v>
+                  <v>0.0612119</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.0591634</v>
+                  <v>0.0655746</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.0653265</v>
+                  <v>0.07118579999999999</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.0752591</v>
+                  <v>0.0805454</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.0919177</v>
+                  <v>0.0955641</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.121142</v>
+                  <v>0.122167</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.1684</v>
+                  <v>0.166136</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.0552701</v>
+                  <v>0.0632577</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.0564094</v>
+                  <v>0.0643639</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.0574369</v>
+                  <v>0.0654462</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.0586381</v>
+                  <v>0.0668815</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.0601686</v>
+                  <v>0.0683774</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.0620335</v>
+                  <v>0.07045510000000001</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2341,430 +2340,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0201621</v>
+                  <v>0.0213141</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0205927</v>
+                  <v>0.0220012</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0213328</v>
+                  <v>0.0228637</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0224255</v>
+                  <v>0.0244676</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0228236</v>
+                  <v>0.0259604</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0246502</v>
+                  <v>0.028658</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0289321</v>
+                  <v>0.0371282</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.0176491</v>
+                  <v>0.0186849</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0179043</v>
+                  <v>0.0189948</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0181965</v>
+                  <v>0.0192948</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0185586</v>
+                  <v>0.0198101</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0189253</v>
+                  <v>0.0200323</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0192987</v>
+                  <v>0.0205084</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0198485</v>
+                  <v>0.0207002</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0203825</v>
+                  <v>0.0214276</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0208815</v>
+                  <v>0.022011</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0220019</v>
+                  <v>0.0230028</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.022769</v>
+                  <v>0.0242253</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0243123</v>
+                  <v>0.0262024</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0273683</v>
+                  <v>0.030044</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0323586</v>
+                  <v>0.0370516</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.017563</v>
+                  <v>0.0188867</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0179077</v>
+                  <v>0.0192237</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0181191</v>
+                  <v>0.0194425</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0185128</v>
+                  <v>0.0197946</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0188997</v>
+                  <v>0.0201342</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0193475</v>
+                  <v>0.0205266</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0197701</v>
+                  <v>0.020959</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0202878</v>
+                  <v>0.0214844</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0211156</v>
+                  <v>0.0223231</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0221556</v>
+                  <v>0.0233566</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0232419</v>
+                  <v>0.0248748</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0249746</v>
+                  <v>0.0269432</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0282488</v>
+                  <v>0.0307678</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0352729</v>
+                  <v>0.0381048</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.017949</v>
+                  <v>0.019505</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0182123</v>
+                  <v>0.0197378</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0184241</v>
+                  <v>0.0199753</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0187582</v>
+                  <v>0.0202695</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0191191</v>
+                  <v>0.0205809</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0195615</v>
+                  <v>0.0210132</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0201191</v>
+                  <v>0.0215764</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0206961</v>
+                  <v>0.0222081</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0215587</v>
+                  <v>0.0231524</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0226734</v>
+                  <v>0.0243994</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.0242101</v>
+                  <v>0.0261699</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0265092</v>
+                  <v>0.0288567</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0299203</v>
+                  <v>0.0324993</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0362318</v>
+                  <v>0.0388699</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.018616</v>
+                  <v>0.0203994</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0188728</v>
+                  <v>0.0206304</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0191354</v>
+                  <v>0.020899</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0194676</v>
+                  <v>0.0212713</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0198285</v>
+                  <v>0.0215734</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0202084</v>
+                  <v>0.0220027</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0207233</v>
+                  <v>0.0224713</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0213995</v>
+                  <v>0.0232356</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0222513</v>
+                  <v>0.0241598</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.023328</v>
+                  <v>0.0252935</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0249404</v>
+                  <v>0.0270674</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.027529</v>
+                  <v>0.0297328</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0313116</v>
+                  <v>0.0338401</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0376983</v>
+                  <v>0.0404851</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.0489477</v>
+                  <v>0.0515575</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.019011</v>
+                  <v>0.020937</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0193203</v>
+                  <v>0.0212617</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0197232</v>
+                  <v>0.0215815</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0201442</v>
+                  <v>0.0219942</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0205764</v>
+                  <v>0.0224339</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0210852</v>
+                  <v>0.0229822</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0217122</v>
+                  <v>0.0236686</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.022629</v>
+                  <v>0.0245813</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0237333</v>
+                  <v>0.0258009</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0254197</v>
+                  <v>0.0276711</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0277608</v>
+                  <v>0.0301418</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0313383</v>
+                  <v>0.0339599</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.037026</v>
+                  <v>0.039757</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.0465119</v>
+                  <v>0.0495474</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.0192382</v>
+                  <v>0.021192</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0195643</v>
+                  <v>0.0215353</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0199296</v>
+                  <v>0.0219745</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0204282</v>
+                  <v>0.0224512</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0208927</v>
+                  <v>0.0229726</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.021538</v>
+                  <v>0.0236312</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0222851</v>
+                  <v>0.0244723</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.0232149</v>
+                  <v>0.0253764</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0244507</v>
+                  <v>0.0267266</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0259784</v>
+                  <v>0.02845</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0282943</v>
+                  <v>0.0307713</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0314579</v>
+                  <v>0.0342051</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.0365879</v>
+                  <v>0.039387</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.0450952</v>
+                  <v>0.0481448</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.0208871</v>
+                  <v>0.0230461</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.0214555</v>
+                  <v>0.0235885</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0220137</v>
+                  <v>0.0240683</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.0225922</v>
+                  <v>0.0245612</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.0232915</v>
+                  <v>0.0254625</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0246113</v>
+                  <v>0.0269155</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0266287</v>
+                  <v>0.0289929</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0293725</v>
+                  <v>0.0319022</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0323838</v>
+                  <v>0.0353162</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0353862</v>
+                  <v>0.0382454</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0384466</v>
+                  <v>0.0414212</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.0416202</v>
+                  <v>0.0448928</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.0456443</v>
+                  <v>0.0491213</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.0519131</v>
+                  <v>0.0556722</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.0324166</v>
+                  <v>0.0349946</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.0334394</v>
+                  <v>0.036062</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.0342435</v>
+                  <v>0.0370126</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.0350556</v>
+                  <v>0.0378882</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.0358717</v>
+                  <v>0.0386232</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.0366873</v>
+                  <v>0.039608</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.0376708</v>
+                  <v>0.0405332</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.0386302</v>
+                  <v>0.0416032</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.0398146</v>
+                  <v>0.0429799</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.0412212</v>
+                  <v>0.044442</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.0429427</v>
+                  <v>0.0464735</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.0455556</v>
+                  <v>0.0490779</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.0491536</v>
+                  <v>0.0526027</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.054736</v>
+                  <v>0.0585157</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.0644487</v>
+                  <v>0.0682112</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.0379716</v>
+                  <v>0.0416503</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.0387374</v>
+                  <v>0.0422691</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.039425</v>
+                  <v>0.0430552</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.0400483</v>
+                  <v>0.04371</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.0410584</v>
+                  <v>0.0446326</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.0419449</v>
+                  <v>0.045744</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.0429313</v>
+                  <v>0.0464876</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.0441977</v>
+                  <v>0.0480236</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.0457638</v>
+                  <v>0.0497905</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.0475294</v>
+                  <v>0.0515751</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.0500786</v>
+                  <v>0.0541836</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.0536186</v>
+                  <v>0.0578235</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.0591599</v>
+                  <v>0.06359289999999999</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.0689019</v>
+                  <v>0.07301820000000001</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.0534654</v>
+                  <v>0.0587163</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.0539555</v>
+                  <v>0.0595507</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.0548494</v>
+                  <v>0.0603892</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.0553747</v>
+                  <v>0.0609068</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.0561235</v>
+                  <v>0.0617944</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.0611306</v>
+                  <v>0.0626568</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.0579442</v>
+                  <v>0.0637523</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3222,8 +3221,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="5" min="1" style="1" width="11.42578125"/>
-    <col customWidth="1" max="16384" min="6" style="1" width="11.42578125"/>
+    <col customWidth="1" max="6" min="1" width="11.42578125"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3248,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0933485</v>
+        <v>0.0957959</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0707405</v>
+        <v>0.0736166</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0710763</v>
+        <v>0.08525149999999999</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.09797169999999999</v>
+        <v>0.100793</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0717713</v>
+        <v>0.0743785</v>
       </c>
       <c r="D3" t="n">
-        <v>0.07154720000000001</v>
+        <v>0.0863464</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.109065</v>
+        <v>0.113564</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0755942</v>
+        <v>0.0757684</v>
       </c>
       <c r="D4" t="n">
-        <v>0.072348</v>
+        <v>0.0879365</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.12756</v>
+        <v>0.129426</v>
       </c>
       <c r="C5" t="n">
-        <v>0.08305990000000001</v>
+        <v>0.0771231</v>
       </c>
       <c r="D5" t="n">
-        <v>0.07336860000000001</v>
+        <v>0.0900779</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.147099</v>
+        <v>0.154189</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0986643</v>
+        <v>0.0786888</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0751798</v>
+        <v>0.0922294</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.184576</v>
+        <v>0.185543</v>
       </c>
       <c r="C7" t="n">
-        <v>0.113223</v>
+        <v>0.0824989</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0800767</v>
+        <v>0.0975664</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.222276</v>
+        <v>0.227459</v>
       </c>
       <c r="C8" t="n">
-        <v>0.150846</v>
+        <v>0.09281250000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>0.09072330000000001</v>
+        <v>0.114314</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.266837</v>
+        <v>0.271951</v>
       </c>
       <c r="C9" t="n">
-        <v>0.189252</v>
+        <v>0.0711696</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0687007</v>
+        <v>0.0831721</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0867796</v>
+        <v>0.086217</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0678301</v>
+        <v>0.0714803</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0689217</v>
+        <v>0.0835152</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0875105</v>
+        <v>0.0874245</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0684877</v>
+        <v>0.0716721</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0691138</v>
+        <v>0.08382729999999999</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.08869109999999999</v>
+        <v>0.08870409999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0688203</v>
+        <v>0.0718319</v>
       </c>
       <c r="D12" t="n">
-        <v>0.06945320000000001</v>
+        <v>0.0840901</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0899664</v>
+        <v>0.0906405</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0712574</v>
+        <v>0.07240580000000001</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0697694</v>
+        <v>0.0843975</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0926611</v>
+        <v>0.0927264</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0700605</v>
+        <v>0.0726319</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0700741</v>
+        <v>0.0849361</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.09513530000000001</v>
+        <v>0.09611550000000001</v>
       </c>
       <c r="C15" t="n">
-        <v>0.07389800000000001</v>
+        <v>0.07328750000000001</v>
       </c>
       <c r="D15" t="n">
-        <v>0.07056850000000001</v>
+        <v>0.085243</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.1005</v>
+        <v>0.101774</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0744925</v>
+        <v>0.0737376</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0712894</v>
+        <v>0.08590059999999999</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.108683</v>
+        <v>0.108777</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0773631</v>
+        <v>0.0746738</v>
       </c>
       <c r="D17" t="n">
-        <v>0.07215290000000001</v>
+        <v>0.0867632</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.124064</v>
+        <v>0.120382</v>
       </c>
       <c r="C18" t="n">
-        <v>0.08388859999999999</v>
+        <v>0.0759565</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0735201</v>
+        <v>0.08808779999999999</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.139497</v>
+        <v>0.137124</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0940067</v>
+        <v>0.0777852</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0757176</v>
+        <v>0.0898486</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.15376</v>
+        <v>0.160037</v>
       </c>
       <c r="C20" t="n">
-        <v>0.107958</v>
+        <v>0.0806587</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0786809</v>
+        <v>0.0929378</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.182189</v>
+        <v>0.184802</v>
       </c>
       <c r="C21" t="n">
-        <v>0.124362</v>
+        <v>0.0853005</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0849104</v>
+        <v>0.0995756</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.229043</v>
+        <v>0.218203</v>
       </c>
       <c r="C22" t="n">
-        <v>0.151805</v>
+        <v>0.09749720000000001</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0996816</v>
+        <v>0.114073</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.263959</v>
+        <v>0.258902</v>
       </c>
       <c r="C23" t="n">
-        <v>0.190415</v>
+        <v>0.0727189</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0696759</v>
+        <v>0.0845009</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0912568</v>
+        <v>0.0898579</v>
       </c>
       <c r="C24" t="n">
-        <v>0.07030939999999999</v>
+        <v>0.073023</v>
       </c>
       <c r="D24" t="n">
-        <v>0.06992279999999999</v>
+        <v>0.0848112</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0924436</v>
+        <v>0.0910142</v>
       </c>
       <c r="C25" t="n">
-        <v>0.07058010000000001</v>
+        <v>0.0734421</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0703284</v>
+        <v>0.0850388</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0939555</v>
+        <v>0.0924594</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0713719</v>
+        <v>0.07366929999999999</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0703641</v>
+        <v>0.08542569999999999</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0962547</v>
+        <v>0.0946135</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0739807</v>
+        <v>0.0740372</v>
       </c>
       <c r="D27" t="n">
-        <v>0.070808</v>
+        <v>0.0856957</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0995166</v>
+        <v>0.0977999</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0734484</v>
+        <v>0.07454230000000001</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0728492</v>
+        <v>0.0861827</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.10348</v>
+        <v>0.101635</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0749435</v>
+        <v>0.0750504</v>
       </c>
       <c r="D29" t="n">
-        <v>0.07298159999999999</v>
+        <v>0.0868867</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.108749</v>
+        <v>0.107662</v>
       </c>
       <c r="C30" t="n">
-        <v>0.07963249999999999</v>
+        <v>0.0755044</v>
       </c>
       <c r="D30" t="n">
-        <v>0.07249659999999999</v>
+        <v>0.0875286</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.116127</v>
+        <v>0.115546</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0835776</v>
+        <v>0.0762321</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0745191</v>
+        <v>0.0884667</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.125176</v>
+        <v>0.125528</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0890519</v>
+        <v>0.0778795</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0759942</v>
+        <v>0.089406</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.136517</v>
+        <v>0.137681</v>
       </c>
       <c r="C33" t="n">
-        <v>0.09363870000000001</v>
+        <v>0.0797349</v>
       </c>
       <c r="D33" t="n">
-        <v>0.07689989999999999</v>
+        <v>0.09149590000000001</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.154693</v>
+        <v>0.155795</v>
       </c>
       <c r="C34" t="n">
-        <v>0.110183</v>
+        <v>0.08262120000000001</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0821958</v>
+        <v>0.09520579999999999</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.186079</v>
+        <v>0.177802</v>
       </c>
       <c r="C35" t="n">
-        <v>0.122383</v>
+        <v>0.0880606</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0883641</v>
+        <v>0.101753</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.220162</v>
+        <v>0.209958</v>
       </c>
       <c r="C36" t="n">
-        <v>0.145557</v>
+        <v>0.09786980000000001</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0997702</v>
+        <v>0.113069</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.255719</v>
+        <v>0.250767</v>
       </c>
       <c r="C37" t="n">
-        <v>0.18346</v>
+        <v>0.0731229</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0706218</v>
+        <v>0.0849631</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0929816</v>
+        <v>0.092657</v>
       </c>
       <c r="C38" t="n">
-        <v>0.07346179999999999</v>
+        <v>0.07348780000000001</v>
       </c>
       <c r="D38" t="n">
-        <v>0.07077509999999999</v>
+        <v>0.0852292</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0942138</v>
+        <v>0.0941263</v>
       </c>
       <c r="C39" t="n">
-        <v>0.07504669999999999</v>
+        <v>0.0738902</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0710234</v>
+        <v>0.08546819999999999</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.09515700000000001</v>
+        <v>0.09555909999999999</v>
       </c>
       <c r="C40" t="n">
-        <v>0.07494679999999999</v>
+        <v>0.07405109999999999</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0713992</v>
+        <v>0.085711</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0972905</v>
+        <v>0.0977674</v>
       </c>
       <c r="C41" t="n">
-        <v>0.07548390000000001</v>
+        <v>0.0745735</v>
       </c>
       <c r="D41" t="n">
-        <v>0.07200040000000001</v>
+        <v>0.0861683</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.101025</v>
+        <v>0.100986</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0774318</v>
+        <v>0.074867</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0722492</v>
+        <v>0.0867189</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.104653</v>
+        <v>0.105298</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0795883</v>
+        <v>0.0755565</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0736464</v>
+        <v>0.08727219999999999</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.109345</v>
+        <v>0.110893</v>
       </c>
       <c r="C44" t="n">
-        <v>0.08078680000000001</v>
+        <v>0.0762574</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0738338</v>
+        <v>0.0880523</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.116942</v>
+        <v>0.117964</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0843598</v>
+        <v>0.07732600000000001</v>
       </c>
       <c r="D45" t="n">
-        <v>0.07456409999999999</v>
+        <v>0.0890172</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.124007</v>
+        <v>0.126847</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0901419</v>
+        <v>0.0787062</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0760126</v>
+        <v>0.09056549999999999</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.138088</v>
+        <v>0.137526</v>
       </c>
       <c r="C47" t="n">
-        <v>0.09442780000000001</v>
+        <v>0.0809868</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0784125</v>
+        <v>0.0927832</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.149678</v>
+        <v>0.152452</v>
       </c>
       <c r="C48" t="n">
-        <v>0.105618</v>
+        <v>0.0840258</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0816395</v>
+        <v>0.0967729</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.172111</v>
+        <v>0.174754</v>
       </c>
       <c r="C49" t="n">
-        <v>0.116444</v>
+        <v>0.0896081</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0870932</v>
+        <v>0.102732</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.212225</v>
+        <v>0.204256</v>
       </c>
       <c r="C50" t="n">
-        <v>0.136332</v>
+        <v>0.0985719</v>
       </c>
       <c r="D50" t="n">
-        <v>0.09584670000000001</v>
+        <v>0.112398</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.25952</v>
+        <v>0.244632</v>
       </c>
       <c r="C51" t="n">
-        <v>0.16931</v>
+        <v>0.0747591</v>
       </c>
       <c r="D51" t="n">
-        <v>0.07380639999999999</v>
+        <v>0.08719</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.29619</v>
+        <v>0.2949</v>
       </c>
       <c r="C52" t="n">
-        <v>0.219666</v>
+        <v>0.076627</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0742438</v>
+        <v>0.0877844</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.09890839999999999</v>
+        <v>0.09708600000000001</v>
       </c>
       <c r="C53" t="n">
-        <v>0.07807600000000001</v>
+        <v>0.0751399</v>
       </c>
       <c r="D53" t="n">
-        <v>0.07461959999999999</v>
+        <v>0.0874055</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0993059</v>
+        <v>0.100285</v>
       </c>
       <c r="C54" t="n">
-        <v>0.079467</v>
+        <v>0.0765339</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0738519</v>
+        <v>0.088007</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.100471</v>
+        <v>0.101394</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0789517</v>
+        <v>0.0775264</v>
       </c>
       <c r="D55" t="n">
-        <v>0.07412050000000001</v>
+        <v>0.0884263</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.104104</v>
+        <v>0.104561</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0820186</v>
+        <v>0.0772658</v>
       </c>
       <c r="D56" t="n">
-        <v>0.07470309999999999</v>
+        <v>0.0889263</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.108352</v>
+        <v>0.108878</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0827285</v>
+        <v>0.0788029</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0753683</v>
+        <v>0.0894185</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.111404</v>
+        <v>0.112912</v>
       </c>
       <c r="C58" t="n">
-        <v>0.08457770000000001</v>
+        <v>0.0785281</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0766864</v>
+        <v>0.09063350000000001</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.117257</v>
+        <v>0.118721</v>
       </c>
       <c r="C59" t="n">
-        <v>0.08922190000000001</v>
+        <v>0.0794917</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0766052</v>
+        <v>0.0915458</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.126</v>
+        <v>0.127545</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0923284</v>
+        <v>0.0834452</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0777573</v>
+        <v>0.0924479</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.139491</v>
+        <v>0.139699</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0969243</v>
+        <v>0.08282920000000001</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0809595</v>
+        <v>0.0957538</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.151221</v>
+        <v>0.153552</v>
       </c>
       <c r="C62" t="n">
-        <v>0.108406</v>
+        <v>0.08693289999999999</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0848061</v>
+        <v>0.09939530000000001</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.172044</v>
+        <v>0.174392</v>
       </c>
       <c r="C63" t="n">
-        <v>0.121898</v>
+        <v>0.0927409</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0899398</v>
+        <v>0.104814</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.201686</v>
+        <v>0.204003</v>
       </c>
       <c r="C64" t="n">
-        <v>0.137934</v>
+        <v>0.100747</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0976812</v>
+        <v>0.113332</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.242127</v>
+        <v>0.243649</v>
       </c>
       <c r="C65" t="n">
-        <v>0.167872</v>
+        <v>0.113664</v>
       </c>
       <c r="D65" t="n">
-        <v>0.111765</v>
+        <v>0.12807</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.294281</v>
+        <v>0.296978</v>
       </c>
       <c r="C66" t="n">
-        <v>0.228347</v>
+        <v>0.08480310000000001</v>
       </c>
       <c r="D66" t="n">
-        <v>0.08048180000000001</v>
+        <v>0.094154</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.108159</v>
+        <v>0.107442</v>
       </c>
       <c r="C67" t="n">
-        <v>0.08598699999999999</v>
+        <v>0.0846634</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0805458</v>
+        <v>0.09511940000000001</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.108689</v>
+        <v>0.109298</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0874288</v>
+        <v>0.0841253</v>
       </c>
       <c r="D68" t="n">
-        <v>0.08175250000000001</v>
+        <v>0.09522170000000001</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.111971</v>
+        <v>0.111278</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0880319</v>
+        <v>0.0845991</v>
       </c>
       <c r="D69" t="n">
-        <v>0.08051700000000001</v>
+        <v>0.0959718</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.113948</v>
+        <v>0.115507</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0894879</v>
+        <v>0.08566550000000001</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0823511</v>
+        <v>0.09764150000000001</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.117964</v>
+        <v>0.11983</v>
       </c>
       <c r="C71" t="n">
-        <v>0.09103</v>
+        <v>0.0856094</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0828793</v>
+        <v>0.0937701</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.121398</v>
+        <v>0.122293</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0929333</v>
+        <v>0.0866492</v>
       </c>
       <c r="D72" t="n">
-        <v>0.08275299999999999</v>
+        <v>0.0984641</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.126398</v>
+        <v>0.128526</v>
       </c>
       <c r="C73" t="n">
-        <v>0.09714739999999999</v>
+        <v>0.08711679999999999</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0849034</v>
+        <v>0.09969069999999999</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.138538</v>
+        <v>0.138598</v>
       </c>
       <c r="C74" t="n">
-        <v>0.100287</v>
+        <v>0.0887705</v>
       </c>
       <c r="D74" t="n">
-        <v>0.086148</v>
+        <v>0.0997417</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.14781</v>
+        <v>0.147276</v>
       </c>
       <c r="C75" t="n">
-        <v>0.107413</v>
+        <v>0.0903863</v>
       </c>
       <c r="D75" t="n">
-        <v>0.08738410000000001</v>
+        <v>0.103023</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.158256</v>
+        <v>0.160354</v>
       </c>
       <c r="C76" t="n">
-        <v>0.114214</v>
+        <v>0.0944001</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0904055</v>
+        <v>0.108102</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.177662</v>
+        <v>0.180475</v>
       </c>
       <c r="C77" t="n">
-        <v>0.123346</v>
+        <v>0.0982377</v>
       </c>
       <c r="D77" t="n">
-        <v>0.09552629999999999</v>
+        <v>0.10958</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.213805</v>
+        <v>0.213452</v>
       </c>
       <c r="C78" t="n">
-        <v>0.141509</v>
+        <v>0.105055</v>
       </c>
       <c r="D78" t="n">
-        <v>0.102955</v>
+        <v>0.118136</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.253655</v>
+        <v>0.242841</v>
       </c>
       <c r="C79" t="n">
-        <v>0.168266</v>
+        <v>0.11738</v>
       </c>
       <c r="D79" t="n">
-        <v>0.114708</v>
+        <v>0.132433</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.300919</v>
+        <v>0.294923</v>
       </c>
       <c r="C80" t="n">
-        <v>0.212972</v>
+        <v>0.09236560000000001</v>
       </c>
       <c r="D80" t="n">
-        <v>0.08903800000000001</v>
+        <v>0.104091</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.119614</v>
+        <v>0.121557</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0956111</v>
+        <v>0.091789</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0893799</v>
+        <v>0.10308</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.122839</v>
+        <v>0.121853</v>
       </c>
       <c r="C82" t="n">
-        <v>0.09690650000000001</v>
+        <v>0.0932019</v>
       </c>
       <c r="D82" t="n">
-        <v>0.08988160000000001</v>
+        <v>0.105239</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.123475</v>
+        <v>0.125657</v>
       </c>
       <c r="C83" t="n">
-        <v>0.099298</v>
+        <v>0.0942374</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0896097</v>
+        <v>0.106219</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.126761</v>
+        <v>0.127165</v>
       </c>
       <c r="C84" t="n">
-        <v>0.100857</v>
+        <v>0.09502919999999999</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0911476</v>
+        <v>0.104816</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.131547</v>
+        <v>0.131577</v>
       </c>
       <c r="C85" t="n">
-        <v>0.105205</v>
+        <v>0.0949122</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0916006</v>
+        <v>0.108061</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.136798</v>
+        <v>0.137887</v>
       </c>
       <c r="C86" t="n">
-        <v>0.107118</v>
+        <v>0.0973936</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0929585</v>
+        <v>0.109172</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.14343</v>
+        <v>0.142688</v>
       </c>
       <c r="C87" t="n">
-        <v>0.113124</v>
+        <v>0.099536</v>
       </c>
       <c r="D87" t="n">
-        <v>0.09510979999999999</v>
+        <v>0.111814</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.150369</v>
+        <v>0.151485</v>
       </c>
       <c r="C88" t="n">
-        <v>0.118987</v>
+        <v>0.102183</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0971138</v>
+        <v>0.113654</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.1641</v>
+        <v>0.165727</v>
       </c>
       <c r="C89" t="n">
-        <v>0.126513</v>
+        <v>0.104993</v>
       </c>
       <c r="D89" t="n">
-        <v>0.101517</v>
+        <v>0.115841</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.180275</v>
+        <v>0.177251</v>
       </c>
       <c r="C90" t="n">
-        <v>0.138554</v>
+        <v>0.109161</v>
       </c>
       <c r="D90" t="n">
-        <v>0.104742</v>
+        <v>0.120986</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.202024</v>
+        <v>0.197412</v>
       </c>
       <c r="C91" t="n">
-        <v>0.149845</v>
+        <v>0.114592</v>
       </c>
       <c r="D91" t="n">
-        <v>0.111494</v>
+        <v>0.127658</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.233066</v>
+        <v>0.232025</v>
       </c>
       <c r="C92" t="n">
-        <v>0.168117</v>
+        <v>0.120868</v>
       </c>
       <c r="D92" t="n">
-        <v>0.120522</v>
+        <v>0.135782</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.277174</v>
+        <v>0.265537</v>
       </c>
       <c r="C93" t="n">
-        <v>0.196504</v>
+        <v>0.134914</v>
       </c>
       <c r="D93" t="n">
-        <v>0.132602</v>
+        <v>0.149502</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.334584</v>
+        <v>0.330205</v>
       </c>
       <c r="C94" t="n">
-        <v>0.240459</v>
+        <v>0.101328</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0990265</v>
+        <v>0.114197</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.133549</v>
+        <v>0.133876</v>
       </c>
       <c r="C95" t="n">
-        <v>0.117747</v>
+        <v>0.103873</v>
       </c>
       <c r="D95" t="n">
-        <v>0.101733</v>
+        <v>0.116001</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.136248</v>
+        <v>0.136231</v>
       </c>
       <c r="C96" t="n">
-        <v>0.119586</v>
+        <v>0.105103</v>
       </c>
       <c r="D96" t="n">
-        <v>0.102442</v>
+        <v>0.117881</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.139712</v>
+        <v>0.140681</v>
       </c>
       <c r="C97" t="n">
-        <v>0.12495</v>
+        <v>0.105799</v>
       </c>
       <c r="D97" t="n">
-        <v>0.104616</v>
+        <v>0.119462</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.143485</v>
+        <v>0.145016</v>
       </c>
       <c r="C98" t="n">
-        <v>0.126573</v>
+        <v>0.109102</v>
       </c>
       <c r="D98" t="n">
-        <v>0.106966</v>
+        <v>0.120189</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.148211</v>
+        <v>0.148535</v>
       </c>
       <c r="C99" t="n">
-        <v>0.130281</v>
+        <v>0.11103</v>
       </c>
       <c r="D99" t="n">
-        <v>0.108109</v>
+        <v>0.123594</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.155338</v>
+        <v>0.153542</v>
       </c>
       <c r="C100" t="n">
-        <v>0.136126</v>
+        <v>0.112467</v>
       </c>
       <c r="D100" t="n">
-        <v>0.11127</v>
+        <v>0.125256</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.160844</v>
+        <v>0.160849</v>
       </c>
       <c r="C101" t="n">
-        <v>0.140616</v>
+        <v>0.114618</v>
       </c>
       <c r="D101" t="n">
-        <v>0.112405</v>
+        <v>0.126134</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.171291</v>
+        <v>0.169888</v>
       </c>
       <c r="C102" t="n">
-        <v>0.146851</v>
+        <v>0.116523</v>
       </c>
       <c r="D102" t="n">
-        <v>0.115367</v>
+        <v>0.129493</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.180036</v>
+        <v>0.183366</v>
       </c>
       <c r="C103" t="n">
-        <v>0.155998</v>
+        <v>0.120499</v>
       </c>
       <c r="D103" t="n">
-        <v>0.118337</v>
+        <v>0.133855</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.199223</v>
+        <v>0.200423</v>
       </c>
       <c r="C104" t="n">
-        <v>0.166247</v>
+        <v>0.127988</v>
       </c>
       <c r="D104" t="n">
-        <v>0.122988</v>
+        <v>0.141781</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.218575</v>
+        <v>0.224012</v>
       </c>
       <c r="C105" t="n">
-        <v>0.18126</v>
+        <v>0.136393</v>
       </c>
       <c r="D105" t="n">
-        <v>0.128865</v>
+        <v>0.150986</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.243622</v>
+        <v>0.261699</v>
       </c>
       <c r="C106" t="n">
-        <v>0.200884</v>
+        <v>0.146476</v>
       </c>
       <c r="D106" t="n">
-        <v>0.13642</v>
+        <v>0.162111</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.294871</v>
+        <v>0.306608</v>
       </c>
       <c r="C107" t="n">
-        <v>0.235217</v>
+        <v>0.160217</v>
       </c>
       <c r="D107" t="n">
-        <v>0.149819</v>
+        <v>0.176292</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.36152</v>
+        <v>0.36832</v>
       </c>
       <c r="C108" t="n">
-        <v>0.27977</v>
+        <v>0.119542</v>
       </c>
       <c r="D108" t="n">
-        <v>0.108697</v>
+        <v>0.132177</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.452124</v>
+        <v>0.452787</v>
       </c>
       <c r="C109" t="n">
-        <v>0.361453</v>
+        <v>0.122178</v>
       </c>
       <c r="D109" t="n">
-        <v>0.109885</v>
+        <v>0.134731</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.146247</v>
+        <v>0.157566</v>
       </c>
       <c r="C110" t="n">
-        <v>0.13893</v>
+        <v>0.124154</v>
       </c>
       <c r="D110" t="n">
-        <v>0.110355</v>
+        <v>0.137209</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.147961</v>
+        <v>0.161416</v>
       </c>
       <c r="C111" t="n">
-        <v>0.14407</v>
+        <v>0.126577</v>
       </c>
       <c r="D111" t="n">
-        <v>0.112922</v>
+        <v>0.139444</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.152765</v>
+        <v>0.166472</v>
       </c>
       <c r="C112" t="n">
-        <v>0.147818</v>
+        <v>0.128657</v>
       </c>
       <c r="D112" t="n">
-        <v>0.113442</v>
+        <v>0.141807</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.157298</v>
+        <v>0.171457</v>
       </c>
       <c r="C113" t="n">
-        <v>0.154099</v>
+        <v>0.130861</v>
       </c>
       <c r="D113" t="n">
-        <v>0.115884</v>
+        <v>0.144081</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.162697</v>
+        <v>0.176739</v>
       </c>
       <c r="C114" t="n">
-        <v>0.158329</v>
+        <v>0.133218</v>
       </c>
       <c r="D114" t="n">
-        <v>0.118955</v>
+        <v>0.147179</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.170452</v>
+        <v>0.184542</v>
       </c>
       <c r="C115" t="n">
-        <v>0.165177</v>
+        <v>0.135941</v>
       </c>
       <c r="D115" t="n">
-        <v>0.121689</v>
+        <v>0.149666</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.18266</v>
+        <v>0.193139</v>
       </c>
       <c r="C116" t="n">
-        <v>0.173562</v>
+        <v>0.139032</v>
       </c>
       <c r="D116" t="n">
-        <v>0.124274</v>
+        <v>0.152352</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.196281</v>
+        <v>0.207592</v>
       </c>
       <c r="C117" t="n">
-        <v>0.182905</v>
+        <v>0.142802</v>
       </c>
       <c r="D117" t="n">
-        <v>0.128981</v>
+        <v>0.156934</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.211216</v>
+        <v>0.220863</v>
       </c>
       <c r="C118" t="n">
-        <v>0.194125</v>
+        <v>0.147136</v>
       </c>
       <c r="D118" t="n">
-        <v>0.134727</v>
+        <v>0.160583</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.23794</v>
+        <v>0.243014</v>
       </c>
       <c r="C119" t="n">
-        <v>0.208355</v>
+        <v>0.153479</v>
       </c>
       <c r="D119" t="n">
-        <v>0.142616</v>
+        <v>0.167017</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.264691</v>
+        <v>0.274523</v>
       </c>
       <c r="C120" t="n">
-        <v>0.229347</v>
+        <v>0.16177</v>
       </c>
       <c r="D120" t="n">
-        <v>0.153861</v>
+        <v>0.176248</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.316187</v>
+        <v>0.31649</v>
       </c>
       <c r="C121" t="n">
-        <v>0.257559</v>
+        <v>0.174788</v>
       </c>
       <c r="D121" t="n">
-        <v>0.168479</v>
+        <v>0.190058</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.37241</v>
+        <v>0.373302</v>
       </c>
       <c r="C122" t="n">
-        <v>0.304614</v>
+        <v>0.195809</v>
       </c>
       <c r="D122" t="n">
-        <v>0.191577</v>
+        <v>0.214214</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.478464</v>
+        <v>0.465247</v>
       </c>
       <c r="C123" t="n">
-        <v>0.390828</v>
+        <v>0.144898</v>
       </c>
       <c r="D123" t="n">
-        <v>0.132996</v>
+        <v>0.154521</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.17143</v>
+        <v>0.177077</v>
       </c>
       <c r="C124" t="n">
-        <v>0.169536</v>
+        <v>0.143024</v>
       </c>
       <c r="D124" t="n">
-        <v>0.1346</v>
+        <v>0.157942</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.17779</v>
+        <v>0.181785</v>
       </c>
       <c r="C125" t="n">
-        <v>0.171517</v>
+        <v>0.148829</v>
       </c>
       <c r="D125" t="n">
-        <v>0.140543</v>
+        <v>0.159499</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.179712</v>
+        <v>0.186546</v>
       </c>
       <c r="C126" t="n">
-        <v>0.176771</v>
+        <v>0.149224</v>
       </c>
       <c r="D126" t="n">
-        <v>0.142616</v>
+        <v>0.160521</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.185434</v>
+        <v>0.184405</v>
       </c>
       <c r="C127" t="n">
-        <v>0.177473</v>
+        <v>0.148256</v>
       </c>
       <c r="D127" t="n">
-        <v>0.142036</v>
+        <v>0.161345</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.1925</v>
+        <v>0.194751</v>
       </c>
       <c r="C128" t="n">
-        <v>0.184691</v>
+        <v>0.150996</v>
       </c>
       <c r="D128" t="n">
-        <v>0.146222</v>
+        <v>0.167116</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.199344</v>
+        <v>0.204798</v>
       </c>
       <c r="C129" t="n">
-        <v>0.190579</v>
+        <v>0.154076</v>
       </c>
       <c r="D129" t="n">
-        <v>0.146415</v>
+        <v>0.169294</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.209028</v>
+        <v>0.210936</v>
       </c>
       <c r="C130" t="n">
-        <v>0.196935</v>
+        <v>0.158367</v>
       </c>
       <c r="D130" t="n">
-        <v>0.150734</v>
+        <v>0.17108</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.220585</v>
+        <v>0.226377</v>
       </c>
       <c r="C131" t="n">
-        <v>0.205708</v>
+        <v>0.164891</v>
       </c>
       <c r="D131" t="n">
-        <v>0.153047</v>
+        <v>0.185857</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.238223</v>
+        <v>0.239353</v>
       </c>
       <c r="C132" t="n">
-        <v>0.21795</v>
+        <v>0.165495</v>
       </c>
       <c r="D132" t="n">
-        <v>0.159984</v>
+        <v>0.186278</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.263619</v>
+        <v>0.270721</v>
       </c>
       <c r="C133" t="n">
-        <v>0.231558</v>
+        <v>0.16971</v>
       </c>
       <c r="D133" t="n">
-        <v>0.16829</v>
+        <v>0.188177</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.284826</v>
+        <v>0.292601</v>
       </c>
       <c r="C134" t="n">
-        <v>0.249528</v>
+        <v>0.178125</v>
       </c>
       <c r="D134" t="n">
-        <v>0.175343</v>
+        <v>0.197281</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.331618</v>
+        <v>0.328321</v>
       </c>
       <c r="C135" t="n">
-        <v>0.278046</v>
+        <v>0.190046</v>
       </c>
       <c r="D135" t="n">
-        <v>0.186892</v>
+        <v>0.213384</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.397094</v>
+        <v>0.390954</v>
       </c>
       <c r="C136" t="n">
-        <v>0.323224</v>
+        <v>0.209667</v>
       </c>
       <c r="D136" t="n">
-        <v>0.211497</v>
+        <v>0.23334</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.482311</v>
+        <v>0.486282</v>
       </c>
       <c r="C137" t="n">
-        <v>0.392298</v>
+        <v>0.253582</v>
       </c>
       <c r="D137" t="n">
-        <v>0.250205</v>
+        <v>0.294965</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.317421</v>
+        <v>0.319695</v>
       </c>
       <c r="C138" t="n">
-        <v>0.275744</v>
+        <v>0.256295</v>
       </c>
       <c r="D138" t="n">
-        <v>0.251585</v>
+        <v>0.294445</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.316356</v>
+        <v>0.324368</v>
       </c>
       <c r="C139" t="n">
-        <v>0.28061</v>
+        <v>0.260059</v>
       </c>
       <c r="D139" t="n">
-        <v>0.253192</v>
+        <v>0.292627</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.32298</v>
+        <v>0.325392</v>
       </c>
       <c r="C140" t="n">
-        <v>0.284957</v>
+        <v>0.262315</v>
       </c>
       <c r="D140" t="n">
-        <v>0.255452</v>
+        <v>0.29844</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.327622</v>
+        <v>0.331076</v>
       </c>
       <c r="C141" t="n">
-        <v>0.288181</v>
+        <v>0.266612</v>
       </c>
       <c r="D141" t="n">
-        <v>0.258298</v>
+        <v>0.302235</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.330594</v>
+        <v>0.336618</v>
       </c>
       <c r="C142" t="n">
-        <v>0.294335</v>
+        <v>0.265685</v>
       </c>
       <c r="D142" t="n">
-        <v>0.260093</v>
+        <v>0.306116</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.339237</v>
+        <v>0.344988</v>
       </c>
       <c r="C143" t="n">
-        <v>0.300026</v>
+        <v>0.270614</v>
       </c>
       <c r="D143" t="n">
-        <v>0.26043</v>
+        <v>0.30934</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Scattered unsuccessful looukp.xlsx
+++ b/clang-x86/Scattered unsuccessful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0957959</v>
+        <v>0.0951256</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0736166</v>
+        <v>0.0736941</v>
       </c>
       <c r="D2" t="n">
-        <v>0.08525149999999999</v>
+        <v>0.08515259999999999</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.100793</v>
+        <v>0.0997866</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0743785</v>
+        <v>0.07436520000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0863464</v>
+        <v>0.0859977</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.113564</v>
+        <v>0.112186</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0757684</v>
+        <v>0.0754194</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0879365</v>
+        <v>0.08795</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.129426</v>
+        <v>0.127993</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0771231</v>
+        <v>0.07676959999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0900779</v>
+        <v>0.0898312</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.154189</v>
+        <v>0.153605</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0786888</v>
+        <v>0.0780431</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0922294</v>
+        <v>0.0921713</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.185543</v>
+        <v>0.186061</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0824989</v>
+        <v>0.0824826</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0975664</v>
+        <v>0.09747889999999999</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.227459</v>
+        <v>0.230012</v>
       </c>
       <c r="C8" t="n">
-        <v>0.09281250000000001</v>
+        <v>0.0933012</v>
       </c>
       <c r="D8" t="n">
-        <v>0.114314</v>
+        <v>0.114099</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.271951</v>
+        <v>0.274878</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0711696</v>
+        <v>0.0714625</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0831721</v>
+        <v>0.08332100000000001</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.086217</v>
+        <v>0.0858097</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0714803</v>
+        <v>0.0716919</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0835152</v>
+        <v>0.08351989999999999</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0874245</v>
+        <v>0.0867513</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0716721</v>
+        <v>0.0719094</v>
       </c>
       <c r="D11" t="n">
-        <v>0.08382729999999999</v>
+        <v>0.0838882</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.08870409999999999</v>
+        <v>0.08809930000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0718319</v>
+        <v>0.0721552</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0840901</v>
+        <v>0.0840639</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0906405</v>
+        <v>0.09022579999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>0.07240580000000001</v>
+        <v>0.0726321</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0843975</v>
+        <v>0.0844039</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0927264</v>
+        <v>0.0920936</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0726319</v>
+        <v>0.0729012</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0849361</v>
+        <v>0.0848632</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.09611550000000001</v>
+        <v>0.0950925</v>
       </c>
       <c r="C15" t="n">
-        <v>0.07328750000000001</v>
+        <v>0.0734918</v>
       </c>
       <c r="D15" t="n">
-        <v>0.085243</v>
+        <v>0.0852961</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.101774</v>
+        <v>0.10038</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0737376</v>
+        <v>0.07385940000000001</v>
       </c>
       <c r="D16" t="n">
-        <v>0.08590059999999999</v>
+        <v>0.08586050000000001</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.108777</v>
+        <v>0.107192</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0746738</v>
+        <v>0.0761404</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0867632</v>
+        <v>0.0868749</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.120382</v>
+        <v>0.121589</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0759565</v>
+        <v>0.0757317</v>
       </c>
       <c r="D18" t="n">
-        <v>0.08808779999999999</v>
+        <v>0.0881276</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.137124</v>
+        <v>0.142374</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0777852</v>
+        <v>0.079024</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0898486</v>
+        <v>0.0899215</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.160037</v>
+        <v>0.167479</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0806587</v>
+        <v>0.0822938</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0929378</v>
+        <v>0.09312529999999999</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.184802</v>
+        <v>0.189411</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0853005</v>
+        <v>0.08764760000000001</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0995756</v>
+        <v>0.09961200000000001</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.218203</v>
+        <v>0.22953</v>
       </c>
       <c r="C22" t="n">
-        <v>0.09749720000000001</v>
+        <v>0.0990907</v>
       </c>
       <c r="D22" t="n">
-        <v>0.114073</v>
+        <v>0.114245</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.258902</v>
+        <v>0.262697</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0727189</v>
+        <v>0.074114</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0845009</v>
+        <v>0.08451110000000001</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0898579</v>
+        <v>0.0899523</v>
       </c>
       <c r="C24" t="n">
-        <v>0.073023</v>
+        <v>0.0743197</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0848112</v>
+        <v>0.085608</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0910142</v>
+        <v>0.0923248</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0734421</v>
+        <v>0.0736665</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0850388</v>
+        <v>0.08504539999999999</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0924594</v>
+        <v>0.0924287</v>
       </c>
       <c r="C26" t="n">
-        <v>0.07366929999999999</v>
+        <v>0.0751791</v>
       </c>
       <c r="D26" t="n">
-        <v>0.08542569999999999</v>
+        <v>0.0854164</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0946135</v>
+        <v>0.09428010000000001</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0740372</v>
+        <v>0.07542749999999999</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0856957</v>
+        <v>0.0866215</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0977999</v>
+        <v>0.0970546</v>
       </c>
       <c r="C28" t="n">
-        <v>0.07454230000000001</v>
+        <v>0.07583819999999999</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0861827</v>
+        <v>0.08681410000000001</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.101635</v>
+        <v>0.10104</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0750504</v>
+        <v>0.0758996</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0868867</v>
+        <v>0.0878491</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.107662</v>
+        <v>0.106412</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0755044</v>
+        <v>0.07580729999999999</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0875286</v>
+        <v>0.08781460000000001</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.115546</v>
+        <v>0.114528</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0762321</v>
+        <v>0.07723149999999999</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0884667</v>
+        <v>0.08886239999999999</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.125528</v>
+        <v>0.123859</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0778795</v>
+        <v>0.0780346</v>
       </c>
       <c r="D32" t="n">
-        <v>0.089406</v>
+        <v>0.0896323</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.137681</v>
+        <v>0.135767</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0797349</v>
+        <v>0.0803931</v>
       </c>
       <c r="D33" t="n">
-        <v>0.09149590000000001</v>
+        <v>0.09167989999999999</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.155795</v>
+        <v>0.155121</v>
       </c>
       <c r="C34" t="n">
-        <v>0.08262120000000001</v>
+        <v>0.0833906</v>
       </c>
       <c r="D34" t="n">
-        <v>0.09520579999999999</v>
+        <v>0.09546880000000001</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.177802</v>
+        <v>0.176751</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0880606</v>
+        <v>0.0894021</v>
       </c>
       <c r="D35" t="n">
-        <v>0.101753</v>
+        <v>0.101941</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.209958</v>
+        <v>0.211229</v>
       </c>
       <c r="C36" t="n">
-        <v>0.09786980000000001</v>
+        <v>0.09933359999999999</v>
       </c>
       <c r="D36" t="n">
-        <v>0.113069</v>
+        <v>0.113113</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.250767</v>
+        <v>0.255467</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0731229</v>
+        <v>0.07344349999999999</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0849631</v>
+        <v>0.0849039</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.092657</v>
+        <v>0.0928509</v>
       </c>
       <c r="C38" t="n">
-        <v>0.07348780000000001</v>
+        <v>0.074674</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0852292</v>
+        <v>0.0851855</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0941263</v>
+        <v>0.094359</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0738902</v>
+        <v>0.0739746</v>
       </c>
       <c r="D39" t="n">
-        <v>0.08546819999999999</v>
+        <v>0.0853946</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.09555909999999999</v>
+        <v>0.0951099</v>
       </c>
       <c r="C40" t="n">
-        <v>0.07405109999999999</v>
+        <v>0.0742902</v>
       </c>
       <c r="D40" t="n">
-        <v>0.085711</v>
+        <v>0.08577170000000001</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0977674</v>
+        <v>0.0973038</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0745735</v>
+        <v>0.0757032</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0861683</v>
+        <v>0.0861109</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.100986</v>
+        <v>0.102102</v>
       </c>
       <c r="C42" t="n">
-        <v>0.074867</v>
+        <v>0.07615769999999999</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0867189</v>
+        <v>0.08665150000000001</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.105298</v>
+        <v>0.106386</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0755565</v>
+        <v>0.0768021</v>
       </c>
       <c r="D43" t="n">
-        <v>0.08727219999999999</v>
+        <v>0.0871937</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.110893</v>
+        <v>0.109641</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0762574</v>
+        <v>0.07758660000000001</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0880523</v>
+        <v>0.0881311</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.117964</v>
+        <v>0.116372</v>
       </c>
       <c r="C45" t="n">
-        <v>0.07732600000000001</v>
+        <v>0.077621</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0890172</v>
+        <v>0.089041</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.126847</v>
+        <v>0.124968</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0787062</v>
+        <v>0.0788789</v>
       </c>
       <c r="D46" t="n">
-        <v>0.09056549999999999</v>
+        <v>0.09060989999999999</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.137526</v>
+        <v>0.135152</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0809868</v>
+        <v>0.08136740000000001</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0927832</v>
+        <v>0.09306540000000001</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.152452</v>
+        <v>0.149968</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0840258</v>
+        <v>0.0847682</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0967729</v>
+        <v>0.0969638</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.174754</v>
+        <v>0.172342</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0896081</v>
+        <v>0.0904373</v>
       </c>
       <c r="D49" t="n">
-        <v>0.102732</v>
+        <v>0.102926</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.204256</v>
+        <v>0.20427</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0985719</v>
+        <v>0.0998984</v>
       </c>
       <c r="D50" t="n">
-        <v>0.112398</v>
+        <v>0.112578</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.244632</v>
+        <v>0.247502</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0747591</v>
+        <v>0.0759705</v>
       </c>
       <c r="D51" t="n">
-        <v>0.08719</v>
+        <v>0.0874095</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.2949</v>
+        <v>0.298826</v>
       </c>
       <c r="C52" t="n">
-        <v>0.076627</v>
+        <v>0.076899</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0877844</v>
+        <v>0.0873813</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.09708600000000001</v>
+        <v>0.0966477</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0751399</v>
+        <v>0.07671749999999999</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0874055</v>
+        <v>0.08737780000000001</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.100285</v>
+        <v>0.0992913</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0765339</v>
+        <v>0.0778064</v>
       </c>
       <c r="D54" t="n">
-        <v>0.088007</v>
+        <v>0.0875071</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.101394</v>
+        <v>0.09991319999999999</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0775264</v>
+        <v>0.0764577</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0884263</v>
+        <v>0.08805010000000001</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.104561</v>
+        <v>0.103603</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0772658</v>
+        <v>0.0782981</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0889263</v>
+        <v>0.0893264</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.108878</v>
+        <v>0.10849</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0788029</v>
+        <v>0.07803259999999999</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0894185</v>
+        <v>0.0902028</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.112912</v>
+        <v>0.114571</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0785281</v>
+        <v>0.07904799999999999</v>
       </c>
       <c r="D58" t="n">
-        <v>0.09063350000000001</v>
+        <v>0.0912077</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.118721</v>
+        <v>0.121462</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0794917</v>
+        <v>0.08054840000000001</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0915458</v>
+        <v>0.0910155</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.127545</v>
+        <v>0.126761</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0834452</v>
+        <v>0.0810598</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0924479</v>
+        <v>0.0921698</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.139699</v>
+        <v>0.141178</v>
       </c>
       <c r="C61" t="n">
-        <v>0.08282920000000001</v>
+        <v>0.0847072</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0957538</v>
+        <v>0.0947745</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.153552</v>
+        <v>0.15032</v>
       </c>
       <c r="C62" t="n">
-        <v>0.08693289999999999</v>
+        <v>0.0882193</v>
       </c>
       <c r="D62" t="n">
-        <v>0.09939530000000001</v>
+        <v>0.0984366</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.174392</v>
+        <v>0.173071</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0927409</v>
+        <v>0.0936147</v>
       </c>
       <c r="D63" t="n">
-        <v>0.104814</v>
+        <v>0.104538</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.204003</v>
+        <v>0.201906</v>
       </c>
       <c r="C64" t="n">
-        <v>0.100747</v>
+        <v>0.101358</v>
       </c>
       <c r="D64" t="n">
-        <v>0.113332</v>
+        <v>0.112415</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.243649</v>
+        <v>0.251314</v>
       </c>
       <c r="C65" t="n">
-        <v>0.113664</v>
+        <v>0.11557</v>
       </c>
       <c r="D65" t="n">
-        <v>0.12807</v>
+        <v>0.126856</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.296978</v>
+        <v>0.296169</v>
       </c>
       <c r="C66" t="n">
-        <v>0.08480310000000001</v>
+        <v>0.0843093</v>
       </c>
       <c r="D66" t="n">
-        <v>0.094154</v>
+        <v>0.0951071</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.107442</v>
+        <v>0.108133</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0846634</v>
+        <v>0.0832963</v>
       </c>
       <c r="D67" t="n">
-        <v>0.09511940000000001</v>
+        <v>0.0949227</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.109298</v>
+        <v>0.10908</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0841253</v>
+        <v>0.08422979999999999</v>
       </c>
       <c r="D68" t="n">
-        <v>0.09522170000000001</v>
+        <v>0.09607019999999999</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.111278</v>
+        <v>0.112329</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0845991</v>
+        <v>0.0860974</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0959718</v>
+        <v>0.0955443</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.115507</v>
+        <v>0.113821</v>
       </c>
       <c r="C70" t="n">
-        <v>0.08566550000000001</v>
+        <v>0.08573450000000001</v>
       </c>
       <c r="D70" t="n">
-        <v>0.09764150000000001</v>
+        <v>0.0971656</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.11983</v>
+        <v>0.118011</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0856094</v>
+        <v>0.0865181</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0937701</v>
+        <v>0.0978001</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.122293</v>
+        <v>0.120262</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0866492</v>
+        <v>0.0869187</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0984641</v>
+        <v>0.0989155</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.128526</v>
+        <v>0.128682</v>
       </c>
       <c r="C73" t="n">
-        <v>0.08711679999999999</v>
+        <v>0.08745650000000001</v>
       </c>
       <c r="D73" t="n">
-        <v>0.09969069999999999</v>
+        <v>0.09929730000000001</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.138598</v>
+        <v>0.135618</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0887705</v>
+        <v>0.0902081</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0997417</v>
+        <v>0.100859</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.147276</v>
+        <v>0.145117</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0903863</v>
+        <v>0.0914345</v>
       </c>
       <c r="D75" t="n">
-        <v>0.103023</v>
+        <v>0.104096</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.160354</v>
+        <v>0.164713</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0944001</v>
+        <v>0.0955974</v>
       </c>
       <c r="D76" t="n">
-        <v>0.108102</v>
+        <v>0.106126</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.180475</v>
+        <v>0.183285</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0982377</v>
+        <v>0.0996678</v>
       </c>
       <c r="D77" t="n">
-        <v>0.10958</v>
+        <v>0.111836</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.213452</v>
+        <v>0.213967</v>
       </c>
       <c r="C78" t="n">
-        <v>0.105055</v>
+        <v>0.106932</v>
       </c>
       <c r="D78" t="n">
-        <v>0.118136</v>
+        <v>0.120508</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.242841</v>
+        <v>0.246556</v>
       </c>
       <c r="C79" t="n">
-        <v>0.11738</v>
+        <v>0.120231</v>
       </c>
       <c r="D79" t="n">
-        <v>0.132433</v>
+        <v>0.136814</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.294923</v>
+        <v>0.302232</v>
       </c>
       <c r="C80" t="n">
-        <v>0.09236560000000001</v>
+        <v>0.0909114</v>
       </c>
       <c r="D80" t="n">
-        <v>0.104091</v>
+        <v>0.102306</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.121557</v>
+        <v>0.122111</v>
       </c>
       <c r="C81" t="n">
-        <v>0.091789</v>
+        <v>0.0917502</v>
       </c>
       <c r="D81" t="n">
-        <v>0.10308</v>
+        <v>0.102897</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.121853</v>
+        <v>0.123804</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0932019</v>
+        <v>0.09364400000000001</v>
       </c>
       <c r="D82" t="n">
-        <v>0.105239</v>
+        <v>0.105537</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.125657</v>
+        <v>0.12429</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0942374</v>
+        <v>0.09493740000000001</v>
       </c>
       <c r="D83" t="n">
-        <v>0.106219</v>
+        <v>0.106669</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.127165</v>
+        <v>0.12716</v>
       </c>
       <c r="C84" t="n">
-        <v>0.09502919999999999</v>
+        <v>0.0954932</v>
       </c>
       <c r="D84" t="n">
-        <v>0.104816</v>
+        <v>0.10711</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.131577</v>
+        <v>0.13074</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0949122</v>
+        <v>0.0967258</v>
       </c>
       <c r="D85" t="n">
-        <v>0.108061</v>
+        <v>0.105834</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.137887</v>
+        <v>0.137982</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0973936</v>
+        <v>0.0976967</v>
       </c>
       <c r="D86" t="n">
-        <v>0.109172</v>
+        <v>0.107316</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.142688</v>
+        <v>0.144468</v>
       </c>
       <c r="C87" t="n">
-        <v>0.099536</v>
+        <v>0.09754119999999999</v>
       </c>
       <c r="D87" t="n">
-        <v>0.111814</v>
+        <v>0.108953</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.151485</v>
+        <v>0.151133</v>
       </c>
       <c r="C88" t="n">
-        <v>0.102183</v>
+        <v>0.0997348</v>
       </c>
       <c r="D88" t="n">
-        <v>0.113654</v>
+        <v>0.113092</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.165727</v>
+        <v>0.160625</v>
       </c>
       <c r="C89" t="n">
-        <v>0.104993</v>
+        <v>0.104039</v>
       </c>
       <c r="D89" t="n">
-        <v>0.115841</v>
+        <v>0.116531</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.177251</v>
+        <v>0.18022</v>
       </c>
       <c r="C90" t="n">
-        <v>0.109161</v>
+        <v>0.108908</v>
       </c>
       <c r="D90" t="n">
-        <v>0.120986</v>
+        <v>0.12141</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.197412</v>
+        <v>0.199754</v>
       </c>
       <c r="C91" t="n">
-        <v>0.114592</v>
+        <v>0.115163</v>
       </c>
       <c r="D91" t="n">
-        <v>0.127658</v>
+        <v>0.12763</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.232025</v>
+        <v>0.226469</v>
       </c>
       <c r="C92" t="n">
-        <v>0.120868</v>
+        <v>0.123556</v>
       </c>
       <c r="D92" t="n">
-        <v>0.135782</v>
+        <v>0.136823</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.265537</v>
+        <v>0.268427</v>
       </c>
       <c r="C93" t="n">
-        <v>0.134914</v>
+        <v>0.136869</v>
       </c>
       <c r="D93" t="n">
-        <v>0.149502</v>
+        <v>0.151399</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.330205</v>
+        <v>0.327873</v>
       </c>
       <c r="C94" t="n">
-        <v>0.101328</v>
+        <v>0.10305</v>
       </c>
       <c r="D94" t="n">
-        <v>0.114197</v>
+        <v>0.115248</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.133876</v>
+        <v>0.13542</v>
       </c>
       <c r="C95" t="n">
-        <v>0.103873</v>
+        <v>0.10424</v>
       </c>
       <c r="D95" t="n">
-        <v>0.116001</v>
+        <v>0.116727</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.136231</v>
+        <v>0.136407</v>
       </c>
       <c r="C96" t="n">
-        <v>0.105103</v>
+        <v>0.105604</v>
       </c>
       <c r="D96" t="n">
-        <v>0.117881</v>
+        <v>0.118211</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.140681</v>
+        <v>0.139934</v>
       </c>
       <c r="C97" t="n">
-        <v>0.105799</v>
+        <v>0.107142</v>
       </c>
       <c r="D97" t="n">
-        <v>0.119462</v>
+        <v>0.11995</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.145016</v>
+        <v>0.145743</v>
       </c>
       <c r="C98" t="n">
-        <v>0.109102</v>
+        <v>0.109109</v>
       </c>
       <c r="D98" t="n">
-        <v>0.120189</v>
+        <v>0.121807</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.148535</v>
+        <v>0.150996</v>
       </c>
       <c r="C99" t="n">
-        <v>0.11103</v>
+        <v>0.110252</v>
       </c>
       <c r="D99" t="n">
-        <v>0.123594</v>
+        <v>0.122681</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.153542</v>
+        <v>0.153657</v>
       </c>
       <c r="C100" t="n">
-        <v>0.112467</v>
+        <v>0.112284</v>
       </c>
       <c r="D100" t="n">
-        <v>0.125256</v>
+        <v>0.124622</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.160849</v>
+        <v>0.161591</v>
       </c>
       <c r="C101" t="n">
-        <v>0.114618</v>
+        <v>0.114311</v>
       </c>
       <c r="D101" t="n">
-        <v>0.126134</v>
+        <v>0.126851</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.169888</v>
+        <v>0.173053</v>
       </c>
       <c r="C102" t="n">
-        <v>0.116523</v>
+        <v>0.118107</v>
       </c>
       <c r="D102" t="n">
-        <v>0.129493</v>
+        <v>0.129728</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.183366</v>
+        <v>0.18028</v>
       </c>
       <c r="C103" t="n">
-        <v>0.120499</v>
+        <v>0.121875</v>
       </c>
       <c r="D103" t="n">
-        <v>0.133855</v>
+        <v>0.135285</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.200423</v>
+        <v>0.194239</v>
       </c>
       <c r="C104" t="n">
-        <v>0.127988</v>
+        <v>0.125816</v>
       </c>
       <c r="D104" t="n">
-        <v>0.141781</v>
+        <v>0.139506</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.224012</v>
+        <v>0.214175</v>
       </c>
       <c r="C105" t="n">
-        <v>0.136393</v>
+        <v>0.131442</v>
       </c>
       <c r="D105" t="n">
-        <v>0.150986</v>
+        <v>0.145722</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.261699</v>
+        <v>0.243348</v>
       </c>
       <c r="C106" t="n">
-        <v>0.146476</v>
+        <v>0.139466</v>
       </c>
       <c r="D106" t="n">
-        <v>0.162111</v>
+        <v>0.154461</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.306608</v>
+        <v>0.287467</v>
       </c>
       <c r="C107" t="n">
-        <v>0.160217</v>
+        <v>0.152819</v>
       </c>
       <c r="D107" t="n">
-        <v>0.176292</v>
+        <v>0.168484</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.36832</v>
+        <v>0.352655</v>
       </c>
       <c r="C108" t="n">
-        <v>0.119542</v>
+        <v>0.111762</v>
       </c>
       <c r="D108" t="n">
-        <v>0.132177</v>
+        <v>0.124411</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.452787</v>
+        <v>0.442111</v>
       </c>
       <c r="C109" t="n">
-        <v>0.122178</v>
+        <v>0.113669</v>
       </c>
       <c r="D109" t="n">
-        <v>0.134731</v>
+        <v>0.125642</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.157566</v>
+        <v>0.145286</v>
       </c>
       <c r="C110" t="n">
-        <v>0.124154</v>
+        <v>0.114678</v>
       </c>
       <c r="D110" t="n">
-        <v>0.137209</v>
+        <v>0.12714</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.161416</v>
+        <v>0.148357</v>
       </c>
       <c r="C111" t="n">
-        <v>0.126577</v>
+        <v>0.11638</v>
       </c>
       <c r="D111" t="n">
-        <v>0.139444</v>
+        <v>0.127942</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.166472</v>
+        <v>0.152759</v>
       </c>
       <c r="C112" t="n">
-        <v>0.128657</v>
+        <v>0.118043</v>
       </c>
       <c r="D112" t="n">
-        <v>0.141807</v>
+        <v>0.129506</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.171457</v>
+        <v>0.157366</v>
       </c>
       <c r="C113" t="n">
-        <v>0.130861</v>
+        <v>0.119914</v>
       </c>
       <c r="D113" t="n">
-        <v>0.144081</v>
+        <v>0.132009</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.176739</v>
+        <v>0.165832</v>
       </c>
       <c r="C114" t="n">
-        <v>0.133218</v>
+        <v>0.122028</v>
       </c>
       <c r="D114" t="n">
-        <v>0.147179</v>
+        <v>0.134259</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.184542</v>
+        <v>0.171052</v>
       </c>
       <c r="C115" t="n">
-        <v>0.135941</v>
+        <v>0.125222</v>
       </c>
       <c r="D115" t="n">
-        <v>0.149666</v>
+        <v>0.137134</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.193139</v>
+        <v>0.185075</v>
       </c>
       <c r="C116" t="n">
-        <v>0.139032</v>
+        <v>0.128487</v>
       </c>
       <c r="D116" t="n">
-        <v>0.152352</v>
+        <v>0.141994</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.207592</v>
+        <v>0.199457</v>
       </c>
       <c r="C117" t="n">
-        <v>0.142802</v>
+        <v>0.132734</v>
       </c>
       <c r="D117" t="n">
-        <v>0.156934</v>
+        <v>0.146947</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.220863</v>
+        <v>0.214563</v>
       </c>
       <c r="C118" t="n">
-        <v>0.147136</v>
+        <v>0.138672</v>
       </c>
       <c r="D118" t="n">
-        <v>0.160583</v>
+        <v>0.153134</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.243014</v>
+        <v>0.240006</v>
       </c>
       <c r="C119" t="n">
-        <v>0.153479</v>
+        <v>0.146206</v>
       </c>
       <c r="D119" t="n">
-        <v>0.167017</v>
+        <v>0.161678</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.274523</v>
+        <v>0.272939</v>
       </c>
       <c r="C120" t="n">
-        <v>0.16177</v>
+        <v>0.156432</v>
       </c>
       <c r="D120" t="n">
-        <v>0.176248</v>
+        <v>0.172169</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.31649</v>
+        <v>0.314795</v>
       </c>
       <c r="C121" t="n">
-        <v>0.174788</v>
+        <v>0.17179</v>
       </c>
       <c r="D121" t="n">
-        <v>0.190058</v>
+        <v>0.18874</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.373302</v>
+        <v>0.373293</v>
       </c>
       <c r="C122" t="n">
-        <v>0.195809</v>
+        <v>0.194935</v>
       </c>
       <c r="D122" t="n">
-        <v>0.214214</v>
+        <v>0.213057</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.465247</v>
+        <v>0.467335</v>
       </c>
       <c r="C123" t="n">
-        <v>0.144898</v>
+        <v>0.137485</v>
       </c>
       <c r="D123" t="n">
-        <v>0.154521</v>
+        <v>0.149244</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.177077</v>
+        <v>0.171377</v>
       </c>
       <c r="C124" t="n">
-        <v>0.143024</v>
+        <v>0.141553</v>
       </c>
       <c r="D124" t="n">
-        <v>0.157942</v>
+        <v>0.153629</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.181785</v>
+        <v>0.177201</v>
       </c>
       <c r="C125" t="n">
-        <v>0.148829</v>
+        <v>0.140687</v>
       </c>
       <c r="D125" t="n">
-        <v>0.159499</v>
+        <v>0.15772</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.186546</v>
+        <v>0.182107</v>
       </c>
       <c r="C126" t="n">
-        <v>0.149224</v>
+        <v>0.144073</v>
       </c>
       <c r="D126" t="n">
-        <v>0.160521</v>
+        <v>0.15871</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.184405</v>
+        <v>0.185211</v>
       </c>
       <c r="C127" t="n">
-        <v>0.148256</v>
+        <v>0.149526</v>
       </c>
       <c r="D127" t="n">
-        <v>0.161345</v>
+        <v>0.162367</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.194751</v>
+        <v>0.193911</v>
       </c>
       <c r="C128" t="n">
-        <v>0.150996</v>
+        <v>0.15241</v>
       </c>
       <c r="D128" t="n">
-        <v>0.167116</v>
+        <v>0.164974</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.204798</v>
+        <v>0.198293</v>
       </c>
       <c r="C129" t="n">
-        <v>0.154076</v>
+        <v>0.150802</v>
       </c>
       <c r="D129" t="n">
-        <v>0.169294</v>
+        <v>0.169292</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.210936</v>
+        <v>0.209767</v>
       </c>
       <c r="C130" t="n">
-        <v>0.158367</v>
+        <v>0.158229</v>
       </c>
       <c r="D130" t="n">
-        <v>0.17108</v>
+        <v>0.170927</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.226377</v>
+        <v>0.225077</v>
       </c>
       <c r="C131" t="n">
-        <v>0.164891</v>
+        <v>0.159418</v>
       </c>
       <c r="D131" t="n">
-        <v>0.185857</v>
+        <v>0.173139</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.239353</v>
+        <v>0.236909</v>
       </c>
       <c r="C132" t="n">
-        <v>0.165495</v>
+        <v>0.163042</v>
       </c>
       <c r="D132" t="n">
-        <v>0.186278</v>
+        <v>0.181416</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.270721</v>
+        <v>0.255955</v>
       </c>
       <c r="C133" t="n">
-        <v>0.16971</v>
+        <v>0.167509</v>
       </c>
       <c r="D133" t="n">
-        <v>0.188177</v>
+        <v>0.188814</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.292601</v>
+        <v>0.289347</v>
       </c>
       <c r="C134" t="n">
-        <v>0.178125</v>
+        <v>0.178108</v>
       </c>
       <c r="D134" t="n">
-        <v>0.197281</v>
+        <v>0.192564</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.328321</v>
+        <v>0.32734</v>
       </c>
       <c r="C135" t="n">
-        <v>0.190046</v>
+        <v>0.191572</v>
       </c>
       <c r="D135" t="n">
-        <v>0.213384</v>
+        <v>0.211532</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.390954</v>
+        <v>0.388583</v>
       </c>
       <c r="C136" t="n">
-        <v>0.209667</v>
+        <v>0.208636</v>
       </c>
       <c r="D136" t="n">
-        <v>0.23334</v>
+        <v>0.229423</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.486282</v>
+        <v>0.484208</v>
       </c>
       <c r="C137" t="n">
-        <v>0.253582</v>
+        <v>0.249854</v>
       </c>
       <c r="D137" t="n">
-        <v>0.294965</v>
+        <v>0.289938</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.319695</v>
+        <v>0.314566</v>
       </c>
       <c r="C138" t="n">
-        <v>0.256295</v>
+        <v>0.254381</v>
       </c>
       <c r="D138" t="n">
-        <v>0.294445</v>
+        <v>0.296405</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.324368</v>
+        <v>0.319145</v>
       </c>
       <c r="C139" t="n">
-        <v>0.260059</v>
+        <v>0.260431</v>
       </c>
       <c r="D139" t="n">
-        <v>0.292627</v>
+        <v>0.294443</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.325392</v>
+        <v>0.327461</v>
       </c>
       <c r="C140" t="n">
-        <v>0.262315</v>
+        <v>0.259476</v>
       </c>
       <c r="D140" t="n">
-        <v>0.29844</v>
+        <v>0.297303</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.331076</v>
+        <v>0.330366</v>
       </c>
       <c r="C141" t="n">
-        <v>0.266612</v>
+        <v>0.26506</v>
       </c>
       <c r="D141" t="n">
-        <v>0.302235</v>
+        <v>0.301518</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.336618</v>
+        <v>0.334603</v>
       </c>
       <c r="C142" t="n">
-        <v>0.265685</v>
+        <v>0.265531</v>
       </c>
       <c r="D142" t="n">
-        <v>0.306116</v>
+        <v>0.304448</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.344988</v>
+        <v>0.342356</v>
       </c>
       <c r="C143" t="n">
-        <v>0.270614</v>
+        <v>0.269286</v>
       </c>
       <c r="D143" t="n">
-        <v>0.30934</v>
+        <v>0.305021</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Scattered unsuccessful looukp.xlsx
+++ b/clang-x86/Scattered unsuccessful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0951256</v>
+        <v>0.0950805</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0736941</v>
+        <v>0.0736501</v>
       </c>
       <c r="D2" t="n">
-        <v>0.08515259999999999</v>
+        <v>0.0850974</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0997866</v>
+        <v>0.09991990000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>0.07436520000000001</v>
+        <v>0.07438019999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0859977</v>
+        <v>0.0859317</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.112186</v>
+        <v>0.112379</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0754194</v>
+        <v>0.0754054</v>
       </c>
       <c r="D4" t="n">
-        <v>0.08795</v>
+        <v>0.0877703</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.127993</v>
+        <v>0.12813</v>
       </c>
       <c r="C5" t="n">
-        <v>0.07676959999999999</v>
+        <v>0.07656209999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0898312</v>
+        <v>0.0898664</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.153605</v>
+        <v>0.153404</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0780431</v>
+        <v>0.0778895</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0921713</v>
+        <v>0.0919777</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.186061</v>
+        <v>0.185777</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0824826</v>
+        <v>0.08252230000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>0.09747889999999999</v>
+        <v>0.0976239</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.230012</v>
+        <v>0.229341</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0933012</v>
+        <v>0.09363630000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>0.114099</v>
+        <v>0.114552</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.274878</v>
+        <v>0.274496</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0714625</v>
+        <v>0.0714484</v>
       </c>
       <c r="D9" t="n">
-        <v>0.08332100000000001</v>
+        <v>0.0832558</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0858097</v>
+        <v>0.0861362</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0716919</v>
+        <v>0.07175189999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>0.08351989999999999</v>
+        <v>0.083594</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0867513</v>
+        <v>0.0870992</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0719094</v>
+        <v>0.07196710000000001</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0838882</v>
+        <v>0.08396969999999999</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.08809930000000001</v>
+        <v>0.08849219999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0721552</v>
+        <v>0.072216</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0840639</v>
+        <v>0.08418440000000001</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.09022579999999999</v>
+        <v>0.0905256</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0726321</v>
+        <v>0.0727087</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0844039</v>
+        <v>0.0844758</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0920936</v>
+        <v>0.0923233</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0729012</v>
+        <v>0.0730087</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0848632</v>
+        <v>0.0849434</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0950925</v>
+        <v>0.0955279</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0734918</v>
+        <v>0.073584</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0852961</v>
+        <v>0.0853689</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.10038</v>
+        <v>0.100574</v>
       </c>
       <c r="C16" t="n">
-        <v>0.07385940000000001</v>
+        <v>0.0739925</v>
       </c>
       <c r="D16" t="n">
-        <v>0.08586050000000001</v>
+        <v>0.08599270000000001</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.107192</v>
+        <v>0.107547</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0761404</v>
+        <v>0.0747366</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0868749</v>
+        <v>0.0870267</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.121589</v>
+        <v>0.118992</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0757317</v>
+        <v>0.0758152</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0881276</v>
+        <v>0.08828229999999999</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.142374</v>
+        <v>0.135638</v>
       </c>
       <c r="C19" t="n">
-        <v>0.079024</v>
+        <v>0.07763150000000001</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0899215</v>
+        <v>0.0900333</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.167479</v>
+        <v>0.159243</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0822938</v>
+        <v>0.0807432</v>
       </c>
       <c r="D20" t="n">
-        <v>0.09312529999999999</v>
+        <v>0.0933233</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.189411</v>
+        <v>0.18585</v>
       </c>
       <c r="C21" t="n">
-        <v>0.08764760000000001</v>
+        <v>0.0863104</v>
       </c>
       <c r="D21" t="n">
-        <v>0.09961200000000001</v>
+        <v>0.09981859999999999</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.22953</v>
+        <v>0.221734</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0990907</v>
+        <v>0.0993284</v>
       </c>
       <c r="D22" t="n">
-        <v>0.114245</v>
+        <v>0.114624</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.262697</v>
+        <v>0.263445</v>
       </c>
       <c r="C23" t="n">
-        <v>0.074114</v>
+        <v>0.07297049999999999</v>
       </c>
       <c r="D23" t="n">
-        <v>0.08451110000000001</v>
+        <v>0.0844047</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0899523</v>
+        <v>0.0897585</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0743197</v>
+        <v>0.0731887</v>
       </c>
       <c r="D24" t="n">
-        <v>0.085608</v>
+        <v>0.0846735</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0923248</v>
+        <v>0.09102490000000001</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0736665</v>
+        <v>0.0735991</v>
       </c>
       <c r="D25" t="n">
-        <v>0.08504539999999999</v>
+        <v>0.08490830000000001</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0924287</v>
+        <v>0.09240470000000001</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0751791</v>
+        <v>0.0739332</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0854164</v>
+        <v>0.08534319999999999</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.09428010000000001</v>
+        <v>0.0945452</v>
       </c>
       <c r="C27" t="n">
-        <v>0.07542749999999999</v>
+        <v>0.0743085</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0866215</v>
+        <v>0.0857353</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0970546</v>
+        <v>0.0973258</v>
       </c>
       <c r="C28" t="n">
-        <v>0.07583819999999999</v>
+        <v>0.0747013</v>
       </c>
       <c r="D28" t="n">
-        <v>0.08681410000000001</v>
+        <v>0.0861155</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.10104</v>
+        <v>0.100979</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0758996</v>
+        <v>0.0751521</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0878491</v>
+        <v>0.0867737</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.106412</v>
+        <v>0.106678</v>
       </c>
       <c r="C30" t="n">
-        <v>0.07580729999999999</v>
+        <v>0.0757308</v>
       </c>
       <c r="D30" t="n">
-        <v>0.08781460000000001</v>
+        <v>0.0874987</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.114528</v>
+        <v>0.114557</v>
       </c>
       <c r="C31" t="n">
-        <v>0.07723149999999999</v>
+        <v>0.07640669999999999</v>
       </c>
       <c r="D31" t="n">
-        <v>0.08886239999999999</v>
+        <v>0.0885133</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.123859</v>
+        <v>0.123798</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0780346</v>
+        <v>0.07797759999999999</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0896323</v>
+        <v>0.089516</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.135767</v>
+        <v>0.13577</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0803931</v>
+        <v>0.08015269999999999</v>
       </c>
       <c r="D33" t="n">
-        <v>0.09167989999999999</v>
+        <v>0.0915724</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.155121</v>
+        <v>0.154299</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0833906</v>
+        <v>0.0833087</v>
       </c>
       <c r="D34" t="n">
-        <v>0.09546880000000001</v>
+        <v>0.095416</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.176751</v>
+        <v>0.176851</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0894021</v>
+        <v>0.0891651</v>
       </c>
       <c r="D35" t="n">
-        <v>0.101941</v>
+        <v>0.101897</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.211229</v>
+        <v>0.210785</v>
       </c>
       <c r="C36" t="n">
-        <v>0.09933359999999999</v>
+        <v>0.09925340000000001</v>
       </c>
       <c r="D36" t="n">
-        <v>0.113113</v>
+        <v>0.11271</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.255467</v>
+        <v>0.25532</v>
       </c>
       <c r="C37" t="n">
-        <v>0.07344349999999999</v>
+        <v>0.0733012</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0849039</v>
+        <v>0.08482960000000001</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0928509</v>
+        <v>0.0924505</v>
       </c>
       <c r="C38" t="n">
-        <v>0.074674</v>
+        <v>0.0736783</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0851855</v>
+        <v>0.0851007</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.094359</v>
+        <v>0.093538</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0739746</v>
+        <v>0.0739287</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0853946</v>
+        <v>0.0860017</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0951099</v>
+        <v>0.09522600000000001</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0742902</v>
+        <v>0.07437299999999999</v>
       </c>
       <c r="D40" t="n">
-        <v>0.08577170000000001</v>
+        <v>0.08626300000000001</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0973038</v>
+        <v>0.09731380000000001</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0757032</v>
+        <v>0.07516109999999999</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0861109</v>
+        <v>0.0861751</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.102102</v>
+        <v>0.100354</v>
       </c>
       <c r="C42" t="n">
-        <v>0.07615769999999999</v>
+        <v>0.07503890000000001</v>
       </c>
       <c r="D42" t="n">
-        <v>0.08665150000000001</v>
+        <v>0.0865707</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.106386</v>
+        <v>0.104343</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0768021</v>
+        <v>0.07570590000000001</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0871937</v>
+        <v>0.08718919999999999</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.109641</v>
+        <v>0.109623</v>
       </c>
       <c r="C44" t="n">
-        <v>0.07758660000000001</v>
+        <v>0.07632079999999999</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0881311</v>
+        <v>0.0881387</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.116372</v>
+        <v>0.116838</v>
       </c>
       <c r="C45" t="n">
-        <v>0.077621</v>
+        <v>0.0775155</v>
       </c>
       <c r="D45" t="n">
-        <v>0.089041</v>
+        <v>0.08926290000000001</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.124968</v>
+        <v>0.124944</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0788789</v>
+        <v>0.0788199</v>
       </c>
       <c r="D46" t="n">
-        <v>0.09060989999999999</v>
+        <v>0.0907313</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.135152</v>
+        <v>0.135072</v>
       </c>
       <c r="C47" t="n">
-        <v>0.08136740000000001</v>
+        <v>0.0814681</v>
       </c>
       <c r="D47" t="n">
-        <v>0.09306540000000001</v>
+        <v>0.0929367</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.149968</v>
+        <v>0.150038</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0847682</v>
+        <v>0.08462649999999999</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0969638</v>
+        <v>0.0968929</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.172342</v>
+        <v>0.172592</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0904373</v>
+        <v>0.0906899</v>
       </c>
       <c r="D49" t="n">
-        <v>0.102926</v>
+        <v>0.102752</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.20427</v>
+        <v>0.204748</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0998984</v>
+        <v>0.0999951</v>
       </c>
       <c r="D50" t="n">
-        <v>0.112578</v>
+        <v>0.112512</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.247502</v>
+        <v>0.24923</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0759705</v>
+        <v>0.0750557</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0874095</v>
+        <v>0.08703859999999999</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.298826</v>
+        <v>0.294875</v>
       </c>
       <c r="C52" t="n">
-        <v>0.076899</v>
+        <v>0.0772819</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0873813</v>
+        <v>0.0882054</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0966477</v>
+        <v>0.097097</v>
       </c>
       <c r="C53" t="n">
-        <v>0.07671749999999999</v>
+        <v>0.0769725</v>
       </c>
       <c r="D53" t="n">
-        <v>0.08737780000000001</v>
+        <v>0.0875814</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0992913</v>
+        <v>0.0987441</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0778064</v>
+        <v>0.07789260000000001</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0875071</v>
+        <v>0.08804679999999999</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.09991319999999999</v>
+        <v>0.103879</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0764577</v>
+        <v>0.0774885</v>
       </c>
       <c r="D55" t="n">
-        <v>0.08805010000000001</v>
+        <v>0.0888</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.103603</v>
+        <v>0.104933</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0782981</v>
+        <v>0.07888770000000001</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0893264</v>
+        <v>0.0889194</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.10849</v>
+        <v>0.10721</v>
       </c>
       <c r="C57" t="n">
-        <v>0.07803259999999999</v>
+        <v>0.07885449999999999</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0902028</v>
+        <v>0.08922480000000001</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.114571</v>
+        <v>0.111886</v>
       </c>
       <c r="C58" t="n">
-        <v>0.07904799999999999</v>
+        <v>0.0797781</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0912077</v>
+        <v>0.09011959999999999</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.121462</v>
+        <v>0.119991</v>
       </c>
       <c r="C59" t="n">
-        <v>0.08054840000000001</v>
+        <v>0.08040219999999999</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0910155</v>
+        <v>0.0913553</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.126761</v>
+        <v>0.127701</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0810598</v>
+        <v>0.0823617</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0921698</v>
+        <v>0.0935255</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.141178</v>
+        <v>0.142512</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0847072</v>
+        <v>0.0839973</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0947745</v>
+        <v>0.0961572</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.15032</v>
+        <v>0.153109</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0882193</v>
+        <v>0.087132</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0984366</v>
+        <v>0.0995543</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.173071</v>
+        <v>0.175722</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0936147</v>
+        <v>0.09240180000000001</v>
       </c>
       <c r="D63" t="n">
-        <v>0.104538</v>
+        <v>0.106173</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.201906</v>
+        <v>0.20341</v>
       </c>
       <c r="C64" t="n">
-        <v>0.101358</v>
+        <v>0.102175</v>
       </c>
       <c r="D64" t="n">
-        <v>0.112415</v>
+        <v>0.113756</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.251314</v>
+        <v>0.243863</v>
       </c>
       <c r="C65" t="n">
-        <v>0.11557</v>
+        <v>0.115064</v>
       </c>
       <c r="D65" t="n">
-        <v>0.126856</v>
+        <v>0.128299</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.296169</v>
+        <v>0.296363</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0843093</v>
+        <v>0.0846914</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0951071</v>
+        <v>0.0952451</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.108133</v>
+        <v>0.107781</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0832963</v>
+        <v>0.0843063</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0949227</v>
+        <v>0.09676700000000001</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.10908</v>
+        <v>0.110816</v>
       </c>
       <c r="C68" t="n">
-        <v>0.08422979999999999</v>
+        <v>0.0849787</v>
       </c>
       <c r="D68" t="n">
-        <v>0.09607019999999999</v>
+        <v>0.0952493</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.112329</v>
+        <v>0.110903</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0860974</v>
+        <v>0.0849381</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0955443</v>
+        <v>0.0965333</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.113821</v>
+        <v>0.114746</v>
       </c>
       <c r="C70" t="n">
-        <v>0.08573450000000001</v>
+        <v>0.0857141</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0971656</v>
+        <v>0.0977732</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.118011</v>
+        <v>0.11761</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0865181</v>
+        <v>0.0863517</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0978001</v>
+        <v>0.0997159</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.120262</v>
+        <v>0.123833</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0869187</v>
+        <v>0.0869846</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0989155</v>
+        <v>0.09954209999999999</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.128682</v>
+        <v>0.128837</v>
       </c>
       <c r="C73" t="n">
-        <v>0.08745650000000001</v>
+        <v>0.0885666</v>
       </c>
       <c r="D73" t="n">
-        <v>0.09929730000000001</v>
+        <v>0.1008</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.135618</v>
+        <v>0.137563</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0902081</v>
+        <v>0.0891656</v>
       </c>
       <c r="D74" t="n">
-        <v>0.100859</v>
+        <v>0.101216</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.145117</v>
+        <v>0.145851</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0914345</v>
+        <v>0.0921583</v>
       </c>
       <c r="D75" t="n">
-        <v>0.104096</v>
+        <v>0.104044</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.164713</v>
+        <v>0.15983</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0955974</v>
+        <v>0.0948302</v>
       </c>
       <c r="D76" t="n">
-        <v>0.106126</v>
+        <v>0.10795</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.183285</v>
+        <v>0.180241</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0996678</v>
+        <v>0.0994153</v>
       </c>
       <c r="D77" t="n">
-        <v>0.111836</v>
+        <v>0.112583</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.213967</v>
+        <v>0.208575</v>
       </c>
       <c r="C78" t="n">
-        <v>0.106932</v>
+        <v>0.106358</v>
       </c>
       <c r="D78" t="n">
-        <v>0.120508</v>
+        <v>0.121154</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.246556</v>
+        <v>0.257413</v>
       </c>
       <c r="C79" t="n">
-        <v>0.120231</v>
+        <v>0.120105</v>
       </c>
       <c r="D79" t="n">
-        <v>0.136814</v>
+        <v>0.133394</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.302232</v>
+        <v>0.307158</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0909114</v>
+        <v>0.0919599</v>
       </c>
       <c r="D80" t="n">
-        <v>0.102306</v>
+        <v>0.103547</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.122111</v>
+        <v>0.120054</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0917502</v>
+        <v>0.09297030000000001</v>
       </c>
       <c r="D81" t="n">
-        <v>0.102897</v>
+        <v>0.104156</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.123804</v>
+        <v>0.12182</v>
       </c>
       <c r="C82" t="n">
-        <v>0.09364400000000001</v>
+        <v>0.0932819</v>
       </c>
       <c r="D82" t="n">
-        <v>0.105537</v>
+        <v>0.10471</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.12429</v>
+        <v>0.12384</v>
       </c>
       <c r="C83" t="n">
-        <v>0.09493740000000001</v>
+        <v>0.0937632</v>
       </c>
       <c r="D83" t="n">
-        <v>0.106669</v>
+        <v>0.105501</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.12716</v>
+        <v>0.126495</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0954932</v>
+        <v>0.094926</v>
       </c>
       <c r="D84" t="n">
-        <v>0.10711</v>
+        <v>0.106295</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.13074</v>
+        <v>0.130568</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0967258</v>
+        <v>0.0961385</v>
       </c>
       <c r="D85" t="n">
-        <v>0.105834</v>
+        <v>0.107631</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.137982</v>
+        <v>0.134944</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0976967</v>
+        <v>0.0974925</v>
       </c>
       <c r="D86" t="n">
-        <v>0.107316</v>
+        <v>0.109137</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.144468</v>
+        <v>0.141712</v>
       </c>
       <c r="C87" t="n">
-        <v>0.09754119999999999</v>
+        <v>0.0994472</v>
       </c>
       <c r="D87" t="n">
-        <v>0.108953</v>
+        <v>0.111319</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.151133</v>
+        <v>0.150408</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0997348</v>
+        <v>0.101695</v>
       </c>
       <c r="D88" t="n">
-        <v>0.113092</v>
+        <v>0.113787</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.160625</v>
+        <v>0.161327</v>
       </c>
       <c r="C89" t="n">
-        <v>0.104039</v>
+        <v>0.104823</v>
       </c>
       <c r="D89" t="n">
-        <v>0.116531</v>
+        <v>0.116941</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.18022</v>
+        <v>0.176176</v>
       </c>
       <c r="C90" t="n">
-        <v>0.108908</v>
+        <v>0.109699</v>
       </c>
       <c r="D90" t="n">
-        <v>0.12141</v>
+        <v>0.121334</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.199754</v>
+        <v>0.196998</v>
       </c>
       <c r="C91" t="n">
-        <v>0.115163</v>
+        <v>0.113811</v>
       </c>
       <c r="D91" t="n">
-        <v>0.12763</v>
+        <v>0.127794</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.226469</v>
+        <v>0.226923</v>
       </c>
       <c r="C92" t="n">
-        <v>0.123556</v>
+        <v>0.124295</v>
       </c>
       <c r="D92" t="n">
-        <v>0.136823</v>
+        <v>0.137546</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.268427</v>
+        <v>0.270197</v>
       </c>
       <c r="C93" t="n">
-        <v>0.136869</v>
+        <v>0.138829</v>
       </c>
       <c r="D93" t="n">
-        <v>0.151399</v>
+        <v>0.152207</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.327873</v>
+        <v>0.330683</v>
       </c>
       <c r="C94" t="n">
-        <v>0.10305</v>
+        <v>0.103684</v>
       </c>
       <c r="D94" t="n">
-        <v>0.115248</v>
+        <v>0.115773</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.13542</v>
+        <v>0.134305</v>
       </c>
       <c r="C95" t="n">
-        <v>0.10424</v>
+        <v>0.105348</v>
       </c>
       <c r="D95" t="n">
-        <v>0.116727</v>
+        <v>0.117584</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.136407</v>
+        <v>0.138035</v>
       </c>
       <c r="C96" t="n">
-        <v>0.105604</v>
+        <v>0.106806</v>
       </c>
       <c r="D96" t="n">
-        <v>0.118211</v>
+        <v>0.119417</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.139934</v>
+        <v>0.140736</v>
       </c>
       <c r="C97" t="n">
-        <v>0.107142</v>
+        <v>0.108845</v>
       </c>
       <c r="D97" t="n">
-        <v>0.11995</v>
+        <v>0.121454</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.145743</v>
+        <v>0.144667</v>
       </c>
       <c r="C98" t="n">
-        <v>0.109109</v>
+        <v>0.109052</v>
       </c>
       <c r="D98" t="n">
-        <v>0.121807</v>
+        <v>0.121416</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.150996</v>
+        <v>0.149274</v>
       </c>
       <c r="C99" t="n">
-        <v>0.110252</v>
+        <v>0.112696</v>
       </c>
       <c r="D99" t="n">
-        <v>0.122681</v>
+        <v>0.125088</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.153657</v>
+        <v>0.154637</v>
       </c>
       <c r="C100" t="n">
-        <v>0.112284</v>
+        <v>0.11494</v>
       </c>
       <c r="D100" t="n">
-        <v>0.124622</v>
+        <v>0.127425</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.161591</v>
+        <v>0.162571</v>
       </c>
       <c r="C101" t="n">
-        <v>0.114311</v>
+        <v>0.11613</v>
       </c>
       <c r="D101" t="n">
-        <v>0.126851</v>
+        <v>0.128754</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.173053</v>
+        <v>0.170856</v>
       </c>
       <c r="C102" t="n">
-        <v>0.118107</v>
+        <v>0.118726</v>
       </c>
       <c r="D102" t="n">
-        <v>0.129728</v>
+        <v>0.130984</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.18028</v>
+        <v>0.182075</v>
       </c>
       <c r="C103" t="n">
-        <v>0.121875</v>
+        <v>0.121765</v>
       </c>
       <c r="D103" t="n">
-        <v>0.135285</v>
+        <v>0.134496</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.194239</v>
+        <v>0.197604</v>
       </c>
       <c r="C104" t="n">
-        <v>0.125816</v>
+        <v>0.125986</v>
       </c>
       <c r="D104" t="n">
-        <v>0.139506</v>
+        <v>0.139147</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.214175</v>
+        <v>0.223775</v>
       </c>
       <c r="C105" t="n">
-        <v>0.131442</v>
+        <v>0.132055</v>
       </c>
       <c r="D105" t="n">
-        <v>0.145722</v>
+        <v>0.145248</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.243348</v>
+        <v>0.254162</v>
       </c>
       <c r="C106" t="n">
-        <v>0.139466</v>
+        <v>0.141727</v>
       </c>
       <c r="D106" t="n">
-        <v>0.154461</v>
+        <v>0.156373</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.287467</v>
+        <v>0.298157</v>
       </c>
       <c r="C107" t="n">
-        <v>0.152819</v>
+        <v>0.155238</v>
       </c>
       <c r="D107" t="n">
-        <v>0.168484</v>
+        <v>0.17079</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.352655</v>
+        <v>0.365689</v>
       </c>
       <c r="C108" t="n">
-        <v>0.111762</v>
+        <v>0.113133</v>
       </c>
       <c r="D108" t="n">
-        <v>0.124411</v>
+        <v>0.125513</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.442111</v>
+        <v>0.457986</v>
       </c>
       <c r="C109" t="n">
-        <v>0.113669</v>
+        <v>0.11463</v>
       </c>
       <c r="D109" t="n">
-        <v>0.125642</v>
+        <v>0.126807</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.145286</v>
+        <v>0.146912</v>
       </c>
       <c r="C110" t="n">
-        <v>0.114678</v>
+        <v>0.11561</v>
       </c>
       <c r="D110" t="n">
-        <v>0.12714</v>
+        <v>0.128565</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.148357</v>
+        <v>0.14976</v>
       </c>
       <c r="C111" t="n">
-        <v>0.11638</v>
+        <v>0.117062</v>
       </c>
       <c r="D111" t="n">
-        <v>0.127942</v>
+        <v>0.130231</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.152759</v>
+        <v>0.15487</v>
       </c>
       <c r="C112" t="n">
-        <v>0.118043</v>
+        <v>0.119205</v>
       </c>
       <c r="D112" t="n">
-        <v>0.129506</v>
+        <v>0.130995</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.157366</v>
+        <v>0.158998</v>
       </c>
       <c r="C113" t="n">
-        <v>0.119914</v>
+        <v>0.12082</v>
       </c>
       <c r="D113" t="n">
-        <v>0.132009</v>
+        <v>0.133961</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.165832</v>
+        <v>0.164655</v>
       </c>
       <c r="C114" t="n">
-        <v>0.122028</v>
+        <v>0.12322</v>
       </c>
       <c r="D114" t="n">
-        <v>0.134259</v>
+        <v>0.136556</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.171052</v>
+        <v>0.17285</v>
       </c>
       <c r="C115" t="n">
-        <v>0.125222</v>
+        <v>0.125654</v>
       </c>
       <c r="D115" t="n">
-        <v>0.137134</v>
+        <v>0.140456</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.185075</v>
+        <v>0.183302</v>
       </c>
       <c r="C116" t="n">
-        <v>0.128487</v>
+        <v>0.129788</v>
       </c>
       <c r="D116" t="n">
-        <v>0.141994</v>
+        <v>0.143902</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.199457</v>
+        <v>0.196888</v>
       </c>
       <c r="C117" t="n">
-        <v>0.132734</v>
+        <v>0.134419</v>
       </c>
       <c r="D117" t="n">
-        <v>0.146947</v>
+        <v>0.14873</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.214563</v>
+        <v>0.214557</v>
       </c>
       <c r="C118" t="n">
-        <v>0.138672</v>
+        <v>0.140174</v>
       </c>
       <c r="D118" t="n">
-        <v>0.153134</v>
+        <v>0.155532</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.240006</v>
+        <v>0.238946</v>
       </c>
       <c r="C119" t="n">
-        <v>0.146206</v>
+        <v>0.148679</v>
       </c>
       <c r="D119" t="n">
-        <v>0.161678</v>
+        <v>0.164307</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.272939</v>
+        <v>0.270184</v>
       </c>
       <c r="C120" t="n">
-        <v>0.156432</v>
+        <v>0.15958</v>
       </c>
       <c r="D120" t="n">
-        <v>0.172169</v>
+        <v>0.175471</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.314795</v>
+        <v>0.315714</v>
       </c>
       <c r="C121" t="n">
-        <v>0.17179</v>
+        <v>0.176002</v>
       </c>
       <c r="D121" t="n">
-        <v>0.18874</v>
+        <v>0.192993</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.373293</v>
+        <v>0.388812</v>
       </c>
       <c r="C122" t="n">
-        <v>0.194935</v>
+        <v>0.199616</v>
       </c>
       <c r="D122" t="n">
-        <v>0.213057</v>
+        <v>0.21672</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.467335</v>
+        <v>0.484482</v>
       </c>
       <c r="C123" t="n">
-        <v>0.137485</v>
+        <v>0.145923</v>
       </c>
       <c r="D123" t="n">
-        <v>0.149244</v>
+        <v>0.154271</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.171377</v>
+        <v>0.181231</v>
       </c>
       <c r="C124" t="n">
-        <v>0.141553</v>
+        <v>0.147442</v>
       </c>
       <c r="D124" t="n">
-        <v>0.153629</v>
+        <v>0.164416</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.177201</v>
+        <v>0.181891</v>
       </c>
       <c r="C125" t="n">
-        <v>0.140687</v>
+        <v>0.148901</v>
       </c>
       <c r="D125" t="n">
-        <v>0.15772</v>
+        <v>0.165014</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.182107</v>
+        <v>0.188542</v>
       </c>
       <c r="C126" t="n">
-        <v>0.144073</v>
+        <v>0.156605</v>
       </c>
       <c r="D126" t="n">
-        <v>0.15871</v>
+        <v>0.169047</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.185211</v>
+        <v>0.199057</v>
       </c>
       <c r="C127" t="n">
-        <v>0.149526</v>
+        <v>0.153962</v>
       </c>
       <c r="D127" t="n">
-        <v>0.162367</v>
+        <v>0.170857</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.193911</v>
+        <v>0.195401</v>
       </c>
       <c r="C128" t="n">
-        <v>0.15241</v>
+        <v>0.155948</v>
       </c>
       <c r="D128" t="n">
-        <v>0.164974</v>
+        <v>0.173145</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.198293</v>
+        <v>0.207501</v>
       </c>
       <c r="C129" t="n">
-        <v>0.150802</v>
+        <v>0.158721</v>
       </c>
       <c r="D129" t="n">
-        <v>0.169292</v>
+        <v>0.173792</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.209767</v>
+        <v>0.216788</v>
       </c>
       <c r="C130" t="n">
-        <v>0.158229</v>
+        <v>0.160693</v>
       </c>
       <c r="D130" t="n">
-        <v>0.170927</v>
+        <v>0.183683</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.225077</v>
+        <v>0.232257</v>
       </c>
       <c r="C131" t="n">
-        <v>0.159418</v>
+        <v>0.164028</v>
       </c>
       <c r="D131" t="n">
-        <v>0.173139</v>
+        <v>0.182556</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.236909</v>
+        <v>0.242786</v>
       </c>
       <c r="C132" t="n">
-        <v>0.163042</v>
+        <v>0.170802</v>
       </c>
       <c r="D132" t="n">
-        <v>0.181416</v>
+        <v>0.190669</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.255955</v>
+        <v>0.263993</v>
       </c>
       <c r="C133" t="n">
-        <v>0.167509</v>
+        <v>0.17968</v>
       </c>
       <c r="D133" t="n">
-        <v>0.188814</v>
+        <v>0.194166</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.289347</v>
+        <v>0.300376</v>
       </c>
       <c r="C134" t="n">
-        <v>0.178108</v>
+        <v>0.191099</v>
       </c>
       <c r="D134" t="n">
-        <v>0.192564</v>
+        <v>0.209668</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.32734</v>
+        <v>0.334114</v>
       </c>
       <c r="C135" t="n">
-        <v>0.191572</v>
+        <v>0.19798</v>
       </c>
       <c r="D135" t="n">
-        <v>0.211532</v>
+        <v>0.217276</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.388583</v>
+        <v>0.406338</v>
       </c>
       <c r="C136" t="n">
-        <v>0.208636</v>
+        <v>0.218251</v>
       </c>
       <c r="D136" t="n">
-        <v>0.229423</v>
+        <v>0.240331</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.484208</v>
+        <v>0.499704</v>
       </c>
       <c r="C137" t="n">
-        <v>0.249854</v>
+        <v>0.264083</v>
       </c>
       <c r="D137" t="n">
-        <v>0.289938</v>
+        <v>0.305195</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.314566</v>
+        <v>0.332805</v>
       </c>
       <c r="C138" t="n">
-        <v>0.254381</v>
+        <v>0.272835</v>
       </c>
       <c r="D138" t="n">
-        <v>0.296405</v>
+        <v>0.313514</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.319145</v>
+        <v>0.339861</v>
       </c>
       <c r="C139" t="n">
-        <v>0.260431</v>
+        <v>0.270486</v>
       </c>
       <c r="D139" t="n">
-        <v>0.294443</v>
+        <v>0.310211</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.327461</v>
+        <v>0.344285</v>
       </c>
       <c r="C140" t="n">
-        <v>0.259476</v>
+        <v>0.279516</v>
       </c>
       <c r="D140" t="n">
-        <v>0.297303</v>
+        <v>0.31556</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.330366</v>
+        <v>0.346434</v>
       </c>
       <c r="C141" t="n">
-        <v>0.26506</v>
+        <v>0.281722</v>
       </c>
       <c r="D141" t="n">
-        <v>0.301518</v>
+        <v>0.320655</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.334603</v>
+        <v>0.357493</v>
       </c>
       <c r="C142" t="n">
-        <v>0.265531</v>
+        <v>0.280954</v>
       </c>
       <c r="D142" t="n">
-        <v>0.304448</v>
+        <v>0.323248</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.342356</v>
+        <v>0.356752</v>
       </c>
       <c r="C143" t="n">
-        <v>0.269286</v>
+        <v>0.283047</v>
       </c>
       <c r="D143" t="n">
-        <v>0.305021</v>
+        <v>0.323644</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Scattered unsuccessful looukp.xlsx
+++ b/clang-x86/Scattered unsuccessful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0950805</v>
+        <v>0.0949493</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0736501</v>
+        <v>0.07389950000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0850974</v>
+        <v>0.166057</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.09991990000000001</v>
+        <v>0.102794</v>
       </c>
       <c r="C3" t="n">
-        <v>0.07438019999999999</v>
+        <v>0.074839</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0859317</v>
+        <v>0.171767</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.112379</v>
+        <v>0.10969</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0754054</v>
+        <v>0.0757811</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0877703</v>
+        <v>0.177403</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.12813</v>
+        <v>0.126938</v>
       </c>
       <c r="C5" t="n">
-        <v>0.07656209999999999</v>
+        <v>0.0772187</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0898664</v>
+        <v>0.186885</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.153404</v>
+        <v>0.156781</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0778895</v>
+        <v>0.078985</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0919777</v>
+        <v>0.195427</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.185777</v>
+        <v>0.193786</v>
       </c>
       <c r="C7" t="n">
-        <v>0.08252230000000001</v>
+        <v>0.0834579</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0976239</v>
+        <v>0.145954</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.229341</v>
+        <v>0.234889</v>
       </c>
       <c r="C8" t="n">
-        <v>0.09363630000000001</v>
+        <v>0.0953315</v>
       </c>
       <c r="D8" t="n">
-        <v>0.114552</v>
+        <v>0.1515</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.274496</v>
+        <v>0.27472</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0714484</v>
+        <v>0.0713073</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0832558</v>
+        <v>0.158526</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0861362</v>
+        <v>0.08587259999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>0.07175189999999999</v>
+        <v>0.07149270000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>0.083594</v>
+        <v>0.166567</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0870992</v>
+        <v>0.0869086</v>
       </c>
       <c r="C11" t="n">
-        <v>0.07196710000000001</v>
+        <v>0.0716116</v>
       </c>
       <c r="D11" t="n">
-        <v>0.08396969999999999</v>
+        <v>0.172922</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.08849219999999999</v>
+        <v>0.08832959999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>0.072216</v>
+        <v>0.0719841</v>
       </c>
       <c r="D12" t="n">
-        <v>0.08418440000000001</v>
+        <v>0.179355</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0905256</v>
+        <v>0.0902843</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0727087</v>
+        <v>0.07242510000000001</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0844758</v>
+        <v>0.187047</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0923233</v>
+        <v>0.09242690000000001</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0730087</v>
+        <v>0.0727772</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0849434</v>
+        <v>0.19427</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0955279</v>
+        <v>0.0953373</v>
       </c>
       <c r="C15" t="n">
-        <v>0.073584</v>
+        <v>0.0732873</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0853689</v>
+        <v>0.200476</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.100574</v>
+        <v>0.101149</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0739925</v>
+        <v>0.0739853</v>
       </c>
       <c r="D16" t="n">
-        <v>0.08599270000000001</v>
+        <v>0.206786</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.107547</v>
+        <v>0.107993</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0747366</v>
+        <v>0.0748581</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0870267</v>
+        <v>0.214601</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.118992</v>
+        <v>0.119381</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0758152</v>
+        <v>0.07627929999999999</v>
       </c>
       <c r="D18" t="n">
-        <v>0.08828229999999999</v>
+        <v>0.219087</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.135638</v>
+        <v>0.135481</v>
       </c>
       <c r="C19" t="n">
-        <v>0.07763150000000001</v>
+        <v>0.07825260000000001</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0900333</v>
+        <v>0.224533</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.159243</v>
+        <v>0.15809</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0807432</v>
+        <v>0.0809701</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0933233</v>
+        <v>0.231322</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.18585</v>
+        <v>0.183694</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0863104</v>
+        <v>0.08670509999999999</v>
       </c>
       <c r="D21" t="n">
-        <v>0.09981859999999999</v>
+        <v>0.164585</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.221734</v>
+        <v>0.217271</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0993284</v>
+        <v>0.0994602</v>
       </c>
       <c r="D22" t="n">
-        <v>0.114624</v>
+        <v>0.170746</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.263445</v>
+        <v>0.259085</v>
       </c>
       <c r="C23" t="n">
-        <v>0.07297049999999999</v>
+        <v>0.0728627</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0844047</v>
+        <v>0.177274</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0897585</v>
+        <v>0.08991689999999999</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0731887</v>
+        <v>0.07301970000000001</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0846735</v>
+        <v>0.184653</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.09102490000000001</v>
+        <v>0.0909797</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0735991</v>
+        <v>0.0734399</v>
       </c>
       <c r="D25" t="n">
-        <v>0.08490830000000001</v>
+        <v>0.190945</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.09240470000000001</v>
+        <v>0.0923657</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0739332</v>
+        <v>0.0738284</v>
       </c>
       <c r="D26" t="n">
-        <v>0.08534319999999999</v>
+        <v>0.198674</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0945452</v>
+        <v>0.094567</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0743085</v>
+        <v>0.0741802</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0857353</v>
+        <v>0.205109</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0973258</v>
+        <v>0.0975654</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0747013</v>
+        <v>0.07465860000000001</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0861155</v>
+        <v>0.212952</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.100979</v>
+        <v>0.101323</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0751521</v>
+        <v>0.07511420000000001</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0867737</v>
+        <v>0.218775</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.106678</v>
+        <v>0.106277</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0757308</v>
+        <v>0.0758268</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0874987</v>
+        <v>0.22396</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.114557</v>
+        <v>0.114623</v>
       </c>
       <c r="C31" t="n">
-        <v>0.07640669999999999</v>
+        <v>0.0766053</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0885133</v>
+        <v>0.232263</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.123798</v>
+        <v>0.122096</v>
       </c>
       <c r="C32" t="n">
-        <v>0.07797759999999999</v>
+        <v>0.0782056</v>
       </c>
       <c r="D32" t="n">
-        <v>0.089516</v>
+        <v>0.237178</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.13577</v>
+        <v>0.13587</v>
       </c>
       <c r="C33" t="n">
-        <v>0.08015269999999999</v>
+        <v>0.08036</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0915724</v>
+        <v>0.242716</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.154299</v>
+        <v>0.154212</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0833087</v>
+        <v>0.0832683</v>
       </c>
       <c r="D34" t="n">
-        <v>0.095416</v>
+        <v>0.248813</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.176851</v>
+        <v>0.176207</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0891651</v>
+        <v>0.0894176</v>
       </c>
       <c r="D35" t="n">
-        <v>0.101897</v>
+        <v>0.177735</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.210785</v>
+        <v>0.206639</v>
       </c>
       <c r="C36" t="n">
-        <v>0.09925340000000001</v>
+        <v>0.0994152</v>
       </c>
       <c r="D36" t="n">
-        <v>0.11271</v>
+        <v>0.184822</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.25532</v>
+        <v>0.251805</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0733012</v>
+        <v>0.0731995</v>
       </c>
       <c r="D37" t="n">
-        <v>0.08482960000000001</v>
+        <v>0.191193</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0924505</v>
+        <v>0.0924314</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0736783</v>
+        <v>0.07360940000000001</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0851007</v>
+        <v>0.198158</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.093538</v>
+        <v>0.093651</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0739287</v>
+        <v>0.0739615</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0860017</v>
+        <v>0.205538</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.09522600000000001</v>
+        <v>0.09541470000000001</v>
       </c>
       <c r="C40" t="n">
-        <v>0.07437299999999999</v>
+        <v>0.0741129</v>
       </c>
       <c r="D40" t="n">
-        <v>0.08626300000000001</v>
+        <v>0.212313</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.09731380000000001</v>
+        <v>0.0982866</v>
       </c>
       <c r="C41" t="n">
-        <v>0.07516109999999999</v>
+        <v>0.07453799999999999</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0861751</v>
+        <v>0.21921</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.100354</v>
+        <v>0.101009</v>
       </c>
       <c r="C42" t="n">
-        <v>0.07503890000000001</v>
+        <v>0.0749099</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0865707</v>
+        <v>0.22555</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.104343</v>
+        <v>0.104851</v>
       </c>
       <c r="C43" t="n">
-        <v>0.07570590000000001</v>
+        <v>0.0756173</v>
       </c>
       <c r="D43" t="n">
-        <v>0.08718919999999999</v>
+        <v>0.232131</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.109623</v>
+        <v>0.110064</v>
       </c>
       <c r="C44" t="n">
-        <v>0.07632079999999999</v>
+        <v>0.0762673</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0881387</v>
+        <v>0.238177</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.116838</v>
+        <v>0.116021</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0775155</v>
+        <v>0.07742060000000001</v>
       </c>
       <c r="D45" t="n">
-        <v>0.08926290000000001</v>
+        <v>0.243439</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.124944</v>
+        <v>0.125124</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0788199</v>
+        <v>0.0789219</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0907313</v>
+        <v>0.248108</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.135072</v>
+        <v>0.136185</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0814681</v>
+        <v>0.0817595</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0929367</v>
+        <v>0.254305</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.150038</v>
+        <v>0.151062</v>
       </c>
       <c r="C48" t="n">
-        <v>0.08462649999999999</v>
+        <v>0.0851359</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0968929</v>
+        <v>0.259688</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.172592</v>
+        <v>0.172107</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0906899</v>
+        <v>0.09034970000000001</v>
       </c>
       <c r="D49" t="n">
-        <v>0.102752</v>
+        <v>0.266111</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.204748</v>
+        <v>0.203089</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0999951</v>
+        <v>0.0995019</v>
       </c>
       <c r="D50" t="n">
-        <v>0.112512</v>
+        <v>0.184101</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.24923</v>
+        <v>0.245323</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0750557</v>
+        <v>0.0768109</v>
       </c>
       <c r="D51" t="n">
-        <v>0.08703859999999999</v>
+        <v>0.190907</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.294875</v>
+        <v>0.294329</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0772819</v>
+        <v>0.0759392</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0882054</v>
+        <v>0.197358</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.097097</v>
+        <v>0.09661</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0769725</v>
+        <v>0.0765571</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0875814</v>
+        <v>0.203864</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0987441</v>
+        <v>0.0984544</v>
       </c>
       <c r="C54" t="n">
-        <v>0.07789260000000001</v>
+        <v>0.0778312</v>
       </c>
       <c r="D54" t="n">
-        <v>0.08804679999999999</v>
+        <v>0.21017</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.103879</v>
+        <v>0.102155</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0774885</v>
+        <v>0.077753</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0888</v>
+        <v>0.216941</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.104933</v>
+        <v>0.103498</v>
       </c>
       <c r="C56" t="n">
-        <v>0.07888770000000001</v>
+        <v>0.0783204</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0889194</v>
+        <v>0.222742</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.10721</v>
+        <v>0.106481</v>
       </c>
       <c r="C57" t="n">
-        <v>0.07885449999999999</v>
+        <v>0.0783513</v>
       </c>
       <c r="D57" t="n">
-        <v>0.08922480000000001</v>
+        <v>0.228131</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.111886</v>
+        <v>0.111653</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0797781</v>
+        <v>0.08028689999999999</v>
       </c>
       <c r="D58" t="n">
-        <v>0.09011959999999999</v>
+        <v>0.233954</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.119991</v>
+        <v>0.116868</v>
       </c>
       <c r="C59" t="n">
-        <v>0.08040219999999999</v>
+        <v>0.0798972</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0913553</v>
+        <v>0.239423</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.127701</v>
+        <v>0.123581</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0823617</v>
+        <v>0.08097799999999999</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0935255</v>
+        <v>0.245457</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.142512</v>
+        <v>0.135784</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0839973</v>
+        <v>0.0830325</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0961572</v>
+        <v>0.250425</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.153109</v>
+        <v>0.150256</v>
       </c>
       <c r="C62" t="n">
-        <v>0.087132</v>
+        <v>0.08627899999999999</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0995543</v>
+        <v>0.257933</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.175722</v>
+        <v>0.169204</v>
       </c>
       <c r="C63" t="n">
-        <v>0.09240180000000001</v>
+        <v>0.09225659999999999</v>
       </c>
       <c r="D63" t="n">
-        <v>0.106173</v>
+        <v>0.263516</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.20341</v>
+        <v>0.201872</v>
       </c>
       <c r="C64" t="n">
-        <v>0.102175</v>
+        <v>0.100681</v>
       </c>
       <c r="D64" t="n">
-        <v>0.113756</v>
+        <v>0.191942</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.243863</v>
+        <v>0.23811</v>
       </c>
       <c r="C65" t="n">
-        <v>0.115064</v>
+        <v>0.11555</v>
       </c>
       <c r="D65" t="n">
-        <v>0.128299</v>
+        <v>0.199738</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.296363</v>
+        <v>0.284603</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0846914</v>
+        <v>0.0830853</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0952451</v>
+        <v>0.206379</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.107781</v>
+        <v>0.107093</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0843063</v>
+        <v>0.08433939999999999</v>
       </c>
       <c r="D67" t="n">
-        <v>0.09676700000000001</v>
+        <v>0.214925</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.110816</v>
+        <v>0.109248</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0849787</v>
+        <v>0.08449039999999999</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0952493</v>
+        <v>0.223322</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.110903</v>
+        <v>0.112946</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0849381</v>
+        <v>0.0866147</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0965333</v>
+        <v>0.230477</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.114746</v>
+        <v>0.115173</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0857141</v>
+        <v>0.08543779999999999</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0977732</v>
+        <v>0.241294</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.11761</v>
+        <v>0.11736</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0863517</v>
+        <v>0.08594359999999999</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0997159</v>
+        <v>0.255053</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.123833</v>
+        <v>0.124944</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0869846</v>
+        <v>0.0877536</v>
       </c>
       <c r="D72" t="n">
-        <v>0.09954209999999999</v>
+        <v>0.266741</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.128837</v>
+        <v>0.131075</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0885666</v>
+        <v>0.08822430000000001</v>
       </c>
       <c r="D73" t="n">
-        <v>0.1008</v>
+        <v>0.276594</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.137563</v>
+        <v>0.139623</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0891656</v>
+        <v>0.0897294</v>
       </c>
       <c r="D74" t="n">
-        <v>0.101216</v>
+        <v>0.289546</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.145851</v>
+        <v>0.14347</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0921583</v>
+        <v>0.09169480000000001</v>
       </c>
       <c r="D75" t="n">
-        <v>0.104044</v>
+        <v>0.302759</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.15983</v>
+        <v>0.159481</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0948302</v>
+        <v>0.0948156</v>
       </c>
       <c r="D76" t="n">
-        <v>0.10795</v>
+        <v>0.316881</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.180241</v>
+        <v>0.186199</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0994153</v>
+        <v>0.0997939</v>
       </c>
       <c r="D77" t="n">
-        <v>0.112583</v>
+        <v>0.336848</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.208575</v>
+        <v>0.204373</v>
       </c>
       <c r="C78" t="n">
-        <v>0.106358</v>
+        <v>0.106817</v>
       </c>
       <c r="D78" t="n">
-        <v>0.121154</v>
+        <v>0.262818</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.257413</v>
+        <v>0.24057</v>
       </c>
       <c r="C79" t="n">
-        <v>0.120105</v>
+        <v>0.11896</v>
       </c>
       <c r="D79" t="n">
-        <v>0.133394</v>
+        <v>0.276778</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.307158</v>
+        <v>0.295241</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0919599</v>
+        <v>0.0925499</v>
       </c>
       <c r="D80" t="n">
-        <v>0.103547</v>
+        <v>0.291305</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.120054</v>
+        <v>0.120225</v>
       </c>
       <c r="C81" t="n">
-        <v>0.09297030000000001</v>
+        <v>0.0925338</v>
       </c>
       <c r="D81" t="n">
-        <v>0.104156</v>
+        <v>0.309762</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.12182</v>
+        <v>0.12196</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0932819</v>
+        <v>0.09325600000000001</v>
       </c>
       <c r="D82" t="n">
-        <v>0.10471</v>
+        <v>0.327674</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.12384</v>
+        <v>0.119874</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0937632</v>
+        <v>0.09392300000000001</v>
       </c>
       <c r="D83" t="n">
-        <v>0.105501</v>
+        <v>0.343839</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.126495</v>
+        <v>0.126738</v>
       </c>
       <c r="C84" t="n">
-        <v>0.094926</v>
+        <v>0.09464839999999999</v>
       </c>
       <c r="D84" t="n">
-        <v>0.106295</v>
+        <v>0.365844</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.130568</v>
+        <v>0.132728</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0961385</v>
+        <v>0.0959407</v>
       </c>
       <c r="D85" t="n">
-        <v>0.107631</v>
+        <v>0.386887</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.134944</v>
+        <v>0.13473</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0974925</v>
+        <v>0.0969284</v>
       </c>
       <c r="D86" t="n">
-        <v>0.109137</v>
+        <v>0.40929</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.141712</v>
+        <v>0.135553</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0994472</v>
+        <v>0.098624</v>
       </c>
       <c r="D87" t="n">
-        <v>0.111319</v>
+        <v>0.429708</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.150408</v>
+        <v>0.143759</v>
       </c>
       <c r="C88" t="n">
-        <v>0.101695</v>
+        <v>0.0984244</v>
       </c>
       <c r="D88" t="n">
-        <v>0.113787</v>
+        <v>0.453154</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.161327</v>
+        <v>0.160609</v>
       </c>
       <c r="C89" t="n">
-        <v>0.104823</v>
+        <v>0.104069</v>
       </c>
       <c r="D89" t="n">
-        <v>0.116941</v>
+        <v>0.474952</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.176176</v>
+        <v>0.175111</v>
       </c>
       <c r="C90" t="n">
-        <v>0.109699</v>
+        <v>0.108112</v>
       </c>
       <c r="D90" t="n">
-        <v>0.121334</v>
+        <v>0.498516</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.196998</v>
+        <v>0.195586</v>
       </c>
       <c r="C91" t="n">
-        <v>0.113811</v>
+        <v>0.112065</v>
       </c>
       <c r="D91" t="n">
-        <v>0.127794</v>
+        <v>0.523874</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.226923</v>
+        <v>0.23041</v>
       </c>
       <c r="C92" t="n">
-        <v>0.124295</v>
+        <v>0.120509</v>
       </c>
       <c r="D92" t="n">
-        <v>0.137546</v>
+        <v>0.396417</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.270197</v>
+        <v>0.266904</v>
       </c>
       <c r="C93" t="n">
-        <v>0.138829</v>
+        <v>0.134174</v>
       </c>
       <c r="D93" t="n">
-        <v>0.152207</v>
+        <v>0.407399</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.330683</v>
+        <v>0.331532</v>
       </c>
       <c r="C94" t="n">
-        <v>0.103684</v>
+        <v>0.101751</v>
       </c>
       <c r="D94" t="n">
-        <v>0.115773</v>
+        <v>0.432669</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.134305</v>
+        <v>0.134994</v>
       </c>
       <c r="C95" t="n">
-        <v>0.105348</v>
+        <v>0.1044</v>
       </c>
       <c r="D95" t="n">
-        <v>0.117584</v>
+        <v>0.451903</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.138035</v>
+        <v>0.136401</v>
       </c>
       <c r="C96" t="n">
-        <v>0.106806</v>
+        <v>0.104779</v>
       </c>
       <c r="D96" t="n">
-        <v>0.119417</v>
+        <v>0.470293</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.140736</v>
+        <v>0.142135</v>
       </c>
       <c r="C97" t="n">
-        <v>0.108845</v>
+        <v>0.107831</v>
       </c>
       <c r="D97" t="n">
-        <v>0.121454</v>
+        <v>0.49014</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.144667</v>
+        <v>0.144145</v>
       </c>
       <c r="C98" t="n">
-        <v>0.109052</v>
+        <v>0.109884</v>
       </c>
       <c r="D98" t="n">
-        <v>0.121416</v>
+        <v>0.511339</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.149274</v>
+        <v>0.14538</v>
       </c>
       <c r="C99" t="n">
-        <v>0.112696</v>
+        <v>0.110082</v>
       </c>
       <c r="D99" t="n">
-        <v>0.125088</v>
+        <v>0.531353</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.154637</v>
+        <v>0.156383</v>
       </c>
       <c r="C100" t="n">
-        <v>0.11494</v>
+        <v>0.113747</v>
       </c>
       <c r="D100" t="n">
-        <v>0.127425</v>
+        <v>0.554444</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.162571</v>
+        <v>0.164016</v>
       </c>
       <c r="C101" t="n">
-        <v>0.11613</v>
+        <v>0.116186</v>
       </c>
       <c r="D101" t="n">
-        <v>0.128754</v>
+        <v>0.579528</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.170856</v>
+        <v>0.165857</v>
       </c>
       <c r="C102" t="n">
-        <v>0.118726</v>
+        <v>0.118588</v>
       </c>
       <c r="D102" t="n">
-        <v>0.130984</v>
+        <v>0.599956</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.182075</v>
+        <v>0.17972</v>
       </c>
       <c r="C103" t="n">
-        <v>0.121765</v>
+        <v>0.120122</v>
       </c>
       <c r="D103" t="n">
-        <v>0.134496</v>
+        <v>0.6264110000000001</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.197604</v>
+        <v>0.194219</v>
       </c>
       <c r="C104" t="n">
-        <v>0.125986</v>
+        <v>0.125979</v>
       </c>
       <c r="D104" t="n">
-        <v>0.139147</v>
+        <v>0.652962</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.223775</v>
+        <v>0.211251</v>
       </c>
       <c r="C105" t="n">
-        <v>0.132055</v>
+        <v>0.130132</v>
       </c>
       <c r="D105" t="n">
-        <v>0.145248</v>
+        <v>0.679874</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.254162</v>
+        <v>0.242839</v>
       </c>
       <c r="C106" t="n">
-        <v>0.141727</v>
+        <v>0.13876</v>
       </c>
       <c r="D106" t="n">
-        <v>0.156373</v>
+        <v>0.708174</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.298157</v>
+        <v>0.285194</v>
       </c>
       <c r="C107" t="n">
-        <v>0.155238</v>
+        <v>0.153273</v>
       </c>
       <c r="D107" t="n">
-        <v>0.17079</v>
+        <v>0.5588</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.365689</v>
+        <v>0.356123</v>
       </c>
       <c r="C108" t="n">
-        <v>0.113133</v>
+        <v>0.111659</v>
       </c>
       <c r="D108" t="n">
-        <v>0.125513</v>
+        <v>0.568087</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.457986</v>
+        <v>0.439834</v>
       </c>
       <c r="C109" t="n">
-        <v>0.11463</v>
+        <v>0.112979</v>
       </c>
       <c r="D109" t="n">
-        <v>0.126807</v>
+        <v>0.599791</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.146912</v>
+        <v>0.145067</v>
       </c>
       <c r="C110" t="n">
-        <v>0.11561</v>
+        <v>0.114031</v>
       </c>
       <c r="D110" t="n">
-        <v>0.128565</v>
+        <v>0.6210909999999999</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.14976</v>
+        <v>0.14989</v>
       </c>
       <c r="C111" t="n">
-        <v>0.117062</v>
+        <v>0.115763</v>
       </c>
       <c r="D111" t="n">
-        <v>0.130231</v>
+        <v>0.641899</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.15487</v>
+        <v>0.151734</v>
       </c>
       <c r="C112" t="n">
-        <v>0.119205</v>
+        <v>0.117196</v>
       </c>
       <c r="D112" t="n">
-        <v>0.130995</v>
+        <v>0.665449</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.158998</v>
+        <v>0.158913</v>
       </c>
       <c r="C113" t="n">
-        <v>0.12082</v>
+        <v>0.119328</v>
       </c>
       <c r="D113" t="n">
-        <v>0.133961</v>
+        <v>0.68235</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.164655</v>
+        <v>0.160243</v>
       </c>
       <c r="C114" t="n">
-        <v>0.12322</v>
+        <v>0.122047</v>
       </c>
       <c r="D114" t="n">
-        <v>0.136556</v>
+        <v>0.707454</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.17285</v>
+        <v>0.170339</v>
       </c>
       <c r="C115" t="n">
-        <v>0.125654</v>
+        <v>0.124381</v>
       </c>
       <c r="D115" t="n">
-        <v>0.140456</v>
+        <v>0.7388670000000001</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.183302</v>
+        <v>0.183839</v>
       </c>
       <c r="C116" t="n">
-        <v>0.129788</v>
+        <v>0.125756</v>
       </c>
       <c r="D116" t="n">
-        <v>0.143902</v>
+        <v>0.765114</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.196888</v>
+        <v>0.196203</v>
       </c>
       <c r="C117" t="n">
-        <v>0.134419</v>
+        <v>0.132835</v>
       </c>
       <c r="D117" t="n">
-        <v>0.14873</v>
+        <v>0.792305</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.214557</v>
+        <v>0.211394</v>
       </c>
       <c r="C118" t="n">
-        <v>0.140174</v>
+        <v>0.138186</v>
       </c>
       <c r="D118" t="n">
-        <v>0.155532</v>
+        <v>0.819318</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.238946</v>
+        <v>0.233898</v>
       </c>
       <c r="C119" t="n">
-        <v>0.148679</v>
+        <v>0.143491</v>
       </c>
       <c r="D119" t="n">
-        <v>0.164307</v>
+        <v>0.849139</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.270184</v>
+        <v>0.261444</v>
       </c>
       <c r="C120" t="n">
-        <v>0.15958</v>
+        <v>0.156868</v>
       </c>
       <c r="D120" t="n">
-        <v>0.175471</v>
+        <v>0.8748</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.315714</v>
+        <v>0.307609</v>
       </c>
       <c r="C121" t="n">
-        <v>0.176002</v>
+        <v>0.172608</v>
       </c>
       <c r="D121" t="n">
-        <v>0.192993</v>
+        <v>0.648553</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.388812</v>
+        <v>0.378705</v>
       </c>
       <c r="C122" t="n">
-        <v>0.199616</v>
+        <v>0.195624</v>
       </c>
       <c r="D122" t="n">
-        <v>0.21672</v>
+        <v>0.65671</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.484482</v>
+        <v>0.468293</v>
       </c>
       <c r="C123" t="n">
-        <v>0.145923</v>
+        <v>0.133777</v>
       </c>
       <c r="D123" t="n">
-        <v>0.154271</v>
+        <v>0.6862239999999999</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.181231</v>
+        <v>0.172681</v>
       </c>
       <c r="C124" t="n">
-        <v>0.147442</v>
+        <v>0.135722</v>
       </c>
       <c r="D124" t="n">
-        <v>0.164416</v>
+        <v>0.706918</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.181891</v>
+        <v>0.173072</v>
       </c>
       <c r="C125" t="n">
-        <v>0.148901</v>
+        <v>0.137159</v>
       </c>
       <c r="D125" t="n">
-        <v>0.165014</v>
+        <v>0.717234</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.188542</v>
+        <v>0.167246</v>
       </c>
       <c r="C126" t="n">
-        <v>0.156605</v>
+        <v>0.141949</v>
       </c>
       <c r="D126" t="n">
-        <v>0.169047</v>
+        <v>0.750272</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.199057</v>
+        <v>0.185598</v>
       </c>
       <c r="C127" t="n">
-        <v>0.153962</v>
+        <v>0.143048</v>
       </c>
       <c r="D127" t="n">
-        <v>0.170857</v>
+        <v>0.774</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.195401</v>
+        <v>0.190797</v>
       </c>
       <c r="C128" t="n">
-        <v>0.155948</v>
+        <v>0.149112</v>
       </c>
       <c r="D128" t="n">
-        <v>0.173145</v>
+        <v>0.798796</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.207501</v>
+        <v>0.220802</v>
       </c>
       <c r="C129" t="n">
-        <v>0.158721</v>
+        <v>0.147047</v>
       </c>
       <c r="D129" t="n">
-        <v>0.173792</v>
+        <v>0.824211</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.216788</v>
+        <v>0.213497</v>
       </c>
       <c r="C130" t="n">
-        <v>0.160693</v>
+        <v>0.151633</v>
       </c>
       <c r="D130" t="n">
-        <v>0.183683</v>
+        <v>0.851384</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.232257</v>
+        <v>0.215437</v>
       </c>
       <c r="C131" t="n">
-        <v>0.164028</v>
+        <v>0.154371</v>
       </c>
       <c r="D131" t="n">
-        <v>0.182556</v>
+        <v>0.878809</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.242786</v>
+        <v>0.232461</v>
       </c>
       <c r="C132" t="n">
-        <v>0.170802</v>
+        <v>0.165654</v>
       </c>
       <c r="D132" t="n">
-        <v>0.190669</v>
+        <v>0.908651</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.263993</v>
+        <v>0.258041</v>
       </c>
       <c r="C133" t="n">
-        <v>0.17968</v>
+        <v>0.167621</v>
       </c>
       <c r="D133" t="n">
-        <v>0.194166</v>
+        <v>0.9379690000000001</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.300376</v>
+        <v>0.278106</v>
       </c>
       <c r="C134" t="n">
-        <v>0.191099</v>
+        <v>0.178765</v>
       </c>
       <c r="D134" t="n">
-        <v>0.209668</v>
+        <v>0.9631</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.334114</v>
+        <v>0.326369</v>
       </c>
       <c r="C135" t="n">
-        <v>0.19798</v>
+        <v>0.188214</v>
       </c>
       <c r="D135" t="n">
-        <v>0.217276</v>
+        <v>0.681601</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.406338</v>
+        <v>0.384503</v>
       </c>
       <c r="C136" t="n">
-        <v>0.218251</v>
+        <v>0.215569</v>
       </c>
       <c r="D136" t="n">
-        <v>0.240331</v>
+        <v>0.6908300000000001</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.499704</v>
+        <v>0.476243</v>
       </c>
       <c r="C137" t="n">
-        <v>0.264083</v>
+        <v>0.250831</v>
       </c>
       <c r="D137" t="n">
-        <v>0.305195</v>
+        <v>0.714408</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.332805</v>
+        <v>0.307827</v>
       </c>
       <c r="C138" t="n">
-        <v>0.272835</v>
+        <v>0.242228</v>
       </c>
       <c r="D138" t="n">
-        <v>0.313514</v>
+        <v>0.7324310000000001</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.339861</v>
+        <v>0.310931</v>
       </c>
       <c r="C139" t="n">
-        <v>0.270486</v>
+        <v>0.248149</v>
       </c>
       <c r="D139" t="n">
-        <v>0.310211</v>
+        <v>0.750935</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.344285</v>
+        <v>0.312048</v>
       </c>
       <c r="C140" t="n">
-        <v>0.279516</v>
+        <v>0.251287</v>
       </c>
       <c r="D140" t="n">
-        <v>0.31556</v>
+        <v>0.76501</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.346434</v>
+        <v>0.291382</v>
       </c>
       <c r="C141" t="n">
-        <v>0.281722</v>
+        <v>0.251051</v>
       </c>
       <c r="D141" t="n">
-        <v>0.320655</v>
+        <v>0.7842710000000001</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.357493</v>
+        <v>0.318275</v>
       </c>
       <c r="C142" t="n">
-        <v>0.280954</v>
+        <v>0.251932</v>
       </c>
       <c r="D142" t="n">
-        <v>0.323248</v>
+        <v>0.805825</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.356752</v>
+        <v>0.339083</v>
       </c>
       <c r="C143" t="n">
-        <v>0.283047</v>
+        <v>0.2639</v>
       </c>
       <c r="D143" t="n">
-        <v>0.323644</v>
+        <v>0.826161</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Scattered unsuccessful looukp.xlsx
+++ b/clang-x86/Scattered unsuccessful looukp.xlsx
@@ -552,430 +552,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.020381</v>
+                  <v>0.0196541</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0231567</v>
+                  <v>0.022714</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0281757</v>
+                  <v>0.0280732</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0352799</v>
+                  <v>0.0383508</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.04539</v>
+                  <v>0.052548</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.06491429999999999</v>
+                  <v>0.066875</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0891632</v>
+                  <v>0.0901585</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.112722</v>
+                  <v>0.118385</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.017053</v>
+                  <v>0.0166794</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0176131</v>
+                  <v>0.017095</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.018294</v>
+                  <v>0.0175332</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.019009</v>
+                  <v>0.0179948</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0202027</v>
+                  <v>0.0186281</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0216873</v>
+                  <v>0.0208214</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0238871</v>
+                  <v>0.0229571</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0283309</v>
+                  <v>0.0261478</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0347629</v>
+                  <v>0.0314248</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0427405</v>
+                  <v>0.0425587</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0557526</v>
+                  <v>0.0519527</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0731723</v>
+                  <v>0.07000199999999999</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0958377</v>
+                  <v>0.0890392</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.12115</v>
+                  <v>0.119166</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0167999</v>
+                  <v>0.0162997</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.017383</v>
+                  <v>0.0169862</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0183382</v>
+                  <v>0.0176941</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0193988</v>
+                  <v>0.0184008</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0205537</v>
+                  <v>0.0198508</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0226966</v>
+                  <v>0.0220004</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0250047</v>
+                  <v>0.0252038</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0309238</v>
+                  <v>0.029776</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0361738</v>
+                  <v>0.0355674</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0455675</v>
+                  <v>0.0445372</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0564017</v>
+                  <v>0.0557284</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0722527</v>
+                  <v>0.0722409</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.09413820000000001</v>
+                  <v>0.0937438</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.118638</v>
+                  <v>0.120898</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0174142</v>
+                  <v>0.017101</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0181997</v>
+                  <v>0.0179106</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0191908</v>
+                  <v>0.0187733</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0204403</v>
+                  <v>0.0201048</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.021836</v>
+                  <v>0.0218759</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0239224</v>
+                  <v>0.0240552</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0276839</v>
+                  <v>0.0282097</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0315092</v>
+                  <v>0.0323602</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0372217</v>
+                  <v>0.0379086</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.0454352</v>
+                  <v>0.045608</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0550601</v>
+                  <v>0.056116</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0703042</v>
+                  <v>0.0707222</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0905224</v>
+                  <v>0.0919893</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.115437</v>
+                  <v>0.118674</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.1408</v>
+                  <v>0.145772</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0192387</v>
+                  <v>0.0196284</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0204627</v>
+                  <v>0.0208398</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0220737</v>
+                  <v>0.0223922</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0239349</v>
+                  <v>0.0244506</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0262923</v>
+                  <v>0.026822</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0297657</v>
+                  <v>0.0309899</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0341001</v>
+                  <v>0.0354207</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0395028</v>
+                  <v>0.0417881</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0465838</v>
+                  <v>0.0476276</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0559668</v>
+                  <v>0.0572692</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0699388</v>
+                  <v>0.0716026</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0889996</v>
+                  <v>0.0905608</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.114856</v>
+                  <v>0.116785</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.145398</v>
+                  <v>0.147933</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0196969</v>
+                  <v>0.0197012</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.02093</v>
+                  <v>0.0211376</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0224969</v>
+                  <v>0.0228213</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0245783</v>
+                  <v>0.0247479</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.027095</v>
+                  <v>0.0274354</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0303959</v>
+                  <v>0.0306606</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0348732</v>
+                  <v>0.0349113</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0401107</v>
+                  <v>0.0401967</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0469689</v>
+                  <v>0.0468474</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.056182</v>
+                  <v>0.0560401</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0692083</v>
+                  <v>0.0688926</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0876976</v>
+                  <v>0.0873152</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.112624</v>
+                  <v>0.112319</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.143056</v>
+                  <v>0.143939</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0203051</v>
+                  <v>0.0198688</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0214311</v>
+                  <v>0.0212272</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0227951</v>
+                  <v>0.0227931</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0248606</v>
+                  <v>0.0248234</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0274961</v>
+                  <v>0.0274348</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0304265</v>
+                  <v>0.0304566</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.034491</v>
+                  <v>0.03421</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0392189</v>
+                  <v>0.0392722</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0454425</v>
+                  <v>0.0457853</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.054124</v>
+                  <v>0.0543613</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0660497</v>
+                  <v>0.0667861</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.0833161</v>
+                  <v>0.0837842</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.107117</v>
+                  <v>0.107021</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.137068</v>
+                  <v>0.138367</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.0205917</v>
+                  <v>0.0206107</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0217319</v>
+                  <v>0.021977</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.0234086</v>
+                  <v>0.0236946</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.0249196</v>
+                  <v>0.0252601</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0271441</v>
+                  <v>0.0278301</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0301186</v>
+                  <v>0.0304313</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.034225</v>
+                  <v>0.0347894</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0395874</v>
+                  <v>0.0397493</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.046425</v>
+                  <v>0.0462983</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0547381</v>
+                  <v>0.0543709</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.0655719</v>
+                  <v>0.0656243</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.0810201</v>
+                  <v>0.0814584</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.103131</v>
+                  <v>0.103239</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.132455</v>
+                  <v>0.133268</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.167936</v>
+                  <v>0.169441</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.0314641</v>
+                  <v>0.0309188</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.0327748</v>
+                  <v>0.0323647</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.0344387</v>
+                  <v>0.034075</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.0359115</v>
+                  <v>0.0358327</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.0384212</v>
+                  <v>0.0383382</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.0411013</v>
+                  <v>0.0406737</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.0443196</v>
+                  <v>0.0441246</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.0490798</v>
+                  <v>0.048723</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.0556472</v>
+                  <v>0.0551746</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.0652692</v>
+                  <v>0.0650047</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.080124</v>
+                  <v>0.07941529999999999</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.100594</v>
+                  <v>0.100142</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.128412</v>
+                  <v>0.128345</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.163387</v>
+                  <v>0.16426</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.0342733</v>
+                  <v>0.0340693</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.0354023</v>
+                  <v>0.035891</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.0369613</v>
+                  <v>0.0369158</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.0386997</v>
+                  <v>0.0387195</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.0406429</v>
+                  <v>0.0407176</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.0434292</v>
+                  <v>0.0435753</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.0467513</v>
+                  <v>0.0474413</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.0511822</v>
+                  <v>0.0518101</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.0585649</v>
+                  <v>0.0586713</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.0673728</v>
+                  <v>0.06794360000000001</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.08104450000000001</v>
+                  <v>0.0817268</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.101034</v>
+                  <v>0.101445</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.128826</v>
+                  <v>0.129425</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.16274</v>
+                  <v>0.163873</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.0471946</v>
+                  <v>0.0473433</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.0480173</v>
+                  <v>0.0531312</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.0491618</v>
+                  <v>0.058706</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.0504992</v>
+                  <v>0.0582968</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.0529453</v>
+                  <v>0.0553286</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.0554429</v>
+                  <v>0.0675741</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1446,430 +1446,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0243821</v>
+                  <v>0.0236953</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0263419</v>
+                  <v>0.0249792</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.03189</v>
+                  <v>0.0258301</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0372784</v>
+                  <v>0.027365</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0515556</v>
+                  <v>0.0285038</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.06764829999999999</v>
+                  <v>0.0328798</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.08149480000000001</v>
+                  <v>0.0393672</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.129222</v>
+                  <v>0.0204906</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0208127</v>
+                  <v>0.0206485</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0213278</v>
+                  <v>0.0211179</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0218828</v>
+                  <v>0.0213</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.02263</v>
+                  <v>0.0216018</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0232512</v>
+                  <v>0.0219038</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0241428</v>
+                  <v>0.0225654</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0268695</v>
+                  <v>0.0230834</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0288871</v>
+                  <v>0.0241669</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0328262</v>
+                  <v>0.0251919</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0390993</v>
+                  <v>0.0266921</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0470423</v>
+                  <v>0.028982</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0633778</v>
+                  <v>0.0333148</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.088602</v>
+                  <v>0.041356</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.13405</v>
+                  <v>0.0202092</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0214978</v>
+                  <v>0.0206159</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0219645</v>
+                  <v>0.0208339</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0227306</v>
+                  <v>0.0210765</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0236983</v>
+                  <v>0.0214492</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0246423</v>
+                  <v>0.0218967</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.025917</v>
+                  <v>0.0226372</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0281203</v>
+                  <v>0.023422</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0305191</v>
+                  <v>0.0242916</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0351044</v>
+                  <v>0.0254245</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0407874</v>
+                  <v>0.0274613</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0501899</v>
+                  <v>0.030458</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.06329070000000001</v>
+                  <v>0.0342121</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0883089</v>
+                  <v>0.040763</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.125523</v>
+                  <v>0.0210932</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0226441</v>
+                  <v>0.0214487</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0231278</v>
+                  <v>0.0217322</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0239266</v>
+                  <v>0.0220884</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.024755</v>
+                  <v>0.0225227</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0260181</v>
+                  <v>0.022985</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0274856</v>
+                  <v>0.0235789</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0292543</v>
+                  <v>0.0242082</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0326774</v>
+                  <v>0.0251386</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0370439</v>
+                  <v>0.026316</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.0430271</v>
+                  <v>0.0281349</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0514098</v>
+                  <v>0.0309591</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0649906</v>
+                  <v>0.0351441</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0841389</v>
+                  <v>0.0422416</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.117343</v>
+                  <v>0.0221848</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.163332</v>
+                  <v>0.0226422</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0241041</v>
+                  <v>0.0230127</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0248142</v>
+                  <v>0.0233388</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0258859</v>
+                  <v>0.0237292</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0269065</v>
+                  <v>0.0243318</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0285555</v>
+                  <v>0.0249093</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0308138</v>
+                  <v>0.0260608</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0334128</v>
+                  <v>0.0270795</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0373409</v>
+                  <v>0.0277862</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.043244</v>
+                  <v>0.0291051</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0514921</v>
+                  <v>0.0317252</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0631197</v>
+                  <v>0.0360878</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.08064549999999999</v>
+                  <v>0.0429958</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.111224</v>
+                  <v>0.0551095</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.156782</v>
+                  <v>0.0226031</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0246273</v>
+                  <v>0.0229372</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0254874</v>
+                  <v>0.0232973</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.026515</v>
+                  <v>0.023692</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0276786</v>
+                  <v>0.0242143</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0291119</v>
+                  <v>0.0247678</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0311576</v>
+                  <v>0.0255057</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0339469</v>
+                  <v>0.0263971</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0377205</v>
+                  <v>0.0276756</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0430427</v>
+                  <v>0.0295323</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0505867</v>
+                  <v>0.0321746</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0612508</v>
+                  <v>0.0363344</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0763192</v>
+                  <v>0.0425489</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.101765</v>
+                  <v>0.0534234</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.144347</v>
+                  <v>0.0228514</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0253488</v>
+                  <v>0.0231978</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.026265</v>
+                  <v>0.0235633</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0271908</v>
+                  <v>0.0239172</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0284288</v>
+                  <v>0.0244035</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.03001</v>
+                  <v>0.025024</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0319039</v>
+                  <v>0.0259339</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.0343672</v>
+                  <v>0.0269228</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0378547</v>
+                  <v>0.0282665</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0426376</v>
+                  <v>0.0299743</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0498571</v>
+                  <v>0.0325068</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.059631</v>
+                  <v>0.03601</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.0742997</v>
+                  <v>0.0416961</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.0979019</v>
+                  <v>0.0509443</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.137136</v>
+                  <v>0.0243696</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.0270102</v>
+                  <v>0.0248253</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0282021</v>
+                  <v>0.0253215</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.0301873</v>
+                  <v>0.0259145</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.0330636</v>
+                  <v>0.0267649</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0367725</v>
+                  <v>0.0281154</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0404956</v>
+                  <v>0.0301922</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0438179</v>
+                  <v>0.0330066</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0472354</v>
+                  <v>0.0364155</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0509235</v>
+                  <v>0.0397311</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0560138</v>
+                  <v>0.0428055</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.06314790000000001</v>
+                  <v>0.0463608</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.07436619999999999</v>
+                  <v>0.0508278</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.0937021</v>
+                  <v>0.0575807</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.129268</v>
+                  <v>0.0361449</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.180556</v>
+                  <v>0.0368822</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.0432623</v>
+                  <v>0.0379133</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.0443061</v>
+                  <v>0.0388181</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.0453678</v>
+                  <v>0.0396854</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.0466564</v>
+                  <v>0.0406322</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.0481</v>
+                  <v>0.0416831</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.0498885</v>
+                  <v>0.0427634</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.0522653</v>
+                  <v>0.0439657</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.0552329</v>
+                  <v>0.0456052</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.0592122</v>
+                  <v>0.0476259</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.0652914</v>
+                  <v>0.0501364</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.0749547</v>
+                  <v>0.0541071</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.09116730000000001</v>
+                  <v>0.0600156</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.12157</v>
+                  <v>0.0702492</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.169666</v>
+                  <v>0.0426162</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.0485409</v>
+                  <v>0.0433137</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.0498932</v>
+                  <v>0.0441334</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.0510164</v>
+                  <v>0.0448138</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.0521044</v>
+                  <v>0.0457069</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.0539084</v>
+                  <v>0.0468309</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.0557247</v>
+                  <v>0.047681</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.0579581</v>
+                  <v>0.0488768</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.0612119</v>
+                  <v>0.0504662</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.0655746</v>
+                  <v>0.0524585</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.07118579999999999</v>
+                  <v>0.0553225</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.0805454</v>
+                  <v>0.0590454</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.0955641</v>
+                  <v>0.0649672</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.122167</v>
+                  <v>0.07502730000000001</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.166136</v>
+                  <v>0.0609618</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.0632577</v>
+                  <v>0.0606272</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.0643639</v>
+                  <v>0.0716113</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.0654462</v>
+                  <v>0.0740532</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.0668815</v>
+                  <v>0.075507</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.0683774</v>
+                  <v>0.0709659</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.07045510000000001</v>
+                  <v>0.0822119</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1880,7 +1880,7 @@
           <idx val="5"/>
           <order val="2"/>
           <tx>
-            <v>foa_unordered_rc15_map</v>
+            <v>boost::unordered_map</v>
           </tx>
           <spPr>
             <a:ln>
@@ -2340,430 +2340,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0213141</v>
+                  <v>0.0628543</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0220012</v>
+                  <v>0.0664814</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0228637</v>
+                  <v>0.07155309999999999</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0244676</v>
+                  <v>0.0787023</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0259604</v>
+                  <v>0.0762729</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.028658</v>
+                  <v>0.0596881</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0371282</v>
+                  <v>0.0581592</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.0186849</v>
+                  <v>0.0642033</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0189948</v>
+                  <v>0.066584</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0192948</v>
+                  <v>0.07067469999999999</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0198101</v>
+                  <v>0.07539460000000001</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0200323</v>
+                  <v>0.0776222</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0205084</v>
+                  <v>0.08080030000000001</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0207002</v>
+                  <v>0.08254499999999999</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0214276</v>
+                  <v>0.0868236</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.022011</v>
+                  <v>0.0901443</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0230028</v>
+                  <v>0.09041780000000001</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0242253</v>
+                  <v>0.09432</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0262024</v>
+                  <v>0.0970657</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.030044</v>
+                  <v>0.0672951</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0370516</v>
+                  <v>0.0716408</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.0188867</v>
+                  <v>0.0714137</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0192237</v>
+                  <v>0.0762883</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0194425</v>
+                  <v>0.0788282</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0197946</v>
+                  <v>0.0817253</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0201342</v>
+                  <v>0.0845086</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0205266</v>
+                  <v>0.0872682</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.020959</v>
+                  <v>0.0900213</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0214844</v>
+                  <v>0.0922123</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0223231</v>
+                  <v>0.0951592</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0233566</v>
+                  <v>0.0965795</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0248748</v>
+                  <v>0.0983135</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0269432</v>
+                  <v>0.101668</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0307678</v>
+                  <v>0.06976019999999999</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0381048</v>
+                  <v>0.0732333</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.019505</v>
+                  <v>0.07563</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0197378</v>
+                  <v>0.07849739999999999</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0199753</v>
+                  <v>0.082784</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0202695</v>
+                  <v>0.08502469999999999</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0205809</v>
+                  <v>0.0879409</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0210132</v>
+                  <v>0.091546</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0215764</v>
+                  <v>0.0944207</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0222081</v>
+                  <v>0.0970037</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0231524</v>
+                  <v>0.0991208</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0243994</v>
+                  <v>0.101009</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.0261699</v>
+                  <v>0.103707</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0288567</v>
+                  <v>0.105854</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0324993</v>
+                  <v>0.108622</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0388699</v>
+                  <v>0.07991180000000001</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.0203994</v>
+                  <v>0.0852565</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0206304</v>
+                  <v>0.09070300000000001</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.020899</v>
+                  <v>0.100166</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0212713</v>
+                  <v>0.104121</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0215734</v>
+                  <v>0.110505</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0220027</v>
+                  <v>0.118017</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0224713</v>
+                  <v>0.134799</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0232356</v>
+                  <v>0.150714</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0241598</v>
+                  <v>0.149598</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0252935</v>
+                  <v>0.106064</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0270674</v>
+                  <v>0.110453</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0297328</v>
+                  <v>0.112451</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0338401</v>
+                  <v>0.114784</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0404851</v>
+                  <v>0.0808511</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.0515575</v>
+                  <v>0.0851362</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.020937</v>
+                  <v>0.0905902</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0212617</v>
+                  <v>0.0957775</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0215815</v>
+                  <v>0.09995809999999999</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0219942</v>
+                  <v>0.105452</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0224339</v>
+                  <v>0.110664</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0229822</v>
+                  <v>0.115302</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0236686</v>
+                  <v>0.119763</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0245813</v>
+                  <v>0.125554</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0258009</v>
+                  <v>0.130129</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0276711</v>
+                  <v>0.134996</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0301418</v>
+                  <v>0.141567</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0339599</v>
+                  <v>0.147833</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.039757</v>
+                  <v>0.113894</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.0495474</v>
+                  <v>0.121926</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.021192</v>
+                  <v>0.12561</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0215353</v>
+                  <v>0.134696</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0219745</v>
+                  <v>0.13899</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0224512</v>
+                  <v>0.149483</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0229726</v>
+                  <v>0.154065</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0236312</v>
+                  <v>0.163029</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0244723</v>
+                  <v>0.167705</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.0253764</v>
+                  <v>0.178539</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0267266</v>
+                  <v>0.186083</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.02845</v>
+                  <v>0.189656</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0307713</v>
+                  <v>0.197145</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0342051</v>
+                  <v>0.214136</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.039387</v>
+                  <v>0.155917</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.0481448</v>
+                  <v>0.163239</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.0230461</v>
+                  <v>0.170659</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.0235885</v>
+                  <v>0.176032</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0240683</v>
+                  <v>0.180564</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.0245612</v>
+                  <v>0.187866</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.0254625</v>
+                  <v>0.197686</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0269155</v>
+                  <v>0.205106</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0289929</v>
+                  <v>0.213378</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0319022</v>
+                  <v>0.22001</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0353162</v>
+                  <v>0.227646</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0382454</v>
+                  <v>0.235713</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0414212</v>
+                  <v>0.243297</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.0448928</v>
+                  <v>0.252123</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.0491213</v>
+                  <v>0.261676</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.0556722</v>
+                  <v>0.190199</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.0349946</v>
+                  <v>0.197145</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.036062</v>
+                  <v>0.204605</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.0370126</v>
+                  <v>0.21028</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.0378882</v>
+                  <v>0.217256</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.0386232</v>
+                  <v>0.224583</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.039608</v>
+                  <v>0.233435</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.0405332</v>
+                  <v>0.241083</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.0416032</v>
+                  <v>0.248226</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.0429799</v>
+                  <v>0.256309</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.044442</v>
+                  <v>0.263815</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.0464735</v>
+                  <v>0.272729</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.0490779</v>
+                  <v>0.281114</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.0526027</v>
+                  <v>0.29099</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.0585157</v>
+                  <v>0.206413</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.0682112</v>
+                  <v>0.211988</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.0416503</v>
+                  <v>0.218375</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.0422691</v>
+                  <v>0.225371</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.0430552</v>
+                  <v>0.233023</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.04371</v>
+                  <v>0.239145</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.0446326</v>
+                  <v>0.246948</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.045744</v>
+                  <v>0.254198</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.0464876</v>
+                  <v>0.261944</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.0480236</v>
+                  <v>0.270874</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.0497905</v>
+                  <v>0.277744</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.0515751</v>
+                  <v>0.285401</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.0541836</v>
+                  <v>0.294939</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.0578235</v>
+                  <v>0.304154</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.06359289999999999</v>
+                  <v>0.212796</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.07301820000000001</v>
+                  <v>0.219404</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.0587163</v>
+                  <v>0.226867</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.0595507</v>
+                  <v>0.233183</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.0603892</v>
+                  <v>0.258776</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.0609068</v>
+                  <v>0.2671</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.0617944</v>
+                  <v>0.259936</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.0626568</v>
+                  <v>0.270609</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.0637523</v>
+                  <v>0.281995</v>
                 </pt>
               </numCache>
             </numRef>

--- a/clang-x86/Scattered unsuccessful looukp.xlsx
+++ b/clang-x86/Scattered unsuccessful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0950805</v>
+        <v>0.09486650000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0736501</v>
+        <v>0.0876045</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0850974</v>
+        <v>0.0875248</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.09991990000000001</v>
+        <v>0.100144</v>
       </c>
       <c r="C3" t="n">
-        <v>0.07438019999999999</v>
+        <v>0.08862150000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0859317</v>
+        <v>0.0883265</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.112379</v>
+        <v>0.112385</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0754054</v>
+        <v>0.0896248</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0877703</v>
+        <v>0.0893859</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.12813</v>
+        <v>0.128359</v>
       </c>
       <c r="C5" t="n">
-        <v>0.07656209999999999</v>
+        <v>0.0910402</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0898664</v>
+        <v>0.0904987</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.153404</v>
+        <v>0.153407</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0778895</v>
+        <v>0.0937602</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0919777</v>
+        <v>0.0929459</v>
       </c>
     </row>
     <row r="7">
@@ -3319,10 +3319,10 @@
         <v>0.185777</v>
       </c>
       <c r="C7" t="n">
-        <v>0.08252230000000001</v>
+        <v>0.09935570000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0976239</v>
+        <v>0.0994485</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.229341</v>
+        <v>0.230855</v>
       </c>
       <c r="C8" t="n">
-        <v>0.09363630000000001</v>
+        <v>0.110769</v>
       </c>
       <c r="D8" t="n">
-        <v>0.114552</v>
+        <v>0.112168</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.274496</v>
+        <v>0.275093</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0714484</v>
+        <v>0.0850327</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0832558</v>
+        <v>0.0845534</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0861362</v>
+        <v>0.0858915</v>
       </c>
       <c r="C10" t="n">
-        <v>0.07175189999999999</v>
+        <v>0.0852612</v>
       </c>
       <c r="D10" t="n">
-        <v>0.083594</v>
+        <v>0.08485819999999999</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0870992</v>
+        <v>0.0867816</v>
       </c>
       <c r="C11" t="n">
-        <v>0.07196710000000001</v>
+        <v>0.0855952</v>
       </c>
       <c r="D11" t="n">
-        <v>0.08396969999999999</v>
+        <v>0.08519889999999999</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.08849219999999999</v>
+        <v>0.08809259999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>0.072216</v>
+        <v>0.08594789999999999</v>
       </c>
       <c r="D12" t="n">
-        <v>0.08418440000000001</v>
+        <v>0.0863898</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0905256</v>
+        <v>0.0902458</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0727087</v>
+        <v>0.086308</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0844758</v>
+        <v>0.0866416</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0923233</v>
+        <v>0.09205099999999999</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0730087</v>
+        <v>0.0867617</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0849434</v>
+        <v>0.0863781</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0955279</v>
+        <v>0.09529849999999999</v>
       </c>
       <c r="C15" t="n">
-        <v>0.073584</v>
+        <v>0.08753519999999999</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0853689</v>
+        <v>0.0883496</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.100574</v>
+        <v>0.103732</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0739925</v>
+        <v>0.08826680000000001</v>
       </c>
       <c r="D16" t="n">
-        <v>0.08599270000000001</v>
+        <v>0.0878284</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.107547</v>
+        <v>0.10741</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0747366</v>
+        <v>0.0890387</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0870267</v>
+        <v>0.0885774</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.118992</v>
+        <v>0.123851</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0758152</v>
+        <v>0.0903325</v>
       </c>
       <c r="D18" t="n">
-        <v>0.08828229999999999</v>
+        <v>0.0899789</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.135638</v>
+        <v>0.135151</v>
       </c>
       <c r="C19" t="n">
-        <v>0.07763150000000001</v>
+        <v>0.0920821</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0900333</v>
+        <v>0.0935293</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.159243</v>
+        <v>0.159901</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0807432</v>
+        <v>0.09581729999999999</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0933233</v>
+        <v>0.09553830000000001</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.18585</v>
+        <v>0.187636</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0863104</v>
+        <v>0.102384</v>
       </c>
       <c r="D21" t="n">
-        <v>0.09981859999999999</v>
+        <v>0.102188</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.221734</v>
+        <v>0.221115</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0993284</v>
+        <v>0.116371</v>
       </c>
       <c r="D22" t="n">
-        <v>0.114624</v>
+        <v>0.116818</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.263445</v>
+        <v>0.271838</v>
       </c>
       <c r="C23" t="n">
-        <v>0.07297049999999999</v>
+        <v>0.0861645</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0844047</v>
+        <v>0.0854235</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0897585</v>
+        <v>0.0910851</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0731887</v>
+        <v>0.08650910000000001</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0846735</v>
+        <v>0.085758</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.09102490000000001</v>
+        <v>0.0923189</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0735991</v>
+        <v>0.08687640000000001</v>
       </c>
       <c r="D25" t="n">
-        <v>0.08490830000000001</v>
+        <v>0.0860812</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.09240470000000001</v>
+        <v>0.093518</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0739332</v>
+        <v>0.08717610000000001</v>
       </c>
       <c r="D26" t="n">
-        <v>0.08534319999999999</v>
+        <v>0.08631030000000001</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0945452</v>
+        <v>0.0943348</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0743085</v>
+        <v>0.0876169</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0857353</v>
+        <v>0.08680640000000001</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0973258</v>
+        <v>0.09712519999999999</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0747013</v>
+        <v>0.08810320000000001</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0861155</v>
+        <v>0.0884378</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.100979</v>
+        <v>0.103021</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0751521</v>
+        <v>0.08855789999999999</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0867737</v>
+        <v>0.0876165</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.106678</v>
+        <v>0.10682</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0757308</v>
+        <v>0.0894546</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0874987</v>
+        <v>0.08888210000000001</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.114557</v>
+        <v>0.114221</v>
       </c>
       <c r="C31" t="n">
-        <v>0.07640669999999999</v>
+        <v>0.0901339</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0885133</v>
+        <v>0.0894711</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.123798</v>
+        <v>0.123923</v>
       </c>
       <c r="C32" t="n">
-        <v>0.07797759999999999</v>
+        <v>0.0915402</v>
       </c>
       <c r="D32" t="n">
-        <v>0.089516</v>
+        <v>0.09088309999999999</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.13577</v>
+        <v>0.135511</v>
       </c>
       <c r="C33" t="n">
-        <v>0.08015269999999999</v>
+        <v>0.0935385</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0915724</v>
+        <v>0.09276769999999999</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.154299</v>
+        <v>0.153827</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0833087</v>
+        <v>0.0975427</v>
       </c>
       <c r="D34" t="n">
-        <v>0.095416</v>
+        <v>0.0980939</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.176851</v>
+        <v>0.176268</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0891651</v>
+        <v>0.103696</v>
       </c>
       <c r="D35" t="n">
-        <v>0.101897</v>
+        <v>0.103439</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.210785</v>
+        <v>0.210081</v>
       </c>
       <c r="C36" t="n">
-        <v>0.09925340000000001</v>
+        <v>0.115272</v>
       </c>
       <c r="D36" t="n">
-        <v>0.11271</v>
+        <v>0.114647</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.25532</v>
+        <v>0.263158</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0733012</v>
+        <v>0.0869528</v>
       </c>
       <c r="D37" t="n">
-        <v>0.08482960000000001</v>
+        <v>0.0859978</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0924505</v>
+        <v>0.09237389999999999</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0736783</v>
+        <v>0.0871358</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0851007</v>
+        <v>0.086231</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.093538</v>
+        <v>0.09361899999999999</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0739287</v>
+        <v>0.0873984</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0860017</v>
+        <v>0.0864819</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.09522600000000001</v>
+        <v>0.096424</v>
       </c>
       <c r="C40" t="n">
-        <v>0.07437299999999999</v>
+        <v>0.0879079</v>
       </c>
       <c r="D40" t="n">
-        <v>0.08626300000000001</v>
+        <v>0.08689139999999999</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.09731380000000001</v>
+        <v>0.0987024</v>
       </c>
       <c r="C41" t="n">
-        <v>0.07516109999999999</v>
+        <v>0.0889301</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0861751</v>
+        <v>0.0881073</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.100354</v>
+        <v>0.100104</v>
       </c>
       <c r="C42" t="n">
-        <v>0.07503890000000001</v>
+        <v>0.0886334</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0865707</v>
+        <v>0.0876564</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.104343</v>
+        <v>0.104181</v>
       </c>
       <c r="C43" t="n">
-        <v>0.07570590000000001</v>
+        <v>0.0891134</v>
       </c>
       <c r="D43" t="n">
-        <v>0.08718919999999999</v>
+        <v>0.08870309999999999</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.109623</v>
+        <v>0.109547</v>
       </c>
       <c r="C44" t="n">
-        <v>0.07632079999999999</v>
+        <v>0.0897892</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0881387</v>
+        <v>0.0889098</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.116838</v>
+        <v>0.117082</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0775155</v>
+        <v>0.09099019999999999</v>
       </c>
       <c r="D45" t="n">
-        <v>0.08926290000000001</v>
+        <v>0.0899249</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.124944</v>
+        <v>0.124761</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0788199</v>
+        <v>0.09326280000000001</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0907313</v>
+        <v>0.0915448</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.135072</v>
+        <v>0.13487</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0814681</v>
+        <v>0.09473669999999999</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0929367</v>
+        <v>0.0940183</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.150038</v>
+        <v>0.15018</v>
       </c>
       <c r="C48" t="n">
-        <v>0.08462649999999999</v>
+        <v>0.0985412</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0968929</v>
+        <v>0.097912</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.172592</v>
+        <v>0.172698</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0906899</v>
+        <v>0.104753</v>
       </c>
       <c r="D49" t="n">
-        <v>0.102752</v>
+        <v>0.104287</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.204748</v>
+        <v>0.212859</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0999951</v>
+        <v>0.114411</v>
       </c>
       <c r="D50" t="n">
-        <v>0.112512</v>
+        <v>0.113971</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.24923</v>
+        <v>0.252087</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0750557</v>
+        <v>0.0894818</v>
       </c>
       <c r="D51" t="n">
-        <v>0.08703859999999999</v>
+        <v>0.0875016</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.294875</v>
+        <v>0.301471</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0772819</v>
+        <v>0.0890175</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0882054</v>
+        <v>0.0877276</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.097097</v>
+        <v>0.0981202</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0769725</v>
+        <v>0.0893345</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0875814</v>
+        <v>0.0887655</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0987441</v>
+        <v>0.09936589999999999</v>
       </c>
       <c r="C54" t="n">
-        <v>0.07789260000000001</v>
+        <v>0.0896178</v>
       </c>
       <c r="D54" t="n">
-        <v>0.08804679999999999</v>
+        <v>0.0897797</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.103879</v>
+        <v>0.101225</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0774885</v>
+        <v>0.0914817</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0888</v>
+        <v>0.09013599999999999</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.104933</v>
+        <v>0.103842</v>
       </c>
       <c r="C56" t="n">
-        <v>0.07888770000000001</v>
+        <v>0.0912471</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0889194</v>
+        <v>0.09119910000000001</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.10721</v>
+        <v>0.107122</v>
       </c>
       <c r="C57" t="n">
-        <v>0.07885449999999999</v>
+        <v>0.0924649</v>
       </c>
       <c r="D57" t="n">
-        <v>0.08922480000000001</v>
+        <v>0.0908534</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.111886</v>
+        <v>0.111359</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0797781</v>
+        <v>0.0935401</v>
       </c>
       <c r="D58" t="n">
-        <v>0.09011959999999999</v>
+        <v>0.0925149</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.119991</v>
+        <v>0.119301</v>
       </c>
       <c r="C59" t="n">
-        <v>0.08040219999999999</v>
+        <v>0.0935117</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0913553</v>
+        <v>0.09210309999999999</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.127701</v>
+        <v>0.12579</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0823617</v>
+        <v>0.09522120000000001</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0935255</v>
+        <v>0.09477919999999999</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.142512</v>
+        <v>0.137874</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0839973</v>
+        <v>0.0971397</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0961572</v>
+        <v>0.09668880000000001</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.153109</v>
+        <v>0.154921</v>
       </c>
       <c r="C62" t="n">
-        <v>0.087132</v>
+        <v>0.09995420000000001</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0995543</v>
+        <v>0.099552</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.175722</v>
+        <v>0.173052</v>
       </c>
       <c r="C63" t="n">
-        <v>0.09240180000000001</v>
+        <v>0.105797</v>
       </c>
       <c r="D63" t="n">
-        <v>0.106173</v>
+        <v>0.105491</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.20341</v>
+        <v>0.208926</v>
       </c>
       <c r="C64" t="n">
-        <v>0.102175</v>
+        <v>0.113522</v>
       </c>
       <c r="D64" t="n">
-        <v>0.113756</v>
+        <v>0.112743</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.243863</v>
+        <v>0.248051</v>
       </c>
       <c r="C65" t="n">
-        <v>0.115064</v>
+        <v>0.129391</v>
       </c>
       <c r="D65" t="n">
-        <v>0.128299</v>
+        <v>0.126886</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.296363</v>
+        <v>0.296483</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0846914</v>
+        <v>0.09726890000000001</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0952451</v>
+        <v>0.0964158</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.107781</v>
+        <v>0.107914</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0843063</v>
+        <v>0.09652090000000001</v>
       </c>
       <c r="D67" t="n">
-        <v>0.09676700000000001</v>
+        <v>0.0958011</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.110816</v>
+        <v>0.108855</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0849787</v>
+        <v>0.0972214</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0952493</v>
+        <v>0.0963739</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.110903</v>
+        <v>0.113334</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0849381</v>
+        <v>0.0971368</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0965333</v>
+        <v>0.098039</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.114746</v>
+        <v>0.115948</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0857141</v>
+        <v>0.0981804</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0977732</v>
+        <v>0.0985052</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.11761</v>
+        <v>0.117603</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0863517</v>
+        <v>0.0986969</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0997159</v>
+        <v>0.0999992</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.123833</v>
+        <v>0.123881</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0869846</v>
+        <v>0.0990732</v>
       </c>
       <c r="D72" t="n">
-        <v>0.09954209999999999</v>
+        <v>0.100466</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.128837</v>
+        <v>0.132157</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0885666</v>
+        <v>0.100205</v>
       </c>
       <c r="D73" t="n">
-        <v>0.1008</v>
+        <v>0.102405</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.137563</v>
+        <v>0.137575</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0891656</v>
+        <v>0.101721</v>
       </c>
       <c r="D74" t="n">
-        <v>0.101216</v>
+        <v>0.102377</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.145851</v>
+        <v>0.144412</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0921583</v>
+        <v>0.103967</v>
       </c>
       <c r="D75" t="n">
-        <v>0.104044</v>
+        <v>0.104783</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.15983</v>
+        <v>0.159763</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0948302</v>
+        <v>0.106129</v>
       </c>
       <c r="D76" t="n">
-        <v>0.10795</v>
+        <v>0.106901</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.180241</v>
+        <v>0.184824</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0994153</v>
+        <v>0.111742</v>
       </c>
       <c r="D77" t="n">
-        <v>0.112583</v>
+        <v>0.112217</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.208575</v>
+        <v>0.214266</v>
       </c>
       <c r="C78" t="n">
-        <v>0.106358</v>
+        <v>0.119631</v>
       </c>
       <c r="D78" t="n">
-        <v>0.121154</v>
+        <v>0.121107</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.257413</v>
+        <v>0.250309</v>
       </c>
       <c r="C79" t="n">
-        <v>0.120105</v>
+        <v>0.133667</v>
       </c>
       <c r="D79" t="n">
-        <v>0.133394</v>
+        <v>0.135238</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.307158</v>
+        <v>0.311647</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0919599</v>
+        <v>0.104174</v>
       </c>
       <c r="D80" t="n">
-        <v>0.103547</v>
+        <v>0.102832</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.120054</v>
+        <v>0.120144</v>
       </c>
       <c r="C81" t="n">
-        <v>0.09297030000000001</v>
+        <v>0.104307</v>
       </c>
       <c r="D81" t="n">
-        <v>0.104156</v>
+        <v>0.10458</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.12182</v>
+        <v>0.123328</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0932819</v>
+        <v>0.105109</v>
       </c>
       <c r="D82" t="n">
-        <v>0.10471</v>
+        <v>0.10367</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.12384</v>
+        <v>0.124042</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0937632</v>
+        <v>0.105469</v>
       </c>
       <c r="D83" t="n">
-        <v>0.105501</v>
+        <v>0.105838</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.126495</v>
+        <v>0.126873</v>
       </c>
       <c r="C84" t="n">
-        <v>0.094926</v>
+        <v>0.106772</v>
       </c>
       <c r="D84" t="n">
-        <v>0.106295</v>
+        <v>0.106636</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.130568</v>
+        <v>0.130174</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0961385</v>
+        <v>0.107653</v>
       </c>
       <c r="D85" t="n">
-        <v>0.107631</v>
+        <v>0.107611</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.134944</v>
+        <v>0.134754</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0974925</v>
+        <v>0.108655</v>
       </c>
       <c r="D86" t="n">
-        <v>0.109137</v>
+        <v>0.10905</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.141712</v>
+        <v>0.140825</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0994472</v>
+        <v>0.110669</v>
       </c>
       <c r="D87" t="n">
-        <v>0.111319</v>
+        <v>0.109253</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.150408</v>
+        <v>0.149924</v>
       </c>
       <c r="C88" t="n">
-        <v>0.101695</v>
+        <v>0.113384</v>
       </c>
       <c r="D88" t="n">
-        <v>0.113787</v>
+        <v>0.11122</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.161327</v>
+        <v>0.160557</v>
       </c>
       <c r="C89" t="n">
-        <v>0.104823</v>
+        <v>0.116183</v>
       </c>
       <c r="D89" t="n">
-        <v>0.116941</v>
+        <v>0.116526</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.176176</v>
+        <v>0.175378</v>
       </c>
       <c r="C90" t="n">
-        <v>0.109699</v>
+        <v>0.120825</v>
       </c>
       <c r="D90" t="n">
-        <v>0.121334</v>
+        <v>0.120631</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.196998</v>
+        <v>0.202996</v>
       </c>
       <c r="C91" t="n">
-        <v>0.113811</v>
+        <v>0.126035</v>
       </c>
       <c r="D91" t="n">
-        <v>0.127794</v>
+        <v>0.125014</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.226923</v>
+        <v>0.225906</v>
       </c>
       <c r="C92" t="n">
-        <v>0.124295</v>
+        <v>0.136098</v>
       </c>
       <c r="D92" t="n">
-        <v>0.137546</v>
+        <v>0.134579</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.270197</v>
+        <v>0.274206</v>
       </c>
       <c r="C93" t="n">
-        <v>0.138829</v>
+        <v>0.150469</v>
       </c>
       <c r="D93" t="n">
-        <v>0.152207</v>
+        <v>0.151127</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.330683</v>
+        <v>0.334577</v>
       </c>
       <c r="C94" t="n">
-        <v>0.103684</v>
+        <v>0.113446</v>
       </c>
       <c r="D94" t="n">
-        <v>0.115773</v>
+        <v>0.11482</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.134305</v>
+        <v>0.135235</v>
       </c>
       <c r="C95" t="n">
-        <v>0.105348</v>
+        <v>0.116447</v>
       </c>
       <c r="D95" t="n">
-        <v>0.117584</v>
+        <v>0.115308</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.138035</v>
+        <v>0.13706</v>
       </c>
       <c r="C96" t="n">
-        <v>0.106806</v>
+        <v>0.116673</v>
       </c>
       <c r="D96" t="n">
-        <v>0.119417</v>
+        <v>0.118036</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.140736</v>
+        <v>0.139845</v>
       </c>
       <c r="C97" t="n">
-        <v>0.108845</v>
+        <v>0.119965</v>
       </c>
       <c r="D97" t="n">
-        <v>0.121454</v>
+        <v>0.120031</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.144667</v>
+        <v>0.144249</v>
       </c>
       <c r="C98" t="n">
-        <v>0.109052</v>
+        <v>0.121877</v>
       </c>
       <c r="D98" t="n">
-        <v>0.121416</v>
+        <v>0.121888</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.149274</v>
+        <v>0.148644</v>
       </c>
       <c r="C99" t="n">
-        <v>0.112696</v>
+        <v>0.12223</v>
       </c>
       <c r="D99" t="n">
-        <v>0.125088</v>
+        <v>0.123806</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.154637</v>
+        <v>0.154184</v>
       </c>
       <c r="C100" t="n">
-        <v>0.11494</v>
+        <v>0.125906</v>
       </c>
       <c r="D100" t="n">
-        <v>0.127425</v>
+        <v>0.12608</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.162571</v>
+        <v>0.161112</v>
       </c>
       <c r="C101" t="n">
-        <v>0.11613</v>
+        <v>0.128325</v>
       </c>
       <c r="D101" t="n">
-        <v>0.128754</v>
+        <v>0.12852</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.170856</v>
+        <v>0.169147</v>
       </c>
       <c r="C102" t="n">
-        <v>0.118726</v>
+        <v>0.130806</v>
       </c>
       <c r="D102" t="n">
-        <v>0.130984</v>
+        <v>0.12938</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.182075</v>
+        <v>0.180359</v>
       </c>
       <c r="C103" t="n">
-        <v>0.121765</v>
+        <v>0.134381</v>
       </c>
       <c r="D103" t="n">
-        <v>0.134496</v>
+        <v>0.134523</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.197604</v>
+        <v>0.199829</v>
       </c>
       <c r="C104" t="n">
-        <v>0.125986</v>
+        <v>0.136333</v>
       </c>
       <c r="D104" t="n">
-        <v>0.139147</v>
+        <v>0.138915</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.223775</v>
+        <v>0.214268</v>
       </c>
       <c r="C105" t="n">
-        <v>0.132055</v>
+        <v>0.144537</v>
       </c>
       <c r="D105" t="n">
-        <v>0.145248</v>
+        <v>0.142852</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.254162</v>
+        <v>0.243643</v>
       </c>
       <c r="C106" t="n">
-        <v>0.141727</v>
+        <v>0.15338</v>
       </c>
       <c r="D106" t="n">
-        <v>0.156373</v>
+        <v>0.153947</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.298157</v>
+        <v>0.287341</v>
       </c>
       <c r="C107" t="n">
-        <v>0.155238</v>
+        <v>0.167446</v>
       </c>
       <c r="D107" t="n">
-        <v>0.17079</v>
+        <v>0.168154</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.365689</v>
+        <v>0.353295</v>
       </c>
       <c r="C108" t="n">
-        <v>0.113133</v>
+        <v>0.124432</v>
       </c>
       <c r="D108" t="n">
-        <v>0.125513</v>
+        <v>0.123912</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.457986</v>
+        <v>0.451238</v>
       </c>
       <c r="C109" t="n">
-        <v>0.11463</v>
+        <v>0.124937</v>
       </c>
       <c r="D109" t="n">
-        <v>0.126807</v>
+        <v>0.125216</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.146912</v>
+        <v>0.145354</v>
       </c>
       <c r="C110" t="n">
-        <v>0.11561</v>
+        <v>0.12626</v>
       </c>
       <c r="D110" t="n">
-        <v>0.128565</v>
+        <v>0.126715</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.14976</v>
+        <v>0.148734</v>
       </c>
       <c r="C111" t="n">
-        <v>0.117062</v>
+        <v>0.128271</v>
       </c>
       <c r="D111" t="n">
-        <v>0.130231</v>
+        <v>0.128229</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.15487</v>
+        <v>0.15278</v>
       </c>
       <c r="C112" t="n">
-        <v>0.119205</v>
+        <v>0.130171</v>
       </c>
       <c r="D112" t="n">
-        <v>0.130995</v>
+        <v>0.1293</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.158998</v>
+        <v>0.157058</v>
       </c>
       <c r="C113" t="n">
-        <v>0.12082</v>
+        <v>0.131865</v>
       </c>
       <c r="D113" t="n">
-        <v>0.133961</v>
+        <v>0.13163</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.164655</v>
+        <v>0.163399</v>
       </c>
       <c r="C114" t="n">
-        <v>0.12322</v>
+        <v>0.134507</v>
       </c>
       <c r="D114" t="n">
-        <v>0.136556</v>
+        <v>0.134401</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.17285</v>
+        <v>0.171094</v>
       </c>
       <c r="C115" t="n">
-        <v>0.125654</v>
+        <v>0.137037</v>
       </c>
       <c r="D115" t="n">
-        <v>0.140456</v>
+        <v>0.137218</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.183302</v>
+        <v>0.180887</v>
       </c>
       <c r="C116" t="n">
-        <v>0.129788</v>
+        <v>0.140854</v>
       </c>
       <c r="D116" t="n">
-        <v>0.143902</v>
+        <v>0.140888</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.196888</v>
+        <v>0.194541</v>
       </c>
       <c r="C117" t="n">
-        <v>0.134419</v>
+        <v>0.145388</v>
       </c>
       <c r="D117" t="n">
-        <v>0.14873</v>
+        <v>0.145606</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.214557</v>
+        <v>0.215538</v>
       </c>
       <c r="C118" t="n">
-        <v>0.140174</v>
+        <v>0.151339</v>
       </c>
       <c r="D118" t="n">
-        <v>0.155532</v>
+        <v>0.15201</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.238946</v>
+        <v>0.234729</v>
       </c>
       <c r="C119" t="n">
-        <v>0.148679</v>
+        <v>0.159457</v>
       </c>
       <c r="D119" t="n">
-        <v>0.164307</v>
+        <v>0.159918</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.270184</v>
+        <v>0.265569</v>
       </c>
       <c r="C120" t="n">
-        <v>0.15958</v>
+        <v>0.170009</v>
       </c>
       <c r="D120" t="n">
-        <v>0.175471</v>
+        <v>0.169403</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.315714</v>
+        <v>0.314887</v>
       </c>
       <c r="C121" t="n">
-        <v>0.176002</v>
+        <v>0.186053</v>
       </c>
       <c r="D121" t="n">
-        <v>0.192993</v>
+        <v>0.185359</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.388812</v>
+        <v>0.374688</v>
       </c>
       <c r="C122" t="n">
-        <v>0.199616</v>
+        <v>0.210319</v>
       </c>
       <c r="D122" t="n">
-        <v>0.21672</v>
+        <v>0.210089</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.484482</v>
+        <v>0.47276</v>
       </c>
       <c r="C123" t="n">
-        <v>0.145923</v>
+        <v>0.149431</v>
       </c>
       <c r="D123" t="n">
-        <v>0.154271</v>
+        <v>0.150646</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.181231</v>
+        <v>0.17611</v>
       </c>
       <c r="C124" t="n">
-        <v>0.147442</v>
+        <v>0.156526</v>
       </c>
       <c r="D124" t="n">
-        <v>0.164416</v>
+        <v>0.153724</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.181891</v>
+        <v>0.17736</v>
       </c>
       <c r="C125" t="n">
-        <v>0.148901</v>
+        <v>0.15626</v>
       </c>
       <c r="D125" t="n">
-        <v>0.165014</v>
+        <v>0.152708</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.188542</v>
+        <v>0.183894</v>
       </c>
       <c r="C126" t="n">
-        <v>0.156605</v>
+        <v>0.158636</v>
       </c>
       <c r="D126" t="n">
-        <v>0.169047</v>
+        <v>0.159873</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.199057</v>
+        <v>0.191589</v>
       </c>
       <c r="C127" t="n">
-        <v>0.153962</v>
+        <v>0.158333</v>
       </c>
       <c r="D127" t="n">
-        <v>0.170857</v>
+        <v>0.157485</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.195401</v>
+        <v>0.192935</v>
       </c>
       <c r="C128" t="n">
-        <v>0.155948</v>
+        <v>0.16473</v>
       </c>
       <c r="D128" t="n">
-        <v>0.173145</v>
+        <v>0.162472</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.207501</v>
+        <v>0.199974</v>
       </c>
       <c r="C129" t="n">
-        <v>0.158721</v>
+        <v>0.163663</v>
       </c>
       <c r="D129" t="n">
-        <v>0.173792</v>
+        <v>0.167247</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.216788</v>
+        <v>0.20894</v>
       </c>
       <c r="C130" t="n">
-        <v>0.160693</v>
+        <v>0.168496</v>
       </c>
       <c r="D130" t="n">
-        <v>0.183683</v>
+        <v>0.167375</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.232257</v>
+        <v>0.223452</v>
       </c>
       <c r="C131" t="n">
-        <v>0.164028</v>
+        <v>0.172817</v>
       </c>
       <c r="D131" t="n">
-        <v>0.182556</v>
+        <v>0.174124</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.242786</v>
+        <v>0.241277</v>
       </c>
       <c r="C132" t="n">
-        <v>0.170802</v>
+        <v>0.176005</v>
       </c>
       <c r="D132" t="n">
-        <v>0.190669</v>
+        <v>0.177571</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.263993</v>
+        <v>0.259197</v>
       </c>
       <c r="C133" t="n">
-        <v>0.17968</v>
+        <v>0.183401</v>
       </c>
       <c r="D133" t="n">
-        <v>0.194166</v>
+        <v>0.182989</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.300376</v>
+        <v>0.291586</v>
       </c>
       <c r="C134" t="n">
-        <v>0.191099</v>
+        <v>0.192488</v>
       </c>
       <c r="D134" t="n">
-        <v>0.209668</v>
+        <v>0.191159</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.334114</v>
+        <v>0.328756</v>
       </c>
       <c r="C135" t="n">
-        <v>0.19798</v>
+        <v>0.209047</v>
       </c>
       <c r="D135" t="n">
-        <v>0.217276</v>
+        <v>0.208861</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.406338</v>
+        <v>0.38956</v>
       </c>
       <c r="C136" t="n">
-        <v>0.218251</v>
+        <v>0.225061</v>
       </c>
       <c r="D136" t="n">
-        <v>0.240331</v>
+        <v>0.224336</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.499704</v>
+        <v>0.483274</v>
       </c>
       <c r="C137" t="n">
-        <v>0.264083</v>
+        <v>0.288007</v>
       </c>
       <c r="D137" t="n">
-        <v>0.305195</v>
+        <v>0.286183</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.332805</v>
+        <v>0.317019</v>
       </c>
       <c r="C138" t="n">
-        <v>0.272835</v>
+        <v>0.29073</v>
       </c>
       <c r="D138" t="n">
-        <v>0.313514</v>
+        <v>0.285554</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.339861</v>
+        <v>0.318149</v>
       </c>
       <c r="C139" t="n">
-        <v>0.270486</v>
+        <v>0.291059</v>
       </c>
       <c r="D139" t="n">
-        <v>0.310211</v>
+        <v>0.290059</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.344285</v>
+        <v>0.326165</v>
       </c>
       <c r="C140" t="n">
-        <v>0.279516</v>
+        <v>0.297514</v>
       </c>
       <c r="D140" t="n">
-        <v>0.31556</v>
+        <v>0.293961</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.346434</v>
+        <v>0.333305</v>
       </c>
       <c r="C141" t="n">
-        <v>0.281722</v>
+        <v>0.294143</v>
       </c>
       <c r="D141" t="n">
-        <v>0.320655</v>
+        <v>0.29529</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.357493</v>
+        <v>0.336202</v>
       </c>
       <c r="C142" t="n">
-        <v>0.280954</v>
+        <v>0.299033</v>
       </c>
       <c r="D142" t="n">
-        <v>0.323248</v>
+        <v>0.291088</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.356752</v>
+        <v>0.34343</v>
       </c>
       <c r="C143" t="n">
-        <v>0.283047</v>
+        <v>0.301096</v>
       </c>
       <c r="D143" t="n">
-        <v>0.323644</v>
+        <v>0.293974</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Scattered unsuccessful looukp.xlsx
+++ b/clang-x86/Scattered unsuccessful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.09486650000000001</v>
+        <v>0.09494759999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0876045</v>
+        <v>0.0876031</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0875248</v>
+        <v>0.0888033</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.100144</v>
+        <v>0.100047</v>
       </c>
       <c r="C3" t="n">
-        <v>0.08862150000000001</v>
+        <v>0.0887135</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0883265</v>
+        <v>0.09003070000000001</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.112385</v>
+        <v>0.112152</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0896248</v>
+        <v>0.0897987</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0893859</v>
+        <v>0.0915508</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.128359</v>
+        <v>0.127926</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0910402</v>
+        <v>0.09104420000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0904987</v>
+        <v>0.0932552</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.153407</v>
+        <v>0.153489</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0937602</v>
+        <v>0.0938793</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0929459</v>
+        <v>0.0963344</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.185777</v>
+        <v>0.186226</v>
       </c>
       <c r="C7" t="n">
-        <v>0.09935570000000001</v>
+        <v>0.0992769</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0994485</v>
+        <v>0.102316</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.230855</v>
+        <v>0.229794</v>
       </c>
       <c r="C8" t="n">
-        <v>0.110769</v>
+        <v>0.111079</v>
       </c>
       <c r="D8" t="n">
-        <v>0.112168</v>
+        <v>0.111581</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.275093</v>
+        <v>0.274858</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0850327</v>
+        <v>0.0850214</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0845534</v>
+        <v>0.0847419</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0858915</v>
+        <v>0.0857359</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0852612</v>
+        <v>0.0852866</v>
       </c>
       <c r="D10" t="n">
-        <v>0.08485819999999999</v>
+        <v>0.0849197</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0867816</v>
+        <v>0.08667320000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0855952</v>
+        <v>0.08560909999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>0.08519889999999999</v>
+        <v>0.08530740000000001</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.08809259999999999</v>
+        <v>0.08801970000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>0.08594789999999999</v>
+        <v>0.0860161</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0863898</v>
+        <v>0.08562939999999999</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0902458</v>
+        <v>0.0901434</v>
       </c>
       <c r="C13" t="n">
-        <v>0.086308</v>
+        <v>0.08623160000000001</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0866416</v>
+        <v>0.0860332</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.09205099999999999</v>
+        <v>0.0919417</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0867617</v>
+        <v>0.08676979999999999</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0863781</v>
+        <v>0.0865461</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.09529849999999999</v>
+        <v>0.09509529999999999</v>
       </c>
       <c r="C15" t="n">
-        <v>0.08753519999999999</v>
+        <v>0.0875119</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0883496</v>
+        <v>0.0875517</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.103732</v>
+        <v>0.100457</v>
       </c>
       <c r="C16" t="n">
-        <v>0.08826680000000001</v>
+        <v>0.0882931</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0878284</v>
+        <v>0.088585</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.10741</v>
+        <v>0.107424</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0890387</v>
+        <v>0.0890093</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0885774</v>
+        <v>0.0894461</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.123851</v>
+        <v>0.118497</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0903325</v>
+        <v>0.09041100000000001</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0899789</v>
+        <v>0.0912259</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.135151</v>
+        <v>0.1352</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0920821</v>
+        <v>0.09207</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0935293</v>
+        <v>0.0934314</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.159901</v>
+        <v>0.158495</v>
       </c>
       <c r="C20" t="n">
-        <v>0.09581729999999999</v>
+        <v>0.0957388</v>
       </c>
       <c r="D20" t="n">
-        <v>0.09553830000000001</v>
+        <v>0.0970796</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.187636</v>
+        <v>0.185241</v>
       </c>
       <c r="C21" t="n">
-        <v>0.102384</v>
+        <v>0.102139</v>
       </c>
       <c r="D21" t="n">
-        <v>0.102188</v>
+        <v>0.102953</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.221115</v>
+        <v>0.220947</v>
       </c>
       <c r="C22" t="n">
-        <v>0.116371</v>
+        <v>0.116392</v>
       </c>
       <c r="D22" t="n">
-        <v>0.116818</v>
+        <v>0.116087</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.271838</v>
+        <v>0.262925</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0861645</v>
+        <v>0.0859827</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0854235</v>
+        <v>0.08544019999999999</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0910851</v>
+        <v>0.089736</v>
       </c>
       <c r="C24" t="n">
-        <v>0.08650910000000001</v>
+        <v>0.0864172</v>
       </c>
       <c r="D24" t="n">
-        <v>0.085758</v>
+        <v>0.0858401</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0923189</v>
+        <v>0.0908804</v>
       </c>
       <c r="C25" t="n">
-        <v>0.08687640000000001</v>
+        <v>0.0867219</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0860812</v>
+        <v>0.0861741</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.093518</v>
+        <v>0.0922603</v>
       </c>
       <c r="C26" t="n">
-        <v>0.08717610000000001</v>
+        <v>0.08709890000000001</v>
       </c>
       <c r="D26" t="n">
-        <v>0.08631030000000001</v>
+        <v>0.0864231</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0943348</v>
+        <v>0.0945526</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0876169</v>
+        <v>0.0875298</v>
       </c>
       <c r="D27" t="n">
-        <v>0.08680640000000001</v>
+        <v>0.0869326</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.09712519999999999</v>
+        <v>0.096997</v>
       </c>
       <c r="C28" t="n">
-        <v>0.08810320000000001</v>
+        <v>0.0879654</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0884378</v>
+        <v>0.08743289999999999</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.103021</v>
+        <v>0.101027</v>
       </c>
       <c r="C29" t="n">
-        <v>0.08855789999999999</v>
+        <v>0.0884568</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0876165</v>
+        <v>0.0880314</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.10682</v>
+        <v>0.106561</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0894546</v>
+        <v>0.0891738</v>
       </c>
       <c r="D30" t="n">
-        <v>0.08888210000000001</v>
+        <v>0.08899410000000001</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.114221</v>
+        <v>0.114391</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0901339</v>
+        <v>0.0901797</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0894711</v>
+        <v>0.09009440000000001</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.123923</v>
+        <v>0.123809</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0915402</v>
+        <v>0.09146</v>
       </c>
       <c r="D32" t="n">
-        <v>0.09088309999999999</v>
+        <v>0.09177399999999999</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.135511</v>
+        <v>0.135755</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0935385</v>
+        <v>0.0934571</v>
       </c>
       <c r="D33" t="n">
-        <v>0.09276769999999999</v>
+        <v>0.09384679999999999</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.153827</v>
+        <v>0.153825</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0975427</v>
+        <v>0.09737419999999999</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0980939</v>
+        <v>0.097412</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.176268</v>
+        <v>0.176882</v>
       </c>
       <c r="C35" t="n">
-        <v>0.103696</v>
+        <v>0.10375</v>
       </c>
       <c r="D35" t="n">
-        <v>0.103439</v>
+        <v>0.103418</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.210081</v>
+        <v>0.210642</v>
       </c>
       <c r="C36" t="n">
-        <v>0.115272</v>
+        <v>0.115289</v>
       </c>
       <c r="D36" t="n">
-        <v>0.114647</v>
+        <v>0.114423</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.263158</v>
+        <v>0.254371</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0869528</v>
+        <v>0.08681700000000001</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0859978</v>
+        <v>0.0861702</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.09237389999999999</v>
+        <v>0.0922598</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0871358</v>
+        <v>0.0869679</v>
       </c>
       <c r="D38" t="n">
-        <v>0.086231</v>
+        <v>0.0864217</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.09361899999999999</v>
+        <v>0.0935561</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0873984</v>
+        <v>0.08741</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0864819</v>
+        <v>0.0866783</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.096424</v>
+        <v>0.0950067</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0879079</v>
+        <v>0.0876581</v>
       </c>
       <c r="D40" t="n">
-        <v>0.08689139999999999</v>
+        <v>0.0874544</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0987024</v>
+        <v>0.09701849999999999</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0889301</v>
+        <v>0.08807130000000001</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0881073</v>
+        <v>0.0878418</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.100104</v>
+        <v>0.100052</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0886334</v>
+        <v>0.088486</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0876564</v>
+        <v>0.0879939</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.104181</v>
+        <v>0.104145</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0891134</v>
+        <v>0.0891195</v>
       </c>
       <c r="D43" t="n">
-        <v>0.08870309999999999</v>
+        <v>0.0892081</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.109547</v>
+        <v>0.109553</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0897892</v>
+        <v>0.0897198</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0889098</v>
+        <v>0.0913742</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.117082</v>
+        <v>0.116072</v>
       </c>
       <c r="C45" t="n">
-        <v>0.09099019999999999</v>
+        <v>0.0906824</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0899249</v>
+        <v>0.09072330000000001</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.124761</v>
+        <v>0.124747</v>
       </c>
       <c r="C46" t="n">
-        <v>0.09326280000000001</v>
+        <v>0.09228260000000001</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0915448</v>
+        <v>0.0923416</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.13487</v>
+        <v>0.134952</v>
       </c>
       <c r="C47" t="n">
-        <v>0.09473669999999999</v>
+        <v>0.09458800000000001</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0940183</v>
+        <v>0.0944233</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.15018</v>
+        <v>0.14956</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0985412</v>
+        <v>0.0984506</v>
       </c>
       <c r="D48" t="n">
-        <v>0.097912</v>
+        <v>0.0981887</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.172698</v>
+        <v>0.172069</v>
       </c>
       <c r="C49" t="n">
-        <v>0.104753</v>
+        <v>0.104674</v>
       </c>
       <c r="D49" t="n">
-        <v>0.104287</v>
+        <v>0.104238</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.212859</v>
+        <v>0.204805</v>
       </c>
       <c r="C50" t="n">
-        <v>0.114411</v>
+        <v>0.114127</v>
       </c>
       <c r="D50" t="n">
-        <v>0.113971</v>
+        <v>0.113728</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.252087</v>
+        <v>0.248314</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0894818</v>
+        <v>0.0891748</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0875016</v>
+        <v>0.0878742</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.301471</v>
+        <v>0.295295</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0890175</v>
+        <v>0.0887888</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0877276</v>
+        <v>0.0882672</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0981202</v>
+        <v>0.0962522</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0893345</v>
+        <v>0.08936239999999999</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0887655</v>
+        <v>0.0882672</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.09936589999999999</v>
+        <v>0.09941129999999999</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0896178</v>
+        <v>0.0907487</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0897797</v>
+        <v>0.0888149</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.101225</v>
+        <v>0.100838</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0914817</v>
+        <v>0.0900207</v>
       </c>
       <c r="D55" t="n">
-        <v>0.09013599999999999</v>
+        <v>0.0892159</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.103842</v>
+        <v>0.10351</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0912471</v>
+        <v>0.0910981</v>
       </c>
       <c r="D56" t="n">
-        <v>0.09119910000000001</v>
+        <v>0.0902845</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.107122</v>
+        <v>0.106692</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0924649</v>
+        <v>0.0912615</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0908534</v>
+        <v>0.0904276</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.111359</v>
+        <v>0.110666</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0935401</v>
+        <v>0.09264360000000001</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0925149</v>
+        <v>0.09161610000000001</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.119301</v>
+        <v>0.117795</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0935117</v>
+        <v>0.0931409</v>
       </c>
       <c r="D59" t="n">
-        <v>0.09210309999999999</v>
+        <v>0.0929915</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.12579</v>
+        <v>0.126203</v>
       </c>
       <c r="C60" t="n">
-        <v>0.09522120000000001</v>
+        <v>0.0953227</v>
       </c>
       <c r="D60" t="n">
-        <v>0.09477919999999999</v>
+        <v>0.0947983</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.137874</v>
+        <v>0.136741</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0971397</v>
+        <v>0.09764630000000001</v>
       </c>
       <c r="D61" t="n">
-        <v>0.09668880000000001</v>
+        <v>0.097332</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.154921</v>
+        <v>0.15297</v>
       </c>
       <c r="C62" t="n">
-        <v>0.09995420000000001</v>
+        <v>0.100208</v>
       </c>
       <c r="D62" t="n">
-        <v>0.099552</v>
+        <v>0.09969310000000001</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.173052</v>
+        <v>0.172634</v>
       </c>
       <c r="C63" t="n">
-        <v>0.105797</v>
+        <v>0.105122</v>
       </c>
       <c r="D63" t="n">
-        <v>0.105491</v>
+        <v>0.104448</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.208926</v>
+        <v>0.203076</v>
       </c>
       <c r="C64" t="n">
-        <v>0.113522</v>
+        <v>0.113625</v>
       </c>
       <c r="D64" t="n">
-        <v>0.112743</v>
+        <v>0.112596</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.248051</v>
+        <v>0.246555</v>
       </c>
       <c r="C65" t="n">
-        <v>0.129391</v>
+        <v>0.128408</v>
       </c>
       <c r="D65" t="n">
-        <v>0.126886</v>
+        <v>0.126852</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.296483</v>
+        <v>0.294912</v>
       </c>
       <c r="C66" t="n">
-        <v>0.09726890000000001</v>
+        <v>0.0959573</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0964158</v>
+        <v>0.09579459999999999</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.107914</v>
+        <v>0.109396</v>
       </c>
       <c r="C67" t="n">
-        <v>0.09652090000000001</v>
+        <v>0.09637800000000001</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0958011</v>
+        <v>0.0965239</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.108855</v>
+        <v>0.10993</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0972214</v>
+        <v>0.09695769999999999</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0963739</v>
+        <v>0.0965588</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.113334</v>
+        <v>0.111208</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0971368</v>
+        <v>0.0971166</v>
       </c>
       <c r="D69" t="n">
-        <v>0.098039</v>
+        <v>0.0978337</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.115948</v>
+        <v>0.112647</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0981804</v>
+        <v>0.0974351</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0985052</v>
+        <v>0.0974723</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.117603</v>
+        <v>0.117435</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0986969</v>
+        <v>0.0981866</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0999992</v>
+        <v>0.0984179</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.123881</v>
+        <v>0.122225</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0990732</v>
+        <v>0.09867919999999999</v>
       </c>
       <c r="D72" t="n">
-        <v>0.100466</v>
+        <v>0.0994429</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.132157</v>
+        <v>0.1271</v>
       </c>
       <c r="C73" t="n">
-        <v>0.100205</v>
+        <v>0.09980219999999999</v>
       </c>
       <c r="D73" t="n">
-        <v>0.102405</v>
+        <v>0.10022</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.137575</v>
+        <v>0.134554</v>
       </c>
       <c r="C74" t="n">
-        <v>0.101721</v>
+        <v>0.101492</v>
       </c>
       <c r="D74" t="n">
-        <v>0.102377</v>
+        <v>0.100172</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.144412</v>
+        <v>0.14459</v>
       </c>
       <c r="C75" t="n">
-        <v>0.103967</v>
+        <v>0.104599</v>
       </c>
       <c r="D75" t="n">
-        <v>0.104783</v>
+        <v>0.103983</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.159763</v>
+        <v>0.159134</v>
       </c>
       <c r="C76" t="n">
-        <v>0.106129</v>
+        <v>0.107442</v>
       </c>
       <c r="D76" t="n">
-        <v>0.106901</v>
+        <v>0.107828</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.184824</v>
+        <v>0.178471</v>
       </c>
       <c r="C77" t="n">
-        <v>0.111742</v>
+        <v>0.111914</v>
       </c>
       <c r="D77" t="n">
-        <v>0.112217</v>
+        <v>0.112676</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.214266</v>
+        <v>0.208182</v>
       </c>
       <c r="C78" t="n">
-        <v>0.119631</v>
+        <v>0.120211</v>
       </c>
       <c r="D78" t="n">
-        <v>0.121107</v>
+        <v>0.120437</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.250309</v>
+        <v>0.248539</v>
       </c>
       <c r="C79" t="n">
-        <v>0.133667</v>
+        <v>0.132766</v>
       </c>
       <c r="D79" t="n">
-        <v>0.135238</v>
+        <v>0.134112</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.311647</v>
+        <v>0.299149</v>
       </c>
       <c r="C80" t="n">
-        <v>0.104174</v>
+        <v>0.104034</v>
       </c>
       <c r="D80" t="n">
-        <v>0.102832</v>
+        <v>0.102688</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.120144</v>
+        <v>0.11999</v>
       </c>
       <c r="C81" t="n">
-        <v>0.104307</v>
+        <v>0.104228</v>
       </c>
       <c r="D81" t="n">
-        <v>0.10458</v>
+        <v>0.103396</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.123328</v>
+        <v>0.121656</v>
       </c>
       <c r="C82" t="n">
-        <v>0.105109</v>
+        <v>0.10466</v>
       </c>
       <c r="D82" t="n">
-        <v>0.10367</v>
+        <v>0.105392</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.124042</v>
+        <v>0.123698</v>
       </c>
       <c r="C83" t="n">
-        <v>0.105469</v>
+        <v>0.105815</v>
       </c>
       <c r="D83" t="n">
-        <v>0.105838</v>
+        <v>0.105939</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.126873</v>
+        <v>0.128858</v>
       </c>
       <c r="C84" t="n">
-        <v>0.106772</v>
+        <v>0.106748</v>
       </c>
       <c r="D84" t="n">
-        <v>0.106636</v>
+        <v>0.106746</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.130174</v>
+        <v>0.130039</v>
       </c>
       <c r="C85" t="n">
-        <v>0.107653</v>
+        <v>0.108103</v>
       </c>
       <c r="D85" t="n">
-        <v>0.107611</v>
+        <v>0.107851</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.134754</v>
+        <v>0.134954</v>
       </c>
       <c r="C86" t="n">
-        <v>0.108655</v>
+        <v>0.109345</v>
       </c>
       <c r="D86" t="n">
-        <v>0.10905</v>
+        <v>0.109433</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.140825</v>
+        <v>0.140893</v>
       </c>
       <c r="C87" t="n">
-        <v>0.110669</v>
+        <v>0.110746</v>
       </c>
       <c r="D87" t="n">
-        <v>0.109253</v>
+        <v>0.109311</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.149924</v>
+        <v>0.148991</v>
       </c>
       <c r="C88" t="n">
-        <v>0.113384</v>
+        <v>0.113392</v>
       </c>
       <c r="D88" t="n">
-        <v>0.11122</v>
+        <v>0.111824</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.160557</v>
+        <v>0.16002</v>
       </c>
       <c r="C89" t="n">
-        <v>0.116183</v>
+        <v>0.116313</v>
       </c>
       <c r="D89" t="n">
-        <v>0.116526</v>
+        <v>0.114767</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.175378</v>
+        <v>0.175375</v>
       </c>
       <c r="C90" t="n">
-        <v>0.120825</v>
+        <v>0.120321</v>
       </c>
       <c r="D90" t="n">
-        <v>0.120631</v>
+        <v>0.121121</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.202996</v>
+        <v>0.195681</v>
       </c>
       <c r="C91" t="n">
-        <v>0.126035</v>
+        <v>0.126948</v>
       </c>
       <c r="D91" t="n">
-        <v>0.125014</v>
+        <v>0.125467</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.225906</v>
+        <v>0.225336</v>
       </c>
       <c r="C92" t="n">
-        <v>0.136098</v>
+        <v>0.135468</v>
       </c>
       <c r="D92" t="n">
-        <v>0.134579</v>
+        <v>0.134702</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.274206</v>
+        <v>0.272983</v>
       </c>
       <c r="C93" t="n">
-        <v>0.150469</v>
+        <v>0.150912</v>
       </c>
       <c r="D93" t="n">
-        <v>0.151127</v>
+        <v>0.151238</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.334577</v>
+        <v>0.325961</v>
       </c>
       <c r="C94" t="n">
-        <v>0.113446</v>
+        <v>0.114646</v>
       </c>
       <c r="D94" t="n">
-        <v>0.11482</v>
+        <v>0.113757</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.135235</v>
+        <v>0.13363</v>
       </c>
       <c r="C95" t="n">
-        <v>0.116447</v>
+        <v>0.116271</v>
       </c>
       <c r="D95" t="n">
-        <v>0.115308</v>
+        <v>0.115159</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.13706</v>
+        <v>0.136279</v>
       </c>
       <c r="C96" t="n">
-        <v>0.116673</v>
+        <v>0.116449</v>
       </c>
       <c r="D96" t="n">
-        <v>0.118036</v>
+        <v>0.117115</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.139845</v>
+        <v>0.139757</v>
       </c>
       <c r="C97" t="n">
-        <v>0.119965</v>
+        <v>0.11994</v>
       </c>
       <c r="D97" t="n">
-        <v>0.120031</v>
+        <v>0.119791</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.144249</v>
+        <v>0.143816</v>
       </c>
       <c r="C98" t="n">
-        <v>0.121877</v>
+        <v>0.121873</v>
       </c>
       <c r="D98" t="n">
-        <v>0.121888</v>
+        <v>0.122027</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.148644</v>
+        <v>0.148379</v>
       </c>
       <c r="C99" t="n">
-        <v>0.12223</v>
+        <v>0.122278</v>
       </c>
       <c r="D99" t="n">
-        <v>0.123806</v>
+        <v>0.124016</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.154184</v>
+        <v>0.153829</v>
       </c>
       <c r="C100" t="n">
-        <v>0.125906</v>
+        <v>0.125746</v>
       </c>
       <c r="D100" t="n">
-        <v>0.12608</v>
+        <v>0.125975</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.161112</v>
+        <v>0.160613</v>
       </c>
       <c r="C101" t="n">
-        <v>0.128325</v>
+        <v>0.127883</v>
       </c>
       <c r="D101" t="n">
-        <v>0.12852</v>
+        <v>0.128375</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.169147</v>
+        <v>0.1698</v>
       </c>
       <c r="C102" t="n">
-        <v>0.130806</v>
+        <v>0.130715</v>
       </c>
       <c r="D102" t="n">
-        <v>0.12938</v>
+        <v>0.129387</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.180359</v>
+        <v>0.179342</v>
       </c>
       <c r="C103" t="n">
-        <v>0.134381</v>
+        <v>0.133871</v>
       </c>
       <c r="D103" t="n">
-        <v>0.134523</v>
+        <v>0.134644</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.199829</v>
+        <v>0.193981</v>
       </c>
       <c r="C104" t="n">
-        <v>0.136333</v>
+        <v>0.136077</v>
       </c>
       <c r="D104" t="n">
-        <v>0.138915</v>
+        <v>0.137026</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.214268</v>
+        <v>0.22028</v>
       </c>
       <c r="C105" t="n">
-        <v>0.144537</v>
+        <v>0.143593</v>
       </c>
       <c r="D105" t="n">
-        <v>0.142852</v>
+        <v>0.144767</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.243643</v>
+        <v>0.242927</v>
       </c>
       <c r="C106" t="n">
-        <v>0.15338</v>
+        <v>0.152824</v>
       </c>
       <c r="D106" t="n">
-        <v>0.153947</v>
+        <v>0.151732</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.287341</v>
+        <v>0.294436</v>
       </c>
       <c r="C107" t="n">
-        <v>0.167446</v>
+        <v>0.166631</v>
       </c>
       <c r="D107" t="n">
-        <v>0.168154</v>
+        <v>0.167902</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.353295</v>
+        <v>0.35968</v>
       </c>
       <c r="C108" t="n">
-        <v>0.124432</v>
+        <v>0.123502</v>
       </c>
       <c r="D108" t="n">
-        <v>0.123912</v>
+        <v>0.123739</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.451238</v>
+        <v>0.446983</v>
       </c>
       <c r="C109" t="n">
-        <v>0.124937</v>
+        <v>0.124892</v>
       </c>
       <c r="D109" t="n">
-        <v>0.125216</v>
+        <v>0.12469</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.145354</v>
+        <v>0.146736</v>
       </c>
       <c r="C110" t="n">
-        <v>0.12626</v>
+        <v>0.12649</v>
       </c>
       <c r="D110" t="n">
-        <v>0.126715</v>
+        <v>0.126329</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.148734</v>
+        <v>0.14813</v>
       </c>
       <c r="C111" t="n">
-        <v>0.128271</v>
+        <v>0.128085</v>
       </c>
       <c r="D111" t="n">
-        <v>0.128229</v>
+        <v>0.127407</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.15278</v>
+        <v>0.15186</v>
       </c>
       <c r="C112" t="n">
-        <v>0.130171</v>
+        <v>0.129562</v>
       </c>
       <c r="D112" t="n">
-        <v>0.1293</v>
+        <v>0.129897</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.157058</v>
+        <v>0.158111</v>
       </c>
       <c r="C113" t="n">
-        <v>0.131865</v>
+        <v>0.131679</v>
       </c>
       <c r="D113" t="n">
-        <v>0.13163</v>
+        <v>0.131803</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.163399</v>
+        <v>0.162851</v>
       </c>
       <c r="C114" t="n">
-        <v>0.134507</v>
+        <v>0.133768</v>
       </c>
       <c r="D114" t="n">
-        <v>0.134401</v>
+        <v>0.134193</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.171094</v>
+        <v>0.173967</v>
       </c>
       <c r="C115" t="n">
-        <v>0.137037</v>
+        <v>0.136217</v>
       </c>
       <c r="D115" t="n">
-        <v>0.137218</v>
+        <v>0.136222</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.180887</v>
+        <v>0.180907</v>
       </c>
       <c r="C116" t="n">
-        <v>0.140854</v>
+        <v>0.140238</v>
       </c>
       <c r="D116" t="n">
-        <v>0.140888</v>
+        <v>0.139719</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.194541</v>
+        <v>0.194532</v>
       </c>
       <c r="C117" t="n">
-        <v>0.145388</v>
+        <v>0.145261</v>
       </c>
       <c r="D117" t="n">
-        <v>0.145606</v>
+        <v>0.144811</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.215538</v>
+        <v>0.216751</v>
       </c>
       <c r="C118" t="n">
-        <v>0.151339</v>
+        <v>0.150645</v>
       </c>
       <c r="D118" t="n">
-        <v>0.15201</v>
+        <v>0.151348</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.234729</v>
+        <v>0.234835</v>
       </c>
       <c r="C119" t="n">
-        <v>0.159457</v>
+        <v>0.159635</v>
       </c>
       <c r="D119" t="n">
-        <v>0.159918</v>
+        <v>0.159989</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.265569</v>
+        <v>0.265469</v>
       </c>
       <c r="C120" t="n">
-        <v>0.170009</v>
+        <v>0.170583</v>
       </c>
       <c r="D120" t="n">
-        <v>0.169403</v>
+        <v>0.171135</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.314887</v>
+        <v>0.316267</v>
       </c>
       <c r="C121" t="n">
-        <v>0.186053</v>
+        <v>0.186202</v>
       </c>
       <c r="D121" t="n">
-        <v>0.185359</v>
+        <v>0.18525</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.374688</v>
+        <v>0.379637</v>
       </c>
       <c r="C122" t="n">
-        <v>0.210319</v>
+        <v>0.20952</v>
       </c>
       <c r="D122" t="n">
-        <v>0.210089</v>
+        <v>0.210096</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.47276</v>
+        <v>0.470567</v>
       </c>
       <c r="C123" t="n">
-        <v>0.149431</v>
+        <v>0.146479</v>
       </c>
       <c r="D123" t="n">
-        <v>0.150646</v>
+        <v>0.149391</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.17611</v>
+        <v>0.172615</v>
       </c>
       <c r="C124" t="n">
-        <v>0.156526</v>
+        <v>0.151284</v>
       </c>
       <c r="D124" t="n">
-        <v>0.153724</v>
+        <v>0.151121</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.17736</v>
+        <v>0.178581</v>
       </c>
       <c r="C125" t="n">
-        <v>0.15626</v>
+        <v>0.152187</v>
       </c>
       <c r="D125" t="n">
-        <v>0.152708</v>
+        <v>0.152846</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.183894</v>
+        <v>0.18018</v>
       </c>
       <c r="C126" t="n">
-        <v>0.158636</v>
+        <v>0.155151</v>
       </c>
       <c r="D126" t="n">
-        <v>0.159873</v>
+        <v>0.155956</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.191589</v>
+        <v>0.183819</v>
       </c>
       <c r="C127" t="n">
-        <v>0.158333</v>
+        <v>0.158329</v>
       </c>
       <c r="D127" t="n">
-        <v>0.157485</v>
+        <v>0.159325</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.192935</v>
+        <v>0.190499</v>
       </c>
       <c r="C128" t="n">
-        <v>0.16473</v>
+        <v>0.163452</v>
       </c>
       <c r="D128" t="n">
-        <v>0.162472</v>
+        <v>0.158932</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.199974</v>
+        <v>0.198872</v>
       </c>
       <c r="C129" t="n">
-        <v>0.163663</v>
+        <v>0.164952</v>
       </c>
       <c r="D129" t="n">
-        <v>0.167247</v>
+        <v>0.163577</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.20894</v>
+        <v>0.208643</v>
       </c>
       <c r="C130" t="n">
-        <v>0.168496</v>
+        <v>0.166407</v>
       </c>
       <c r="D130" t="n">
-        <v>0.167375</v>
+        <v>0.166349</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.223452</v>
+        <v>0.221261</v>
       </c>
       <c r="C131" t="n">
-        <v>0.172817</v>
+        <v>0.172954</v>
       </c>
       <c r="D131" t="n">
-        <v>0.174124</v>
+        <v>0.172341</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.241277</v>
+        <v>0.236213</v>
       </c>
       <c r="C132" t="n">
-        <v>0.176005</v>
+        <v>0.174334</v>
       </c>
       <c r="D132" t="n">
-        <v>0.177571</v>
+        <v>0.175321</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.259197</v>
+        <v>0.256987</v>
       </c>
       <c r="C133" t="n">
-        <v>0.183401</v>
+        <v>0.18022</v>
       </c>
       <c r="D133" t="n">
-        <v>0.182989</v>
+        <v>0.182669</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.291586</v>
+        <v>0.288423</v>
       </c>
       <c r="C134" t="n">
-        <v>0.192488</v>
+        <v>0.190637</v>
       </c>
       <c r="D134" t="n">
-        <v>0.191159</v>
+        <v>0.191825</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.328756</v>
+        <v>0.332127</v>
       </c>
       <c r="C135" t="n">
-        <v>0.209047</v>
+        <v>0.205711</v>
       </c>
       <c r="D135" t="n">
-        <v>0.208861</v>
+        <v>0.208784</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.38956</v>
+        <v>0.39541</v>
       </c>
       <c r="C136" t="n">
-        <v>0.225061</v>
+        <v>0.22557</v>
       </c>
       <c r="D136" t="n">
-        <v>0.224336</v>
+        <v>0.227076</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.483274</v>
+        <v>0.486455</v>
       </c>
       <c r="C137" t="n">
-        <v>0.288007</v>
+        <v>0.284473</v>
       </c>
       <c r="D137" t="n">
-        <v>0.286183</v>
+        <v>0.283924</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.317019</v>
+        <v>0.318655</v>
       </c>
       <c r="C138" t="n">
-        <v>0.29073</v>
+        <v>0.285356</v>
       </c>
       <c r="D138" t="n">
-        <v>0.285554</v>
+        <v>0.281916</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.318149</v>
+        <v>0.322504</v>
       </c>
       <c r="C139" t="n">
-        <v>0.291059</v>
+        <v>0.287936</v>
       </c>
       <c r="D139" t="n">
-        <v>0.290059</v>
+        <v>0.285968</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.326165</v>
+        <v>0.323508</v>
       </c>
       <c r="C140" t="n">
-        <v>0.297514</v>
+        <v>0.285337</v>
       </c>
       <c r="D140" t="n">
-        <v>0.293961</v>
+        <v>0.285594</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.333305</v>
+        <v>0.320301</v>
       </c>
       <c r="C141" t="n">
-        <v>0.294143</v>
+        <v>0.295037</v>
       </c>
       <c r="D141" t="n">
-        <v>0.29529</v>
+        <v>0.288598</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.336202</v>
+        <v>0.329985</v>
       </c>
       <c r="C142" t="n">
-        <v>0.299033</v>
+        <v>0.295725</v>
       </c>
       <c r="D142" t="n">
-        <v>0.291088</v>
+        <v>0.296691</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.34343</v>
+        <v>0.3394</v>
       </c>
       <c r="C143" t="n">
-        <v>0.301096</v>
+        <v>0.298943</v>
       </c>
       <c r="D143" t="n">
-        <v>0.293974</v>
+        <v>0.297507</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Scattered unsuccessful looukp.xlsx
+++ b/clang-x86/Scattered unsuccessful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.09494759999999999</v>
+        <v>0.09539980000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0876031</v>
+        <v>0.0876083</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0888033</v>
+        <v>0.08874700000000001</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.100047</v>
+        <v>0.100145</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0887135</v>
+        <v>0.08869489999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>0.09003070000000001</v>
+        <v>0.0899765</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.112152</v>
+        <v>0.112512</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0897987</v>
+        <v>0.0897386</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0915508</v>
+        <v>0.09151769999999999</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.127926</v>
+        <v>0.131126</v>
       </c>
       <c r="C5" t="n">
-        <v>0.09104420000000001</v>
+        <v>0.090908</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0932552</v>
+        <v>0.0931213</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.153489</v>
+        <v>0.153466</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0938793</v>
+        <v>0.0935767</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0963344</v>
+        <v>0.0962157</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.186226</v>
+        <v>0.186318</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0992769</v>
+        <v>0.0992648</v>
       </c>
       <c r="D7" t="n">
-        <v>0.102316</v>
+        <v>0.102207</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.229794</v>
+        <v>0.237121</v>
       </c>
       <c r="C8" t="n">
-        <v>0.111079</v>
+        <v>0.111054</v>
       </c>
       <c r="D8" t="n">
-        <v>0.111581</v>
+        <v>0.112107</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.274858</v>
+        <v>0.281364</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0850214</v>
+        <v>0.0850593</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0847419</v>
+        <v>0.08472449999999999</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0857359</v>
+        <v>0.0861962</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0852866</v>
+        <v>0.085368</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0849197</v>
+        <v>0.08498600000000001</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.08667320000000001</v>
+        <v>0.0871717</v>
       </c>
       <c r="C11" t="n">
-        <v>0.08560909999999999</v>
+        <v>0.0857195</v>
       </c>
       <c r="D11" t="n">
-        <v>0.08530740000000001</v>
+        <v>0.0853655</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.08801970000000001</v>
+        <v>0.0885027</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0860161</v>
+        <v>0.08616989999999999</v>
       </c>
       <c r="D12" t="n">
-        <v>0.08562939999999999</v>
+        <v>0.0857493</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0901434</v>
+        <v>0.09068759999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>0.08623160000000001</v>
+        <v>0.0864196</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0860332</v>
+        <v>0.0861418</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0919417</v>
+        <v>0.0946603</v>
       </c>
       <c r="C14" t="n">
-        <v>0.08676979999999999</v>
+        <v>0.0868963</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0865461</v>
+        <v>0.0866788</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.09509529999999999</v>
+        <v>0.09746829999999999</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0875119</v>
+        <v>0.0876817</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0875517</v>
+        <v>0.08765779999999999</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.100457</v>
+        <v>0.100914</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0882931</v>
+        <v>0.08849509999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>0.088585</v>
+        <v>0.0886415</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.107424</v>
+        <v>0.107692</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0890093</v>
+        <v>0.0891489</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0894461</v>
+        <v>0.0895691</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.118497</v>
+        <v>0.119135</v>
       </c>
       <c r="C18" t="n">
-        <v>0.09041100000000001</v>
+        <v>0.0904855</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0912259</v>
+        <v>0.091334</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.1352</v>
+        <v>0.135675</v>
       </c>
       <c r="C19" t="n">
-        <v>0.09207</v>
+        <v>0.0921298</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0934314</v>
+        <v>0.0935242</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.158495</v>
+        <v>0.167862</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0957388</v>
+        <v>0.0957804</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0970796</v>
+        <v>0.09720669999999999</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.185241</v>
+        <v>0.191143</v>
       </c>
       <c r="C21" t="n">
-        <v>0.102139</v>
+        <v>0.102383</v>
       </c>
       <c r="D21" t="n">
-        <v>0.102953</v>
+        <v>0.103048</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.220947</v>
+        <v>0.221564</v>
       </c>
       <c r="C22" t="n">
-        <v>0.116392</v>
+        <v>0.11627</v>
       </c>
       <c r="D22" t="n">
-        <v>0.116087</v>
+        <v>0.116185</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.262925</v>
+        <v>0.263394</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0859827</v>
+        <v>0.0860175</v>
       </c>
       <c r="D23" t="n">
-        <v>0.08544019999999999</v>
+        <v>0.0853854</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.089736</v>
+        <v>0.0908933</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0864172</v>
+        <v>0.0865046</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0858401</v>
+        <v>0.08571239999999999</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0908804</v>
+        <v>0.0909331</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0867219</v>
+        <v>0.0867841</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0861741</v>
+        <v>0.08604680000000001</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0922603</v>
+        <v>0.0934133</v>
       </c>
       <c r="C26" t="n">
-        <v>0.08709890000000001</v>
+        <v>0.0870764</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0864231</v>
+        <v>0.0863495</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0945526</v>
+        <v>0.0945312</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0875298</v>
+        <v>0.0879143</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0869326</v>
+        <v>0.08687159999999999</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.096997</v>
+        <v>0.09723610000000001</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0879654</v>
+        <v>0.08805060000000001</v>
       </c>
       <c r="D28" t="n">
-        <v>0.08743289999999999</v>
+        <v>0.0873221</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.101027</v>
+        <v>0.100939</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0884568</v>
+        <v>0.08845550000000001</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0880314</v>
+        <v>0.0879021</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.106561</v>
+        <v>0.106813</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0891738</v>
+        <v>0.08920119999999999</v>
       </c>
       <c r="D30" t="n">
-        <v>0.08899410000000001</v>
+        <v>0.0888528</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.114391</v>
+        <v>0.118315</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0901797</v>
+        <v>0.0901946</v>
       </c>
       <c r="D31" t="n">
-        <v>0.09009440000000001</v>
+        <v>0.08999649999999999</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.123809</v>
+        <v>0.123817</v>
       </c>
       <c r="C32" t="n">
-        <v>0.09146</v>
+        <v>0.09170639999999999</v>
       </c>
       <c r="D32" t="n">
-        <v>0.09177399999999999</v>
+        <v>0.091693</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.135755</v>
+        <v>0.141824</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0934571</v>
+        <v>0.0935671</v>
       </c>
       <c r="D33" t="n">
-        <v>0.09384679999999999</v>
+        <v>0.09384140000000001</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.153825</v>
+        <v>0.161845</v>
       </c>
       <c r="C34" t="n">
-        <v>0.09737419999999999</v>
+        <v>0.0975766</v>
       </c>
       <c r="D34" t="n">
-        <v>0.097412</v>
+        <v>0.0974003</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.176882</v>
+        <v>0.177075</v>
       </c>
       <c r="C35" t="n">
-        <v>0.10375</v>
+        <v>0.103914</v>
       </c>
       <c r="D35" t="n">
-        <v>0.103418</v>
+        <v>0.103543</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.210642</v>
+        <v>0.211001</v>
       </c>
       <c r="C36" t="n">
-        <v>0.115289</v>
+        <v>0.115312</v>
       </c>
       <c r="D36" t="n">
-        <v>0.114423</v>
+        <v>0.114511</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.254371</v>
+        <v>0.2563</v>
       </c>
       <c r="C37" t="n">
-        <v>0.08681700000000001</v>
+        <v>0.0868741</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0861702</v>
+        <v>0.08615250000000001</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0922598</v>
+        <v>0.09367159999999999</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0869679</v>
+        <v>0.0871735</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0864217</v>
+        <v>0.08641740000000001</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0935561</v>
+        <v>0.0934748</v>
       </c>
       <c r="C39" t="n">
-        <v>0.08741</v>
+        <v>0.0873651</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0866783</v>
+        <v>0.0866802</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0950067</v>
+        <v>0.09517109999999999</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0876581</v>
+        <v>0.0880264</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0874544</v>
+        <v>0.0870708</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.09701849999999999</v>
+        <v>0.09773320000000001</v>
       </c>
       <c r="C41" t="n">
-        <v>0.08807130000000001</v>
+        <v>0.08864809999999999</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0878418</v>
+        <v>0.08739189999999999</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.100052</v>
+        <v>0.10022</v>
       </c>
       <c r="C42" t="n">
-        <v>0.088486</v>
+        <v>0.0886323</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0879939</v>
+        <v>0.08785080000000001</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.104145</v>
+        <v>0.104315</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0891195</v>
+        <v>0.0892254</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0892081</v>
+        <v>0.08855250000000001</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.109553</v>
+        <v>0.111901</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0897198</v>
+        <v>0.08997049999999999</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0913742</v>
+        <v>0.0892867</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.116072</v>
+        <v>0.120428</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0906824</v>
+        <v>0.0908865</v>
       </c>
       <c r="D45" t="n">
-        <v>0.09072330000000001</v>
+        <v>0.0903775</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.124747</v>
+        <v>0.12509</v>
       </c>
       <c r="C46" t="n">
-        <v>0.09228260000000001</v>
+        <v>0.09238200000000001</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0923416</v>
+        <v>0.0920369</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.134952</v>
+        <v>0.136027</v>
       </c>
       <c r="C47" t="n">
-        <v>0.09458800000000001</v>
+        <v>0.09554749999999999</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0944233</v>
+        <v>0.09438000000000001</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.14956</v>
+        <v>0.150187</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0984506</v>
+        <v>0.0986128</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0981887</v>
+        <v>0.0980747</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.172069</v>
+        <v>0.172717</v>
       </c>
       <c r="C49" t="n">
-        <v>0.104674</v>
+        <v>0.104914</v>
       </c>
       <c r="D49" t="n">
-        <v>0.104238</v>
+        <v>0.104149</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.204805</v>
+        <v>0.208073</v>
       </c>
       <c r="C50" t="n">
-        <v>0.114127</v>
+        <v>0.114521</v>
       </c>
       <c r="D50" t="n">
-        <v>0.113728</v>
+        <v>0.113756</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.248314</v>
+        <v>0.25652</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0891748</v>
+        <v>0.0895673</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0878742</v>
+        <v>0.0874144</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.295295</v>
+        <v>0.296906</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0887888</v>
+        <v>0.0893336</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0882672</v>
+        <v>0.0879682</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0962522</v>
+        <v>0.096078</v>
       </c>
       <c r="C53" t="n">
-        <v>0.08936239999999999</v>
+        <v>0.09010360000000001</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0882672</v>
+        <v>0.08836919999999999</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.09941129999999999</v>
+        <v>0.0980637</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0907487</v>
+        <v>0.0904557</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0888149</v>
+        <v>0.08861719999999999</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.100838</v>
+        <v>0.100619</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0900207</v>
+        <v>0.09097230000000001</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0892159</v>
+        <v>0.08969009999999999</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.10351</v>
+        <v>0.102934</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0910981</v>
+        <v>0.091086</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0902845</v>
+        <v>0.08989080000000001</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.106692</v>
+        <v>0.109653</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0912615</v>
+        <v>0.0918216</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0904276</v>
+        <v>0.0908214</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.110666</v>
+        <v>0.112379</v>
       </c>
       <c r="C58" t="n">
-        <v>0.09264360000000001</v>
+        <v>0.0919608</v>
       </c>
       <c r="D58" t="n">
-        <v>0.09161610000000001</v>
+        <v>0.0923657</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.117795</v>
+        <v>0.120955</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0931409</v>
+        <v>0.0939039</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0929915</v>
+        <v>0.0929031</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.126203</v>
+        <v>0.12668</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0953227</v>
+        <v>0.09637800000000001</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0947983</v>
+        <v>0.0944974</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.136741</v>
+        <v>0.141883</v>
       </c>
       <c r="C61" t="n">
-        <v>0.09764630000000001</v>
+        <v>0.0963169</v>
       </c>
       <c r="D61" t="n">
-        <v>0.097332</v>
+        <v>0.0964424</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.15297</v>
+        <v>0.159033</v>
       </c>
       <c r="C62" t="n">
-        <v>0.100208</v>
+        <v>0.100701</v>
       </c>
       <c r="D62" t="n">
-        <v>0.09969310000000001</v>
+        <v>0.09959170000000001</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.172634</v>
+        <v>0.172287</v>
       </c>
       <c r="C63" t="n">
-        <v>0.105122</v>
+        <v>0.10486</v>
       </c>
       <c r="D63" t="n">
-        <v>0.104448</v>
+        <v>0.104893</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.203076</v>
+        <v>0.201098</v>
       </c>
       <c r="C64" t="n">
-        <v>0.113625</v>
+        <v>0.113343</v>
       </c>
       <c r="D64" t="n">
-        <v>0.112596</v>
+        <v>0.113279</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.246555</v>
+        <v>0.25474</v>
       </c>
       <c r="C65" t="n">
-        <v>0.128408</v>
+        <v>0.127549</v>
       </c>
       <c r="D65" t="n">
-        <v>0.126852</v>
+        <v>0.127111</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.294912</v>
+        <v>0.304487</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0959573</v>
+        <v>0.097205</v>
       </c>
       <c r="D66" t="n">
-        <v>0.09579459999999999</v>
+        <v>0.0925974</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.109396</v>
+        <v>0.108159</v>
       </c>
       <c r="C67" t="n">
-        <v>0.09637800000000001</v>
+        <v>0.0965621</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0965239</v>
+        <v>0.09550019999999999</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.10993</v>
+        <v>0.110623</v>
       </c>
       <c r="C68" t="n">
-        <v>0.09695769999999999</v>
+        <v>0.09716130000000001</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0965588</v>
+        <v>0.0971769</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.111208</v>
+        <v>0.113984</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0971166</v>
+        <v>0.0968933</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0978337</v>
+        <v>0.0933452</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.112647</v>
+        <v>0.11449</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0974351</v>
+        <v>0.0979341</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0974723</v>
+        <v>0.0971968</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.117435</v>
+        <v>0.117429</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0981866</v>
+        <v>0.0991649</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0984179</v>
+        <v>0.09797119999999999</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.122225</v>
+        <v>0.122689</v>
       </c>
       <c r="C72" t="n">
-        <v>0.09867919999999999</v>
+        <v>0.0992495</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0994429</v>
+        <v>0.0992183</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.1271</v>
+        <v>0.126586</v>
       </c>
       <c r="C73" t="n">
-        <v>0.09980219999999999</v>
+        <v>0.100477</v>
       </c>
       <c r="D73" t="n">
-        <v>0.10022</v>
+        <v>0.10107</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.134554</v>
+        <v>0.135269</v>
       </c>
       <c r="C74" t="n">
-        <v>0.101492</v>
+        <v>0.101432</v>
       </c>
       <c r="D74" t="n">
-        <v>0.100172</v>
+        <v>0.102074</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.14459</v>
+        <v>0.14602</v>
       </c>
       <c r="C75" t="n">
-        <v>0.104599</v>
+        <v>0.104341</v>
       </c>
       <c r="D75" t="n">
-        <v>0.103983</v>
+        <v>0.10461</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.159134</v>
+        <v>0.158589</v>
       </c>
       <c r="C76" t="n">
-        <v>0.107442</v>
+        <v>0.1073</v>
       </c>
       <c r="D76" t="n">
-        <v>0.107828</v>
+        <v>0.106809</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.178471</v>
+        <v>0.177006</v>
       </c>
       <c r="C77" t="n">
-        <v>0.111914</v>
+        <v>0.111385</v>
       </c>
       <c r="D77" t="n">
-        <v>0.112676</v>
+        <v>0.111752</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.208182</v>
+        <v>0.206075</v>
       </c>
       <c r="C78" t="n">
-        <v>0.120211</v>
+        <v>0.11907</v>
       </c>
       <c r="D78" t="n">
-        <v>0.120437</v>
+        <v>0.119812</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.248539</v>
+        <v>0.254642</v>
       </c>
       <c r="C79" t="n">
-        <v>0.132766</v>
+        <v>0.132659</v>
       </c>
       <c r="D79" t="n">
-        <v>0.134112</v>
+        <v>0.132711</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.299149</v>
+        <v>0.306317</v>
       </c>
       <c r="C80" t="n">
-        <v>0.104034</v>
+        <v>0.103346</v>
       </c>
       <c r="D80" t="n">
-        <v>0.102688</v>
+        <v>0.104143</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.11999</v>
+        <v>0.121826</v>
       </c>
       <c r="C81" t="n">
-        <v>0.104228</v>
+        <v>0.105001</v>
       </c>
       <c r="D81" t="n">
-        <v>0.103396</v>
+        <v>0.104566</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.121656</v>
+        <v>0.122116</v>
       </c>
       <c r="C82" t="n">
-        <v>0.10466</v>
+        <v>0.105121</v>
       </c>
       <c r="D82" t="n">
-        <v>0.105392</v>
+        <v>0.105902</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.123698</v>
+        <v>0.126291</v>
       </c>
       <c r="C83" t="n">
-        <v>0.105815</v>
+        <v>0.105345</v>
       </c>
       <c r="D83" t="n">
-        <v>0.105939</v>
+        <v>0.106106</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.128858</v>
+        <v>0.129191</v>
       </c>
       <c r="C84" t="n">
-        <v>0.106748</v>
+        <v>0.105912</v>
       </c>
       <c r="D84" t="n">
-        <v>0.106746</v>
+        <v>0.107205</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.130039</v>
+        <v>0.132891</v>
       </c>
       <c r="C85" t="n">
-        <v>0.108103</v>
+        <v>0.108305</v>
       </c>
       <c r="D85" t="n">
-        <v>0.107851</v>
+        <v>0.108294</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.134954</v>
+        <v>0.135722</v>
       </c>
       <c r="C86" t="n">
-        <v>0.109345</v>
+        <v>0.109491</v>
       </c>
       <c r="D86" t="n">
-        <v>0.109433</v>
+        <v>0.109579</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.140893</v>
+        <v>0.141701</v>
       </c>
       <c r="C87" t="n">
-        <v>0.110746</v>
+        <v>0.111566</v>
       </c>
       <c r="D87" t="n">
-        <v>0.109311</v>
+        <v>0.110921</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.148991</v>
+        <v>0.149491</v>
       </c>
       <c r="C88" t="n">
-        <v>0.113392</v>
+        <v>0.113525</v>
       </c>
       <c r="D88" t="n">
-        <v>0.111824</v>
+        <v>0.111376</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.16002</v>
+        <v>0.164928</v>
       </c>
       <c r="C89" t="n">
-        <v>0.116313</v>
+        <v>0.116232</v>
       </c>
       <c r="D89" t="n">
-        <v>0.114767</v>
+        <v>0.116506</v>
       </c>
     </row>
     <row r="90">
@@ -4481,10 +4481,10 @@
         <v>0.175375</v>
       </c>
       <c r="C90" t="n">
-        <v>0.120321</v>
+        <v>0.120884</v>
       </c>
       <c r="D90" t="n">
-        <v>0.121121</v>
+        <v>0.121329</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.195681</v>
+        <v>0.201687</v>
       </c>
       <c r="C91" t="n">
-        <v>0.126948</v>
+        <v>0.126859</v>
       </c>
       <c r="D91" t="n">
-        <v>0.125467</v>
+        <v>0.127615</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.225336</v>
+        <v>0.232753</v>
       </c>
       <c r="C92" t="n">
-        <v>0.135468</v>
+        <v>0.135612</v>
       </c>
       <c r="D92" t="n">
-        <v>0.134702</v>
+        <v>0.136852</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.272983</v>
+        <v>0.270592</v>
       </c>
       <c r="C93" t="n">
-        <v>0.150912</v>
+        <v>0.149933</v>
       </c>
       <c r="D93" t="n">
-        <v>0.151238</v>
+        <v>0.148412</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.325961</v>
+        <v>0.327647</v>
       </c>
       <c r="C94" t="n">
-        <v>0.114646</v>
+        <v>0.114659</v>
       </c>
       <c r="D94" t="n">
-        <v>0.113757</v>
+        <v>0.113389</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.13363</v>
+        <v>0.133421</v>
       </c>
       <c r="C95" t="n">
-        <v>0.116271</v>
+        <v>0.116358</v>
       </c>
       <c r="D95" t="n">
-        <v>0.115159</v>
+        <v>0.116</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.136279</v>
+        <v>0.13681</v>
       </c>
       <c r="C96" t="n">
-        <v>0.116449</v>
+        <v>0.117736</v>
       </c>
       <c r="D96" t="n">
-        <v>0.117115</v>
+        <v>0.11765</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.139757</v>
+        <v>0.139614</v>
       </c>
       <c r="C97" t="n">
-        <v>0.11994</v>
+        <v>0.11965</v>
       </c>
       <c r="D97" t="n">
-        <v>0.119791</v>
+        <v>0.119326</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.143816</v>
+        <v>0.143686</v>
       </c>
       <c r="C98" t="n">
-        <v>0.121873</v>
+        <v>0.121572</v>
       </c>
       <c r="D98" t="n">
-        <v>0.122027</v>
+        <v>0.121457</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.148379</v>
+        <v>0.15072</v>
       </c>
       <c r="C99" t="n">
-        <v>0.122278</v>
+        <v>0.123648</v>
       </c>
       <c r="D99" t="n">
-        <v>0.124016</v>
+        <v>0.123631</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.153829</v>
+        <v>0.156427</v>
       </c>
       <c r="C100" t="n">
-        <v>0.125746</v>
+        <v>0.125904</v>
       </c>
       <c r="D100" t="n">
-        <v>0.125975</v>
+        <v>0.125615</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.160613</v>
+        <v>0.160864</v>
       </c>
       <c r="C101" t="n">
-        <v>0.127883</v>
+        <v>0.128128</v>
       </c>
       <c r="D101" t="n">
-        <v>0.128375</v>
+        <v>0.128554</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.1698</v>
+        <v>0.169379</v>
       </c>
       <c r="C102" t="n">
-        <v>0.130715</v>
+        <v>0.130997</v>
       </c>
       <c r="D102" t="n">
-        <v>0.129387</v>
+        <v>0.131083</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.179342</v>
+        <v>0.17988</v>
       </c>
       <c r="C103" t="n">
-        <v>0.133871</v>
+        <v>0.134302</v>
       </c>
       <c r="D103" t="n">
-        <v>0.134644</v>
+        <v>0.134558</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.193981</v>
+        <v>0.194107</v>
       </c>
       <c r="C104" t="n">
-        <v>0.136077</v>
+        <v>0.136434</v>
       </c>
       <c r="D104" t="n">
-        <v>0.137026</v>
+        <v>0.13675</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.22028</v>
+        <v>0.214421</v>
       </c>
       <c r="C105" t="n">
-        <v>0.143593</v>
+        <v>0.143994</v>
       </c>
       <c r="D105" t="n">
-        <v>0.144767</v>
+        <v>0.144878</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.242927</v>
+        <v>0.243511</v>
       </c>
       <c r="C106" t="n">
-        <v>0.152824</v>
+        <v>0.151024</v>
       </c>
       <c r="D106" t="n">
-        <v>0.151732</v>
+        <v>0.151817</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.294436</v>
+        <v>0.287594</v>
       </c>
       <c r="C107" t="n">
-        <v>0.166631</v>
+        <v>0.167482</v>
       </c>
       <c r="D107" t="n">
-        <v>0.167902</v>
+        <v>0.167789</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.35968</v>
+        <v>0.353523</v>
       </c>
       <c r="C108" t="n">
-        <v>0.123502</v>
+        <v>0.123702</v>
       </c>
       <c r="D108" t="n">
-        <v>0.123739</v>
+        <v>0.123658</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.446983</v>
+        <v>0.45101</v>
       </c>
       <c r="C109" t="n">
-        <v>0.124892</v>
+        <v>0.124818</v>
       </c>
       <c r="D109" t="n">
-        <v>0.12469</v>
+        <v>0.125273</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.146736</v>
+        <v>0.145202</v>
       </c>
       <c r="C110" t="n">
-        <v>0.12649</v>
+        <v>0.12639</v>
       </c>
       <c r="D110" t="n">
-        <v>0.126329</v>
+        <v>0.125829</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.14813</v>
+        <v>0.149987</v>
       </c>
       <c r="C111" t="n">
-        <v>0.128085</v>
+        <v>0.12838</v>
       </c>
       <c r="D111" t="n">
-        <v>0.127407</v>
+        <v>0.128113</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.15186</v>
+        <v>0.152106</v>
       </c>
       <c r="C112" t="n">
-        <v>0.129562</v>
+        <v>0.129942</v>
       </c>
       <c r="D112" t="n">
-        <v>0.129897</v>
+        <v>0.129552</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.158111</v>
+        <v>0.159404</v>
       </c>
       <c r="C113" t="n">
-        <v>0.131679</v>
+        <v>0.131929</v>
       </c>
       <c r="D113" t="n">
-        <v>0.131803</v>
+        <v>0.131552</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.162851</v>
+        <v>0.162859</v>
       </c>
       <c r="C114" t="n">
-        <v>0.133768</v>
+        <v>0.13448</v>
       </c>
       <c r="D114" t="n">
-        <v>0.134193</v>
+        <v>0.133996</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.173967</v>
+        <v>0.17413</v>
       </c>
       <c r="C115" t="n">
-        <v>0.136217</v>
+        <v>0.136983</v>
       </c>
       <c r="D115" t="n">
-        <v>0.136222</v>
+        <v>0.136868</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.180907</v>
+        <v>0.181047</v>
       </c>
       <c r="C116" t="n">
-        <v>0.140238</v>
+        <v>0.14032</v>
       </c>
       <c r="D116" t="n">
-        <v>0.139719</v>
+        <v>0.140448</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.194532</v>
+        <v>0.194514</v>
       </c>
       <c r="C117" t="n">
-        <v>0.145261</v>
+        <v>0.145219</v>
       </c>
       <c r="D117" t="n">
-        <v>0.144811</v>
+        <v>0.145588</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.216751</v>
+        <v>0.211714</v>
       </c>
       <c r="C118" t="n">
-        <v>0.150645</v>
+        <v>0.151218</v>
       </c>
       <c r="D118" t="n">
-        <v>0.151348</v>
+        <v>0.151754</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.234835</v>
+        <v>0.235351</v>
       </c>
       <c r="C119" t="n">
-        <v>0.159635</v>
+        <v>0.159886</v>
       </c>
       <c r="D119" t="n">
-        <v>0.159989</v>
+        <v>0.160117</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.265469</v>
+        <v>0.265385</v>
       </c>
       <c r="C120" t="n">
-        <v>0.170583</v>
+        <v>0.170112</v>
       </c>
       <c r="D120" t="n">
-        <v>0.171135</v>
+        <v>0.169538</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.316267</v>
+        <v>0.312919</v>
       </c>
       <c r="C121" t="n">
-        <v>0.186202</v>
+        <v>0.186093</v>
       </c>
       <c r="D121" t="n">
-        <v>0.18525</v>
+        <v>0.185232</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.379637</v>
+        <v>0.380414</v>
       </c>
       <c r="C122" t="n">
-        <v>0.20952</v>
+        <v>0.209943</v>
       </c>
       <c r="D122" t="n">
-        <v>0.210096</v>
+        <v>0.20905</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.470567</v>
+        <v>0.473215</v>
       </c>
       <c r="C123" t="n">
-        <v>0.146479</v>
+        <v>0.154122</v>
       </c>
       <c r="D123" t="n">
-        <v>0.149391</v>
+        <v>0.150088</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.172615</v>
+        <v>0.175639</v>
       </c>
       <c r="C124" t="n">
-        <v>0.151284</v>
+        <v>0.153323</v>
       </c>
       <c r="D124" t="n">
-        <v>0.151121</v>
+        <v>0.151652</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.178581</v>
+        <v>0.175309</v>
       </c>
       <c r="C125" t="n">
-        <v>0.152187</v>
+        <v>0.155969</v>
       </c>
       <c r="D125" t="n">
-        <v>0.152846</v>
+        <v>0.156515</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.18018</v>
+        <v>0.184368</v>
       </c>
       <c r="C126" t="n">
-        <v>0.155151</v>
+        <v>0.158383</v>
       </c>
       <c r="D126" t="n">
-        <v>0.155956</v>
+        <v>0.159312</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.183819</v>
+        <v>0.192664</v>
       </c>
       <c r="C127" t="n">
-        <v>0.158329</v>
+        <v>0.163577</v>
       </c>
       <c r="D127" t="n">
-        <v>0.159325</v>
+        <v>0.159299</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.190499</v>
+        <v>0.194953</v>
       </c>
       <c r="C128" t="n">
-        <v>0.163452</v>
+        <v>0.165511</v>
       </c>
       <c r="D128" t="n">
-        <v>0.158932</v>
+        <v>0.169877</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.198872</v>
+        <v>0.206928</v>
       </c>
       <c r="C129" t="n">
-        <v>0.164952</v>
+        <v>0.164147</v>
       </c>
       <c r="D129" t="n">
-        <v>0.163577</v>
+        <v>0.165177</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.208643</v>
+        <v>0.20886</v>
       </c>
       <c r="C130" t="n">
-        <v>0.166407</v>
+        <v>0.167865</v>
       </c>
       <c r="D130" t="n">
-        <v>0.166349</v>
+        <v>0.170526</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.221261</v>
+        <v>0.222455</v>
       </c>
       <c r="C131" t="n">
-        <v>0.172954</v>
+        <v>0.171061</v>
       </c>
       <c r="D131" t="n">
-        <v>0.172341</v>
+        <v>0.176287</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.236213</v>
+        <v>0.239247</v>
       </c>
       <c r="C132" t="n">
-        <v>0.174334</v>
+        <v>0.182545</v>
       </c>
       <c r="D132" t="n">
-        <v>0.175321</v>
+        <v>0.178231</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.256987</v>
+        <v>0.255569</v>
       </c>
       <c r="C133" t="n">
-        <v>0.18022</v>
+        <v>0.18405</v>
       </c>
       <c r="D133" t="n">
-        <v>0.182669</v>
+        <v>0.186069</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.288423</v>
+        <v>0.288133</v>
       </c>
       <c r="C134" t="n">
-        <v>0.190637</v>
+        <v>0.195381</v>
       </c>
       <c r="D134" t="n">
-        <v>0.191825</v>
+        <v>0.19293</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.332127</v>
+        <v>0.34242</v>
       </c>
       <c r="C135" t="n">
-        <v>0.205711</v>
+        <v>0.208103</v>
       </c>
       <c r="D135" t="n">
-        <v>0.208784</v>
+        <v>0.208437</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.39541</v>
+        <v>0.392358</v>
       </c>
       <c r="C136" t="n">
-        <v>0.22557</v>
+        <v>0.230936</v>
       </c>
       <c r="D136" t="n">
-        <v>0.227076</v>
+        <v>0.227791</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.486455</v>
+        <v>0.483045</v>
       </c>
       <c r="C137" t="n">
-        <v>0.284473</v>
+        <v>0.28299</v>
       </c>
       <c r="D137" t="n">
-        <v>0.283924</v>
+        <v>0.282657</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.318655</v>
+        <v>0.318783</v>
       </c>
       <c r="C138" t="n">
-        <v>0.285356</v>
+        <v>0.288388</v>
       </c>
       <c r="D138" t="n">
-        <v>0.281916</v>
+        <v>0.28752</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.322504</v>
+        <v>0.320077</v>
       </c>
       <c r="C139" t="n">
-        <v>0.287936</v>
+        <v>0.28832</v>
       </c>
       <c r="D139" t="n">
-        <v>0.285968</v>
+        <v>0.287899</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.323508</v>
+        <v>0.32443</v>
       </c>
       <c r="C140" t="n">
-        <v>0.285337</v>
+        <v>0.294297</v>
       </c>
       <c r="D140" t="n">
-        <v>0.285594</v>
+        <v>0.287916</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.320301</v>
+        <v>0.327008</v>
       </c>
       <c r="C141" t="n">
-        <v>0.295037</v>
+        <v>0.280589</v>
       </c>
       <c r="D141" t="n">
-        <v>0.288598</v>
+        <v>0.294217</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.329985</v>
+        <v>0.324494</v>
       </c>
       <c r="C142" t="n">
-        <v>0.295725</v>
+        <v>0.293972</v>
       </c>
       <c r="D142" t="n">
-        <v>0.296691</v>
+        <v>0.291666</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.3394</v>
+        <v>0.335198</v>
       </c>
       <c r="C143" t="n">
-        <v>0.298943</v>
+        <v>0.298634</v>
       </c>
       <c r="D143" t="n">
-        <v>0.297507</v>
+        <v>0.299435</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Scattered unsuccessful looukp.xlsx
+++ b/clang-x86/Scattered unsuccessful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0949493</v>
+        <v>0.0938017</v>
       </c>
       <c r="C2" t="n">
-        <v>0.07389950000000001</v>
+        <v>0.0887053</v>
       </c>
       <c r="D2" t="n">
-        <v>0.166057</v>
+        <v>0.183265</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.102794</v>
+        <v>0.101736</v>
       </c>
       <c r="C3" t="n">
-        <v>0.074839</v>
+        <v>0.0901911</v>
       </c>
       <c r="D3" t="n">
-        <v>0.171767</v>
+        <v>0.190638</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.10969</v>
+        <v>0.113348</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0757811</v>
+        <v>0.0915758</v>
       </c>
       <c r="D4" t="n">
-        <v>0.177403</v>
+        <v>0.203994</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.126938</v>
+        <v>0.127719</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0772187</v>
+        <v>0.0932796</v>
       </c>
       <c r="D5" t="n">
-        <v>0.186885</v>
+        <v>0.217938</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.156781</v>
+        <v>0.151317</v>
       </c>
       <c r="C6" t="n">
-        <v>0.078985</v>
+        <v>0.09673619999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>0.195427</v>
+        <v>0.227418</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.193786</v>
+        <v>0.187422</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0834579</v>
+        <v>0.102659</v>
       </c>
       <c r="D7" t="n">
-        <v>0.145954</v>
+        <v>0.174122</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.234889</v>
+        <v>0.233339</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0953315</v>
+        <v>0.113402</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1515</v>
+        <v>0.182884</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.27472</v>
+        <v>0.273073</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0713073</v>
+        <v>0.0848298</v>
       </c>
       <c r="D9" t="n">
-        <v>0.158526</v>
+        <v>0.191206</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.08587259999999999</v>
+        <v>0.08640490000000001</v>
       </c>
       <c r="C10" t="n">
-        <v>0.07149270000000001</v>
+        <v>0.0851465</v>
       </c>
       <c r="D10" t="n">
-        <v>0.166567</v>
+        <v>0.197951</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0869086</v>
+        <v>0.08709840000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0716116</v>
+        <v>0.0853932</v>
       </c>
       <c r="D11" t="n">
-        <v>0.172922</v>
+        <v>0.205036</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.08832959999999999</v>
+        <v>0.08848689999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0719841</v>
+        <v>0.08586820000000001</v>
       </c>
       <c r="D12" t="n">
-        <v>0.179355</v>
+        <v>0.21109</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0902843</v>
+        <v>0.0899519</v>
       </c>
       <c r="C13" t="n">
-        <v>0.07242510000000001</v>
+        <v>0.0862622</v>
       </c>
       <c r="D13" t="n">
-        <v>0.187047</v>
+        <v>0.217737</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.09242690000000001</v>
+        <v>0.09451320000000001</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0727772</v>
+        <v>0.0866758</v>
       </c>
       <c r="D14" t="n">
-        <v>0.19427</v>
+        <v>0.219684</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0953373</v>
+        <v>0.0984879</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0732873</v>
+        <v>0.0878655</v>
       </c>
       <c r="D15" t="n">
-        <v>0.200476</v>
+        <v>0.225763</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.101149</v>
+        <v>0.103701</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0739853</v>
+        <v>0.0886725</v>
       </c>
       <c r="D16" t="n">
-        <v>0.206786</v>
+        <v>0.2389</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.107993</v>
+        <v>0.107675</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0748581</v>
+        <v>0.0896599</v>
       </c>
       <c r="D17" t="n">
-        <v>0.214601</v>
+        <v>0.246409</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.119381</v>
+        <v>0.12389</v>
       </c>
       <c r="C18" t="n">
-        <v>0.07627929999999999</v>
+        <v>0.09148829999999999</v>
       </c>
       <c r="D18" t="n">
-        <v>0.219087</v>
+        <v>0.251646</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.135481</v>
+        <v>0.140355</v>
       </c>
       <c r="C19" t="n">
-        <v>0.07825260000000001</v>
+        <v>0.095234</v>
       </c>
       <c r="D19" t="n">
-        <v>0.224533</v>
+        <v>0.256568</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.15809</v>
+        <v>0.153217</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0809701</v>
+        <v>0.0984201</v>
       </c>
       <c r="D20" t="n">
-        <v>0.231322</v>
+        <v>0.254846</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.183694</v>
+        <v>0.178712</v>
       </c>
       <c r="C21" t="n">
-        <v>0.08670509999999999</v>
+        <v>0.103365</v>
       </c>
       <c r="D21" t="n">
-        <v>0.164585</v>
+        <v>0.183453</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.217271</v>
+        <v>0.214847</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0994602</v>
+        <v>0.117713</v>
       </c>
       <c r="D22" t="n">
-        <v>0.170746</v>
+        <v>0.191517</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.259085</v>
+        <v>0.271384</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0728627</v>
+        <v>0.0858062</v>
       </c>
       <c r="D23" t="n">
-        <v>0.177274</v>
+        <v>0.199196</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.08991689999999999</v>
+        <v>0.0914069</v>
       </c>
       <c r="C24" t="n">
-        <v>0.07301970000000001</v>
+        <v>0.08611580000000001</v>
       </c>
       <c r="D24" t="n">
-        <v>0.184653</v>
+        <v>0.206826</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0909797</v>
+        <v>0.09137820000000001</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0734399</v>
+        <v>0.08642859999999999</v>
       </c>
       <c r="D25" t="n">
-        <v>0.190945</v>
+        <v>0.223586</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0923657</v>
+        <v>0.09288200000000001</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0738284</v>
+        <v>0.0867822</v>
       </c>
       <c r="D26" t="n">
-        <v>0.198674</v>
+        <v>0.220715</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.094567</v>
+        <v>0.09628539999999999</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0741802</v>
+        <v>0.08719209999999999</v>
       </c>
       <c r="D27" t="n">
-        <v>0.205109</v>
+        <v>0.22825</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0975654</v>
+        <v>0.0973146</v>
       </c>
       <c r="C28" t="n">
-        <v>0.07465860000000001</v>
+        <v>0.08775819999999999</v>
       </c>
       <c r="D28" t="n">
-        <v>0.212952</v>
+        <v>0.234335</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.101323</v>
+        <v>0.103613</v>
       </c>
       <c r="C29" t="n">
-        <v>0.07511420000000001</v>
+        <v>0.0883134</v>
       </c>
       <c r="D29" t="n">
-        <v>0.218775</v>
+        <v>0.240754</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.106277</v>
+        <v>0.107109</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0758268</v>
+        <v>0.0893967</v>
       </c>
       <c r="D30" t="n">
-        <v>0.22396</v>
+        <v>0.246694</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.114623</v>
+        <v>0.117709</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0766053</v>
+        <v>0.09045640000000001</v>
       </c>
       <c r="D31" t="n">
-        <v>0.232263</v>
+        <v>0.251153</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.122096</v>
+        <v>0.123707</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0782056</v>
+        <v>0.0921182</v>
       </c>
       <c r="D32" t="n">
-        <v>0.237178</v>
+        <v>0.256851</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.13587</v>
+        <v>0.136586</v>
       </c>
       <c r="C33" t="n">
-        <v>0.08036</v>
+        <v>0.094296</v>
       </c>
       <c r="D33" t="n">
-        <v>0.242716</v>
+        <v>0.262465</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.154212</v>
+        <v>0.152277</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0832683</v>
+        <v>0.09802329999999999</v>
       </c>
       <c r="D34" t="n">
-        <v>0.248813</v>
+        <v>0.270751</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.176207</v>
+        <v>0.175738</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0894176</v>
+        <v>0.104148</v>
       </c>
       <c r="D35" t="n">
-        <v>0.177735</v>
+        <v>0.197109</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.206639</v>
+        <v>0.21177</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0994152</v>
+        <v>0.115483</v>
       </c>
       <c r="D36" t="n">
-        <v>0.184822</v>
+        <v>0.202775</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.251805</v>
+        <v>0.255328</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0731995</v>
+        <v>0.08652799999999999</v>
       </c>
       <c r="D37" t="n">
-        <v>0.191193</v>
+        <v>0.212083</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0924314</v>
+        <v>0.0923638</v>
       </c>
       <c r="C38" t="n">
-        <v>0.07360940000000001</v>
+        <v>0.0869872</v>
       </c>
       <c r="D38" t="n">
-        <v>0.198158</v>
+        <v>0.219195</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.093651</v>
+        <v>0.093429</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0739615</v>
+        <v>0.0873038</v>
       </c>
       <c r="D39" t="n">
-        <v>0.205538</v>
+        <v>0.22592</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.09541470000000001</v>
+        <v>0.0963537</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0741129</v>
+        <v>0.087645</v>
       </c>
       <c r="D40" t="n">
-        <v>0.212313</v>
+        <v>0.23355</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0982866</v>
+        <v>0.0985027</v>
       </c>
       <c r="C41" t="n">
-        <v>0.07453799999999999</v>
+        <v>0.0880731</v>
       </c>
       <c r="D41" t="n">
-        <v>0.21921</v>
+        <v>0.239758</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.101009</v>
+        <v>0.101778</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0749099</v>
+        <v>0.08833000000000001</v>
       </c>
       <c r="D42" t="n">
-        <v>0.22555</v>
+        <v>0.246296</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.104851</v>
+        <v>0.103743</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0756173</v>
+        <v>0.08924890000000001</v>
       </c>
       <c r="D43" t="n">
-        <v>0.232131</v>
+        <v>0.252806</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.110064</v>
+        <v>0.108631</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0762673</v>
+        <v>0.08983729999999999</v>
       </c>
       <c r="D44" t="n">
-        <v>0.238177</v>
+        <v>0.258671</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.116021</v>
+        <v>0.114886</v>
       </c>
       <c r="C45" t="n">
-        <v>0.07742060000000001</v>
+        <v>0.09089940000000001</v>
       </c>
       <c r="D45" t="n">
-        <v>0.243439</v>
+        <v>0.264774</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.125124</v>
+        <v>0.127026</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0789219</v>
+        <v>0.0927017</v>
       </c>
       <c r="D46" t="n">
-        <v>0.248108</v>
+        <v>0.270622</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.136185</v>
+        <v>0.133806</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0817595</v>
+        <v>0.0951255</v>
       </c>
       <c r="D47" t="n">
-        <v>0.254305</v>
+        <v>0.275894</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.151062</v>
+        <v>0.147852</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0851359</v>
+        <v>0.0986664</v>
       </c>
       <c r="D48" t="n">
-        <v>0.259688</v>
+        <v>0.28174</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.172107</v>
+        <v>0.170271</v>
       </c>
       <c r="C49" t="n">
-        <v>0.09034970000000001</v>
+        <v>0.104922</v>
       </c>
       <c r="D49" t="n">
-        <v>0.266111</v>
+        <v>0.292907</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.203089</v>
+        <v>0.202542</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0995019</v>
+        <v>0.114861</v>
       </c>
       <c r="D50" t="n">
-        <v>0.184101</v>
+        <v>0.202493</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.245323</v>
+        <v>0.243223</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0768109</v>
+        <v>0.0895865</v>
       </c>
       <c r="D51" t="n">
-        <v>0.190907</v>
+        <v>0.209446</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.294329</v>
+        <v>0.295977</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0759392</v>
+        <v>0.0887056</v>
       </c>
       <c r="D52" t="n">
-        <v>0.197358</v>
+        <v>0.216277</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.09661</v>
+        <v>0.09732830000000001</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0765571</v>
+        <v>0.0894537</v>
       </c>
       <c r="D53" t="n">
-        <v>0.203864</v>
+        <v>0.223937</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0984544</v>
+        <v>0.09901890000000001</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0778312</v>
+        <v>0.08969240000000001</v>
       </c>
       <c r="D54" t="n">
-        <v>0.21017</v>
+        <v>0.230876</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.102155</v>
+        <v>0.100461</v>
       </c>
       <c r="C55" t="n">
-        <v>0.077753</v>
+        <v>0.0906465</v>
       </c>
       <c r="D55" t="n">
-        <v>0.216941</v>
+        <v>0.237578</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.103498</v>
+        <v>0.106267</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0783204</v>
+        <v>0.0914682</v>
       </c>
       <c r="D56" t="n">
-        <v>0.222742</v>
+        <v>0.244147</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.106481</v>
+        <v>0.106731</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0783513</v>
+        <v>0.0915034</v>
       </c>
       <c r="D57" t="n">
-        <v>0.228131</v>
+        <v>0.249824</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.111653</v>
+        <v>0.110381</v>
       </c>
       <c r="C58" t="n">
-        <v>0.08028689999999999</v>
+        <v>0.0931</v>
       </c>
       <c r="D58" t="n">
-        <v>0.233954</v>
+        <v>0.255279</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.116868</v>
+        <v>0.120597</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0798972</v>
+        <v>0.0931181</v>
       </c>
       <c r="D59" t="n">
-        <v>0.239423</v>
+        <v>0.26115</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.123581</v>
+        <v>0.128611</v>
       </c>
       <c r="C60" t="n">
-        <v>0.08097799999999999</v>
+        <v>0.09455669999999999</v>
       </c>
       <c r="D60" t="n">
-        <v>0.245457</v>
+        <v>0.266248</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.135784</v>
+        <v>0.139925</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0830325</v>
+        <v>0.097093</v>
       </c>
       <c r="D61" t="n">
-        <v>0.250425</v>
+        <v>0.272111</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.150256</v>
+        <v>0.149338</v>
       </c>
       <c r="C62" t="n">
-        <v>0.08627899999999999</v>
+        <v>0.10007</v>
       </c>
       <c r="D62" t="n">
-        <v>0.257933</v>
+        <v>0.277319</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.169204</v>
+        <v>0.179578</v>
       </c>
       <c r="C63" t="n">
-        <v>0.09225659999999999</v>
+        <v>0.105861</v>
       </c>
       <c r="D63" t="n">
-        <v>0.263516</v>
+        <v>0.284306</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.201872</v>
+        <v>0.198057</v>
       </c>
       <c r="C64" t="n">
-        <v>0.100681</v>
+        <v>0.112966</v>
       </c>
       <c r="D64" t="n">
-        <v>0.191942</v>
+        <v>0.206054</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.23811</v>
+        <v>0.244413</v>
       </c>
       <c r="C65" t="n">
-        <v>0.11555</v>
+        <v>0.129371</v>
       </c>
       <c r="D65" t="n">
-        <v>0.199738</v>
+        <v>0.213973</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.284603</v>
+        <v>0.297202</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0830853</v>
+        <v>0.0956905</v>
       </c>
       <c r="D66" t="n">
-        <v>0.206379</v>
+        <v>0.224643</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.107093</v>
+        <v>0.110094</v>
       </c>
       <c r="C67" t="n">
-        <v>0.08433939999999999</v>
+        <v>0.09631720000000001</v>
       </c>
       <c r="D67" t="n">
-        <v>0.214925</v>
+        <v>0.233877</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.109248</v>
+        <v>0.107732</v>
       </c>
       <c r="C68" t="n">
-        <v>0.08449039999999999</v>
+        <v>0.0974571</v>
       </c>
       <c r="D68" t="n">
-        <v>0.223322</v>
+        <v>0.244679</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.112946</v>
+        <v>0.111352</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0866147</v>
+        <v>0.09687320000000001</v>
       </c>
       <c r="D69" t="n">
-        <v>0.230477</v>
+        <v>0.256437</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.115173</v>
+        <v>0.11527</v>
       </c>
       <c r="C70" t="n">
-        <v>0.08543779999999999</v>
+        <v>0.0981648</v>
       </c>
       <c r="D70" t="n">
-        <v>0.241294</v>
+        <v>0.264724</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.11736</v>
+        <v>0.118983</v>
       </c>
       <c r="C71" t="n">
-        <v>0.08594359999999999</v>
+        <v>0.0979565</v>
       </c>
       <c r="D71" t="n">
-        <v>0.255053</v>
+        <v>0.275131</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.124944</v>
+        <v>0.121413</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0877536</v>
+        <v>0.0988098</v>
       </c>
       <c r="D72" t="n">
-        <v>0.266741</v>
+        <v>0.28634</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.131075</v>
+        <v>0.131135</v>
       </c>
       <c r="C73" t="n">
-        <v>0.08822430000000001</v>
+        <v>0.100305</v>
       </c>
       <c r="D73" t="n">
-        <v>0.276594</v>
+        <v>0.300132</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.139623</v>
+        <v>0.134646</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0897294</v>
+        <v>0.101454</v>
       </c>
       <c r="D74" t="n">
-        <v>0.289546</v>
+        <v>0.312697</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.14347</v>
+        <v>0.14428</v>
       </c>
       <c r="C75" t="n">
-        <v>0.09169480000000001</v>
+        <v>0.103288</v>
       </c>
       <c r="D75" t="n">
-        <v>0.302759</v>
+        <v>0.328188</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.159481</v>
+        <v>0.162212</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0948156</v>
+        <v>0.107755</v>
       </c>
       <c r="D76" t="n">
-        <v>0.316881</v>
+        <v>0.340877</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.186199</v>
+        <v>0.182095</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0997939</v>
+        <v>0.112404</v>
       </c>
       <c r="D77" t="n">
-        <v>0.336848</v>
+        <v>0.360653</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.204373</v>
+        <v>0.207419</v>
       </c>
       <c r="C78" t="n">
-        <v>0.106817</v>
+        <v>0.119794</v>
       </c>
       <c r="D78" t="n">
-        <v>0.262818</v>
+        <v>0.27303</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.24057</v>
+        <v>0.24723</v>
       </c>
       <c r="C79" t="n">
-        <v>0.11896</v>
+        <v>0.134032</v>
       </c>
       <c r="D79" t="n">
-        <v>0.276778</v>
+        <v>0.288432</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.295241</v>
+        <v>0.297091</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0925499</v>
+        <v>0.103681</v>
       </c>
       <c r="D80" t="n">
-        <v>0.291305</v>
+        <v>0.30763</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.120225</v>
+        <v>0.119705</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0925338</v>
+        <v>0.104084</v>
       </c>
       <c r="D81" t="n">
-        <v>0.309762</v>
+        <v>0.327299</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.12196</v>
+        <v>0.121315</v>
       </c>
       <c r="C82" t="n">
-        <v>0.09325600000000001</v>
+        <v>0.104636</v>
       </c>
       <c r="D82" t="n">
-        <v>0.327674</v>
+        <v>0.345133</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.119874</v>
+        <v>0.123388</v>
       </c>
       <c r="C83" t="n">
-        <v>0.09392300000000001</v>
+        <v>0.105395</v>
       </c>
       <c r="D83" t="n">
-        <v>0.343839</v>
+        <v>0.367114</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.126738</v>
+        <v>0.128294</v>
       </c>
       <c r="C84" t="n">
-        <v>0.09464839999999999</v>
+        <v>0.105276</v>
       </c>
       <c r="D84" t="n">
-        <v>0.365844</v>
+        <v>0.387627</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.132728</v>
+        <v>0.129908</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0959407</v>
+        <v>0.107045</v>
       </c>
       <c r="D85" t="n">
-        <v>0.386887</v>
+        <v>0.410706</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.13473</v>
+        <v>0.13247</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0969284</v>
+        <v>0.107429</v>
       </c>
       <c r="D86" t="n">
-        <v>0.40929</v>
+        <v>0.433185</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.135553</v>
+        <v>0.140824</v>
       </c>
       <c r="C87" t="n">
-        <v>0.098624</v>
+        <v>0.108928</v>
       </c>
       <c r="D87" t="n">
-        <v>0.429708</v>
+        <v>0.456925</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.143759</v>
+        <v>0.152677</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0984244</v>
+        <v>0.11201</v>
       </c>
       <c r="D88" t="n">
-        <v>0.453154</v>
+        <v>0.479565</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.160609</v>
+        <v>0.160509</v>
       </c>
       <c r="C89" t="n">
-        <v>0.104069</v>
+        <v>0.114641</v>
       </c>
       <c r="D89" t="n">
-        <v>0.474952</v>
+        <v>0.506284</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.175111</v>
+        <v>0.17501</v>
       </c>
       <c r="C90" t="n">
-        <v>0.108112</v>
+        <v>0.120854</v>
       </c>
       <c r="D90" t="n">
-        <v>0.498516</v>
+        <v>0.53384</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.195586</v>
+        <v>0.200752</v>
       </c>
       <c r="C91" t="n">
-        <v>0.112065</v>
+        <v>0.127229</v>
       </c>
       <c r="D91" t="n">
-        <v>0.523874</v>
+        <v>0.562921</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.23041</v>
+        <v>0.233951</v>
       </c>
       <c r="C92" t="n">
-        <v>0.120509</v>
+        <v>0.135627</v>
       </c>
       <c r="D92" t="n">
-        <v>0.396417</v>
+        <v>0.420237</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.266904</v>
+        <v>0.271394</v>
       </c>
       <c r="C93" t="n">
-        <v>0.134174</v>
+        <v>0.151299</v>
       </c>
       <c r="D93" t="n">
-        <v>0.407399</v>
+        <v>0.439276</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.331532</v>
+        <v>0.331586</v>
       </c>
       <c r="C94" t="n">
-        <v>0.101751</v>
+        <v>0.113801</v>
       </c>
       <c r="D94" t="n">
-        <v>0.432669</v>
+        <v>0.461204</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.134994</v>
+        <v>0.132996</v>
       </c>
       <c r="C95" t="n">
-        <v>0.1044</v>
+        <v>0.115352</v>
       </c>
       <c r="D95" t="n">
-        <v>0.451903</v>
+        <v>0.480208</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.136401</v>
+        <v>0.136389</v>
       </c>
       <c r="C96" t="n">
-        <v>0.104779</v>
+        <v>0.117691</v>
       </c>
       <c r="D96" t="n">
-        <v>0.470293</v>
+        <v>0.50043</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.142135</v>
+        <v>0.141881</v>
       </c>
       <c r="C97" t="n">
-        <v>0.107831</v>
+        <v>0.117969</v>
       </c>
       <c r="D97" t="n">
-        <v>0.49014</v>
+        <v>0.521322</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.144145</v>
+        <v>0.142826</v>
       </c>
       <c r="C98" t="n">
-        <v>0.109884</v>
+        <v>0.119764</v>
       </c>
       <c r="D98" t="n">
-        <v>0.511339</v>
+        <v>0.543174</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.14538</v>
+        <v>0.147822</v>
       </c>
       <c r="C99" t="n">
-        <v>0.110082</v>
+        <v>0.120985</v>
       </c>
       <c r="D99" t="n">
-        <v>0.531353</v>
+        <v>0.5686099999999999</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.156383</v>
+        <v>0.153448</v>
       </c>
       <c r="C100" t="n">
-        <v>0.113747</v>
+        <v>0.125083</v>
       </c>
       <c r="D100" t="n">
-        <v>0.554444</v>
+        <v>0.592015</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.164016</v>
+        <v>0.160219</v>
       </c>
       <c r="C101" t="n">
-        <v>0.116186</v>
+        <v>0.125477</v>
       </c>
       <c r="D101" t="n">
-        <v>0.579528</v>
+        <v>0.614698</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.165857</v>
+        <v>0.168462</v>
       </c>
       <c r="C102" t="n">
-        <v>0.118588</v>
+        <v>0.128356</v>
       </c>
       <c r="D102" t="n">
-        <v>0.599956</v>
+        <v>0.6419589999999999</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.17972</v>
+        <v>0.176938</v>
       </c>
       <c r="C103" t="n">
-        <v>0.120122</v>
+        <v>0.133333</v>
       </c>
       <c r="D103" t="n">
-        <v>0.6264110000000001</v>
+        <v>0.670068</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.194219</v>
+        <v>0.195509</v>
       </c>
       <c r="C104" t="n">
-        <v>0.125979</v>
+        <v>0.136758</v>
       </c>
       <c r="D104" t="n">
-        <v>0.652962</v>
+        <v>0.698642</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.211251</v>
+        <v>0.214017</v>
       </c>
       <c r="C105" t="n">
-        <v>0.130132</v>
+        <v>0.143292</v>
       </c>
       <c r="D105" t="n">
-        <v>0.679874</v>
+        <v>0.729332</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.242839</v>
+        <v>0.253954</v>
       </c>
       <c r="C106" t="n">
-        <v>0.13876</v>
+        <v>0.154216</v>
       </c>
       <c r="D106" t="n">
-        <v>0.708174</v>
+        <v>0.763429</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.285194</v>
+        <v>0.30332</v>
       </c>
       <c r="C107" t="n">
-        <v>0.153273</v>
+        <v>0.173952</v>
       </c>
       <c r="D107" t="n">
-        <v>0.5588</v>
+        <v>0.588063</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.356123</v>
+        <v>0.363113</v>
       </c>
       <c r="C108" t="n">
-        <v>0.111659</v>
+        <v>0.12626</v>
       </c>
       <c r="D108" t="n">
-        <v>0.568087</v>
+        <v>0.6226390000000001</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.439834</v>
+        <v>0.453454</v>
       </c>
       <c r="C109" t="n">
-        <v>0.112979</v>
+        <v>0.13042</v>
       </c>
       <c r="D109" t="n">
-        <v>0.599791</v>
+        <v>0.645838</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.145067</v>
+        <v>0.152442</v>
       </c>
       <c r="C110" t="n">
-        <v>0.114031</v>
+        <v>0.133146</v>
       </c>
       <c r="D110" t="n">
-        <v>0.6210909999999999</v>
+        <v>0.656765</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.14989</v>
+        <v>0.157484</v>
       </c>
       <c r="C111" t="n">
-        <v>0.115763</v>
+        <v>0.136017</v>
       </c>
       <c r="D111" t="n">
-        <v>0.641899</v>
+        <v>0.694437</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.151734</v>
+        <v>0.162723</v>
       </c>
       <c r="C112" t="n">
-        <v>0.117196</v>
+        <v>0.139353</v>
       </c>
       <c r="D112" t="n">
-        <v>0.665449</v>
+        <v>0.7212460000000001</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.158913</v>
+        <v>0.168369</v>
       </c>
       <c r="C113" t="n">
-        <v>0.119328</v>
+        <v>0.142246</v>
       </c>
       <c r="D113" t="n">
-        <v>0.68235</v>
+        <v>0.746681</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.160243</v>
+        <v>0.176069</v>
       </c>
       <c r="C114" t="n">
-        <v>0.122047</v>
+        <v>0.144991</v>
       </c>
       <c r="D114" t="n">
-        <v>0.707454</v>
+        <v>0.772524</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.170339</v>
+        <v>0.184976</v>
       </c>
       <c r="C115" t="n">
-        <v>0.124381</v>
+        <v>0.147877</v>
       </c>
       <c r="D115" t="n">
-        <v>0.7388670000000001</v>
+        <v>0.8011470000000001</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.183839</v>
+        <v>0.191991</v>
       </c>
       <c r="C116" t="n">
-        <v>0.125756</v>
+        <v>0.151551</v>
       </c>
       <c r="D116" t="n">
-        <v>0.765114</v>
+        <v>0.830121</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.196203</v>
+        <v>0.208166</v>
       </c>
       <c r="C117" t="n">
-        <v>0.132835</v>
+        <v>0.155512</v>
       </c>
       <c r="D117" t="n">
-        <v>0.792305</v>
+        <v>0.858058</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.211394</v>
+        <v>0.21993</v>
       </c>
       <c r="C118" t="n">
-        <v>0.138186</v>
+        <v>0.160591</v>
       </c>
       <c r="D118" t="n">
-        <v>0.819318</v>
+        <v>0.888834</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.233898</v>
+        <v>0.240746</v>
       </c>
       <c r="C119" t="n">
-        <v>0.143491</v>
+        <v>0.167484</v>
       </c>
       <c r="D119" t="n">
-        <v>0.849139</v>
+        <v>0.913685</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.261444</v>
+        <v>0.268851</v>
       </c>
       <c r="C120" t="n">
-        <v>0.156868</v>
+        <v>0.176296</v>
       </c>
       <c r="D120" t="n">
-        <v>0.8748</v>
+        <v>0.948341</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.307609</v>
+        <v>0.310554</v>
       </c>
       <c r="C121" t="n">
-        <v>0.172608</v>
+        <v>0.190839</v>
       </c>
       <c r="D121" t="n">
-        <v>0.648553</v>
+        <v>0.694186</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.378705</v>
+        <v>0.382091</v>
       </c>
       <c r="C122" t="n">
-        <v>0.195624</v>
+        <v>0.213996</v>
       </c>
       <c r="D122" t="n">
-        <v>0.65671</v>
+        <v>0.716133</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.468293</v>
+        <v>0.465585</v>
       </c>
       <c r="C123" t="n">
-        <v>0.133777</v>
+        <v>0.146308</v>
       </c>
       <c r="D123" t="n">
-        <v>0.6862239999999999</v>
+        <v>0.727678</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.172681</v>
+        <v>0.170346</v>
       </c>
       <c r="C124" t="n">
-        <v>0.135722</v>
+        <v>0.148752</v>
       </c>
       <c r="D124" t="n">
-        <v>0.706918</v>
+        <v>0.764321</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.173072</v>
+        <v>0.172009</v>
       </c>
       <c r="C125" t="n">
-        <v>0.137159</v>
+        <v>0.150279</v>
       </c>
       <c r="D125" t="n">
-        <v>0.717234</v>
+        <v>0.789841</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.167246</v>
+        <v>0.179651</v>
       </c>
       <c r="C126" t="n">
-        <v>0.141949</v>
+        <v>0.152885</v>
       </c>
       <c r="D126" t="n">
-        <v>0.750272</v>
+        <v>0.815321</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.185598</v>
+        <v>0.173363</v>
       </c>
       <c r="C127" t="n">
-        <v>0.143048</v>
+        <v>0.154152</v>
       </c>
       <c r="D127" t="n">
-        <v>0.774</v>
+        <v>0.842318</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.190797</v>
+        <v>0.194584</v>
       </c>
       <c r="C128" t="n">
-        <v>0.149112</v>
+        <v>0.158877</v>
       </c>
       <c r="D128" t="n">
-        <v>0.798796</v>
+        <v>0.870787</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.220802</v>
+        <v>0.205104</v>
       </c>
       <c r="C129" t="n">
-        <v>0.147047</v>
+        <v>0.163522</v>
       </c>
       <c r="D129" t="n">
-        <v>0.824211</v>
+        <v>0.88955</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.213497</v>
+        <v>0.206646</v>
       </c>
       <c r="C130" t="n">
-        <v>0.151633</v>
+        <v>0.164791</v>
       </c>
       <c r="D130" t="n">
-        <v>0.851384</v>
+        <v>0.928056</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.215437</v>
+        <v>0.227255</v>
       </c>
       <c r="C131" t="n">
-        <v>0.154371</v>
+        <v>0.167245</v>
       </c>
       <c r="D131" t="n">
-        <v>0.878809</v>
+        <v>0.958924</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.232461</v>
+        <v>0.236462</v>
       </c>
       <c r="C132" t="n">
-        <v>0.165654</v>
+        <v>0.175508</v>
       </c>
       <c r="D132" t="n">
-        <v>0.908651</v>
+        <v>0.990217</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.258041</v>
+        <v>0.261789</v>
       </c>
       <c r="C133" t="n">
-        <v>0.167621</v>
+        <v>0.181154</v>
       </c>
       <c r="D133" t="n">
-        <v>0.9379690000000001</v>
+        <v>1.02304</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.278106</v>
+        <v>0.280507</v>
       </c>
       <c r="C134" t="n">
-        <v>0.178765</v>
+        <v>0.196445</v>
       </c>
       <c r="D134" t="n">
-        <v>0.9631</v>
+        <v>1.0559</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.326369</v>
+        <v>0.33163</v>
       </c>
       <c r="C135" t="n">
-        <v>0.188214</v>
+        <v>0.207392</v>
       </c>
       <c r="D135" t="n">
-        <v>0.681601</v>
+        <v>0.711477</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.384503</v>
+        <v>0.386887</v>
       </c>
       <c r="C136" t="n">
-        <v>0.215569</v>
+        <v>0.228599</v>
       </c>
       <c r="D136" t="n">
-        <v>0.6908300000000001</v>
+        <v>0.730065</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.476243</v>
+        <v>0.481181</v>
       </c>
       <c r="C137" t="n">
-        <v>0.250831</v>
+        <v>0.287929</v>
       </c>
       <c r="D137" t="n">
-        <v>0.714408</v>
+        <v>0.749908</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.307827</v>
+        <v>0.315943</v>
       </c>
       <c r="C138" t="n">
-        <v>0.242228</v>
+        <v>0.284493</v>
       </c>
       <c r="D138" t="n">
-        <v>0.7324310000000001</v>
+        <v>0.76595</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.310931</v>
+        <v>0.317138</v>
       </c>
       <c r="C139" t="n">
-        <v>0.248149</v>
+        <v>0.274786</v>
       </c>
       <c r="D139" t="n">
-        <v>0.750935</v>
+        <v>0.791905</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.312048</v>
+        <v>0.318748</v>
       </c>
       <c r="C140" t="n">
-        <v>0.251287</v>
+        <v>0.270395</v>
       </c>
       <c r="D140" t="n">
-        <v>0.76501</v>
+        <v>0.814632</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.291382</v>
+        <v>0.331229</v>
       </c>
       <c r="C141" t="n">
-        <v>0.251051</v>
+        <v>0.273432</v>
       </c>
       <c r="D141" t="n">
-        <v>0.7842710000000001</v>
+        <v>0.8378139999999999</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.318275</v>
+        <v>0.32388</v>
       </c>
       <c r="C142" t="n">
-        <v>0.251932</v>
+        <v>0.293318</v>
       </c>
       <c r="D142" t="n">
-        <v>0.805825</v>
+        <v>0.862219</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.339083</v>
+        <v>0.340804</v>
       </c>
       <c r="C143" t="n">
-        <v>0.2639</v>
+        <v>0.301794</v>
       </c>
       <c r="D143" t="n">
-        <v>0.826161</v>
+        <v>0.887632</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Scattered unsuccessful looukp.xlsx
+++ b/clang-x86/Scattered unsuccessful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0938017</v>
+        <v>0.0951593</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0887053</v>
+        <v>0.0894368</v>
       </c>
       <c r="D2" t="n">
-        <v>0.183265</v>
+        <v>0.18352</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.101736</v>
+        <v>0.103367</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0901911</v>
+        <v>0.0904638</v>
       </c>
       <c r="D3" t="n">
-        <v>0.190638</v>
+        <v>0.19083</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.113348</v>
+        <v>0.114026</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0915758</v>
+        <v>0.0916646</v>
       </c>
       <c r="D4" t="n">
-        <v>0.203994</v>
+        <v>0.199508</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.127719</v>
+        <v>0.130721</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0932796</v>
+        <v>0.0935826</v>
       </c>
       <c r="D5" t="n">
-        <v>0.217938</v>
+        <v>0.206055</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.151317</v>
+        <v>0.153785</v>
       </c>
       <c r="C6" t="n">
-        <v>0.09673619999999999</v>
+        <v>0.0964976</v>
       </c>
       <c r="D6" t="n">
-        <v>0.227418</v>
+        <v>0.21138</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.187422</v>
+        <v>0.189861</v>
       </c>
       <c r="C7" t="n">
-        <v>0.102659</v>
+        <v>0.100881</v>
       </c>
       <c r="D7" t="n">
-        <v>0.174122</v>
+        <v>0.161818</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.233339</v>
+        <v>0.234721</v>
       </c>
       <c r="C8" t="n">
-        <v>0.113402</v>
+        <v>0.117067</v>
       </c>
       <c r="D8" t="n">
-        <v>0.182884</v>
+        <v>0.170135</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.273073</v>
+        <v>0.269984</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0848298</v>
+        <v>0.08701299999999999</v>
       </c>
       <c r="D9" t="n">
-        <v>0.191206</v>
+        <v>0.17663</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.08640490000000001</v>
+        <v>0.0868313</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0851465</v>
+        <v>0.0872367</v>
       </c>
       <c r="D10" t="n">
-        <v>0.197951</v>
+        <v>0.183521</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.08709840000000001</v>
+        <v>0.0876296</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0853932</v>
+        <v>0.087432</v>
       </c>
       <c r="D11" t="n">
-        <v>0.205036</v>
+        <v>0.189921</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.08848689999999999</v>
+        <v>0.0891542</v>
       </c>
       <c r="C12" t="n">
-        <v>0.08586820000000001</v>
+        <v>0.08787540000000001</v>
       </c>
       <c r="D12" t="n">
-        <v>0.21109</v>
+        <v>0.197534</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0899519</v>
+        <v>0.09056409999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0862622</v>
+        <v>0.0883945</v>
       </c>
       <c r="D13" t="n">
-        <v>0.217737</v>
+        <v>0.202886</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.09451320000000001</v>
+        <v>0.0925966</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0866758</v>
+        <v>0.088918</v>
       </c>
       <c r="D14" t="n">
-        <v>0.219684</v>
+        <v>0.208207</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0984879</v>
+        <v>0.096003</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0878655</v>
+        <v>0.08937299999999999</v>
       </c>
       <c r="D15" t="n">
-        <v>0.225763</v>
+        <v>0.216743</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.103701</v>
+        <v>0.101849</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0886725</v>
+        <v>0.09034209999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>0.2389</v>
+        <v>0.223499</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.107675</v>
+        <v>0.109378</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0896599</v>
+        <v>0.09118859999999999</v>
       </c>
       <c r="D17" t="n">
-        <v>0.246409</v>
+        <v>0.229914</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.12389</v>
+        <v>0.119547</v>
       </c>
       <c r="C18" t="n">
-        <v>0.09148829999999999</v>
+        <v>0.0924276</v>
       </c>
       <c r="D18" t="n">
-        <v>0.251646</v>
+        <v>0.234809</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.140355</v>
+        <v>0.135551</v>
       </c>
       <c r="C19" t="n">
-        <v>0.095234</v>
+        <v>0.0947757</v>
       </c>
       <c r="D19" t="n">
-        <v>0.256568</v>
+        <v>0.241629</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.153217</v>
+        <v>0.155927</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0984201</v>
+        <v>0.0981804</v>
       </c>
       <c r="D20" t="n">
-        <v>0.254846</v>
+        <v>0.24841</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.178712</v>
+        <v>0.181433</v>
       </c>
       <c r="C21" t="n">
-        <v>0.103365</v>
+        <v>0.105959</v>
       </c>
       <c r="D21" t="n">
-        <v>0.183453</v>
+        <v>0.182308</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.214847</v>
+        <v>0.227383</v>
       </c>
       <c r="C22" t="n">
-        <v>0.117713</v>
+        <v>0.12091</v>
       </c>
       <c r="D22" t="n">
-        <v>0.191517</v>
+        <v>0.189424</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.271384</v>
+        <v>0.264062</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0858062</v>
+        <v>0.0881343</v>
       </c>
       <c r="D23" t="n">
-        <v>0.199196</v>
+        <v>0.197683</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0914069</v>
+        <v>0.0905556</v>
       </c>
       <c r="C24" t="n">
-        <v>0.08611580000000001</v>
+        <v>0.08844589999999999</v>
       </c>
       <c r="D24" t="n">
-        <v>0.206826</v>
+        <v>0.204543</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.09137820000000001</v>
+        <v>0.0915122</v>
       </c>
       <c r="C25" t="n">
-        <v>0.08642859999999999</v>
+        <v>0.08874269999999999</v>
       </c>
       <c r="D25" t="n">
-        <v>0.223586</v>
+        <v>0.212217</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.09288200000000001</v>
+        <v>0.0931155</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0867822</v>
+        <v>0.0891831</v>
       </c>
       <c r="D26" t="n">
-        <v>0.220715</v>
+        <v>0.220512</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.09628539999999999</v>
+        <v>0.09616139999999999</v>
       </c>
       <c r="C27" t="n">
-        <v>0.08719209999999999</v>
+        <v>0.0895054</v>
       </c>
       <c r="D27" t="n">
-        <v>0.22825</v>
+        <v>0.226959</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0973146</v>
+        <v>0.0979487</v>
       </c>
       <c r="C28" t="n">
-        <v>0.08775819999999999</v>
+        <v>0.0898786</v>
       </c>
       <c r="D28" t="n">
-        <v>0.234335</v>
+        <v>0.232845</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.103613</v>
+        <v>0.103051</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0883134</v>
+        <v>0.0904977</v>
       </c>
       <c r="D29" t="n">
-        <v>0.240754</v>
+        <v>0.238993</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.107109</v>
+        <v>0.109189</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0893967</v>
+        <v>0.09125129999999999</v>
       </c>
       <c r="D30" t="n">
-        <v>0.246694</v>
+        <v>0.244279</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.117709</v>
+        <v>0.115285</v>
       </c>
       <c r="C31" t="n">
-        <v>0.09045640000000001</v>
+        <v>0.0924463</v>
       </c>
       <c r="D31" t="n">
-        <v>0.251153</v>
+        <v>0.250898</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.123707</v>
+        <v>0.128102</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0921182</v>
+        <v>0.0936589</v>
       </c>
       <c r="D32" t="n">
-        <v>0.256851</v>
+        <v>0.254087</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.136586</v>
+        <v>0.139302</v>
       </c>
       <c r="C33" t="n">
-        <v>0.094296</v>
+        <v>0.0960704</v>
       </c>
       <c r="D33" t="n">
-        <v>0.262465</v>
+        <v>0.261327</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.152277</v>
+        <v>0.154463</v>
       </c>
       <c r="C34" t="n">
-        <v>0.09802329999999999</v>
+        <v>0.100201</v>
       </c>
       <c r="D34" t="n">
-        <v>0.270751</v>
+        <v>0.267331</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.175738</v>
+        <v>0.177822</v>
       </c>
       <c r="C35" t="n">
-        <v>0.104148</v>
+        <v>0.107455</v>
       </c>
       <c r="D35" t="n">
-        <v>0.197109</v>
+        <v>0.195303</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.21177</v>
+        <v>0.223549</v>
       </c>
       <c r="C36" t="n">
-        <v>0.115483</v>
+        <v>0.120042</v>
       </c>
       <c r="D36" t="n">
-        <v>0.202775</v>
+        <v>0.202226</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.255328</v>
+        <v>0.257212</v>
       </c>
       <c r="C37" t="n">
-        <v>0.08652799999999999</v>
+        <v>0.0892136</v>
       </c>
       <c r="D37" t="n">
-        <v>0.212083</v>
+        <v>0.211572</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0923638</v>
+        <v>0.0925209</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0869872</v>
+        <v>0.0893963</v>
       </c>
       <c r="D38" t="n">
-        <v>0.219195</v>
+        <v>0.217624</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.093429</v>
+        <v>0.0939839</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0873038</v>
+        <v>0.08974310000000001</v>
       </c>
       <c r="D39" t="n">
-        <v>0.22592</v>
+        <v>0.224675</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0963537</v>
+        <v>0.0956142</v>
       </c>
       <c r="C40" t="n">
-        <v>0.087645</v>
+        <v>0.0900995</v>
       </c>
       <c r="D40" t="n">
-        <v>0.23355</v>
+        <v>0.23306</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0985027</v>
+        <v>0.09748030000000001</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0880731</v>
+        <v>0.0903858</v>
       </c>
       <c r="D41" t="n">
-        <v>0.239758</v>
+        <v>0.238433</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.101778</v>
+        <v>0.100941</v>
       </c>
       <c r="C42" t="n">
-        <v>0.08833000000000001</v>
+        <v>0.0909741</v>
       </c>
       <c r="D42" t="n">
-        <v>0.246296</v>
+        <v>0.245914</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.103743</v>
+        <v>0.105222</v>
       </c>
       <c r="C43" t="n">
-        <v>0.08924890000000001</v>
+        <v>0.09134249999999999</v>
       </c>
       <c r="D43" t="n">
-        <v>0.252806</v>
+        <v>0.251975</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.108631</v>
+        <v>0.110927</v>
       </c>
       <c r="C44" t="n">
-        <v>0.08983729999999999</v>
+        <v>0.09234680000000001</v>
       </c>
       <c r="D44" t="n">
-        <v>0.258671</v>
+        <v>0.258152</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.114886</v>
+        <v>0.117622</v>
       </c>
       <c r="C45" t="n">
-        <v>0.09089940000000001</v>
+        <v>0.0932543</v>
       </c>
       <c r="D45" t="n">
-        <v>0.264774</v>
+        <v>0.263915</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.127026</v>
+        <v>0.126713</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0927017</v>
+        <v>0.09442349999999999</v>
       </c>
       <c r="D46" t="n">
-        <v>0.270622</v>
+        <v>0.269306</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.133806</v>
+        <v>0.136382</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0951255</v>
+        <v>0.0968084</v>
       </c>
       <c r="D47" t="n">
-        <v>0.275894</v>
+        <v>0.275105</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.147852</v>
+        <v>0.151173</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0986664</v>
+        <v>0.100099</v>
       </c>
       <c r="D48" t="n">
-        <v>0.28174</v>
+        <v>0.280394</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.170271</v>
+        <v>0.173577</v>
       </c>
       <c r="C49" t="n">
-        <v>0.104922</v>
+        <v>0.106231</v>
       </c>
       <c r="D49" t="n">
-        <v>0.292907</v>
+        <v>0.286613</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.202542</v>
+        <v>0.205235</v>
       </c>
       <c r="C50" t="n">
-        <v>0.114861</v>
+        <v>0.115463</v>
       </c>
       <c r="D50" t="n">
-        <v>0.202493</v>
+        <v>0.202699</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.243223</v>
+        <v>0.243893</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0895865</v>
+        <v>0.0915019</v>
       </c>
       <c r="D51" t="n">
-        <v>0.209446</v>
+        <v>0.20943</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.295977</v>
+        <v>0.295268</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0887056</v>
+        <v>0.09199549999999999</v>
       </c>
       <c r="D52" t="n">
-        <v>0.216277</v>
+        <v>0.216285</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.09732830000000001</v>
+        <v>0.0982201</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0894537</v>
+        <v>0.09108140000000001</v>
       </c>
       <c r="D53" t="n">
-        <v>0.223937</v>
+        <v>0.22394</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.09901890000000001</v>
+        <v>0.100334</v>
       </c>
       <c r="C54" t="n">
-        <v>0.08969240000000001</v>
+        <v>0.0917815</v>
       </c>
       <c r="D54" t="n">
-        <v>0.230876</v>
+        <v>0.230691</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.100461</v>
+        <v>0.100387</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0906465</v>
+        <v>0.0923278</v>
       </c>
       <c r="D55" t="n">
-        <v>0.237578</v>
+        <v>0.237549</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.106267</v>
+        <v>0.103988</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0914682</v>
+        <v>0.093013</v>
       </c>
       <c r="D56" t="n">
-        <v>0.244147</v>
+        <v>0.243702</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.106731</v>
+        <v>0.107221</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0915034</v>
+        <v>0.0930144</v>
       </c>
       <c r="D57" t="n">
-        <v>0.249824</v>
+        <v>0.249205</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.110381</v>
+        <v>0.112428</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0931</v>
+        <v>0.09446300000000001</v>
       </c>
       <c r="D58" t="n">
-        <v>0.255279</v>
+        <v>0.254074</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.120597</v>
+        <v>0.120366</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0931181</v>
+        <v>0.09584239999999999</v>
       </c>
       <c r="D59" t="n">
-        <v>0.26115</v>
+        <v>0.259709</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.128611</v>
+        <v>0.128075</v>
       </c>
       <c r="C60" t="n">
-        <v>0.09455669999999999</v>
+        <v>0.0979754</v>
       </c>
       <c r="D60" t="n">
-        <v>0.266248</v>
+        <v>0.264552</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.139925</v>
+        <v>0.139493</v>
       </c>
       <c r="C61" t="n">
-        <v>0.097093</v>
+        <v>0.099394</v>
       </c>
       <c r="D61" t="n">
-        <v>0.272111</v>
+        <v>0.270026</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.149338</v>
+        <v>0.152832</v>
       </c>
       <c r="C62" t="n">
-        <v>0.10007</v>
+        <v>0.10219</v>
       </c>
       <c r="D62" t="n">
-        <v>0.277319</v>
+        <v>0.27508</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.179578</v>
+        <v>0.172472</v>
       </c>
       <c r="C63" t="n">
-        <v>0.105861</v>
+        <v>0.106793</v>
       </c>
       <c r="D63" t="n">
-        <v>0.284306</v>
+        <v>0.280679</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.198057</v>
+        <v>0.201428</v>
       </c>
       <c r="C64" t="n">
-        <v>0.112966</v>
+        <v>0.115185</v>
       </c>
       <c r="D64" t="n">
-        <v>0.206054</v>
+        <v>0.205512</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.244413</v>
+        <v>0.248264</v>
       </c>
       <c r="C65" t="n">
-        <v>0.129371</v>
+        <v>0.130127</v>
       </c>
       <c r="D65" t="n">
-        <v>0.213973</v>
+        <v>0.213832</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.297202</v>
+        <v>0.297243</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0956905</v>
+        <v>0.105149</v>
       </c>
       <c r="D66" t="n">
-        <v>0.224643</v>
+        <v>0.221341</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.110094</v>
+        <v>0.108319</v>
       </c>
       <c r="C67" t="n">
-        <v>0.09631720000000001</v>
+        <v>0.105243</v>
       </c>
       <c r="D67" t="n">
-        <v>0.233877</v>
+        <v>0.230034</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.107732</v>
+        <v>0.110161</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0974571</v>
+        <v>0.106246</v>
       </c>
       <c r="D68" t="n">
-        <v>0.244679</v>
+        <v>0.238195</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.111352</v>
+        <v>0.112296</v>
       </c>
       <c r="C69" t="n">
-        <v>0.09687320000000001</v>
+        <v>0.106712</v>
       </c>
       <c r="D69" t="n">
-        <v>0.256437</v>
+        <v>0.246403</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.11527</v>
+        <v>0.116021</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0981648</v>
+        <v>0.108321</v>
       </c>
       <c r="D70" t="n">
-        <v>0.264724</v>
+        <v>0.256528</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.118983</v>
+        <v>0.11797</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0979565</v>
+        <v>0.108791</v>
       </c>
       <c r="D71" t="n">
-        <v>0.275131</v>
+        <v>0.26835</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.121413</v>
+        <v>0.121231</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0988098</v>
+        <v>0.106589</v>
       </c>
       <c r="D72" t="n">
-        <v>0.28634</v>
+        <v>0.279511</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.131135</v>
+        <v>0.130526</v>
       </c>
       <c r="C73" t="n">
-        <v>0.100305</v>
+        <v>0.111524</v>
       </c>
       <c r="D73" t="n">
-        <v>0.300132</v>
+        <v>0.29213</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.134646</v>
+        <v>0.134931</v>
       </c>
       <c r="C74" t="n">
-        <v>0.101454</v>
+        <v>0.113511</v>
       </c>
       <c r="D74" t="n">
-        <v>0.312697</v>
+        <v>0.303977</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.14428</v>
+        <v>0.146005</v>
       </c>
       <c r="C75" t="n">
-        <v>0.103288</v>
+        <v>0.115655</v>
       </c>
       <c r="D75" t="n">
-        <v>0.328188</v>
+        <v>0.318075</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.162212</v>
+        <v>0.161598</v>
       </c>
       <c r="C76" t="n">
-        <v>0.107755</v>
+        <v>0.11945</v>
       </c>
       <c r="D76" t="n">
-        <v>0.340877</v>
+        <v>0.332301</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.182095</v>
+        <v>0.183513</v>
       </c>
       <c r="C77" t="n">
-        <v>0.112404</v>
+        <v>0.124026</v>
       </c>
       <c r="D77" t="n">
-        <v>0.360653</v>
+        <v>0.350951</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.207419</v>
+        <v>0.206771</v>
       </c>
       <c r="C78" t="n">
-        <v>0.119794</v>
+        <v>0.132066</v>
       </c>
       <c r="D78" t="n">
-        <v>0.27303</v>
+        <v>0.274492</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.24723</v>
+        <v>0.250699</v>
       </c>
       <c r="C79" t="n">
-        <v>0.134032</v>
+        <v>0.145146</v>
       </c>
       <c r="D79" t="n">
-        <v>0.288432</v>
+        <v>0.290408</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.297091</v>
+        <v>0.307997</v>
       </c>
       <c r="C80" t="n">
-        <v>0.103681</v>
+        <v>0.105857</v>
       </c>
       <c r="D80" t="n">
-        <v>0.30763</v>
+        <v>0.309016</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.119705</v>
+        <v>0.121278</v>
       </c>
       <c r="C81" t="n">
-        <v>0.104084</v>
+        <v>0.106326</v>
       </c>
       <c r="D81" t="n">
-        <v>0.327299</v>
+        <v>0.327814</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.121315</v>
+        <v>0.122685</v>
       </c>
       <c r="C82" t="n">
-        <v>0.104636</v>
+        <v>0.106882</v>
       </c>
       <c r="D82" t="n">
-        <v>0.345133</v>
+        <v>0.350561</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.123388</v>
+        <v>0.124015</v>
       </c>
       <c r="C83" t="n">
-        <v>0.105395</v>
+        <v>0.107582</v>
       </c>
       <c r="D83" t="n">
-        <v>0.367114</v>
+        <v>0.370964</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.128294</v>
+        <v>0.12665</v>
       </c>
       <c r="C84" t="n">
-        <v>0.105276</v>
+        <v>0.108329</v>
       </c>
       <c r="D84" t="n">
-        <v>0.387627</v>
+        <v>0.393082</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.129908</v>
+        <v>0.130372</v>
       </c>
       <c r="C85" t="n">
-        <v>0.107045</v>
+        <v>0.108963</v>
       </c>
       <c r="D85" t="n">
-        <v>0.410706</v>
+        <v>0.413706</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.13247</v>
+        <v>0.134737</v>
       </c>
       <c r="C86" t="n">
-        <v>0.107429</v>
+        <v>0.110069</v>
       </c>
       <c r="D86" t="n">
-        <v>0.433185</v>
+        <v>0.437551</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.140824</v>
+        <v>0.140492</v>
       </c>
       <c r="C87" t="n">
-        <v>0.108928</v>
+        <v>0.11126</v>
       </c>
       <c r="D87" t="n">
-        <v>0.456925</v>
+        <v>0.460661</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.152677</v>
+        <v>0.148692</v>
       </c>
       <c r="C88" t="n">
-        <v>0.11201</v>
+        <v>0.113293</v>
       </c>
       <c r="D88" t="n">
-        <v>0.479565</v>
+        <v>0.484986</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.160509</v>
+        <v>0.160671</v>
       </c>
       <c r="C89" t="n">
-        <v>0.114641</v>
+        <v>0.116233</v>
       </c>
       <c r="D89" t="n">
-        <v>0.506284</v>
+        <v>0.510783</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.17501</v>
+        <v>0.177726</v>
       </c>
       <c r="C90" t="n">
-        <v>0.120854</v>
+        <v>0.119701</v>
       </c>
       <c r="D90" t="n">
-        <v>0.53384</v>
+        <v>0.536145</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.200752</v>
+        <v>0.199801</v>
       </c>
       <c r="C91" t="n">
-        <v>0.127229</v>
+        <v>0.125938</v>
       </c>
       <c r="D91" t="n">
-        <v>0.562921</v>
+        <v>0.565311</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.233951</v>
+        <v>0.224056</v>
       </c>
       <c r="C92" t="n">
-        <v>0.135627</v>
+        <v>0.134651</v>
       </c>
       <c r="D92" t="n">
-        <v>0.420237</v>
+        <v>0.424584</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.271394</v>
+        <v>0.272082</v>
       </c>
       <c r="C93" t="n">
-        <v>0.151299</v>
+        <v>0.149116</v>
       </c>
       <c r="D93" t="n">
-        <v>0.439276</v>
+        <v>0.444238</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.331586</v>
+        <v>0.327079</v>
       </c>
       <c r="C94" t="n">
-        <v>0.113801</v>
+        <v>0.113809</v>
       </c>
       <c r="D94" t="n">
-        <v>0.461204</v>
+        <v>0.464014</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.132996</v>
+        <v>0.131382</v>
       </c>
       <c r="C95" t="n">
-        <v>0.115352</v>
+        <v>0.115544</v>
       </c>
       <c r="D95" t="n">
-        <v>0.480208</v>
+        <v>0.481552</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.136389</v>
+        <v>0.134571</v>
       </c>
       <c r="C96" t="n">
-        <v>0.117691</v>
+        <v>0.117754</v>
       </c>
       <c r="D96" t="n">
-        <v>0.50043</v>
+        <v>0.504031</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.141881</v>
+        <v>0.137491</v>
       </c>
       <c r="C97" t="n">
-        <v>0.117969</v>
+        <v>0.119455</v>
       </c>
       <c r="D97" t="n">
-        <v>0.521322</v>
+        <v>0.525212</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.142826</v>
+        <v>0.143612</v>
       </c>
       <c r="C98" t="n">
-        <v>0.119764</v>
+        <v>0.121495</v>
       </c>
       <c r="D98" t="n">
-        <v>0.543174</v>
+        <v>0.547766</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.147822</v>
+        <v>0.146736</v>
       </c>
       <c r="C99" t="n">
-        <v>0.120985</v>
+        <v>0.124003</v>
       </c>
       <c r="D99" t="n">
-        <v>0.5686099999999999</v>
+        <v>0.568545</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.153448</v>
+        <v>0.154872</v>
       </c>
       <c r="C100" t="n">
-        <v>0.125083</v>
+        <v>0.126138</v>
       </c>
       <c r="D100" t="n">
-        <v>0.592015</v>
+        <v>0.594844</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.160219</v>
+        <v>0.160682</v>
       </c>
       <c r="C101" t="n">
-        <v>0.125477</v>
+        <v>0.129229</v>
       </c>
       <c r="D101" t="n">
-        <v>0.614698</v>
+        <v>0.618904</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.168462</v>
+        <v>0.168693</v>
       </c>
       <c r="C102" t="n">
-        <v>0.128356</v>
+        <v>0.130119</v>
       </c>
       <c r="D102" t="n">
-        <v>0.6419589999999999</v>
+        <v>0.644882</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.176938</v>
+        <v>0.178998</v>
       </c>
       <c r="C103" t="n">
-        <v>0.133333</v>
+        <v>0.134191</v>
       </c>
       <c r="D103" t="n">
-        <v>0.670068</v>
+        <v>0.673187</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.195509</v>
+        <v>0.197301</v>
       </c>
       <c r="C104" t="n">
-        <v>0.136758</v>
+        <v>0.140871</v>
       </c>
       <c r="D104" t="n">
-        <v>0.698642</v>
+        <v>0.7018799999999999</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.214017</v>
+        <v>0.223173</v>
       </c>
       <c r="C105" t="n">
-        <v>0.143292</v>
+        <v>0.147745</v>
       </c>
       <c r="D105" t="n">
-        <v>0.729332</v>
+        <v>0.7329369999999999</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.253954</v>
+        <v>0.255366</v>
       </c>
       <c r="C106" t="n">
-        <v>0.154216</v>
+        <v>0.157702</v>
       </c>
       <c r="D106" t="n">
-        <v>0.763429</v>
+        <v>0.765788</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.30332</v>
+        <v>0.299621</v>
       </c>
       <c r="C107" t="n">
-        <v>0.173952</v>
+        <v>0.171884</v>
       </c>
       <c r="D107" t="n">
-        <v>0.588063</v>
+        <v>0.592892</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.363113</v>
+        <v>0.363014</v>
       </c>
       <c r="C108" t="n">
-        <v>0.12626</v>
+        <v>0.126641</v>
       </c>
       <c r="D108" t="n">
-        <v>0.6226390000000001</v>
+        <v>0.615493</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.453454</v>
+        <v>0.451445</v>
       </c>
       <c r="C109" t="n">
-        <v>0.13042</v>
+        <v>0.125871</v>
       </c>
       <c r="D109" t="n">
-        <v>0.645838</v>
+        <v>0.647172</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.152442</v>
+        <v>0.146739</v>
       </c>
       <c r="C110" t="n">
-        <v>0.133146</v>
+        <v>0.129774</v>
       </c>
       <c r="D110" t="n">
-        <v>0.656765</v>
+        <v>0.672593</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.157484</v>
+        <v>0.150388</v>
       </c>
       <c r="C111" t="n">
-        <v>0.136017</v>
+        <v>0.131422</v>
       </c>
       <c r="D111" t="n">
-        <v>0.694437</v>
+        <v>0.698388</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.162723</v>
+        <v>0.154532</v>
       </c>
       <c r="C112" t="n">
-        <v>0.139353</v>
+        <v>0.133874</v>
       </c>
       <c r="D112" t="n">
-        <v>0.7212460000000001</v>
+        <v>0.721041</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.168369</v>
+        <v>0.159948</v>
       </c>
       <c r="C113" t="n">
-        <v>0.142246</v>
+        <v>0.13608</v>
       </c>
       <c r="D113" t="n">
-        <v>0.746681</v>
+        <v>0.750069</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.176069</v>
+        <v>0.167924</v>
       </c>
       <c r="C114" t="n">
-        <v>0.144991</v>
+        <v>0.136871</v>
       </c>
       <c r="D114" t="n">
-        <v>0.772524</v>
+        <v>0.778653</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.184976</v>
+        <v>0.172835</v>
       </c>
       <c r="C115" t="n">
-        <v>0.147877</v>
+        <v>0.139927</v>
       </c>
       <c r="D115" t="n">
-        <v>0.8011470000000001</v>
+        <v>0.807037</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.191991</v>
+        <v>0.185309</v>
       </c>
       <c r="C116" t="n">
-        <v>0.151551</v>
+        <v>0.146249</v>
       </c>
       <c r="D116" t="n">
-        <v>0.830121</v>
+        <v>0.83553</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.208166</v>
+        <v>0.199835</v>
       </c>
       <c r="C117" t="n">
-        <v>0.155512</v>
+        <v>0.151556</v>
       </c>
       <c r="D117" t="n">
-        <v>0.858058</v>
+        <v>0.866379</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.21993</v>
+        <v>0.216766</v>
       </c>
       <c r="C118" t="n">
-        <v>0.160591</v>
+        <v>0.157329</v>
       </c>
       <c r="D118" t="n">
-        <v>0.888834</v>
+        <v>0.895476</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.240746</v>
+        <v>0.244446</v>
       </c>
       <c r="C119" t="n">
-        <v>0.167484</v>
+        <v>0.165122</v>
       </c>
       <c r="D119" t="n">
-        <v>0.913685</v>
+        <v>0.928536</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.268851</v>
+        <v>0.271144</v>
       </c>
       <c r="C120" t="n">
-        <v>0.176296</v>
+        <v>0.175868</v>
       </c>
       <c r="D120" t="n">
-        <v>0.948341</v>
+        <v>0.954491</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.310554</v>
+        <v>0.31181</v>
       </c>
       <c r="C121" t="n">
-        <v>0.190839</v>
+        <v>0.191174</v>
       </c>
       <c r="D121" t="n">
-        <v>0.694186</v>
+        <v>0.696499</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.382091</v>
+        <v>0.380777</v>
       </c>
       <c r="C122" t="n">
-        <v>0.213996</v>
+        <v>0.215163</v>
       </c>
       <c r="D122" t="n">
-        <v>0.716133</v>
+        <v>0.718581</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.465585</v>
+        <v>0.46739</v>
       </c>
       <c r="C123" t="n">
-        <v>0.146308</v>
+        <v>0.147755</v>
       </c>
       <c r="D123" t="n">
-        <v>0.727678</v>
+        <v>0.742106</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.170346</v>
+        <v>0.163906</v>
       </c>
       <c r="C124" t="n">
-        <v>0.148752</v>
+        <v>0.150133</v>
       </c>
       <c r="D124" t="n">
-        <v>0.764321</v>
+        <v>0.767298</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.172009</v>
+        <v>0.168395</v>
       </c>
       <c r="C125" t="n">
-        <v>0.150279</v>
+        <v>0.156487</v>
       </c>
       <c r="D125" t="n">
-        <v>0.789841</v>
+        <v>0.792822</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.179651</v>
+        <v>0.17856</v>
       </c>
       <c r="C126" t="n">
-        <v>0.152885</v>
+        <v>0.162885</v>
       </c>
       <c r="D126" t="n">
-        <v>0.815321</v>
+        <v>0.807098</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.173363</v>
+        <v>0.194452</v>
       </c>
       <c r="C127" t="n">
-        <v>0.154152</v>
+        <v>0.157022</v>
       </c>
       <c r="D127" t="n">
-        <v>0.842318</v>
+        <v>0.836306</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.194584</v>
+        <v>0.185144</v>
       </c>
       <c r="C128" t="n">
-        <v>0.158877</v>
+        <v>0.16082</v>
       </c>
       <c r="D128" t="n">
-        <v>0.870787</v>
+        <v>0.873786</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.205104</v>
+        <v>0.200411</v>
       </c>
       <c r="C129" t="n">
-        <v>0.163522</v>
+        <v>0.163961</v>
       </c>
       <c r="D129" t="n">
-        <v>0.88955</v>
+        <v>0.904148</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.206646</v>
+        <v>0.208413</v>
       </c>
       <c r="C130" t="n">
-        <v>0.164791</v>
+        <v>0.161885</v>
       </c>
       <c r="D130" t="n">
-        <v>0.928056</v>
+        <v>0.933379</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.227255</v>
+        <v>0.219768</v>
       </c>
       <c r="C131" t="n">
-        <v>0.167245</v>
+        <v>0.1689</v>
       </c>
       <c r="D131" t="n">
-        <v>0.958924</v>
+        <v>0.963331</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.236462</v>
+        <v>0.227181</v>
       </c>
       <c r="C132" t="n">
-        <v>0.175508</v>
+        <v>0.17682</v>
       </c>
       <c r="D132" t="n">
-        <v>0.990217</v>
+        <v>0.995644</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.261789</v>
+        <v>0.253364</v>
       </c>
       <c r="C133" t="n">
-        <v>0.181154</v>
+        <v>0.187241</v>
       </c>
       <c r="D133" t="n">
-        <v>1.02304</v>
+        <v>1.02801</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.280507</v>
+        <v>0.286671</v>
       </c>
       <c r="C134" t="n">
-        <v>0.196445</v>
+        <v>0.191005</v>
       </c>
       <c r="D134" t="n">
-        <v>1.0559</v>
+        <v>1.06242</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.33163</v>
+        <v>0.321956</v>
       </c>
       <c r="C135" t="n">
-        <v>0.207392</v>
+        <v>0.209639</v>
       </c>
       <c r="D135" t="n">
-        <v>0.711477</v>
+        <v>0.708334</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.386887</v>
+        <v>0.388013</v>
       </c>
       <c r="C136" t="n">
-        <v>0.228599</v>
+        <v>0.228211</v>
       </c>
       <c r="D136" t="n">
-        <v>0.730065</v>
+        <v>0.7333</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.481181</v>
+        <v>0.485173</v>
       </c>
       <c r="C137" t="n">
-        <v>0.287929</v>
+        <v>0.278632</v>
       </c>
       <c r="D137" t="n">
-        <v>0.749908</v>
+        <v>0.752504</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.315943</v>
+        <v>0.324417</v>
       </c>
       <c r="C138" t="n">
-        <v>0.284493</v>
+        <v>0.291659</v>
       </c>
       <c r="D138" t="n">
-        <v>0.76595</v>
+        <v>0.773432</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.317138</v>
+        <v>0.320297</v>
       </c>
       <c r="C139" t="n">
-        <v>0.274786</v>
+        <v>0.277357</v>
       </c>
       <c r="D139" t="n">
-        <v>0.791905</v>
+        <v>0.794592</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.318748</v>
+        <v>0.322917</v>
       </c>
       <c r="C140" t="n">
-        <v>0.270395</v>
+        <v>0.278826</v>
       </c>
       <c r="D140" t="n">
-        <v>0.814632</v>
+        <v>0.816869</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.331229</v>
+        <v>0.31249</v>
       </c>
       <c r="C141" t="n">
-        <v>0.273432</v>
+        <v>0.305035</v>
       </c>
       <c r="D141" t="n">
-        <v>0.8378139999999999</v>
+        <v>0.83984</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.32388</v>
+        <v>0.328585</v>
       </c>
       <c r="C142" t="n">
-        <v>0.293318</v>
+        <v>0.299081</v>
       </c>
       <c r="D142" t="n">
-        <v>0.862219</v>
+        <v>0.858091</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.340804</v>
+        <v>0.333518</v>
       </c>
       <c r="C143" t="n">
-        <v>0.301794</v>
+        <v>0.268021</v>
       </c>
       <c r="D143" t="n">
-        <v>0.887632</v>
+        <v>0.887648</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Scattered unsuccessful looukp.xlsx
+++ b/clang-x86/Scattered unsuccessful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0938017</v>
+        <v>0.0937712</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0887053</v>
+        <v>0.08875379999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>0.183265</v>
+        <v>0.184691</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.101736</v>
+        <v>0.101737</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0901911</v>
+        <v>0.0902201</v>
       </c>
       <c r="D3" t="n">
-        <v>0.190638</v>
+        <v>0.192659</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.113348</v>
+        <v>0.11309</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0915758</v>
+        <v>0.0916814</v>
       </c>
       <c r="D4" t="n">
-        <v>0.203994</v>
+        <v>0.199434</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.127719</v>
+        <v>0.12759</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0932796</v>
+        <v>0.0932673</v>
       </c>
       <c r="D5" t="n">
-        <v>0.217938</v>
+        <v>0.207751</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.151317</v>
+        <v>0.151265</v>
       </c>
       <c r="C6" t="n">
-        <v>0.09673619999999999</v>
+        <v>0.0969503</v>
       </c>
       <c r="D6" t="n">
-        <v>0.227418</v>
+        <v>0.213841</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.187422</v>
+        <v>0.187125</v>
       </c>
       <c r="C7" t="n">
-        <v>0.102659</v>
+        <v>0.102725</v>
       </c>
       <c r="D7" t="n">
-        <v>0.174122</v>
+        <v>0.158112</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.233339</v>
+        <v>0.232916</v>
       </c>
       <c r="C8" t="n">
-        <v>0.113402</v>
+        <v>0.112614</v>
       </c>
       <c r="D8" t="n">
-        <v>0.182884</v>
+        <v>0.166977</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.273073</v>
+        <v>0.270003</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0848298</v>
+        <v>0.0849343</v>
       </c>
       <c r="D9" t="n">
-        <v>0.191206</v>
+        <v>0.172691</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.08640490000000001</v>
+        <v>0.0865529</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0851465</v>
+        <v>0.0852386</v>
       </c>
       <c r="D10" t="n">
-        <v>0.197951</v>
+        <v>0.183351</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.08709840000000001</v>
+        <v>0.0871957</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0853932</v>
+        <v>0.085602</v>
       </c>
       <c r="D11" t="n">
-        <v>0.205036</v>
+        <v>0.190384</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.08848689999999999</v>
+        <v>0.0885594</v>
       </c>
       <c r="C12" t="n">
-        <v>0.08586820000000001</v>
+        <v>0.08596230000000001</v>
       </c>
       <c r="D12" t="n">
-        <v>0.21109</v>
+        <v>0.197644</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0899519</v>
+        <v>0.0899431</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0862622</v>
+        <v>0.0863173</v>
       </c>
       <c r="D13" t="n">
-        <v>0.217737</v>
+        <v>0.204513</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.09451320000000001</v>
+        <v>0.0923013</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0866758</v>
+        <v>0.0868664</v>
       </c>
       <c r="D14" t="n">
-        <v>0.219684</v>
+        <v>0.211011</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0984879</v>
+        <v>0.0958315</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0878655</v>
+        <v>0.0878776</v>
       </c>
       <c r="D15" t="n">
-        <v>0.225763</v>
+        <v>0.219643</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.103701</v>
+        <v>0.100827</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0886725</v>
+        <v>0.0888294</v>
       </c>
       <c r="D16" t="n">
-        <v>0.2389</v>
+        <v>0.226057</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.107675</v>
+        <v>0.107743</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0896599</v>
+        <v>0.08978709999999999</v>
       </c>
       <c r="D17" t="n">
-        <v>0.246409</v>
+        <v>0.232898</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.12389</v>
+        <v>0.118229</v>
       </c>
       <c r="C18" t="n">
-        <v>0.09148829999999999</v>
+        <v>0.09163830000000001</v>
       </c>
       <c r="D18" t="n">
-        <v>0.251646</v>
+        <v>0.238875</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.140355</v>
+        <v>0.133205</v>
       </c>
       <c r="C19" t="n">
-        <v>0.095234</v>
+        <v>0.0939204</v>
       </c>
       <c r="D19" t="n">
-        <v>0.256568</v>
+        <v>0.246375</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.153217</v>
+        <v>0.153522</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0984201</v>
+        <v>0.0976562</v>
       </c>
       <c r="D20" t="n">
-        <v>0.254846</v>
+        <v>0.252315</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.178712</v>
+        <v>0.178839</v>
       </c>
       <c r="C21" t="n">
-        <v>0.103365</v>
+        <v>0.103703</v>
       </c>
       <c r="D21" t="n">
-        <v>0.183453</v>
+        <v>0.184365</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.214847</v>
+        <v>0.215454</v>
       </c>
       <c r="C22" t="n">
-        <v>0.117713</v>
+        <v>0.117068</v>
       </c>
       <c r="D22" t="n">
-        <v>0.191517</v>
+        <v>0.19198</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.271384</v>
+        <v>0.260095</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0858062</v>
+        <v>0.0857769</v>
       </c>
       <c r="D23" t="n">
-        <v>0.199196</v>
+        <v>0.199279</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0914069</v>
+        <v>0.0904433</v>
       </c>
       <c r="C24" t="n">
-        <v>0.08611580000000001</v>
+        <v>0.08613079999999999</v>
       </c>
       <c r="D24" t="n">
-        <v>0.206826</v>
+        <v>0.207424</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.09137820000000001</v>
+        <v>0.0912533</v>
       </c>
       <c r="C25" t="n">
-        <v>0.08642859999999999</v>
+        <v>0.08643439999999999</v>
       </c>
       <c r="D25" t="n">
-        <v>0.223586</v>
+        <v>0.214785</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.09288200000000001</v>
+        <v>0.0928819</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0867822</v>
+        <v>0.0867754</v>
       </c>
       <c r="D26" t="n">
-        <v>0.220715</v>
+        <v>0.220768</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.09628539999999999</v>
+        <v>0.0947342</v>
       </c>
       <c r="C27" t="n">
-        <v>0.08719209999999999</v>
+        <v>0.0872619</v>
       </c>
       <c r="D27" t="n">
-        <v>0.22825</v>
+        <v>0.229566</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0973146</v>
+        <v>0.0987735</v>
       </c>
       <c r="C28" t="n">
-        <v>0.08775819999999999</v>
+        <v>0.0877573</v>
       </c>
       <c r="D28" t="n">
-        <v>0.234335</v>
+        <v>0.23557</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.103613</v>
+        <v>0.101454</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0883134</v>
+        <v>0.08833050000000001</v>
       </c>
       <c r="D29" t="n">
-        <v>0.240754</v>
+        <v>0.24193</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.107109</v>
+        <v>0.107232</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0893967</v>
+        <v>0.0893833</v>
       </c>
       <c r="D30" t="n">
-        <v>0.246694</v>
+        <v>0.247669</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.117709</v>
+        <v>0.114117</v>
       </c>
       <c r="C31" t="n">
-        <v>0.09045640000000001</v>
+        <v>0.09055680000000001</v>
       </c>
       <c r="D31" t="n">
-        <v>0.251153</v>
+        <v>0.252532</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.123707</v>
+        <v>0.123953</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0921182</v>
+        <v>0.09228310000000001</v>
       </c>
       <c r="D32" t="n">
-        <v>0.256851</v>
+        <v>0.258455</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.136586</v>
+        <v>0.136735</v>
       </c>
       <c r="C33" t="n">
-        <v>0.094296</v>
+        <v>0.09436219999999999</v>
       </c>
       <c r="D33" t="n">
-        <v>0.262465</v>
+        <v>0.264192</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.152277</v>
+        <v>0.152468</v>
       </c>
       <c r="C34" t="n">
-        <v>0.09802329999999999</v>
+        <v>0.09818590000000001</v>
       </c>
       <c r="D34" t="n">
-        <v>0.270751</v>
+        <v>0.269988</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.175738</v>
+        <v>0.176015</v>
       </c>
       <c r="C35" t="n">
-        <v>0.104148</v>
+        <v>0.104442</v>
       </c>
       <c r="D35" t="n">
-        <v>0.197109</v>
+        <v>0.197236</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.21177</v>
+        <v>0.213116</v>
       </c>
       <c r="C36" t="n">
-        <v>0.115483</v>
+        <v>0.116088</v>
       </c>
       <c r="D36" t="n">
-        <v>0.202775</v>
+        <v>0.203866</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.255328</v>
+        <v>0.255939</v>
       </c>
       <c r="C37" t="n">
-        <v>0.08652799999999999</v>
+        <v>0.0866186</v>
       </c>
       <c r="D37" t="n">
-        <v>0.212083</v>
+        <v>0.212401</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0923638</v>
+        <v>0.09239890000000001</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0869872</v>
+        <v>0.0869596</v>
       </c>
       <c r="D38" t="n">
-        <v>0.219195</v>
+        <v>0.219429</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.093429</v>
+        <v>0.0937455</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0873038</v>
+        <v>0.08716749999999999</v>
       </c>
       <c r="D39" t="n">
-        <v>0.22592</v>
+        <v>0.226583</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0963537</v>
+        <v>0.0952842</v>
       </c>
       <c r="C40" t="n">
-        <v>0.087645</v>
+        <v>0.0875744</v>
       </c>
       <c r="D40" t="n">
-        <v>0.23355</v>
+        <v>0.234135</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0985027</v>
+        <v>0.09712899999999999</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0880731</v>
+        <v>0.08802069999999999</v>
       </c>
       <c r="D41" t="n">
-        <v>0.239758</v>
+        <v>0.240068</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.101778</v>
+        <v>0.100058</v>
       </c>
       <c r="C42" t="n">
-        <v>0.08833000000000001</v>
+        <v>0.0884905</v>
       </c>
       <c r="D42" t="n">
-        <v>0.246296</v>
+        <v>0.246907</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.103743</v>
+        <v>0.104189</v>
       </c>
       <c r="C43" t="n">
-        <v>0.08924890000000001</v>
+        <v>0.0891542</v>
       </c>
       <c r="D43" t="n">
-        <v>0.252806</v>
+        <v>0.25297</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.108631</v>
+        <v>0.109083</v>
       </c>
       <c r="C44" t="n">
-        <v>0.08983729999999999</v>
+        <v>0.0899155</v>
       </c>
       <c r="D44" t="n">
-        <v>0.258671</v>
+        <v>0.25926</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.114886</v>
+        <v>0.114623</v>
       </c>
       <c r="C45" t="n">
-        <v>0.09089940000000001</v>
+        <v>0.09097719999999999</v>
       </c>
       <c r="D45" t="n">
-        <v>0.264774</v>
+        <v>0.265408</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.127026</v>
+        <v>0.122859</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0927017</v>
+        <v>0.0927062</v>
       </c>
       <c r="D46" t="n">
-        <v>0.270622</v>
+        <v>0.270682</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.133806</v>
+        <v>0.133968</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0951255</v>
+        <v>0.0950993</v>
       </c>
       <c r="D47" t="n">
-        <v>0.275894</v>
+        <v>0.275918</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.147852</v>
+        <v>0.148255</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0986664</v>
+        <v>0.0990822</v>
       </c>
       <c r="D48" t="n">
-        <v>0.28174</v>
+        <v>0.281925</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.170271</v>
+        <v>0.170487</v>
       </c>
       <c r="C49" t="n">
-        <v>0.104922</v>
+        <v>0.105162</v>
       </c>
       <c r="D49" t="n">
-        <v>0.292907</v>
+        <v>0.287563</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.202542</v>
+        <v>0.203465</v>
       </c>
       <c r="C50" t="n">
-        <v>0.114861</v>
+        <v>0.115321</v>
       </c>
       <c r="D50" t="n">
-        <v>0.202493</v>
+        <v>0.202388</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.243223</v>
+        <v>0.243456</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0895865</v>
+        <v>0.0893477</v>
       </c>
       <c r="D51" t="n">
-        <v>0.209446</v>
+        <v>0.209803</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.295977</v>
+        <v>0.292229</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0887056</v>
+        <v>0.088327</v>
       </c>
       <c r="D52" t="n">
-        <v>0.216277</v>
+        <v>0.216376</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.09732830000000001</v>
+        <v>0.09724389999999999</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0894537</v>
+        <v>0.0887564</v>
       </c>
       <c r="D53" t="n">
-        <v>0.223937</v>
+        <v>0.223865</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.09901890000000001</v>
+        <v>0.09729500000000001</v>
       </c>
       <c r="C54" t="n">
-        <v>0.08969240000000001</v>
+        <v>0.0890296</v>
       </c>
       <c r="D54" t="n">
-        <v>0.230876</v>
+        <v>0.23092</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.100461</v>
+        <v>0.0995548</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0906465</v>
+        <v>0.0894591</v>
       </c>
       <c r="D55" t="n">
-        <v>0.237578</v>
+        <v>0.237446</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.106267</v>
+        <v>0.102277</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0914682</v>
+        <v>0.0905989</v>
       </c>
       <c r="D56" t="n">
-        <v>0.244147</v>
+        <v>0.24408</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.106731</v>
+        <v>0.108168</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0915034</v>
+        <v>0.0915932</v>
       </c>
       <c r="D57" t="n">
-        <v>0.249824</v>
+        <v>0.249837</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.110381</v>
+        <v>0.115238</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0931</v>
+        <v>0.0919097</v>
       </c>
       <c r="D58" t="n">
-        <v>0.255279</v>
+        <v>0.255134</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.120597</v>
+        <v>0.120347</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0931181</v>
+        <v>0.0928788</v>
       </c>
       <c r="D59" t="n">
-        <v>0.26115</v>
+        <v>0.260925</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.128611</v>
+        <v>0.124671</v>
       </c>
       <c r="C60" t="n">
-        <v>0.09455669999999999</v>
+        <v>0.0948191</v>
       </c>
       <c r="D60" t="n">
-        <v>0.266248</v>
+        <v>0.265791</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.139925</v>
+        <v>0.135003</v>
       </c>
       <c r="C61" t="n">
-        <v>0.097093</v>
+        <v>0.096873</v>
       </c>
       <c r="D61" t="n">
-        <v>0.272111</v>
+        <v>0.271044</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.149338</v>
+        <v>0.149559</v>
       </c>
       <c r="C62" t="n">
-        <v>0.10007</v>
+        <v>0.0998872</v>
       </c>
       <c r="D62" t="n">
-        <v>0.277319</v>
+        <v>0.276305</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.179578</v>
+        <v>0.176839</v>
       </c>
       <c r="C63" t="n">
-        <v>0.105861</v>
+        <v>0.105223</v>
       </c>
       <c r="D63" t="n">
-        <v>0.284306</v>
+        <v>0.282</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.198057</v>
+        <v>0.203994</v>
       </c>
       <c r="C64" t="n">
-        <v>0.112966</v>
+        <v>0.113695</v>
       </c>
       <c r="D64" t="n">
-        <v>0.206054</v>
+        <v>0.204934</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.244413</v>
+        <v>0.237954</v>
       </c>
       <c r="C65" t="n">
-        <v>0.129371</v>
+        <v>0.127441</v>
       </c>
       <c r="D65" t="n">
-        <v>0.213973</v>
+        <v>0.213247</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.297202</v>
+        <v>0.284755</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0956905</v>
+        <v>0.09629799999999999</v>
       </c>
       <c r="D66" t="n">
-        <v>0.224643</v>
+        <v>0.221899</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.110094</v>
+        <v>0.108908</v>
       </c>
       <c r="C67" t="n">
-        <v>0.09631720000000001</v>
+        <v>0.0962422</v>
       </c>
       <c r="D67" t="n">
-        <v>0.233877</v>
+        <v>0.230231</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.107732</v>
+        <v>0.109668</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0974571</v>
+        <v>0.0966176</v>
       </c>
       <c r="D68" t="n">
-        <v>0.244679</v>
+        <v>0.238816</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.111352</v>
+        <v>0.11085</v>
       </c>
       <c r="C69" t="n">
-        <v>0.09687320000000001</v>
+        <v>0.098042</v>
       </c>
       <c r="D69" t="n">
-        <v>0.256437</v>
+        <v>0.247957</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.11527</v>
+        <v>0.113446</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0981648</v>
+        <v>0.0980935</v>
       </c>
       <c r="D70" t="n">
-        <v>0.264724</v>
+        <v>0.256524</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.118983</v>
+        <v>0.117091</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0979565</v>
+        <v>0.0982973</v>
       </c>
       <c r="D71" t="n">
-        <v>0.275131</v>
+        <v>0.266465</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.121413</v>
+        <v>0.123758</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0988098</v>
+        <v>0.0990243</v>
       </c>
       <c r="D72" t="n">
-        <v>0.28634</v>
+        <v>0.276552</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.131135</v>
+        <v>0.130117</v>
       </c>
       <c r="C73" t="n">
-        <v>0.100305</v>
+        <v>0.100576</v>
       </c>
       <c r="D73" t="n">
-        <v>0.300132</v>
+        <v>0.287693</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.134646</v>
+        <v>0.135473</v>
       </c>
       <c r="C74" t="n">
-        <v>0.101454</v>
+        <v>0.102072</v>
       </c>
       <c r="D74" t="n">
-        <v>0.312697</v>
+        <v>0.299709</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.14428</v>
+        <v>0.144371</v>
       </c>
       <c r="C75" t="n">
-        <v>0.103288</v>
+        <v>0.103856</v>
       </c>
       <c r="D75" t="n">
-        <v>0.328188</v>
+        <v>0.315576</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.162212</v>
+        <v>0.158358</v>
       </c>
       <c r="C76" t="n">
-        <v>0.107755</v>
+        <v>0.10728</v>
       </c>
       <c r="D76" t="n">
-        <v>0.340877</v>
+        <v>0.329013</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.182095</v>
+        <v>0.183315</v>
       </c>
       <c r="C77" t="n">
-        <v>0.112404</v>
+        <v>0.112099</v>
       </c>
       <c r="D77" t="n">
-        <v>0.360653</v>
+        <v>0.347856</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.207419</v>
+        <v>0.207379</v>
       </c>
       <c r="C78" t="n">
-        <v>0.119794</v>
+        <v>0.12034</v>
       </c>
       <c r="D78" t="n">
-        <v>0.27303</v>
+        <v>0.269231</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.24723</v>
+        <v>0.243221</v>
       </c>
       <c r="C79" t="n">
-        <v>0.134032</v>
+        <v>0.133633</v>
       </c>
       <c r="D79" t="n">
-        <v>0.288432</v>
+        <v>0.286752</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.297091</v>
+        <v>0.302405</v>
       </c>
       <c r="C80" t="n">
-        <v>0.103681</v>
+        <v>0.104132</v>
       </c>
       <c r="D80" t="n">
-        <v>0.30763</v>
+        <v>0.307023</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.119705</v>
+        <v>0.121271</v>
       </c>
       <c r="C81" t="n">
-        <v>0.104084</v>
+        <v>0.104017</v>
       </c>
       <c r="D81" t="n">
-        <v>0.327299</v>
+        <v>0.327764</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.121315</v>
+        <v>0.121247</v>
       </c>
       <c r="C82" t="n">
-        <v>0.104636</v>
+        <v>0.104725</v>
       </c>
       <c r="D82" t="n">
-        <v>0.345133</v>
+        <v>0.350644</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.123388</v>
+        <v>0.123306</v>
       </c>
       <c r="C83" t="n">
-        <v>0.105395</v>
+        <v>0.105246</v>
       </c>
       <c r="D83" t="n">
-        <v>0.367114</v>
+        <v>0.373113</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.128294</v>
+        <v>0.125841</v>
       </c>
       <c r="C84" t="n">
-        <v>0.105276</v>
+        <v>0.105742</v>
       </c>
       <c r="D84" t="n">
-        <v>0.387627</v>
+        <v>0.396885</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.129908</v>
+        <v>0.131577</v>
       </c>
       <c r="C85" t="n">
-        <v>0.107045</v>
+        <v>0.106434</v>
       </c>
       <c r="D85" t="n">
-        <v>0.410706</v>
+        <v>0.420217</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.13247</v>
+        <v>0.133341</v>
       </c>
       <c r="C86" t="n">
-        <v>0.107429</v>
+        <v>0.107437</v>
       </c>
       <c r="D86" t="n">
-        <v>0.433185</v>
+        <v>0.444635</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.140824</v>
+        <v>0.139009</v>
       </c>
       <c r="C87" t="n">
-        <v>0.108928</v>
+        <v>0.108667</v>
       </c>
       <c r="D87" t="n">
-        <v>0.456925</v>
+        <v>0.470017</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.152677</v>
+        <v>0.146267</v>
       </c>
       <c r="C88" t="n">
-        <v>0.11201</v>
+        <v>0.110245</v>
       </c>
       <c r="D88" t="n">
-        <v>0.479565</v>
+        <v>0.494549</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.160509</v>
+        <v>0.1598</v>
       </c>
       <c r="C89" t="n">
-        <v>0.114641</v>
+        <v>0.112794</v>
       </c>
       <c r="D89" t="n">
-        <v>0.506284</v>
+        <v>0.52144</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.17501</v>
+        <v>0.171543</v>
       </c>
       <c r="C90" t="n">
-        <v>0.120854</v>
+        <v>0.116465</v>
       </c>
       <c r="D90" t="n">
-        <v>0.53384</v>
+        <v>0.54803</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.200752</v>
+        <v>0.189245</v>
       </c>
       <c r="C91" t="n">
-        <v>0.127229</v>
+        <v>0.121759</v>
       </c>
       <c r="D91" t="n">
-        <v>0.562921</v>
+        <v>0.577942</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.233951</v>
+        <v>0.226194</v>
       </c>
       <c r="C92" t="n">
-        <v>0.135627</v>
+        <v>0.130151</v>
       </c>
       <c r="D92" t="n">
-        <v>0.420237</v>
+        <v>0.433491</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.271394</v>
+        <v>0.262065</v>
       </c>
       <c r="C93" t="n">
-        <v>0.151299</v>
+        <v>0.144223</v>
       </c>
       <c r="D93" t="n">
-        <v>0.439276</v>
+        <v>0.452494</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.331586</v>
+        <v>0.327072</v>
       </c>
       <c r="C94" t="n">
-        <v>0.113801</v>
+        <v>0.109336</v>
       </c>
       <c r="D94" t="n">
-        <v>0.461204</v>
+        <v>0.472227</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.132996</v>
+        <v>0.129945</v>
       </c>
       <c r="C95" t="n">
-        <v>0.115352</v>
+        <v>0.110129</v>
       </c>
       <c r="D95" t="n">
-        <v>0.480208</v>
+        <v>0.492267</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.136389</v>
+        <v>0.130479</v>
       </c>
       <c r="C96" t="n">
-        <v>0.117691</v>
+        <v>0.111854</v>
       </c>
       <c r="D96" t="n">
-        <v>0.50043</v>
+        <v>0.515722</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.141881</v>
+        <v>0.135895</v>
       </c>
       <c r="C97" t="n">
-        <v>0.117969</v>
+        <v>0.113335</v>
       </c>
       <c r="D97" t="n">
-        <v>0.521322</v>
+        <v>0.536882</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.142826</v>
+        <v>0.139785</v>
       </c>
       <c r="C98" t="n">
-        <v>0.119764</v>
+        <v>0.115279</v>
       </c>
       <c r="D98" t="n">
-        <v>0.543174</v>
+        <v>0.561013</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.147822</v>
+        <v>0.142848</v>
       </c>
       <c r="C99" t="n">
-        <v>0.120985</v>
+        <v>0.117926</v>
       </c>
       <c r="D99" t="n">
-        <v>0.5686099999999999</v>
+        <v>0.584436</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.153448</v>
+        <v>0.14992</v>
       </c>
       <c r="C100" t="n">
-        <v>0.125083</v>
+        <v>0.121031</v>
       </c>
       <c r="D100" t="n">
-        <v>0.592015</v>
+        <v>0.606221</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.160219</v>
+        <v>0.158578</v>
       </c>
       <c r="C101" t="n">
-        <v>0.125477</v>
+        <v>0.125051</v>
       </c>
       <c r="D101" t="n">
-        <v>0.614698</v>
+        <v>0.631642</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.168462</v>
+        <v>0.173443</v>
       </c>
       <c r="C102" t="n">
-        <v>0.128356</v>
+        <v>0.129325</v>
       </c>
       <c r="D102" t="n">
-        <v>0.6419589999999999</v>
+        <v>0.658255</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.176938</v>
+        <v>0.187466</v>
       </c>
       <c r="C103" t="n">
-        <v>0.133333</v>
+        <v>0.135327</v>
       </c>
       <c r="D103" t="n">
-        <v>0.670068</v>
+        <v>0.686256</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.195509</v>
+        <v>0.206997</v>
       </c>
       <c r="C104" t="n">
-        <v>0.136758</v>
+        <v>0.142019</v>
       </c>
       <c r="D104" t="n">
-        <v>0.698642</v>
+        <v>0.717522</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.214017</v>
+        <v>0.224874</v>
       </c>
       <c r="C105" t="n">
-        <v>0.143292</v>
+        <v>0.150882</v>
       </c>
       <c r="D105" t="n">
-        <v>0.729332</v>
+        <v>0.74917</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.253954</v>
+        <v>0.255739</v>
       </c>
       <c r="C106" t="n">
-        <v>0.154216</v>
+        <v>0.16268</v>
       </c>
       <c r="D106" t="n">
-        <v>0.763429</v>
+        <v>0.782292</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.30332</v>
+        <v>0.298909</v>
       </c>
       <c r="C107" t="n">
-        <v>0.173952</v>
+        <v>0.179261</v>
       </c>
       <c r="D107" t="n">
-        <v>0.588063</v>
+        <v>0.616304</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.363113</v>
+        <v>0.361052</v>
       </c>
       <c r="C108" t="n">
-        <v>0.12626</v>
+        <v>0.130069</v>
       </c>
       <c r="D108" t="n">
-        <v>0.6226390000000001</v>
+        <v>0.640037</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.453454</v>
+        <v>0.448691</v>
       </c>
       <c r="C109" t="n">
-        <v>0.13042</v>
+        <v>0.132677</v>
       </c>
       <c r="D109" t="n">
-        <v>0.645838</v>
+        <v>0.663938</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.152442</v>
+        <v>0.157214</v>
       </c>
       <c r="C110" t="n">
-        <v>0.133146</v>
+        <v>0.135381</v>
       </c>
       <c r="D110" t="n">
-        <v>0.656765</v>
+        <v>0.688507</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.157484</v>
+        <v>0.159412</v>
       </c>
       <c r="C111" t="n">
-        <v>0.136017</v>
+        <v>0.138047</v>
       </c>
       <c r="D111" t="n">
-        <v>0.694437</v>
+        <v>0.7151650000000001</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.162723</v>
+        <v>0.166325</v>
       </c>
       <c r="C112" t="n">
-        <v>0.139353</v>
+        <v>0.140551</v>
       </c>
       <c r="D112" t="n">
-        <v>0.7212460000000001</v>
+        <v>0.74029</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.168369</v>
+        <v>0.169418</v>
       </c>
       <c r="C113" t="n">
-        <v>0.142246</v>
+        <v>0.143213</v>
       </c>
       <c r="D113" t="n">
-        <v>0.746681</v>
+        <v>0.76749</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.176069</v>
+        <v>0.177238</v>
       </c>
       <c r="C114" t="n">
-        <v>0.144991</v>
+        <v>0.145882</v>
       </c>
       <c r="D114" t="n">
-        <v>0.772524</v>
+        <v>0.795691</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.184976</v>
+        <v>0.186795</v>
       </c>
       <c r="C115" t="n">
-        <v>0.147877</v>
+        <v>0.148904</v>
       </c>
       <c r="D115" t="n">
-        <v>0.8011470000000001</v>
+        <v>0.82521</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.191991</v>
+        <v>0.193102</v>
       </c>
       <c r="C116" t="n">
-        <v>0.151551</v>
+        <v>0.152386</v>
       </c>
       <c r="D116" t="n">
-        <v>0.830121</v>
+        <v>0.8549639999999999</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.208166</v>
+        <v>0.205453</v>
       </c>
       <c r="C117" t="n">
-        <v>0.155512</v>
+        <v>0.156768</v>
       </c>
       <c r="D117" t="n">
-        <v>0.858058</v>
+        <v>0.886682</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.21993</v>
+        <v>0.221274</v>
       </c>
       <c r="C118" t="n">
-        <v>0.160591</v>
+        <v>0.162029</v>
       </c>
       <c r="D118" t="n">
-        <v>0.888834</v>
+        <v>0.919365</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.240746</v>
+        <v>0.242511</v>
       </c>
       <c r="C119" t="n">
-        <v>0.167484</v>
+        <v>0.169052</v>
       </c>
       <c r="D119" t="n">
-        <v>0.913685</v>
+        <v>0.952814</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.268851</v>
+        <v>0.278902</v>
       </c>
       <c r="C120" t="n">
-        <v>0.176296</v>
+        <v>0.178852</v>
       </c>
       <c r="D120" t="n">
-        <v>0.948341</v>
+        <v>0.9877939999999999</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.310554</v>
+        <v>0.312813</v>
       </c>
       <c r="C121" t="n">
-        <v>0.190839</v>
+        <v>0.193268</v>
       </c>
       <c r="D121" t="n">
-        <v>0.694186</v>
+        <v>0.721471</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.382091</v>
+        <v>0.375074</v>
       </c>
       <c r="C122" t="n">
-        <v>0.213996</v>
+        <v>0.216978</v>
       </c>
       <c r="D122" t="n">
-        <v>0.716133</v>
+        <v>0.7444</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.465585</v>
+        <v>0.466834</v>
       </c>
       <c r="C123" t="n">
-        <v>0.146308</v>
+        <v>0.147961</v>
       </c>
       <c r="D123" t="n">
-        <v>0.727678</v>
+        <v>0.768087</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.170346</v>
+        <v>0.171942</v>
       </c>
       <c r="C124" t="n">
-        <v>0.148752</v>
+        <v>0.148677</v>
       </c>
       <c r="D124" t="n">
-        <v>0.764321</v>
+        <v>0.792301</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.172009</v>
+        <v>0.175527</v>
       </c>
       <c r="C125" t="n">
-        <v>0.150279</v>
+        <v>0.152842</v>
       </c>
       <c r="D125" t="n">
-        <v>0.789841</v>
+        <v>0.8174670000000001</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.179651</v>
+        <v>0.180907</v>
       </c>
       <c r="C126" t="n">
-        <v>0.152885</v>
+        <v>0.153798</v>
       </c>
       <c r="D126" t="n">
-        <v>0.815321</v>
+        <v>0.846168</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.173363</v>
+        <v>0.185943</v>
       </c>
       <c r="C127" t="n">
-        <v>0.154152</v>
+        <v>0.157376</v>
       </c>
       <c r="D127" t="n">
-        <v>0.842318</v>
+        <v>0.875264</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.194584</v>
+        <v>0.192249</v>
       </c>
       <c r="C128" t="n">
-        <v>0.158877</v>
+        <v>0.159636</v>
       </c>
       <c r="D128" t="n">
-        <v>0.870787</v>
+        <v>0.903269</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.205104</v>
+        <v>0.202705</v>
       </c>
       <c r="C129" t="n">
-        <v>0.163522</v>
+        <v>0.166393</v>
       </c>
       <c r="D129" t="n">
-        <v>0.88955</v>
+        <v>0.933169</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.206646</v>
+        <v>0.208567</v>
       </c>
       <c r="C130" t="n">
-        <v>0.164791</v>
+        <v>0.166703</v>
       </c>
       <c r="D130" t="n">
-        <v>0.928056</v>
+        <v>0.96031</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.227255</v>
+        <v>0.218684</v>
       </c>
       <c r="C131" t="n">
-        <v>0.167245</v>
+        <v>0.169095</v>
       </c>
       <c r="D131" t="n">
-        <v>0.958924</v>
+        <v>0.991775</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.236462</v>
+        <v>0.240622</v>
       </c>
       <c r="C132" t="n">
-        <v>0.175508</v>
+        <v>0.175052</v>
       </c>
       <c r="D132" t="n">
-        <v>0.990217</v>
+        <v>1.02523</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.261789</v>
+        <v>0.259173</v>
       </c>
       <c r="C133" t="n">
-        <v>0.181154</v>
+        <v>0.182163</v>
       </c>
       <c r="D133" t="n">
-        <v>1.02304</v>
+        <v>1.05888</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.280507</v>
+        <v>0.28518</v>
       </c>
       <c r="C134" t="n">
-        <v>0.196445</v>
+        <v>0.192545</v>
       </c>
       <c r="D134" t="n">
-        <v>1.0559</v>
+        <v>1.09545</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.33163</v>
+        <v>0.325783</v>
       </c>
       <c r="C135" t="n">
-        <v>0.207392</v>
+        <v>0.208684</v>
       </c>
       <c r="D135" t="n">
-        <v>0.711477</v>
+        <v>0.742001</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.386887</v>
+        <v>0.393606</v>
       </c>
       <c r="C136" t="n">
-        <v>0.228599</v>
+        <v>0.226694</v>
       </c>
       <c r="D136" t="n">
-        <v>0.730065</v>
+        <v>0.761226</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.481181</v>
+        <v>0.486605</v>
       </c>
       <c r="C137" t="n">
-        <v>0.287929</v>
+        <v>0.291639</v>
       </c>
       <c r="D137" t="n">
-        <v>0.749908</v>
+        <v>0.780678</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.315943</v>
+        <v>0.322831</v>
       </c>
       <c r="C138" t="n">
-        <v>0.284493</v>
+        <v>0.291182</v>
       </c>
       <c r="D138" t="n">
-        <v>0.76595</v>
+        <v>0.8022359999999999</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.317138</v>
+        <v>0.328233</v>
       </c>
       <c r="C139" t="n">
-        <v>0.274786</v>
+        <v>0.294843</v>
       </c>
       <c r="D139" t="n">
-        <v>0.791905</v>
+        <v>0.825068</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.318748</v>
+        <v>0.332649</v>
       </c>
       <c r="C140" t="n">
-        <v>0.270395</v>
+        <v>0.298587</v>
       </c>
       <c r="D140" t="n">
-        <v>0.814632</v>
+        <v>0.847515</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.331229</v>
+        <v>0.337676</v>
       </c>
       <c r="C141" t="n">
-        <v>0.273432</v>
+        <v>0.300914</v>
       </c>
       <c r="D141" t="n">
-        <v>0.8378139999999999</v>
+        <v>0.871541</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.32388</v>
+        <v>0.343995</v>
       </c>
       <c r="C142" t="n">
-        <v>0.293318</v>
+        <v>0.301523</v>
       </c>
       <c r="D142" t="n">
-        <v>0.862219</v>
+        <v>0.89802</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.340804</v>
+        <v>0.351975</v>
       </c>
       <c r="C143" t="n">
-        <v>0.301794</v>
+        <v>0.305515</v>
       </c>
       <c r="D143" t="n">
-        <v>0.887632</v>
+        <v>0.924605</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Scattered unsuccessful looukp.xlsx
+++ b/clang-x86/Scattered unsuccessful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0938017</v>
+        <v>0.0938306</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0887053</v>
+        <v>0.08373460000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>0.183265</v>
+        <v>0.184293</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.101736</v>
+        <v>0.101443</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0901911</v>
+        <v>0.0845626</v>
       </c>
       <c r="D3" t="n">
-        <v>0.190638</v>
+        <v>0.191136</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.113348</v>
+        <v>0.113197</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0915758</v>
+        <v>0.08586820000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>0.203994</v>
+        <v>0.195903</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.127719</v>
+        <v>0.127358</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0932796</v>
+        <v>0.0874027</v>
       </c>
       <c r="D5" t="n">
-        <v>0.217938</v>
+        <v>0.204936</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.151317</v>
+        <v>0.150964</v>
       </c>
       <c r="C6" t="n">
-        <v>0.09673619999999999</v>
+        <v>0.08955979999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>0.227418</v>
+        <v>0.212484</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.187422</v>
+        <v>0.187164</v>
       </c>
       <c r="C7" t="n">
-        <v>0.102659</v>
+        <v>0.0944048</v>
       </c>
       <c r="D7" t="n">
-        <v>0.174122</v>
+        <v>0.160081</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.233339</v>
+        <v>0.233133</v>
       </c>
       <c r="C8" t="n">
-        <v>0.113402</v>
+        <v>0.107135</v>
       </c>
       <c r="D8" t="n">
-        <v>0.182884</v>
+        <v>0.167704</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.273073</v>
+        <v>0.269846</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0848298</v>
+        <v>0.0819965</v>
       </c>
       <c r="D9" t="n">
-        <v>0.191206</v>
+        <v>0.17328</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.08640490000000001</v>
+        <v>0.0863621</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0851465</v>
+        <v>0.08230369999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>0.197951</v>
+        <v>0.180747</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.08709840000000001</v>
+        <v>0.0867301</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0853932</v>
+        <v>0.08276219999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>0.205036</v>
+        <v>0.18823</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.08848689999999999</v>
+        <v>0.0881373</v>
       </c>
       <c r="C12" t="n">
-        <v>0.08586820000000001</v>
+        <v>0.08291519999999999</v>
       </c>
       <c r="D12" t="n">
-        <v>0.21109</v>
+        <v>0.195873</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0899519</v>
+        <v>0.0897993</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0862622</v>
+        <v>0.0831394</v>
       </c>
       <c r="D13" t="n">
-        <v>0.217737</v>
+        <v>0.203464</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.09451320000000001</v>
+        <v>0.09168519999999999</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0866758</v>
+        <v>0.08341</v>
       </c>
       <c r="D14" t="n">
-        <v>0.219684</v>
+        <v>0.208877</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0984879</v>
+        <v>0.0952419</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0878655</v>
+        <v>0.0838539</v>
       </c>
       <c r="D15" t="n">
-        <v>0.225763</v>
+        <v>0.218042</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.103701</v>
+        <v>0.100526</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0886725</v>
+        <v>0.084592</v>
       </c>
       <c r="D16" t="n">
-        <v>0.2389</v>
+        <v>0.225401</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.107675</v>
+        <v>0.106985</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0896599</v>
+        <v>0.0856903</v>
       </c>
       <c r="D17" t="n">
-        <v>0.246409</v>
+        <v>0.231714</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.12389</v>
+        <v>0.11826</v>
       </c>
       <c r="C18" t="n">
-        <v>0.09148829999999999</v>
+        <v>0.0868283</v>
       </c>
       <c r="D18" t="n">
-        <v>0.251646</v>
+        <v>0.238622</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.140355</v>
+        <v>0.132987</v>
       </c>
       <c r="C19" t="n">
-        <v>0.095234</v>
+        <v>0.08886620000000001</v>
       </c>
       <c r="D19" t="n">
-        <v>0.256568</v>
+        <v>0.244322</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.153217</v>
+        <v>0.152763</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0984201</v>
+        <v>0.0917885</v>
       </c>
       <c r="D20" t="n">
-        <v>0.254846</v>
+        <v>0.25051</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.178712</v>
+        <v>0.178355</v>
       </c>
       <c r="C21" t="n">
-        <v>0.103365</v>
+        <v>0.0973313</v>
       </c>
       <c r="D21" t="n">
-        <v>0.183453</v>
+        <v>0.181915</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.214847</v>
+        <v>0.214862</v>
       </c>
       <c r="C22" t="n">
-        <v>0.117713</v>
+        <v>0.110401</v>
       </c>
       <c r="D22" t="n">
-        <v>0.191517</v>
+        <v>0.190688</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.271384</v>
+        <v>0.259394</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0858062</v>
+        <v>0.0830123</v>
       </c>
       <c r="D23" t="n">
-        <v>0.199196</v>
+        <v>0.198919</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0914069</v>
+        <v>0.0902631</v>
       </c>
       <c r="C24" t="n">
-        <v>0.08611580000000001</v>
+        <v>0.0832649</v>
       </c>
       <c r="D24" t="n">
-        <v>0.206826</v>
+        <v>0.206593</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.09137820000000001</v>
+        <v>0.09120010000000001</v>
       </c>
       <c r="C25" t="n">
-        <v>0.08642859999999999</v>
+        <v>0.0835108</v>
       </c>
       <c r="D25" t="n">
-        <v>0.223586</v>
+        <v>0.213768</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.09288200000000001</v>
+        <v>0.0927806</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0867822</v>
+        <v>0.0838404</v>
       </c>
       <c r="D26" t="n">
-        <v>0.220715</v>
+        <v>0.220625</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.09628539999999999</v>
+        <v>0.0947009</v>
       </c>
       <c r="C27" t="n">
-        <v>0.08719209999999999</v>
+        <v>0.0850644</v>
       </c>
       <c r="D27" t="n">
-        <v>0.22825</v>
+        <v>0.228109</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0973146</v>
+        <v>0.0972397</v>
       </c>
       <c r="C28" t="n">
-        <v>0.08775819999999999</v>
+        <v>0.0848344</v>
       </c>
       <c r="D28" t="n">
-        <v>0.234335</v>
+        <v>0.234558</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.103613</v>
+        <v>0.103624</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0883134</v>
+        <v>0.0854075</v>
       </c>
       <c r="D29" t="n">
-        <v>0.240754</v>
+        <v>0.241296</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.107109</v>
+        <v>0.10715</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0893967</v>
+        <v>0.0861084</v>
       </c>
       <c r="D30" t="n">
-        <v>0.246694</v>
+        <v>0.247117</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.117709</v>
+        <v>0.114014</v>
       </c>
       <c r="C31" t="n">
-        <v>0.09045640000000001</v>
+        <v>0.08717419999999999</v>
       </c>
       <c r="D31" t="n">
-        <v>0.251153</v>
+        <v>0.251509</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.123707</v>
+        <v>0.123901</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0921182</v>
+        <v>0.0887395</v>
       </c>
       <c r="D32" t="n">
-        <v>0.256851</v>
+        <v>0.257531</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.136586</v>
+        <v>0.136796</v>
       </c>
       <c r="C33" t="n">
-        <v>0.094296</v>
+        <v>0.0914676</v>
       </c>
       <c r="D33" t="n">
-        <v>0.262465</v>
+        <v>0.264005</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.152277</v>
+        <v>0.152378</v>
       </c>
       <c r="C34" t="n">
-        <v>0.09802329999999999</v>
+        <v>0.09515759999999999</v>
       </c>
       <c r="D34" t="n">
-        <v>0.270751</v>
+        <v>0.270066</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.175738</v>
+        <v>0.175965</v>
       </c>
       <c r="C35" t="n">
-        <v>0.104148</v>
+        <v>0.102525</v>
       </c>
       <c r="D35" t="n">
-        <v>0.197109</v>
+        <v>0.196323</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.21177</v>
+        <v>0.223635</v>
       </c>
       <c r="C36" t="n">
-        <v>0.115483</v>
+        <v>0.113824</v>
       </c>
       <c r="D36" t="n">
-        <v>0.202775</v>
+        <v>0.203558</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.255328</v>
+        <v>0.255276</v>
       </c>
       <c r="C37" t="n">
-        <v>0.08652799999999999</v>
+        <v>0.0837421</v>
       </c>
       <c r="D37" t="n">
-        <v>0.212083</v>
+        <v>0.211269</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0923638</v>
+        <v>0.09239509999999999</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0869872</v>
+        <v>0.0839579</v>
       </c>
       <c r="D38" t="n">
-        <v>0.219195</v>
+        <v>0.218874</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.093429</v>
+        <v>0.0937128</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0873038</v>
+        <v>0.0842748</v>
       </c>
       <c r="D39" t="n">
-        <v>0.22592</v>
+        <v>0.225808</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0963537</v>
+        <v>0.0951876</v>
       </c>
       <c r="C40" t="n">
-        <v>0.087645</v>
+        <v>0.0846133</v>
       </c>
       <c r="D40" t="n">
-        <v>0.23355</v>
+        <v>0.233372</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0985027</v>
+        <v>0.0984918</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0880731</v>
+        <v>0.08528819999999999</v>
       </c>
       <c r="D41" t="n">
-        <v>0.239758</v>
+        <v>0.239033</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.101778</v>
+        <v>0.099893</v>
       </c>
       <c r="C42" t="n">
-        <v>0.08833000000000001</v>
+        <v>0.0855137</v>
       </c>
       <c r="D42" t="n">
-        <v>0.246296</v>
+        <v>0.245883</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.103743</v>
+        <v>0.104044</v>
       </c>
       <c r="C43" t="n">
-        <v>0.08924890000000001</v>
+        <v>0.0860325</v>
       </c>
       <c r="D43" t="n">
-        <v>0.252806</v>
+        <v>0.252276</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.108631</v>
+        <v>0.108835</v>
       </c>
       <c r="C44" t="n">
-        <v>0.08983729999999999</v>
+        <v>0.08685370000000001</v>
       </c>
       <c r="D44" t="n">
-        <v>0.258671</v>
+        <v>0.25887</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.114886</v>
+        <v>0.114962</v>
       </c>
       <c r="C45" t="n">
-        <v>0.09089940000000001</v>
+        <v>0.0878901</v>
       </c>
       <c r="D45" t="n">
-        <v>0.264774</v>
+        <v>0.264523</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.127026</v>
+        <v>0.122825</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0927017</v>
+        <v>0.0893578</v>
       </c>
       <c r="D46" t="n">
-        <v>0.270622</v>
+        <v>0.270785</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.133806</v>
+        <v>0.133899</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0951255</v>
+        <v>0.09193750000000001</v>
       </c>
       <c r="D47" t="n">
-        <v>0.275894</v>
+        <v>0.276311</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.147852</v>
+        <v>0.155066</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0986664</v>
+        <v>0.09533949999999999</v>
       </c>
       <c r="D48" t="n">
-        <v>0.28174</v>
+        <v>0.282197</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.170271</v>
+        <v>0.170407</v>
       </c>
       <c r="C49" t="n">
-        <v>0.104922</v>
+        <v>0.101149</v>
       </c>
       <c r="D49" t="n">
-        <v>0.292907</v>
+        <v>0.287574</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.202542</v>
+        <v>0.202956</v>
       </c>
       <c r="C50" t="n">
-        <v>0.114861</v>
+        <v>0.111348</v>
       </c>
       <c r="D50" t="n">
-        <v>0.202493</v>
+        <v>0.202562</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.243223</v>
+        <v>0.242569</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0895865</v>
+        <v>0.0857402</v>
       </c>
       <c r="D51" t="n">
-        <v>0.209446</v>
+        <v>0.209566</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.295977</v>
+        <v>0.292017</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0887056</v>
+        <v>0.0868944</v>
       </c>
       <c r="D52" t="n">
-        <v>0.216277</v>
+        <v>0.216172</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.09732830000000001</v>
+        <v>0.0964247</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0894537</v>
+        <v>0.08760999999999999</v>
       </c>
       <c r="D53" t="n">
-        <v>0.223937</v>
+        <v>0.22384</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.09901890000000001</v>
+        <v>0.09861929999999999</v>
       </c>
       <c r="C54" t="n">
-        <v>0.08969240000000001</v>
+        <v>0.08623649999999999</v>
       </c>
       <c r="D54" t="n">
-        <v>0.230876</v>
+        <v>0.230367</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.100461</v>
+        <v>0.101242</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0906465</v>
+        <v>0.0869577</v>
       </c>
       <c r="D55" t="n">
-        <v>0.237578</v>
+        <v>0.237272</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.106267</v>
+        <v>0.102987</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0914682</v>
+        <v>0.0876152</v>
       </c>
       <c r="D56" t="n">
-        <v>0.244147</v>
+        <v>0.243606</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.106731</v>
+        <v>0.107334</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0915034</v>
+        <v>0.08818620000000001</v>
       </c>
       <c r="D57" t="n">
-        <v>0.249824</v>
+        <v>0.249475</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.110381</v>
+        <v>0.109966</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0931</v>
+        <v>0.0891232</v>
       </c>
       <c r="D58" t="n">
-        <v>0.255279</v>
+        <v>0.254977</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.120597</v>
+        <v>0.116908</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0931181</v>
+        <v>0.0898509</v>
       </c>
       <c r="D59" t="n">
-        <v>0.26115</v>
+        <v>0.260815</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.128611</v>
+        <v>0.126096</v>
       </c>
       <c r="C60" t="n">
-        <v>0.09455669999999999</v>
+        <v>0.091159</v>
       </c>
       <c r="D60" t="n">
-        <v>0.266248</v>
+        <v>0.265682</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.139925</v>
+        <v>0.137158</v>
       </c>
       <c r="C61" t="n">
-        <v>0.097093</v>
+        <v>0.09348919999999999</v>
       </c>
       <c r="D61" t="n">
-        <v>0.272111</v>
+        <v>0.271066</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.149338</v>
+        <v>0.155249</v>
       </c>
       <c r="C62" t="n">
-        <v>0.10007</v>
+        <v>0.0973931</v>
       </c>
       <c r="D62" t="n">
-        <v>0.277319</v>
+        <v>0.276296</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.179578</v>
+        <v>0.168707</v>
       </c>
       <c r="C63" t="n">
-        <v>0.105861</v>
+        <v>0.103242</v>
       </c>
       <c r="D63" t="n">
-        <v>0.284306</v>
+        <v>0.28224</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.198057</v>
+        <v>0.208466</v>
       </c>
       <c r="C64" t="n">
-        <v>0.112966</v>
+        <v>0.110825</v>
       </c>
       <c r="D64" t="n">
-        <v>0.206054</v>
+        <v>0.205221</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.244413</v>
+        <v>0.242096</v>
       </c>
       <c r="C65" t="n">
-        <v>0.129371</v>
+        <v>0.125427</v>
       </c>
       <c r="D65" t="n">
-        <v>0.213973</v>
+        <v>0.213409</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.297202</v>
+        <v>0.288956</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0956905</v>
+        <v>0.0932066</v>
       </c>
       <c r="D66" t="n">
-        <v>0.224643</v>
+        <v>0.222301</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.110094</v>
+        <v>0.107926</v>
       </c>
       <c r="C67" t="n">
-        <v>0.09631720000000001</v>
+        <v>0.09452579999999999</v>
       </c>
       <c r="D67" t="n">
-        <v>0.233877</v>
+        <v>0.230225</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.107732</v>
+        <v>0.108943</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0974571</v>
+        <v>0.09409869999999999</v>
       </c>
       <c r="D68" t="n">
-        <v>0.244679</v>
+        <v>0.239459</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.111352</v>
+        <v>0.11305</v>
       </c>
       <c r="C69" t="n">
-        <v>0.09687320000000001</v>
+        <v>0.0948797</v>
       </c>
       <c r="D69" t="n">
-        <v>0.256437</v>
+        <v>0.249294</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.11527</v>
+        <v>0.113215</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0981648</v>
+        <v>0.0954474</v>
       </c>
       <c r="D70" t="n">
-        <v>0.264724</v>
+        <v>0.257865</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.118983</v>
+        <v>0.119297</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0979565</v>
+        <v>0.0960617</v>
       </c>
       <c r="D71" t="n">
-        <v>0.275131</v>
+        <v>0.267062</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.121413</v>
+        <v>0.123074</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0988098</v>
+        <v>0.0972056</v>
       </c>
       <c r="D72" t="n">
-        <v>0.28634</v>
+        <v>0.278129</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.131135</v>
+        <v>0.126924</v>
       </c>
       <c r="C73" t="n">
-        <v>0.100305</v>
+        <v>0.0980457</v>
       </c>
       <c r="D73" t="n">
-        <v>0.300132</v>
+        <v>0.291012</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.134646</v>
+        <v>0.133728</v>
       </c>
       <c r="C74" t="n">
-        <v>0.101454</v>
+        <v>0.0995919</v>
       </c>
       <c r="D74" t="n">
-        <v>0.312697</v>
+        <v>0.303202</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.14428</v>
+        <v>0.144973</v>
       </c>
       <c r="C75" t="n">
-        <v>0.103288</v>
+        <v>0.101135</v>
       </c>
       <c r="D75" t="n">
-        <v>0.328188</v>
+        <v>0.318408</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.162212</v>
+        <v>0.157714</v>
       </c>
       <c r="C76" t="n">
-        <v>0.107755</v>
+        <v>0.105361</v>
       </c>
       <c r="D76" t="n">
-        <v>0.340877</v>
+        <v>0.331992</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.182095</v>
+        <v>0.184334</v>
       </c>
       <c r="C77" t="n">
-        <v>0.112404</v>
+        <v>0.108909</v>
       </c>
       <c r="D77" t="n">
-        <v>0.360653</v>
+        <v>0.349608</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.207419</v>
+        <v>0.204407</v>
       </c>
       <c r="C78" t="n">
-        <v>0.119794</v>
+        <v>0.116343</v>
       </c>
       <c r="D78" t="n">
-        <v>0.27303</v>
+        <v>0.269712</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.24723</v>
+        <v>0.252252</v>
       </c>
       <c r="C79" t="n">
-        <v>0.134032</v>
+        <v>0.129879</v>
       </c>
       <c r="D79" t="n">
-        <v>0.288432</v>
+        <v>0.286696</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.297091</v>
+        <v>0.296316</v>
       </c>
       <c r="C80" t="n">
-        <v>0.103681</v>
+        <v>0.101745</v>
       </c>
       <c r="D80" t="n">
-        <v>0.30763</v>
+        <v>0.305941</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.119705</v>
+        <v>0.119609</v>
       </c>
       <c r="C81" t="n">
-        <v>0.104084</v>
+        <v>0.102227</v>
       </c>
       <c r="D81" t="n">
-        <v>0.327299</v>
+        <v>0.326701</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.121315</v>
+        <v>0.122983</v>
       </c>
       <c r="C82" t="n">
-        <v>0.104636</v>
+        <v>0.102677</v>
       </c>
       <c r="D82" t="n">
-        <v>0.345133</v>
+        <v>0.344868</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.123388</v>
+        <v>0.125176</v>
       </c>
       <c r="C83" t="n">
-        <v>0.105395</v>
+        <v>0.102939</v>
       </c>
       <c r="D83" t="n">
-        <v>0.367114</v>
+        <v>0.367595</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.128294</v>
+        <v>0.126108</v>
       </c>
       <c r="C84" t="n">
-        <v>0.105276</v>
+        <v>0.103903</v>
       </c>
       <c r="D84" t="n">
-        <v>0.387627</v>
+        <v>0.389502</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.129908</v>
+        <v>0.129046</v>
       </c>
       <c r="C85" t="n">
-        <v>0.107045</v>
+        <v>0.104268</v>
       </c>
       <c r="D85" t="n">
-        <v>0.410706</v>
+        <v>0.4112</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.13247</v>
+        <v>0.133777</v>
       </c>
       <c r="C86" t="n">
-        <v>0.107429</v>
+        <v>0.105247</v>
       </c>
       <c r="D86" t="n">
-        <v>0.433185</v>
+        <v>0.433797</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.140824</v>
+        <v>0.139024</v>
       </c>
       <c r="C87" t="n">
-        <v>0.108928</v>
+        <v>0.106257</v>
       </c>
       <c r="D87" t="n">
-        <v>0.456925</v>
+        <v>0.457486</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.152677</v>
+        <v>0.150583</v>
       </c>
       <c r="C88" t="n">
-        <v>0.11201</v>
+        <v>0.108031</v>
       </c>
       <c r="D88" t="n">
-        <v>0.479565</v>
+        <v>0.481346</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.160509</v>
+        <v>0.161555</v>
       </c>
       <c r="C89" t="n">
-        <v>0.114641</v>
+        <v>0.110271</v>
       </c>
       <c r="D89" t="n">
-        <v>0.506284</v>
+        <v>0.506978</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.17501</v>
+        <v>0.170266</v>
       </c>
       <c r="C90" t="n">
-        <v>0.120854</v>
+        <v>0.113429</v>
       </c>
       <c r="D90" t="n">
-        <v>0.53384</v>
+        <v>0.532815</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.200752</v>
+        <v>0.189493</v>
       </c>
       <c r="C91" t="n">
-        <v>0.127229</v>
+        <v>0.118492</v>
       </c>
       <c r="D91" t="n">
-        <v>0.562921</v>
+        <v>0.561233</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.233951</v>
+        <v>0.218329</v>
       </c>
       <c r="C92" t="n">
-        <v>0.135627</v>
+        <v>0.126493</v>
       </c>
       <c r="D92" t="n">
-        <v>0.420237</v>
+        <v>0.42086</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.271394</v>
+        <v>0.262839</v>
       </c>
       <c r="C93" t="n">
-        <v>0.151299</v>
+        <v>0.14019</v>
       </c>
       <c r="D93" t="n">
-        <v>0.439276</v>
+        <v>0.439138</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.331586</v>
+        <v>0.319241</v>
       </c>
       <c r="C94" t="n">
-        <v>0.113801</v>
+        <v>0.107401</v>
       </c>
       <c r="D94" t="n">
-        <v>0.461204</v>
+        <v>0.457963</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.132996</v>
+        <v>0.129571</v>
       </c>
       <c r="C95" t="n">
-        <v>0.115352</v>
+        <v>0.10853</v>
       </c>
       <c r="D95" t="n">
-        <v>0.480208</v>
+        <v>0.477142</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.136389</v>
+        <v>0.131685</v>
       </c>
       <c r="C96" t="n">
-        <v>0.117691</v>
+        <v>0.110371</v>
       </c>
       <c r="D96" t="n">
-        <v>0.50043</v>
+        <v>0.496791</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.141881</v>
+        <v>0.133787</v>
       </c>
       <c r="C97" t="n">
-        <v>0.117969</v>
+        <v>0.111644</v>
       </c>
       <c r="D97" t="n">
-        <v>0.521322</v>
+        <v>0.517684</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.142826</v>
+        <v>0.139701</v>
       </c>
       <c r="C98" t="n">
-        <v>0.119764</v>
+        <v>0.113521</v>
       </c>
       <c r="D98" t="n">
-        <v>0.543174</v>
+        <v>0.5400700000000001</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.147822</v>
+        <v>0.142666</v>
       </c>
       <c r="C99" t="n">
-        <v>0.120985</v>
+        <v>0.116039</v>
       </c>
       <c r="D99" t="n">
-        <v>0.5686099999999999</v>
+        <v>0.561694</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.153448</v>
+        <v>0.149923</v>
       </c>
       <c r="C100" t="n">
-        <v>0.125083</v>
+        <v>0.119149</v>
       </c>
       <c r="D100" t="n">
-        <v>0.592015</v>
+        <v>0.585362</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.160219</v>
+        <v>0.158464</v>
       </c>
       <c r="C101" t="n">
-        <v>0.125477</v>
+        <v>0.123252</v>
       </c>
       <c r="D101" t="n">
-        <v>0.614698</v>
+        <v>0.611098</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.168462</v>
+        <v>0.173337</v>
       </c>
       <c r="C102" t="n">
-        <v>0.128356</v>
+        <v>0.127742</v>
       </c>
       <c r="D102" t="n">
-        <v>0.6419589999999999</v>
+        <v>0.635587</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.176938</v>
+        <v>0.183765</v>
       </c>
       <c r="C103" t="n">
-        <v>0.133333</v>
+        <v>0.133162</v>
       </c>
       <c r="D103" t="n">
-        <v>0.670068</v>
+        <v>0.663604</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.195509</v>
+        <v>0.200932</v>
       </c>
       <c r="C104" t="n">
-        <v>0.136758</v>
+        <v>0.13971</v>
       </c>
       <c r="D104" t="n">
-        <v>0.698642</v>
+        <v>0.6910500000000001</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.214017</v>
+        <v>0.224597</v>
       </c>
       <c r="C105" t="n">
-        <v>0.143292</v>
+        <v>0.148441</v>
       </c>
       <c r="D105" t="n">
-        <v>0.729332</v>
+        <v>0.722588</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.253954</v>
+        <v>0.255075</v>
       </c>
       <c r="C106" t="n">
-        <v>0.154216</v>
+        <v>0.158921</v>
       </c>
       <c r="D106" t="n">
-        <v>0.763429</v>
+        <v>0.755867</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.30332</v>
+        <v>0.305589</v>
       </c>
       <c r="C107" t="n">
-        <v>0.173952</v>
+        <v>0.174315</v>
       </c>
       <c r="D107" t="n">
-        <v>0.588063</v>
+        <v>0.600414</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.363113</v>
+        <v>0.369974</v>
       </c>
       <c r="C108" t="n">
-        <v>0.12626</v>
+        <v>0.129073</v>
       </c>
       <c r="D108" t="n">
-        <v>0.6226390000000001</v>
+        <v>0.6232839999999999</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.453454</v>
+        <v>0.447968</v>
       </c>
       <c r="C109" t="n">
-        <v>0.13042</v>
+        <v>0.13177</v>
       </c>
       <c r="D109" t="n">
-        <v>0.645838</v>
+        <v>0.646959</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.152442</v>
+        <v>0.154846</v>
       </c>
       <c r="C110" t="n">
-        <v>0.133146</v>
+        <v>0.134013</v>
       </c>
       <c r="D110" t="n">
-        <v>0.656765</v>
+        <v>0.6708</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.157484</v>
+        <v>0.15875</v>
       </c>
       <c r="C111" t="n">
-        <v>0.136017</v>
+        <v>0.136493</v>
       </c>
       <c r="D111" t="n">
-        <v>0.694437</v>
+        <v>0.69646</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.162723</v>
+        <v>0.163103</v>
       </c>
       <c r="C112" t="n">
-        <v>0.139353</v>
+        <v>0.138908</v>
       </c>
       <c r="D112" t="n">
-        <v>0.7212460000000001</v>
+        <v>0.721153</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.168369</v>
+        <v>0.168351</v>
       </c>
       <c r="C113" t="n">
-        <v>0.142246</v>
+        <v>0.141825</v>
       </c>
       <c r="D113" t="n">
-        <v>0.746681</v>
+        <v>0.747049</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.176069</v>
+        <v>0.174823</v>
       </c>
       <c r="C114" t="n">
-        <v>0.144991</v>
+        <v>0.14387</v>
       </c>
       <c r="D114" t="n">
-        <v>0.772524</v>
+        <v>0.773767</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.184976</v>
+        <v>0.182369</v>
       </c>
       <c r="C115" t="n">
-        <v>0.147877</v>
+        <v>0.14692</v>
       </c>
       <c r="D115" t="n">
-        <v>0.8011470000000001</v>
+        <v>0.799752</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.191991</v>
+        <v>0.191834</v>
       </c>
       <c r="C116" t="n">
-        <v>0.151551</v>
+        <v>0.150797</v>
       </c>
       <c r="D116" t="n">
-        <v>0.830121</v>
+        <v>0.827487</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.208166</v>
+        <v>0.204024</v>
       </c>
       <c r="C117" t="n">
-        <v>0.155512</v>
+        <v>0.154062</v>
       </c>
       <c r="D117" t="n">
-        <v>0.858058</v>
+        <v>0.856175</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.21993</v>
+        <v>0.223757</v>
       </c>
       <c r="C118" t="n">
-        <v>0.160591</v>
+        <v>0.159077</v>
       </c>
       <c r="D118" t="n">
-        <v>0.888834</v>
+        <v>0.884304</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.240746</v>
+        <v>0.240778</v>
       </c>
       <c r="C119" t="n">
-        <v>0.167484</v>
+        <v>0.165534</v>
       </c>
       <c r="D119" t="n">
-        <v>0.913685</v>
+        <v>0.915232</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.268851</v>
+        <v>0.269629</v>
       </c>
       <c r="C120" t="n">
-        <v>0.176296</v>
+        <v>0.175007</v>
       </c>
       <c r="D120" t="n">
-        <v>0.948341</v>
+        <v>0.946026</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.310554</v>
+        <v>0.310824</v>
       </c>
       <c r="C121" t="n">
-        <v>0.190839</v>
+        <v>0.188845</v>
       </c>
       <c r="D121" t="n">
-        <v>0.694186</v>
+        <v>0.682446</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.382091</v>
+        <v>0.372822</v>
       </c>
       <c r="C122" t="n">
-        <v>0.213996</v>
+        <v>0.212242</v>
       </c>
       <c r="D122" t="n">
-        <v>0.716133</v>
+        <v>0.704558</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.465585</v>
+        <v>0.474325</v>
       </c>
       <c r="C123" t="n">
-        <v>0.146308</v>
+        <v>0.146665</v>
       </c>
       <c r="D123" t="n">
-        <v>0.727678</v>
+        <v>0.72784</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.170346</v>
+        <v>0.171329</v>
       </c>
       <c r="C124" t="n">
-        <v>0.148752</v>
+        <v>0.147334</v>
       </c>
       <c r="D124" t="n">
-        <v>0.764321</v>
+        <v>0.7520289999999999</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.172009</v>
+        <v>0.176196</v>
       </c>
       <c r="C125" t="n">
-        <v>0.150279</v>
+        <v>0.150552</v>
       </c>
       <c r="D125" t="n">
-        <v>0.789841</v>
+        <v>0.777193</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.179651</v>
+        <v>0.179174</v>
       </c>
       <c r="C126" t="n">
-        <v>0.152885</v>
+        <v>0.154614</v>
       </c>
       <c r="D126" t="n">
-        <v>0.815321</v>
+        <v>0.803345</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.173363</v>
+        <v>0.182936</v>
       </c>
       <c r="C127" t="n">
-        <v>0.154152</v>
+        <v>0.153845</v>
       </c>
       <c r="D127" t="n">
-        <v>0.842318</v>
+        <v>0.830869</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.194584</v>
+        <v>0.189779</v>
       </c>
       <c r="C128" t="n">
-        <v>0.158877</v>
+        <v>0.159603</v>
       </c>
       <c r="D128" t="n">
-        <v>0.870787</v>
+        <v>0.858916</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.205104</v>
+        <v>0.198487</v>
       </c>
       <c r="C129" t="n">
-        <v>0.163522</v>
+        <v>0.160767</v>
       </c>
       <c r="D129" t="n">
-        <v>0.88955</v>
+        <v>0.887898</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.206646</v>
+        <v>0.206089</v>
       </c>
       <c r="C130" t="n">
-        <v>0.164791</v>
+        <v>0.163079</v>
       </c>
       <c r="D130" t="n">
-        <v>0.928056</v>
+        <v>0.915107</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.227255</v>
+        <v>0.219474</v>
       </c>
       <c r="C131" t="n">
-        <v>0.167245</v>
+        <v>0.168933</v>
       </c>
       <c r="D131" t="n">
-        <v>0.958924</v>
+        <v>0.945475</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.236462</v>
+        <v>0.234701</v>
       </c>
       <c r="C132" t="n">
-        <v>0.175508</v>
+        <v>0.173196</v>
       </c>
       <c r="D132" t="n">
-        <v>0.990217</v>
+        <v>0.9768250000000001</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.261789</v>
+        <v>0.261215</v>
       </c>
       <c r="C133" t="n">
-        <v>0.181154</v>
+        <v>0.178551</v>
       </c>
       <c r="D133" t="n">
-        <v>1.02304</v>
+        <v>1.00929</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.280507</v>
+        <v>0.284658</v>
       </c>
       <c r="C134" t="n">
-        <v>0.196445</v>
+        <v>0.191765</v>
       </c>
       <c r="D134" t="n">
-        <v>1.0559</v>
+        <v>1.04225</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.33163</v>
+        <v>0.325844</v>
       </c>
       <c r="C135" t="n">
-        <v>0.207392</v>
+        <v>0.202187</v>
       </c>
       <c r="D135" t="n">
-        <v>0.711477</v>
+        <v>0.70059</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.386887</v>
+        <v>0.380552</v>
       </c>
       <c r="C136" t="n">
-        <v>0.228599</v>
+        <v>0.223235</v>
       </c>
       <c r="D136" t="n">
-        <v>0.730065</v>
+        <v>0.718545</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.481181</v>
+        <v>0.476627</v>
       </c>
       <c r="C137" t="n">
-        <v>0.287929</v>
+        <v>0.284197</v>
       </c>
       <c r="D137" t="n">
-        <v>0.749908</v>
+        <v>0.737675</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.315943</v>
+        <v>0.313071</v>
       </c>
       <c r="C138" t="n">
-        <v>0.284493</v>
+        <v>0.278154</v>
       </c>
       <c r="D138" t="n">
-        <v>0.76595</v>
+        <v>0.757955</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.317138</v>
+        <v>0.317326</v>
       </c>
       <c r="C139" t="n">
-        <v>0.274786</v>
+        <v>0.282256</v>
       </c>
       <c r="D139" t="n">
-        <v>0.791905</v>
+        <v>0.778907</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.318748</v>
+        <v>0.321983</v>
       </c>
       <c r="C140" t="n">
-        <v>0.270395</v>
+        <v>0.283078</v>
       </c>
       <c r="D140" t="n">
-        <v>0.814632</v>
+        <v>0.800891</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.331229</v>
+        <v>0.327593</v>
       </c>
       <c r="C141" t="n">
-        <v>0.273432</v>
+        <v>0.285446</v>
       </c>
       <c r="D141" t="n">
-        <v>0.8378139999999999</v>
+        <v>0.823843</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.32388</v>
+        <v>0.333654</v>
       </c>
       <c r="C142" t="n">
-        <v>0.293318</v>
+        <v>0.29017</v>
       </c>
       <c r="D142" t="n">
-        <v>0.862219</v>
+        <v>0.847603</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.340804</v>
+        <v>0.318905</v>
       </c>
       <c r="C143" t="n">
-        <v>0.301794</v>
+        <v>0.289067</v>
       </c>
       <c r="D143" t="n">
-        <v>0.887632</v>
+        <v>0.8727009999999999</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Scattered unsuccessful looukp.xlsx
+++ b/clang-x86/Scattered unsuccessful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0938306</v>
+        <v>0.0935281</v>
       </c>
       <c r="C2" t="n">
-        <v>0.08373460000000001</v>
+        <v>0.08375109999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>0.184293</v>
+        <v>0.184648</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.101443</v>
+        <v>0.101386</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0845626</v>
+        <v>0.0844891</v>
       </c>
       <c r="D3" t="n">
-        <v>0.191136</v>
+        <v>0.191419</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.113197</v>
+        <v>0.112947</v>
       </c>
       <c r="C4" t="n">
-        <v>0.08586820000000001</v>
+        <v>0.0857974</v>
       </c>
       <c r="D4" t="n">
-        <v>0.195903</v>
+        <v>0.199816</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.127358</v>
+        <v>0.127562</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0874027</v>
+        <v>0.0873582</v>
       </c>
       <c r="D5" t="n">
-        <v>0.204936</v>
+        <v>0.210361</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.150964</v>
+        <v>0.150981</v>
       </c>
       <c r="C6" t="n">
-        <v>0.08955979999999999</v>
+        <v>0.0894245</v>
       </c>
       <c r="D6" t="n">
-        <v>0.212484</v>
+        <v>0.214244</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.187164</v>
+        <v>0.187582</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0944048</v>
+        <v>0.0943476</v>
       </c>
       <c r="D7" t="n">
-        <v>0.160081</v>
+        <v>0.160652</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.233133</v>
+        <v>0.233065</v>
       </c>
       <c r="C8" t="n">
-        <v>0.107135</v>
+        <v>0.107124</v>
       </c>
       <c r="D8" t="n">
-        <v>0.167704</v>
+        <v>0.168971</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.269846</v>
+        <v>0.270046</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0819965</v>
+        <v>0.08190649999999999</v>
       </c>
       <c r="D9" t="n">
-        <v>0.17328</v>
+        <v>0.174692</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0863621</v>
+        <v>0.0863443</v>
       </c>
       <c r="C10" t="n">
-        <v>0.08230369999999999</v>
+        <v>0.0822948</v>
       </c>
       <c r="D10" t="n">
-        <v>0.180747</v>
+        <v>0.181821</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0867301</v>
+        <v>0.0870631</v>
       </c>
       <c r="C11" t="n">
-        <v>0.08276219999999999</v>
+        <v>0.0827696</v>
       </c>
       <c r="D11" t="n">
-        <v>0.18823</v>
+        <v>0.189879</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0881373</v>
+        <v>0.08812300000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>0.08291519999999999</v>
+        <v>0.0828242</v>
       </c>
       <c r="D12" t="n">
-        <v>0.195873</v>
+        <v>0.196682</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0897993</v>
+        <v>0.08945119999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0831394</v>
+        <v>0.08299960000000001</v>
       </c>
       <c r="D13" t="n">
-        <v>0.203464</v>
+        <v>0.203444</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.09168519999999999</v>
+        <v>0.0921348</v>
       </c>
       <c r="C14" t="n">
-        <v>0.08341</v>
+        <v>0.0834833</v>
       </c>
       <c r="D14" t="n">
-        <v>0.208877</v>
+        <v>0.210875</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0952419</v>
+        <v>0.09528639999999999</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0838539</v>
+        <v>0.0840593</v>
       </c>
       <c r="D15" t="n">
-        <v>0.218042</v>
+        <v>0.218932</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.100526</v>
+        <v>0.100232</v>
       </c>
       <c r="C16" t="n">
-        <v>0.084592</v>
+        <v>0.08439099999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>0.225401</v>
+        <v>0.224878</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.106985</v>
+        <v>0.107422</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0856903</v>
+        <v>0.0856609</v>
       </c>
       <c r="D17" t="n">
-        <v>0.231714</v>
+        <v>0.233444</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.11826</v>
+        <v>0.118213</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0868283</v>
+        <v>0.0868434</v>
       </c>
       <c r="D18" t="n">
-        <v>0.238622</v>
+        <v>0.237078</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.132987</v>
+        <v>0.133067</v>
       </c>
       <c r="C19" t="n">
-        <v>0.08886620000000001</v>
+        <v>0.0886227</v>
       </c>
       <c r="D19" t="n">
-        <v>0.244322</v>
+        <v>0.243544</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.152763</v>
+        <v>0.153088</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0917885</v>
+        <v>0.0914533</v>
       </c>
       <c r="D20" t="n">
-        <v>0.25051</v>
+        <v>0.251911</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.178355</v>
+        <v>0.178771</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0973313</v>
+        <v>0.0973912</v>
       </c>
       <c r="D21" t="n">
-        <v>0.181915</v>
+        <v>0.181451</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.214862</v>
+        <v>0.215106</v>
       </c>
       <c r="C22" t="n">
-        <v>0.110401</v>
+        <v>0.110049</v>
       </c>
       <c r="D22" t="n">
-        <v>0.190688</v>
+        <v>0.188856</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.259394</v>
+        <v>0.259988</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0830123</v>
+        <v>0.0829926</v>
       </c>
       <c r="D23" t="n">
-        <v>0.198919</v>
+        <v>0.197649</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0902631</v>
+        <v>0.0903682</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0832649</v>
+        <v>0.08324479999999999</v>
       </c>
       <c r="D24" t="n">
-        <v>0.206593</v>
+        <v>0.205424</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.09120010000000001</v>
+        <v>0.0912253</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0835108</v>
+        <v>0.08346050000000001</v>
       </c>
       <c r="D25" t="n">
-        <v>0.213768</v>
+        <v>0.214096</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0927806</v>
+        <v>0.0928315</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0838404</v>
+        <v>0.08386399999999999</v>
       </c>
       <c r="D26" t="n">
-        <v>0.220625</v>
+        <v>0.220156</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0947009</v>
+        <v>0.0946433</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0850644</v>
+        <v>0.0842992</v>
       </c>
       <c r="D27" t="n">
-        <v>0.228109</v>
+        <v>0.226697</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0972397</v>
+        <v>0.0973615</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0848344</v>
+        <v>0.0848617</v>
       </c>
       <c r="D28" t="n">
-        <v>0.234558</v>
+        <v>0.23458</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.103624</v>
+        <v>0.101447</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0854075</v>
+        <v>0.0853916</v>
       </c>
       <c r="D29" t="n">
-        <v>0.241296</v>
+        <v>0.239999</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.10715</v>
+        <v>0.107175</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0861084</v>
+        <v>0.0860934</v>
       </c>
       <c r="D30" t="n">
-        <v>0.247117</v>
+        <v>0.246017</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.114014</v>
+        <v>0.114034</v>
       </c>
       <c r="C31" t="n">
-        <v>0.08717419999999999</v>
+        <v>0.0872498</v>
       </c>
       <c r="D31" t="n">
-        <v>0.251509</v>
+        <v>0.252632</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.123901</v>
+        <v>0.123931</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0887395</v>
+        <v>0.08879629999999999</v>
       </c>
       <c r="D32" t="n">
-        <v>0.257531</v>
+        <v>0.258721</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.136796</v>
+        <v>0.136832</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0914676</v>
+        <v>0.09123009999999999</v>
       </c>
       <c r="D33" t="n">
-        <v>0.264005</v>
+        <v>0.263602</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.152378</v>
+        <v>0.152398</v>
       </c>
       <c r="C34" t="n">
-        <v>0.09515759999999999</v>
+        <v>0.095207</v>
       </c>
       <c r="D34" t="n">
-        <v>0.270066</v>
+        <v>0.270747</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.175965</v>
+        <v>0.175879</v>
       </c>
       <c r="C35" t="n">
-        <v>0.102525</v>
+        <v>0.102474</v>
       </c>
       <c r="D35" t="n">
-        <v>0.196323</v>
+        <v>0.196555</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.223635</v>
+        <v>0.212491</v>
       </c>
       <c r="C36" t="n">
-        <v>0.113824</v>
+        <v>0.113883</v>
       </c>
       <c r="D36" t="n">
-        <v>0.203558</v>
+        <v>0.203055</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.255276</v>
+        <v>0.264763</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0837421</v>
+        <v>0.0839543</v>
       </c>
       <c r="D37" t="n">
-        <v>0.211269</v>
+        <v>0.211264</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.09239509999999999</v>
+        <v>0.09247660000000001</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0839579</v>
+        <v>0.0845639</v>
       </c>
       <c r="D38" t="n">
-        <v>0.218874</v>
+        <v>0.218529</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0937128</v>
+        <v>0.0948611</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0842748</v>
+        <v>0.0846629</v>
       </c>
       <c r="D39" t="n">
-        <v>0.225808</v>
+        <v>0.225226</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0951876</v>
+        <v>0.0951034</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0846133</v>
+        <v>0.0849579</v>
       </c>
       <c r="D40" t="n">
-        <v>0.233372</v>
+        <v>0.233133</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0984918</v>
+        <v>0.0970685</v>
       </c>
       <c r="C41" t="n">
-        <v>0.08528819999999999</v>
+        <v>0.0855279</v>
       </c>
       <c r="D41" t="n">
-        <v>0.239033</v>
+        <v>0.239229</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.099893</v>
+        <v>0.09999180000000001</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0855137</v>
+        <v>0.0855066</v>
       </c>
       <c r="D42" t="n">
-        <v>0.245883</v>
+        <v>0.24636</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.104044</v>
+        <v>0.104057</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0860325</v>
+        <v>0.0861338</v>
       </c>
       <c r="D43" t="n">
-        <v>0.252276</v>
+        <v>0.252182</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.108835</v>
+        <v>0.108951</v>
       </c>
       <c r="C44" t="n">
-        <v>0.08685370000000001</v>
+        <v>0.0868517</v>
       </c>
       <c r="D44" t="n">
-        <v>0.25887</v>
+        <v>0.258606</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.114962</v>
+        <v>0.114461</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0878901</v>
+        <v>0.0878974</v>
       </c>
       <c r="D45" t="n">
-        <v>0.264523</v>
+        <v>0.264636</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.122825</v>
+        <v>0.122809</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0893578</v>
+        <v>0.0894525</v>
       </c>
       <c r="D46" t="n">
-        <v>0.270785</v>
+        <v>0.270282</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.133899</v>
+        <v>0.133805</v>
       </c>
       <c r="C47" t="n">
-        <v>0.09193750000000001</v>
+        <v>0.0916738</v>
       </c>
       <c r="D47" t="n">
-        <v>0.276311</v>
+        <v>0.275561</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.155066</v>
+        <v>0.147985</v>
       </c>
       <c r="C48" t="n">
-        <v>0.09533949999999999</v>
+        <v>0.0953411</v>
       </c>
       <c r="D48" t="n">
-        <v>0.282197</v>
+        <v>0.282006</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.170407</v>
+        <v>0.170276</v>
       </c>
       <c r="C49" t="n">
-        <v>0.101149</v>
+        <v>0.101174</v>
       </c>
       <c r="D49" t="n">
-        <v>0.287574</v>
+        <v>0.288086</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.202956</v>
+        <v>0.202903</v>
       </c>
       <c r="C50" t="n">
-        <v>0.111348</v>
+        <v>0.111079</v>
       </c>
       <c r="D50" t="n">
-        <v>0.202562</v>
+        <v>0.202515</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.242569</v>
+        <v>0.243411</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0857402</v>
+        <v>0.0852127</v>
       </c>
       <c r="D51" t="n">
-        <v>0.209566</v>
+        <v>0.209645</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.292017</v>
+        <v>0.293605</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0868944</v>
+        <v>0.08621180000000001</v>
       </c>
       <c r="D52" t="n">
-        <v>0.216172</v>
+        <v>0.216136</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0964247</v>
+        <v>0.0970023</v>
       </c>
       <c r="C53" t="n">
-        <v>0.08760999999999999</v>
+        <v>0.0866879</v>
       </c>
       <c r="D53" t="n">
-        <v>0.22384</v>
+        <v>0.223867</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.09861929999999999</v>
+        <v>0.09897599999999999</v>
       </c>
       <c r="C54" t="n">
-        <v>0.08623649999999999</v>
+        <v>0.08778610000000001</v>
       </c>
       <c r="D54" t="n">
-        <v>0.230367</v>
+        <v>0.230722</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.101242</v>
+        <v>0.0997667</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0869577</v>
+        <v>0.0874437</v>
       </c>
       <c r="D55" t="n">
-        <v>0.237272</v>
+        <v>0.237528</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.102987</v>
+        <v>0.102465</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0876152</v>
+        <v>0.08722820000000001</v>
       </c>
       <c r="D56" t="n">
-        <v>0.243606</v>
+        <v>0.243843</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.107334</v>
+        <v>0.106258</v>
       </c>
       <c r="C57" t="n">
-        <v>0.08818620000000001</v>
+        <v>0.0880227</v>
       </c>
       <c r="D57" t="n">
-        <v>0.249475</v>
+        <v>0.24983</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.109966</v>
+        <v>0.112039</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0891232</v>
+        <v>0.0887039</v>
       </c>
       <c r="D58" t="n">
-        <v>0.254977</v>
+        <v>0.255209</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.116908</v>
+        <v>0.119815</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0898509</v>
+        <v>0.0902637</v>
       </c>
       <c r="D59" t="n">
-        <v>0.260815</v>
+        <v>0.261054</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.126096</v>
+        <v>0.124078</v>
       </c>
       <c r="C60" t="n">
-        <v>0.091159</v>
+        <v>0.0911199</v>
       </c>
       <c r="D60" t="n">
-        <v>0.265682</v>
+        <v>0.266057</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.137158</v>
+        <v>0.135386</v>
       </c>
       <c r="C61" t="n">
-        <v>0.09348919999999999</v>
+        <v>0.0943167</v>
       </c>
       <c r="D61" t="n">
-        <v>0.271066</v>
+        <v>0.271316</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.155249</v>
+        <v>0.148685</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0973931</v>
+        <v>0.0970348</v>
       </c>
       <c r="D62" t="n">
-        <v>0.276296</v>
+        <v>0.277419</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.168707</v>
+        <v>0.168168</v>
       </c>
       <c r="C63" t="n">
-        <v>0.103242</v>
+        <v>0.102485</v>
       </c>
       <c r="D63" t="n">
-        <v>0.28224</v>
+        <v>0.283924</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.208466</v>
+        <v>0.198552</v>
       </c>
       <c r="C64" t="n">
-        <v>0.110825</v>
+        <v>0.112567</v>
       </c>
       <c r="D64" t="n">
-        <v>0.205221</v>
+        <v>0.206524</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.242096</v>
+        <v>0.237073</v>
       </c>
       <c r="C65" t="n">
-        <v>0.125427</v>
+        <v>0.125854</v>
       </c>
       <c r="D65" t="n">
-        <v>0.213409</v>
+        <v>0.213743</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.288956</v>
+        <v>0.286565</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0932066</v>
+        <v>0.0933351</v>
       </c>
       <c r="D66" t="n">
-        <v>0.222301</v>
+        <v>0.222913</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.107926</v>
+        <v>0.107514</v>
       </c>
       <c r="C67" t="n">
-        <v>0.09452579999999999</v>
+        <v>0.0935286</v>
       </c>
       <c r="D67" t="n">
-        <v>0.230225</v>
+        <v>0.231086</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.108943</v>
+        <v>0.109801</v>
       </c>
       <c r="C68" t="n">
-        <v>0.09409869999999999</v>
+        <v>0.0945561</v>
       </c>
       <c r="D68" t="n">
-        <v>0.239459</v>
+        <v>0.239413</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.11305</v>
+        <v>0.110876</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0948797</v>
+        <v>0.0949335</v>
       </c>
       <c r="D69" t="n">
-        <v>0.249294</v>
+        <v>0.248388</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.113215</v>
+        <v>0.113366</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0954474</v>
+        <v>0.0952191</v>
       </c>
       <c r="D70" t="n">
-        <v>0.257865</v>
+        <v>0.256561</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.119297</v>
+        <v>0.117124</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0960617</v>
+        <v>0.0962214</v>
       </c>
       <c r="D71" t="n">
-        <v>0.267062</v>
+        <v>0.267944</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.123074</v>
+        <v>0.120717</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0972056</v>
+        <v>0.09656579999999999</v>
       </c>
       <c r="D72" t="n">
-        <v>0.278129</v>
+        <v>0.276821</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.126924</v>
+        <v>0.127107</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0980457</v>
+        <v>0.0981624</v>
       </c>
       <c r="D73" t="n">
-        <v>0.291012</v>
+        <v>0.286849</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.133728</v>
+        <v>0.133421</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0995919</v>
+        <v>0.09894269999999999</v>
       </c>
       <c r="D74" t="n">
-        <v>0.303202</v>
+        <v>0.298746</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.144973</v>
+        <v>0.144387</v>
       </c>
       <c r="C75" t="n">
-        <v>0.101135</v>
+        <v>0.101229</v>
       </c>
       <c r="D75" t="n">
-        <v>0.318408</v>
+        <v>0.313491</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.157714</v>
+        <v>0.158315</v>
       </c>
       <c r="C76" t="n">
-        <v>0.105361</v>
+        <v>0.104878</v>
       </c>
       <c r="D76" t="n">
-        <v>0.331992</v>
+        <v>0.32911</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.184334</v>
+        <v>0.176451</v>
       </c>
       <c r="C77" t="n">
-        <v>0.108909</v>
+        <v>0.108791</v>
       </c>
       <c r="D77" t="n">
-        <v>0.349608</v>
+        <v>0.348079</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.204407</v>
+        <v>0.204077</v>
       </c>
       <c r="C78" t="n">
-        <v>0.116343</v>
+        <v>0.116273</v>
       </c>
       <c r="D78" t="n">
-        <v>0.269712</v>
+        <v>0.268006</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.252252</v>
+        <v>0.245638</v>
       </c>
       <c r="C79" t="n">
-        <v>0.129879</v>
+        <v>0.130803</v>
       </c>
       <c r="D79" t="n">
-        <v>0.286696</v>
+        <v>0.28549</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.296316</v>
+        <v>0.294652</v>
       </c>
       <c r="C80" t="n">
-        <v>0.101745</v>
+        <v>0.101815</v>
       </c>
       <c r="D80" t="n">
-        <v>0.305941</v>
+        <v>0.304669</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.119609</v>
+        <v>0.119623</v>
       </c>
       <c r="C81" t="n">
-        <v>0.102227</v>
+        <v>0.102261</v>
       </c>
       <c r="D81" t="n">
-        <v>0.326701</v>
+        <v>0.325088</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.122983</v>
+        <v>0.121186</v>
       </c>
       <c r="C82" t="n">
-        <v>0.102677</v>
+        <v>0.102668</v>
       </c>
       <c r="D82" t="n">
-        <v>0.344868</v>
+        <v>0.346081</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.125176</v>
+        <v>0.123273</v>
       </c>
       <c r="C83" t="n">
-        <v>0.102939</v>
+        <v>0.103256</v>
       </c>
       <c r="D83" t="n">
-        <v>0.367595</v>
+        <v>0.368034</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.126108</v>
+        <v>0.125846</v>
       </c>
       <c r="C84" t="n">
-        <v>0.103903</v>
+        <v>0.103526</v>
       </c>
       <c r="D84" t="n">
-        <v>0.389502</v>
+        <v>0.388923</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.129046</v>
+        <v>0.130524</v>
       </c>
       <c r="C85" t="n">
-        <v>0.104268</v>
+        <v>0.10419</v>
       </c>
       <c r="D85" t="n">
-        <v>0.4112</v>
+        <v>0.412542</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.133777</v>
+        <v>0.133413</v>
       </c>
       <c r="C86" t="n">
-        <v>0.105247</v>
+        <v>0.105234</v>
       </c>
       <c r="D86" t="n">
-        <v>0.433797</v>
+        <v>0.435527</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.139024</v>
+        <v>0.139287</v>
       </c>
       <c r="C87" t="n">
-        <v>0.106257</v>
+        <v>0.10639</v>
       </c>
       <c r="D87" t="n">
-        <v>0.457486</v>
+        <v>0.460024</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.150583</v>
+        <v>0.146873</v>
       </c>
       <c r="C88" t="n">
-        <v>0.108031</v>
+        <v>0.107916</v>
       </c>
       <c r="D88" t="n">
-        <v>0.481346</v>
+        <v>0.482887</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.161555</v>
+        <v>0.156634</v>
       </c>
       <c r="C89" t="n">
-        <v>0.110271</v>
+        <v>0.110558</v>
       </c>
       <c r="D89" t="n">
-        <v>0.506978</v>
+        <v>0.509065</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.170266</v>
+        <v>0.170381</v>
       </c>
       <c r="C90" t="n">
-        <v>0.113429</v>
+        <v>0.113314</v>
       </c>
       <c r="D90" t="n">
-        <v>0.532815</v>
+        <v>0.535426</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.189493</v>
+        <v>0.189228</v>
       </c>
       <c r="C91" t="n">
-        <v>0.118492</v>
+        <v>0.118575</v>
       </c>
       <c r="D91" t="n">
-        <v>0.561233</v>
+        <v>0.563665</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.218329</v>
+        <v>0.220453</v>
       </c>
       <c r="C92" t="n">
-        <v>0.126493</v>
+        <v>0.126636</v>
       </c>
       <c r="D92" t="n">
-        <v>0.42086</v>
+        <v>0.422257</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.262839</v>
+        <v>0.267994</v>
       </c>
       <c r="C93" t="n">
-        <v>0.14019</v>
+        <v>0.140392</v>
       </c>
       <c r="D93" t="n">
-        <v>0.439138</v>
+        <v>0.441034</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.319241</v>
+        <v>0.319876</v>
       </c>
       <c r="C94" t="n">
-        <v>0.107401</v>
+        <v>0.107734</v>
       </c>
       <c r="D94" t="n">
-        <v>0.457963</v>
+        <v>0.459451</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.129571</v>
+        <v>0.127768</v>
       </c>
       <c r="C95" t="n">
-        <v>0.10853</v>
+        <v>0.108795</v>
       </c>
       <c r="D95" t="n">
-        <v>0.477142</v>
+        <v>0.480318</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.131685</v>
+        <v>0.130306</v>
       </c>
       <c r="C96" t="n">
-        <v>0.110371</v>
+        <v>0.110505</v>
       </c>
       <c r="D96" t="n">
-        <v>0.496791</v>
+        <v>0.501413</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.133787</v>
+        <v>0.133313</v>
       </c>
       <c r="C97" t="n">
-        <v>0.111644</v>
+        <v>0.111903</v>
       </c>
       <c r="D97" t="n">
-        <v>0.517684</v>
+        <v>0.52203</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.139701</v>
+        <v>0.137748</v>
       </c>
       <c r="C98" t="n">
-        <v>0.113521</v>
+        <v>0.11401</v>
       </c>
       <c r="D98" t="n">
-        <v>0.5400700000000001</v>
+        <v>0.543942</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.142666</v>
+        <v>0.143233</v>
       </c>
       <c r="C99" t="n">
-        <v>0.116039</v>
+        <v>0.116413</v>
       </c>
       <c r="D99" t="n">
-        <v>0.561694</v>
+        <v>0.564945</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.149923</v>
+        <v>0.149973</v>
       </c>
       <c r="C100" t="n">
-        <v>0.119149</v>
+        <v>0.119355</v>
       </c>
       <c r="D100" t="n">
-        <v>0.585362</v>
+        <v>0.588674</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.158464</v>
+        <v>0.158533</v>
       </c>
       <c r="C101" t="n">
-        <v>0.123252</v>
+        <v>0.123345</v>
       </c>
       <c r="D101" t="n">
-        <v>0.611098</v>
+        <v>0.613081</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.173337</v>
+        <v>0.169267</v>
       </c>
       <c r="C102" t="n">
-        <v>0.127742</v>
+        <v>0.127917</v>
       </c>
       <c r="D102" t="n">
-        <v>0.635587</v>
+        <v>0.640187</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.183765</v>
+        <v>0.183705</v>
       </c>
       <c r="C103" t="n">
-        <v>0.133162</v>
+        <v>0.133047</v>
       </c>
       <c r="D103" t="n">
-        <v>0.663604</v>
+        <v>0.667171</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.200932</v>
+        <v>0.201356</v>
       </c>
       <c r="C104" t="n">
-        <v>0.13971</v>
+        <v>0.139732</v>
       </c>
       <c r="D104" t="n">
-        <v>0.6910500000000001</v>
+        <v>0.695869</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.224597</v>
+        <v>0.224706</v>
       </c>
       <c r="C105" t="n">
-        <v>0.148441</v>
+        <v>0.148075</v>
       </c>
       <c r="D105" t="n">
-        <v>0.722588</v>
+        <v>0.727277</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.255075</v>
+        <v>0.255503</v>
       </c>
       <c r="C106" t="n">
-        <v>0.158921</v>
+        <v>0.158768</v>
       </c>
       <c r="D106" t="n">
-        <v>0.755867</v>
+        <v>0.758439</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.305589</v>
+        <v>0.30721</v>
       </c>
       <c r="C107" t="n">
-        <v>0.174315</v>
+        <v>0.174492</v>
       </c>
       <c r="D107" t="n">
-        <v>0.600414</v>
+        <v>0.604793</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.369974</v>
+        <v>0.360219</v>
       </c>
       <c r="C108" t="n">
-        <v>0.129073</v>
+        <v>0.129108</v>
       </c>
       <c r="D108" t="n">
-        <v>0.6232839999999999</v>
+        <v>0.627602</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.447968</v>
+        <v>0.45596</v>
       </c>
       <c r="C109" t="n">
-        <v>0.13177</v>
+        <v>0.131409</v>
       </c>
       <c r="D109" t="n">
-        <v>0.646959</v>
+        <v>0.651355</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.154846</v>
+        <v>0.154851</v>
       </c>
       <c r="C110" t="n">
-        <v>0.134013</v>
+        <v>0.133924</v>
       </c>
       <c r="D110" t="n">
-        <v>0.6708</v>
+        <v>0.676072</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.15875</v>
+        <v>0.15884</v>
       </c>
       <c r="C111" t="n">
-        <v>0.136493</v>
+        <v>0.136526</v>
       </c>
       <c r="D111" t="n">
-        <v>0.69646</v>
+        <v>0.700337</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.163103</v>
+        <v>0.163308</v>
       </c>
       <c r="C112" t="n">
-        <v>0.138908</v>
+        <v>0.138817</v>
       </c>
       <c r="D112" t="n">
-        <v>0.721153</v>
+        <v>0.72583</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.168351</v>
+        <v>0.168394</v>
       </c>
       <c r="C113" t="n">
-        <v>0.141825</v>
+        <v>0.141303</v>
       </c>
       <c r="D113" t="n">
-        <v>0.747049</v>
+        <v>0.753039</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.174823</v>
+        <v>0.174883</v>
       </c>
       <c r="C114" t="n">
-        <v>0.14387</v>
+        <v>0.143974</v>
       </c>
       <c r="D114" t="n">
-        <v>0.773767</v>
+        <v>0.778304</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.182369</v>
+        <v>0.182502</v>
       </c>
       <c r="C115" t="n">
-        <v>0.14692</v>
+        <v>0.146942</v>
       </c>
       <c r="D115" t="n">
-        <v>0.799752</v>
+        <v>0.805675</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.191834</v>
+        <v>0.192105</v>
       </c>
       <c r="C116" t="n">
-        <v>0.150797</v>
+        <v>0.150402</v>
       </c>
       <c r="D116" t="n">
-        <v>0.827487</v>
+        <v>0.832713</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.204024</v>
+        <v>0.204293</v>
       </c>
       <c r="C117" t="n">
-        <v>0.154062</v>
+        <v>0.1543</v>
       </c>
       <c r="D117" t="n">
-        <v>0.856175</v>
+        <v>0.861838</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.223757</v>
+        <v>0.21994</v>
       </c>
       <c r="C118" t="n">
-        <v>0.159077</v>
+        <v>0.159069</v>
       </c>
       <c r="D118" t="n">
-        <v>0.884304</v>
+        <v>0.891253</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.240778</v>
+        <v>0.240993</v>
       </c>
       <c r="C119" t="n">
-        <v>0.165534</v>
+        <v>0.165708</v>
       </c>
       <c r="D119" t="n">
-        <v>0.915232</v>
+        <v>0.921628</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.269629</v>
+        <v>0.269826</v>
       </c>
       <c r="C120" t="n">
-        <v>0.175007</v>
+        <v>0.175058</v>
       </c>
       <c r="D120" t="n">
-        <v>0.946026</v>
+        <v>0.952995</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.310824</v>
+        <v>0.311496</v>
       </c>
       <c r="C121" t="n">
-        <v>0.188845</v>
+        <v>0.190927</v>
       </c>
       <c r="D121" t="n">
-        <v>0.682446</v>
+        <v>0.686261</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.372822</v>
+        <v>0.372372</v>
       </c>
       <c r="C122" t="n">
-        <v>0.212242</v>
+        <v>0.21234</v>
       </c>
       <c r="D122" t="n">
-        <v>0.704558</v>
+        <v>0.7078680000000001</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.474325</v>
+        <v>0.464662</v>
       </c>
       <c r="C123" t="n">
-        <v>0.146665</v>
+        <v>0.149337</v>
       </c>
       <c r="D123" t="n">
-        <v>0.72784</v>
+        <v>0.731614</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.171329</v>
+        <v>0.170793</v>
       </c>
       <c r="C124" t="n">
-        <v>0.147334</v>
+        <v>0.150117</v>
       </c>
       <c r="D124" t="n">
-        <v>0.7520289999999999</v>
+        <v>0.7555730000000001</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.176196</v>
+        <v>0.173497</v>
       </c>
       <c r="C125" t="n">
-        <v>0.150552</v>
+        <v>0.1522</v>
       </c>
       <c r="D125" t="n">
-        <v>0.777193</v>
+        <v>0.780977</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.179174</v>
+        <v>0.179474</v>
       </c>
       <c r="C126" t="n">
-        <v>0.154614</v>
+        <v>0.151241</v>
       </c>
       <c r="D126" t="n">
-        <v>0.803345</v>
+        <v>0.807483</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.182936</v>
+        <v>0.183942</v>
       </c>
       <c r="C127" t="n">
-        <v>0.153845</v>
+        <v>0.156619</v>
       </c>
       <c r="D127" t="n">
-        <v>0.830869</v>
+        <v>0.834877</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.189779</v>
+        <v>0.197831</v>
       </c>
       <c r="C128" t="n">
-        <v>0.159603</v>
+        <v>0.15828</v>
       </c>
       <c r="D128" t="n">
-        <v>0.858916</v>
+        <v>0.862488</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.198487</v>
+        <v>0.196325</v>
       </c>
       <c r="C129" t="n">
-        <v>0.160767</v>
+        <v>0.159578</v>
       </c>
       <c r="D129" t="n">
-        <v>0.887898</v>
+        <v>0.891933</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.206089</v>
+        <v>0.212853</v>
       </c>
       <c r="C130" t="n">
-        <v>0.163079</v>
+        <v>0.165646</v>
       </c>
       <c r="D130" t="n">
-        <v>0.915107</v>
+        <v>0.921696</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.219474</v>
+        <v>0.222434</v>
       </c>
       <c r="C131" t="n">
-        <v>0.168933</v>
+        <v>0.16922</v>
       </c>
       <c r="D131" t="n">
-        <v>0.945475</v>
+        <v>0.951908</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.234701</v>
+        <v>0.234407</v>
       </c>
       <c r="C132" t="n">
-        <v>0.173196</v>
+        <v>0.174019</v>
       </c>
       <c r="D132" t="n">
-        <v>0.9768250000000001</v>
+        <v>0.983274</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.261215</v>
+        <v>0.255365</v>
       </c>
       <c r="C133" t="n">
-        <v>0.178551</v>
+        <v>0.179657</v>
       </c>
       <c r="D133" t="n">
-        <v>1.00929</v>
+        <v>1.0153</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.284658</v>
+        <v>0.283982</v>
       </c>
       <c r="C134" t="n">
-        <v>0.191765</v>
+        <v>0.187576</v>
       </c>
       <c r="D134" t="n">
-        <v>1.04225</v>
+        <v>1.04885</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.325844</v>
+        <v>0.328258</v>
       </c>
       <c r="C135" t="n">
-        <v>0.202187</v>
+        <v>0.204432</v>
       </c>
       <c r="D135" t="n">
-        <v>0.70059</v>
+        <v>0.70394</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.380552</v>
+        <v>0.383517</v>
       </c>
       <c r="C136" t="n">
-        <v>0.223235</v>
+        <v>0.225655</v>
       </c>
       <c r="D136" t="n">
-        <v>0.718545</v>
+        <v>0.722419</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.476627</v>
+        <v>0.477143</v>
       </c>
       <c r="C137" t="n">
-        <v>0.284197</v>
+        <v>0.281354</v>
       </c>
       <c r="D137" t="n">
-        <v>0.737675</v>
+        <v>0.741538</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.313071</v>
+        <v>0.31393</v>
       </c>
       <c r="C138" t="n">
-        <v>0.278154</v>
+        <v>0.280576</v>
       </c>
       <c r="D138" t="n">
-        <v>0.757955</v>
+        <v>0.762456</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.317326</v>
+        <v>0.320036</v>
       </c>
       <c r="C139" t="n">
-        <v>0.282256</v>
+        <v>0.282468</v>
       </c>
       <c r="D139" t="n">
-        <v>0.778907</v>
+        <v>0.783002</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.321983</v>
+        <v>0.32293</v>
       </c>
       <c r="C140" t="n">
-        <v>0.283078</v>
+        <v>0.285068</v>
       </c>
       <c r="D140" t="n">
-        <v>0.800891</v>
+        <v>0.804974</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.327593</v>
+        <v>0.325833</v>
       </c>
       <c r="C141" t="n">
-        <v>0.285446</v>
+        <v>0.288034</v>
       </c>
       <c r="D141" t="n">
-        <v>0.823843</v>
+        <v>0.828503</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.333654</v>
+        <v>0.332482</v>
       </c>
       <c r="C142" t="n">
-        <v>0.29017</v>
+        <v>0.289394</v>
       </c>
       <c r="D142" t="n">
-        <v>0.847603</v>
+        <v>0.8524389999999999</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.318905</v>
+        <v>0.339976</v>
       </c>
       <c r="C143" t="n">
-        <v>0.289067</v>
+        <v>0.289964</v>
       </c>
       <c r="D143" t="n">
-        <v>0.8727009999999999</v>
+        <v>0.877404</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Scattered unsuccessful looukp.xlsx
+++ b/clang-x86/Scattered unsuccessful looukp.xlsx
@@ -3213,7 +3213,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D143"/>
+  <dimension ref="A1:E143"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="G23" sqref="G23"/>
@@ -3246,13 +3246,16 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0935281</v>
+        <v>0.09344189999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>0.08375109999999999</v>
+        <v>0.185853</v>
       </c>
       <c r="D2" t="n">
-        <v>0.184648</v>
+        <v>0.0836297</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.0848225</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3263,16 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.101386</v>
+        <v>0.100458</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0844891</v>
+        <v>0.193795</v>
       </c>
       <c r="D3" t="n">
-        <v>0.191419</v>
+        <v>0.0843213</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.0853911</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3280,16 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.112947</v>
+        <v>0.112963</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0857974</v>
+        <v>0.201413</v>
       </c>
       <c r="D4" t="n">
-        <v>0.199816</v>
+        <v>0.0856152</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0868448</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3297,16 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.127562</v>
+        <v>0.127165</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0873582</v>
+        <v>0.209653</v>
       </c>
       <c r="D5" t="n">
-        <v>0.210361</v>
+        <v>0.0866793</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.08886910000000001</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3314,16 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.150981</v>
+        <v>0.151704</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0894245</v>
+        <v>0.214592</v>
       </c>
       <c r="D6" t="n">
-        <v>0.214244</v>
+        <v>0.0886276</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0906457</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3331,16 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.187582</v>
+        <v>0.186473</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0943476</v>
+        <v>0.162872</v>
       </c>
       <c r="D7" t="n">
-        <v>0.160652</v>
+        <v>0.09419859999999999</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.0961665</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3348,16 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.233065</v>
+        <v>0.226251</v>
       </c>
       <c r="C8" t="n">
-        <v>0.107124</v>
+        <v>0.170878</v>
       </c>
       <c r="D8" t="n">
-        <v>0.168971</v>
+        <v>0.105958</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.108329</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3365,16 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.270046</v>
+        <v>0.261329</v>
       </c>
       <c r="C9" t="n">
-        <v>0.08190649999999999</v>
+        <v>0.177959</v>
       </c>
       <c r="D9" t="n">
-        <v>0.174692</v>
+        <v>0.08199480000000001</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.082662</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3382,16 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0863443</v>
+        <v>0.08670659999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0822948</v>
+        <v>0.184994</v>
       </c>
       <c r="D10" t="n">
-        <v>0.181821</v>
+        <v>0.0823102</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.0829651</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3399,16 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0870631</v>
+        <v>0.08753900000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0827696</v>
+        <v>0.192122</v>
       </c>
       <c r="D11" t="n">
-        <v>0.189879</v>
+        <v>0.0827184</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.08347499999999999</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3416,16 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.08812300000000001</v>
+        <v>0.0881723</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0828242</v>
+        <v>0.198757</v>
       </c>
       <c r="D12" t="n">
-        <v>0.196682</v>
+        <v>0.0827807</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.0836882</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3433,16 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.08945119999999999</v>
+        <v>0.0897926</v>
       </c>
       <c r="C13" t="n">
-        <v>0.08299960000000001</v>
+        <v>0.205408</v>
       </c>
       <c r="D13" t="n">
-        <v>0.203444</v>
+        <v>0.08297980000000001</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.08415</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3450,16 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0921348</v>
+        <v>0.0924758</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0834833</v>
+        <v>0.211293</v>
       </c>
       <c r="D14" t="n">
-        <v>0.210875</v>
+        <v>0.0833023</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.084323</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3467,16 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.09528639999999999</v>
+        <v>0.0950744</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0840593</v>
+        <v>0.218433</v>
       </c>
       <c r="D15" t="n">
-        <v>0.218932</v>
+        <v>0.0837778</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.0848482</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3484,16 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.100232</v>
+        <v>0.100071</v>
       </c>
       <c r="C16" t="n">
-        <v>0.08439099999999999</v>
+        <v>0.226548</v>
       </c>
       <c r="D16" t="n">
-        <v>0.224878</v>
+        <v>0.08422010000000001</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.08545129999999999</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3501,16 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.107422</v>
+        <v>0.106461</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0856609</v>
+        <v>0.232466</v>
       </c>
       <c r="D17" t="n">
-        <v>0.233444</v>
+        <v>0.08515689999999999</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.086898</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3518,16 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.118213</v>
+        <v>0.117858</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0868434</v>
+        <v>0.238281</v>
       </c>
       <c r="D18" t="n">
-        <v>0.237078</v>
+        <v>0.0864578</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.08833240000000001</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3535,16 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.133067</v>
+        <v>0.131931</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0886227</v>
+        <v>0.246068</v>
       </c>
       <c r="D19" t="n">
-        <v>0.243544</v>
+        <v>0.08820269999999999</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.09043379999999999</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3552,16 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.153088</v>
+        <v>0.150289</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0914533</v>
+        <v>0.252143</v>
       </c>
       <c r="D20" t="n">
-        <v>0.251911</v>
+        <v>0.0910605</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.0935386</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3569,16 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.178771</v>
+        <v>0.185701</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0973912</v>
+        <v>0.185133</v>
       </c>
       <c r="D21" t="n">
-        <v>0.181451</v>
+        <v>0.0970308</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.100027</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3586,16 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.215106</v>
+        <v>0.211862</v>
       </c>
       <c r="C22" t="n">
-        <v>0.110049</v>
+        <v>0.191898</v>
       </c>
       <c r="D22" t="n">
-        <v>0.188856</v>
+        <v>0.108992</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.111374</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3603,16 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.259988</v>
+        <v>0.258193</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0829926</v>
+        <v>0.197692</v>
       </c>
       <c r="D23" t="n">
-        <v>0.197649</v>
+        <v>0.082958</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.0842029</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3620,16 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0903682</v>
+        <v>0.0901612</v>
       </c>
       <c r="C24" t="n">
-        <v>0.08324479999999999</v>
+        <v>0.207471</v>
       </c>
       <c r="D24" t="n">
-        <v>0.205424</v>
+        <v>0.0832596</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.0844757</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3637,16 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0912253</v>
+        <v>0.0913318</v>
       </c>
       <c r="C25" t="n">
-        <v>0.08346050000000001</v>
+        <v>0.214029</v>
       </c>
       <c r="D25" t="n">
-        <v>0.214096</v>
+        <v>0.0834588</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.08498699999999999</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3654,16 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0928315</v>
+        <v>0.0931168</v>
       </c>
       <c r="C26" t="n">
-        <v>0.08386399999999999</v>
+        <v>0.22116</v>
       </c>
       <c r="D26" t="n">
-        <v>0.220156</v>
+        <v>0.0838222</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.08540540000000001</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3671,16 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0946433</v>
+        <v>0.0949559</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0842992</v>
+        <v>0.228786</v>
       </c>
       <c r="D27" t="n">
-        <v>0.226697</v>
+        <v>0.0843117</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.0862917</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3688,16 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0973615</v>
+        <v>0.0984068</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0848617</v>
+        <v>0.235803</v>
       </c>
       <c r="D28" t="n">
-        <v>0.23458</v>
+        <v>0.0848081</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.08722050000000001</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3705,16 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.101447</v>
+        <v>0.102646</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0853916</v>
+        <v>0.240695</v>
       </c>
       <c r="D29" t="n">
-        <v>0.239999</v>
+        <v>0.0852728</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.0878258</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3722,16 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.107175</v>
+        <v>0.108024</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0860934</v>
+        <v>0.246449</v>
       </c>
       <c r="D30" t="n">
-        <v>0.246017</v>
+        <v>0.0860235</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.0887459</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3739,16 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.114034</v>
+        <v>0.116101</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0872498</v>
+        <v>0.251344</v>
       </c>
       <c r="D31" t="n">
-        <v>0.252632</v>
+        <v>0.0869158</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.0902155</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3756,16 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.123931</v>
+        <v>0.125878</v>
       </c>
       <c r="C32" t="n">
-        <v>0.08879629999999999</v>
+        <v>0.259559</v>
       </c>
       <c r="D32" t="n">
-        <v>0.258721</v>
+        <v>0.08854049999999999</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.0924862</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3773,16 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.136832</v>
+        <v>0.139701</v>
       </c>
       <c r="C33" t="n">
-        <v>0.09123009999999999</v>
+        <v>0.26365</v>
       </c>
       <c r="D33" t="n">
-        <v>0.263602</v>
+        <v>0.0907646</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.09476850000000001</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3790,16 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.152398</v>
+        <v>0.158292</v>
       </c>
       <c r="C34" t="n">
-        <v>0.095207</v>
+        <v>0.26939</v>
       </c>
       <c r="D34" t="n">
-        <v>0.270747</v>
+        <v>0.09462280000000001</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.0988628</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3807,16 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.175879</v>
+        <v>0.181838</v>
       </c>
       <c r="C35" t="n">
-        <v>0.102474</v>
+        <v>0.196051</v>
       </c>
       <c r="D35" t="n">
-        <v>0.196555</v>
+        <v>0.101689</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.105913</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3824,16 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.212491</v>
+        <v>0.215503</v>
       </c>
       <c r="C36" t="n">
-        <v>0.113883</v>
+        <v>0.202427</v>
       </c>
       <c r="D36" t="n">
-        <v>0.203055</v>
+        <v>0.113016</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.117167</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3841,16 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.264763</v>
+        <v>0.254787</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0839543</v>
+        <v>0.210382</v>
       </c>
       <c r="D37" t="n">
-        <v>0.211264</v>
+        <v>0.0837649</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.0869113</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3858,16 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.09247660000000001</v>
+        <v>0.0928253</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0845639</v>
+        <v>0.217574</v>
       </c>
       <c r="D38" t="n">
-        <v>0.218529</v>
+        <v>0.08406329999999999</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.0875499</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3875,16 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0948611</v>
+        <v>0.09413879999999999</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0846629</v>
+        <v>0.225877</v>
       </c>
       <c r="D39" t="n">
-        <v>0.225226</v>
+        <v>0.0842907</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.0879277</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3892,16 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0951034</v>
+        <v>0.0957582</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0849579</v>
+        <v>0.233286</v>
       </c>
       <c r="D40" t="n">
-        <v>0.233133</v>
+        <v>0.0846218</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.0885498</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3909,16 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0970685</v>
+        <v>0.0979941</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0855279</v>
+        <v>0.239663</v>
       </c>
       <c r="D41" t="n">
-        <v>0.239229</v>
+        <v>0.085068</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.0889754</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3926,16 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.09999180000000001</v>
+        <v>0.101272</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0855066</v>
+        <v>0.246665</v>
       </c>
       <c r="D42" t="n">
-        <v>0.24636</v>
+        <v>0.08547150000000001</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.0896537</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3943,16 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.104057</v>
+        <v>0.104619</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0861338</v>
+        <v>0.252795</v>
       </c>
       <c r="D43" t="n">
-        <v>0.252182</v>
+        <v>0.08588419999999999</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.09026149999999999</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3960,16 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.108951</v>
+        <v>0.110078</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0868517</v>
+        <v>0.25914</v>
       </c>
       <c r="D44" t="n">
-        <v>0.258606</v>
+        <v>0.0871644</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.0911921</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3977,16 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.114461</v>
+        <v>0.116979</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0878974</v>
+        <v>0.265134</v>
       </c>
       <c r="D45" t="n">
-        <v>0.264636</v>
+        <v>0.0876702</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.09241630000000001</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3994,16 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.122809</v>
+        <v>0.125401</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0894525</v>
+        <v>0.271122</v>
       </c>
       <c r="D46" t="n">
-        <v>0.270282</v>
+        <v>0.08913889999999999</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.0943089</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +4011,16 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.133805</v>
+        <v>0.136392</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0916738</v>
+        <v>0.276648</v>
       </c>
       <c r="D47" t="n">
-        <v>0.275561</v>
+        <v>0.09135070000000001</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.09644990000000001</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +4028,16 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.147985</v>
+        <v>0.151881</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0953411</v>
+        <v>0.282272</v>
       </c>
       <c r="D48" t="n">
-        <v>0.282006</v>
+        <v>0.09483419999999999</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.100123</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +4045,16 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.170276</v>
+        <v>0.174942</v>
       </c>
       <c r="C49" t="n">
-        <v>0.101174</v>
+        <v>0.288065</v>
       </c>
       <c r="D49" t="n">
-        <v>0.288086</v>
+        <v>0.100346</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.105884</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +4062,16 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.202903</v>
+        <v>0.213679</v>
       </c>
       <c r="C50" t="n">
-        <v>0.111079</v>
+        <v>0.202118</v>
       </c>
       <c r="D50" t="n">
-        <v>0.202515</v>
+        <v>0.110019</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.115669</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +4079,16 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.243411</v>
+        <v>0.250904</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0852127</v>
+        <v>0.209852</v>
       </c>
       <c r="D51" t="n">
-        <v>0.209645</v>
+        <v>0.0858059</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.0898649</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +4096,16 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.293605</v>
+        <v>0.293381</v>
       </c>
       <c r="C52" t="n">
-        <v>0.08621180000000001</v>
+        <v>0.216375</v>
       </c>
       <c r="D52" t="n">
-        <v>0.216136</v>
+        <v>0.08598649999999999</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.0911501</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +4113,16 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0970023</v>
+        <v>0.09651999999999999</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0866879</v>
+        <v>0.224267</v>
       </c>
       <c r="D53" t="n">
-        <v>0.223867</v>
+        <v>0.0869703</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.09076239999999999</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +4130,16 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.09897599999999999</v>
+        <v>0.0994189</v>
       </c>
       <c r="C54" t="n">
-        <v>0.08778610000000001</v>
+        <v>0.231018</v>
       </c>
       <c r="D54" t="n">
-        <v>0.230722</v>
+        <v>0.08613560000000001</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.0921558</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +4147,16 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0997667</v>
+        <v>0.101557</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0874437</v>
+        <v>0.238199</v>
       </c>
       <c r="D55" t="n">
-        <v>0.237528</v>
+        <v>0.08709</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.0917121</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4164,16 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.102465</v>
+        <v>0.103498</v>
       </c>
       <c r="C56" t="n">
-        <v>0.08722820000000001</v>
+        <v>0.244133</v>
       </c>
       <c r="D56" t="n">
-        <v>0.243843</v>
+        <v>0.087794</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.093018</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4181,16 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.106258</v>
+        <v>0.108077</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0880227</v>
+        <v>0.250497</v>
       </c>
       <c r="D57" t="n">
-        <v>0.24983</v>
+        <v>0.08770799999999999</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.0929005</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4198,16 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.112039</v>
+        <v>0.111877</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0887039</v>
+        <v>0.256058</v>
       </c>
       <c r="D58" t="n">
-        <v>0.255209</v>
+        <v>0.088612</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.09398570000000001</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4215,16 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.119815</v>
+        <v>0.118352</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0902637</v>
+        <v>0.261874</v>
       </c>
       <c r="D59" t="n">
-        <v>0.261054</v>
+        <v>0.0897483</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.0951789</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4232,16 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.124078</v>
+        <v>0.128364</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0911199</v>
+        <v>0.267291</v>
       </c>
       <c r="D60" t="n">
-        <v>0.266057</v>
+        <v>0.0917688</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.09739630000000001</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4249,16 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.135386</v>
+        <v>0.139699</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0943167</v>
+        <v>0.272047</v>
       </c>
       <c r="D61" t="n">
-        <v>0.271316</v>
+        <v>0.092991</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.100036</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4266,16 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.148685</v>
+        <v>0.15264</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0970348</v>
+        <v>0.27762</v>
       </c>
       <c r="D62" t="n">
-        <v>0.277419</v>
+        <v>0.0963464</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.104099</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4283,16 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.168168</v>
+        <v>0.171223</v>
       </c>
       <c r="C63" t="n">
-        <v>0.102485</v>
+        <v>0.284381</v>
       </c>
       <c r="D63" t="n">
-        <v>0.283924</v>
+        <v>0.1017</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.109119</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4300,16 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.198552</v>
+        <v>0.199264</v>
       </c>
       <c r="C64" t="n">
-        <v>0.112567</v>
+        <v>0.209244</v>
       </c>
       <c r="D64" t="n">
-        <v>0.206524</v>
+        <v>0.109763</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.11712</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4317,16 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.237073</v>
+        <v>0.250265</v>
       </c>
       <c r="C65" t="n">
-        <v>0.125854</v>
+        <v>0.217648</v>
       </c>
       <c r="D65" t="n">
-        <v>0.213743</v>
+        <v>0.126417</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.132501</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4334,16 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.286565</v>
+        <v>0.287158</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0933351</v>
+        <v>0.223399</v>
       </c>
       <c r="D66" t="n">
-        <v>0.222913</v>
+        <v>0.093447</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.098096</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4351,16 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.107514</v>
+        <v>0.108643</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0935286</v>
+        <v>0.230987</v>
       </c>
       <c r="D67" t="n">
-        <v>0.231086</v>
+        <v>0.09382119999999999</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.0987281</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4368,16 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.109801</v>
+        <v>0.109945</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0945561</v>
+        <v>0.240341</v>
       </c>
       <c r="D68" t="n">
-        <v>0.239413</v>
+        <v>0.0939029</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.0992096</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4385,16 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.110876</v>
+        <v>0.111636</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0949335</v>
+        <v>0.252313</v>
       </c>
       <c r="D69" t="n">
-        <v>0.248388</v>
+        <v>0.09499829999999999</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.100064</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4402,16 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.113366</v>
+        <v>0.113632</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0952191</v>
+        <v>0.26339</v>
       </c>
       <c r="D70" t="n">
-        <v>0.256561</v>
+        <v>0.0959416</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.100934</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4419,16 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.117124</v>
+        <v>0.118701</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0962214</v>
+        <v>0.275218</v>
       </c>
       <c r="D71" t="n">
-        <v>0.267944</v>
+        <v>0.09619220000000001</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.102058</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4436,16 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.120717</v>
+        <v>0.124085</v>
       </c>
       <c r="C72" t="n">
-        <v>0.09656579999999999</v>
+        <v>0.287541</v>
       </c>
       <c r="D72" t="n">
-        <v>0.276821</v>
+        <v>0.09692149999999999</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.103675</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4453,16 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.127107</v>
+        <v>0.131672</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0981624</v>
+        <v>0.295501</v>
       </c>
       <c r="D73" t="n">
-        <v>0.286849</v>
+        <v>0.0978875</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.104697</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4470,16 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.133421</v>
+        <v>0.138355</v>
       </c>
       <c r="C74" t="n">
-        <v>0.09894269999999999</v>
+        <v>0.307095</v>
       </c>
       <c r="D74" t="n">
-        <v>0.298746</v>
+        <v>0.099537</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.106756</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4487,16 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.144387</v>
+        <v>0.150398</v>
       </c>
       <c r="C75" t="n">
-        <v>0.101229</v>
+        <v>0.323613</v>
       </c>
       <c r="D75" t="n">
-        <v>0.313491</v>
+        <v>0.101084</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.109013</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4504,16 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.158315</v>
+        <v>0.161085</v>
       </c>
       <c r="C76" t="n">
-        <v>0.104878</v>
+        <v>0.338229</v>
       </c>
       <c r="D76" t="n">
-        <v>0.32911</v>
+        <v>0.104084</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.112669</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4521,16 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.176451</v>
+        <v>0.180046</v>
       </c>
       <c r="C77" t="n">
-        <v>0.108791</v>
+        <v>0.354564</v>
       </c>
       <c r="D77" t="n">
-        <v>0.348079</v>
+        <v>0.108787</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.118217</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4538,16 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.204077</v>
+        <v>0.208178</v>
       </c>
       <c r="C78" t="n">
-        <v>0.116273</v>
+        <v>0.273377</v>
       </c>
       <c r="D78" t="n">
-        <v>0.268006</v>
+        <v>0.116693</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.125881</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4555,16 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.245638</v>
+        <v>0.253791</v>
       </c>
       <c r="C79" t="n">
-        <v>0.130803</v>
+        <v>0.290243</v>
       </c>
       <c r="D79" t="n">
-        <v>0.28549</v>
+        <v>0.130757</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.140665</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4572,16 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.294652</v>
+        <v>0.296947</v>
       </c>
       <c r="C80" t="n">
-        <v>0.101815</v>
+        <v>0.309165</v>
       </c>
       <c r="D80" t="n">
-        <v>0.304669</v>
+        <v>0.101494</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.106739</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4589,16 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.119623</v>
+        <v>0.120425</v>
       </c>
       <c r="C81" t="n">
-        <v>0.102261</v>
+        <v>0.327675</v>
       </c>
       <c r="D81" t="n">
-        <v>0.325088</v>
+        <v>0.101991</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.107289</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4606,16 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.121186</v>
+        <v>0.123331</v>
       </c>
       <c r="C82" t="n">
-        <v>0.102668</v>
+        <v>0.348357</v>
       </c>
       <c r="D82" t="n">
-        <v>0.346081</v>
+        <v>0.102383</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.108898</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4623,16 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.123273</v>
+        <v>0.123633</v>
       </c>
       <c r="C83" t="n">
-        <v>0.103256</v>
+        <v>0.371703</v>
       </c>
       <c r="D83" t="n">
-        <v>0.368034</v>
+        <v>0.102885</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.109551</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4640,16 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.125846</v>
+        <v>0.126702</v>
       </c>
       <c r="C84" t="n">
-        <v>0.103526</v>
+        <v>0.392002</v>
       </c>
       <c r="D84" t="n">
-        <v>0.388923</v>
+        <v>0.103523</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.110556</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4657,16 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.130524</v>
+        <v>0.130027</v>
       </c>
       <c r="C85" t="n">
-        <v>0.10419</v>
+        <v>0.41461</v>
       </c>
       <c r="D85" t="n">
-        <v>0.412542</v>
+        <v>0.104316</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.111473</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4674,16 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.133413</v>
+        <v>0.134799</v>
       </c>
       <c r="C86" t="n">
-        <v>0.105234</v>
+        <v>0.437433</v>
       </c>
       <c r="D86" t="n">
-        <v>0.435527</v>
+        <v>0.105221</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.113312</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4691,16 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.139287</v>
+        <v>0.140831</v>
       </c>
       <c r="C87" t="n">
-        <v>0.10639</v>
+        <v>0.461584</v>
       </c>
       <c r="D87" t="n">
-        <v>0.460024</v>
+        <v>0.106432</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.116397</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4708,16 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.146873</v>
+        <v>0.148252</v>
       </c>
       <c r="C88" t="n">
-        <v>0.107916</v>
+        <v>0.484604</v>
       </c>
       <c r="D88" t="n">
-        <v>0.482887</v>
+        <v>0.108112</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.119262</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4725,16 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.156634</v>
+        <v>0.161375</v>
       </c>
       <c r="C89" t="n">
-        <v>0.110558</v>
+        <v>0.509964</v>
       </c>
       <c r="D89" t="n">
-        <v>0.509065</v>
+        <v>0.110754</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.122108</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4742,16 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.170381</v>
+        <v>0.172309</v>
       </c>
       <c r="C90" t="n">
-        <v>0.113314</v>
+        <v>0.537175</v>
       </c>
       <c r="D90" t="n">
-        <v>0.535426</v>
+        <v>0.113616</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.128529</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4759,16 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.189228</v>
+        <v>0.19691</v>
       </c>
       <c r="C91" t="n">
-        <v>0.118575</v>
+        <v>0.565103</v>
       </c>
       <c r="D91" t="n">
-        <v>0.563665</v>
+        <v>0.119363</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.136732</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4776,16 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.220453</v>
+        <v>0.22046</v>
       </c>
       <c r="C92" t="n">
-        <v>0.126636</v>
+        <v>0.421746</v>
       </c>
       <c r="D92" t="n">
-        <v>0.422257</v>
+        <v>0.126558</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.14902</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4793,16 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.267994</v>
+        <v>0.269481</v>
       </c>
       <c r="C93" t="n">
-        <v>0.140392</v>
+        <v>0.440735</v>
       </c>
       <c r="D93" t="n">
-        <v>0.441034</v>
+        <v>0.139194</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.170402</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4810,16 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.319876</v>
+        <v>0.328871</v>
       </c>
       <c r="C94" t="n">
-        <v>0.107734</v>
+        <v>0.4597</v>
       </c>
       <c r="D94" t="n">
-        <v>0.459451</v>
+        <v>0.107858</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.120141</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4827,16 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.127768</v>
+        <v>0.130009</v>
       </c>
       <c r="C95" t="n">
-        <v>0.108795</v>
+        <v>0.47959</v>
       </c>
       <c r="D95" t="n">
-        <v>0.480318</v>
+        <v>0.108774</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0.123997</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4844,16 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.130306</v>
+        <v>0.130554</v>
       </c>
       <c r="C96" t="n">
-        <v>0.110505</v>
+        <v>0.5015579999999999</v>
       </c>
       <c r="D96" t="n">
-        <v>0.501413</v>
+        <v>0.110359</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.127461</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4861,16 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.133313</v>
+        <v>0.13381</v>
       </c>
       <c r="C97" t="n">
-        <v>0.111903</v>
+        <v>0.522053</v>
       </c>
       <c r="D97" t="n">
-        <v>0.52203</v>
+        <v>0.111844</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0.132987</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4878,16 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.137748</v>
+        <v>0.138071</v>
       </c>
       <c r="C98" t="n">
-        <v>0.11401</v>
+        <v>0.543135</v>
       </c>
       <c r="D98" t="n">
-        <v>0.543942</v>
+        <v>0.113542</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0.138314</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4895,16 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.143233</v>
+        <v>0.143585</v>
       </c>
       <c r="C99" t="n">
-        <v>0.116413</v>
+        <v>0.566136</v>
       </c>
       <c r="D99" t="n">
-        <v>0.564945</v>
+        <v>0.116306</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0.145136</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4912,16 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.149973</v>
+        <v>0.151172</v>
       </c>
       <c r="C100" t="n">
-        <v>0.119355</v>
+        <v>0.589356</v>
       </c>
       <c r="D100" t="n">
-        <v>0.588674</v>
+        <v>0.119079</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0.150538</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4929,16 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.158533</v>
+        <v>0.160808</v>
       </c>
       <c r="C101" t="n">
-        <v>0.123345</v>
+        <v>0.614433</v>
       </c>
       <c r="D101" t="n">
-        <v>0.613081</v>
+        <v>0.12341</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0.157753</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4946,16 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.169267</v>
+        <v>0.171727</v>
       </c>
       <c r="C102" t="n">
-        <v>0.127917</v>
+        <v>0.639343</v>
       </c>
       <c r="D102" t="n">
-        <v>0.640187</v>
+        <v>0.127585</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0.165311</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4963,16 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.183705</v>
+        <v>0.185648</v>
       </c>
       <c r="C103" t="n">
-        <v>0.133047</v>
+        <v>0.665173</v>
       </c>
       <c r="D103" t="n">
-        <v>0.667171</v>
+        <v>0.132839</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.173573</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4980,16 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.201356</v>
+        <v>0.204869</v>
       </c>
       <c r="C104" t="n">
-        <v>0.139732</v>
+        <v>0.69669</v>
       </c>
       <c r="D104" t="n">
-        <v>0.695869</v>
+        <v>0.139752</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0.182032</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4997,16 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.224706</v>
+        <v>0.230355</v>
       </c>
       <c r="C105" t="n">
-        <v>0.148075</v>
+        <v>0.725366</v>
       </c>
       <c r="D105" t="n">
-        <v>0.727277</v>
+        <v>0.148379</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0.192696</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +5014,16 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.255503</v>
+        <v>0.261522</v>
       </c>
       <c r="C106" t="n">
-        <v>0.158768</v>
+        <v>0.759042</v>
       </c>
       <c r="D106" t="n">
-        <v>0.758439</v>
+        <v>0.158443</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.206258</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +5031,16 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.30721</v>
+        <v>0.300636</v>
       </c>
       <c r="C107" t="n">
-        <v>0.174492</v>
+        <v>0.596642</v>
       </c>
       <c r="D107" t="n">
-        <v>0.604793</v>
+        <v>0.173573</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0.226083</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +5048,16 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.360219</v>
+        <v>0.369551</v>
       </c>
       <c r="C108" t="n">
-        <v>0.129108</v>
+        <v>0.619162</v>
       </c>
       <c r="D108" t="n">
-        <v>0.627602</v>
+        <v>0.128776</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0.160741</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +5065,16 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.45596</v>
+        <v>0.457574</v>
       </c>
       <c r="C109" t="n">
-        <v>0.131409</v>
+        <v>0.6419820000000001</v>
       </c>
       <c r="D109" t="n">
-        <v>0.651355</v>
+        <v>0.131486</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0.164006</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +5082,16 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.154851</v>
+        <v>0.155067</v>
       </c>
       <c r="C110" t="n">
-        <v>0.133924</v>
+        <v>0.664902</v>
       </c>
       <c r="D110" t="n">
-        <v>0.676072</v>
+        <v>0.133987</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0.167413</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +5099,16 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.15884</v>
+        <v>0.159285</v>
       </c>
       <c r="C111" t="n">
-        <v>0.136526</v>
+        <v>0.690945</v>
       </c>
       <c r="D111" t="n">
-        <v>0.700337</v>
+        <v>0.136365</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.171501</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +5116,16 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.163308</v>
+        <v>0.163778</v>
       </c>
       <c r="C112" t="n">
-        <v>0.138817</v>
+        <v>0.715987</v>
       </c>
       <c r="D112" t="n">
-        <v>0.72583</v>
+        <v>0.13871</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0.175771</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +5133,16 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.168394</v>
+        <v>0.169309</v>
       </c>
       <c r="C113" t="n">
-        <v>0.141303</v>
+        <v>0.741214</v>
       </c>
       <c r="D113" t="n">
-        <v>0.753039</v>
+        <v>0.141684</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0.180048</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +5150,16 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.174883</v>
+        <v>0.175537</v>
       </c>
       <c r="C114" t="n">
+        <v>0.768823</v>
+      </c>
+      <c r="D114" t="n">
         <v>0.143974</v>
       </c>
-      <c r="D114" t="n">
-        <v>0.778304</v>
+      <c r="E114" t="n">
+        <v>0.184259</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +5167,16 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.182502</v>
+        <v>0.183409</v>
       </c>
       <c r="C115" t="n">
-        <v>0.146942</v>
+        <v>0.795588</v>
       </c>
       <c r="D115" t="n">
-        <v>0.805675</v>
+        <v>0.146855</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0.188817</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +5184,16 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.192105</v>
+        <v>0.19311</v>
       </c>
       <c r="C116" t="n">
-        <v>0.150402</v>
+        <v>0.825137</v>
       </c>
       <c r="D116" t="n">
-        <v>0.832713</v>
+        <v>0.150107</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0.194194</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +5201,16 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.204293</v>
+        <v>0.205434</v>
       </c>
       <c r="C117" t="n">
-        <v>0.1543</v>
+        <v>0.8535779999999999</v>
       </c>
       <c r="D117" t="n">
-        <v>0.861838</v>
+        <v>0.154205</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0.201337</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +5218,16 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.21994</v>
+        <v>0.22131</v>
       </c>
       <c r="C118" t="n">
-        <v>0.159069</v>
+        <v>0.8841020000000001</v>
       </c>
       <c r="D118" t="n">
-        <v>0.891253</v>
+        <v>0.159246</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0.208564</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +5235,16 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.240993</v>
+        <v>0.242343</v>
       </c>
       <c r="C119" t="n">
-        <v>0.165708</v>
+        <v>0.915818</v>
       </c>
       <c r="D119" t="n">
-        <v>0.921628</v>
+        <v>0.165563</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0.217522</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +5252,16 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.269826</v>
+        <v>0.271642</v>
       </c>
       <c r="C120" t="n">
-        <v>0.175058</v>
+        <v>0.947496</v>
       </c>
       <c r="D120" t="n">
-        <v>0.952995</v>
+        <v>0.174681</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0.230687</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +5269,16 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.311496</v>
+        <v>0.312889</v>
       </c>
       <c r="C121" t="n">
-        <v>0.190927</v>
+        <v>0.698465</v>
       </c>
       <c r="D121" t="n">
-        <v>0.686261</v>
+        <v>0.188295</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0.251103</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +5286,16 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.372372</v>
+        <v>0.374036</v>
       </c>
       <c r="C122" t="n">
-        <v>0.21234</v>
+        <v>0.721826</v>
       </c>
       <c r="D122" t="n">
-        <v>0.7078680000000001</v>
+        <v>0.211174</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0.280847</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +5303,16 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.464662</v>
+        <v>0.472947</v>
       </c>
       <c r="C123" t="n">
-        <v>0.149337</v>
+        <v>0.745705</v>
       </c>
       <c r="D123" t="n">
-        <v>0.731614</v>
+        <v>0.146968</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0.184459</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +5320,16 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.170793</v>
+        <v>0.171798</v>
       </c>
       <c r="C124" t="n">
-        <v>0.150117</v>
+        <v>0.770806</v>
       </c>
       <c r="D124" t="n">
-        <v>0.7555730000000001</v>
+        <v>0.148205</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0.188654</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +5337,16 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.173497</v>
+        <v>0.178503</v>
       </c>
       <c r="C125" t="n">
-        <v>0.1522</v>
+        <v>0.796082</v>
       </c>
       <c r="D125" t="n">
-        <v>0.780977</v>
+        <v>0.15268</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0.191017</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +5354,16 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.179474</v>
+        <v>0.181607</v>
       </c>
       <c r="C126" t="n">
-        <v>0.151241</v>
+        <v>0.8224939999999999</v>
       </c>
       <c r="D126" t="n">
-        <v>0.807483</v>
+        <v>0.154121</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0.195492</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +5371,16 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.183942</v>
+        <v>0.184548</v>
       </c>
       <c r="C127" t="n">
-        <v>0.156619</v>
+        <v>0.8486590000000001</v>
       </c>
       <c r="D127" t="n">
-        <v>0.834877</v>
+        <v>0.154743</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0.202057</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5388,16 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.197831</v>
+        <v>0.193776</v>
       </c>
       <c r="C128" t="n">
-        <v>0.15828</v>
+        <v>0.87583</v>
       </c>
       <c r="D128" t="n">
-        <v>0.862488</v>
+        <v>0.157977</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0.207948</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5405,16 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.196325</v>
+        <v>0.198755</v>
       </c>
       <c r="C129" t="n">
-        <v>0.159578</v>
+        <v>0.904305</v>
       </c>
       <c r="D129" t="n">
-        <v>0.891933</v>
+        <v>0.161822</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0.211628</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5422,16 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.212853</v>
+        <v>0.210457</v>
       </c>
       <c r="C130" t="n">
-        <v>0.165646</v>
+        <v>0.932729</v>
       </c>
       <c r="D130" t="n">
-        <v>0.921696</v>
+        <v>0.165339</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0.221682</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5439,16 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.222434</v>
+        <v>0.22318</v>
       </c>
       <c r="C131" t="n">
-        <v>0.16922</v>
+        <v>0.961439</v>
       </c>
       <c r="D131" t="n">
-        <v>0.951908</v>
+        <v>0.17141</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0.225161</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5456,16 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.234407</v>
+        <v>0.237161</v>
       </c>
       <c r="C132" t="n">
-        <v>0.174019</v>
+        <v>0.991483</v>
       </c>
       <c r="D132" t="n">
-        <v>0.983274</v>
+        <v>0.173472</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0.23287</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5473,16 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.255365</v>
+        <v>0.258767</v>
       </c>
       <c r="C133" t="n">
-        <v>0.179657</v>
+        <v>1.02207</v>
       </c>
       <c r="D133" t="n">
-        <v>1.0153</v>
+        <v>0.179912</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0.246011</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5490,16 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.283982</v>
+        <v>0.290014</v>
       </c>
       <c r="C134" t="n">
-        <v>0.187576</v>
+        <v>1.05448</v>
       </c>
       <c r="D134" t="n">
-        <v>1.04885</v>
+        <v>0.187816</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0.256594</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5507,16 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.328258</v>
+        <v>0.336311</v>
       </c>
       <c r="C135" t="n">
-        <v>0.204432</v>
+        <v>0.703213</v>
       </c>
       <c r="D135" t="n">
-        <v>0.70394</v>
+        <v>0.204712</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0.276129</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5524,16 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.383517</v>
+        <v>0.390474</v>
       </c>
       <c r="C136" t="n">
-        <v>0.225655</v>
+        <v>0.72154</v>
       </c>
       <c r="D136" t="n">
-        <v>0.722419</v>
+        <v>0.222743</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0.304906</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5541,16 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.477143</v>
+        <v>0.483114</v>
       </c>
       <c r="C137" t="n">
-        <v>0.281354</v>
+        <v>0.740609</v>
       </c>
       <c r="D137" t="n">
-        <v>0.741538</v>
+        <v>0.276612</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0.326809</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5558,16 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.31393</v>
+        <v>0.316242</v>
       </c>
       <c r="C138" t="n">
-        <v>0.280576</v>
+        <v>0.761074</v>
       </c>
       <c r="D138" t="n">
-        <v>0.762456</v>
+        <v>0.285747</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0.32752</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5575,16 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.320036</v>
+        <v>0.31833</v>
       </c>
       <c r="C139" t="n">
-        <v>0.282468</v>
+        <v>0.782738</v>
       </c>
       <c r="D139" t="n">
-        <v>0.783002</v>
+        <v>0.284005</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0.334177</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5592,16 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.32293</v>
+        <v>0.324069</v>
       </c>
       <c r="C140" t="n">
-        <v>0.285068</v>
+        <v>0.804953</v>
       </c>
       <c r="D140" t="n">
-        <v>0.804974</v>
+        <v>0.285856</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0.337599</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5609,16 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.325833</v>
+        <v>0.327015</v>
       </c>
       <c r="C141" t="n">
-        <v>0.288034</v>
+        <v>0.828223</v>
       </c>
       <c r="D141" t="n">
-        <v>0.828503</v>
+        <v>0.289153</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0.342145</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5626,16 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.332482</v>
+        <v>0.335739</v>
       </c>
       <c r="C142" t="n">
-        <v>0.289394</v>
+        <v>0.8522650000000001</v>
       </c>
       <c r="D142" t="n">
-        <v>0.8524389999999999</v>
+        <v>0.292881</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0.350138</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5643,16 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.339976</v>
+        <v>0.340301</v>
       </c>
       <c r="C143" t="n">
-        <v>0.289964</v>
+        <v>0.877623</v>
       </c>
       <c r="D143" t="n">
-        <v>0.877404</v>
+        <v>0.292347</v>
+      </c>
+      <c r="E143" t="n">
+        <v>0.356205</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Scattered unsuccessful looukp.xlsx
+++ b/clang-x86/Scattered unsuccessful looukp.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="15840" windowWidth="29040" xWindow="-120" yWindow="-120"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="15600" windowWidth="28800" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="plot" sheetId="1" state="visible" r:id="rId1"/>
@@ -89,10 +89,18 @@
         <scatterStyle val="lineMarker"/>
         <varyColors val="0"/>
         <ser>
-          <idx val="3"/>
+          <idx val="0"/>
           <order val="0"/>
           <tx>
-            <v>absl::flat_hash_map</v>
+            <strRef>
+              <f>plot!$B$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>absl::flat_hash_map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -552,430 +560,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0196541</v>
+                  <v>0.0188563</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.022714</v>
+                  <v>0.020482</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0280732</v>
+                  <v>0.0250918</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0383508</v>
+                  <v>0.0324396</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.052548</v>
+                  <v>0.0486736</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.066875</v>
+                  <v>0.0676407</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0901585</v>
+                  <v>0.0914015</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.118385</v>
+                  <v>0.120117</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0166794</v>
+                  <v>0.0161742</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.017095</v>
+                  <v>0.0167609</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0175332</v>
+                  <v>0.017033</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0179948</v>
+                  <v>0.0178156</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0186281</v>
+                  <v>0.0186429</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0208214</v>
+                  <v>0.0201514</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0229571</v>
+                  <v>0.0223364</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0261478</v>
+                  <v>0.0265812</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0314248</v>
+                  <v>0.0315209</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0425587</v>
+                  <v>0.0404218</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0519527</v>
+                  <v>0.0523243</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.07000199999999999</v>
+                  <v>0.068802</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0890392</v>
+                  <v>0.0916015</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.119166</v>
+                  <v>0.115789</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0162997</v>
+                  <v>0.0165559</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0169862</v>
+                  <v>0.01713</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0176941</v>
+                  <v>0.017832</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0184008</v>
+                  <v>0.0186431</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0198508</v>
+                  <v>0.0204344</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0220004</v>
+                  <v>0.0223797</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0252038</v>
+                  <v>0.0260575</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.029776</v>
+                  <v>0.0296827</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0355674</v>
+                  <v>0.0351294</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0445372</v>
+                  <v>0.0439567</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0557284</v>
+                  <v>0.0560566</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0722409</v>
+                  <v>0.0724226</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0937438</v>
+                  <v>0.0942229</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.120898</v>
+                  <v>0.120526</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.017101</v>
+                  <v>0.0171733</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0179106</v>
+                  <v>0.0178413</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0187733</v>
+                  <v>0.0187789</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0201048</v>
+                  <v>0.0201514</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0218759</v>
+                  <v>0.0218874</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0240552</v>
+                  <v>0.0244952</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0282097</v>
+                  <v>0.0277145</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0323602</v>
+                  <v>0.0318614</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0379086</v>
+                  <v>0.038157</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.045608</v>
+                  <v>0.0458946</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.056116</v>
+                  <v>0.0561284</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0707222</v>
+                  <v>0.07138170000000001</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0919893</v>
+                  <v>0.09212090000000001</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.118674</v>
+                  <v>0.117399</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.145772</v>
+                  <v>0.142611</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0196284</v>
+                  <v>0.0191063</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0208398</v>
+                  <v>0.0202054</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0223922</v>
+                  <v>0.0216884</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0244506</v>
+                  <v>0.023762</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.026822</v>
+                  <v>0.0265754</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0309899</v>
+                  <v>0.0299431</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0354207</v>
+                  <v>0.0344095</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0417881</v>
+                  <v>0.0405591</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0476276</v>
+                  <v>0.0475581</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0572692</v>
+                  <v>0.0572633</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0716026</v>
+                  <v>0.0711276</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0905608</v>
+                  <v>0.0912027</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.116785</v>
+                  <v>0.117531</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.147933</v>
+                  <v>0.147591</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0197012</v>
+                  <v>0.0198684</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0211376</v>
+                  <v>0.0210982</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0228213</v>
+                  <v>0.0228671</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0247479</v>
+                  <v>0.0250892</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0274354</v>
+                  <v>0.0274858</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0306606</v>
+                  <v>0.0307585</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0349113</v>
+                  <v>0.0350439</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0401967</v>
+                  <v>0.0401473</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0468474</v>
+                  <v>0.0470655</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0560401</v>
+                  <v>0.0565303</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0688926</v>
+                  <v>0.0694931</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0873152</v>
+                  <v>0.0876659</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.112319</v>
+                  <v>0.112976</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.143939</v>
+                  <v>0.14429</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0198688</v>
+                  <v>0.0201115</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0212272</v>
+                  <v>0.0216766</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0227931</v>
+                  <v>0.0228365</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0248234</v>
+                  <v>0.0248985</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0274348</v>
+                  <v>0.0272584</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0304566</v>
+                  <v>0.0302977</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.03421</v>
+                  <v>0.0342083</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0392722</v>
+                  <v>0.039444</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0457853</v>
+                  <v>0.0458422</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0543613</v>
+                  <v>0.0546333</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0667861</v>
+                  <v>0.0669435</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.0837842</v>
+                  <v>0.0841283</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.107021</v>
+                  <v>0.108178</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.138367</v>
+                  <v>0.139209</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.0206107</v>
+                  <v>0.0208397</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.021977</v>
+                  <v>0.0217789</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.0236946</v>
+                  <v>0.0236136</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.0252601</v>
+                  <v>0.0250037</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0278301</v>
+                  <v>0.0272123</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0304313</v>
+                  <v>0.0306604</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0347894</v>
+                  <v>0.0359699</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0397493</v>
+                  <v>0.0400556</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0462983</v>
+                  <v>0.0464214</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0543709</v>
+                  <v>0.0543718</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.0656243</v>
+                  <v>0.0654956</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.0814584</v>
+                  <v>0.0810722</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.103239</v>
+                  <v>0.102897</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.133268</v>
+                  <v>0.133253</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.169441</v>
+                  <v>0.1679</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.0309188</v>
+                  <v>0.0312378</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.0323647</v>
+                  <v>0.032867</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.034075</v>
+                  <v>0.0343439</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.0358327</v>
+                  <v>0.0361309</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.0383382</v>
+                  <v>0.0383012</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.0406737</v>
+                  <v>0.0408352</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.0441246</v>
+                  <v>0.0439366</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.048723</v>
+                  <v>0.0486743</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.0551746</v>
+                  <v>0.0550738</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.0650047</v>
+                  <v>0.0645583</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.07941529999999999</v>
+                  <v>0.0791676</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.100142</v>
+                  <v>0.0998057</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.128345</v>
+                  <v>0.128197</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.16426</v>
+                  <v>0.163841</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.0340693</v>
+                  <v>0.0345014</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.035891</v>
+                  <v>0.035219</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.0369158</v>
+                  <v>0.0366214</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.0387195</v>
+                  <v>0.0384021</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.0407176</v>
+                  <v>0.0405117</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.0435753</v>
+                  <v>0.0431668</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.0474413</v>
+                  <v>0.0465002</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.0518101</v>
+                  <v>0.0510499</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.0586713</v>
+                  <v>0.0587435</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.06794360000000001</v>
+                  <v>0.0679357</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.0817268</v>
+                  <v>0.0816269</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.101445</v>
+                  <v>0.101812</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.129425</v>
+                  <v>0.129487</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.163873</v>
+                  <v>0.164993</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.0473433</v>
+                  <v>0.0468838</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.0531312</v>
+                  <v>0.0484521</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.058706</v>
+                  <v>0.0493311</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.0582968</v>
+                  <v>0.0507617</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.0553286</v>
+                  <v>0.0532957</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.0675741</v>
+                  <v>0.0554191</v>
                 </pt>
               </numCache>
             </numRef>
@@ -983,10 +991,18 @@
           <smooth val="0"/>
         </ser>
         <ser>
-          <idx val="4"/>
+          <idx val="1"/>
           <order val="1"/>
           <tx>
-            <v>boost::unordered_flat_map</v>
+            <strRef>
+              <f>plot!$C$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::unordered_map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -1446,430 +1462,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0236953</v>
+                  <v>0.0745743</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0249792</v>
+                  <v>0.0818991</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0258301</v>
+                  <v>0.0759394</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.027365</v>
+                  <v>0.0880992</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0285038</v>
+                  <v>0.08153489999999999</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0328798</v>
+                  <v>0.0624356</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0393672</v>
+                  <v>0.061869</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.0204906</v>
+                  <v>0.0683074</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0206485</v>
+                  <v>0.0686766</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0211179</v>
+                  <v>0.07166640000000001</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0213</v>
+                  <v>0.0739997</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0216018</v>
+                  <v>0.077265</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0219038</v>
+                  <v>0.0817507</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0225654</v>
+                  <v>0.0856117</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0230834</v>
+                  <v>0.0866362</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0241669</v>
+                  <v>0.09086229999999999</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0251919</v>
+                  <v>0.09648760000000001</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0266921</v>
+                  <v>0.096305</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.028982</v>
+                  <v>0.09784320000000001</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0333148</v>
+                  <v>0.0664341</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.041356</v>
+                  <v>0.0712783</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.0202092</v>
+                  <v>0.0762056</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0206159</v>
+                  <v>0.0754963</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0208339</v>
+                  <v>0.0791755</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0210765</v>
+                  <v>0.0828492</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0214492</v>
+                  <v>0.08543870000000001</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0218967</v>
+                  <v>0.0887561</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0226372</v>
+                  <v>0.092414</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.023422</v>
+                  <v>0.0948533</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0242916</v>
+                  <v>0.0957143</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0254245</v>
+                  <v>0.09790550000000001</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0274613</v>
+                  <v>0.09936730000000001</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.030458</v>
+                  <v>0.101587</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0342121</v>
+                  <v>0.06934940000000001</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.040763</v>
+                  <v>0.0726347</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.0210932</v>
+                  <v>0.07564949999999999</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0214487</v>
+                  <v>0.0790356</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0217322</v>
+                  <v>0.0818281</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0220884</v>
+                  <v>0.0856015</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0225227</v>
+                  <v>0.08902640000000001</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.022985</v>
+                  <v>0.0915702</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0235789</v>
+                  <v>0.0953242</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0242082</v>
+                  <v>0.0973436</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0251386</v>
+                  <v>0.100137</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.026316</v>
+                  <v>0.102066</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.0281349</v>
+                  <v>0.104689</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0309591</v>
+                  <v>0.106565</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0351441</v>
+                  <v>0.109417</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0422416</v>
+                  <v>0.0759278</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.0221848</v>
+                  <v>0.07929940000000001</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0226422</v>
+                  <v>0.0833945</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0230127</v>
+                  <v>0.08607579999999999</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0233388</v>
+                  <v>0.0893982</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0237292</v>
+                  <v>0.0926165</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0243318</v>
+                  <v>0.09584810000000001</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0249093</v>
+                  <v>0.100165</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0260608</v>
+                  <v>0.101736</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0270795</v>
+                  <v>0.105135</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0277862</v>
+                  <v>0.107339</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0291051</v>
+                  <v>0.109803</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0317252</v>
+                  <v>0.111709</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0360878</v>
+                  <v>0.115496</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0429958</v>
+                  <v>0.0812769</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.0551095</v>
+                  <v>0.08581900000000001</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.0226031</v>
+                  <v>0.09048920000000001</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0229372</v>
+                  <v>0.09512900000000001</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0232973</v>
+                  <v>0.09904019999999999</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.023692</v>
+                  <v>0.103762</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0242143</v>
+                  <v>0.109767</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0247678</v>
+                  <v>0.115064</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0255057</v>
+                  <v>0.119625</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0263971</v>
+                  <v>0.123912</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0276756</v>
+                  <v>0.128639</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0295323</v>
+                  <v>0.136023</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0321746</v>
+                  <v>0.141569</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0363344</v>
+                  <v>0.147324</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0425489</v>
+                  <v>0.114448</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.0534234</v>
+                  <v>0.120419</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.0228514</v>
+                  <v>0.125131</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0231978</v>
+                  <v>0.131477</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0235633</v>
+                  <v>0.139604</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0239172</v>
+                  <v>0.146445</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0244035</v>
+                  <v>0.154887</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.025024</v>
+                  <v>0.163154</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0259339</v>
+                  <v>0.170385</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.0269228</v>
+                  <v>0.178312</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0282665</v>
+                  <v>0.182546</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0299743</v>
+                  <v>0.19023</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0325068</v>
+                  <v>0.200533</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.03601</v>
+                  <v>0.208859</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.0416961</v>
+                  <v>0.157758</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.0509443</v>
+                  <v>0.162746</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.0243696</v>
+                  <v>0.168477</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.0248253</v>
+                  <v>0.17633</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0253215</v>
+                  <v>0.183525</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.0259145</v>
+                  <v>0.190701</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.0267649</v>
+                  <v>0.19753</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0281154</v>
+                  <v>0.204795</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0301922</v>
+                  <v>0.226592</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0330066</v>
+                  <v>0.219043</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0364155</v>
+                  <v>0.227757</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0397311</v>
+                  <v>0.233267</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0428055</v>
+                  <v>0.243865</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.0463608</v>
+                  <v>0.252361</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.0508278</v>
+                  <v>0.261173</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.0575807</v>
+                  <v>0.190647</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.0361449</v>
+                  <v>0.197526</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.0368822</v>
+                  <v>0.203566</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.0379133</v>
+                  <v>0.210146</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.0388181</v>
+                  <v>0.218257</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.0396854</v>
+                  <v>0.224714</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.0406322</v>
+                  <v>0.23258</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.0416831</v>
+                  <v>0.239218</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.0427634</v>
+                  <v>0.24724</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.0439657</v>
+                  <v>0.255715</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.0456052</v>
+                  <v>0.263655</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.0476259</v>
+                  <v>0.271989</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.0501364</v>
+                  <v>0.282797</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.0541071</v>
+                  <v>0.289767</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.0600156</v>
+                  <v>0.206007</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.0702492</v>
+                  <v>0.211597</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.0426162</v>
+                  <v>0.217961</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.0433137</v>
+                  <v>0.22481</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.0441334</v>
+                  <v>0.231511</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.0448138</v>
+                  <v>0.23876</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.0457069</v>
+                  <v>0.246015</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.0468309</v>
+                  <v>0.253902</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.047681</v>
+                  <v>0.261754</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.0488768</v>
+                  <v>0.269215</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.0504662</v>
+                  <v>0.276809</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.0524585</v>
+                  <v>0.285243</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.0553225</v>
+                  <v>0.294416</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.0590454</v>
+                  <v>0.303237</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.0649672</v>
+                  <v>0.212509</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.07502730000000001</v>
+                  <v>0.21893</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.0609618</v>
+                  <v>0.225118</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.0606272</v>
+                  <v>0.232231</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.0716113</v>
+                  <v>0.239705</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.0740532</v>
+                  <v>0.247032</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.075507</v>
+                  <v>0.255056</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.0709659</v>
+                  <v>0.262733</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.0822119</v>
+                  <v>0.271863</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1877,10 +1893,18 @@
           <smooth val="0"/>
         </ser>
         <ser>
-          <idx val="5"/>
+          <idx val="2"/>
           <order val="2"/>
           <tx>
-            <v>boost::unordered_map</v>
+            <strRef>
+              <f>plot!$D$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::unordered_flat_map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -2340,430 +2364,1332 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0628543</v>
+                  <v>0.0212525</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0664814</v>
+                  <v>0.0216004</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.07155309999999999</v>
+                  <v>0.0227228</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0787023</v>
+                  <v>0.0236692</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0762729</v>
+                  <v>0.025734</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0596881</v>
+                  <v>0.0307283</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0581592</v>
+                  <v>0.0400074</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.0642033</v>
+                  <v>0.0191859</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.066584</v>
+                  <v>0.0194145</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.07067469999999999</v>
+                  <v>0.0197171</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.07539460000000001</v>
+                  <v>0.0200098</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0776222</v>
+                  <v>0.0202944</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.08080030000000001</v>
+                  <v>0.0205605</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.08254499999999999</v>
+                  <v>0.0210623</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0868236</v>
+                  <v>0.021745</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0901443</v>
+                  <v>0.0224624</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.09041780000000001</v>
+                  <v>0.0233932</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.09432</v>
+                  <v>0.0246564</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0970657</v>
+                  <v>0.0274191</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0672951</v>
+                  <v>0.0316025</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0716408</v>
+                  <v>0.0413247</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.0714137</v>
+                  <v>0.0187664</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0762883</v>
+                  <v>0.0190384</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0788282</v>
+                  <v>0.019321</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0817253</v>
+                  <v>0.0195661</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0845086</v>
+                  <v>0.0198599</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0872682</v>
+                  <v>0.0203393</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0900213</v>
+                  <v>0.0209382</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0922123</v>
+                  <v>0.0214818</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0951592</v>
+                  <v>0.0223346</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0965795</v>
+                  <v>0.0233779</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0983135</v>
+                  <v>0.0247673</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.101668</v>
+                  <v>0.0273931</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.06976019999999999</v>
+                  <v>0.0317286</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0732333</v>
+                  <v>0.039339</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.07563</v>
+                  <v>0.0193829</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.07849739999999999</v>
+                  <v>0.0197036</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.082784</v>
+                  <v>0.0199834</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.08502469999999999</v>
+                  <v>0.0203028</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0879409</v>
+                  <v>0.0206416</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.091546</v>
+                  <v>0.021054</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0944207</v>
+                  <v>0.0216854</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0970037</v>
+                  <v>0.0224175</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0991208</v>
+                  <v>0.0232548</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.101009</v>
+                  <v>0.0245789</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.103707</v>
+                  <v>0.0261833</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.105854</v>
+                  <v>0.0289704</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.108622</v>
+                  <v>0.0328291</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.07991180000000001</v>
+                  <v>0.0389724</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.0852565</v>
+                  <v>0.0204109</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.09070300000000001</v>
+                  <v>0.0206887</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.100166</v>
+                  <v>0.0209817</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.104121</v>
+                  <v>0.0212755</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.110505</v>
+                  <v>0.0216547</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.118017</v>
+                  <v>0.0221738</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.134799</v>
+                  <v>0.0227227</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.150714</v>
+                  <v>0.0233788</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.149598</v>
+                  <v>0.0243162</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.106064</v>
+                  <v>0.0256636</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.110453</v>
+                  <v>0.0275441</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.112451</v>
+                  <v>0.0301356</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.114784</v>
+                  <v>0.0341597</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0808511</v>
+                  <v>0.0404667</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.0851362</v>
+                  <v>0.0516123</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.0905902</v>
+                  <v>0.0209483</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0957775</v>
+                  <v>0.0212904</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.09995809999999999</v>
+                  <v>0.0216414</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.105452</v>
+                  <v>0.0220066</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.110664</v>
+                  <v>0.022503</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.115302</v>
+                  <v>0.0230597</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.119763</v>
+                  <v>0.023794</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.125554</v>
+                  <v>0.024724</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.130129</v>
+                  <v>0.0259069</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.134996</v>
+                  <v>0.0276355</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.141567</v>
+                  <v>0.0302519</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.147833</v>
+                  <v>0.0340355</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.113894</v>
+                  <v>0.0396979</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.121926</v>
+                  <v>0.049477</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.12561</v>
+                  <v>0.0212779</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.134696</v>
+                  <v>0.0216341</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.13899</v>
+                  <v>0.0219984</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.149483</v>
+                  <v>0.0224363</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.154065</v>
+                  <v>0.0229328</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.163029</v>
+                  <v>0.0235783</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.167705</v>
+                  <v>0.0244305</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.178539</v>
+                  <v>0.0254418</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.186083</v>
+                  <v>0.0267137</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.189656</v>
+                  <v>0.0283454</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.197145</v>
+                  <v>0.0308527</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.214136</v>
+                  <v>0.0342322</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.155917</v>
+                  <v>0.03938</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.163239</v>
+                  <v>0.048197</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.170659</v>
+                  <v>0.0229879</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.176032</v>
+                  <v>0.0234516</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.180564</v>
+                  <v>0.0240067</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.187866</v>
+                  <v>0.0245912</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.197686</v>
+                  <v>0.0253619</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.205106</v>
+                  <v>0.0267537</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.213378</v>
+                  <v>0.0289872</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.22001</v>
+                  <v>0.0317781</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.227646</v>
+                  <v>0.0350402</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.235713</v>
+                  <v>0.0383243</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.243297</v>
+                  <v>0.0415289</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.252123</v>
+                  <v>0.0449303</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.261676</v>
+                  <v>0.0491857</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.190199</v>
+                  <v>0.0555259</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.197145</v>
+                  <v>0.0351129</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.204605</v>
+                  <v>0.0361988</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.21028</v>
+                  <v>0.0370074</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.217256</v>
+                  <v>0.0378667</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.224583</v>
+                  <v>0.0385583</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.233435</v>
+                  <v>0.0395869</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.241083</v>
+                  <v>0.0406235</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.248226</v>
+                  <v>0.0416052</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.256309</v>
+                  <v>0.0428433</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.263815</v>
+                  <v>0.0445415</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.272729</v>
+                  <v>0.0464755</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.281114</v>
+                  <v>0.0489272</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.29099</v>
+                  <v>0.0526395</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.206413</v>
+                  <v>0.0583473</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.211988</v>
+                  <v>0.06810819999999999</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.218375</v>
+                  <v>0.0412799</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.225371</v>
+                  <v>0.0422281</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.233023</v>
+                  <v>0.0429276</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.239145</v>
+                  <v>0.0439297</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.246948</v>
+                  <v>0.0447307</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.254198</v>
+                  <v>0.0457736</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.261944</v>
+                  <v>0.0468762</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.270874</v>
+                  <v>0.0480061</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.277744</v>
+                  <v>0.0495994</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.285401</v>
+                  <v>0.0516555</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.294939</v>
+                  <v>0.0541823</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.304154</v>
+                  <v>0.0578916</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.212796</v>
+                  <v>0.0634131</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.219404</v>
+                  <v>0.07260369999999999</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.226867</v>
+                  <v>0.0591479</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.233183</v>
+                  <v>0.0608915</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.258776</v>
+                  <v>0.0603453</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.2671</v>
+                  <v>0.0608767</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.259936</v>
+                  <v>0.0620272</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.270609</v>
+                  <v>0.0625593</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.281995</v>
+                  <v>0.0640025</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>plot!$E$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::unordered_node_map</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>plot!$A$2:$A$143</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="142"/>
+                <pt idx="0">
+                  <v>10000</v>
+                </pt>
+                <pt idx="1">
+                  <v>10500</v>
+                </pt>
+                <pt idx="2">
+                  <v>11025</v>
+                </pt>
+                <pt idx="3">
+                  <v>11576</v>
+                </pt>
+                <pt idx="4">
+                  <v>12154</v>
+                </pt>
+                <pt idx="5">
+                  <v>12760</v>
+                </pt>
+                <pt idx="6">
+                  <v>13396</v>
+                </pt>
+                <pt idx="7">
+                  <v>14063</v>
+                </pt>
+                <pt idx="8">
+                  <v>14763</v>
+                </pt>
+                <pt idx="9">
+                  <v>15498</v>
+                </pt>
+                <pt idx="10">
+                  <v>16269</v>
+                </pt>
+                <pt idx="11">
+                  <v>17078</v>
+                </pt>
+                <pt idx="12">
+                  <v>17927</v>
+                </pt>
+                <pt idx="13">
+                  <v>18818</v>
+                </pt>
+                <pt idx="14">
+                  <v>19753</v>
+                </pt>
+                <pt idx="15">
+                  <v>20734</v>
+                </pt>
+                <pt idx="16">
+                  <v>21764</v>
+                </pt>
+                <pt idx="17">
+                  <v>22845</v>
+                </pt>
+                <pt idx="18">
+                  <v>23980</v>
+                </pt>
+                <pt idx="19">
+                  <v>25171</v>
+                </pt>
+                <pt idx="20">
+                  <v>26421</v>
+                </pt>
+                <pt idx="21">
+                  <v>27733</v>
+                </pt>
+                <pt idx="22">
+                  <v>29110</v>
+                </pt>
+                <pt idx="23">
+                  <v>30555</v>
+                </pt>
+                <pt idx="24">
+                  <v>32072</v>
+                </pt>
+                <pt idx="25">
+                  <v>33664</v>
+                </pt>
+                <pt idx="26">
+                  <v>35335</v>
+                </pt>
+                <pt idx="27">
+                  <v>37089</v>
+                </pt>
+                <pt idx="28">
+                  <v>38930</v>
+                </pt>
+                <pt idx="29">
+                  <v>40863</v>
+                </pt>
+                <pt idx="30">
+                  <v>42892</v>
+                </pt>
+                <pt idx="31">
+                  <v>45022</v>
+                </pt>
+                <pt idx="32">
+                  <v>47258</v>
+                </pt>
+                <pt idx="33">
+                  <v>49605</v>
+                </pt>
+                <pt idx="34">
+                  <v>52069</v>
+                </pt>
+                <pt idx="35">
+                  <v>54656</v>
+                </pt>
+                <pt idx="36">
+                  <v>57372</v>
+                </pt>
+                <pt idx="37">
+                  <v>60223</v>
+                </pt>
+                <pt idx="38">
+                  <v>63216</v>
+                </pt>
+                <pt idx="39">
+                  <v>66358</v>
+                </pt>
+                <pt idx="40">
+                  <v>69657</v>
+                </pt>
+                <pt idx="41">
+                  <v>73120</v>
+                </pt>
+                <pt idx="42">
+                  <v>76756</v>
+                </pt>
+                <pt idx="43">
+                  <v>80573</v>
+                </pt>
+                <pt idx="44">
+                  <v>84580</v>
+                </pt>
+                <pt idx="45">
+                  <v>88787</v>
+                </pt>
+                <pt idx="46">
+                  <v>93204</v>
+                </pt>
+                <pt idx="47">
+                  <v>97841</v>
+                </pt>
+                <pt idx="48">
+                  <v>102709</v>
+                </pt>
+                <pt idx="49">
+                  <v>107820</v>
+                </pt>
+                <pt idx="50">
+                  <v>113186</v>
+                </pt>
+                <pt idx="51">
+                  <v>118820</v>
+                </pt>
+                <pt idx="52">
+                  <v>124735</v>
+                </pt>
+                <pt idx="53">
+                  <v>130945</v>
+                </pt>
+                <pt idx="54">
+                  <v>137465</v>
+                </pt>
+                <pt idx="55">
+                  <v>144311</v>
+                </pt>
+                <pt idx="56">
+                  <v>151499</v>
+                </pt>
+                <pt idx="57">
+                  <v>159046</v>
+                </pt>
+                <pt idx="58">
+                  <v>166970</v>
+                </pt>
+                <pt idx="59">
+                  <v>175290</v>
+                </pt>
+                <pt idx="60">
+                  <v>184026</v>
+                </pt>
+                <pt idx="61">
+                  <v>193198</v>
+                </pt>
+                <pt idx="62">
+                  <v>202828</v>
+                </pt>
+                <pt idx="63">
+                  <v>212939</v>
+                </pt>
+                <pt idx="64">
+                  <v>223555</v>
+                </pt>
+                <pt idx="65">
+                  <v>234701</v>
+                </pt>
+                <pt idx="66">
+                  <v>246404</v>
+                </pt>
+                <pt idx="67">
+                  <v>258692</v>
+                </pt>
+                <pt idx="68">
+                  <v>271594</v>
+                </pt>
+                <pt idx="69">
+                  <v>285141</v>
+                </pt>
+                <pt idx="70">
+                  <v>299365</v>
+                </pt>
+                <pt idx="71">
+                  <v>314300</v>
+                </pt>
+                <pt idx="72">
+                  <v>329981</v>
+                </pt>
+                <pt idx="73">
+                  <v>346446</v>
+                </pt>
+                <pt idx="74">
+                  <v>363734</v>
+                </pt>
+                <pt idx="75">
+                  <v>381886</v>
+                </pt>
+                <pt idx="76">
+                  <v>400945</v>
+                </pt>
+                <pt idx="77">
+                  <v>420956</v>
+                </pt>
+                <pt idx="78">
+                  <v>441967</v>
+                </pt>
+                <pt idx="79">
+                  <v>464028</v>
+                </pt>
+                <pt idx="80">
+                  <v>487192</v>
+                </pt>
+                <pt idx="81">
+                  <v>511514</v>
+                </pt>
+                <pt idx="82">
+                  <v>537052</v>
+                </pt>
+                <pt idx="83">
+                  <v>563866</v>
+                </pt>
+                <pt idx="84">
+                  <v>592020</v>
+                </pt>
+                <pt idx="85">
+                  <v>621581</v>
+                </pt>
+                <pt idx="86">
+                  <v>652620</v>
+                </pt>
+                <pt idx="87">
+                  <v>685210</v>
+                </pt>
+                <pt idx="88">
+                  <v>719429</v>
+                </pt>
+                <pt idx="89">
+                  <v>755358</v>
+                </pt>
+                <pt idx="90">
+                  <v>793083</v>
+                </pt>
+                <pt idx="91">
+                  <v>832694</v>
+                </pt>
+                <pt idx="92">
+                  <v>874285</v>
+                </pt>
+                <pt idx="93">
+                  <v>917955</v>
+                </pt>
+                <pt idx="94">
+                  <v>963808</v>
+                </pt>
+                <pt idx="95">
+                  <v>1011953</v>
+                </pt>
+                <pt idx="96">
+                  <v>1062505</v>
+                </pt>
+                <pt idx="97">
+                  <v>1115584</v>
+                </pt>
+                <pt idx="98">
+                  <v>1171316</v>
+                </pt>
+                <pt idx="99">
+                  <v>1229834</v>
+                </pt>
+                <pt idx="100">
+                  <v>1291277</v>
+                </pt>
+                <pt idx="101">
+                  <v>1355792</v>
+                </pt>
+                <pt idx="102">
+                  <v>1423532</v>
+                </pt>
+                <pt idx="103">
+                  <v>1494659</v>
+                </pt>
+                <pt idx="104">
+                  <v>1569342</v>
+                </pt>
+                <pt idx="105">
+                  <v>1647759</v>
+                </pt>
+                <pt idx="106">
+                  <v>1730096</v>
+                </pt>
+                <pt idx="107">
+                  <v>1816549</v>
+                </pt>
+                <pt idx="108">
+                  <v>1907324</v>
+                </pt>
+                <pt idx="109">
+                  <v>2002637</v>
+                </pt>
+                <pt idx="110">
+                  <v>2102715</v>
+                </pt>
+                <pt idx="111">
+                  <v>2207796</v>
+                </pt>
+                <pt idx="112">
+                  <v>2318131</v>
+                </pt>
+                <pt idx="113">
+                  <v>2433982</v>
+                </pt>
+                <pt idx="114">
+                  <v>2555625</v>
+                </pt>
+                <pt idx="115">
+                  <v>2683350</v>
+                </pt>
+                <pt idx="116">
+                  <v>2817461</v>
+                </pt>
+                <pt idx="117">
+                  <v>2958277</v>
+                </pt>
+                <pt idx="118">
+                  <v>3106133</v>
+                </pt>
+                <pt idx="119">
+                  <v>3261381</v>
+                </pt>
+                <pt idx="120">
+                  <v>3424391</v>
+                </pt>
+                <pt idx="121">
+                  <v>3595551</v>
+                </pt>
+                <pt idx="122">
+                  <v>3775269</v>
+                </pt>
+                <pt idx="123">
+                  <v>3963972</v>
+                </pt>
+                <pt idx="124">
+                  <v>4162110</v>
+                </pt>
+                <pt idx="125">
+                  <v>4370154</v>
+                </pt>
+                <pt idx="126">
+                  <v>4588600</v>
+                </pt>
+                <pt idx="127">
+                  <v>4817968</v>
+                </pt>
+                <pt idx="128">
+                  <v>5058804</v>
+                </pt>
+                <pt idx="129">
+                  <v>5311681</v>
+                </pt>
+                <pt idx="130">
+                  <v>5577201</v>
+                </pt>
+                <pt idx="131">
+                  <v>5855997</v>
+                </pt>
+                <pt idx="132">
+                  <v>6148732</v>
+                </pt>
+                <pt idx="133">
+                  <v>6456103</v>
+                </pt>
+                <pt idx="134">
+                  <v>6778842</v>
+                </pt>
+                <pt idx="135">
+                  <v>7117717</v>
+                </pt>
+                <pt idx="136">
+                  <v>7473535</v>
+                </pt>
+                <pt idx="137">
+                  <v>7847143</v>
+                </pt>
+                <pt idx="138">
+                  <v>8239431</v>
+                </pt>
+                <pt idx="139">
+                  <v>8651333</v>
+                </pt>
+                <pt idx="140">
+                  <v>9083830</v>
+                </pt>
+                <pt idx="141">
+                  <v>9537951</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>plot!$E$2:$E$143</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="142"/>
+                <pt idx="0">
+                  <v>0.0214076</v>
+                </pt>
+                <pt idx="1">
+                  <v>0.0220449</v>
+                </pt>
+                <pt idx="2">
+                  <v>0.0228814</v>
+                </pt>
+                <pt idx="3">
+                  <v>0.0238445</v>
+                </pt>
+                <pt idx="4">
+                  <v>0.0259967</v>
+                </pt>
+                <pt idx="5">
+                  <v>0.0308818</v>
+                </pt>
+                <pt idx="6">
+                  <v>0.0397899</v>
+                </pt>
+                <pt idx="7">
+                  <v>0.0190868</v>
+                </pt>
+                <pt idx="8">
+                  <v>0.0193166</v>
+                </pt>
+                <pt idx="9">
+                  <v>0.0195902</v>
+                </pt>
+                <pt idx="10">
+                  <v>0.0199197</v>
+                </pt>
+                <pt idx="11">
+                  <v>0.0202396</v>
+                </pt>
+                <pt idx="12">
+                  <v>0.0206034</v>
+                </pt>
+                <pt idx="13">
+                  <v>0.0211027</v>
+                </pt>
+                <pt idx="14">
+                  <v>0.02181</v>
+                </pt>
+                <pt idx="15">
+                  <v>0.0225325</v>
+                </pt>
+                <pt idx="16">
+                  <v>0.0234089</v>
+                </pt>
+                <pt idx="17">
+                  <v>0.0246829</v>
+                </pt>
+                <pt idx="18">
+                  <v>0.0272518</v>
+                </pt>
+                <pt idx="19">
+                  <v>0.0319929</v>
+                </pt>
+                <pt idx="20">
+                  <v>0.0414377</v>
+                </pt>
+                <pt idx="21">
+                  <v>0.0188357</v>
+                </pt>
+                <pt idx="22">
+                  <v>0.0191047</v>
+                </pt>
+                <pt idx="23">
+                  <v>0.019293</v>
+                </pt>
+                <pt idx="24">
+                  <v>0.0195628</v>
+                </pt>
+                <pt idx="25">
+                  <v>0.020006</v>
+                </pt>
+                <pt idx="26">
+                  <v>0.0203576</v>
+                </pt>
+                <pt idx="27">
+                  <v>0.0209983</v>
+                </pt>
+                <pt idx="28">
+                  <v>0.0216036</v>
+                </pt>
+                <pt idx="29">
+                  <v>0.0224206</v>
+                </pt>
+                <pt idx="30">
+                  <v>0.0234567</v>
+                </pt>
+                <pt idx="31">
+                  <v>0.0248701</v>
+                </pt>
+                <pt idx="32">
+                  <v>0.0276153</v>
+                </pt>
+                <pt idx="33">
+                  <v>0.0319171</v>
+                </pt>
+                <pt idx="34">
+                  <v>0.0394712</v>
+                </pt>
+                <pt idx="35">
+                  <v>0.0194612</v>
+                </pt>
+                <pt idx="36">
+                  <v>0.019774</v>
+                </pt>
+                <pt idx="37">
+                  <v>0.0200997</v>
+                </pt>
+                <pt idx="38">
+                  <v>0.0204224</v>
+                </pt>
+                <pt idx="39">
+                  <v>0.0207986</v>
+                </pt>
+                <pt idx="40">
+                  <v>0.0212501</v>
+                </pt>
+                <pt idx="41">
+                  <v>0.0218422</v>
+                </pt>
+                <pt idx="42">
+                  <v>0.0225976</v>
+                </pt>
+                <pt idx="43">
+                  <v>0.023464</v>
+                </pt>
+                <pt idx="44">
+                  <v>0.0247861</v>
+                </pt>
+                <pt idx="45">
+                  <v>0.0263224</v>
+                </pt>
+                <pt idx="46">
+                  <v>0.0291543</v>
+                </pt>
+                <pt idx="47">
+                  <v>0.0329324</v>
+                </pt>
+                <pt idx="48">
+                  <v>0.0390016</v>
+                </pt>
+                <pt idx="49">
+                  <v>0.0204605</v>
+                </pt>
+                <pt idx="50">
+                  <v>0.020763</v>
+                </pt>
+                <pt idx="51">
+                  <v>0.0211036</v>
+                </pt>
+                <pt idx="52">
+                  <v>0.0214464</v>
+                </pt>
+                <pt idx="53">
+                  <v>0.0218044</v>
+                </pt>
+                <pt idx="54">
+                  <v>0.02235</v>
+                </pt>
+                <pt idx="55">
+                  <v>0.0228519</v>
+                </pt>
+                <pt idx="56">
+                  <v>0.0235195</v>
+                </pt>
+                <pt idx="57">
+                  <v>0.0244936</v>
+                </pt>
+                <pt idx="58">
+                  <v>0.0258272</v>
+                </pt>
+                <pt idx="59">
+                  <v>0.0276262</v>
+                </pt>
+                <pt idx="60">
+                  <v>0.0303212</v>
+                </pt>
+                <pt idx="61">
+                  <v>0.0343892</v>
+                </pt>
+                <pt idx="62">
+                  <v>0.0407201</v>
+                </pt>
+                <pt idx="63">
+                  <v>0.0517515</v>
+                </pt>
+                <pt idx="64">
+                  <v>0.0210642</v>
+                </pt>
+                <pt idx="65">
+                  <v>0.0214078</v>
+                </pt>
+                <pt idx="66">
+                  <v>0.0217171</v>
+                </pt>
+                <pt idx="67">
+                  <v>0.0221679</v>
+                </pt>
+                <pt idx="68">
+                  <v>0.0225732</v>
+                </pt>
+                <pt idx="69">
+                  <v>0.0231145</v>
+                </pt>
+                <pt idx="70">
+                  <v>0.023886</v>
+                </pt>
+                <pt idx="71">
+                  <v>0.0248041</v>
+                </pt>
+                <pt idx="72">
+                  <v>0.0260928</v>
+                </pt>
+                <pt idx="73">
+                  <v>0.0279417</v>
+                </pt>
+                <pt idx="74">
+                  <v>0.0307152</v>
+                </pt>
+                <pt idx="75">
+                  <v>0.0341993</v>
+                </pt>
+                <pt idx="76">
+                  <v>0.0399898</v>
+                </pt>
+                <pt idx="77">
+                  <v>0.0497379</v>
+                </pt>
+                <pt idx="78">
+                  <v>0.0218936</v>
+                </pt>
+                <pt idx="79">
+                  <v>0.0223402</v>
+                </pt>
+                <pt idx="80">
+                  <v>0.0229967</v>
+                </pt>
+                <pt idx="81">
+                  <v>0.0238374</v>
+                </pt>
+                <pt idx="82">
+                  <v>0.0244912</v>
+                </pt>
+                <pt idx="83">
+                  <v>0.0255432</v>
+                </pt>
+                <pt idx="84">
+                  <v>0.0269618</v>
+                </pt>
+                <pt idx="85">
+                  <v>0.0283241</v>
+                </pt>
+                <pt idx="86">
+                  <v>0.0302692</v>
+                </pt>
+                <pt idx="87">
+                  <v>0.0321612</v>
+                </pt>
+                <pt idx="88">
+                  <v>0.0348082</v>
+                </pt>
+                <pt idx="89">
+                  <v>0.0382122</v>
+                </pt>
+                <pt idx="90">
+                  <v>0.0434233</v>
+                </pt>
+                <pt idx="91">
+                  <v>0.0534129</v>
+                </pt>
+                <pt idx="92">
+                  <v>0.0282249</v>
+                </pt>
+                <pt idx="93">
+                  <v>0.029139</v>
+                </pt>
+                <pt idx="94">
+                  <v>0.03133</v>
+                </pt>
+                <pt idx="95">
+                  <v>0.0341335</v>
+                </pt>
+                <pt idx="96">
+                  <v>0.0381704</v>
+                </pt>
+                <pt idx="97">
+                  <v>0.0428413</v>
+                </pt>
+                <pt idx="98">
+                  <v>0.0471767</v>
+                </pt>
+                <pt idx="99">
+                  <v>0.0508107</v>
+                </pt>
+                <pt idx="100">
+                  <v>0.0541568</v>
+                </pt>
+                <pt idx="101">
+                  <v>0.0573175</v>
+                </pt>
+                <pt idx="102">
+                  <v>0.0605919</v>
+                </pt>
+                <pt idx="103">
+                  <v>0.06430470000000001</v>
+                </pt>
+                <pt idx="104">
+                  <v>0.06932820000000001</v>
+                </pt>
+                <pt idx="105">
+                  <v>0.07656540000000001</v>
+                </pt>
+                <pt idx="106">
+                  <v>0.0513709</v>
+                </pt>
+                <pt idx="107">
+                  <v>0.0528133</v>
+                </pt>
+                <pt idx="108">
+                  <v>0.0541587</v>
+                </pt>
+                <pt idx="109">
+                  <v>0.0555634</v>
+                </pt>
+                <pt idx="110">
+                  <v>0.0569233</v>
+                </pt>
+                <pt idx="111">
+                  <v>0.0585293</v>
+                </pt>
+                <pt idx="112">
+                  <v>0.0602617</v>
+                </pt>
+                <pt idx="113">
+                  <v>0.0619037</v>
+                </pt>
+                <pt idx="114">
+                  <v>0.0640491</v>
+                </pt>
+                <pt idx="115">
+                  <v>0.0662812</v>
+                </pt>
+                <pt idx="116">
+                  <v>0.06915499999999999</v>
+                </pt>
+                <pt idx="117">
+                  <v>0.07276100000000001</v>
+                </pt>
+                <pt idx="118">
+                  <v>0.07756780000000001</v>
+                </pt>
+                <pt idx="119">
+                  <v>0.0847301</v>
+                </pt>
+                <pt idx="120">
+                  <v>0.0960261</v>
+                </pt>
+                <pt idx="121">
+                  <v>0.0604808</v>
+                </pt>
+                <pt idx="122">
+                  <v>0.0618613</v>
+                </pt>
+                <pt idx="123">
+                  <v>0.0635545</v>
+                </pt>
+                <pt idx="124">
+                  <v>0.0648304</v>
+                </pt>
+                <pt idx="125">
+                  <v>0.06670520000000001</v>
+                </pt>
+                <pt idx="126">
+                  <v>0.0683797</v>
+                </pt>
+                <pt idx="127">
+                  <v>0.0702016</v>
+                </pt>
+                <pt idx="128">
+                  <v>0.0724499</v>
+                </pt>
+                <pt idx="129">
+                  <v>0.07498920000000001</v>
+                </pt>
+                <pt idx="130">
+                  <v>0.0779345</v>
+                </pt>
+                <pt idx="131">
+                  <v>0.081499</v>
+                </pt>
+                <pt idx="132">
+                  <v>0.0866347</v>
+                </pt>
+                <pt idx="133">
+                  <v>0.09380090000000001</v>
+                </pt>
+                <pt idx="134">
+                  <v>0.105376</v>
+                </pt>
+                <pt idx="135">
+                  <v>0.0789271</v>
+                </pt>
+                <pt idx="136">
+                  <v>0.0802612</v>
+                </pt>
+                <pt idx="137">
+                  <v>0.08157540000000001</v>
+                </pt>
+                <pt idx="138">
+                  <v>0.0829015</v>
+                </pt>
+                <pt idx="139">
+                  <v>0.0845514</v>
+                </pt>
+                <pt idx="140">
+                  <v>0.08594209999999999</v>
+                </pt>
+                <pt idx="141">
+                  <v>0.0877042</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2865,8 +3791,8 @@
           <hMode val="factor"/>
           <x val="0.09943851078021188"/>
           <y val="0.05455922082745843"/>
-          <w val="0.3953147440728324"/>
-          <h val="0.2347463490140655"/>
+          <w val="0.3308817338426756"/>
+          <h val="0.2472877044215627"/>
         </manualLayout>
       </layout>
       <overlay val="0"/>
@@ -3215,8 +4141,8 @@
   </sheetPr>
   <dimension ref="A1:E143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3232,12 +4158,17 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>foa_unordered_rc16_map</t>
+          <t>boost::unordered_map</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>foa_unordered_rc15_map</t>
+          <t>boost::unordered_flat_map</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>boost::unordered_node_map</t>
         </is>
       </c>
     </row>

--- a/clang-x86/Scattered unsuccessful looukp.xlsx
+++ b/clang-x86/Scattered unsuccessful looukp.xlsx
@@ -4177,16 +4177,16 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.09344189999999999</v>
+        <v>0.094276</v>
       </c>
       <c r="C2" t="n">
-        <v>0.185853</v>
+        <v>0.0962925</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0836297</v>
+        <v>0.08449660000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0848225</v>
+        <v>0.08444500000000001</v>
       </c>
     </row>
     <row r="3">
@@ -4194,16 +4194,16 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.100458</v>
+        <v>0.10162</v>
       </c>
       <c r="C3" t="n">
-        <v>0.193795</v>
+        <v>0.102024</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0843213</v>
+        <v>0.0854104</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0853911</v>
+        <v>0.08529100000000001</v>
       </c>
     </row>
     <row r="4">
@@ -4211,16 +4211,16 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.112963</v>
+        <v>0.109962</v>
       </c>
       <c r="C4" t="n">
-        <v>0.201413</v>
+        <v>0.112898</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0856152</v>
+        <v>0.08729049999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0868448</v>
+        <v>0.0866468</v>
       </c>
     </row>
     <row r="5">
@@ -4228,16 +4228,16 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.127165</v>
+        <v>0.128634</v>
       </c>
       <c r="C5" t="n">
-        <v>0.209653</v>
+        <v>0.129034</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0866793</v>
+        <v>0.08943959999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>0.08886910000000001</v>
+        <v>0.0883705</v>
       </c>
     </row>
     <row r="6">
@@ -4245,16 +4245,16 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.151704</v>
+        <v>0.147132</v>
       </c>
       <c r="C6" t="n">
-        <v>0.214592</v>
+        <v>0.154248</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0886276</v>
+        <v>0.0925967</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0906457</v>
+        <v>0.0901412</v>
       </c>
     </row>
     <row r="7">
@@ -4262,16 +4262,16 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.186473</v>
+        <v>0.179557</v>
       </c>
       <c r="C7" t="n">
-        <v>0.162872</v>
+        <v>0.184574</v>
       </c>
       <c r="D7" t="n">
-        <v>0.09419859999999999</v>
+        <v>0.0994201</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0961665</v>
+        <v>0.0953538</v>
       </c>
     </row>
     <row r="8">
@@ -4279,16 +4279,16 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.226251</v>
+        <v>0.217608</v>
       </c>
       <c r="C8" t="n">
-        <v>0.170878</v>
+        <v>0.219567</v>
       </c>
       <c r="D8" t="n">
-        <v>0.105958</v>
+        <v>0.110249</v>
       </c>
       <c r="E8" t="n">
-        <v>0.108329</v>
+        <v>0.107809</v>
       </c>
     </row>
     <row r="9">
@@ -4296,16 +4296,16 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.261329</v>
+        <v>0.261734</v>
       </c>
       <c r="C9" t="n">
-        <v>0.177959</v>
+        <v>0.267118</v>
       </c>
       <c r="D9" t="n">
-        <v>0.08199480000000001</v>
+        <v>0.0822895</v>
       </c>
       <c r="E9" t="n">
-        <v>0.082662</v>
+        <v>0.08244319999999999</v>
       </c>
     </row>
     <row r="10">
@@ -4313,16 +4313,16 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.08670659999999999</v>
+        <v>0.086081</v>
       </c>
       <c r="C10" t="n">
-        <v>0.184994</v>
+        <v>0.0865321</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0823102</v>
+        <v>0.0825538</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0829651</v>
+        <v>0.0828222</v>
       </c>
     </row>
     <row r="11">
@@ -4330,16 +4330,16 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.08753900000000001</v>
+        <v>0.08685900000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>0.192122</v>
+        <v>0.08763840000000001</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0827184</v>
+        <v>0.0829684</v>
       </c>
       <c r="E11" t="n">
-        <v>0.08347499999999999</v>
+        <v>0.0832441</v>
       </c>
     </row>
     <row r="12">
@@ -4347,16 +4347,16 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0881723</v>
+        <v>0.0878278</v>
       </c>
       <c r="C12" t="n">
-        <v>0.198757</v>
+        <v>0.0881644</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0827807</v>
+        <v>0.083257</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0836882</v>
+        <v>0.08345370000000001</v>
       </c>
     </row>
     <row r="13">
@@ -4364,16 +4364,16 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0897926</v>
+        <v>0.0895804</v>
       </c>
       <c r="C13" t="n">
-        <v>0.205408</v>
+        <v>0.09031640000000001</v>
       </c>
       <c r="D13" t="n">
-        <v>0.08297980000000001</v>
+        <v>0.0834391</v>
       </c>
       <c r="E13" t="n">
-        <v>0.08415</v>
+        <v>0.08378819999999999</v>
       </c>
     </row>
     <row r="14">
@@ -4381,16 +4381,16 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0924758</v>
+        <v>0.09191630000000001</v>
       </c>
       <c r="C14" t="n">
-        <v>0.211293</v>
+        <v>0.0928576</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0833023</v>
+        <v>0.0839037</v>
       </c>
       <c r="E14" t="n">
-        <v>0.084323</v>
+        <v>0.0841171</v>
       </c>
     </row>
     <row r="15">
@@ -4398,16 +4398,16 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0950744</v>
+        <v>0.0948816</v>
       </c>
       <c r="C15" t="n">
-        <v>0.218433</v>
+        <v>0.0958933</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0837778</v>
+        <v>0.084384</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0848482</v>
+        <v>0.0846624</v>
       </c>
     </row>
     <row r="16">
@@ -4415,16 +4415,16 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.100071</v>
+        <v>0.09927900000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>0.226548</v>
+        <v>0.100781</v>
       </c>
       <c r="D16" t="n">
-        <v>0.08422010000000001</v>
+        <v>0.0850014</v>
       </c>
       <c r="E16" t="n">
-        <v>0.08545129999999999</v>
+        <v>0.0851972</v>
       </c>
     </row>
     <row r="17">
@@ -4432,16 +4432,16 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.106461</v>
+        <v>0.105376</v>
       </c>
       <c r="C17" t="n">
-        <v>0.232466</v>
+        <v>0.107782</v>
       </c>
       <c r="D17" t="n">
-        <v>0.08515689999999999</v>
+        <v>0.0862864</v>
       </c>
       <c r="E17" t="n">
-        <v>0.086898</v>
+        <v>0.0863831</v>
       </c>
     </row>
     <row r="18">
@@ -4449,16 +4449,16 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.117858</v>
+        <v>0.115691</v>
       </c>
       <c r="C18" t="n">
-        <v>0.238281</v>
+        <v>0.118216</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0864578</v>
+        <v>0.0877534</v>
       </c>
       <c r="E18" t="n">
-        <v>0.08833240000000001</v>
+        <v>0.0877595</v>
       </c>
     </row>
     <row r="19">
@@ -4466,16 +4466,16 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.131931</v>
+        <v>0.129752</v>
       </c>
       <c r="C19" t="n">
-        <v>0.246068</v>
+        <v>0.133554</v>
       </c>
       <c r="D19" t="n">
-        <v>0.08820269999999999</v>
+        <v>0.0900792</v>
       </c>
       <c r="E19" t="n">
-        <v>0.09043379999999999</v>
+        <v>0.0901063</v>
       </c>
     </row>
     <row r="20">
@@ -4483,16 +4483,16 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.150289</v>
+        <v>0.14794</v>
       </c>
       <c r="C20" t="n">
-        <v>0.252143</v>
+        <v>0.151788</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0910605</v>
+        <v>0.09339749999999999</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0935386</v>
+        <v>0.09318</v>
       </c>
     </row>
     <row r="21">
@@ -4500,16 +4500,16 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.185701</v>
+        <v>0.175798</v>
       </c>
       <c r="C21" t="n">
-        <v>0.185133</v>
+        <v>0.179102</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0970308</v>
+        <v>0.0988339</v>
       </c>
       <c r="E21" t="n">
-        <v>0.100027</v>
+        <v>0.0992064</v>
       </c>
     </row>
     <row r="22">
@@ -4517,16 +4517,16 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.211862</v>
+        <v>0.211131</v>
       </c>
       <c r="C22" t="n">
-        <v>0.191898</v>
+        <v>0.214201</v>
       </c>
       <c r="D22" t="n">
-        <v>0.108992</v>
+        <v>0.109447</v>
       </c>
       <c r="E22" t="n">
-        <v>0.111374</v>
+        <v>0.111862</v>
       </c>
     </row>
     <row r="23">
@@ -4534,16 +4534,16 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.258193</v>
+        <v>0.257921</v>
       </c>
       <c r="C23" t="n">
-        <v>0.197692</v>
+        <v>0.255494</v>
       </c>
       <c r="D23" t="n">
-        <v>0.082958</v>
+        <v>0.08336150000000001</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0842029</v>
+        <v>0.0842353</v>
       </c>
     </row>
     <row r="24">
@@ -4551,16 +4551,16 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0901612</v>
+        <v>0.0901219</v>
       </c>
       <c r="C24" t="n">
-        <v>0.207471</v>
+        <v>0.0915035</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0832596</v>
+        <v>0.0836156</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0844757</v>
+        <v>0.08455310000000001</v>
       </c>
     </row>
     <row r="25">
@@ -4568,16 +4568,16 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0913318</v>
+        <v>0.0912427</v>
       </c>
       <c r="C25" t="n">
-        <v>0.214029</v>
+        <v>0.09339359999999999</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0834588</v>
+        <v>0.0839357</v>
       </c>
       <c r="E25" t="n">
-        <v>0.08498699999999999</v>
+        <v>0.0849139</v>
       </c>
     </row>
     <row r="26">
@@ -4585,16 +4585,16 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0931168</v>
+        <v>0.0928575</v>
       </c>
       <c r="C26" t="n">
-        <v>0.22116</v>
+        <v>0.095084</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0838222</v>
+        <v>0.08417189999999999</v>
       </c>
       <c r="E26" t="n">
-        <v>0.08540540000000001</v>
+        <v>0.0854303</v>
       </c>
     </row>
     <row r="27">
@@ -4602,16 +4602,16 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0949559</v>
+        <v>0.0948532</v>
       </c>
       <c r="C27" t="n">
-        <v>0.228786</v>
+        <v>0.0970922</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0843117</v>
+        <v>0.0847093</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0862917</v>
+        <v>0.086025</v>
       </c>
     </row>
     <row r="28">
@@ -4619,16 +4619,16 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0984068</v>
+        <v>0.09781960000000001</v>
       </c>
       <c r="C28" t="n">
-        <v>0.235803</v>
+        <v>0.100031</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0848081</v>
+        <v>0.08527369999999999</v>
       </c>
       <c r="E28" t="n">
-        <v>0.08722050000000001</v>
+        <v>0.0868818</v>
       </c>
     </row>
     <row r="29">
@@ -4636,16 +4636,16 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.102646</v>
+        <v>0.101873</v>
       </c>
       <c r="C29" t="n">
-        <v>0.240695</v>
+        <v>0.10432</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0852728</v>
+        <v>0.0857242</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0878258</v>
+        <v>0.0876483</v>
       </c>
     </row>
     <row r="30">
@@ -4653,16 +4653,16 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.108024</v>
+        <v>0.106887</v>
       </c>
       <c r="C30" t="n">
-        <v>0.246449</v>
+        <v>0.112839</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0860235</v>
+        <v>0.0865061</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0887459</v>
+        <v>0.0887879</v>
       </c>
     </row>
     <row r="31">
@@ -4670,16 +4670,16 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.116101</v>
+        <v>0.114394</v>
       </c>
       <c r="C31" t="n">
-        <v>0.251344</v>
+        <v>0.121543</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0869158</v>
+        <v>0.0875465</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0902155</v>
+        <v>0.09012439999999999</v>
       </c>
     </row>
     <row r="32">
@@ -4687,16 +4687,16 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.125878</v>
+        <v>0.123799</v>
       </c>
       <c r="C32" t="n">
-        <v>0.259559</v>
+        <v>0.131185</v>
       </c>
       <c r="D32" t="n">
-        <v>0.08854049999999999</v>
+        <v>0.0893958</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0924862</v>
+        <v>0.09203500000000001</v>
       </c>
     </row>
     <row r="33">
@@ -4704,16 +4704,16 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.139701</v>
+        <v>0.137248</v>
       </c>
       <c r="C33" t="n">
-        <v>0.26365</v>
+        <v>0.141109</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0907646</v>
+        <v>0.0918254</v>
       </c>
       <c r="E33" t="n">
-        <v>0.09476850000000001</v>
+        <v>0.0945873</v>
       </c>
     </row>
     <row r="34">
@@ -4721,16 +4721,16 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.158292</v>
+        <v>0.156118</v>
       </c>
       <c r="C34" t="n">
-        <v>0.26939</v>
+        <v>0.158887</v>
       </c>
       <c r="D34" t="n">
-        <v>0.09462280000000001</v>
+        <v>0.0954921</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0988628</v>
+        <v>0.0995866</v>
       </c>
     </row>
     <row r="35">
@@ -4738,16 +4738,16 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.181838</v>
+        <v>0.179477</v>
       </c>
       <c r="C35" t="n">
-        <v>0.196051</v>
+        <v>0.181604</v>
       </c>
       <c r="D35" t="n">
-        <v>0.101689</v>
+        <v>0.1021</v>
       </c>
       <c r="E35" t="n">
-        <v>0.105913</v>
+        <v>0.10612</v>
       </c>
     </row>
     <row r="36">
@@ -4755,16 +4755,16 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.215503</v>
+        <v>0.212697</v>
       </c>
       <c r="C36" t="n">
-        <v>0.202427</v>
+        <v>0.215967</v>
       </c>
       <c r="D36" t="n">
-        <v>0.113016</v>
+        <v>0.11337</v>
       </c>
       <c r="E36" t="n">
-        <v>0.117167</v>
+        <v>0.117523</v>
       </c>
     </row>
     <row r="37">
@@ -4772,16 +4772,16 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.254787</v>
+        <v>0.255143</v>
       </c>
       <c r="C37" t="n">
-        <v>0.210382</v>
+        <v>0.258824</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0837649</v>
+        <v>0.08409999999999999</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0869113</v>
+        <v>0.0872724</v>
       </c>
     </row>
     <row r="38">
@@ -4789,16 +4789,16 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0928253</v>
+        <v>0.09263399999999999</v>
       </c>
       <c r="C38" t="n">
-        <v>0.217574</v>
+        <v>0.0955883</v>
       </c>
       <c r="D38" t="n">
-        <v>0.08406329999999999</v>
+        <v>0.0844184</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0875499</v>
+        <v>0.0872767</v>
       </c>
     </row>
     <row r="39">
@@ -4806,16 +4806,16 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.09413879999999999</v>
+        <v>0.09380049999999999</v>
       </c>
       <c r="C39" t="n">
-        <v>0.225877</v>
+        <v>0.0967995</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0842907</v>
+        <v>0.0847855</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0879277</v>
+        <v>0.08773259999999999</v>
       </c>
     </row>
     <row r="40">
@@ -4823,16 +4823,16 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0957582</v>
+        <v>0.0954473</v>
       </c>
       <c r="C40" t="n">
-        <v>0.233286</v>
+        <v>0.0985263</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0846218</v>
+        <v>0.08503189999999999</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0885498</v>
+        <v>0.0882202</v>
       </c>
     </row>
     <row r="41">
@@ -4840,16 +4840,16 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0979941</v>
+        <v>0.0977479</v>
       </c>
       <c r="C41" t="n">
-        <v>0.239663</v>
+        <v>0.10077</v>
       </c>
       <c r="D41" t="n">
-        <v>0.085068</v>
+        <v>0.08557720000000001</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0889754</v>
+        <v>0.08884789999999999</v>
       </c>
     </row>
     <row r="42">
@@ -4857,16 +4857,16 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.101272</v>
+        <v>0.100503</v>
       </c>
       <c r="C42" t="n">
-        <v>0.246665</v>
+        <v>0.103839</v>
       </c>
       <c r="D42" t="n">
-        <v>0.08547150000000001</v>
+        <v>0.0859649</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0896537</v>
+        <v>0.0894075</v>
       </c>
     </row>
     <row r="43">
@@ -4874,16 +4874,16 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.104619</v>
+        <v>0.103882</v>
       </c>
       <c r="C43" t="n">
-        <v>0.252795</v>
+        <v>0.107532</v>
       </c>
       <c r="D43" t="n">
-        <v>0.08588419999999999</v>
+        <v>0.08648599999999999</v>
       </c>
       <c r="E43" t="n">
-        <v>0.09026149999999999</v>
+        <v>0.0899643</v>
       </c>
     </row>
     <row r="44">
@@ -4891,16 +4891,16 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.110078</v>
+        <v>0.108635</v>
       </c>
       <c r="C44" t="n">
-        <v>0.25914</v>
+        <v>0.112973</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0871644</v>
+        <v>0.08746180000000001</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0911921</v>
+        <v>0.0909544</v>
       </c>
     </row>
     <row r="45">
@@ -4908,16 +4908,16 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.116979</v>
+        <v>0.115288</v>
       </c>
       <c r="C45" t="n">
-        <v>0.265134</v>
+        <v>0.119063</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0876702</v>
+        <v>0.08847770000000001</v>
       </c>
       <c r="E45" t="n">
-        <v>0.09241630000000001</v>
+        <v>0.09217019999999999</v>
       </c>
     </row>
     <row r="46">
@@ -4925,16 +4925,16 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.125401</v>
+        <v>0.123705</v>
       </c>
       <c r="C46" t="n">
-        <v>0.271122</v>
+        <v>0.130828</v>
       </c>
       <c r="D46" t="n">
-        <v>0.08913889999999999</v>
+        <v>0.0898378</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0943089</v>
+        <v>0.09380380000000001</v>
       </c>
     </row>
     <row r="47">
@@ -4942,16 +4942,16 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.136392</v>
+        <v>0.134218</v>
       </c>
       <c r="C47" t="n">
-        <v>0.276648</v>
+        <v>0.138957</v>
       </c>
       <c r="D47" t="n">
-        <v>0.09135070000000001</v>
+        <v>0.0921481</v>
       </c>
       <c r="E47" t="n">
-        <v>0.09644990000000001</v>
+        <v>0.09635879999999999</v>
       </c>
     </row>
     <row r="48">
@@ -4959,16 +4959,16 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.151881</v>
+        <v>0.156928</v>
       </c>
       <c r="C48" t="n">
-        <v>0.282272</v>
+        <v>0.154525</v>
       </c>
       <c r="D48" t="n">
-        <v>0.09483419999999999</v>
+        <v>0.0953817</v>
       </c>
       <c r="E48" t="n">
-        <v>0.100123</v>
+        <v>0.10005</v>
       </c>
     </row>
     <row r="49">
@@ -4976,16 +4976,16 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.174942</v>
+        <v>0.171345</v>
       </c>
       <c r="C49" t="n">
-        <v>0.288065</v>
+        <v>0.177365</v>
       </c>
       <c r="D49" t="n">
-        <v>0.100346</v>
+        <v>0.100877</v>
       </c>
       <c r="E49" t="n">
-        <v>0.105884</v>
+        <v>0.106719</v>
       </c>
     </row>
     <row r="50">
@@ -4993,16 +4993,16 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.213679</v>
+        <v>0.203787</v>
       </c>
       <c r="C50" t="n">
-        <v>0.202118</v>
+        <v>0.208057</v>
       </c>
       <c r="D50" t="n">
-        <v>0.110019</v>
+        <v>0.110976</v>
       </c>
       <c r="E50" t="n">
-        <v>0.115669</v>
+        <v>0.115967</v>
       </c>
     </row>
     <row r="51">
@@ -5010,16 +5010,16 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.250904</v>
+        <v>0.251473</v>
       </c>
       <c r="C51" t="n">
-        <v>0.209852</v>
+        <v>0.249625</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0858059</v>
+        <v>0.08599809999999999</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0898649</v>
+        <v>0.08952889999999999</v>
       </c>
     </row>
     <row r="52">
@@ -5027,16 +5027,16 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.293381</v>
+        <v>0.29191</v>
       </c>
       <c r="C52" t="n">
-        <v>0.216375</v>
+        <v>0.295043</v>
       </c>
       <c r="D52" t="n">
-        <v>0.08598649999999999</v>
+        <v>0.08660519999999999</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0911501</v>
+        <v>0.08995</v>
       </c>
     </row>
     <row r="53">
@@ -5044,16 +5044,16 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.09651999999999999</v>
+        <v>0.09598080000000001</v>
       </c>
       <c r="C53" t="n">
-        <v>0.224267</v>
+        <v>0.100688</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0869703</v>
+        <v>0.0868501</v>
       </c>
       <c r="E53" t="n">
-        <v>0.09076239999999999</v>
+        <v>0.09027549999999999</v>
       </c>
     </row>
     <row r="54">
@@ -5061,16 +5061,16 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0994189</v>
+        <v>0.0996195</v>
       </c>
       <c r="C54" t="n">
-        <v>0.231018</v>
+        <v>0.104574</v>
       </c>
       <c r="D54" t="n">
-        <v>0.08613560000000001</v>
+        <v>0.0871088</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0921558</v>
+        <v>0.09133579999999999</v>
       </c>
     </row>
     <row r="55">
@@ -5078,16 +5078,16 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.101557</v>
+        <v>0.101026</v>
       </c>
       <c r="C55" t="n">
-        <v>0.238199</v>
+        <v>0.105347</v>
       </c>
       <c r="D55" t="n">
-        <v>0.08709</v>
+        <v>0.0873675</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0917121</v>
+        <v>0.09170399999999999</v>
       </c>
     </row>
     <row r="56">
@@ -5095,16 +5095,16 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.103498</v>
+        <v>0.102967</v>
       </c>
       <c r="C56" t="n">
-        <v>0.244133</v>
+        <v>0.107279</v>
       </c>
       <c r="D56" t="n">
-        <v>0.087794</v>
+        <v>0.0883302</v>
       </c>
       <c r="E56" t="n">
-        <v>0.093018</v>
+        <v>0.0920523</v>
       </c>
     </row>
     <row r="57">
@@ -5112,16 +5112,16 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.108077</v>
+        <v>0.105897</v>
       </c>
       <c r="C57" t="n">
-        <v>0.250497</v>
+        <v>0.113107</v>
       </c>
       <c r="D57" t="n">
-        <v>0.08770799999999999</v>
+        <v>0.0882781</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0929005</v>
+        <v>0.0929297</v>
       </c>
     </row>
     <row r="58">
@@ -5129,16 +5129,16 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.111877</v>
+        <v>0.113905</v>
       </c>
       <c r="C58" t="n">
-        <v>0.256058</v>
+        <v>0.116952</v>
       </c>
       <c r="D58" t="n">
-        <v>0.088612</v>
+        <v>0.0897275</v>
       </c>
       <c r="E58" t="n">
-        <v>0.09398570000000001</v>
+        <v>0.0940908</v>
       </c>
     </row>
     <row r="59">
@@ -5146,16 +5146,16 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.118352</v>
+        <v>0.120412</v>
       </c>
       <c r="C59" t="n">
-        <v>0.261874</v>
+        <v>0.124009</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0897483</v>
+        <v>0.0905498</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0951789</v>
+        <v>0.09532309999999999</v>
       </c>
     </row>
     <row r="60">
@@ -5163,16 +5163,16 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.128364</v>
+        <v>0.124779</v>
       </c>
       <c r="C60" t="n">
-        <v>0.267291</v>
+        <v>0.131538</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0917688</v>
+        <v>0.0917939</v>
       </c>
       <c r="E60" t="n">
-        <v>0.09739630000000001</v>
+        <v>0.09673089999999999</v>
       </c>
     </row>
     <row r="61">
@@ -5180,16 +5180,16 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.139699</v>
+        <v>0.139042</v>
       </c>
       <c r="C61" t="n">
-        <v>0.272047</v>
+        <v>0.142751</v>
       </c>
       <c r="D61" t="n">
-        <v>0.092991</v>
+        <v>0.09438970000000001</v>
       </c>
       <c r="E61" t="n">
-        <v>0.100036</v>
+        <v>0.100187</v>
       </c>
     </row>
     <row r="62">
@@ -5197,16 +5197,16 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.15264</v>
+        <v>0.148769</v>
       </c>
       <c r="C62" t="n">
-        <v>0.27762</v>
+        <v>0.157953</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0963464</v>
+        <v>0.0979211</v>
       </c>
       <c r="E62" t="n">
-        <v>0.104099</v>
+        <v>0.103921</v>
       </c>
     </row>
     <row r="63">
@@ -5214,16 +5214,16 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.171223</v>
+        <v>0.175906</v>
       </c>
       <c r="C63" t="n">
-        <v>0.284381</v>
+        <v>0.176923</v>
       </c>
       <c r="D63" t="n">
-        <v>0.1017</v>
+        <v>0.102232</v>
       </c>
       <c r="E63" t="n">
-        <v>0.109119</v>
+        <v>0.109741</v>
       </c>
     </row>
     <row r="64">
@@ -5231,16 +5231,16 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.199264</v>
+        <v>0.196868</v>
       </c>
       <c r="C64" t="n">
-        <v>0.209244</v>
+        <v>0.207513</v>
       </c>
       <c r="D64" t="n">
-        <v>0.109763</v>
+        <v>0.110798</v>
       </c>
       <c r="E64" t="n">
-        <v>0.11712</v>
+        <v>0.118336</v>
       </c>
     </row>
     <row r="65">
@@ -5248,16 +5248,16 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.250265</v>
+        <v>0.238801</v>
       </c>
       <c r="C65" t="n">
-        <v>0.217648</v>
+        <v>0.247733</v>
       </c>
       <c r="D65" t="n">
-        <v>0.126417</v>
+        <v>0.126024</v>
       </c>
       <c r="E65" t="n">
-        <v>0.132501</v>
+        <v>0.132963</v>
       </c>
     </row>
     <row r="66">
@@ -5265,16 +5265,16 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.287158</v>
+        <v>0.288476</v>
       </c>
       <c r="C66" t="n">
-        <v>0.223399</v>
+        <v>0.305296</v>
       </c>
       <c r="D66" t="n">
-        <v>0.093447</v>
+        <v>0.09339119999999999</v>
       </c>
       <c r="E66" t="n">
-        <v>0.098096</v>
+        <v>0.09729980000000001</v>
       </c>
     </row>
     <row r="67">
@@ -5282,16 +5282,16 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.108643</v>
+        <v>0.107281</v>
       </c>
       <c r="C67" t="n">
-        <v>0.230987</v>
+        <v>0.113305</v>
       </c>
       <c r="D67" t="n">
-        <v>0.09382119999999999</v>
+        <v>0.09410350000000001</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0987281</v>
+        <v>0.0990917</v>
       </c>
     </row>
     <row r="68">
@@ -5299,16 +5299,16 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.109945</v>
+        <v>0.109475</v>
       </c>
       <c r="C68" t="n">
-        <v>0.240341</v>
+        <v>0.114323</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0939029</v>
+        <v>0.0946316</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0992096</v>
+        <v>0.0991725</v>
       </c>
     </row>
     <row r="69">
@@ -5316,13 +5316,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.111636</v>
+        <v>0.110653</v>
       </c>
       <c r="C69" t="n">
-        <v>0.252313</v>
+        <v>0.11807</v>
       </c>
       <c r="D69" t="n">
-        <v>0.09499829999999999</v>
+        <v>0.09512760000000001</v>
       </c>
       <c r="E69" t="n">
         <v>0.100064</v>
@@ -5333,16 +5333,16 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.113632</v>
+        <v>0.115774</v>
       </c>
       <c r="C70" t="n">
-        <v>0.26339</v>
+        <v>0.121324</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0959416</v>
+        <v>0.0956738</v>
       </c>
       <c r="E70" t="n">
-        <v>0.100934</v>
+        <v>0.101283</v>
       </c>
     </row>
     <row r="71">
@@ -5350,16 +5350,16 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.118701</v>
+        <v>0.117148</v>
       </c>
       <c r="C71" t="n">
-        <v>0.275218</v>
+        <v>0.123867</v>
       </c>
       <c r="D71" t="n">
-        <v>0.09619220000000001</v>
+        <v>0.0960235</v>
       </c>
       <c r="E71" t="n">
-        <v>0.102058</v>
+        <v>0.102065</v>
       </c>
     </row>
     <row r="72">
@@ -5367,16 +5367,16 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.124085</v>
+        <v>0.124232</v>
       </c>
       <c r="C72" t="n">
-        <v>0.287541</v>
+        <v>0.130429</v>
       </c>
       <c r="D72" t="n">
-        <v>0.09692149999999999</v>
+        <v>0.0970394</v>
       </c>
       <c r="E72" t="n">
-        <v>0.103675</v>
+        <v>0.104012</v>
       </c>
     </row>
     <row r="73">
@@ -5384,16 +5384,16 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.131672</v>
+        <v>0.127713</v>
       </c>
       <c r="C73" t="n">
-        <v>0.295501</v>
+        <v>0.135846</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0978875</v>
+        <v>0.0985583</v>
       </c>
       <c r="E73" t="n">
-        <v>0.104697</v>
+        <v>0.104222</v>
       </c>
     </row>
     <row r="74">
@@ -5401,16 +5401,16 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.138355</v>
+        <v>0.138332</v>
       </c>
       <c r="C74" t="n">
-        <v>0.307095</v>
+        <v>0.143713</v>
       </c>
       <c r="D74" t="n">
-        <v>0.099537</v>
+        <v>0.0998391</v>
       </c>
       <c r="E74" t="n">
-        <v>0.106756</v>
+        <v>0.106504</v>
       </c>
     </row>
     <row r="75">
@@ -5418,16 +5418,16 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.150398</v>
+        <v>0.148254</v>
       </c>
       <c r="C75" t="n">
-        <v>0.323613</v>
+        <v>0.155362</v>
       </c>
       <c r="D75" t="n">
-        <v>0.101084</v>
+        <v>0.101787</v>
       </c>
       <c r="E75" t="n">
-        <v>0.109013</v>
+        <v>0.109886</v>
       </c>
     </row>
     <row r="76">
@@ -5435,16 +5435,16 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.161085</v>
+        <v>0.158789</v>
       </c>
       <c r="C76" t="n">
-        <v>0.338229</v>
+        <v>0.169531</v>
       </c>
       <c r="D76" t="n">
-        <v>0.104084</v>
+        <v>0.104649</v>
       </c>
       <c r="E76" t="n">
-        <v>0.112669</v>
+        <v>0.112942</v>
       </c>
     </row>
     <row r="77">
@@ -5452,16 +5452,16 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.180046</v>
+        <v>0.183276</v>
       </c>
       <c r="C77" t="n">
-        <v>0.354564</v>
+        <v>0.188817</v>
       </c>
       <c r="D77" t="n">
-        <v>0.108787</v>
+        <v>0.10998</v>
       </c>
       <c r="E77" t="n">
-        <v>0.118217</v>
+        <v>0.120102</v>
       </c>
     </row>
     <row r="78">
@@ -5469,16 +5469,16 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.208178</v>
+        <v>0.213374</v>
       </c>
       <c r="C78" t="n">
-        <v>0.273377</v>
+        <v>0.219236</v>
       </c>
       <c r="D78" t="n">
-        <v>0.116693</v>
+        <v>0.117116</v>
       </c>
       <c r="E78" t="n">
-        <v>0.125881</v>
+        <v>0.12607</v>
       </c>
     </row>
     <row r="79">
@@ -5486,16 +5486,16 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.253791</v>
+        <v>0.246249</v>
       </c>
       <c r="C79" t="n">
-        <v>0.290243</v>
+        <v>0.267364</v>
       </c>
       <c r="D79" t="n">
-        <v>0.130757</v>
+        <v>0.131495</v>
       </c>
       <c r="E79" t="n">
-        <v>0.140665</v>
+        <v>0.140938</v>
       </c>
     </row>
     <row r="80">
@@ -5503,16 +5503,16 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.296947</v>
+        <v>0.296111</v>
       </c>
       <c r="C80" t="n">
-        <v>0.309165</v>
+        <v>0.318471</v>
       </c>
       <c r="D80" t="n">
-        <v>0.101494</v>
+        <v>0.101879</v>
       </c>
       <c r="E80" t="n">
-        <v>0.106739</v>
+        <v>0.106368</v>
       </c>
     </row>
     <row r="81">
@@ -5520,16 +5520,16 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.120425</v>
+        <v>0.11957</v>
       </c>
       <c r="C81" t="n">
-        <v>0.327675</v>
+        <v>0.125888</v>
       </c>
       <c r="D81" t="n">
-        <v>0.101991</v>
+        <v>0.102765</v>
       </c>
       <c r="E81" t="n">
-        <v>0.107289</v>
+        <v>0.107663</v>
       </c>
     </row>
     <row r="82">
@@ -5537,16 +5537,16 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.123331</v>
+        <v>0.12123</v>
       </c>
       <c r="C82" t="n">
-        <v>0.348357</v>
+        <v>0.127823</v>
       </c>
       <c r="D82" t="n">
-        <v>0.102383</v>
+        <v>0.102634</v>
       </c>
       <c r="E82" t="n">
-        <v>0.108898</v>
+        <v>0.10777</v>
       </c>
     </row>
     <row r="83">
@@ -5554,16 +5554,16 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.123633</v>
+        <v>0.123118</v>
       </c>
       <c r="C83" t="n">
-        <v>0.371703</v>
+        <v>0.130125</v>
       </c>
       <c r="D83" t="n">
-        <v>0.102885</v>
+        <v>0.103292</v>
       </c>
       <c r="E83" t="n">
-        <v>0.109551</v>
+        <v>0.108926</v>
       </c>
     </row>
     <row r="84">
@@ -5571,16 +5571,16 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.126702</v>
+        <v>0.126678</v>
       </c>
       <c r="C84" t="n">
-        <v>0.392002</v>
+        <v>0.133678</v>
       </c>
       <c r="D84" t="n">
-        <v>0.103523</v>
+        <v>0.103897</v>
       </c>
       <c r="E84" t="n">
-        <v>0.110556</v>
+        <v>0.109545</v>
       </c>
     </row>
     <row r="85">
@@ -5588,16 +5588,16 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.130027</v>
+        <v>0.129479</v>
       </c>
       <c r="C85" t="n">
-        <v>0.41461</v>
+        <v>0.137827</v>
       </c>
       <c r="D85" t="n">
-        <v>0.104316</v>
+        <v>0.104576</v>
       </c>
       <c r="E85" t="n">
-        <v>0.111473</v>
+        <v>0.111218</v>
       </c>
     </row>
     <row r="86">
@@ -5605,16 +5605,16 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.134799</v>
+        <v>0.133683</v>
       </c>
       <c r="C86" t="n">
-        <v>0.437433</v>
+        <v>0.143838</v>
       </c>
       <c r="D86" t="n">
-        <v>0.105221</v>
+        <v>0.105719</v>
       </c>
       <c r="E86" t="n">
-        <v>0.113312</v>
+        <v>0.113028</v>
       </c>
     </row>
     <row r="87">
@@ -5622,16 +5622,16 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.140831</v>
+        <v>0.139178</v>
       </c>
       <c r="C87" t="n">
-        <v>0.461584</v>
+        <v>0.150374</v>
       </c>
       <c r="D87" t="n">
-        <v>0.106432</v>
+        <v>0.106613</v>
       </c>
       <c r="E87" t="n">
-        <v>0.116397</v>
+        <v>0.115571</v>
       </c>
     </row>
     <row r="88">
@@ -5639,16 +5639,16 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.148252</v>
+        <v>0.146752</v>
       </c>
       <c r="C88" t="n">
-        <v>0.484604</v>
+        <v>0.159582</v>
       </c>
       <c r="D88" t="n">
-        <v>0.108112</v>
+        <v>0.108704</v>
       </c>
       <c r="E88" t="n">
-        <v>0.119262</v>
+        <v>0.117738</v>
       </c>
     </row>
     <row r="89">
@@ -5656,16 +5656,16 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.161375</v>
+        <v>0.156447</v>
       </c>
       <c r="C89" t="n">
-        <v>0.509964</v>
+        <v>0.17409</v>
       </c>
       <c r="D89" t="n">
-        <v>0.110754</v>
+        <v>0.110448</v>
       </c>
       <c r="E89" t="n">
-        <v>0.122108</v>
+        <v>0.122331</v>
       </c>
     </row>
     <row r="90">
@@ -5673,16 +5673,16 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.172309</v>
+        <v>0.17008</v>
       </c>
       <c r="C90" t="n">
-        <v>0.537175</v>
+        <v>0.192354</v>
       </c>
       <c r="D90" t="n">
-        <v>0.113616</v>
+        <v>0.113676</v>
       </c>
       <c r="E90" t="n">
-        <v>0.128529</v>
+        <v>0.129013</v>
       </c>
     </row>
     <row r="91">
@@ -5690,16 +5690,16 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.19691</v>
+        <v>0.189079</v>
       </c>
       <c r="C91" t="n">
-        <v>0.565103</v>
+        <v>0.218039</v>
       </c>
       <c r="D91" t="n">
-        <v>0.119363</v>
+        <v>0.119228</v>
       </c>
       <c r="E91" t="n">
-        <v>0.136732</v>
+        <v>0.13668</v>
       </c>
     </row>
     <row r="92">
@@ -5707,16 +5707,16 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.22046</v>
+        <v>0.217857</v>
       </c>
       <c r="C92" t="n">
-        <v>0.421746</v>
+        <v>0.25682</v>
       </c>
       <c r="D92" t="n">
-        <v>0.126558</v>
+        <v>0.126705</v>
       </c>
       <c r="E92" t="n">
-        <v>0.14902</v>
+        <v>0.14824</v>
       </c>
     </row>
     <row r="93">
@@ -5724,16 +5724,16 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.269481</v>
+        <v>0.269681</v>
       </c>
       <c r="C93" t="n">
-        <v>0.440735</v>
+        <v>0.313405</v>
       </c>
       <c r="D93" t="n">
-        <v>0.139194</v>
+        <v>0.14043</v>
       </c>
       <c r="E93" t="n">
-        <v>0.170402</v>
+        <v>0.168753</v>
       </c>
     </row>
     <row r="94">
@@ -5741,16 +5741,16 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.328871</v>
+        <v>0.321259</v>
       </c>
       <c r="C94" t="n">
-        <v>0.4597</v>
+        <v>0.390643</v>
       </c>
       <c r="D94" t="n">
-        <v>0.107858</v>
+        <v>0.107537</v>
       </c>
       <c r="E94" t="n">
-        <v>0.120141</v>
+        <v>0.119413</v>
       </c>
     </row>
     <row r="95">
@@ -5758,16 +5758,16 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.130009</v>
+        <v>0.128143</v>
       </c>
       <c r="C95" t="n">
-        <v>0.47959</v>
+        <v>0.143972</v>
       </c>
       <c r="D95" t="n">
-        <v>0.108774</v>
+        <v>0.108581</v>
       </c>
       <c r="E95" t="n">
-        <v>0.123997</v>
+        <v>0.122898</v>
       </c>
     </row>
     <row r="96">
@@ -5775,16 +5775,16 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.130554</v>
+        <v>0.13186</v>
       </c>
       <c r="C96" t="n">
-        <v>0.5015579999999999</v>
+        <v>0.149138</v>
       </c>
       <c r="D96" t="n">
-        <v>0.110359</v>
+        <v>0.110363</v>
       </c>
       <c r="E96" t="n">
-        <v>0.127461</v>
+        <v>0.127228</v>
       </c>
     </row>
     <row r="97">
@@ -5792,16 +5792,16 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.13381</v>
+        <v>0.135853</v>
       </c>
       <c r="C97" t="n">
-        <v>0.522053</v>
+        <v>0.157149</v>
       </c>
       <c r="D97" t="n">
-        <v>0.111844</v>
+        <v>0.112346</v>
       </c>
       <c r="E97" t="n">
-        <v>0.132987</v>
+        <v>0.132553</v>
       </c>
     </row>
     <row r="98">
@@ -5809,16 +5809,16 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.138071</v>
+        <v>0.137711</v>
       </c>
       <c r="C98" t="n">
-        <v>0.543135</v>
+        <v>0.165152</v>
       </c>
       <c r="D98" t="n">
-        <v>0.113542</v>
+        <v>0.114724</v>
       </c>
       <c r="E98" t="n">
-        <v>0.138314</v>
+        <v>0.138136</v>
       </c>
     </row>
     <row r="99">
@@ -5826,16 +5826,16 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.143585</v>
+        <v>0.143109</v>
       </c>
       <c r="C99" t="n">
-        <v>0.566136</v>
+        <v>0.174745</v>
       </c>
       <c r="D99" t="n">
-        <v>0.116306</v>
+        <v>0.116436</v>
       </c>
       <c r="E99" t="n">
-        <v>0.145136</v>
+        <v>0.144303</v>
       </c>
     </row>
     <row r="100">
@@ -5843,16 +5843,16 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.151172</v>
+        <v>0.150317</v>
       </c>
       <c r="C100" t="n">
-        <v>0.589356</v>
+        <v>0.185334</v>
       </c>
       <c r="D100" t="n">
-        <v>0.119079</v>
+        <v>0.119821</v>
       </c>
       <c r="E100" t="n">
-        <v>0.150538</v>
+        <v>0.150894</v>
       </c>
     </row>
     <row r="101">
@@ -5860,16 +5860,16 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.160808</v>
+        <v>0.159004</v>
       </c>
       <c r="C101" t="n">
-        <v>0.614433</v>
+        <v>0.198358</v>
       </c>
       <c r="D101" t="n">
-        <v>0.12341</v>
+        <v>0.123252</v>
       </c>
       <c r="E101" t="n">
-        <v>0.157753</v>
+        <v>0.157772</v>
       </c>
     </row>
     <row r="102">
@@ -5877,16 +5877,16 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.171727</v>
+        <v>0.170317</v>
       </c>
       <c r="C102" t="n">
-        <v>0.639343</v>
+        <v>0.213236</v>
       </c>
       <c r="D102" t="n">
-        <v>0.127585</v>
+        <v>0.127904</v>
       </c>
       <c r="E102" t="n">
-        <v>0.165311</v>
+        <v>0.16516</v>
       </c>
     </row>
     <row r="103">
@@ -5894,16 +5894,16 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.185648</v>
+        <v>0.188151</v>
       </c>
       <c r="C103" t="n">
-        <v>0.665173</v>
+        <v>0.230743</v>
       </c>
       <c r="D103" t="n">
-        <v>0.132839</v>
+        <v>0.132937</v>
       </c>
       <c r="E103" t="n">
-        <v>0.173573</v>
+        <v>0.17291</v>
       </c>
     </row>
     <row r="104">
@@ -5911,16 +5911,16 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.204869</v>
+        <v>0.201124</v>
       </c>
       <c r="C104" t="n">
-        <v>0.69669</v>
+        <v>0.251777</v>
       </c>
       <c r="D104" t="n">
-        <v>0.139752</v>
+        <v>0.139556</v>
       </c>
       <c r="E104" t="n">
-        <v>0.182032</v>
+        <v>0.181416</v>
       </c>
     </row>
     <row r="105">
@@ -5928,16 +5928,16 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.230355</v>
+        <v>0.224148</v>
       </c>
       <c r="C105" t="n">
-        <v>0.725366</v>
+        <v>0.279253</v>
       </c>
       <c r="D105" t="n">
-        <v>0.148379</v>
+        <v>0.147996</v>
       </c>
       <c r="E105" t="n">
-        <v>0.192696</v>
+        <v>0.192202</v>
       </c>
     </row>
     <row r="106">
@@ -5945,16 +5945,16 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.261522</v>
+        <v>0.255143</v>
       </c>
       <c r="C106" t="n">
-        <v>0.759042</v>
+        <v>0.317943</v>
       </c>
       <c r="D106" t="n">
-        <v>0.158443</v>
+        <v>0.158812</v>
       </c>
       <c r="E106" t="n">
-        <v>0.206258</v>
+        <v>0.205284</v>
       </c>
     </row>
     <row r="107">
@@ -5962,16 +5962,16 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.300636</v>
+        <v>0.30788</v>
       </c>
       <c r="C107" t="n">
-        <v>0.596642</v>
+        <v>0.371266</v>
       </c>
       <c r="D107" t="n">
-        <v>0.173573</v>
+        <v>0.17569</v>
       </c>
       <c r="E107" t="n">
-        <v>0.226083</v>
+        <v>0.22463</v>
       </c>
     </row>
     <row r="108">
@@ -5979,16 +5979,16 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.369551</v>
+        <v>0.369092</v>
       </c>
       <c r="C108" t="n">
-        <v>0.619162</v>
+        <v>0.448047</v>
       </c>
       <c r="D108" t="n">
-        <v>0.128776</v>
+        <v>0.128856</v>
       </c>
       <c r="E108" t="n">
-        <v>0.160741</v>
+        <v>0.159568</v>
       </c>
     </row>
     <row r="109">
@@ -5996,16 +5996,16 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.457574</v>
+        <v>0.449448</v>
       </c>
       <c r="C109" t="n">
-        <v>0.6419820000000001</v>
+        <v>0.562684</v>
       </c>
       <c r="D109" t="n">
-        <v>0.131486</v>
+        <v>0.131527</v>
       </c>
       <c r="E109" t="n">
-        <v>0.164006</v>
+        <v>0.163325</v>
       </c>
     </row>
     <row r="110">
@@ -6013,16 +6013,16 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.155067</v>
+        <v>0.15445</v>
       </c>
       <c r="C110" t="n">
-        <v>0.664902</v>
+        <v>0.189002</v>
       </c>
       <c r="D110" t="n">
-        <v>0.133987</v>
+        <v>0.133979</v>
       </c>
       <c r="E110" t="n">
-        <v>0.167413</v>
+        <v>0.166972</v>
       </c>
     </row>
     <row r="111">
@@ -6030,16 +6030,16 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.159285</v>
+        <v>0.158494</v>
       </c>
       <c r="C111" t="n">
-        <v>0.690945</v>
+        <v>0.194691</v>
       </c>
       <c r="D111" t="n">
-        <v>0.136365</v>
+        <v>0.136455</v>
       </c>
       <c r="E111" t="n">
-        <v>0.171501</v>
+        <v>0.170889</v>
       </c>
     </row>
     <row r="112">
@@ -6047,16 +6047,16 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.163778</v>
+        <v>0.162992</v>
       </c>
       <c r="C112" t="n">
-        <v>0.715987</v>
+        <v>0.202252</v>
       </c>
       <c r="D112" t="n">
-        <v>0.13871</v>
+        <v>0.139031</v>
       </c>
       <c r="E112" t="n">
-        <v>0.175771</v>
+        <v>0.174735</v>
       </c>
     </row>
     <row r="113">
@@ -6064,16 +6064,16 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.169309</v>
+        <v>0.168334</v>
       </c>
       <c r="C113" t="n">
-        <v>0.741214</v>
+        <v>0.207969</v>
       </c>
       <c r="D113" t="n">
-        <v>0.141684</v>
+        <v>0.141577</v>
       </c>
       <c r="E113" t="n">
-        <v>0.180048</v>
+        <v>0.178988</v>
       </c>
     </row>
     <row r="114">
@@ -6081,16 +6081,16 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.175537</v>
+        <v>0.174441</v>
       </c>
       <c r="C114" t="n">
-        <v>0.768823</v>
+        <v>0.218384</v>
       </c>
       <c r="D114" t="n">
-        <v>0.143974</v>
+        <v>0.144159</v>
       </c>
       <c r="E114" t="n">
-        <v>0.184259</v>
+        <v>0.183389</v>
       </c>
     </row>
     <row r="115">
@@ -6098,16 +6098,16 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.183409</v>
+        <v>0.181967</v>
       </c>
       <c r="C115" t="n">
-        <v>0.795588</v>
+        <v>0.226994</v>
       </c>
       <c r="D115" t="n">
-        <v>0.146855</v>
+        <v>0.146946</v>
       </c>
       <c r="E115" t="n">
-        <v>0.188817</v>
+        <v>0.188084</v>
       </c>
     </row>
     <row r="116">
@@ -6115,16 +6115,16 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.19311</v>
+        <v>0.191393</v>
       </c>
       <c r="C116" t="n">
-        <v>0.825137</v>
+        <v>0.239773</v>
       </c>
       <c r="D116" t="n">
-        <v>0.150107</v>
+        <v>0.150147</v>
       </c>
       <c r="E116" t="n">
-        <v>0.194194</v>
+        <v>0.193316</v>
       </c>
     </row>
     <row r="117">
@@ -6132,16 +6132,16 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.205434</v>
+        <v>0.204957</v>
       </c>
       <c r="C117" t="n">
-        <v>0.8535779999999999</v>
+        <v>0.256086</v>
       </c>
       <c r="D117" t="n">
-        <v>0.154205</v>
+        <v>0.154182</v>
       </c>
       <c r="E117" t="n">
-        <v>0.201337</v>
+        <v>0.199863</v>
       </c>
     </row>
     <row r="118">
@@ -6149,16 +6149,16 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.22131</v>
+        <v>0.220688</v>
       </c>
       <c r="C118" t="n">
-        <v>0.8841020000000001</v>
+        <v>0.277055</v>
       </c>
       <c r="D118" t="n">
-        <v>0.159246</v>
+        <v>0.159145</v>
       </c>
       <c r="E118" t="n">
-        <v>0.208564</v>
+        <v>0.207437</v>
       </c>
     </row>
     <row r="119">
@@ -6166,16 +6166,16 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.242343</v>
+        <v>0.239865</v>
       </c>
       <c r="C119" t="n">
-        <v>0.915818</v>
+        <v>0.304186</v>
       </c>
       <c r="D119" t="n">
-        <v>0.165563</v>
+        <v>0.165593</v>
       </c>
       <c r="E119" t="n">
-        <v>0.217522</v>
+        <v>0.216712</v>
       </c>
     </row>
     <row r="120">
@@ -6183,16 +6183,16 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.271642</v>
+        <v>0.268845</v>
       </c>
       <c r="C120" t="n">
-        <v>0.947496</v>
+        <v>0.341664</v>
       </c>
       <c r="D120" t="n">
-        <v>0.174681</v>
+        <v>0.174907</v>
       </c>
       <c r="E120" t="n">
-        <v>0.230687</v>
+        <v>0.23007</v>
       </c>
     </row>
     <row r="121">
@@ -6200,16 +6200,16 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.312889</v>
+        <v>0.311139</v>
       </c>
       <c r="C121" t="n">
-        <v>0.698465</v>
+        <v>0.395553</v>
       </c>
       <c r="D121" t="n">
-        <v>0.188295</v>
+        <v>0.188737</v>
       </c>
       <c r="E121" t="n">
-        <v>0.251103</v>
+        <v>0.249258</v>
       </c>
     </row>
     <row r="122">
@@ -6217,16 +6217,16 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.374036</v>
+        <v>0.382098</v>
       </c>
       <c r="C122" t="n">
-        <v>0.721826</v>
+        <v>0.476061</v>
       </c>
       <c r="D122" t="n">
-        <v>0.211174</v>
+        <v>0.212004</v>
       </c>
       <c r="E122" t="n">
-        <v>0.280847</v>
+        <v>0.281997</v>
       </c>
     </row>
     <row r="123">
@@ -6234,16 +6234,16 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.472947</v>
+        <v>0.463558</v>
       </c>
       <c r="C123" t="n">
-        <v>0.745705</v>
+        <v>0.597179</v>
       </c>
       <c r="D123" t="n">
-        <v>0.146968</v>
+        <v>0.145512</v>
       </c>
       <c r="E123" t="n">
-        <v>0.184459</v>
+        <v>0.185875</v>
       </c>
     </row>
     <row r="124">
@@ -6251,16 +6251,16 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.171798</v>
+        <v>0.172167</v>
       </c>
       <c r="C124" t="n">
-        <v>0.770806</v>
+        <v>0.217771</v>
       </c>
       <c r="D124" t="n">
-        <v>0.148205</v>
+        <v>0.147454</v>
       </c>
       <c r="E124" t="n">
-        <v>0.188654</v>
+        <v>0.194877</v>
       </c>
     </row>
     <row r="125">
@@ -6268,16 +6268,16 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.178503</v>
+        <v>0.172533</v>
       </c>
       <c r="C125" t="n">
-        <v>0.796082</v>
+        <v>0.219333</v>
       </c>
       <c r="D125" t="n">
-        <v>0.15268</v>
+        <v>0.153826</v>
       </c>
       <c r="E125" t="n">
-        <v>0.191017</v>
+        <v>0.19383</v>
       </c>
     </row>
     <row r="126">
@@ -6285,16 +6285,16 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.181607</v>
+        <v>0.176448</v>
       </c>
       <c r="C126" t="n">
-        <v>0.8224939999999999</v>
+        <v>0.222948</v>
       </c>
       <c r="D126" t="n">
-        <v>0.154121</v>
+        <v>0.155346</v>
       </c>
       <c r="E126" t="n">
-        <v>0.195492</v>
+        <v>0.198228</v>
       </c>
     </row>
     <row r="127">
@@ -6302,16 +6302,16 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.184548</v>
+        <v>0.181602</v>
       </c>
       <c r="C127" t="n">
-        <v>0.8486590000000001</v>
+        <v>0.229221</v>
       </c>
       <c r="D127" t="n">
-        <v>0.154743</v>
+        <v>0.155848</v>
       </c>
       <c r="E127" t="n">
-        <v>0.202057</v>
+        <v>0.19981</v>
       </c>
     </row>
     <row r="128">
@@ -6319,16 +6319,16 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.193776</v>
+        <v>0.191316</v>
       </c>
       <c r="C128" t="n">
-        <v>0.87583</v>
+        <v>0.243581</v>
       </c>
       <c r="D128" t="n">
-        <v>0.157977</v>
+        <v>0.162594</v>
       </c>
       <c r="E128" t="n">
-        <v>0.207948</v>
+        <v>0.209854</v>
       </c>
     </row>
     <row r="129">
@@ -6336,16 +6336,16 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.198755</v>
+        <v>0.197174</v>
       </c>
       <c r="C129" t="n">
-        <v>0.904305</v>
+        <v>0.254312</v>
       </c>
       <c r="D129" t="n">
-        <v>0.161822</v>
+        <v>0.159955</v>
       </c>
       <c r="E129" t="n">
-        <v>0.211628</v>
+        <v>0.208758</v>
       </c>
     </row>
     <row r="130">
@@ -6353,16 +6353,16 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.210457</v>
+        <v>0.207381</v>
       </c>
       <c r="C130" t="n">
-        <v>0.932729</v>
+        <v>0.265576</v>
       </c>
       <c r="D130" t="n">
-        <v>0.165339</v>
+        <v>0.162569</v>
       </c>
       <c r="E130" t="n">
-        <v>0.221682</v>
+        <v>0.215451</v>
       </c>
     </row>
     <row r="131">
@@ -6370,16 +6370,16 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.22318</v>
+        <v>0.224668</v>
       </c>
       <c r="C131" t="n">
-        <v>0.961439</v>
+        <v>0.281993</v>
       </c>
       <c r="D131" t="n">
-        <v>0.17141</v>
+        <v>0.17041</v>
       </c>
       <c r="E131" t="n">
-        <v>0.225161</v>
+        <v>0.223124</v>
       </c>
     </row>
     <row r="132">
@@ -6387,16 +6387,16 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.237161</v>
+        <v>0.233108</v>
       </c>
       <c r="C132" t="n">
-        <v>0.991483</v>
+        <v>0.303989</v>
       </c>
       <c r="D132" t="n">
-        <v>0.173472</v>
+        <v>0.172913</v>
       </c>
       <c r="E132" t="n">
-        <v>0.23287</v>
+        <v>0.235358</v>
       </c>
     </row>
     <row r="133">
@@ -6404,16 +6404,16 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.258767</v>
+        <v>0.256146</v>
       </c>
       <c r="C133" t="n">
-        <v>1.02207</v>
+        <v>0.332881</v>
       </c>
       <c r="D133" t="n">
-        <v>0.179912</v>
+        <v>0.17859</v>
       </c>
       <c r="E133" t="n">
-        <v>0.246011</v>
+        <v>0.245162</v>
       </c>
     </row>
     <row r="134">
@@ -6421,16 +6421,16 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.290014</v>
+        <v>0.284702</v>
       </c>
       <c r="C134" t="n">
-        <v>1.05448</v>
+        <v>0.373148</v>
       </c>
       <c r="D134" t="n">
-        <v>0.187816</v>
+        <v>0.189544</v>
       </c>
       <c r="E134" t="n">
-        <v>0.256594</v>
+        <v>0.256374</v>
       </c>
     </row>
     <row r="135">
@@ -6438,16 +6438,16 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.336311</v>
+        <v>0.327555</v>
       </c>
       <c r="C135" t="n">
-        <v>0.703213</v>
+        <v>0.424239</v>
       </c>
       <c r="D135" t="n">
-        <v>0.204712</v>
+        <v>0.203326</v>
       </c>
       <c r="E135" t="n">
-        <v>0.276129</v>
+        <v>0.27863</v>
       </c>
     </row>
     <row r="136">
@@ -6455,16 +6455,16 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.390474</v>
+        <v>0.393275</v>
       </c>
       <c r="C136" t="n">
-        <v>0.72154</v>
+        <v>0.50379</v>
       </c>
       <c r="D136" t="n">
-        <v>0.222743</v>
+        <v>0.223189</v>
       </c>
       <c r="E136" t="n">
-        <v>0.304906</v>
+        <v>0.303099</v>
       </c>
     </row>
     <row r="137">
@@ -6472,16 +6472,16 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.483114</v>
+        <v>0.486451</v>
       </c>
       <c r="C137" t="n">
-        <v>0.740609</v>
+        <v>0.631816</v>
       </c>
       <c r="D137" t="n">
-        <v>0.276612</v>
+        <v>0.27523</v>
       </c>
       <c r="E137" t="n">
-        <v>0.326809</v>
+        <v>0.321995</v>
       </c>
     </row>
     <row r="138">
@@ -6489,16 +6489,16 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.316242</v>
+        <v>0.313876</v>
       </c>
       <c r="C138" t="n">
-        <v>0.761074</v>
+        <v>0.354695</v>
       </c>
       <c r="D138" t="n">
-        <v>0.285747</v>
+        <v>0.28054</v>
       </c>
       <c r="E138" t="n">
-        <v>0.32752</v>
+        <v>0.329275</v>
       </c>
     </row>
     <row r="139">
@@ -6506,16 +6506,16 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.31833</v>
+        <v>0.31823</v>
       </c>
       <c r="C139" t="n">
-        <v>0.782738</v>
+        <v>0.364086</v>
       </c>
       <c r="D139" t="n">
-        <v>0.284005</v>
+        <v>0.281229</v>
       </c>
       <c r="E139" t="n">
-        <v>0.334177</v>
+        <v>0.33244</v>
       </c>
     </row>
     <row r="140">
@@ -6523,16 +6523,16 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.324069</v>
+        <v>0.32035</v>
       </c>
       <c r="C140" t="n">
-        <v>0.804953</v>
+        <v>0.370294</v>
       </c>
       <c r="D140" t="n">
-        <v>0.285856</v>
+        <v>0.280811</v>
       </c>
       <c r="E140" t="n">
-        <v>0.337599</v>
+        <v>0.335611</v>
       </c>
     </row>
     <row r="141">
@@ -6540,16 +6540,16 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.327015</v>
+        <v>0.325594</v>
       </c>
       <c r="C141" t="n">
-        <v>0.828223</v>
+        <v>0.379265</v>
       </c>
       <c r="D141" t="n">
-        <v>0.289153</v>
+        <v>0.288248</v>
       </c>
       <c r="E141" t="n">
-        <v>0.342145</v>
+        <v>0.343176</v>
       </c>
     </row>
     <row r="142">
@@ -6557,16 +6557,16 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.335739</v>
+        <v>0.330385</v>
       </c>
       <c r="C142" t="n">
-        <v>0.8522650000000001</v>
+        <v>0.388901</v>
       </c>
       <c r="D142" t="n">
-        <v>0.292881</v>
+        <v>0.29219</v>
       </c>
       <c r="E142" t="n">
-        <v>0.350138</v>
+        <v>0.350339</v>
       </c>
     </row>
     <row r="143">
@@ -6574,16 +6574,16 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.340301</v>
+        <v>0.342129</v>
       </c>
       <c r="C143" t="n">
-        <v>0.877623</v>
+        <v>0.398809</v>
       </c>
       <c r="D143" t="n">
-        <v>0.292347</v>
+        <v>0.290921</v>
       </c>
       <c r="E143" t="n">
-        <v>0.356205</v>
+        <v>0.353568</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Scattered unsuccessful looukp.xlsx
+++ b/clang-x86/Scattered unsuccessful looukp.xlsx
@@ -4177,16 +4177,16 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.09344189999999999</v>
+        <v>0.093656</v>
       </c>
       <c r="C2" t="n">
-        <v>0.185853</v>
+        <v>0.185157</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0836297</v>
+        <v>0.0836474</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0848225</v>
+        <v>0.0848209</v>
       </c>
     </row>
     <row r="3">
@@ -4194,16 +4194,16 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.100458</v>
+        <v>0.100349</v>
       </c>
       <c r="C3" t="n">
-        <v>0.193795</v>
+        <v>0.1928</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0843213</v>
+        <v>0.0843086</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0853911</v>
+        <v>0.08549420000000001</v>
       </c>
     </row>
     <row r="4">
@@ -4211,16 +4211,16 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.112963</v>
+        <v>0.112791</v>
       </c>
       <c r="C4" t="n">
-        <v>0.201413</v>
+        <v>0.19981</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0856152</v>
+        <v>0.08560570000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0868448</v>
+        <v>0.0869843</v>
       </c>
     </row>
     <row r="5">
@@ -4228,16 +4228,16 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.127165</v>
+        <v>0.127192</v>
       </c>
       <c r="C5" t="n">
-        <v>0.209653</v>
+        <v>0.207774</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0866793</v>
+        <v>0.08673260000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>0.08886910000000001</v>
+        <v>0.0888468</v>
       </c>
     </row>
     <row r="6">
@@ -4245,16 +4245,16 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.151704</v>
+        <v>0.151883</v>
       </c>
       <c r="C6" t="n">
-        <v>0.214592</v>
+        <v>0.213148</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0886276</v>
+        <v>0.08859980000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0906457</v>
+        <v>0.0906666</v>
       </c>
     </row>
     <row r="7">
@@ -4262,16 +4262,16 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.186473</v>
+        <v>0.186738</v>
       </c>
       <c r="C7" t="n">
-        <v>0.162872</v>
+        <v>0.162078</v>
       </c>
       <c r="D7" t="n">
-        <v>0.09419859999999999</v>
+        <v>0.0941594</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0961665</v>
+        <v>0.09645860000000001</v>
       </c>
     </row>
     <row r="8">
@@ -4279,16 +4279,16 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.226251</v>
+        <v>0.225869</v>
       </c>
       <c r="C8" t="n">
-        <v>0.170878</v>
+        <v>0.17241</v>
       </c>
       <c r="D8" t="n">
-        <v>0.105958</v>
+        <v>0.105441</v>
       </c>
       <c r="E8" t="n">
-        <v>0.108329</v>
+        <v>0.108469</v>
       </c>
     </row>
     <row r="9">
@@ -4296,16 +4296,16 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.261329</v>
+        <v>0.261677</v>
       </c>
       <c r="C9" t="n">
-        <v>0.177959</v>
+        <v>0.17882</v>
       </c>
       <c r="D9" t="n">
-        <v>0.08199480000000001</v>
+        <v>0.0820763</v>
       </c>
       <c r="E9" t="n">
-        <v>0.082662</v>
+        <v>0.0829039</v>
       </c>
     </row>
     <row r="10">
@@ -4313,16 +4313,16 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.08670659999999999</v>
+        <v>0.08686629999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>0.184994</v>
+        <v>0.185566</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0823102</v>
+        <v>0.0822618</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0829651</v>
+        <v>0.0832378</v>
       </c>
     </row>
     <row r="11">
@@ -4330,16 +4330,16 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.08753900000000001</v>
+        <v>0.087758</v>
       </c>
       <c r="C11" t="n">
-        <v>0.192122</v>
+        <v>0.192063</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0827184</v>
+        <v>0.0828194</v>
       </c>
       <c r="E11" t="n">
-        <v>0.08347499999999999</v>
+        <v>0.083647</v>
       </c>
     </row>
     <row r="12">
@@ -4347,16 +4347,16 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0881723</v>
+        <v>0.08845500000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>0.198757</v>
+        <v>0.199277</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0827807</v>
+        <v>0.0829051</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0836882</v>
+        <v>0.0838436</v>
       </c>
     </row>
     <row r="13">
@@ -4364,16 +4364,16 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0897926</v>
+        <v>0.090276</v>
       </c>
       <c r="C13" t="n">
-        <v>0.205408</v>
+        <v>0.205657</v>
       </c>
       <c r="D13" t="n">
-        <v>0.08297980000000001</v>
+        <v>0.0832311</v>
       </c>
       <c r="E13" t="n">
-        <v>0.08415</v>
+        <v>0.0840842</v>
       </c>
     </row>
     <row r="14">
@@ -4381,16 +4381,16 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0924758</v>
+        <v>0.0927038</v>
       </c>
       <c r="C14" t="n">
-        <v>0.211293</v>
+        <v>0.210714</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0833023</v>
+        <v>0.0835809</v>
       </c>
       <c r="E14" t="n">
-        <v>0.084323</v>
+        <v>0.0844205</v>
       </c>
     </row>
     <row r="15">
@@ -4398,16 +4398,16 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0950744</v>
+        <v>0.09551750000000001</v>
       </c>
       <c r="C15" t="n">
-        <v>0.218433</v>
+        <v>0.218908</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0837778</v>
+        <v>0.0840712</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0848482</v>
+        <v>0.0851842</v>
       </c>
     </row>
     <row r="16">
@@ -4415,16 +4415,16 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.100071</v>
+        <v>0.100627</v>
       </c>
       <c r="C16" t="n">
-        <v>0.226548</v>
+        <v>0.226832</v>
       </c>
       <c r="D16" t="n">
-        <v>0.08422010000000001</v>
+        <v>0.08457679999999999</v>
       </c>
       <c r="E16" t="n">
-        <v>0.08545129999999999</v>
+        <v>0.08568919999999999</v>
       </c>
     </row>
     <row r="17">
@@ -4432,16 +4432,16 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.106461</v>
+        <v>0.106697</v>
       </c>
       <c r="C17" t="n">
-        <v>0.232466</v>
+        <v>0.232168</v>
       </c>
       <c r="D17" t="n">
-        <v>0.08515689999999999</v>
+        <v>0.0854543</v>
       </c>
       <c r="E17" t="n">
-        <v>0.086898</v>
+        <v>0.087092</v>
       </c>
     </row>
     <row r="18">
@@ -4449,16 +4449,16 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.117858</v>
+        <v>0.117661</v>
       </c>
       <c r="C18" t="n">
-        <v>0.238281</v>
+        <v>0.238878</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0864578</v>
+        <v>0.086696</v>
       </c>
       <c r="E18" t="n">
-        <v>0.08833240000000001</v>
+        <v>0.0885441</v>
       </c>
     </row>
     <row r="19">
@@ -4466,16 +4466,16 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.131931</v>
+        <v>0.132438</v>
       </c>
       <c r="C19" t="n">
-        <v>0.246068</v>
+        <v>0.24485</v>
       </c>
       <c r="D19" t="n">
-        <v>0.08820269999999999</v>
+        <v>0.088486</v>
       </c>
       <c r="E19" t="n">
-        <v>0.09043379999999999</v>
+        <v>0.0903568</v>
       </c>
     </row>
     <row r="20">
@@ -4483,16 +4483,16 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.150289</v>
+        <v>0.150682</v>
       </c>
       <c r="C20" t="n">
-        <v>0.252143</v>
+        <v>0.251212</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0910605</v>
+        <v>0.0913017</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0935386</v>
+        <v>0.0939387</v>
       </c>
     </row>
     <row r="21">
@@ -4500,16 +4500,16 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.185701</v>
+        <v>0.178355</v>
       </c>
       <c r="C21" t="n">
-        <v>0.185133</v>
+        <v>0.183905</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0970308</v>
+        <v>0.0970371</v>
       </c>
       <c r="E21" t="n">
-        <v>0.100027</v>
+        <v>0.0998119</v>
       </c>
     </row>
     <row r="22">
@@ -4517,16 +4517,16 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.211862</v>
+        <v>0.2119</v>
       </c>
       <c r="C22" t="n">
-        <v>0.191898</v>
+        <v>0.190961</v>
       </c>
       <c r="D22" t="n">
-        <v>0.108992</v>
+        <v>0.109134</v>
       </c>
       <c r="E22" t="n">
-        <v>0.111374</v>
+        <v>0.1115</v>
       </c>
     </row>
     <row r="23">
@@ -4534,16 +4534,16 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.258193</v>
+        <v>0.257795</v>
       </c>
       <c r="C23" t="n">
-        <v>0.197692</v>
+        <v>0.198404</v>
       </c>
       <c r="D23" t="n">
-        <v>0.082958</v>
+        <v>0.0832344</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0842029</v>
+        <v>0.0844717</v>
       </c>
     </row>
     <row r="24">
@@ -4551,16 +4551,16 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0901612</v>
+        <v>0.0904269</v>
       </c>
       <c r="C24" t="n">
-        <v>0.207471</v>
+        <v>0.207256</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0832596</v>
+        <v>0.0834013</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0844757</v>
+        <v>0.0844787</v>
       </c>
     </row>
     <row r="25">
@@ -4568,16 +4568,16 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0913318</v>
+        <v>0.0916143</v>
       </c>
       <c r="C25" t="n">
-        <v>0.214029</v>
+        <v>0.21426</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0834588</v>
+        <v>0.083595</v>
       </c>
       <c r="E25" t="n">
-        <v>0.08498699999999999</v>
+        <v>0.0850047</v>
       </c>
     </row>
     <row r="26">
@@ -4585,16 +4585,16 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0931168</v>
+        <v>0.09335930000000001</v>
       </c>
       <c r="C26" t="n">
-        <v>0.22116</v>
+        <v>0.220533</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0838222</v>
+        <v>0.08405079999999999</v>
       </c>
       <c r="E26" t="n">
-        <v>0.08540540000000001</v>
+        <v>0.0854303</v>
       </c>
     </row>
     <row r="27">
@@ -4602,16 +4602,16 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0949559</v>
+        <v>0.095111</v>
       </c>
       <c r="C27" t="n">
-        <v>0.228786</v>
+        <v>0.228203</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0843117</v>
+        <v>0.0844625</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0862917</v>
+        <v>0.0860744</v>
       </c>
     </row>
     <row r="28">
@@ -4619,16 +4619,16 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0984068</v>
+        <v>0.09850879999999999</v>
       </c>
       <c r="C28" t="n">
-        <v>0.235803</v>
+        <v>0.233778</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0848081</v>
+        <v>0.084878</v>
       </c>
       <c r="E28" t="n">
-        <v>0.08722050000000001</v>
+        <v>0.08682719999999999</v>
       </c>
     </row>
     <row r="29">
@@ -4636,16 +4636,16 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.102646</v>
+        <v>0.102843</v>
       </c>
       <c r="C29" t="n">
-        <v>0.240695</v>
+        <v>0.240671</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0852728</v>
+        <v>0.0853487</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0878258</v>
+        <v>0.08746370000000001</v>
       </c>
     </row>
     <row r="30">
@@ -4653,16 +4653,16 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.108024</v>
+        <v>0.108271</v>
       </c>
       <c r="C30" t="n">
-        <v>0.246449</v>
+        <v>0.248244</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0860235</v>
+        <v>0.0860872</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0887459</v>
+        <v>0.0884423</v>
       </c>
     </row>
     <row r="31">
@@ -4670,16 +4670,16 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.116101</v>
+        <v>0.116257</v>
       </c>
       <c r="C31" t="n">
-        <v>0.251344</v>
+        <v>0.252103</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0869158</v>
+        <v>0.0871841</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0902155</v>
+        <v>0.0895328</v>
       </c>
     </row>
     <row r="32">
@@ -4687,16 +4687,16 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.125878</v>
+        <v>0.12599</v>
       </c>
       <c r="C32" t="n">
-        <v>0.259559</v>
+        <v>0.257779</v>
       </c>
       <c r="D32" t="n">
-        <v>0.08854049999999999</v>
+        <v>0.08858779999999999</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0924862</v>
+        <v>0.0912148</v>
       </c>
     </row>
     <row r="33">
@@ -4704,16 +4704,16 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.139701</v>
+        <v>0.139662</v>
       </c>
       <c r="C33" t="n">
-        <v>0.26365</v>
+        <v>0.262749</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0907646</v>
+        <v>0.09085749999999999</v>
       </c>
       <c r="E33" t="n">
-        <v>0.09476850000000001</v>
+        <v>0.0938833</v>
       </c>
     </row>
     <row r="34">
@@ -4721,16 +4721,16 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.158292</v>
+        <v>0.158481</v>
       </c>
       <c r="C34" t="n">
-        <v>0.26939</v>
+        <v>0.268526</v>
       </c>
       <c r="D34" t="n">
-        <v>0.09462280000000001</v>
+        <v>0.0947585</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0988628</v>
+        <v>0.09787709999999999</v>
       </c>
     </row>
     <row r="35">
@@ -4738,16 +4738,16 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.181838</v>
+        <v>0.181683</v>
       </c>
       <c r="C35" t="n">
-        <v>0.196051</v>
+        <v>0.196562</v>
       </c>
       <c r="D35" t="n">
-        <v>0.101689</v>
+        <v>0.101763</v>
       </c>
       <c r="E35" t="n">
-        <v>0.105913</v>
+        <v>0.105307</v>
       </c>
     </row>
     <row r="36">
@@ -4755,16 +4755,16 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.215503</v>
+        <v>0.214559</v>
       </c>
       <c r="C36" t="n">
-        <v>0.202427</v>
+        <v>0.202419</v>
       </c>
       <c r="D36" t="n">
-        <v>0.113016</v>
+        <v>0.112824</v>
       </c>
       <c r="E36" t="n">
-        <v>0.117167</v>
+        <v>0.11653</v>
       </c>
     </row>
     <row r="37">
@@ -4772,16 +4772,16 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.254787</v>
+        <v>0.25427</v>
       </c>
       <c r="C37" t="n">
-        <v>0.210382</v>
+        <v>0.211183</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0837649</v>
+        <v>0.08389580000000001</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0869113</v>
+        <v>0.08594400000000001</v>
       </c>
     </row>
     <row r="38">
@@ -4789,16 +4789,16 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0928253</v>
+        <v>0.0928764</v>
       </c>
       <c r="C38" t="n">
-        <v>0.217574</v>
+        <v>0.21759</v>
       </c>
       <c r="D38" t="n">
-        <v>0.08406329999999999</v>
+        <v>0.0840716</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0875499</v>
+        <v>0.0864056</v>
       </c>
     </row>
     <row r="39">
@@ -4806,16 +4806,16 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.09413879999999999</v>
+        <v>0.0940448</v>
       </c>
       <c r="C39" t="n">
-        <v>0.225877</v>
+        <v>0.225138</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0842907</v>
+        <v>0.0844678</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0879277</v>
+        <v>0.0868873</v>
       </c>
     </row>
     <row r="40">
@@ -4823,16 +4823,16 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0957582</v>
+        <v>0.095636</v>
       </c>
       <c r="C40" t="n">
-        <v>0.233286</v>
+        <v>0.232491</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0846218</v>
+        <v>0.0847686</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0885498</v>
+        <v>0.0872498</v>
       </c>
     </row>
     <row r="41">
@@ -4840,16 +4840,16 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0979941</v>
+        <v>0.09832630000000001</v>
       </c>
       <c r="C41" t="n">
-        <v>0.239663</v>
+        <v>0.239592</v>
       </c>
       <c r="D41" t="n">
-        <v>0.085068</v>
+        <v>0.0850634</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0889754</v>
+        <v>0.0879243</v>
       </c>
     </row>
     <row r="42">
@@ -4857,16 +4857,16 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.101272</v>
+        <v>0.10103</v>
       </c>
       <c r="C42" t="n">
-        <v>0.246665</v>
+        <v>0.246715</v>
       </c>
       <c r="D42" t="n">
-        <v>0.08547150000000001</v>
+        <v>0.0855262</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0896537</v>
+        <v>0.08833340000000001</v>
       </c>
     </row>
     <row r="43">
@@ -4874,16 +4874,16 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.104619</v>
+        <v>0.104688</v>
       </c>
       <c r="C43" t="n">
-        <v>0.252795</v>
+        <v>0.252416</v>
       </c>
       <c r="D43" t="n">
-        <v>0.08588419999999999</v>
+        <v>0.0861967</v>
       </c>
       <c r="E43" t="n">
-        <v>0.09026149999999999</v>
+        <v>0.08938359999999999</v>
       </c>
     </row>
     <row r="44">
@@ -4891,16 +4891,16 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.110078</v>
+        <v>0.109975</v>
       </c>
       <c r="C44" t="n">
-        <v>0.25914</v>
+        <v>0.259268</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0871644</v>
+        <v>0.0867301</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0911921</v>
+        <v>0.0906769</v>
       </c>
     </row>
     <row r="45">
@@ -4908,16 +4908,16 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.116979</v>
+        <v>0.116726</v>
       </c>
       <c r="C45" t="n">
-        <v>0.265134</v>
+        <v>0.265545</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0876702</v>
+        <v>0.0878993</v>
       </c>
       <c r="E45" t="n">
-        <v>0.09241630000000001</v>
+        <v>0.0916208</v>
       </c>
     </row>
     <row r="46">
@@ -4925,16 +4925,16 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.125401</v>
+        <v>0.125818</v>
       </c>
       <c r="C46" t="n">
-        <v>0.271122</v>
+        <v>0.270852</v>
       </c>
       <c r="D46" t="n">
-        <v>0.08913889999999999</v>
+        <v>0.0894417</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0943089</v>
+        <v>0.0933138</v>
       </c>
     </row>
     <row r="47">
@@ -4942,16 +4942,16 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.136392</v>
+        <v>0.136419</v>
       </c>
       <c r="C47" t="n">
-        <v>0.276648</v>
+        <v>0.276105</v>
       </c>
       <c r="D47" t="n">
-        <v>0.09135070000000001</v>
+        <v>0.0914321</v>
       </c>
       <c r="E47" t="n">
-        <v>0.09644990000000001</v>
+        <v>0.0958082</v>
       </c>
     </row>
     <row r="48">
@@ -4959,16 +4959,16 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.151881</v>
+        <v>0.151722</v>
       </c>
       <c r="C48" t="n">
-        <v>0.282272</v>
+        <v>0.282562</v>
       </c>
       <c r="D48" t="n">
-        <v>0.09483419999999999</v>
+        <v>0.095071</v>
       </c>
       <c r="E48" t="n">
-        <v>0.100123</v>
+        <v>0.0995722</v>
       </c>
     </row>
     <row r="49">
@@ -4976,16 +4976,16 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.174942</v>
+        <v>0.175318</v>
       </c>
       <c r="C49" t="n">
-        <v>0.288065</v>
+        <v>0.288085</v>
       </c>
       <c r="D49" t="n">
-        <v>0.100346</v>
+        <v>0.100512</v>
       </c>
       <c r="E49" t="n">
-        <v>0.105884</v>
+        <v>0.105404</v>
       </c>
     </row>
     <row r="50">
@@ -4993,16 +4993,16 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.213679</v>
+        <v>0.205179</v>
       </c>
       <c r="C50" t="n">
-        <v>0.202118</v>
+        <v>0.202261</v>
       </c>
       <c r="D50" t="n">
-        <v>0.110019</v>
+        <v>0.110206</v>
       </c>
       <c r="E50" t="n">
-        <v>0.115669</v>
+        <v>0.115272</v>
       </c>
     </row>
     <row r="51">
@@ -5010,16 +5010,16 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.250904</v>
+        <v>0.246224</v>
       </c>
       <c r="C51" t="n">
-        <v>0.209852</v>
+        <v>0.209411</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0858059</v>
+        <v>0.0864309</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0898649</v>
+        <v>0.0899731</v>
       </c>
     </row>
     <row r="52">
@@ -5027,16 +5027,16 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.293381</v>
+        <v>0.29264</v>
       </c>
       <c r="C52" t="n">
-        <v>0.216375</v>
+        <v>0.216173</v>
       </c>
       <c r="D52" t="n">
-        <v>0.08598649999999999</v>
+        <v>0.0868221</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0911501</v>
+        <v>0.0907906</v>
       </c>
     </row>
     <row r="53">
@@ -5044,16 +5044,16 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.09651999999999999</v>
+        <v>0.0982484</v>
       </c>
       <c r="C53" t="n">
-        <v>0.224267</v>
+        <v>0.224171</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0869703</v>
+        <v>0.0865723</v>
       </c>
       <c r="E53" t="n">
-        <v>0.09076239999999999</v>
+        <v>0.0909209</v>
       </c>
     </row>
     <row r="54">
@@ -5061,16 +5061,16 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0994189</v>
+        <v>0.0999005</v>
       </c>
       <c r="C54" t="n">
-        <v>0.231018</v>
+        <v>0.230998</v>
       </c>
       <c r="D54" t="n">
-        <v>0.08613560000000001</v>
+        <v>0.0871763</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0921558</v>
+        <v>0.09196</v>
       </c>
     </row>
     <row r="55">
@@ -5078,16 +5078,16 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.101557</v>
+        <v>0.102765</v>
       </c>
       <c r="C55" t="n">
-        <v>0.238199</v>
+        <v>0.237744</v>
       </c>
       <c r="D55" t="n">
-        <v>0.08709</v>
+        <v>0.0868395</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0917121</v>
+        <v>0.09193460000000001</v>
       </c>
     </row>
     <row r="56">
@@ -5095,16 +5095,16 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.103498</v>
+        <v>0.103956</v>
       </c>
       <c r="C56" t="n">
-        <v>0.244133</v>
+        <v>0.244104</v>
       </c>
       <c r="D56" t="n">
-        <v>0.087794</v>
+        <v>0.0877792</v>
       </c>
       <c r="E56" t="n">
-        <v>0.093018</v>
+        <v>0.0933331</v>
       </c>
     </row>
     <row r="57">
@@ -5112,16 +5112,16 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.108077</v>
+        <v>0.10783</v>
       </c>
       <c r="C57" t="n">
-        <v>0.250497</v>
+        <v>0.250441</v>
       </c>
       <c r="D57" t="n">
-        <v>0.08770799999999999</v>
+        <v>0.08854380000000001</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0929005</v>
+        <v>0.09282840000000001</v>
       </c>
     </row>
     <row r="58">
@@ -5129,16 +5129,16 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.111877</v>
+        <v>0.112137</v>
       </c>
       <c r="C58" t="n">
-        <v>0.256058</v>
+        <v>0.255724</v>
       </c>
       <c r="D58" t="n">
-        <v>0.088612</v>
+        <v>0.0896289</v>
       </c>
       <c r="E58" t="n">
-        <v>0.09398570000000001</v>
+        <v>0.0940884</v>
       </c>
     </row>
     <row r="59">
@@ -5146,16 +5146,16 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.118352</v>
+        <v>0.120463</v>
       </c>
       <c r="C59" t="n">
-        <v>0.261874</v>
+        <v>0.261928</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0897483</v>
+        <v>0.0903896</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0951789</v>
+        <v>0.094846</v>
       </c>
     </row>
     <row r="60">
@@ -5163,16 +5163,16 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.128364</v>
+        <v>0.126366</v>
       </c>
       <c r="C60" t="n">
-        <v>0.267291</v>
+        <v>0.267403</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0917688</v>
+        <v>0.0918751</v>
       </c>
       <c r="E60" t="n">
-        <v>0.09739630000000001</v>
+        <v>0.09724439999999999</v>
       </c>
     </row>
     <row r="61">
@@ -5180,16 +5180,16 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.139699</v>
+        <v>0.1384</v>
       </c>
       <c r="C61" t="n">
-        <v>0.272047</v>
+        <v>0.272999</v>
       </c>
       <c r="D61" t="n">
-        <v>0.092991</v>
+        <v>0.093997</v>
       </c>
       <c r="E61" t="n">
-        <v>0.100036</v>
+        <v>0.100244</v>
       </c>
     </row>
     <row r="62">
@@ -5197,16 +5197,16 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.15264</v>
+        <v>0.151846</v>
       </c>
       <c r="C62" t="n">
-        <v>0.27762</v>
+        <v>0.278828</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0963464</v>
+        <v>0.0976798</v>
       </c>
       <c r="E62" t="n">
-        <v>0.104099</v>
+        <v>0.103309</v>
       </c>
     </row>
     <row r="63">
@@ -5214,16 +5214,16 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.171223</v>
+        <v>0.172034</v>
       </c>
       <c r="C63" t="n">
-        <v>0.284381</v>
+        <v>0.285505</v>
       </c>
       <c r="D63" t="n">
-        <v>0.1017</v>
+        <v>0.101664</v>
       </c>
       <c r="E63" t="n">
-        <v>0.109119</v>
+        <v>0.10832</v>
       </c>
     </row>
     <row r="64">
@@ -5231,16 +5231,16 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.199264</v>
+        <v>0.199707</v>
       </c>
       <c r="C64" t="n">
-        <v>0.209244</v>
+        <v>0.210723</v>
       </c>
       <c r="D64" t="n">
-        <v>0.109763</v>
+        <v>0.111239</v>
       </c>
       <c r="E64" t="n">
-        <v>0.11712</v>
+        <v>0.116725</v>
       </c>
     </row>
     <row r="65">
@@ -5248,16 +5248,16 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.250265</v>
+        <v>0.240667</v>
       </c>
       <c r="C65" t="n">
-        <v>0.217648</v>
+        <v>0.217041</v>
       </c>
       <c r="D65" t="n">
-        <v>0.126417</v>
+        <v>0.124914</v>
       </c>
       <c r="E65" t="n">
-        <v>0.132501</v>
+        <v>0.13184</v>
       </c>
     </row>
     <row r="66">
@@ -5265,16 +5265,16 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.287158</v>
+        <v>0.28731</v>
       </c>
       <c r="C66" t="n">
-        <v>0.223399</v>
+        <v>0.226023</v>
       </c>
       <c r="D66" t="n">
-        <v>0.093447</v>
+        <v>0.0934705</v>
       </c>
       <c r="E66" t="n">
-        <v>0.098096</v>
+        <v>0.09794029999999999</v>
       </c>
     </row>
     <row r="67">
@@ -5282,16 +5282,16 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.108643</v>
+        <v>0.107742</v>
       </c>
       <c r="C67" t="n">
-        <v>0.230987</v>
+        <v>0.236127</v>
       </c>
       <c r="D67" t="n">
-        <v>0.09382119999999999</v>
+        <v>0.093816</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0987281</v>
+        <v>0.0977707</v>
       </c>
     </row>
     <row r="68">
@@ -5299,16 +5299,16 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.109945</v>
+        <v>0.109026</v>
       </c>
       <c r="C68" t="n">
-        <v>0.240341</v>
+        <v>0.245307</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0939029</v>
+        <v>0.0941394</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0992096</v>
+        <v>0.09854069999999999</v>
       </c>
     </row>
     <row r="69">
@@ -5316,16 +5316,16 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.111636</v>
+        <v>0.110489</v>
       </c>
       <c r="C69" t="n">
-        <v>0.252313</v>
+        <v>0.255466</v>
       </c>
       <c r="D69" t="n">
-        <v>0.09499829999999999</v>
+        <v>0.0954615</v>
       </c>
       <c r="E69" t="n">
-        <v>0.100064</v>
+        <v>0.0996616</v>
       </c>
     </row>
     <row r="70">
@@ -5333,16 +5333,16 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.113632</v>
+        <v>0.114735</v>
       </c>
       <c r="C70" t="n">
-        <v>0.26339</v>
+        <v>0.268016</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0959416</v>
+        <v>0.09526</v>
       </c>
       <c r="E70" t="n">
-        <v>0.100934</v>
+        <v>0.100975</v>
       </c>
     </row>
     <row r="71">
@@ -5350,16 +5350,16 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.118701</v>
+        <v>0.118862</v>
       </c>
       <c r="C71" t="n">
-        <v>0.275218</v>
+        <v>0.278586</v>
       </c>
       <c r="D71" t="n">
-        <v>0.09619220000000001</v>
+        <v>0.0956229</v>
       </c>
       <c r="E71" t="n">
-        <v>0.102058</v>
+        <v>0.101363</v>
       </c>
     </row>
     <row r="72">
@@ -5367,16 +5367,16 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.124085</v>
+        <v>0.123765</v>
       </c>
       <c r="C72" t="n">
-        <v>0.287541</v>
+        <v>0.287298</v>
       </c>
       <c r="D72" t="n">
-        <v>0.09692149999999999</v>
+        <v>0.0971477</v>
       </c>
       <c r="E72" t="n">
-        <v>0.103675</v>
+        <v>0.104348</v>
       </c>
     </row>
     <row r="73">
@@ -5384,16 +5384,16 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.131672</v>
+        <v>0.129434</v>
       </c>
       <c r="C73" t="n">
-        <v>0.295501</v>
+        <v>0.301715</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0978875</v>
+        <v>0.0985256</v>
       </c>
       <c r="E73" t="n">
-        <v>0.104697</v>
+        <v>0.104675</v>
       </c>
     </row>
     <row r="74">
@@ -5401,16 +5401,16 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.138355</v>
+        <v>0.136961</v>
       </c>
       <c r="C74" t="n">
-        <v>0.307095</v>
+        <v>0.315136</v>
       </c>
       <c r="D74" t="n">
-        <v>0.099537</v>
+        <v>0.09972979999999999</v>
       </c>
       <c r="E74" t="n">
-        <v>0.106756</v>
+        <v>0.107469</v>
       </c>
     </row>
     <row r="75">
@@ -5418,16 +5418,16 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.150398</v>
+        <v>0.149112</v>
       </c>
       <c r="C75" t="n">
-        <v>0.323613</v>
+        <v>0.327711</v>
       </c>
       <c r="D75" t="n">
-        <v>0.101084</v>
+        <v>0.101743</v>
       </c>
       <c r="E75" t="n">
-        <v>0.109013</v>
+        <v>0.109659</v>
       </c>
     </row>
     <row r="76">
@@ -5435,16 +5435,16 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.161085</v>
+        <v>0.166494</v>
       </c>
       <c r="C76" t="n">
-        <v>0.338229</v>
+        <v>0.346909</v>
       </c>
       <c r="D76" t="n">
-        <v>0.104084</v>
+        <v>0.104491</v>
       </c>
       <c r="E76" t="n">
-        <v>0.112669</v>
+        <v>0.114354</v>
       </c>
     </row>
     <row r="77">
@@ -5452,16 +5452,16 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.180046</v>
+        <v>0.181908</v>
       </c>
       <c r="C77" t="n">
-        <v>0.354564</v>
+        <v>0.362641</v>
       </c>
       <c r="D77" t="n">
-        <v>0.108787</v>
+        <v>0.109649</v>
       </c>
       <c r="E77" t="n">
-        <v>0.118217</v>
+        <v>0.119592</v>
       </c>
     </row>
     <row r="78">
@@ -5469,16 +5469,16 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.208178</v>
+        <v>0.209374</v>
       </c>
       <c r="C78" t="n">
-        <v>0.273377</v>
+        <v>0.278649</v>
       </c>
       <c r="D78" t="n">
-        <v>0.116693</v>
+        <v>0.117532</v>
       </c>
       <c r="E78" t="n">
-        <v>0.125881</v>
+        <v>0.127625</v>
       </c>
     </row>
     <row r="79">
@@ -5486,16 +5486,16 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.253791</v>
+        <v>0.250505</v>
       </c>
       <c r="C79" t="n">
-        <v>0.290243</v>
+        <v>0.296831</v>
       </c>
       <c r="D79" t="n">
-        <v>0.130757</v>
+        <v>0.131077</v>
       </c>
       <c r="E79" t="n">
-        <v>0.140665</v>
+        <v>0.143615</v>
       </c>
     </row>
     <row r="80">
@@ -5503,16 +5503,16 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.296947</v>
+        <v>0.307466</v>
       </c>
       <c r="C80" t="n">
-        <v>0.309165</v>
+        <v>0.314195</v>
       </c>
       <c r="D80" t="n">
-        <v>0.101494</v>
+        <v>0.101683</v>
       </c>
       <c r="E80" t="n">
-        <v>0.106739</v>
+        <v>0.107227</v>
       </c>
     </row>
     <row r="81">
@@ -5520,16 +5520,16 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.120425</v>
+        <v>0.120193</v>
       </c>
       <c r="C81" t="n">
-        <v>0.327675</v>
+        <v>0.330886</v>
       </c>
       <c r="D81" t="n">
-        <v>0.101991</v>
+        <v>0.102526</v>
       </c>
       <c r="E81" t="n">
-        <v>0.107289</v>
+        <v>0.10865</v>
       </c>
     </row>
     <row r="82">
@@ -5537,16 +5537,16 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.123331</v>
+        <v>0.123414</v>
       </c>
       <c r="C82" t="n">
-        <v>0.348357</v>
+        <v>0.349753</v>
       </c>
       <c r="D82" t="n">
-        <v>0.102383</v>
+        <v>0.102769</v>
       </c>
       <c r="E82" t="n">
-        <v>0.108898</v>
+        <v>0.110606</v>
       </c>
     </row>
     <row r="83">
@@ -5554,16 +5554,16 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.123633</v>
+        <v>0.124592</v>
       </c>
       <c r="C83" t="n">
-        <v>0.371703</v>
+        <v>0.369592</v>
       </c>
       <c r="D83" t="n">
-        <v>0.102885</v>
+        <v>0.103376</v>
       </c>
       <c r="E83" t="n">
-        <v>0.109551</v>
+        <v>0.111631</v>
       </c>
     </row>
     <row r="84">
@@ -5571,16 +5571,16 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.126702</v>
+        <v>0.127784</v>
       </c>
       <c r="C84" t="n">
-        <v>0.392002</v>
+        <v>0.39171</v>
       </c>
       <c r="D84" t="n">
-        <v>0.103523</v>
+        <v>0.104486</v>
       </c>
       <c r="E84" t="n">
-        <v>0.110556</v>
+        <v>0.114127</v>
       </c>
     </row>
     <row r="85">
@@ -5588,16 +5588,16 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.130027</v>
+        <v>0.131265</v>
       </c>
       <c r="C85" t="n">
-        <v>0.41461</v>
+        <v>0.413818</v>
       </c>
       <c r="D85" t="n">
-        <v>0.104316</v>
+        <v>0.105564</v>
       </c>
       <c r="E85" t="n">
-        <v>0.111473</v>
+        <v>0.116432</v>
       </c>
     </row>
     <row r="86">
@@ -5605,16 +5605,16 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.134799</v>
+        <v>0.136395</v>
       </c>
       <c r="C86" t="n">
-        <v>0.437433</v>
+        <v>0.437227</v>
       </c>
       <c r="D86" t="n">
-        <v>0.105221</v>
+        <v>0.106909</v>
       </c>
       <c r="E86" t="n">
-        <v>0.113312</v>
+        <v>0.118814</v>
       </c>
     </row>
     <row r="87">
@@ -5622,16 +5622,16 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.140831</v>
+        <v>0.142807</v>
       </c>
       <c r="C87" t="n">
-        <v>0.461584</v>
+        <v>0.459623</v>
       </c>
       <c r="D87" t="n">
-        <v>0.106432</v>
+        <v>0.108395</v>
       </c>
       <c r="E87" t="n">
-        <v>0.116397</v>
+        <v>0.124017</v>
       </c>
     </row>
     <row r="88">
@@ -5639,16 +5639,16 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.148252</v>
+        <v>0.152758</v>
       </c>
       <c r="C88" t="n">
-        <v>0.484604</v>
+        <v>0.48262</v>
       </c>
       <c r="D88" t="n">
-        <v>0.108112</v>
+        <v>0.11077</v>
       </c>
       <c r="E88" t="n">
-        <v>0.119262</v>
+        <v>0.124428</v>
       </c>
     </row>
     <row r="89">
@@ -5656,16 +5656,16 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.161375</v>
+        <v>0.162623</v>
       </c>
       <c r="C89" t="n">
-        <v>0.509964</v>
+        <v>0.508082</v>
       </c>
       <c r="D89" t="n">
-        <v>0.110754</v>
+        <v>0.113877</v>
       </c>
       <c r="E89" t="n">
-        <v>0.122108</v>
+        <v>0.133303</v>
       </c>
     </row>
     <row r="90">
@@ -5673,16 +5673,16 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.172309</v>
+        <v>0.177028</v>
       </c>
       <c r="C90" t="n">
-        <v>0.537175</v>
+        <v>0.53515</v>
       </c>
       <c r="D90" t="n">
-        <v>0.113616</v>
+        <v>0.118756</v>
       </c>
       <c r="E90" t="n">
-        <v>0.128529</v>
+        <v>0.139167</v>
       </c>
     </row>
     <row r="91">
@@ -5690,16 +5690,16 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.19691</v>
+        <v>0.203161</v>
       </c>
       <c r="C91" t="n">
-        <v>0.565103</v>
+        <v>0.563163</v>
       </c>
       <c r="D91" t="n">
-        <v>0.119363</v>
+        <v>0.124205</v>
       </c>
       <c r="E91" t="n">
-        <v>0.136732</v>
+        <v>0.148711</v>
       </c>
     </row>
     <row r="92">
@@ -5707,16 +5707,16 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.22046</v>
+        <v>0.229838</v>
       </c>
       <c r="C92" t="n">
-        <v>0.421746</v>
+        <v>0.420368</v>
       </c>
       <c r="D92" t="n">
-        <v>0.126558</v>
+        <v>0.132548</v>
       </c>
       <c r="E92" t="n">
-        <v>0.14902</v>
+        <v>0.158801</v>
       </c>
     </row>
     <row r="93">
@@ -5724,16 +5724,16 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.269481</v>
+        <v>0.268432</v>
       </c>
       <c r="C93" t="n">
-        <v>0.440735</v>
+        <v>0.438835</v>
       </c>
       <c r="D93" t="n">
-        <v>0.139194</v>
+        <v>0.146239</v>
       </c>
       <c r="E93" t="n">
-        <v>0.170402</v>
+        <v>0.177555</v>
       </c>
     </row>
     <row r="94">
@@ -5741,16 +5741,16 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.328871</v>
+        <v>0.331455</v>
       </c>
       <c r="C94" t="n">
-        <v>0.4597</v>
+        <v>0.458451</v>
       </c>
       <c r="D94" t="n">
-        <v>0.107858</v>
+        <v>0.112543</v>
       </c>
       <c r="E94" t="n">
-        <v>0.120141</v>
+        <v>0.128213</v>
       </c>
     </row>
     <row r="95">
@@ -5758,16 +5758,16 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.130009</v>
+        <v>0.130936</v>
       </c>
       <c r="C95" t="n">
-        <v>0.47959</v>
+        <v>0.477646</v>
       </c>
       <c r="D95" t="n">
-        <v>0.108774</v>
+        <v>0.113721</v>
       </c>
       <c r="E95" t="n">
-        <v>0.123997</v>
+        <v>0.131032</v>
       </c>
     </row>
     <row r="96">
@@ -5775,16 +5775,16 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.130554</v>
+        <v>0.136677</v>
       </c>
       <c r="C96" t="n">
-        <v>0.5015579999999999</v>
+        <v>0.5004459999999999</v>
       </c>
       <c r="D96" t="n">
-        <v>0.110359</v>
+        <v>0.11589</v>
       </c>
       <c r="E96" t="n">
-        <v>0.127461</v>
+        <v>0.134363</v>
       </c>
     </row>
     <row r="97">
@@ -5792,16 +5792,16 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.13381</v>
+        <v>0.140032</v>
       </c>
       <c r="C97" t="n">
-        <v>0.522053</v>
+        <v>0.522108</v>
       </c>
       <c r="D97" t="n">
-        <v>0.111844</v>
+        <v>0.118115</v>
       </c>
       <c r="E97" t="n">
-        <v>0.132987</v>
+        <v>0.137665</v>
       </c>
     </row>
     <row r="98">
@@ -5809,16 +5809,16 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.138071</v>
+        <v>0.143932</v>
       </c>
       <c r="C98" t="n">
-        <v>0.543135</v>
+        <v>0.541826</v>
       </c>
       <c r="D98" t="n">
-        <v>0.113542</v>
+        <v>0.117954</v>
       </c>
       <c r="E98" t="n">
-        <v>0.138314</v>
+        <v>0.139227</v>
       </c>
     </row>
     <row r="99">
@@ -5826,16 +5826,16 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.143585</v>
+        <v>0.149634</v>
       </c>
       <c r="C99" t="n">
-        <v>0.566136</v>
+        <v>0.566688</v>
       </c>
       <c r="D99" t="n">
-        <v>0.116306</v>
+        <v>0.121949</v>
       </c>
       <c r="E99" t="n">
-        <v>0.145136</v>
+        <v>0.143607</v>
       </c>
     </row>
     <row r="100">
@@ -5843,16 +5843,16 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.151172</v>
+        <v>0.156618</v>
       </c>
       <c r="C100" t="n">
-        <v>0.589356</v>
+        <v>0.589498</v>
       </c>
       <c r="D100" t="n">
-        <v>0.119079</v>
+        <v>0.12353</v>
       </c>
       <c r="E100" t="n">
-        <v>0.150538</v>
+        <v>0.144904</v>
       </c>
     </row>
     <row r="101">
@@ -5860,16 +5860,16 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.160808</v>
+        <v>0.161694</v>
       </c>
       <c r="C101" t="n">
-        <v>0.614433</v>
+        <v>0.61521</v>
       </c>
       <c r="D101" t="n">
-        <v>0.12341</v>
+        <v>0.126035</v>
       </c>
       <c r="E101" t="n">
-        <v>0.157753</v>
+        <v>0.149927</v>
       </c>
     </row>
     <row r="102">
@@ -5877,16 +5877,16 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.171727</v>
+        <v>0.170806</v>
       </c>
       <c r="C102" t="n">
-        <v>0.639343</v>
+        <v>0.641065</v>
       </c>
       <c r="D102" t="n">
-        <v>0.127585</v>
+        <v>0.128179</v>
       </c>
       <c r="E102" t="n">
-        <v>0.165311</v>
+        <v>0.155062</v>
       </c>
     </row>
     <row r="103">
@@ -5894,16 +5894,16 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.185648</v>
+        <v>0.181658</v>
       </c>
       <c r="C103" t="n">
-        <v>0.665173</v>
+        <v>0.667804</v>
       </c>
       <c r="D103" t="n">
-        <v>0.132839</v>
+        <v>0.131368</v>
       </c>
       <c r="E103" t="n">
-        <v>0.173573</v>
+        <v>0.161908</v>
       </c>
     </row>
     <row r="104">
@@ -5911,16 +5911,16 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.204869</v>
+        <v>0.196724</v>
       </c>
       <c r="C104" t="n">
-        <v>0.69669</v>
+        <v>0.6984669999999999</v>
       </c>
       <c r="D104" t="n">
-        <v>0.139752</v>
+        <v>0.135518</v>
       </c>
       <c r="E104" t="n">
-        <v>0.182032</v>
+        <v>0.168014</v>
       </c>
     </row>
     <row r="105">
@@ -5928,16 +5928,16 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.230355</v>
+        <v>0.216449</v>
       </c>
       <c r="C105" t="n">
-        <v>0.725366</v>
+        <v>0.727401</v>
       </c>
       <c r="D105" t="n">
-        <v>0.148379</v>
+        <v>0.142227</v>
       </c>
       <c r="E105" t="n">
-        <v>0.192696</v>
+        <v>0.178963</v>
       </c>
     </row>
     <row r="106">
@@ -5945,16 +5945,16 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.261522</v>
+        <v>0.250944</v>
       </c>
       <c r="C106" t="n">
-        <v>0.759042</v>
+        <v>0.761045</v>
       </c>
       <c r="D106" t="n">
-        <v>0.158443</v>
+        <v>0.147179</v>
       </c>
       <c r="E106" t="n">
-        <v>0.206258</v>
+        <v>0.192351</v>
       </c>
     </row>
     <row r="107">
@@ -5962,16 +5962,16 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.300636</v>
+        <v>0.287386</v>
       </c>
       <c r="C107" t="n">
-        <v>0.596642</v>
+        <v>0.597579</v>
       </c>
       <c r="D107" t="n">
-        <v>0.173573</v>
+        <v>0.161281</v>
       </c>
       <c r="E107" t="n">
-        <v>0.226083</v>
+        <v>0.212706</v>
       </c>
     </row>
     <row r="108">
@@ -5979,16 +5979,16 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.369551</v>
+        <v>0.347877</v>
       </c>
       <c r="C108" t="n">
-        <v>0.619162</v>
+        <v>0.618186</v>
       </c>
       <c r="D108" t="n">
-        <v>0.128776</v>
+        <v>0.122296</v>
       </c>
       <c r="E108" t="n">
-        <v>0.160741</v>
+        <v>0.145969</v>
       </c>
     </row>
     <row r="109">
@@ -5996,16 +5996,16 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.457574</v>
+        <v>0.447791</v>
       </c>
       <c r="C109" t="n">
-        <v>0.6419820000000001</v>
+        <v>0.642185</v>
       </c>
       <c r="D109" t="n">
-        <v>0.131486</v>
+        <v>0.123005</v>
       </c>
       <c r="E109" t="n">
-        <v>0.164006</v>
+        <v>0.149117</v>
       </c>
     </row>
     <row r="110">
@@ -6013,16 +6013,16 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.155067</v>
+        <v>0.145593</v>
       </c>
       <c r="C110" t="n">
-        <v>0.664902</v>
+        <v>0.665448</v>
       </c>
       <c r="D110" t="n">
-        <v>0.133987</v>
+        <v>0.124739</v>
       </c>
       <c r="E110" t="n">
-        <v>0.167413</v>
+        <v>0.154756</v>
       </c>
     </row>
     <row r="111">
@@ -6030,16 +6030,16 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.159285</v>
+        <v>0.14965</v>
       </c>
       <c r="C111" t="n">
-        <v>0.690945</v>
+        <v>0.684473</v>
       </c>
       <c r="D111" t="n">
-        <v>0.136365</v>
+        <v>0.126589</v>
       </c>
       <c r="E111" t="n">
-        <v>0.171501</v>
+        <v>0.159666</v>
       </c>
     </row>
     <row r="112">
@@ -6047,16 +6047,16 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.163778</v>
+        <v>0.152983</v>
       </c>
       <c r="C112" t="n">
-        <v>0.715987</v>
+        <v>0.709924</v>
       </c>
       <c r="D112" t="n">
-        <v>0.13871</v>
+        <v>0.128829</v>
       </c>
       <c r="E112" t="n">
-        <v>0.175771</v>
+        <v>0.161988</v>
       </c>
     </row>
     <row r="113">
@@ -6064,16 +6064,16 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.169309</v>
+        <v>0.159991</v>
       </c>
       <c r="C113" t="n">
-        <v>0.741214</v>
+        <v>0.734811</v>
       </c>
       <c r="D113" t="n">
-        <v>0.141684</v>
+        <v>0.129029</v>
       </c>
       <c r="E113" t="n">
-        <v>0.180048</v>
+        <v>0.173138</v>
       </c>
     </row>
     <row r="114">
@@ -6081,16 +6081,16 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.175537</v>
+        <v>0.168613</v>
       </c>
       <c r="C114" t="n">
-        <v>0.768823</v>
+        <v>0.768239</v>
       </c>
       <c r="D114" t="n">
-        <v>0.143974</v>
+        <v>0.136811</v>
       </c>
       <c r="E114" t="n">
-        <v>0.184259</v>
+        <v>0.180394</v>
       </c>
     </row>
     <row r="115">
@@ -6098,16 +6098,16 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.183409</v>
+        <v>0.17864</v>
       </c>
       <c r="C115" t="n">
-        <v>0.795588</v>
+        <v>0.792143</v>
       </c>
       <c r="D115" t="n">
-        <v>0.146855</v>
+        <v>0.13893</v>
       </c>
       <c r="E115" t="n">
-        <v>0.188817</v>
+        <v>0.187017</v>
       </c>
     </row>
     <row r="116">
@@ -6115,16 +6115,16 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.19311</v>
+        <v>0.19055</v>
       </c>
       <c r="C116" t="n">
-        <v>0.825137</v>
+        <v>0.825221</v>
       </c>
       <c r="D116" t="n">
-        <v>0.150107</v>
+        <v>0.147243</v>
       </c>
       <c r="E116" t="n">
-        <v>0.194194</v>
+        <v>0.193011</v>
       </c>
     </row>
     <row r="117">
@@ -6132,16 +6132,16 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.205434</v>
+        <v>0.204031</v>
       </c>
       <c r="C117" t="n">
-        <v>0.8535779999999999</v>
+        <v>0.850842</v>
       </c>
       <c r="D117" t="n">
-        <v>0.154205</v>
+        <v>0.148611</v>
       </c>
       <c r="E117" t="n">
-        <v>0.201337</v>
+        <v>0.199275</v>
       </c>
     </row>
     <row r="118">
@@ -6149,16 +6149,16 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.22131</v>
+        <v>0.217014</v>
       </c>
       <c r="C118" t="n">
-        <v>0.8841020000000001</v>
+        <v>0.886513</v>
       </c>
       <c r="D118" t="n">
-        <v>0.159246</v>
+        <v>0.157701</v>
       </c>
       <c r="E118" t="n">
-        <v>0.208564</v>
+        <v>0.207644</v>
       </c>
     </row>
     <row r="119">
@@ -6166,16 +6166,16 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.242343</v>
+        <v>0.24221</v>
       </c>
       <c r="C119" t="n">
-        <v>0.915818</v>
+        <v>0.915552</v>
       </c>
       <c r="D119" t="n">
-        <v>0.165563</v>
+        <v>0.164408</v>
       </c>
       <c r="E119" t="n">
-        <v>0.217522</v>
+        <v>0.215994</v>
       </c>
     </row>
     <row r="120">
@@ -6183,16 +6183,16 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.271642</v>
+        <v>0.267261</v>
       </c>
       <c r="C120" t="n">
-        <v>0.947496</v>
+        <v>0.944424</v>
       </c>
       <c r="D120" t="n">
-        <v>0.174681</v>
+        <v>0.173656</v>
       </c>
       <c r="E120" t="n">
-        <v>0.230687</v>
+        <v>0.226424</v>
       </c>
     </row>
     <row r="121">
@@ -6200,16 +6200,16 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.312889</v>
+        <v>0.308247</v>
       </c>
       <c r="C121" t="n">
-        <v>0.698465</v>
+        <v>0.698645</v>
       </c>
       <c r="D121" t="n">
-        <v>0.188295</v>
+        <v>0.187696</v>
       </c>
       <c r="E121" t="n">
-        <v>0.251103</v>
+        <v>0.249595</v>
       </c>
     </row>
     <row r="122">
@@ -6217,16 +6217,16 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.374036</v>
+        <v>0.380498</v>
       </c>
       <c r="C122" t="n">
-        <v>0.721826</v>
+        <v>0.710207</v>
       </c>
       <c r="D122" t="n">
-        <v>0.211174</v>
+        <v>0.209676</v>
       </c>
       <c r="E122" t="n">
-        <v>0.280847</v>
+        <v>0.281328</v>
       </c>
     </row>
     <row r="123">
@@ -6234,16 +6234,16 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.472947</v>
+        <v>0.467346</v>
       </c>
       <c r="C123" t="n">
-        <v>0.745705</v>
+        <v>0.745941</v>
       </c>
       <c r="D123" t="n">
-        <v>0.146968</v>
+        <v>0.145529</v>
       </c>
       <c r="E123" t="n">
-        <v>0.184459</v>
+        <v>0.185799</v>
       </c>
     </row>
     <row r="124">
@@ -6251,16 +6251,16 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.171798</v>
+        <v>0.177734</v>
       </c>
       <c r="C124" t="n">
-        <v>0.770806</v>
+        <v>0.771803</v>
       </c>
       <c r="D124" t="n">
-        <v>0.148205</v>
+        <v>0.149725</v>
       </c>
       <c r="E124" t="n">
-        <v>0.188654</v>
+        <v>0.186987</v>
       </c>
     </row>
     <row r="125">
@@ -6268,16 +6268,16 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.178503</v>
+        <v>0.177343</v>
       </c>
       <c r="C125" t="n">
-        <v>0.796082</v>
+        <v>0.797452</v>
       </c>
       <c r="D125" t="n">
-        <v>0.15268</v>
+        <v>0.160654</v>
       </c>
       <c r="E125" t="n">
-        <v>0.191017</v>
+        <v>0.196592</v>
       </c>
     </row>
     <row r="126">
@@ -6285,16 +6285,16 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.181607</v>
+        <v>0.171723</v>
       </c>
       <c r="C126" t="n">
-        <v>0.8224939999999999</v>
+        <v>0.824159</v>
       </c>
       <c r="D126" t="n">
-        <v>0.154121</v>
+        <v>0.153262</v>
       </c>
       <c r="E126" t="n">
-        <v>0.195492</v>
+        <v>0.196715</v>
       </c>
     </row>
     <row r="127">
@@ -6302,16 +6302,16 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.184548</v>
+        <v>0.18564</v>
       </c>
       <c r="C127" t="n">
-        <v>0.8486590000000001</v>
+        <v>0.849472</v>
       </c>
       <c r="D127" t="n">
-        <v>0.154743</v>
+        <v>0.159847</v>
       </c>
       <c r="E127" t="n">
-        <v>0.202057</v>
+        <v>0.205991</v>
       </c>
     </row>
     <row r="128">
@@ -6319,16 +6319,16 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.193776</v>
+        <v>0.198653</v>
       </c>
       <c r="C128" t="n">
-        <v>0.87583</v>
+        <v>0.875698</v>
       </c>
       <c r="D128" t="n">
-        <v>0.157977</v>
+        <v>0.159857</v>
       </c>
       <c r="E128" t="n">
-        <v>0.207948</v>
+        <v>0.212715</v>
       </c>
     </row>
     <row r="129">
@@ -6336,16 +6336,16 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.198755</v>
+        <v>0.192539</v>
       </c>
       <c r="C129" t="n">
-        <v>0.904305</v>
+        <v>0.895946</v>
       </c>
       <c r="D129" t="n">
-        <v>0.161822</v>
+        <v>0.162197</v>
       </c>
       <c r="E129" t="n">
-        <v>0.211628</v>
+        <v>0.21721</v>
       </c>
     </row>
     <row r="130">
@@ -6353,16 +6353,16 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.210457</v>
+        <v>0.208214</v>
       </c>
       <c r="C130" t="n">
-        <v>0.932729</v>
+        <v>0.933568</v>
       </c>
       <c r="D130" t="n">
-        <v>0.165339</v>
+        <v>0.174723</v>
       </c>
       <c r="E130" t="n">
-        <v>0.221682</v>
+        <v>0.216149</v>
       </c>
     </row>
     <row r="131">
@@ -6370,16 +6370,16 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.22318</v>
+        <v>0.212238</v>
       </c>
       <c r="C131" t="n">
-        <v>0.961439</v>
+        <v>0.963453</v>
       </c>
       <c r="D131" t="n">
-        <v>0.17141</v>
+        <v>0.167132</v>
       </c>
       <c r="E131" t="n">
-        <v>0.225161</v>
+        <v>0.226731</v>
       </c>
     </row>
     <row r="132">
@@ -6387,16 +6387,16 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.237161</v>
+        <v>0.243389</v>
       </c>
       <c r="C132" t="n">
-        <v>0.991483</v>
+        <v>0.984115</v>
       </c>
       <c r="D132" t="n">
-        <v>0.173472</v>
+        <v>0.183739</v>
       </c>
       <c r="E132" t="n">
-        <v>0.23287</v>
+        <v>0.233007</v>
       </c>
     </row>
     <row r="133">
@@ -6404,16 +6404,16 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.258767</v>
+        <v>0.259042</v>
       </c>
       <c r="C133" t="n">
-        <v>1.02207</v>
+        <v>1.02148</v>
       </c>
       <c r="D133" t="n">
-        <v>0.179912</v>
+        <v>0.181315</v>
       </c>
       <c r="E133" t="n">
-        <v>0.246011</v>
+        <v>0.241523</v>
       </c>
     </row>
     <row r="134">
@@ -6421,16 +6421,16 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.290014</v>
+        <v>0.291954</v>
       </c>
       <c r="C134" t="n">
-        <v>1.05448</v>
+        <v>1.0545</v>
       </c>
       <c r="D134" t="n">
-        <v>0.187816</v>
+        <v>0.187372</v>
       </c>
       <c r="E134" t="n">
-        <v>0.256594</v>
+        <v>0.255847</v>
       </c>
     </row>
     <row r="135">
@@ -6438,16 +6438,16 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.336311</v>
+        <v>0.323955</v>
       </c>
       <c r="C135" t="n">
-        <v>0.703213</v>
+        <v>0.696757</v>
       </c>
       <c r="D135" t="n">
-        <v>0.204712</v>
+        <v>0.19459</v>
       </c>
       <c r="E135" t="n">
-        <v>0.276129</v>
+        <v>0.269091</v>
       </c>
     </row>
     <row r="136">
@@ -6455,16 +6455,16 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.390474</v>
+        <v>0.387623</v>
       </c>
       <c r="C136" t="n">
-        <v>0.72154</v>
+        <v>0.721989</v>
       </c>
       <c r="D136" t="n">
-        <v>0.222743</v>
+        <v>0.222333</v>
       </c>
       <c r="E136" t="n">
-        <v>0.304906</v>
+        <v>0.307784</v>
       </c>
     </row>
     <row r="137">
@@ -6472,16 +6472,16 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.483114</v>
+        <v>0.480193</v>
       </c>
       <c r="C137" t="n">
-        <v>0.740609</v>
+        <v>0.73499</v>
       </c>
       <c r="D137" t="n">
-        <v>0.276612</v>
+        <v>0.264008</v>
       </c>
       <c r="E137" t="n">
-        <v>0.326809</v>
+        <v>0.327723</v>
       </c>
     </row>
     <row r="138">
@@ -6489,16 +6489,16 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.316242</v>
+        <v>0.319246</v>
       </c>
       <c r="C138" t="n">
-        <v>0.761074</v>
+        <v>0.762035</v>
       </c>
       <c r="D138" t="n">
-        <v>0.285747</v>
+        <v>0.282455</v>
       </c>
       <c r="E138" t="n">
-        <v>0.32752</v>
+        <v>0.327513</v>
       </c>
     </row>
     <row r="139">
@@ -6506,16 +6506,16 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.31833</v>
+        <v>0.315725</v>
       </c>
       <c r="C139" t="n">
-        <v>0.782738</v>
+        <v>0.783497</v>
       </c>
       <c r="D139" t="n">
-        <v>0.284005</v>
+        <v>0.272093</v>
       </c>
       <c r="E139" t="n">
-        <v>0.334177</v>
+        <v>0.331974</v>
       </c>
     </row>
     <row r="140">
@@ -6523,16 +6523,16 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.324069</v>
+        <v>0.323612</v>
       </c>
       <c r="C140" t="n">
-        <v>0.804953</v>
+        <v>0.805997</v>
       </c>
       <c r="D140" t="n">
-        <v>0.285856</v>
+        <v>0.286227</v>
       </c>
       <c r="E140" t="n">
-        <v>0.337599</v>
+        <v>0.323561</v>
       </c>
     </row>
     <row r="141">
@@ -6540,16 +6540,16 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.327015</v>
+        <v>0.332546</v>
       </c>
       <c r="C141" t="n">
-        <v>0.828223</v>
+        <v>0.829283</v>
       </c>
       <c r="D141" t="n">
-        <v>0.289153</v>
+        <v>0.292561</v>
       </c>
       <c r="E141" t="n">
-        <v>0.342145</v>
+        <v>0.342673</v>
       </c>
     </row>
     <row r="142">
@@ -6557,16 +6557,16 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.335739</v>
+        <v>0.316304</v>
       </c>
       <c r="C142" t="n">
-        <v>0.8522650000000001</v>
+        <v>0.853495</v>
       </c>
       <c r="D142" t="n">
-        <v>0.292881</v>
+        <v>0.285107</v>
       </c>
       <c r="E142" t="n">
-        <v>0.350138</v>
+        <v>0.350313</v>
       </c>
     </row>
     <row r="143">
@@ -6574,16 +6574,16 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.340301</v>
+        <v>0.348262</v>
       </c>
       <c r="C143" t="n">
-        <v>0.877623</v>
+        <v>0.877595</v>
       </c>
       <c r="D143" t="n">
-        <v>0.292347</v>
+        <v>0.295021</v>
       </c>
       <c r="E143" t="n">
-        <v>0.356205</v>
+        <v>0.359223</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Scattered unsuccessful looukp.xlsx
+++ b/clang-x86/Scattered unsuccessful looukp.xlsx
@@ -4139,7 +4139,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E143"/>
+  <dimension ref="A1:F143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="I27" sqref="I27"/>
@@ -4177,16 +4177,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.093656</v>
+        <v>0.0963733</v>
       </c>
       <c r="C2" t="n">
-        <v>0.185157</v>
+        <v>0.0979154</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0836474</v>
+        <v>0.186649</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0848209</v>
+        <v>0.0837126</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.0842788</v>
       </c>
     </row>
     <row r="3">
@@ -4194,16 +4197,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.100349</v>
+        <v>0.10227</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1928</v>
+        <v>0.104833</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0843086</v>
+        <v>0.194261</v>
       </c>
       <c r="E3" t="n">
-        <v>0.08549420000000001</v>
+        <v>0.0845648</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.0850311</v>
       </c>
     </row>
     <row r="4">
@@ -4211,16 +4217,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.112791</v>
+        <v>0.111628</v>
       </c>
       <c r="C4" t="n">
-        <v>0.19981</v>
+        <v>0.112995</v>
       </c>
       <c r="D4" t="n">
-        <v>0.08560570000000001</v>
+        <v>0.202635</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0869843</v>
+        <v>0.08575049999999999</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.0864018</v>
       </c>
     </row>
     <row r="5">
@@ -4228,16 +4237,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.127192</v>
+        <v>0.131525</v>
       </c>
       <c r="C5" t="n">
-        <v>0.207774</v>
+        <v>0.136489</v>
       </c>
       <c r="D5" t="n">
-        <v>0.08673260000000001</v>
+        <v>0.209433</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0888468</v>
+        <v>0.0874743</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.0878649</v>
       </c>
     </row>
     <row r="6">
@@ -4245,16 +4257,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.151883</v>
+        <v>0.159797</v>
       </c>
       <c r="C6" t="n">
-        <v>0.213148</v>
+        <v>0.16396</v>
       </c>
       <c r="D6" t="n">
-        <v>0.08859980000000001</v>
+        <v>0.214504</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0906666</v>
+        <v>0.08902</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.0895268</v>
       </c>
     </row>
     <row r="7">
@@ -4262,16 +4277,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.186738</v>
+        <v>0.189586</v>
       </c>
       <c r="C7" t="n">
-        <v>0.162078</v>
+        <v>0.191638</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0941594</v>
+        <v>0.161743</v>
       </c>
       <c r="E7" t="n">
-        <v>0.09645860000000001</v>
+        <v>0.09541769999999999</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.09470779999999999</v>
       </c>
     </row>
     <row r="8">
@@ -4279,16 +4297,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.225869</v>
+        <v>0.228941</v>
       </c>
       <c r="C8" t="n">
-        <v>0.17241</v>
+        <v>0.225892</v>
       </c>
       <c r="D8" t="n">
-        <v>0.105441</v>
+        <v>0.169536</v>
       </c>
       <c r="E8" t="n">
-        <v>0.108469</v>
+        <v>0.107405</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.107065</v>
       </c>
     </row>
     <row r="9">
@@ -4296,16 +4317,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.261677</v>
+        <v>0.284676</v>
       </c>
       <c r="C9" t="n">
-        <v>0.17882</v>
+        <v>0.268123</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0820763</v>
+        <v>0.176198</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0829039</v>
+        <v>0.08220760000000001</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.0828816</v>
       </c>
     </row>
     <row r="10">
@@ -4313,16 +4337,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.08686629999999999</v>
+        <v>0.0862528</v>
       </c>
       <c r="C10" t="n">
-        <v>0.185566</v>
+        <v>0.0875674</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0822618</v>
+        <v>0.183447</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0832378</v>
+        <v>0.08247400000000001</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.08331139999999999</v>
       </c>
     </row>
     <row r="11">
@@ -4330,16 +4357,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.087758</v>
+        <v>0.0882994</v>
       </c>
       <c r="C11" t="n">
-        <v>0.192063</v>
+        <v>0.0886907</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0828194</v>
+        <v>0.190955</v>
       </c>
       <c r="E11" t="n">
-        <v>0.083647</v>
+        <v>0.08289150000000001</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.0837469</v>
       </c>
     </row>
     <row r="12">
@@ -4347,16 +4377,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.08845500000000001</v>
+        <v>0.0882023</v>
       </c>
       <c r="C12" t="n">
-        <v>0.199277</v>
+        <v>0.08970889999999999</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0829051</v>
+        <v>0.198293</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0838436</v>
+        <v>0.0829694</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.08405269999999999</v>
       </c>
     </row>
     <row r="13">
@@ -4364,16 +4397,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.090276</v>
+        <v>0.08971759999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>0.205657</v>
+        <v>0.0921401</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0832311</v>
+        <v>0.204729</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0840842</v>
+        <v>0.0831225</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.08441419999999999</v>
       </c>
     </row>
     <row r="14">
@@ -4381,16 +4417,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0927038</v>
+        <v>0.0920787</v>
       </c>
       <c r="C14" t="n">
-        <v>0.210714</v>
+        <v>0.0942677</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0835809</v>
+        <v>0.211711</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0844205</v>
+        <v>0.08343920000000001</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.0847055</v>
       </c>
     </row>
     <row r="15">
@@ -4398,16 +4437,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.09551750000000001</v>
+        <v>0.0953089</v>
       </c>
       <c r="C15" t="n">
-        <v>0.218908</v>
+        <v>0.09766420000000001</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0840712</v>
+        <v>0.219279</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0851842</v>
+        <v>0.08409030000000001</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.0851319</v>
       </c>
     </row>
     <row r="16">
@@ -4415,16 +4457,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.100627</v>
+        <v>0.100342</v>
       </c>
       <c r="C16" t="n">
-        <v>0.226832</v>
+        <v>0.104839</v>
       </c>
       <c r="D16" t="n">
-        <v>0.08457679999999999</v>
+        <v>0.225786</v>
       </c>
       <c r="E16" t="n">
-        <v>0.08568919999999999</v>
+        <v>0.0845402</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.0857851</v>
       </c>
     </row>
     <row r="17">
@@ -4432,16 +4477,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.106697</v>
+        <v>0.109641</v>
       </c>
       <c r="C17" t="n">
-        <v>0.232168</v>
+        <v>0.112411</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0854543</v>
+        <v>0.232605</v>
       </c>
       <c r="E17" t="n">
-        <v>0.087092</v>
+        <v>0.08588179999999999</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.0868963</v>
       </c>
     </row>
     <row r="18">
@@ -4449,16 +4497,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.117661</v>
+        <v>0.120167</v>
       </c>
       <c r="C18" t="n">
-        <v>0.238878</v>
+        <v>0.122826</v>
       </c>
       <c r="D18" t="n">
-        <v>0.086696</v>
+        <v>0.237812</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0885441</v>
+        <v>0.0871789</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.08812109999999999</v>
       </c>
     </row>
     <row r="19">
@@ -4466,16 +4517,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.132438</v>
+        <v>0.135654</v>
       </c>
       <c r="C19" t="n">
-        <v>0.24485</v>
+        <v>0.137669</v>
       </c>
       <c r="D19" t="n">
-        <v>0.088486</v>
+        <v>0.245104</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0903568</v>
+        <v>0.0887903</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.0899403</v>
       </c>
     </row>
     <row r="20">
@@ -4483,16 +4537,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.150682</v>
+        <v>0.154531</v>
       </c>
       <c r="C20" t="n">
-        <v>0.251212</v>
+        <v>0.164725</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0913017</v>
+        <v>0.251295</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0939387</v>
+        <v>0.0919292</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.09461260000000001</v>
       </c>
     </row>
     <row r="21">
@@ -4500,16 +4557,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.178355</v>
+        <v>0.184807</v>
       </c>
       <c r="C21" t="n">
-        <v>0.183905</v>
+        <v>0.185759</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0970371</v>
+        <v>0.181677</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0998119</v>
+        <v>0.0989212</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.09936490000000001</v>
       </c>
     </row>
     <row r="22">
@@ -4517,16 +4577,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.2119</v>
+        <v>0.229682</v>
       </c>
       <c r="C22" t="n">
-        <v>0.190961</v>
+        <v>0.220104</v>
       </c>
       <c r="D22" t="n">
-        <v>0.109134</v>
+        <v>0.190575</v>
       </c>
       <c r="E22" t="n">
-        <v>0.1115</v>
+        <v>0.110141</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.113604</v>
       </c>
     </row>
     <row r="23">
@@ -4534,16 +4597,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.257795</v>
+        <v>0.274579</v>
       </c>
       <c r="C23" t="n">
-        <v>0.198404</v>
+        <v>0.260236</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0832344</v>
+        <v>0.198558</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0844717</v>
+        <v>0.0831692</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.08481610000000001</v>
       </c>
     </row>
     <row r="24">
@@ -4551,16 +4617,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0904269</v>
+        <v>0.0914547</v>
       </c>
       <c r="C24" t="n">
-        <v>0.207256</v>
+        <v>0.0924566</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0834013</v>
+        <v>0.205833</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0844787</v>
+        <v>0.0838667</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.0847078</v>
       </c>
     </row>
     <row r="25">
@@ -4568,16 +4637,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0916143</v>
+        <v>0.0914406</v>
       </c>
       <c r="C25" t="n">
-        <v>0.21426</v>
+        <v>0.0933638</v>
       </c>
       <c r="D25" t="n">
-        <v>0.083595</v>
+        <v>0.212989</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0850047</v>
+        <v>0.0836332</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.08510379999999999</v>
       </c>
     </row>
     <row r="26">
@@ -4585,16 +4657,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.09335930000000001</v>
+        <v>0.0929792</v>
       </c>
       <c r="C26" t="n">
-        <v>0.220533</v>
+        <v>0.09574969999999999</v>
       </c>
       <c r="D26" t="n">
-        <v>0.08405079999999999</v>
+        <v>0.220741</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0854303</v>
+        <v>0.0840024</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.0862865</v>
       </c>
     </row>
     <row r="27">
@@ -4602,16 +4677,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.095111</v>
+        <v>0.0945004</v>
       </c>
       <c r="C27" t="n">
-        <v>0.228203</v>
+        <v>0.0960527</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0844625</v>
+        <v>0.228433</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0860744</v>
+        <v>0.0849673</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.0865147</v>
       </c>
     </row>
     <row r="28">
@@ -4619,16 +4697,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.09850879999999999</v>
+        <v>0.0972235</v>
       </c>
       <c r="C28" t="n">
-        <v>0.233778</v>
+        <v>0.0990051</v>
       </c>
       <c r="D28" t="n">
-        <v>0.084878</v>
+        <v>0.236035</v>
       </c>
       <c r="E28" t="n">
-        <v>0.08682719999999999</v>
+        <v>0.0854837</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.08820600000000001</v>
       </c>
     </row>
     <row r="29">
@@ -4636,16 +4717,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.102843</v>
+        <v>0.100592</v>
       </c>
       <c r="C29" t="n">
-        <v>0.240671</v>
+        <v>0.10595</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0853487</v>
+        <v>0.242024</v>
       </c>
       <c r="E29" t="n">
-        <v>0.08746370000000001</v>
+        <v>0.0868347</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.0872315</v>
       </c>
     </row>
     <row r="30">
@@ -4653,16 +4737,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.108271</v>
+        <v>0.105977</v>
       </c>
       <c r="C30" t="n">
-        <v>0.248244</v>
+        <v>0.111717</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0860872</v>
+        <v>0.247018</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0884423</v>
+        <v>0.0867547</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.0897134</v>
       </c>
     </row>
     <row r="31">
@@ -4670,16 +4757,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.116257</v>
+        <v>0.113464</v>
       </c>
       <c r="C31" t="n">
-        <v>0.252103</v>
+        <v>0.11711</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0871841</v>
+        <v>0.251526</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0895328</v>
+        <v>0.0881073</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.0896936</v>
       </c>
     </row>
     <row r="32">
@@ -4687,16 +4777,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.12599</v>
+        <v>0.121458</v>
       </c>
       <c r="C32" t="n">
-        <v>0.257779</v>
+        <v>0.126878</v>
       </c>
       <c r="D32" t="n">
-        <v>0.08858779999999999</v>
+        <v>0.257215</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0912148</v>
+        <v>0.08884010000000001</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.0926934</v>
       </c>
     </row>
     <row r="33">
@@ -4704,16 +4797,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.139662</v>
+        <v>0.135037</v>
       </c>
       <c r="C33" t="n">
-        <v>0.262749</v>
+        <v>0.140539</v>
       </c>
       <c r="D33" t="n">
-        <v>0.09085749999999999</v>
+        <v>0.263798</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0938833</v>
+        <v>0.09122619999999999</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.09357</v>
       </c>
     </row>
     <row r="34">
@@ -4721,16 +4817,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.158481</v>
+        <v>0.150494</v>
       </c>
       <c r="C34" t="n">
-        <v>0.268526</v>
+        <v>0.158957</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0947585</v>
+        <v>0.269938</v>
       </c>
       <c r="E34" t="n">
-        <v>0.09787709999999999</v>
+        <v>0.0951153</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.0976394</v>
       </c>
     </row>
     <row r="35">
@@ -4738,16 +4837,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.181683</v>
+        <v>0.179427</v>
       </c>
       <c r="C35" t="n">
-        <v>0.196562</v>
+        <v>0.18055</v>
       </c>
       <c r="D35" t="n">
-        <v>0.101763</v>
+        <v>0.196276</v>
       </c>
       <c r="E35" t="n">
-        <v>0.105307</v>
+        <v>0.102237</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.10619</v>
       </c>
     </row>
     <row r="36">
@@ -4755,16 +4857,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.214559</v>
+        <v>0.219697</v>
       </c>
       <c r="C36" t="n">
-        <v>0.202419</v>
+        <v>0.215982</v>
       </c>
       <c r="D36" t="n">
-        <v>0.112824</v>
+        <v>0.20387</v>
       </c>
       <c r="E36" t="n">
-        <v>0.11653</v>
+        <v>0.113941</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.116258</v>
       </c>
     </row>
     <row r="37">
@@ -4772,16 +4877,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.25427</v>
+        <v>0.259664</v>
       </c>
       <c r="C37" t="n">
-        <v>0.211183</v>
+        <v>0.269593</v>
       </c>
       <c r="D37" t="n">
-        <v>0.08389580000000001</v>
+        <v>0.211538</v>
       </c>
       <c r="E37" t="n">
-        <v>0.08594400000000001</v>
+        <v>0.0850259</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.086435</v>
       </c>
     </row>
     <row r="38">
@@ -4789,16 +4897,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0928764</v>
+        <v>0.09342399999999999</v>
       </c>
       <c r="C38" t="n">
-        <v>0.21759</v>
+        <v>0.0951781</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0840716</v>
+        <v>0.218893</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0864056</v>
+        <v>0.0855422</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.0871599</v>
       </c>
     </row>
     <row r="39">
@@ -4806,16 +4917,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0940448</v>
+        <v>0.0934666</v>
       </c>
       <c r="C39" t="n">
-        <v>0.225138</v>
+        <v>0.096738</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0844678</v>
+        <v>0.225973</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0868873</v>
+        <v>0.08492180000000001</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.0875826</v>
       </c>
     </row>
     <row r="40">
@@ -4823,16 +4937,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.095636</v>
+        <v>0.09587229999999999</v>
       </c>
       <c r="C40" t="n">
-        <v>0.232491</v>
+        <v>0.0980372</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0847686</v>
+        <v>0.233531</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0872498</v>
+        <v>0.0860297</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.0877579</v>
       </c>
     </row>
     <row r="41">
@@ -4840,16 +4957,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.09832630000000001</v>
+        <v>0.0984671</v>
       </c>
       <c r="C41" t="n">
-        <v>0.239592</v>
+        <v>0.101596</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0850634</v>
+        <v>0.239645</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0879243</v>
+        <v>0.0861329</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.0887969</v>
       </c>
     </row>
     <row r="42">
@@ -4857,16 +4977,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.10103</v>
+        <v>0.0999255</v>
       </c>
       <c r="C42" t="n">
-        <v>0.246715</v>
+        <v>0.103638</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0855262</v>
+        <v>0.247001</v>
       </c>
       <c r="E42" t="n">
-        <v>0.08833340000000001</v>
+        <v>0.0866774</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.08885079999999999</v>
       </c>
     </row>
     <row r="43">
@@ -4874,16 +4997,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.104688</v>
+        <v>0.104952</v>
       </c>
       <c r="C43" t="n">
-        <v>0.252416</v>
+        <v>0.10946</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0861967</v>
+        <v>0.253646</v>
       </c>
       <c r="E43" t="n">
-        <v>0.08938359999999999</v>
+        <v>0.0865567</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.09009209999999999</v>
       </c>
     </row>
     <row r="44">
@@ -4891,16 +5017,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.109975</v>
+        <v>0.109037</v>
       </c>
       <c r="C44" t="n">
-        <v>0.259268</v>
+        <v>0.114525</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0867301</v>
+        <v>0.25936</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0906769</v>
+        <v>0.08734359999999999</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.0907559</v>
       </c>
     </row>
     <row r="45">
@@ -4908,16 +5037,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.116726</v>
+        <v>0.115162</v>
       </c>
       <c r="C45" t="n">
-        <v>0.265545</v>
+        <v>0.119328</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0878993</v>
+        <v>0.265374</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0916208</v>
+        <v>0.0884851</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.0929155</v>
       </c>
     </row>
     <row r="46">
@@ -4925,16 +5057,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.125818</v>
+        <v>0.123676</v>
       </c>
       <c r="C46" t="n">
-        <v>0.270852</v>
+        <v>0.128334</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0894417</v>
+        <v>0.271578</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0933138</v>
+        <v>0.0895053</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.0946902</v>
       </c>
     </row>
     <row r="47">
@@ -4942,16 +5077,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.136419</v>
+        <v>0.134441</v>
       </c>
       <c r="C47" t="n">
-        <v>0.276105</v>
+        <v>0.139441</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0914321</v>
+        <v>0.276982</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0958082</v>
+        <v>0.0933103</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.09607449999999999</v>
       </c>
     </row>
     <row r="48">
@@ -4959,16 +5097,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.151722</v>
+        <v>0.152612</v>
       </c>
       <c r="C48" t="n">
-        <v>0.282562</v>
+        <v>0.153755</v>
       </c>
       <c r="D48" t="n">
-        <v>0.095071</v>
+        <v>0.283069</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0995722</v>
+        <v>0.0957359</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.09947930000000001</v>
       </c>
     </row>
     <row r="49">
@@ -4976,16 +5117,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.175318</v>
+        <v>0.173082</v>
       </c>
       <c r="C49" t="n">
-        <v>0.288085</v>
+        <v>0.175911</v>
       </c>
       <c r="D49" t="n">
-        <v>0.100512</v>
+        <v>0.288653</v>
       </c>
       <c r="E49" t="n">
-        <v>0.105404</v>
+        <v>0.101326</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.106233</v>
       </c>
     </row>
     <row r="50">
@@ -4993,16 +5137,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.205179</v>
+        <v>0.215418</v>
       </c>
       <c r="C50" t="n">
-        <v>0.202261</v>
+        <v>0.205724</v>
       </c>
       <c r="D50" t="n">
-        <v>0.110206</v>
+        <v>0.203395</v>
       </c>
       <c r="E50" t="n">
-        <v>0.115272</v>
+        <v>0.110992</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.116448</v>
       </c>
     </row>
     <row r="51">
@@ -5010,16 +5157,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.246224</v>
+        <v>0.254311</v>
       </c>
       <c r="C51" t="n">
-        <v>0.209411</v>
+        <v>0.248078</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0864309</v>
+        <v>0.210377</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0899731</v>
+        <v>0.0868488</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.09019480000000001</v>
       </c>
     </row>
     <row r="52">
@@ -5027,16 +5177,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.29264</v>
+        <v>0.301017</v>
       </c>
       <c r="C52" t="n">
-        <v>0.216173</v>
+        <v>0.293467</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0868221</v>
+        <v>0.217025</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0907906</v>
+        <v>0.0866842</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.0904097</v>
       </c>
     </row>
     <row r="53">
@@ -5044,16 +5197,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0982484</v>
+        <v>0.0969904</v>
       </c>
       <c r="C53" t="n">
-        <v>0.224171</v>
+        <v>0.10129</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0865723</v>
+        <v>0.224514</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0909209</v>
+        <v>0.08754869999999999</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.0906672</v>
       </c>
     </row>
     <row r="54">
@@ -5061,16 +5217,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0999005</v>
+        <v>0.099145</v>
       </c>
       <c r="C54" t="n">
-        <v>0.230998</v>
+        <v>0.103969</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0871763</v>
+        <v>0.231698</v>
       </c>
       <c r="E54" t="n">
-        <v>0.09196</v>
+        <v>0.0873693</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.0913523</v>
       </c>
     </row>
     <row r="55">
@@ -5078,16 +5237,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.102765</v>
+        <v>0.101053</v>
       </c>
       <c r="C55" t="n">
-        <v>0.237744</v>
+        <v>0.105298</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0868395</v>
+        <v>0.238359</v>
       </c>
       <c r="E55" t="n">
-        <v>0.09193460000000001</v>
+        <v>0.0868128</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.0914842</v>
       </c>
     </row>
     <row r="56">
@@ -5095,16 +5257,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.103956</v>
+        <v>0.103318</v>
       </c>
       <c r="C56" t="n">
-        <v>0.244104</v>
+        <v>0.107541</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0877792</v>
+        <v>0.244847</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0933331</v>
+        <v>0.0886571</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.0922366</v>
       </c>
     </row>
     <row r="57">
@@ -5112,16 +5277,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.10783</v>
+        <v>0.107742</v>
       </c>
       <c r="C57" t="n">
-        <v>0.250441</v>
+        <v>0.11216</v>
       </c>
       <c r="D57" t="n">
-        <v>0.08854380000000001</v>
+        <v>0.25064</v>
       </c>
       <c r="E57" t="n">
-        <v>0.09282840000000001</v>
+        <v>0.0889379</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.09299780000000001</v>
       </c>
     </row>
     <row r="58">
@@ -5129,16 +5297,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.112137</v>
+        <v>0.114416</v>
       </c>
       <c r="C58" t="n">
-        <v>0.255724</v>
+        <v>0.118117</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0896289</v>
+        <v>0.256227</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0940884</v>
+        <v>0.0900792</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.0933094</v>
       </c>
     </row>
     <row r="59">
@@ -5146,16 +5317,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.120463</v>
+        <v>0.119689</v>
       </c>
       <c r="C59" t="n">
-        <v>0.261928</v>
+        <v>0.125701</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0903896</v>
+        <v>0.262116</v>
       </c>
       <c r="E59" t="n">
-        <v>0.094846</v>
+        <v>0.09069439999999999</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.09485789999999999</v>
       </c>
     </row>
     <row r="60">
@@ -5163,16 +5337,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.126366</v>
+        <v>0.12801</v>
       </c>
       <c r="C60" t="n">
-        <v>0.267403</v>
+        <v>0.130518</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0918751</v>
+        <v>0.267067</v>
       </c>
       <c r="E60" t="n">
-        <v>0.09724439999999999</v>
+        <v>0.09191390000000001</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.09687220000000001</v>
       </c>
     </row>
     <row r="61">
@@ -5180,16 +5357,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.1384</v>
+        <v>0.135254</v>
       </c>
       <c r="C61" t="n">
-        <v>0.272999</v>
+        <v>0.144818</v>
       </c>
       <c r="D61" t="n">
-        <v>0.093997</v>
+        <v>0.27288</v>
       </c>
       <c r="E61" t="n">
-        <v>0.100244</v>
+        <v>0.0942687</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.099812</v>
       </c>
     </row>
     <row r="62">
@@ -5197,16 +5377,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.151846</v>
+        <v>0.156835</v>
       </c>
       <c r="C62" t="n">
-        <v>0.278828</v>
+        <v>0.161133</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0976798</v>
+        <v>0.279119</v>
       </c>
       <c r="E62" t="n">
-        <v>0.103309</v>
+        <v>0.0984457</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.103778</v>
       </c>
     </row>
     <row r="63">
@@ -5214,16 +5397,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.172034</v>
+        <v>0.177557</v>
       </c>
       <c r="C63" t="n">
-        <v>0.285505</v>
+        <v>0.175079</v>
       </c>
       <c r="D63" t="n">
-        <v>0.101664</v>
+        <v>0.284703</v>
       </c>
       <c r="E63" t="n">
-        <v>0.10832</v>
+        <v>0.102957</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.108072</v>
       </c>
     </row>
     <row r="64">
@@ -5231,16 +5417,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.199707</v>
+        <v>0.200738</v>
       </c>
       <c r="C64" t="n">
-        <v>0.210723</v>
+        <v>0.205071</v>
       </c>
       <c r="D64" t="n">
-        <v>0.111239</v>
+        <v>0.211555</v>
       </c>
       <c r="E64" t="n">
-        <v>0.116725</v>
+        <v>0.112627</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.116517</v>
       </c>
     </row>
     <row r="65">
@@ -5248,16 +5437,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.240667</v>
+        <v>0.24758</v>
       </c>
       <c r="C65" t="n">
-        <v>0.217041</v>
+        <v>0.245185</v>
       </c>
       <c r="D65" t="n">
-        <v>0.124914</v>
+        <v>0.216954</v>
       </c>
       <c r="E65" t="n">
-        <v>0.13184</v>
+        <v>0.125233</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.131287</v>
       </c>
     </row>
     <row r="66">
@@ -5265,16 +5457,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.28731</v>
+        <v>0.296625</v>
       </c>
       <c r="C66" t="n">
-        <v>0.226023</v>
+        <v>0.293209</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0934705</v>
+        <v>0.224175</v>
       </c>
       <c r="E66" t="n">
-        <v>0.09794029999999999</v>
+        <v>0.0934118</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.0979302</v>
       </c>
     </row>
     <row r="67">
@@ -5282,16 +5477,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.107742</v>
+        <v>0.106719</v>
       </c>
       <c r="C67" t="n">
-        <v>0.236127</v>
+        <v>0.113972</v>
       </c>
       <c r="D67" t="n">
-        <v>0.093816</v>
+        <v>0.235162</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0977707</v>
+        <v>0.09348869999999999</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.09794650000000001</v>
       </c>
     </row>
     <row r="68">
@@ -5299,16 +5497,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.109026</v>
+        <v>0.109397</v>
       </c>
       <c r="C68" t="n">
-        <v>0.245307</v>
+        <v>0.113718</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0941394</v>
+        <v>0.243578</v>
       </c>
       <c r="E68" t="n">
-        <v>0.09854069999999999</v>
+        <v>0.0940478</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.09888479999999999</v>
       </c>
     </row>
     <row r="69">
@@ -5316,16 +5517,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.110489</v>
+        <v>0.111842</v>
       </c>
       <c r="C69" t="n">
-        <v>0.255466</v>
+        <v>0.117147</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0954615</v>
+        <v>0.253955</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0996616</v>
+        <v>0.0943435</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.09942049999999999</v>
       </c>
     </row>
     <row r="70">
@@ -5333,16 +5537,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.114735</v>
+        <v>0.115281</v>
       </c>
       <c r="C70" t="n">
-        <v>0.268016</v>
+        <v>0.119402</v>
       </c>
       <c r="D70" t="n">
-        <v>0.09526</v>
+        <v>0.265847</v>
       </c>
       <c r="E70" t="n">
-        <v>0.100975</v>
+        <v>0.094946</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.10006</v>
       </c>
     </row>
     <row r="71">
@@ -5350,16 +5557,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.118862</v>
+        <v>0.118353</v>
       </c>
       <c r="C71" t="n">
-        <v>0.278586</v>
+        <v>0.123967</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0956229</v>
+        <v>0.274152</v>
       </c>
       <c r="E71" t="n">
-        <v>0.101363</v>
+        <v>0.0955062</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.10139</v>
       </c>
     </row>
     <row r="72">
@@ -5367,16 +5577,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.123765</v>
+        <v>0.122212</v>
       </c>
       <c r="C72" t="n">
-        <v>0.287298</v>
+        <v>0.129343</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0971477</v>
+        <v>0.284656</v>
       </c>
       <c r="E72" t="n">
-        <v>0.104348</v>
+        <v>0.0968485</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.103395</v>
       </c>
     </row>
     <row r="73">
@@ -5384,16 +5597,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.129434</v>
+        <v>0.129769</v>
       </c>
       <c r="C73" t="n">
-        <v>0.301715</v>
+        <v>0.136167</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0985256</v>
+        <v>0.296652</v>
       </c>
       <c r="E73" t="n">
-        <v>0.104675</v>
+        <v>0.0978865</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.104525</v>
       </c>
     </row>
     <row r="74">
@@ -5401,16 +5617,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.136961</v>
+        <v>0.137289</v>
       </c>
       <c r="C74" t="n">
-        <v>0.315136</v>
+        <v>0.145257</v>
       </c>
       <c r="D74" t="n">
-        <v>0.09972979999999999</v>
+        <v>0.31036</v>
       </c>
       <c r="E74" t="n">
-        <v>0.107469</v>
+        <v>0.0988657</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.10647</v>
       </c>
     </row>
     <row r="75">
@@ -5418,16 +5637,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.149112</v>
+        <v>0.144817</v>
       </c>
       <c r="C75" t="n">
-        <v>0.327711</v>
+        <v>0.157182</v>
       </c>
       <c r="D75" t="n">
-        <v>0.101743</v>
+        <v>0.325612</v>
       </c>
       <c r="E75" t="n">
-        <v>0.109659</v>
+        <v>0.10122</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.110084</v>
       </c>
     </row>
     <row r="76">
@@ -5435,16 +5657,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.166494</v>
+        <v>0.157133</v>
       </c>
       <c r="C76" t="n">
-        <v>0.346909</v>
+        <v>0.169353</v>
       </c>
       <c r="D76" t="n">
-        <v>0.104491</v>
+        <v>0.339687</v>
       </c>
       <c r="E76" t="n">
-        <v>0.114354</v>
+        <v>0.104656</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.112763</v>
       </c>
     </row>
     <row r="77">
@@ -5452,16 +5677,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.181908</v>
+        <v>0.186322</v>
       </c>
       <c r="C77" t="n">
-        <v>0.362641</v>
+        <v>0.194185</v>
       </c>
       <c r="D77" t="n">
-        <v>0.109649</v>
+        <v>0.353166</v>
       </c>
       <c r="E77" t="n">
-        <v>0.119592</v>
+        <v>0.110056</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.119144</v>
       </c>
     </row>
     <row r="78">
@@ -5469,16 +5697,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.209374</v>
+        <v>0.208243</v>
       </c>
       <c r="C78" t="n">
-        <v>0.278649</v>
+        <v>0.219011</v>
       </c>
       <c r="D78" t="n">
-        <v>0.117532</v>
+        <v>0.275571</v>
       </c>
       <c r="E78" t="n">
-        <v>0.127625</v>
+        <v>0.117218</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.128253</v>
       </c>
     </row>
     <row r="79">
@@ -5486,16 +5717,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.250505</v>
+        <v>0.253653</v>
       </c>
       <c r="C79" t="n">
-        <v>0.296831</v>
+        <v>0.268962</v>
       </c>
       <c r="D79" t="n">
-        <v>0.131077</v>
+        <v>0.29004</v>
       </c>
       <c r="E79" t="n">
-        <v>0.143615</v>
+        <v>0.131853</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.143139</v>
       </c>
     </row>
     <row r="80">
@@ -5503,16 +5737,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.307466</v>
+        <v>0.298085</v>
       </c>
       <c r="C80" t="n">
-        <v>0.314195</v>
+        <v>0.319467</v>
       </c>
       <c r="D80" t="n">
-        <v>0.101683</v>
+        <v>0.309728</v>
       </c>
       <c r="E80" t="n">
-        <v>0.107227</v>
+        <v>0.1017</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.106987</v>
       </c>
     </row>
     <row r="81">
@@ -5520,16 +5757,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.120193</v>
+        <v>0.119861</v>
       </c>
       <c r="C81" t="n">
-        <v>0.330886</v>
+        <v>0.126125</v>
       </c>
       <c r="D81" t="n">
-        <v>0.102526</v>
+        <v>0.326972</v>
       </c>
       <c r="E81" t="n">
-        <v>0.10865</v>
+        <v>0.102355</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.108355</v>
       </c>
     </row>
     <row r="82">
@@ -5537,16 +5777,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.123414</v>
+        <v>0.121453</v>
       </c>
       <c r="C82" t="n">
-        <v>0.349753</v>
+        <v>0.129482</v>
       </c>
       <c r="D82" t="n">
-        <v>0.102769</v>
+        <v>0.346388</v>
       </c>
       <c r="E82" t="n">
-        <v>0.110606</v>
+        <v>0.102933</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.109328</v>
       </c>
     </row>
     <row r="83">
@@ -5554,16 +5797,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.124592</v>
+        <v>0.124159</v>
       </c>
       <c r="C83" t="n">
-        <v>0.369592</v>
+        <v>0.13216</v>
       </c>
       <c r="D83" t="n">
-        <v>0.103376</v>
+        <v>0.368316</v>
       </c>
       <c r="E83" t="n">
-        <v>0.111631</v>
+        <v>0.10329</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.11049</v>
       </c>
     </row>
     <row r="84">
@@ -5571,16 +5817,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.127784</v>
+        <v>0.126403</v>
       </c>
       <c r="C84" t="n">
-        <v>0.39171</v>
+        <v>0.135073</v>
       </c>
       <c r="D84" t="n">
-        <v>0.104486</v>
+        <v>0.389415</v>
       </c>
       <c r="E84" t="n">
-        <v>0.114127</v>
+        <v>0.104318</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.112499</v>
       </c>
     </row>
     <row r="85">
@@ -5588,16 +5837,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.131265</v>
+        <v>0.130192</v>
       </c>
       <c r="C85" t="n">
-        <v>0.413818</v>
+        <v>0.141105</v>
       </c>
       <c r="D85" t="n">
-        <v>0.105564</v>
+        <v>0.411115</v>
       </c>
       <c r="E85" t="n">
-        <v>0.116432</v>
+        <v>0.105585</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.114777</v>
       </c>
     </row>
     <row r="86">
@@ -5605,16 +5857,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.136395</v>
+        <v>0.137736</v>
       </c>
       <c r="C86" t="n">
-        <v>0.437227</v>
+        <v>0.149038</v>
       </c>
       <c r="D86" t="n">
-        <v>0.106909</v>
+        <v>0.435342</v>
       </c>
       <c r="E86" t="n">
-        <v>0.118814</v>
+        <v>0.106991</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.117557</v>
       </c>
     </row>
     <row r="87">
@@ -5622,16 +5877,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.142807</v>
+        <v>0.141217</v>
       </c>
       <c r="C87" t="n">
-        <v>0.459623</v>
+        <v>0.15545</v>
       </c>
       <c r="D87" t="n">
-        <v>0.108395</v>
+        <v>0.459824</v>
       </c>
       <c r="E87" t="n">
-        <v>0.124017</v>
+        <v>0.108422</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.121659</v>
       </c>
     </row>
     <row r="88">
@@ -5639,16 +5897,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.152758</v>
+        <v>0.14926</v>
       </c>
       <c r="C88" t="n">
-        <v>0.48262</v>
+        <v>0.166806</v>
       </c>
       <c r="D88" t="n">
-        <v>0.11077</v>
+        <v>0.481368</v>
       </c>
       <c r="E88" t="n">
-        <v>0.124428</v>
+        <v>0.110369</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.124281</v>
       </c>
     </row>
     <row r="89">
@@ -5656,16 +5917,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.162623</v>
+        <v>0.16038</v>
       </c>
       <c r="C89" t="n">
-        <v>0.508082</v>
+        <v>0.183821</v>
       </c>
       <c r="D89" t="n">
-        <v>0.113877</v>
+        <v>0.5065229999999999</v>
       </c>
       <c r="E89" t="n">
-        <v>0.133303</v>
+        <v>0.113838</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.129171</v>
       </c>
     </row>
     <row r="90">
@@ -5673,16 +5937,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.177028</v>
+        <v>0.176713</v>
       </c>
       <c r="C90" t="n">
-        <v>0.53515</v>
+        <v>0.198799</v>
       </c>
       <c r="D90" t="n">
-        <v>0.118756</v>
+        <v>0.532953</v>
       </c>
       <c r="E90" t="n">
-        <v>0.139167</v>
+        <v>0.11749</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.135639</v>
       </c>
     </row>
     <row r="91">
@@ -5690,16 +5957,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.203161</v>
+        <v>0.194428</v>
       </c>
       <c r="C91" t="n">
-        <v>0.563163</v>
+        <v>0.224345</v>
       </c>
       <c r="D91" t="n">
-        <v>0.124205</v>
+        <v>0.561611</v>
       </c>
       <c r="E91" t="n">
-        <v>0.148711</v>
+        <v>0.123992</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.144251</v>
       </c>
     </row>
     <row r="92">
@@ -5707,16 +5977,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.229838</v>
+        <v>0.22384</v>
       </c>
       <c r="C92" t="n">
-        <v>0.420368</v>
+        <v>0.25822</v>
       </c>
       <c r="D92" t="n">
-        <v>0.132548</v>
+        <v>0.419284</v>
       </c>
       <c r="E92" t="n">
-        <v>0.158801</v>
+        <v>0.132824</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.155695</v>
       </c>
     </row>
     <row r="93">
@@ -5724,16 +5997,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.268432</v>
+        <v>0.265686</v>
       </c>
       <c r="C93" t="n">
-        <v>0.438835</v>
+        <v>0.308574</v>
       </c>
       <c r="D93" t="n">
-        <v>0.146239</v>
+        <v>0.439189</v>
       </c>
       <c r="E93" t="n">
-        <v>0.177555</v>
+        <v>0.147383</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.172446</v>
       </c>
     </row>
     <row r="94">
@@ -5741,16 +6017,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.331455</v>
+        <v>0.333053</v>
       </c>
       <c r="C94" t="n">
-        <v>0.458451</v>
+        <v>0.380808</v>
       </c>
       <c r="D94" t="n">
-        <v>0.112543</v>
+        <v>0.459542</v>
       </c>
       <c r="E94" t="n">
-        <v>0.128213</v>
+        <v>0.112291</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.126821</v>
       </c>
     </row>
     <row r="95">
@@ -5758,16 +6037,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.130936</v>
+        <v>0.13287</v>
       </c>
       <c r="C95" t="n">
-        <v>0.477646</v>
+        <v>0.15018</v>
       </c>
       <c r="D95" t="n">
-        <v>0.113721</v>
+        <v>0.477605</v>
       </c>
       <c r="E95" t="n">
-        <v>0.131032</v>
+        <v>0.114039</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.129735</v>
       </c>
     </row>
     <row r="96">
@@ -5775,16 +6057,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.136677</v>
+        <v>0.136825</v>
       </c>
       <c r="C96" t="n">
-        <v>0.5004459999999999</v>
+        <v>0.154825</v>
       </c>
       <c r="D96" t="n">
-        <v>0.11589</v>
+        <v>0.498811</v>
       </c>
       <c r="E96" t="n">
-        <v>0.134363</v>
+        <v>0.115545</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.132839</v>
       </c>
     </row>
     <row r="97">
@@ -5792,16 +6077,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.140032</v>
+        <v>0.139246</v>
       </c>
       <c r="C97" t="n">
-        <v>0.522108</v>
+        <v>0.159147</v>
       </c>
       <c r="D97" t="n">
-        <v>0.118115</v>
+        <v>0.519444</v>
       </c>
       <c r="E97" t="n">
-        <v>0.137665</v>
+        <v>0.117813</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.135591</v>
       </c>
     </row>
     <row r="98">
@@ -5809,16 +6097,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.143932</v>
+        <v>0.143097</v>
       </c>
       <c r="C98" t="n">
-        <v>0.541826</v>
+        <v>0.164676</v>
       </c>
       <c r="D98" t="n">
-        <v>0.117954</v>
+        <v>0.540976</v>
       </c>
       <c r="E98" t="n">
-        <v>0.139227</v>
+        <v>0.119443</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.139521</v>
       </c>
     </row>
     <row r="99">
@@ -5826,16 +6117,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.149634</v>
+        <v>0.147919</v>
       </c>
       <c r="C99" t="n">
-        <v>0.566688</v>
+        <v>0.170697</v>
       </c>
       <c r="D99" t="n">
-        <v>0.121949</v>
+        <v>0.563836</v>
       </c>
       <c r="E99" t="n">
-        <v>0.143607</v>
+        <v>0.121504</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0.142116</v>
       </c>
     </row>
     <row r="100">
@@ -5843,16 +6137,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.156618</v>
+        <v>0.153204</v>
       </c>
       <c r="C100" t="n">
-        <v>0.589498</v>
+        <v>0.178462</v>
       </c>
       <c r="D100" t="n">
-        <v>0.12353</v>
+        <v>0.587125</v>
       </c>
       <c r="E100" t="n">
-        <v>0.144904</v>
+        <v>0.123739</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.145848</v>
       </c>
     </row>
     <row r="101">
@@ -5860,16 +6157,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.161694</v>
+        <v>0.163748</v>
       </c>
       <c r="C101" t="n">
-        <v>0.61521</v>
+        <v>0.187813</v>
       </c>
       <c r="D101" t="n">
-        <v>0.126035</v>
+        <v>0.61327</v>
       </c>
       <c r="E101" t="n">
-        <v>0.149927</v>
+        <v>0.126436</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.149751</v>
       </c>
     </row>
     <row r="102">
@@ -5877,16 +6177,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.170806</v>
+        <v>0.168922</v>
       </c>
       <c r="C102" t="n">
-        <v>0.641065</v>
+        <v>0.201362</v>
       </c>
       <c r="D102" t="n">
-        <v>0.128179</v>
+        <v>0.637645</v>
       </c>
       <c r="E102" t="n">
-        <v>0.155062</v>
+        <v>0.128661</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0.154586</v>
       </c>
     </row>
     <row r="103">
@@ -5894,16 +6197,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.181658</v>
+        <v>0.179759</v>
       </c>
       <c r="C103" t="n">
-        <v>0.667804</v>
+        <v>0.219272</v>
       </c>
       <c r="D103" t="n">
-        <v>0.131368</v>
+        <v>0.6660740000000001</v>
       </c>
       <c r="E103" t="n">
-        <v>0.161908</v>
+        <v>0.131218</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0.160311</v>
       </c>
     </row>
     <row r="104">
@@ -5911,16 +6217,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.196724</v>
+        <v>0.198641</v>
       </c>
       <c r="C104" t="n">
-        <v>0.6984669999999999</v>
+        <v>0.238049</v>
       </c>
       <c r="D104" t="n">
-        <v>0.135518</v>
+        <v>0.693092</v>
       </c>
       <c r="E104" t="n">
-        <v>0.168014</v>
+        <v>0.135703</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0.168079</v>
       </c>
     </row>
     <row r="105">
@@ -5928,16 +6237,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.216449</v>
+        <v>0.213557</v>
       </c>
       <c r="C105" t="n">
-        <v>0.727401</v>
+        <v>0.267375</v>
       </c>
       <c r="D105" t="n">
-        <v>0.142227</v>
+        <v>0.723461</v>
       </c>
       <c r="E105" t="n">
-        <v>0.178963</v>
+        <v>0.141519</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.177763</v>
       </c>
     </row>
     <row r="106">
@@ -5945,16 +6257,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.250944</v>
+        <v>0.247941</v>
       </c>
       <c r="C106" t="n">
-        <v>0.761045</v>
+        <v>0.307946</v>
       </c>
       <c r="D106" t="n">
-        <v>0.147179</v>
+        <v>0.758872</v>
       </c>
       <c r="E106" t="n">
-        <v>0.192351</v>
+        <v>0.150825</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.192367</v>
       </c>
     </row>
     <row r="107">
@@ -5962,16 +6277,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.287386</v>
+        <v>0.286261</v>
       </c>
       <c r="C107" t="n">
-        <v>0.597579</v>
+        <v>0.363198</v>
       </c>
       <c r="D107" t="n">
-        <v>0.161281</v>
+        <v>0.594334</v>
       </c>
       <c r="E107" t="n">
-        <v>0.212706</v>
+        <v>0.164319</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.213013</v>
       </c>
     </row>
     <row r="108">
@@ -5979,16 +6297,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.347877</v>
+        <v>0.360433</v>
       </c>
       <c r="C108" t="n">
-        <v>0.618186</v>
+        <v>0.44278</v>
       </c>
       <c r="D108" t="n">
-        <v>0.122296</v>
+        <v>0.6172609999999999</v>
       </c>
       <c r="E108" t="n">
-        <v>0.145969</v>
+        <v>0.122403</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0.146438</v>
       </c>
     </row>
     <row r="109">
@@ -5996,16 +6317,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.447791</v>
+        <v>0.450797</v>
       </c>
       <c r="C109" t="n">
-        <v>0.642185</v>
+        <v>0.5579</v>
       </c>
       <c r="D109" t="n">
-        <v>0.123005</v>
+        <v>0.639145</v>
       </c>
       <c r="E109" t="n">
-        <v>0.149117</v>
+        <v>0.123357</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0.149611</v>
       </c>
     </row>
     <row r="110">
@@ -6013,16 +6337,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.145593</v>
+        <v>0.145134</v>
       </c>
       <c r="C110" t="n">
-        <v>0.665448</v>
+        <v>0.176621</v>
       </c>
       <c r="D110" t="n">
-        <v>0.124739</v>
+        <v>0.662724</v>
       </c>
       <c r="E110" t="n">
-        <v>0.154756</v>
+        <v>0.124614</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0.153344</v>
       </c>
     </row>
     <row r="111">
@@ -6030,16 +6357,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.14965</v>
+        <v>0.147977</v>
       </c>
       <c r="C111" t="n">
-        <v>0.684473</v>
+        <v>0.183074</v>
       </c>
       <c r="D111" t="n">
-        <v>0.126589</v>
+        <v>0.687975</v>
       </c>
       <c r="E111" t="n">
-        <v>0.159666</v>
+        <v>0.126869</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0.158954</v>
       </c>
     </row>
     <row r="112">
@@ -6047,16 +6377,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.152983</v>
+        <v>0.149166</v>
       </c>
       <c r="C112" t="n">
-        <v>0.709924</v>
+        <v>0.189955</v>
       </c>
       <c r="D112" t="n">
-        <v>0.128829</v>
+        <v>0.714132</v>
       </c>
       <c r="E112" t="n">
-        <v>0.161988</v>
+        <v>0.128538</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0.163558</v>
       </c>
     </row>
     <row r="113">
@@ -6064,16 +6397,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.159991</v>
+        <v>0.156827</v>
       </c>
       <c r="C113" t="n">
-        <v>0.734811</v>
+        <v>0.20002</v>
       </c>
       <c r="D113" t="n">
-        <v>0.129029</v>
+        <v>0.74104</v>
       </c>
       <c r="E113" t="n">
-        <v>0.173138</v>
+        <v>0.126809</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0.169037</v>
       </c>
     </row>
     <row r="114">
@@ -6081,16 +6417,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.168613</v>
+        <v>0.160343</v>
       </c>
       <c r="C114" t="n">
-        <v>0.768239</v>
+        <v>0.209491</v>
       </c>
       <c r="D114" t="n">
-        <v>0.136811</v>
+        <v>0.767171</v>
       </c>
       <c r="E114" t="n">
-        <v>0.180394</v>
+        <v>0.132375</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0.17561</v>
       </c>
     </row>
     <row r="115">
@@ -6098,16 +6437,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.17864</v>
+        <v>0.171398</v>
       </c>
       <c r="C115" t="n">
-        <v>0.792143</v>
+        <v>0.22184</v>
       </c>
       <c r="D115" t="n">
-        <v>0.13893</v>
+        <v>0.794396</v>
       </c>
       <c r="E115" t="n">
-        <v>0.187017</v>
+        <v>0.136017</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0.18165</v>
       </c>
     </row>
     <row r="116">
@@ -6115,16 +6457,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.19055</v>
+        <v>0.182056</v>
       </c>
       <c r="C116" t="n">
-        <v>0.825221</v>
+        <v>0.235698</v>
       </c>
       <c r="D116" t="n">
-        <v>0.147243</v>
+        <v>0.822766</v>
       </c>
       <c r="E116" t="n">
-        <v>0.193011</v>
+        <v>0.140149</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0.18856</v>
       </c>
     </row>
     <row r="117">
@@ -6132,16 +6477,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.204031</v>
+        <v>0.196833</v>
       </c>
       <c r="C117" t="n">
-        <v>0.850842</v>
+        <v>0.254806</v>
       </c>
       <c r="D117" t="n">
-        <v>0.148611</v>
+        <v>0.8525779999999999</v>
       </c>
       <c r="E117" t="n">
-        <v>0.199275</v>
+        <v>0.146193</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0.196412</v>
       </c>
     </row>
     <row r="118">
@@ -6149,16 +6497,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.217014</v>
+        <v>0.214652</v>
       </c>
       <c r="C118" t="n">
-        <v>0.886513</v>
+        <v>0.27614</v>
       </c>
       <c r="D118" t="n">
-        <v>0.157701</v>
+        <v>0.881502</v>
       </c>
       <c r="E118" t="n">
-        <v>0.207644</v>
+        <v>0.149672</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0.204791</v>
       </c>
     </row>
     <row r="119">
@@ -6166,16 +6517,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.24221</v>
+        <v>0.237357</v>
       </c>
       <c r="C119" t="n">
-        <v>0.915552</v>
+        <v>0.302343</v>
       </c>
       <c r="D119" t="n">
-        <v>0.164408</v>
+        <v>0.912139</v>
       </c>
       <c r="E119" t="n">
-        <v>0.215994</v>
+        <v>0.161302</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0.214608</v>
       </c>
     </row>
     <row r="120">
@@ -6183,16 +6537,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.267261</v>
+        <v>0.267467</v>
       </c>
       <c r="C120" t="n">
-        <v>0.944424</v>
+        <v>0.33982</v>
       </c>
       <c r="D120" t="n">
-        <v>0.173656</v>
+        <v>0.945154</v>
       </c>
       <c r="E120" t="n">
-        <v>0.226424</v>
+        <v>0.167871</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0.228205</v>
       </c>
     </row>
     <row r="121">
@@ -6200,16 +6557,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.308247</v>
+        <v>0.315998</v>
       </c>
       <c r="C121" t="n">
-        <v>0.698645</v>
+        <v>0.393771</v>
       </c>
       <c r="D121" t="n">
-        <v>0.187696</v>
+        <v>0.684382</v>
       </c>
       <c r="E121" t="n">
-        <v>0.249595</v>
+        <v>0.187476</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0.247634</v>
       </c>
     </row>
     <row r="122">
@@ -6217,16 +6577,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.380498</v>
+        <v>0.372036</v>
       </c>
       <c r="C122" t="n">
-        <v>0.710207</v>
+        <v>0.483818</v>
       </c>
       <c r="D122" t="n">
-        <v>0.209676</v>
+        <v>0.705848</v>
       </c>
       <c r="E122" t="n">
-        <v>0.281328</v>
+        <v>0.209005</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0.278353</v>
       </c>
     </row>
     <row r="123">
@@ -6234,16 +6597,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.467346</v>
+        <v>0.472254</v>
       </c>
       <c r="C123" t="n">
-        <v>0.745941</v>
+        <v>0.597432</v>
       </c>
       <c r="D123" t="n">
-        <v>0.145529</v>
+        <v>0.729248</v>
       </c>
       <c r="E123" t="n">
-        <v>0.185799</v>
+        <v>0.148609</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0.182446</v>
       </c>
     </row>
     <row r="124">
@@ -6251,16 +6617,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.177734</v>
+        <v>0.169562</v>
       </c>
       <c r="C124" t="n">
-        <v>0.771803</v>
+        <v>0.206191</v>
       </c>
       <c r="D124" t="n">
-        <v>0.149725</v>
+        <v>0.75331</v>
       </c>
       <c r="E124" t="n">
-        <v>0.186987</v>
+        <v>0.152469</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0.186409</v>
       </c>
     </row>
     <row r="125">
@@ -6268,16 +6637,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.177343</v>
+        <v>0.174274</v>
       </c>
       <c r="C125" t="n">
-        <v>0.797452</v>
+        <v>0.212949</v>
       </c>
       <c r="D125" t="n">
-        <v>0.160654</v>
+        <v>0.778517</v>
       </c>
       <c r="E125" t="n">
-        <v>0.196592</v>
+        <v>0.151165</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0.184708</v>
       </c>
     </row>
     <row r="126">
@@ -6285,16 +6657,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.171723</v>
+        <v>0.168107</v>
       </c>
       <c r="C126" t="n">
-        <v>0.824159</v>
+        <v>0.209773</v>
       </c>
       <c r="D126" t="n">
-        <v>0.153262</v>
+        <v>0.803967</v>
       </c>
       <c r="E126" t="n">
-        <v>0.196715</v>
+        <v>0.153197</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0.194927</v>
       </c>
     </row>
     <row r="127">
@@ -6302,16 +6677,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.18564</v>
+        <v>0.187851</v>
       </c>
       <c r="C127" t="n">
-        <v>0.849472</v>
+        <v>0.229335</v>
       </c>
       <c r="D127" t="n">
-        <v>0.159847</v>
+        <v>0.820238</v>
       </c>
       <c r="E127" t="n">
-        <v>0.205991</v>
+        <v>0.157494</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0.201979</v>
       </c>
     </row>
     <row r="128">
@@ -6319,16 +6697,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.198653</v>
+        <v>0.19034</v>
       </c>
       <c r="C128" t="n">
-        <v>0.875698</v>
+        <v>0.236256</v>
       </c>
       <c r="D128" t="n">
-        <v>0.159857</v>
+        <v>0.859704</v>
       </c>
       <c r="E128" t="n">
-        <v>0.212715</v>
+        <v>0.157344</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0.208247</v>
       </c>
     </row>
     <row r="129">
@@ -6336,16 +6717,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.192539</v>
+        <v>0.19407</v>
       </c>
       <c r="C129" t="n">
-        <v>0.895946</v>
+        <v>0.23901</v>
       </c>
       <c r="D129" t="n">
-        <v>0.162197</v>
+        <v>0.877893</v>
       </c>
       <c r="E129" t="n">
-        <v>0.21721</v>
+        <v>0.159182</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0.211882</v>
       </c>
     </row>
     <row r="130">
@@ -6353,16 +6737,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.208214</v>
+        <v>0.21364</v>
       </c>
       <c r="C130" t="n">
-        <v>0.933568</v>
+        <v>0.26254</v>
       </c>
       <c r="D130" t="n">
-        <v>0.174723</v>
+        <v>0.918156</v>
       </c>
       <c r="E130" t="n">
-        <v>0.216149</v>
+        <v>0.171618</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0.216919</v>
       </c>
     </row>
     <row r="131">
@@ -6370,16 +6757,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.212238</v>
+        <v>0.219825</v>
       </c>
       <c r="C131" t="n">
-        <v>0.963453</v>
+        <v>0.279068</v>
       </c>
       <c r="D131" t="n">
-        <v>0.167132</v>
+        <v>0.947359</v>
       </c>
       <c r="E131" t="n">
-        <v>0.226731</v>
+        <v>0.162626</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0.22853</v>
       </c>
     </row>
     <row r="132">
@@ -6387,16 +6777,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.243389</v>
+        <v>0.233817</v>
       </c>
       <c r="C132" t="n">
-        <v>0.984115</v>
+        <v>0.301233</v>
       </c>
       <c r="D132" t="n">
-        <v>0.183739</v>
+        <v>0.9779099999999999</v>
       </c>
       <c r="E132" t="n">
-        <v>0.233007</v>
+        <v>0.173029</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0.222583</v>
       </c>
     </row>
     <row r="133">
@@ -6404,16 +6797,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.259042</v>
+        <v>0.256453</v>
       </c>
       <c r="C133" t="n">
-        <v>1.02148</v>
+        <v>0.323796</v>
       </c>
       <c r="D133" t="n">
-        <v>0.181315</v>
+        <v>1.00289</v>
       </c>
       <c r="E133" t="n">
-        <v>0.241523</v>
+        <v>0.181107</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0.244887</v>
       </c>
     </row>
     <row r="134">
@@ -6421,16 +6817,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.291954</v>
+        <v>0.288045</v>
       </c>
       <c r="C134" t="n">
-        <v>1.0545</v>
+        <v>0.369564</v>
       </c>
       <c r="D134" t="n">
-        <v>0.187372</v>
+        <v>1.04508</v>
       </c>
       <c r="E134" t="n">
-        <v>0.255847</v>
+        <v>0.188074</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0.256972</v>
       </c>
     </row>
     <row r="135">
@@ -6438,16 +6837,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.323955</v>
+        <v>0.313071</v>
       </c>
       <c r="C135" t="n">
-        <v>0.696757</v>
+        <v>0.423686</v>
       </c>
       <c r="D135" t="n">
-        <v>0.19459</v>
+        <v>0.700867</v>
       </c>
       <c r="E135" t="n">
-        <v>0.269091</v>
+        <v>0.206607</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0.27763</v>
       </c>
     </row>
     <row r="136">
@@ -6455,16 +6857,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.387623</v>
+        <v>0.38521</v>
       </c>
       <c r="C136" t="n">
-        <v>0.721989</v>
+        <v>0.506267</v>
       </c>
       <c r="D136" t="n">
-        <v>0.222333</v>
+        <v>0.713773</v>
       </c>
       <c r="E136" t="n">
-        <v>0.307784</v>
+        <v>0.220181</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0.305565</v>
       </c>
     </row>
     <row r="137">
@@ -6472,16 +6877,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.480193</v>
+        <v>0.481289</v>
       </c>
       <c r="C137" t="n">
-        <v>0.73499</v>
+        <v>0.633822</v>
       </c>
       <c r="D137" t="n">
-        <v>0.264008</v>
+        <v>0.738688</v>
       </c>
       <c r="E137" t="n">
-        <v>0.327723</v>
+        <v>0.273917</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0.321403</v>
       </c>
     </row>
     <row r="138">
@@ -6489,16 +6897,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.319246</v>
+        <v>0.304733</v>
       </c>
       <c r="C138" t="n">
-        <v>0.762035</v>
+        <v>0.356522</v>
       </c>
       <c r="D138" t="n">
-        <v>0.282455</v>
+        <v>0.75817</v>
       </c>
       <c r="E138" t="n">
-        <v>0.327513</v>
+        <v>0.261995</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0.326448</v>
       </c>
     </row>
     <row r="139">
@@ -6506,16 +6917,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.315725</v>
+        <v>0.288212</v>
       </c>
       <c r="C139" t="n">
-        <v>0.783497</v>
+        <v>0.362607</v>
       </c>
       <c r="D139" t="n">
-        <v>0.272093</v>
+        <v>0.779148</v>
       </c>
       <c r="E139" t="n">
-        <v>0.331974</v>
+        <v>0.282834</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0.321975</v>
       </c>
     </row>
     <row r="140">
@@ -6523,16 +6937,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.323612</v>
+        <v>0.3202</v>
       </c>
       <c r="C140" t="n">
-        <v>0.805997</v>
+        <v>0.371738</v>
       </c>
       <c r="D140" t="n">
-        <v>0.286227</v>
+        <v>0.80036</v>
       </c>
       <c r="E140" t="n">
-        <v>0.323561</v>
+        <v>0.279228</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0.34379</v>
       </c>
     </row>
     <row r="141">
@@ -6540,16 +6957,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.332546</v>
+        <v>0.327887</v>
       </c>
       <c r="C141" t="n">
-        <v>0.829283</v>
+        <v>0.378394</v>
       </c>
       <c r="D141" t="n">
-        <v>0.292561</v>
+        <v>0.823137</v>
       </c>
       <c r="E141" t="n">
-        <v>0.342673</v>
+        <v>0.272155</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0.34184</v>
       </c>
     </row>
     <row r="142">
@@ -6557,16 +6977,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.316304</v>
+        <v>0.309601</v>
       </c>
       <c r="C142" t="n">
-        <v>0.853495</v>
+        <v>0.393057</v>
       </c>
       <c r="D142" t="n">
-        <v>0.285107</v>
+        <v>0.846756</v>
       </c>
       <c r="E142" t="n">
-        <v>0.350313</v>
+        <v>0.270274</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0.34687</v>
       </c>
     </row>
     <row r="143">
@@ -6574,16 +6997,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.348262</v>
+        <v>0.323886</v>
       </c>
       <c r="C143" t="n">
-        <v>0.877595</v>
+        <v>0.403846</v>
       </c>
       <c r="D143" t="n">
-        <v>0.295021</v>
+        <v>0.864568</v>
       </c>
       <c r="E143" t="n">
-        <v>0.359223</v>
+        <v>0.289871</v>
+      </c>
+      <c r="F143" t="n">
+        <v>0.34259</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Scattered unsuccessful looukp.xlsx
+++ b/clang-x86/Scattered unsuccessful looukp.xlsx
@@ -560,430 +560,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0188563</v>
+                  <v>0.0201731</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.020482</v>
+                  <v>0.0223373</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0250918</v>
+                  <v>0.0283973</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0324396</v>
+                  <v>0.0359745</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0486736</v>
+                  <v>0.0468578</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0676407</v>
+                  <v>0.0662001</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0914015</v>
+                  <v>0.0874499</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.120117</v>
+                  <v>0.118178</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0161742</v>
+                  <v>0.0163823</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0167609</v>
+                  <v>0.0169442</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.017033</v>
+                  <v>0.0173203</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0178156</v>
+                  <v>0.0179112</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0186429</v>
+                  <v>0.0186739</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0201514</v>
+                  <v>0.0206062</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0223364</v>
+                  <v>0.0231143</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0265812</v>
+                  <v>0.0271457</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0315209</v>
+                  <v>0.0334194</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0404218</v>
+                  <v>0.0418801</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0523243</v>
+                  <v>0.0544232</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.068802</v>
+                  <v>0.06979779999999999</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0916015</v>
+                  <v>0.0938215</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.115789</v>
+                  <v>0.121481</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0165559</v>
+                  <v>0.0166604</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.01713</v>
+                  <v>0.0171542</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.017832</v>
+                  <v>0.0177934</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0186431</v>
+                  <v>0.0184952</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0204344</v>
+                  <v>0.0201196</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0223797</v>
+                  <v>0.0218972</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0260575</v>
+                  <v>0.0251077</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0296827</v>
+                  <v>0.0292352</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0351294</v>
+                  <v>0.0347619</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0439567</v>
+                  <v>0.0435356</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0560566</v>
+                  <v>0.0537204</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0724226</v>
+                  <v>0.0688154</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0942229</v>
+                  <v>0.09015720000000001</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.120526</v>
+                  <v>0.116026</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0171733</v>
+                  <v>0.0170183</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0178413</v>
+                  <v>0.0178123</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0187789</v>
+                  <v>0.01864</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0201514</v>
+                  <v>0.0197201</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0218874</v>
+                  <v>0.0215528</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0244952</v>
+                  <v>0.0238953</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0277145</v>
+                  <v>0.0270839</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0318614</v>
+                  <v>0.0315753</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.038157</v>
+                  <v>0.0372642</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.0458946</v>
+                  <v>0.0449549</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0561284</v>
+                  <v>0.0551349</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.07138170000000001</v>
+                  <v>0.06987989999999999</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.09212090000000001</v>
+                  <v>0.09050619999999999</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.117399</v>
+                  <v>0.116517</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.142611</v>
+                  <v>0.142867</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0191063</v>
+                  <v>0.0189245</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0202054</v>
+                  <v>0.0202459</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0216884</v>
+                  <v>0.0217405</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.023762</v>
+                  <v>0.0238386</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0265754</v>
+                  <v>0.0263284</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0299431</v>
+                  <v>0.0295381</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0344095</v>
+                  <v>0.0336662</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0405591</v>
+                  <v>0.0393238</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0475581</v>
+                  <v>0.0464554</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0572633</v>
+                  <v>0.0563056</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0711276</v>
+                  <v>0.0704912</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0912027</v>
+                  <v>0.090473</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.117531</v>
+                  <v>0.116153</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.147591</v>
+                  <v>0.148156</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0198684</v>
+                  <v>0.0199809</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0210982</v>
+                  <v>0.0212024</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0228671</v>
+                  <v>0.0226467</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0250892</v>
+                  <v>0.0247555</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0274858</v>
+                  <v>0.0272389</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0307585</v>
+                  <v>0.0304965</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0350439</v>
+                  <v>0.034774</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0401473</v>
+                  <v>0.0399272</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0470655</v>
+                  <v>0.0466726</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0565303</v>
+                  <v>0.0562112</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0694931</v>
+                  <v>0.0692453</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0876659</v>
+                  <v>0.08731709999999999</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.112976</v>
+                  <v>0.112012</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.14429</v>
+                  <v>0.143596</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0201115</v>
+                  <v>0.0198969</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0216766</v>
+                  <v>0.0211685</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0228365</v>
+                  <v>0.0228963</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0248985</v>
+                  <v>0.0246315</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0272584</v>
+                  <v>0.0270319</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0302977</v>
+                  <v>0.0301633</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.0342083</v>
+                  <v>0.0343003</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.039444</v>
+                  <v>0.0392099</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0458422</v>
+                  <v>0.0461135</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0546333</v>
+                  <v>0.0547299</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0669435</v>
+                  <v>0.0668189</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.0841283</v>
+                  <v>0.0836469</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.108178</v>
+                  <v>0.107787</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.139209</v>
+                  <v>0.138233</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.0208397</v>
+                  <v>0.021069</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0217789</v>
+                  <v>0.0216843</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.0236136</v>
+                  <v>0.0235278</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.0250037</v>
+                  <v>0.0252833</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0272123</v>
+                  <v>0.0276404</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0306604</v>
+                  <v>0.0303935</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0359699</v>
+                  <v>0.0347047</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0400556</v>
+                  <v>0.03961</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0464214</v>
+                  <v>0.0462842</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0543718</v>
+                  <v>0.0542663</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.0654956</v>
+                  <v>0.06533070000000001</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.0810722</v>
+                  <v>0.0810447</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.102897</v>
+                  <v>0.102744</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.133253</v>
+                  <v>0.132435</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.1679</v>
+                  <v>0.168123</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.0312378</v>
+                  <v>0.0311566</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.032867</v>
+                  <v>0.0327274</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.0343439</v>
+                  <v>0.0342032</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.0361309</v>
+                  <v>0.0360288</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.0383012</v>
+                  <v>0.038221</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.0408352</v>
+                  <v>0.0407202</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.0439366</v>
+                  <v>0.0443612</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.0486743</v>
+                  <v>0.0487038</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.0550738</v>
+                  <v>0.0551061</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.0645583</v>
+                  <v>0.0650413</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.0791676</v>
+                  <v>0.0796751</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.0998057</v>
+                  <v>0.100197</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.128197</v>
+                  <v>0.128476</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.163841</v>
+                  <v>0.164648</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.0345014</v>
+                  <v>0.0347131</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.035219</v>
+                  <v>0.0356762</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.0366214</v>
+                  <v>0.0366723</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.0384021</v>
+                  <v>0.0385512</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.0405117</v>
+                  <v>0.0406167</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.0431668</v>
+                  <v>0.0432628</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.0465002</v>
+                  <v>0.0469616</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.0510499</v>
+                  <v>0.0522871</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.0587435</v>
+                  <v>0.0587787</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.0679357</v>
+                  <v>0.06793159999999999</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.0816269</v>
+                  <v>0.0818242</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.101812</v>
+                  <v>0.10117</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.129487</v>
+                  <v>0.129216</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.164993</v>
+                  <v>0.164833</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.0468838</v>
+                  <v>0.04719</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.0484521</v>
+                  <v>0.0477155</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.0493311</v>
+                  <v>0.0498207</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.0507617</v>
+                  <v>0.0506207</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.0532957</v>
+                  <v>0.0533573</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.0554191</v>
+                  <v>0.0561423</v>
                 </pt>
               </numCache>
             </numRef>
@@ -999,7 +999,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::unordered_map</v>
+                  <v>absl::node_hash_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -1462,430 +1462,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0745743</v>
+                  <v>0.0194065</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0818991</v>
+                  <v>0.0224007</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0759394</v>
+                  <v>0.0288135</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0880992</v>
+                  <v>0.0338387</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.08153489999999999</v>
+                  <v>0.0464436</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0624356</v>
+                  <v>0.0656384</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.061869</v>
+                  <v>0.0870889</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.0683074</v>
+                  <v>0.116853</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0686766</v>
+                  <v>0.016173</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.07166640000000001</v>
+                  <v>0.0167609</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0739997</v>
+                  <v>0.0172318</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.077265</v>
+                  <v>0.0179025</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0817507</v>
+                  <v>0.0189746</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0856117</v>
+                  <v>0.019983</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0866362</v>
+                  <v>0.0223099</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.09086229999999999</v>
+                  <v>0.0264348</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.09648760000000001</v>
+                  <v>0.0312478</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.096305</v>
+                  <v>0.0404906</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.09784320000000001</v>
+                  <v>0.0537627</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0664341</v>
+                  <v>0.0690885</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0712783</v>
+                  <v>0.0933016</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.0762056</v>
+                  <v>0.118794</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0754963</v>
+                  <v>0.0162717</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0791755</v>
+                  <v>0.0168356</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0828492</v>
+                  <v>0.017468</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.08543870000000001</v>
+                  <v>0.0182377</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0887561</v>
+                  <v>0.0194683</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.092414</v>
+                  <v>0.0212317</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0948533</v>
+                  <v>0.0242552</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0957143</v>
+                  <v>0.0284577</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.09790550000000001</v>
+                  <v>0.0343277</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.09936730000000001</v>
+                  <v>0.0428176</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.101587</v>
+                  <v>0.0534805</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.06934940000000001</v>
+                  <v>0.0688173</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0726347</v>
+                  <v>0.0907517</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.07564949999999999</v>
+                  <v>0.117543</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0790356</v>
+                  <v>0.0168393</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0818281</v>
+                  <v>0.0175714</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0856015</v>
+                  <v>0.0184474</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.08902640000000001</v>
+                  <v>0.0198324</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0915702</v>
+                  <v>0.021464</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0953242</v>
+                  <v>0.0237258</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0973436</v>
+                  <v>0.0270856</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.100137</v>
+                  <v>0.0315007</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.102066</v>
+                  <v>0.0372003</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.104689</v>
+                  <v>0.0443335</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.106565</v>
+                  <v>0.0545841</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.109417</v>
+                  <v>0.06922639999999999</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0759278</v>
+                  <v>0.0899831</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.07929940000000001</v>
+                  <v>0.117779</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0833945</v>
+                  <v>0.142876</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.08607579999999999</v>
+                  <v>0.0191296</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0893982</v>
+                  <v>0.0201955</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0926165</v>
+                  <v>0.0216483</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.09584810000000001</v>
+                  <v>0.023403</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.100165</v>
+                  <v>0.026064</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.101736</v>
+                  <v>0.0294373</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.105135</v>
+                  <v>0.0339117</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.107339</v>
+                  <v>0.0393543</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.109803</v>
+                  <v>0.0465728</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.111709</v>
+                  <v>0.056655</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.115496</v>
+                  <v>0.0699357</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0812769</v>
+                  <v>0.0901044</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.08581900000000001</v>
+                  <v>0.117115</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.09048920000000001</v>
+                  <v>0.147525</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.09512900000000001</v>
+                  <v>0.0200422</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.09904019999999999</v>
+                  <v>0.0210888</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.103762</v>
+                  <v>0.0229847</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.109767</v>
+                  <v>0.0248889</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.115064</v>
+                  <v>0.0271453</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.119625</v>
+                  <v>0.0304582</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.123912</v>
+                  <v>0.0344984</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.128639</v>
+                  <v>0.0397809</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.136023</v>
+                  <v>0.0470601</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.141569</v>
+                  <v>0.0565718</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.147324</v>
+                  <v>0.06901500000000001</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.114448</v>
+                  <v>0.087157</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.120419</v>
+                  <v>0.112264</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.125131</v>
+                  <v>0.144133</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.131477</v>
+                  <v>0.0200835</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.139604</v>
+                  <v>0.0214419</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.146445</v>
+                  <v>0.0229504</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.154887</v>
+                  <v>0.0250695</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.163154</v>
+                  <v>0.0273812</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.170385</v>
+                  <v>0.0308585</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.178312</v>
+                  <v>0.0344507</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.182546</v>
+                  <v>0.0394985</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.19023</v>
+                  <v>0.0460324</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.200533</v>
+                  <v>0.0550461</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.208859</v>
+                  <v>0.0671224</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.157758</v>
+                  <v>0.0844076</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.162746</v>
+                  <v>0.109009</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.168477</v>
+                  <v>0.139885</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.17633</v>
+                  <v>0.0246877</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.183525</v>
+                  <v>0.0262639</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.190701</v>
+                  <v>0.0285106</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.19753</v>
+                  <v>0.0326365</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.204795</v>
+                  <v>0.0376421</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.226592</v>
+                  <v>0.0431873</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.219043</v>
+                  <v>0.0495911</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.227757</v>
+                  <v>0.0557668</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.233267</v>
+                  <v>0.0618652</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.243865</v>
+                  <v>0.0688729</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.252361</v>
+                  <v>0.0776963</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.261173</v>
+                  <v>0.0907839</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.190647</v>
+                  <v>0.109448</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.197526</v>
+                  <v>0.136707</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.203566</v>
+                  <v>0.172459</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.210146</v>
+                  <v>0.0467682</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.218257</v>
+                  <v>0.0483897</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.224714</v>
+                  <v>0.0507314</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.23258</v>
+                  <v>0.0528627</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.239218</v>
+                  <v>0.0555484</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.24724</v>
+                  <v>0.0590007</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.255715</v>
+                  <v>0.0628261</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.263655</v>
+                  <v>0.0678373</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.271989</v>
+                  <v>0.0743669</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.282797</v>
+                  <v>0.08271000000000001</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.289767</v>
+                  <v>0.0944628</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.206007</v>
+                  <v>0.11085</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.211597</v>
+                  <v>0.135461</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.217961</v>
+                  <v>0.170368</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.22481</v>
+                  <v>0.0512479</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.231511</v>
+                  <v>0.052865</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.23876</v>
+                  <v>0.0549309</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.246015</v>
+                  <v>0.058871</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.253902</v>
+                  <v>0.0612004</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.261754</v>
+                  <v>0.0650288</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.269215</v>
+                  <v>0.069248</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.276809</v>
+                  <v>0.0746687</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.285243</v>
+                  <v>0.08118839999999999</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.294416</v>
+                  <v>0.0896735</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.303237</v>
+                  <v>0.101136</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.212509</v>
+                  <v>0.117614</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.21893</v>
+                  <v>0.141623</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.225118</v>
+                  <v>0.176838</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.232231</v>
+                  <v>0.0654614</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.239705</v>
+                  <v>0.0667495</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.247032</v>
+                  <v>0.06891559999999999</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.255056</v>
+                  <v>0.07127269999999999</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.262733</v>
+                  <v>0.0736226</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.271863</v>
+                  <v>0.077071</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1901,7 +1901,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::unordered_flat_map</v>
+                  <v>boost::unordered_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -2364,430 +2364,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0212525</v>
+                  <v>0.0719905</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0216004</v>
+                  <v>0.0729974</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0227228</v>
+                  <v>0.082431</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0236692</v>
+                  <v>0.0738939</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.025734</v>
+                  <v>0.0825699</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0307283</v>
+                  <v>0.0649699</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0400074</v>
+                  <v>0.0601928</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.0191859</v>
+                  <v>0.0616023</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0194145</v>
+                  <v>0.0644928</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0197171</v>
+                  <v>0.07119880000000001</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0200098</v>
+                  <v>0.07261140000000001</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0202944</v>
+                  <v>0.07676910000000001</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0205605</v>
+                  <v>0.0821347</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0210623</v>
+                  <v>0.0866618</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.021745</v>
+                  <v>0.08824650000000001</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0224624</v>
+                  <v>0.0907429</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0233932</v>
+                  <v>0.09464789999999999</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0246564</v>
+                  <v>0.0952583</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0274191</v>
+                  <v>0.0964115</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0316025</v>
+                  <v>0.0694861</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0413247</v>
+                  <v>0.07024809999999999</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.0187664</v>
+                  <v>0.0724142</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0190384</v>
+                  <v>0.07515040000000001</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.019321</v>
+                  <v>0.07962320000000001</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0195661</v>
+                  <v>0.0832406</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0198599</v>
+                  <v>0.0852619</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0203393</v>
+                  <v>0.0896028</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0209382</v>
+                  <v>0.09148480000000001</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0214818</v>
+                  <v>0.0939405</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0223346</v>
+                  <v>0.0965188</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0233779</v>
+                  <v>0.09831380000000001</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0247673</v>
+                  <v>0.100199</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0273931</v>
+                  <v>0.102902</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0317286</v>
+                  <v>0.0698054</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.039339</v>
+                  <v>0.0726036</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.0193829</v>
+                  <v>0.0757068</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0197036</v>
+                  <v>0.0793538</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0199834</v>
+                  <v>0.083243</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0203028</v>
+                  <v>0.08550199999999999</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0206416</v>
+                  <v>0.08859019999999999</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.021054</v>
+                  <v>0.09167649999999999</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0216854</v>
+                  <v>0.0949025</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0224175</v>
+                  <v>0.0970295</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0232548</v>
+                  <v>0.100157</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0245789</v>
+                  <v>0.102332</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.0261833</v>
+                  <v>0.104522</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0289704</v>
+                  <v>0.105831</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0328291</v>
+                  <v>0.108825</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0389724</v>
+                  <v>0.0755461</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.0204109</v>
+                  <v>0.078995</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0206887</v>
+                  <v>0.0825134</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0209817</v>
+                  <v>0.0867947</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0212755</v>
+                  <v>0.0901161</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0216547</v>
+                  <v>0.09300659999999999</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0221738</v>
+                  <v>0.0971045</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0227227</v>
+                  <v>0.10016</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0233788</v>
+                  <v>0.102369</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0243162</v>
+                  <v>0.105472</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0256636</v>
+                  <v>0.108186</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0275441</v>
+                  <v>0.110002</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0301356</v>
+                  <v>0.112754</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0341597</v>
+                  <v>0.115747</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0404667</v>
+                  <v>0.0811159</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.0516123</v>
+                  <v>0.08591849999999999</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.0209483</v>
+                  <v>0.0904712</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0212904</v>
+                  <v>0.094886</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0216414</v>
+                  <v>0.0995163</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0220066</v>
+                  <v>0.10423</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.022503</v>
+                  <v>0.108446</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0230597</v>
+                  <v>0.115564</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.023794</v>
+                  <v>0.120256</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.024724</v>
+                  <v>0.124687</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0259069</v>
+                  <v>0.130917</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0276355</v>
+                  <v>0.135851</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0302519</v>
+                  <v>0.141198</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0340355</v>
+                  <v>0.147703</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0396979</v>
+                  <v>0.111012</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.049477</v>
+                  <v>0.120113</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.0212779</v>
+                  <v>0.124171</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0216341</v>
+                  <v>0.131036</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0219984</v>
+                  <v>0.138476</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0224363</v>
+                  <v>0.145921</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0229328</v>
+                  <v>0.154954</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0235783</v>
+                  <v>0.163989</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0244305</v>
+                  <v>0.168326</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.0254418</v>
+                  <v>0.177149</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0267137</v>
+                  <v>0.182049</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0283454</v>
+                  <v>0.18983</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0308527</v>
+                  <v>0.198267</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0342322</v>
+                  <v>0.205699</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.03938</v>
+                  <v>0.155131</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.048197</v>
+                  <v>0.161371</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.0229879</v>
+                  <v>0.167644</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.0234516</v>
+                  <v>0.174382</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0240067</v>
+                  <v>0.180841</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.0245912</v>
+                  <v>0.18713</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.0253619</v>
+                  <v>0.194952</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0267537</v>
+                  <v>0.202006</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0289872</v>
+                  <v>0.210399</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0317781</v>
+                  <v>0.216909</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0350402</v>
+                  <v>0.225263</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0383243</v>
+                  <v>0.232957</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0415289</v>
+                  <v>0.240595</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.0449303</v>
+                  <v>0.24943</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.0491857</v>
+                  <v>0.259096</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.0555259</v>
+                  <v>0.189204</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.0351129</v>
+                  <v>0.195409</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.0361988</v>
+                  <v>0.202101</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.0370074</v>
+                  <v>0.208914</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.0378667</v>
+                  <v>0.216123</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.0385583</v>
+                  <v>0.223325</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.0395869</v>
+                  <v>0.230562</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.0406235</v>
+                  <v>0.23813</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.0416052</v>
+                  <v>0.245517</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.0428433</v>
+                  <v>0.253672</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.0445415</v>
+                  <v>0.262325</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.0464755</v>
+                  <v>0.270451</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.0489272</v>
+                  <v>0.279981</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.0526395</v>
+                  <v>0.288965</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.0583473</v>
+                  <v>0.20558</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.06810819999999999</v>
+                  <v>0.211153</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.0412799</v>
+                  <v>0.21773</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.0422281</v>
+                  <v>0.224538</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.0429276</v>
+                  <v>0.231602</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.0439297</v>
+                  <v>0.239227</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.0447307</v>
+                  <v>0.246785</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.0457736</v>
+                  <v>0.254214</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.0468762</v>
+                  <v>0.26216</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.0480061</v>
+                  <v>0.269644</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.0495994</v>
+                  <v>0.278269</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.0516555</v>
+                  <v>0.28676</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.0541823</v>
+                  <v>0.294905</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.0578916</v>
+                  <v>0.304292</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.0634131</v>
+                  <v>0.213434</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.07260369999999999</v>
+                  <v>0.219307</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.0591479</v>
+                  <v>0.226031</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.0608915</v>
+                  <v>0.233449</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.0603453</v>
+                  <v>0.239676</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.0608767</v>
+                  <v>0.247679</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.0620272</v>
+                  <v>0.255283</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.0625593</v>
+                  <v>0.262438</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.0640025</v>
+                  <v>0.270371</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2803,7 +2803,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::unordered_node_map</v>
+                  <v>boost::unordered_flat_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -3266,430 +3266,1332 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0214076</v>
+                  <v>0.0216009</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0220449</v>
+                  <v>0.0221084</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0228814</v>
+                  <v>0.0230466</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0238445</v>
+                  <v>0.0244666</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0259967</v>
+                  <v>0.0265716</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0308818</v>
+                  <v>0.0306845</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0397899</v>
+                  <v>0.0377971</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.0190868</v>
+                  <v>0.0191766</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0193166</v>
+                  <v>0.0193893</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0195902</v>
+                  <v>0.0197043</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0199197</v>
+                  <v>0.0200607</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0202396</v>
+                  <v>0.0204068</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0206034</v>
+                  <v>0.0206994</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0211027</v>
+                  <v>0.0212233</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.02181</v>
+                  <v>0.0219078</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0225325</v>
+                  <v>0.0227165</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0234089</v>
+                  <v>0.0235386</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0246829</v>
+                  <v>0.0248559</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0272518</v>
+                  <v>0.0272925</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0319929</v>
+                  <v>0.0311581</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0414377</v>
+                  <v>0.039445</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.0188357</v>
+                  <v>0.0189417</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0191047</v>
+                  <v>0.0192166</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.019293</v>
+                  <v>0.0194402</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0195628</v>
+                  <v>0.01967</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.020006</v>
+                  <v>0.0200648</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0203576</v>
+                  <v>0.0205084</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0209983</v>
+                  <v>0.0211482</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0216036</v>
+                  <v>0.0217413</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0224206</v>
+                  <v>0.0226275</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0234567</v>
+                  <v>0.023562</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0248701</v>
+                  <v>0.0249451</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0276153</v>
+                  <v>0.0273574</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0319171</v>
+                  <v>0.0311211</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0394712</v>
+                  <v>0.0379297</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.0194612</v>
+                  <v>0.0194402</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.019774</v>
+                  <v>0.0197588</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0200997</v>
+                  <v>0.020083</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0204224</v>
+                  <v>0.0204271</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0207986</v>
+                  <v>0.020797</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0212501</v>
+                  <v>0.0212094</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0218422</v>
+                  <v>0.0218012</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0225976</v>
+                  <v>0.0225426</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.023464</v>
+                  <v>0.0233782</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0247861</v>
+                  <v>0.0246526</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.0263224</v>
+                  <v>0.0261541</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0291543</v>
+                  <v>0.0288267</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0329324</v>
+                  <v>0.0324146</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0390016</v>
+                  <v>0.0383102</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.0204605</v>
+                  <v>0.0205245</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.020763</v>
+                  <v>0.0207576</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0211036</v>
+                  <v>0.0210818</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0214464</v>
+                  <v>0.0214063</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0218044</v>
+                  <v>0.0217707</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.02235</v>
+                  <v>0.0222808</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0228519</v>
+                  <v>0.0227865</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0235195</v>
+                  <v>0.0234609</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0244936</v>
+                  <v>0.0243803</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0258272</v>
+                  <v>0.0256999</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0276262</v>
+                  <v>0.0274345</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0303212</v>
+                  <v>0.0299708</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0343892</v>
+                  <v>0.0339134</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0407201</v>
+                  <v>0.0399682</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.0517515</v>
+                  <v>0.0509853</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.0210642</v>
+                  <v>0.0210663</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0214078</v>
+                  <v>0.0214128</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0217171</v>
+                  <v>0.0217044</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0221679</v>
+                  <v>0.0220793</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0225732</v>
+                  <v>0.0225101</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0231145</v>
+                  <v>0.0230847</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.023886</v>
+                  <v>0.0238389</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0248041</v>
+                  <v>0.0247061</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0260928</v>
+                  <v>0.0259229</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0279417</v>
+                  <v>0.027636</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0307152</v>
+                  <v>0.0300556</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0341993</v>
+                  <v>0.033803</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0399898</v>
+                  <v>0.0394898</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.0497379</v>
+                  <v>0.0492793</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.0218936</v>
+                  <v>0.0212983</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0223402</v>
+                  <v>0.0216173</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0229967</v>
+                  <v>0.0220136</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0238374</v>
+                  <v>0.0224719</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0244912</v>
+                  <v>0.0229306</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0255432</v>
+                  <v>0.0235925</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0269618</v>
+                  <v>0.0244368</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.0283241</v>
+                  <v>0.0254208</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0302692</v>
+                  <v>0.0267328</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0321612</v>
+                  <v>0.0283669</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0348082</v>
+                  <v>0.0308234</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0382122</v>
+                  <v>0.0342177</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.0434233</v>
+                  <v>0.0393046</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.0534129</v>
+                  <v>0.0481634</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.0282249</v>
+                  <v>0.0230218</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.029139</v>
+                  <v>0.0235096</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.03133</v>
+                  <v>0.024067</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.0341335</v>
+                  <v>0.0247073</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.0381704</v>
+                  <v>0.0254037</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0428413</v>
+                  <v>0.0268593</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0471767</v>
+                  <v>0.0290853</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0508107</v>
+                  <v>0.0319312</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0541568</v>
+                  <v>0.0351347</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0573175</v>
+                  <v>0.0384163</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0605919</v>
+                  <v>0.0415243</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.06430470000000001</v>
+                  <v>0.0448445</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.06932820000000001</v>
+                  <v>0.049027</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.07656540000000001</v>
+                  <v>0.0554999</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.0513709</v>
+                  <v>0.0351618</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.0528133</v>
+                  <v>0.0362013</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.0541587</v>
+                  <v>0.0370039</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.0555634</v>
+                  <v>0.0378586</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.0569233</v>
+                  <v>0.0386194</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.0585293</v>
+                  <v>0.0394682</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.0602617</v>
+                  <v>0.040537</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.0619037</v>
+                  <v>0.0416614</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.0640491</v>
+                  <v>0.0430189</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.0662812</v>
+                  <v>0.0444291</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.06915499999999999</v>
+                  <v>0.0463979</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.07276100000000001</v>
+                  <v>0.0489896</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.07756780000000001</v>
+                  <v>0.0528205</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.0847301</v>
+                  <v>0.058274</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.0960261</v>
+                  <v>0.06796190000000001</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.0604808</v>
+                  <v>0.0403819</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.0618613</v>
+                  <v>0.0411282</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.0635545</v>
+                  <v>0.0420223</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.0648304</v>
+                  <v>0.043459</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.06670520000000001</v>
+                  <v>0.0444712</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.0683797</v>
+                  <v>0.0454145</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.0702016</v>
+                  <v>0.0465307</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.0724499</v>
+                  <v>0.0478298</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.07498920000000001</v>
+                  <v>0.0494071</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.0779345</v>
+                  <v>0.0513635</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.081499</v>
+                  <v>0.0537652</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.0866347</v>
+                  <v>0.0575184</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.09380090000000001</v>
+                  <v>0.06303880000000001</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.105376</v>
+                  <v>0.0724042</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.0789271</v>
+                  <v>0.0589715</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.0802612</v>
+                  <v>0.0597273</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.08157540000000001</v>
+                  <v>0.0603338</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.0829015</v>
+                  <v>0.0607136</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.0845514</v>
+                  <v>0.0616614</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.08594209999999999</v>
+                  <v>0.0623911</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.0877042</v>
+                  <v>0.0637191</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="4"/>
+          <order val="4"/>
+          <tx>
+            <strRef>
+              <f>plot!$F$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::unordered_node_map</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF66FF"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>plot!$A$2:$A$143</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="142"/>
+                <pt idx="0">
+                  <v>10000</v>
+                </pt>
+                <pt idx="1">
+                  <v>10500</v>
+                </pt>
+                <pt idx="2">
+                  <v>11025</v>
+                </pt>
+                <pt idx="3">
+                  <v>11576</v>
+                </pt>
+                <pt idx="4">
+                  <v>12154</v>
+                </pt>
+                <pt idx="5">
+                  <v>12760</v>
+                </pt>
+                <pt idx="6">
+                  <v>13396</v>
+                </pt>
+                <pt idx="7">
+                  <v>14063</v>
+                </pt>
+                <pt idx="8">
+                  <v>14763</v>
+                </pt>
+                <pt idx="9">
+                  <v>15498</v>
+                </pt>
+                <pt idx="10">
+                  <v>16269</v>
+                </pt>
+                <pt idx="11">
+                  <v>17078</v>
+                </pt>
+                <pt idx="12">
+                  <v>17927</v>
+                </pt>
+                <pt idx="13">
+                  <v>18818</v>
+                </pt>
+                <pt idx="14">
+                  <v>19753</v>
+                </pt>
+                <pt idx="15">
+                  <v>20734</v>
+                </pt>
+                <pt idx="16">
+                  <v>21764</v>
+                </pt>
+                <pt idx="17">
+                  <v>22845</v>
+                </pt>
+                <pt idx="18">
+                  <v>23980</v>
+                </pt>
+                <pt idx="19">
+                  <v>25171</v>
+                </pt>
+                <pt idx="20">
+                  <v>26421</v>
+                </pt>
+                <pt idx="21">
+                  <v>27733</v>
+                </pt>
+                <pt idx="22">
+                  <v>29110</v>
+                </pt>
+                <pt idx="23">
+                  <v>30555</v>
+                </pt>
+                <pt idx="24">
+                  <v>32072</v>
+                </pt>
+                <pt idx="25">
+                  <v>33664</v>
+                </pt>
+                <pt idx="26">
+                  <v>35335</v>
+                </pt>
+                <pt idx="27">
+                  <v>37089</v>
+                </pt>
+                <pt idx="28">
+                  <v>38930</v>
+                </pt>
+                <pt idx="29">
+                  <v>40863</v>
+                </pt>
+                <pt idx="30">
+                  <v>42892</v>
+                </pt>
+                <pt idx="31">
+                  <v>45022</v>
+                </pt>
+                <pt idx="32">
+                  <v>47258</v>
+                </pt>
+                <pt idx="33">
+                  <v>49605</v>
+                </pt>
+                <pt idx="34">
+                  <v>52069</v>
+                </pt>
+                <pt idx="35">
+                  <v>54656</v>
+                </pt>
+                <pt idx="36">
+                  <v>57372</v>
+                </pt>
+                <pt idx="37">
+                  <v>60223</v>
+                </pt>
+                <pt idx="38">
+                  <v>63216</v>
+                </pt>
+                <pt idx="39">
+                  <v>66358</v>
+                </pt>
+                <pt idx="40">
+                  <v>69657</v>
+                </pt>
+                <pt idx="41">
+                  <v>73120</v>
+                </pt>
+                <pt idx="42">
+                  <v>76756</v>
+                </pt>
+                <pt idx="43">
+                  <v>80573</v>
+                </pt>
+                <pt idx="44">
+                  <v>84580</v>
+                </pt>
+                <pt idx="45">
+                  <v>88787</v>
+                </pt>
+                <pt idx="46">
+                  <v>93204</v>
+                </pt>
+                <pt idx="47">
+                  <v>97841</v>
+                </pt>
+                <pt idx="48">
+                  <v>102709</v>
+                </pt>
+                <pt idx="49">
+                  <v>107820</v>
+                </pt>
+                <pt idx="50">
+                  <v>113186</v>
+                </pt>
+                <pt idx="51">
+                  <v>118820</v>
+                </pt>
+                <pt idx="52">
+                  <v>124735</v>
+                </pt>
+                <pt idx="53">
+                  <v>130945</v>
+                </pt>
+                <pt idx="54">
+                  <v>137465</v>
+                </pt>
+                <pt idx="55">
+                  <v>144311</v>
+                </pt>
+                <pt idx="56">
+                  <v>151499</v>
+                </pt>
+                <pt idx="57">
+                  <v>159046</v>
+                </pt>
+                <pt idx="58">
+                  <v>166970</v>
+                </pt>
+                <pt idx="59">
+                  <v>175290</v>
+                </pt>
+                <pt idx="60">
+                  <v>184026</v>
+                </pt>
+                <pt idx="61">
+                  <v>193198</v>
+                </pt>
+                <pt idx="62">
+                  <v>202828</v>
+                </pt>
+                <pt idx="63">
+                  <v>212939</v>
+                </pt>
+                <pt idx="64">
+                  <v>223555</v>
+                </pt>
+                <pt idx="65">
+                  <v>234701</v>
+                </pt>
+                <pt idx="66">
+                  <v>246404</v>
+                </pt>
+                <pt idx="67">
+                  <v>258692</v>
+                </pt>
+                <pt idx="68">
+                  <v>271594</v>
+                </pt>
+                <pt idx="69">
+                  <v>285141</v>
+                </pt>
+                <pt idx="70">
+                  <v>299365</v>
+                </pt>
+                <pt idx="71">
+                  <v>314300</v>
+                </pt>
+                <pt idx="72">
+                  <v>329981</v>
+                </pt>
+                <pt idx="73">
+                  <v>346446</v>
+                </pt>
+                <pt idx="74">
+                  <v>363734</v>
+                </pt>
+                <pt idx="75">
+                  <v>381886</v>
+                </pt>
+                <pt idx="76">
+                  <v>400945</v>
+                </pt>
+                <pt idx="77">
+                  <v>420956</v>
+                </pt>
+                <pt idx="78">
+                  <v>441967</v>
+                </pt>
+                <pt idx="79">
+                  <v>464028</v>
+                </pt>
+                <pt idx="80">
+                  <v>487192</v>
+                </pt>
+                <pt idx="81">
+                  <v>511514</v>
+                </pt>
+                <pt idx="82">
+                  <v>537052</v>
+                </pt>
+                <pt idx="83">
+                  <v>563866</v>
+                </pt>
+                <pt idx="84">
+                  <v>592020</v>
+                </pt>
+                <pt idx="85">
+                  <v>621581</v>
+                </pt>
+                <pt idx="86">
+                  <v>652620</v>
+                </pt>
+                <pt idx="87">
+                  <v>685210</v>
+                </pt>
+                <pt idx="88">
+                  <v>719429</v>
+                </pt>
+                <pt idx="89">
+                  <v>755358</v>
+                </pt>
+                <pt idx="90">
+                  <v>793083</v>
+                </pt>
+                <pt idx="91">
+                  <v>832694</v>
+                </pt>
+                <pt idx="92">
+                  <v>874285</v>
+                </pt>
+                <pt idx="93">
+                  <v>917955</v>
+                </pt>
+                <pt idx="94">
+                  <v>963808</v>
+                </pt>
+                <pt idx="95">
+                  <v>1011953</v>
+                </pt>
+                <pt idx="96">
+                  <v>1062505</v>
+                </pt>
+                <pt idx="97">
+                  <v>1115584</v>
+                </pt>
+                <pt idx="98">
+                  <v>1171316</v>
+                </pt>
+                <pt idx="99">
+                  <v>1229834</v>
+                </pt>
+                <pt idx="100">
+                  <v>1291277</v>
+                </pt>
+                <pt idx="101">
+                  <v>1355792</v>
+                </pt>
+                <pt idx="102">
+                  <v>1423532</v>
+                </pt>
+                <pt idx="103">
+                  <v>1494659</v>
+                </pt>
+                <pt idx="104">
+                  <v>1569342</v>
+                </pt>
+                <pt idx="105">
+                  <v>1647759</v>
+                </pt>
+                <pt idx="106">
+                  <v>1730096</v>
+                </pt>
+                <pt idx="107">
+                  <v>1816549</v>
+                </pt>
+                <pt idx="108">
+                  <v>1907324</v>
+                </pt>
+                <pt idx="109">
+                  <v>2002637</v>
+                </pt>
+                <pt idx="110">
+                  <v>2102715</v>
+                </pt>
+                <pt idx="111">
+                  <v>2207796</v>
+                </pt>
+                <pt idx="112">
+                  <v>2318131</v>
+                </pt>
+                <pt idx="113">
+                  <v>2433982</v>
+                </pt>
+                <pt idx="114">
+                  <v>2555625</v>
+                </pt>
+                <pt idx="115">
+                  <v>2683350</v>
+                </pt>
+                <pt idx="116">
+                  <v>2817461</v>
+                </pt>
+                <pt idx="117">
+                  <v>2958277</v>
+                </pt>
+                <pt idx="118">
+                  <v>3106133</v>
+                </pt>
+                <pt idx="119">
+                  <v>3261381</v>
+                </pt>
+                <pt idx="120">
+                  <v>3424391</v>
+                </pt>
+                <pt idx="121">
+                  <v>3595551</v>
+                </pt>
+                <pt idx="122">
+                  <v>3775269</v>
+                </pt>
+                <pt idx="123">
+                  <v>3963972</v>
+                </pt>
+                <pt idx="124">
+                  <v>4162110</v>
+                </pt>
+                <pt idx="125">
+                  <v>4370154</v>
+                </pt>
+                <pt idx="126">
+                  <v>4588600</v>
+                </pt>
+                <pt idx="127">
+                  <v>4817968</v>
+                </pt>
+                <pt idx="128">
+                  <v>5058804</v>
+                </pt>
+                <pt idx="129">
+                  <v>5311681</v>
+                </pt>
+                <pt idx="130">
+                  <v>5577201</v>
+                </pt>
+                <pt idx="131">
+                  <v>5855997</v>
+                </pt>
+                <pt idx="132">
+                  <v>6148732</v>
+                </pt>
+                <pt idx="133">
+                  <v>6456103</v>
+                </pt>
+                <pt idx="134">
+                  <v>6778842</v>
+                </pt>
+                <pt idx="135">
+                  <v>7117717</v>
+                </pt>
+                <pt idx="136">
+                  <v>7473535</v>
+                </pt>
+                <pt idx="137">
+                  <v>7847143</v>
+                </pt>
+                <pt idx="138">
+                  <v>8239431</v>
+                </pt>
+                <pt idx="139">
+                  <v>8651333</v>
+                </pt>
+                <pt idx="140">
+                  <v>9083830</v>
+                </pt>
+                <pt idx="141">
+                  <v>9537951</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>plot!$F$2:$F$143</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="142"/>
+                <pt idx="0">
+                  <v>0.0213731</v>
+                </pt>
+                <pt idx="1">
+                  <v>0.0219128</v>
+                </pt>
+                <pt idx="2">
+                  <v>0.0229614</v>
+                </pt>
+                <pt idx="3">
+                  <v>0.0237155</v>
+                </pt>
+                <pt idx="4">
+                  <v>0.025576</v>
+                </pt>
+                <pt idx="5">
+                  <v>0.029993</v>
+                </pt>
+                <pt idx="6">
+                  <v>0.0372132</v>
+                </pt>
+                <pt idx="7">
+                  <v>0.0191559</v>
+                </pt>
+                <pt idx="8">
+                  <v>0.0193448</v>
+                </pt>
+                <pt idx="9">
+                  <v>0.0196525</v>
+                </pt>
+                <pt idx="10">
+                  <v>0.0200966</v>
+                </pt>
+                <pt idx="11">
+                  <v>0.0202894</v>
+                </pt>
+                <pt idx="12">
+                  <v>0.0206235</v>
+                </pt>
+                <pt idx="13">
+                  <v>0.0211043</v>
+                </pt>
+                <pt idx="14">
+                  <v>0.0218162</v>
+                </pt>
+                <pt idx="15">
+                  <v>0.0225323</v>
+                </pt>
+                <pt idx="16">
+                  <v>0.023233</v>
+                </pt>
+                <pt idx="17">
+                  <v>0.0243677</v>
+                </pt>
+                <pt idx="18">
+                  <v>0.0267946</v>
+                </pt>
+                <pt idx="19">
+                  <v>0.0309274</v>
+                </pt>
+                <pt idx="20">
+                  <v>0.0396682</v>
+                </pt>
+                <pt idx="21">
+                  <v>0.0188515</v>
+                </pt>
+                <pt idx="22">
+                  <v>0.0191092</v>
+                </pt>
+                <pt idx="23">
+                  <v>0.0193229</v>
+                </pt>
+                <pt idx="24">
+                  <v>0.0195956</v>
+                </pt>
+                <pt idx="25">
+                  <v>0.0199672</v>
+                </pt>
+                <pt idx="26">
+                  <v>0.0203555</v>
+                </pt>
+                <pt idx="27">
+                  <v>0.0210076</v>
+                </pt>
+                <pt idx="28">
+                  <v>0.0216355</v>
+                </pt>
+                <pt idx="29">
+                  <v>0.0223774</v>
+                </pt>
+                <pt idx="30">
+                  <v>0.0233702</v>
+                </pt>
+                <pt idx="31">
+                  <v>0.0247201</v>
+                </pt>
+                <pt idx="32">
+                  <v>0.0272634</v>
+                </pt>
+                <pt idx="33">
+                  <v>0.0312534</v>
+                </pt>
+                <pt idx="34">
+                  <v>0.0380069</v>
+                </pt>
+                <pt idx="35">
+                  <v>0.0194619</v>
+                </pt>
+                <pt idx="36">
+                  <v>0.0197841</v>
+                </pt>
+                <pt idx="37">
+                  <v>0.0201213</v>
+                </pt>
+                <pt idx="38">
+                  <v>0.0204515</v>
+                </pt>
+                <pt idx="39">
+                  <v>0.0207924</v>
+                </pt>
+                <pt idx="40">
+                  <v>0.021191</v>
+                </pt>
+                <pt idx="41">
+                  <v>0.0218251</v>
+                </pt>
+                <pt idx="42">
+                  <v>0.0226156</v>
+                </pt>
+                <pt idx="43">
+                  <v>0.0234105</v>
+                </pt>
+                <pt idx="44">
+                  <v>0.0246226</v>
+                </pt>
+                <pt idx="45">
+                  <v>0.0262507</v>
+                </pt>
+                <pt idx="46">
+                  <v>0.0288559</v>
+                </pt>
+                <pt idx="47">
+                  <v>0.0324919</v>
+                </pt>
+                <pt idx="48">
+                  <v>0.0384891</v>
+                </pt>
+                <pt idx="49">
+                  <v>0.0204688</v>
+                </pt>
+                <pt idx="50">
+                  <v>0.0207663</v>
+                </pt>
+                <pt idx="51">
+                  <v>0.0210612</v>
+                </pt>
+                <pt idx="52">
+                  <v>0.0213982</v>
+                </pt>
+                <pt idx="53">
+                  <v>0.0217859</v>
+                </pt>
+                <pt idx="54">
+                  <v>0.0222653</v>
+                </pt>
+                <pt idx="55">
+                  <v>0.0228454</v>
+                </pt>
+                <pt idx="56">
+                  <v>0.0235124</v>
+                </pt>
+                <pt idx="57">
+                  <v>0.0243594</v>
+                </pt>
+                <pt idx="58">
+                  <v>0.0256987</v>
+                </pt>
+                <pt idx="59">
+                  <v>0.0274883</v>
+                </pt>
+                <pt idx="60">
+                  <v>0.0300593</v>
+                </pt>
+                <pt idx="61">
+                  <v>0.0340648</v>
+                </pt>
+                <pt idx="62">
+                  <v>0.0401741</v>
+                </pt>
+                <pt idx="63">
+                  <v>0.0512194</v>
+                </pt>
+                <pt idx="64">
+                  <v>0.0210961</v>
+                </pt>
+                <pt idx="65">
+                  <v>0.0213836</v>
+                </pt>
+                <pt idx="66">
+                  <v>0.0217762</v>
+                </pt>
+                <pt idx="67">
+                  <v>0.0220643</v>
+                </pt>
+                <pt idx="68">
+                  <v>0.0226375</v>
+                </pt>
+                <pt idx="69">
+                  <v>0.0232502</v>
+                </pt>
+                <pt idx="70">
+                  <v>0.0239062</v>
+                </pt>
+                <pt idx="71">
+                  <v>0.0248356</v>
+                </pt>
+                <pt idx="72">
+                  <v>0.026065</v>
+                </pt>
+                <pt idx="73">
+                  <v>0.0279232</v>
+                </pt>
+                <pt idx="74">
+                  <v>0.0305011</v>
+                </pt>
+                <pt idx="75">
+                  <v>0.0343393</v>
+                </pt>
+                <pt idx="76">
+                  <v>0.0399486</v>
+                </pt>
+                <pt idx="77">
+                  <v>0.0496558</v>
+                </pt>
+                <pt idx="78">
+                  <v>0.0218532</v>
+                </pt>
+                <pt idx="79">
+                  <v>0.0222095</v>
+                </pt>
+                <pt idx="80">
+                  <v>0.0228944</v>
+                </pt>
+                <pt idx="81">
+                  <v>0.0236355</v>
+                </pt>
+                <pt idx="82">
+                  <v>0.0243062</v>
+                </pt>
+                <pt idx="83">
+                  <v>0.0253495</v>
+                </pt>
+                <pt idx="84">
+                  <v>0.0267319</v>
+                </pt>
+                <pt idx="85">
+                  <v>0.0282859</v>
+                </pt>
+                <pt idx="86">
+                  <v>0.0299437</v>
+                </pt>
+                <pt idx="87">
+                  <v>0.0317743</v>
+                </pt>
+                <pt idx="88">
+                  <v>0.0345472</v>
+                </pt>
+                <pt idx="89">
+                  <v>0.0380622</v>
+                </pt>
+                <pt idx="90">
+                  <v>0.0432275</v>
+                </pt>
+                <pt idx="91">
+                  <v>0.0531484</v>
+                </pt>
+                <pt idx="92">
+                  <v>0.0281559</v>
+                </pt>
+                <pt idx="93">
+                  <v>0.0293133</v>
+                </pt>
+                <pt idx="94">
+                  <v>0.031368</v>
+                </pt>
+                <pt idx="95">
+                  <v>0.0340943</v>
+                </pt>
+                <pt idx="96">
+                  <v>0.0378803</v>
+                </pt>
+                <pt idx="97">
+                  <v>0.0424448</v>
+                </pt>
+                <pt idx="98">
+                  <v>0.0466268</v>
+                </pt>
+                <pt idx="99">
+                  <v>0.0506328</v>
+                </pt>
+                <pt idx="100">
+                  <v>0.0540476</v>
+                </pt>
+                <pt idx="101">
+                  <v>0.0572826</v>
+                </pt>
+                <pt idx="102">
+                  <v>0.0607623</v>
+                </pt>
+                <pt idx="103">
+                  <v>0.0644699</v>
+                </pt>
+                <pt idx="104">
+                  <v>0.0693695</v>
+                </pt>
+                <pt idx="105">
+                  <v>0.0764777</v>
+                </pt>
+                <pt idx="106">
+                  <v>0.0511115</v>
+                </pt>
+                <pt idx="107">
+                  <v>0.05263</v>
+                </pt>
+                <pt idx="108">
+                  <v>0.0540065</v>
+                </pt>
+                <pt idx="109">
+                  <v>0.0553181</v>
+                </pt>
+                <pt idx="110">
+                  <v>0.0566814</v>
+                </pt>
+                <pt idx="111">
+                  <v>0.0582196</v>
+                </pt>
+                <pt idx="112">
+                  <v>0.0599567</v>
+                </pt>
+                <pt idx="113">
+                  <v>0.0618321</v>
+                </pt>
+                <pt idx="114">
+                  <v>0.0637921</v>
+                </pt>
+                <pt idx="115">
+                  <v>0.0661122</v>
+                </pt>
+                <pt idx="116">
+                  <v>0.0689598</v>
+                </pt>
+                <pt idx="117">
+                  <v>0.0725898</v>
+                </pt>
+                <pt idx="118">
+                  <v>0.077532</v>
+                </pt>
+                <pt idx="119">
+                  <v>0.08458259999999999</v>
+                </pt>
+                <pt idx="120">
+                  <v>0.0955395</v>
+                </pt>
+                <pt idx="121">
+                  <v>0.0601745</v>
+                </pt>
+                <pt idx="122">
+                  <v>0.0615969</v>
+                </pt>
+                <pt idx="123">
+                  <v>0.0631738</v>
+                </pt>
+                <pt idx="124">
+                  <v>0.06469229999999999</v>
+                </pt>
+                <pt idx="125">
+                  <v>0.06635340000000001</v>
+                </pt>
+                <pt idx="126">
+                  <v>0.0679819</v>
+                </pt>
+                <pt idx="127">
+                  <v>0.0698984</v>
+                </pt>
+                <pt idx="128">
+                  <v>0.0721822</v>
+                </pt>
+                <pt idx="129">
+                  <v>0.07472959999999999</v>
+                </pt>
+                <pt idx="130">
+                  <v>0.0777127</v>
+                </pt>
+                <pt idx="131">
+                  <v>0.08139440000000001</v>
+                </pt>
+                <pt idx="132">
+                  <v>0.0863636</v>
+                </pt>
+                <pt idx="133">
+                  <v>0.0936022</v>
+                </pt>
+                <pt idx="134">
+                  <v>0.104572</v>
+                </pt>
+                <pt idx="135">
+                  <v>0.0791782</v>
+                </pt>
+                <pt idx="136">
+                  <v>0.0801432</v>
+                </pt>
+                <pt idx="137">
+                  <v>0.0817592</v>
+                </pt>
+                <pt idx="138">
+                  <v>0.0831262</v>
+                </pt>
+                <pt idx="139">
+                  <v>0.0843787</v>
+                </pt>
+                <pt idx="140">
+                  <v>0.0859061</v>
+                </pt>
+                <pt idx="141">
+                  <v>0.0897927</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3792,7 +4694,7 @@
           <x val="0.09943851078021188"/>
           <y val="0.05455922082745843"/>
           <w val="0.3308817338426756"/>
-          <h val="0.2472877044215627"/>
+          <h val="0.3091096305269533"/>
         </manualLayout>
       </layout>
       <overlay val="0"/>
@@ -4142,7 +5044,7 @@
   <dimension ref="A1:F143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4158,15 +5060,20 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
+          <t>absl::node_hash_map</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
           <t>boost::unordered_map</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>boost::unordered_flat_map</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>boost::unordered_node_map</t>
         </is>

--- a/clang-x86/Scattered unsuccessful looukp.xlsx
+++ b/clang-x86/Scattered unsuccessful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0963733</v>
+        <v>0.09510689999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0979154</v>
+        <v>0.0979698</v>
       </c>
       <c r="D2" t="n">
-        <v>0.186649</v>
+        <v>0.186124</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0837126</v>
+        <v>0.0836824</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0842788</v>
+        <v>0.0842697</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.10227</v>
+        <v>0.10249</v>
       </c>
       <c r="C3" t="n">
-        <v>0.104833</v>
+        <v>0.104906</v>
       </c>
       <c r="D3" t="n">
-        <v>0.194261</v>
+        <v>0.194801</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0845648</v>
+        <v>0.0844707</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0850311</v>
+        <v>0.0849816</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.111628</v>
+        <v>0.111941</v>
       </c>
       <c r="C4" t="n">
-        <v>0.112995</v>
+        <v>0.116314</v>
       </c>
       <c r="D4" t="n">
-        <v>0.202635</v>
+        <v>0.201542</v>
       </c>
       <c r="E4" t="n">
-        <v>0.08575049999999999</v>
+        <v>0.0856698</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0864018</v>
+        <v>0.0863264</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.131525</v>
+        <v>0.132074</v>
       </c>
       <c r="C5" t="n">
-        <v>0.136489</v>
+        <v>0.131072</v>
       </c>
       <c r="D5" t="n">
-        <v>0.209433</v>
+        <v>0.210318</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0874743</v>
+        <v>0.0872352</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0878649</v>
+        <v>0.0875933</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.159797</v>
+        <v>0.159301</v>
       </c>
       <c r="C6" t="n">
-        <v>0.16396</v>
+        <v>0.164138</v>
       </c>
       <c r="D6" t="n">
-        <v>0.214504</v>
+        <v>0.214344</v>
       </c>
       <c r="E6" t="n">
-        <v>0.08902</v>
+        <v>0.08907089999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0895268</v>
+        <v>0.0895519</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.189586</v>
+        <v>0.189112</v>
       </c>
       <c r="C7" t="n">
-        <v>0.191638</v>
+        <v>0.191707</v>
       </c>
       <c r="D7" t="n">
-        <v>0.161743</v>
+        <v>0.161276</v>
       </c>
       <c r="E7" t="n">
-        <v>0.09541769999999999</v>
+        <v>0.0954599</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09470779999999999</v>
+        <v>0.0948952</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.228941</v>
+        <v>0.229125</v>
       </c>
       <c r="C8" t="n">
-        <v>0.225892</v>
+        <v>0.225744</v>
       </c>
       <c r="D8" t="n">
-        <v>0.169536</v>
+        <v>0.168918</v>
       </c>
       <c r="E8" t="n">
-        <v>0.107405</v>
+        <v>0.107023</v>
       </c>
       <c r="F8" t="n">
-        <v>0.107065</v>
+        <v>0.106808</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.284676</v>
+        <v>0.272131</v>
       </c>
       <c r="C9" t="n">
-        <v>0.268123</v>
+        <v>0.267612</v>
       </c>
       <c r="D9" t="n">
-        <v>0.176198</v>
+        <v>0.175531</v>
       </c>
       <c r="E9" t="n">
-        <v>0.08220760000000001</v>
+        <v>0.0818448</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0828816</v>
+        <v>0.0827261</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0862528</v>
+        <v>0.08579829999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0875674</v>
+        <v>0.0868883</v>
       </c>
       <c r="D10" t="n">
-        <v>0.183447</v>
+        <v>0.183052</v>
       </c>
       <c r="E10" t="n">
-        <v>0.08247400000000001</v>
+        <v>0.0821361</v>
       </c>
       <c r="F10" t="n">
-        <v>0.08331139999999999</v>
+        <v>0.08285090000000001</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0882994</v>
+        <v>0.0865242</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0886907</v>
+        <v>0.088029</v>
       </c>
       <c r="D11" t="n">
-        <v>0.190955</v>
+        <v>0.19069</v>
       </c>
       <c r="E11" t="n">
-        <v>0.08289150000000001</v>
+        <v>0.0825896</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0837469</v>
+        <v>0.0833182</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0882023</v>
+        <v>0.08807719999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>0.08970889999999999</v>
+        <v>0.0904306</v>
       </c>
       <c r="D12" t="n">
-        <v>0.198293</v>
+        <v>0.197936</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0829694</v>
+        <v>0.0828414</v>
       </c>
       <c r="F12" t="n">
-        <v>0.08405269999999999</v>
+        <v>0.0835925</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.08971759999999999</v>
+        <v>0.0894858</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0921401</v>
+        <v>0.0913766</v>
       </c>
       <c r="D13" t="n">
-        <v>0.204729</v>
+        <v>0.204649</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0831225</v>
+        <v>0.0830129</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08441419999999999</v>
+        <v>0.0840477</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0920787</v>
+        <v>0.0915938</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0942677</v>
+        <v>0.09345589999999999</v>
       </c>
       <c r="D14" t="n">
-        <v>0.211711</v>
+        <v>0.210877</v>
       </c>
       <c r="E14" t="n">
-        <v>0.08343920000000001</v>
+        <v>0.0832871</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0847055</v>
+        <v>0.08430790000000001</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0953089</v>
+        <v>0.09505619999999999</v>
       </c>
       <c r="C15" t="n">
-        <v>0.09766420000000001</v>
+        <v>0.0968683</v>
       </c>
       <c r="D15" t="n">
-        <v>0.219279</v>
+        <v>0.220383</v>
       </c>
       <c r="E15" t="n">
-        <v>0.08409030000000001</v>
+        <v>0.08404300000000001</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0851319</v>
+        <v>0.084787</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.100342</v>
+        <v>0.1013</v>
       </c>
       <c r="C16" t="n">
-        <v>0.104839</v>
+        <v>0.101235</v>
       </c>
       <c r="D16" t="n">
-        <v>0.225786</v>
+        <v>0.227037</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0845402</v>
+        <v>0.0844977</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0857851</v>
+        <v>0.0854125</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.109641</v>
+        <v>0.109177</v>
       </c>
       <c r="C17" t="n">
-        <v>0.112411</v>
+        <v>0.110602</v>
       </c>
       <c r="D17" t="n">
-        <v>0.232605</v>
+        <v>0.233187</v>
       </c>
       <c r="E17" t="n">
-        <v>0.08588179999999999</v>
+        <v>0.0854232</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0868963</v>
+        <v>0.0863462</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.120167</v>
+        <v>0.120641</v>
       </c>
       <c r="C18" t="n">
-        <v>0.122826</v>
+        <v>0.122139</v>
       </c>
       <c r="D18" t="n">
-        <v>0.237812</v>
+        <v>0.238196</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0871789</v>
+        <v>0.08666459999999999</v>
       </c>
       <c r="F18" t="n">
-        <v>0.08812109999999999</v>
+        <v>0.0874861</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.135654</v>
+        <v>0.134941</v>
       </c>
       <c r="C19" t="n">
-        <v>0.137669</v>
+        <v>0.137553</v>
       </c>
       <c r="D19" t="n">
-        <v>0.245104</v>
+        <v>0.245367</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0887903</v>
+        <v>0.08964999999999999</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0899403</v>
+        <v>0.0894243</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.154531</v>
+        <v>0.154285</v>
       </c>
       <c r="C20" t="n">
-        <v>0.164725</v>
+        <v>0.157509</v>
       </c>
       <c r="D20" t="n">
-        <v>0.251295</v>
+        <v>0.251796</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0919292</v>
+        <v>0.0918173</v>
       </c>
       <c r="F20" t="n">
-        <v>0.09461260000000001</v>
+        <v>0.09282219999999999</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.184807</v>
+        <v>0.184149</v>
       </c>
       <c r="C21" t="n">
-        <v>0.185759</v>
+        <v>0.191831</v>
       </c>
       <c r="D21" t="n">
-        <v>0.181677</v>
+        <v>0.182468</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0989212</v>
+        <v>0.09729500000000001</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09936490000000001</v>
+        <v>0.0989048</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.229682</v>
+        <v>0.217989</v>
       </c>
       <c r="C22" t="n">
-        <v>0.220104</v>
+        <v>0.219631</v>
       </c>
       <c r="D22" t="n">
-        <v>0.190575</v>
+        <v>0.190679</v>
       </c>
       <c r="E22" t="n">
-        <v>0.110141</v>
+        <v>0.109767</v>
       </c>
       <c r="F22" t="n">
-        <v>0.113604</v>
+        <v>0.111407</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.274579</v>
+        <v>0.274887</v>
       </c>
       <c r="C23" t="n">
-        <v>0.260236</v>
+        <v>0.258933</v>
       </c>
       <c r="D23" t="n">
-        <v>0.198558</v>
+        <v>0.199028</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0831692</v>
+        <v>0.0829657</v>
       </c>
       <c r="F23" t="n">
-        <v>0.08481610000000001</v>
+        <v>0.0842058</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0914547</v>
+        <v>0.09139799999999999</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0924566</v>
+        <v>0.0927622</v>
       </c>
       <c r="D24" t="n">
-        <v>0.205833</v>
+        <v>0.206338</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0838667</v>
+        <v>0.08323079999999999</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0847078</v>
+        <v>0.084564</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0914406</v>
+        <v>0.0912872</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0933638</v>
+        <v>0.09316439999999999</v>
       </c>
       <c r="D25" t="n">
-        <v>0.212989</v>
+        <v>0.213572</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0836332</v>
+        <v>0.0834493</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08510379999999999</v>
+        <v>0.0849791</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0929792</v>
+        <v>0.0928099</v>
       </c>
       <c r="C26" t="n">
-        <v>0.09574969999999999</v>
+        <v>0.0957783</v>
       </c>
       <c r="D26" t="n">
-        <v>0.220741</v>
+        <v>0.221267</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0840024</v>
+        <v>0.0838185</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0862865</v>
+        <v>0.08565109999999999</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0945004</v>
+        <v>0.0943272</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0960527</v>
+        <v>0.09698660000000001</v>
       </c>
       <c r="D27" t="n">
-        <v>0.228433</v>
+        <v>0.228849</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0849673</v>
+        <v>0.0842878</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0865147</v>
+        <v>0.0866529</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0972235</v>
+        <v>0.09704889999999999</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0990051</v>
+        <v>0.0995461</v>
       </c>
       <c r="D28" t="n">
-        <v>0.236035</v>
+        <v>0.235503</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0854837</v>
+        <v>0.084732</v>
       </c>
       <c r="F28" t="n">
-        <v>0.08820600000000001</v>
+        <v>0.0868183</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.100592</v>
+        <v>0.100529</v>
       </c>
       <c r="C29" t="n">
-        <v>0.10595</v>
+        <v>0.104586</v>
       </c>
       <c r="D29" t="n">
-        <v>0.242024</v>
+        <v>0.241424</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0868347</v>
+        <v>0.0852784</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0872315</v>
+        <v>0.087771</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.105977</v>
+        <v>0.106046</v>
       </c>
       <c r="C30" t="n">
-        <v>0.111717</v>
+        <v>0.11123</v>
       </c>
       <c r="D30" t="n">
-        <v>0.247018</v>
+        <v>0.247729</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0867547</v>
+        <v>0.0859308</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0897134</v>
+        <v>0.08882619999999999</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.113464</v>
+        <v>0.1135</v>
       </c>
       <c r="C31" t="n">
-        <v>0.11711</v>
+        <v>0.115288</v>
       </c>
       <c r="D31" t="n">
-        <v>0.251526</v>
+        <v>0.252538</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0881073</v>
+        <v>0.087073</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0896936</v>
+        <v>0.0900725</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.121458</v>
+        <v>0.121367</v>
       </c>
       <c r="C32" t="n">
-        <v>0.126878</v>
+        <v>0.125824</v>
       </c>
       <c r="D32" t="n">
-        <v>0.257215</v>
+        <v>0.25805</v>
       </c>
       <c r="E32" t="n">
-        <v>0.08884010000000001</v>
+        <v>0.0886984</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0926934</v>
+        <v>0.0925546</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.135037</v>
+        <v>0.134989</v>
       </c>
       <c r="C33" t="n">
-        <v>0.140539</v>
+        <v>0.137819</v>
       </c>
       <c r="D33" t="n">
-        <v>0.263798</v>
+        <v>0.263111</v>
       </c>
       <c r="E33" t="n">
-        <v>0.09122619999999999</v>
+        <v>0.091126</v>
       </c>
       <c r="F33" t="n">
-        <v>0.09357</v>
+        <v>0.0946548</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.150494</v>
+        <v>0.150569</v>
       </c>
       <c r="C34" t="n">
-        <v>0.158957</v>
+        <v>0.154153</v>
       </c>
       <c r="D34" t="n">
-        <v>0.269938</v>
+        <v>0.2699</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0951153</v>
+        <v>0.0950826</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0976394</v>
+        <v>0.0987225</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.179427</v>
+        <v>0.176388</v>
       </c>
       <c r="C35" t="n">
-        <v>0.18055</v>
+        <v>0.177208</v>
       </c>
       <c r="D35" t="n">
-        <v>0.196276</v>
+        <v>0.196407</v>
       </c>
       <c r="E35" t="n">
-        <v>0.102237</v>
+        <v>0.101936</v>
       </c>
       <c r="F35" t="n">
-        <v>0.10619</v>
+        <v>0.105875</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.219697</v>
+        <v>0.208685</v>
       </c>
       <c r="C36" t="n">
-        <v>0.215982</v>
+        <v>0.209391</v>
       </c>
       <c r="D36" t="n">
-        <v>0.20387</v>
+        <v>0.20347</v>
       </c>
       <c r="E36" t="n">
-        <v>0.113941</v>
+        <v>0.113867</v>
       </c>
       <c r="F36" t="n">
-        <v>0.116258</v>
+        <v>0.116865</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.259664</v>
+        <v>0.258817</v>
       </c>
       <c r="C37" t="n">
-        <v>0.269593</v>
+        <v>0.25633</v>
       </c>
       <c r="D37" t="n">
-        <v>0.211538</v>
+        <v>0.211754</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0850259</v>
+        <v>0.08367289999999999</v>
       </c>
       <c r="F37" t="n">
-        <v>0.086435</v>
+        <v>0.0869129</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.09342399999999999</v>
+        <v>0.0923727</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0951781</v>
+        <v>0.095849</v>
       </c>
       <c r="D38" t="n">
-        <v>0.218893</v>
+        <v>0.218692</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0855422</v>
+        <v>0.0839516</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0871599</v>
+        <v>0.0873659</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0934666</v>
+        <v>0.09364989999999999</v>
       </c>
       <c r="C39" t="n">
-        <v>0.096738</v>
+        <v>0.0980109</v>
       </c>
       <c r="D39" t="n">
-        <v>0.225973</v>
+        <v>0.225879</v>
       </c>
       <c r="E39" t="n">
-        <v>0.08492180000000001</v>
+        <v>0.08421090000000001</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0875826</v>
+        <v>0.0877947</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.09587229999999999</v>
+        <v>0.0949913</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0980372</v>
+        <v>0.0987286</v>
       </c>
       <c r="D40" t="n">
-        <v>0.233531</v>
+        <v>0.233511</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0860297</v>
+        <v>0.0845374</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0877579</v>
+        <v>0.08828510000000001</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0984671</v>
+        <v>0.0970684</v>
       </c>
       <c r="C41" t="n">
-        <v>0.101596</v>
+        <v>0.102429</v>
       </c>
       <c r="D41" t="n">
-        <v>0.239645</v>
+        <v>0.239564</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0861329</v>
+        <v>0.0849979</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0887969</v>
+        <v>0.08891209999999999</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0999255</v>
+        <v>0.100077</v>
       </c>
       <c r="C42" t="n">
-        <v>0.103638</v>
+        <v>0.104133</v>
       </c>
       <c r="D42" t="n">
-        <v>0.247001</v>
+        <v>0.247025</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0866774</v>
+        <v>0.0857607</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08885079999999999</v>
+        <v>0.0893341</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.104952</v>
+        <v>0.104456</v>
       </c>
       <c r="C43" t="n">
-        <v>0.10946</v>
+        <v>0.108158</v>
       </c>
       <c r="D43" t="n">
-        <v>0.253646</v>
+        <v>0.253346</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0865567</v>
+        <v>0.08591849999999999</v>
       </c>
       <c r="F43" t="n">
-        <v>0.09009209999999999</v>
+        <v>0.0900102</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.109037</v>
+        <v>0.109099</v>
       </c>
       <c r="C44" t="n">
-        <v>0.114525</v>
+        <v>0.113299</v>
       </c>
       <c r="D44" t="n">
-        <v>0.25936</v>
+        <v>0.259525</v>
       </c>
       <c r="E44" t="n">
-        <v>0.08734359999999999</v>
+        <v>0.08683299999999999</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0907559</v>
+        <v>0.0908979</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.115162</v>
+        <v>0.115406</v>
       </c>
       <c r="C45" t="n">
-        <v>0.119328</v>
+        <v>0.121504</v>
       </c>
       <c r="D45" t="n">
-        <v>0.265374</v>
+        <v>0.26537</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0884851</v>
+        <v>0.0878143</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0929155</v>
+        <v>0.0920892</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.123676</v>
+        <v>0.123681</v>
       </c>
       <c r="C46" t="n">
-        <v>0.128334</v>
+        <v>0.128683</v>
       </c>
       <c r="D46" t="n">
-        <v>0.271578</v>
+        <v>0.271784</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0895053</v>
+        <v>0.0893732</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0946902</v>
+        <v>0.0937697</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.134441</v>
+        <v>0.136337</v>
       </c>
       <c r="C47" t="n">
-        <v>0.139441</v>
+        <v>0.13983</v>
       </c>
       <c r="D47" t="n">
-        <v>0.276982</v>
+        <v>0.277076</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0933103</v>
+        <v>0.0917019</v>
       </c>
       <c r="F47" t="n">
-        <v>0.09607449999999999</v>
+        <v>0.0962293</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.152612</v>
+        <v>0.152533</v>
       </c>
       <c r="C48" t="n">
-        <v>0.153755</v>
+        <v>0.154176</v>
       </c>
       <c r="D48" t="n">
-        <v>0.283069</v>
+        <v>0.282696</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0957359</v>
+        <v>0.0965086</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09947930000000001</v>
+        <v>0.0998551</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.173082</v>
+        <v>0.173063</v>
       </c>
       <c r="C49" t="n">
-        <v>0.175911</v>
+        <v>0.182387</v>
       </c>
       <c r="D49" t="n">
-        <v>0.288653</v>
+        <v>0.289216</v>
       </c>
       <c r="E49" t="n">
-        <v>0.101326</v>
+        <v>0.100987</v>
       </c>
       <c r="F49" t="n">
-        <v>0.106233</v>
+        <v>0.105493</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.215418</v>
+        <v>0.204621</v>
       </c>
       <c r="C50" t="n">
-        <v>0.205724</v>
+        <v>0.204967</v>
       </c>
       <c r="D50" t="n">
-        <v>0.203395</v>
+        <v>0.203615</v>
       </c>
       <c r="E50" t="n">
-        <v>0.110992</v>
+        <v>0.11399</v>
       </c>
       <c r="F50" t="n">
-        <v>0.116448</v>
+        <v>0.115306</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.254311</v>
+        <v>0.243862</v>
       </c>
       <c r="C51" t="n">
-        <v>0.248078</v>
+        <v>0.247873</v>
       </c>
       <c r="D51" t="n">
-        <v>0.210377</v>
+        <v>0.210924</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0868488</v>
+        <v>0.08562350000000001</v>
       </c>
       <c r="F51" t="n">
-        <v>0.09019480000000001</v>
+        <v>0.08915869999999999</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.301017</v>
+        <v>0.291502</v>
       </c>
       <c r="C52" t="n">
-        <v>0.293467</v>
+        <v>0.294893</v>
       </c>
       <c r="D52" t="n">
-        <v>0.217025</v>
+        <v>0.217246</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0866842</v>
+        <v>0.0865667</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0904097</v>
+        <v>0.0897608</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0969904</v>
+        <v>0.097164</v>
       </c>
       <c r="C53" t="n">
-        <v>0.10129</v>
+        <v>0.100787</v>
       </c>
       <c r="D53" t="n">
-        <v>0.224514</v>
+        <v>0.224932</v>
       </c>
       <c r="E53" t="n">
-        <v>0.08754869999999999</v>
+        <v>0.08609020000000001</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0906672</v>
+        <v>0.0903815</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.099145</v>
+        <v>0.0987088</v>
       </c>
       <c r="C54" t="n">
-        <v>0.103969</v>
+        <v>0.102994</v>
       </c>
       <c r="D54" t="n">
-        <v>0.231698</v>
+        <v>0.231671</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0873693</v>
+        <v>0.08671810000000001</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0913523</v>
+        <v>0.0905548</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.101053</v>
+        <v>0.100406</v>
       </c>
       <c r="C55" t="n">
-        <v>0.105298</v>
+        <v>0.106908</v>
       </c>
       <c r="D55" t="n">
-        <v>0.238359</v>
+        <v>0.238288</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0868128</v>
+        <v>0.0868868</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0914842</v>
+        <v>0.09115379999999999</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.103318</v>
+        <v>0.103864</v>
       </c>
       <c r="C56" t="n">
-        <v>0.107541</v>
+        <v>0.108607</v>
       </c>
       <c r="D56" t="n">
-        <v>0.244847</v>
+        <v>0.245029</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0886571</v>
+        <v>0.0872381</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0922366</v>
+        <v>0.09244810000000001</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.107742</v>
+        <v>0.105903</v>
       </c>
       <c r="C57" t="n">
-        <v>0.11216</v>
+        <v>0.113693</v>
       </c>
       <c r="D57" t="n">
-        <v>0.25064</v>
+        <v>0.251187</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0889379</v>
+        <v>0.087866</v>
       </c>
       <c r="F57" t="n">
-        <v>0.09299780000000001</v>
+        <v>0.0931714</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.114416</v>
+        <v>0.113097</v>
       </c>
       <c r="C58" t="n">
-        <v>0.118117</v>
+        <v>0.117529</v>
       </c>
       <c r="D58" t="n">
-        <v>0.256227</v>
+        <v>0.256981</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0900792</v>
+        <v>0.0885387</v>
       </c>
       <c r="F58" t="n">
-        <v>0.0933094</v>
+        <v>0.09409389999999999</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.119689</v>
+        <v>0.117714</v>
       </c>
       <c r="C59" t="n">
-        <v>0.125701</v>
+        <v>0.122071</v>
       </c>
       <c r="D59" t="n">
-        <v>0.262116</v>
+        <v>0.262633</v>
       </c>
       <c r="E59" t="n">
-        <v>0.09069439999999999</v>
+        <v>0.08976770000000001</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09485789999999999</v>
+        <v>0.0949091</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.12801</v>
+        <v>0.12584</v>
       </c>
       <c r="C60" t="n">
-        <v>0.130518</v>
+        <v>0.134043</v>
       </c>
       <c r="D60" t="n">
-        <v>0.267067</v>
+        <v>0.267901</v>
       </c>
       <c r="E60" t="n">
-        <v>0.09191390000000001</v>
+        <v>0.0914739</v>
       </c>
       <c r="F60" t="n">
-        <v>0.09687220000000001</v>
+        <v>0.0974052</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.135254</v>
+        <v>0.135963</v>
       </c>
       <c r="C61" t="n">
-        <v>0.144818</v>
+        <v>0.140752</v>
       </c>
       <c r="D61" t="n">
-        <v>0.27288</v>
+        <v>0.273999</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0942687</v>
+        <v>0.0934084</v>
       </c>
       <c r="F61" t="n">
-        <v>0.099812</v>
+        <v>0.0997902</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.156835</v>
+        <v>0.151038</v>
       </c>
       <c r="C62" t="n">
-        <v>0.161133</v>
+        <v>0.15487</v>
       </c>
       <c r="D62" t="n">
-        <v>0.279119</v>
+        <v>0.279804</v>
       </c>
       <c r="E62" t="n">
-        <v>0.0984457</v>
+        <v>0.0970589</v>
       </c>
       <c r="F62" t="n">
-        <v>0.103778</v>
+        <v>0.103592</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.177557</v>
+        <v>0.171317</v>
       </c>
       <c r="C63" t="n">
-        <v>0.175079</v>
+        <v>0.175252</v>
       </c>
       <c r="D63" t="n">
-        <v>0.284703</v>
+        <v>0.285335</v>
       </c>
       <c r="E63" t="n">
-        <v>0.102957</v>
+        <v>0.102386</v>
       </c>
       <c r="F63" t="n">
-        <v>0.108072</v>
+        <v>0.108213</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.200738</v>
+        <v>0.196649</v>
       </c>
       <c r="C64" t="n">
-        <v>0.205071</v>
+        <v>0.203908</v>
       </c>
       <c r="D64" t="n">
-        <v>0.211555</v>
+        <v>0.208907</v>
       </c>
       <c r="E64" t="n">
-        <v>0.112627</v>
+        <v>0.111255</v>
       </c>
       <c r="F64" t="n">
-        <v>0.116517</v>
+        <v>0.11634</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.24758</v>
+        <v>0.241688</v>
       </c>
       <c r="C65" t="n">
-        <v>0.245185</v>
+        <v>0.245792</v>
       </c>
       <c r="D65" t="n">
-        <v>0.216954</v>
+        <v>0.216234</v>
       </c>
       <c r="E65" t="n">
-        <v>0.125233</v>
+        <v>0.126137</v>
       </c>
       <c r="F65" t="n">
-        <v>0.131287</v>
+        <v>0.132889</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.296625</v>
+        <v>0.285685</v>
       </c>
       <c r="C66" t="n">
-        <v>0.293209</v>
+        <v>0.295538</v>
       </c>
       <c r="D66" t="n">
-        <v>0.224175</v>
+        <v>0.222468</v>
       </c>
       <c r="E66" t="n">
-        <v>0.0934118</v>
+        <v>0.093616</v>
       </c>
       <c r="F66" t="n">
-        <v>0.0979302</v>
+        <v>0.09766950000000001</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.106719</v>
+        <v>0.10855</v>
       </c>
       <c r="C67" t="n">
-        <v>0.113972</v>
+        <v>0.112754</v>
       </c>
       <c r="D67" t="n">
-        <v>0.235162</v>
+        <v>0.234596</v>
       </c>
       <c r="E67" t="n">
-        <v>0.09348869999999999</v>
+        <v>0.09430189999999999</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09794650000000001</v>
+        <v>0.0982326</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.109397</v>
+        <v>0.10888</v>
       </c>
       <c r="C68" t="n">
-        <v>0.113718</v>
+        <v>0.116691</v>
       </c>
       <c r="D68" t="n">
-        <v>0.243578</v>
+        <v>0.239601</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0940478</v>
+        <v>0.0941554</v>
       </c>
       <c r="F68" t="n">
-        <v>0.09888479999999999</v>
+        <v>0.0988853</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.111842</v>
+        <v>0.11133</v>
       </c>
       <c r="C69" t="n">
-        <v>0.117147</v>
+        <v>0.117665</v>
       </c>
       <c r="D69" t="n">
-        <v>0.253955</v>
+        <v>0.250012</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0943435</v>
+        <v>0.09497559999999999</v>
       </c>
       <c r="F69" t="n">
-        <v>0.09942049999999999</v>
+        <v>0.09997730000000001</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.115281</v>
+        <v>0.115232</v>
       </c>
       <c r="C70" t="n">
-        <v>0.119402</v>
+        <v>0.119517</v>
       </c>
       <c r="D70" t="n">
-        <v>0.265847</v>
+        <v>0.259398</v>
       </c>
       <c r="E70" t="n">
-        <v>0.094946</v>
+        <v>0.0956072</v>
       </c>
       <c r="F70" t="n">
-        <v>0.10006</v>
+        <v>0.100666</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.118353</v>
+        <v>0.117205</v>
       </c>
       <c r="C71" t="n">
-        <v>0.123967</v>
+        <v>0.123332</v>
       </c>
       <c r="D71" t="n">
-        <v>0.274152</v>
+        <v>0.271079</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0955062</v>
+        <v>0.0962466</v>
       </c>
       <c r="F71" t="n">
-        <v>0.10139</v>
+        <v>0.101662</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.122212</v>
+        <v>0.122168</v>
       </c>
       <c r="C72" t="n">
-        <v>0.129343</v>
+        <v>0.13011</v>
       </c>
       <c r="D72" t="n">
-        <v>0.284656</v>
+        <v>0.282413</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0968485</v>
+        <v>0.09682730000000001</v>
       </c>
       <c r="F72" t="n">
-        <v>0.103395</v>
+        <v>0.103158</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.129769</v>
+        <v>0.126791</v>
       </c>
       <c r="C73" t="n">
-        <v>0.136167</v>
+        <v>0.134908</v>
       </c>
       <c r="D73" t="n">
-        <v>0.296652</v>
+        <v>0.289701</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0978865</v>
+        <v>0.097791</v>
       </c>
       <c r="F73" t="n">
-        <v>0.104525</v>
+        <v>0.104593</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.137289</v>
+        <v>0.136737</v>
       </c>
       <c r="C74" t="n">
-        <v>0.145257</v>
+        <v>0.1428</v>
       </c>
       <c r="D74" t="n">
-        <v>0.31036</v>
+        <v>0.306112</v>
       </c>
       <c r="E74" t="n">
-        <v>0.0988657</v>
+        <v>0.09963080000000001</v>
       </c>
       <c r="F74" t="n">
-        <v>0.10647</v>
+        <v>0.106708</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.144817</v>
+        <v>0.144214</v>
       </c>
       <c r="C75" t="n">
-        <v>0.157182</v>
+        <v>0.153345</v>
       </c>
       <c r="D75" t="n">
-        <v>0.325612</v>
+        <v>0.320103</v>
       </c>
       <c r="E75" t="n">
-        <v>0.10122</v>
+        <v>0.101938</v>
       </c>
       <c r="F75" t="n">
-        <v>0.110084</v>
+        <v>0.109374</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.157133</v>
+        <v>0.157124</v>
       </c>
       <c r="C76" t="n">
-        <v>0.169353</v>
+        <v>0.167582</v>
       </c>
       <c r="D76" t="n">
-        <v>0.339687</v>
+        <v>0.333727</v>
       </c>
       <c r="E76" t="n">
-        <v>0.104656</v>
+        <v>0.104299</v>
       </c>
       <c r="F76" t="n">
-        <v>0.112763</v>
+        <v>0.112958</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.186322</v>
+        <v>0.183642</v>
       </c>
       <c r="C77" t="n">
-        <v>0.194185</v>
+        <v>0.18869</v>
       </c>
       <c r="D77" t="n">
-        <v>0.353166</v>
+        <v>0.348112</v>
       </c>
       <c r="E77" t="n">
-        <v>0.110056</v>
+        <v>0.109492</v>
       </c>
       <c r="F77" t="n">
-        <v>0.119144</v>
+        <v>0.118203</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.208243</v>
+        <v>0.207401</v>
       </c>
       <c r="C78" t="n">
-        <v>0.219011</v>
+        <v>0.219189</v>
       </c>
       <c r="D78" t="n">
-        <v>0.275571</v>
+        <v>0.270091</v>
       </c>
       <c r="E78" t="n">
-        <v>0.117218</v>
+        <v>0.116406</v>
       </c>
       <c r="F78" t="n">
-        <v>0.128253</v>
+        <v>0.126078</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.253653</v>
+        <v>0.252193</v>
       </c>
       <c r="C79" t="n">
-        <v>0.268962</v>
+        <v>0.258308</v>
       </c>
       <c r="D79" t="n">
-        <v>0.29004</v>
+        <v>0.286588</v>
       </c>
       <c r="E79" t="n">
-        <v>0.131853</v>
+        <v>0.131114</v>
       </c>
       <c r="F79" t="n">
-        <v>0.143139</v>
+        <v>0.141843</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.298085</v>
+        <v>0.294576</v>
       </c>
       <c r="C80" t="n">
-        <v>0.319467</v>
+        <v>0.31588</v>
       </c>
       <c r="D80" t="n">
-        <v>0.309728</v>
+        <v>0.306528</v>
       </c>
       <c r="E80" t="n">
-        <v>0.1017</v>
+        <v>0.10176</v>
       </c>
       <c r="F80" t="n">
-        <v>0.106987</v>
+        <v>0.106234</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.119861</v>
+        <v>0.120211</v>
       </c>
       <c r="C81" t="n">
-        <v>0.126125</v>
+        <v>0.125989</v>
       </c>
       <c r="D81" t="n">
-        <v>0.326972</v>
+        <v>0.325926</v>
       </c>
       <c r="E81" t="n">
-        <v>0.102355</v>
+        <v>0.102265</v>
       </c>
       <c r="F81" t="n">
-        <v>0.108355</v>
+        <v>0.107549</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.121453</v>
+        <v>0.122162</v>
       </c>
       <c r="C82" t="n">
-        <v>0.129482</v>
+        <v>0.12833</v>
       </c>
       <c r="D82" t="n">
-        <v>0.346388</v>
+        <v>0.346155</v>
       </c>
       <c r="E82" t="n">
-        <v>0.102933</v>
+        <v>0.10256</v>
       </c>
       <c r="F82" t="n">
-        <v>0.109328</v>
+        <v>0.107728</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.124159</v>
+        <v>0.123237</v>
       </c>
       <c r="C83" t="n">
-        <v>0.13216</v>
+        <v>0.130791</v>
       </c>
       <c r="D83" t="n">
-        <v>0.368316</v>
+        <v>0.368528</v>
       </c>
       <c r="E83" t="n">
-        <v>0.10329</v>
+        <v>0.103088</v>
       </c>
       <c r="F83" t="n">
-        <v>0.11049</v>
+        <v>0.108669</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.126403</v>
+        <v>0.126615</v>
       </c>
       <c r="C84" t="n">
-        <v>0.135073</v>
+        <v>0.133673</v>
       </c>
       <c r="D84" t="n">
-        <v>0.389415</v>
+        <v>0.389271</v>
       </c>
       <c r="E84" t="n">
-        <v>0.104318</v>
+        <v>0.103915</v>
       </c>
       <c r="F84" t="n">
-        <v>0.112499</v>
+        <v>0.109668</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.130192</v>
+        <v>0.128914</v>
       </c>
       <c r="C85" t="n">
-        <v>0.141105</v>
+        <v>0.137585</v>
       </c>
       <c r="D85" t="n">
-        <v>0.411115</v>
+        <v>0.411917</v>
       </c>
       <c r="E85" t="n">
-        <v>0.105585</v>
+        <v>0.104189</v>
       </c>
       <c r="F85" t="n">
-        <v>0.114777</v>
+        <v>0.11174</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.137736</v>
+        <v>0.133293</v>
       </c>
       <c r="C86" t="n">
-        <v>0.149038</v>
+        <v>0.14285</v>
       </c>
       <c r="D86" t="n">
-        <v>0.435342</v>
+        <v>0.435292</v>
       </c>
       <c r="E86" t="n">
-        <v>0.106991</v>
+        <v>0.105097</v>
       </c>
       <c r="F86" t="n">
-        <v>0.117557</v>
+        <v>0.11369</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.141217</v>
+        <v>0.139157</v>
       </c>
       <c r="C87" t="n">
-        <v>0.15545</v>
+        <v>0.150389</v>
       </c>
       <c r="D87" t="n">
-        <v>0.459824</v>
+        <v>0.459233</v>
       </c>
       <c r="E87" t="n">
-        <v>0.108422</v>
+        <v>0.106577</v>
       </c>
       <c r="F87" t="n">
-        <v>0.121659</v>
+        <v>0.115505</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.14926</v>
+        <v>0.146719</v>
       </c>
       <c r="C88" t="n">
-        <v>0.166806</v>
+        <v>0.159902</v>
       </c>
       <c r="D88" t="n">
-        <v>0.481368</v>
+        <v>0.483754</v>
       </c>
       <c r="E88" t="n">
-        <v>0.110369</v>
+        <v>0.107852</v>
       </c>
       <c r="F88" t="n">
-        <v>0.124281</v>
+        <v>0.118254</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.16038</v>
+        <v>0.159687</v>
       </c>
       <c r="C89" t="n">
-        <v>0.183821</v>
+        <v>0.176009</v>
       </c>
       <c r="D89" t="n">
-        <v>0.5065229999999999</v>
+        <v>0.50885</v>
       </c>
       <c r="E89" t="n">
-        <v>0.113838</v>
+        <v>0.109854</v>
       </c>
       <c r="F89" t="n">
-        <v>0.129171</v>
+        <v>0.122841</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.176713</v>
+        <v>0.17014</v>
       </c>
       <c r="C90" t="n">
-        <v>0.198799</v>
+        <v>0.191796</v>
       </c>
       <c r="D90" t="n">
-        <v>0.532953</v>
+        <v>0.534887</v>
       </c>
       <c r="E90" t="n">
-        <v>0.11749</v>
+        <v>0.113589</v>
       </c>
       <c r="F90" t="n">
-        <v>0.135639</v>
+        <v>0.128643</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.194428</v>
+        <v>0.189479</v>
       </c>
       <c r="C91" t="n">
-        <v>0.224345</v>
+        <v>0.222835</v>
       </c>
       <c r="D91" t="n">
-        <v>0.561611</v>
+        <v>0.562858</v>
       </c>
       <c r="E91" t="n">
-        <v>0.123992</v>
+        <v>0.118533</v>
       </c>
       <c r="F91" t="n">
-        <v>0.144251</v>
+        <v>0.137019</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.22384</v>
+        <v>0.217333</v>
       </c>
       <c r="C92" t="n">
-        <v>0.25822</v>
+        <v>0.255442</v>
       </c>
       <c r="D92" t="n">
-        <v>0.419284</v>
+        <v>0.421638</v>
       </c>
       <c r="E92" t="n">
-        <v>0.132824</v>
+        <v>0.126281</v>
       </c>
       <c r="F92" t="n">
-        <v>0.155695</v>
+        <v>0.149711</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.265686</v>
+        <v>0.267988</v>
       </c>
       <c r="C93" t="n">
-        <v>0.308574</v>
+        <v>0.310812</v>
       </c>
       <c r="D93" t="n">
-        <v>0.439189</v>
+        <v>0.440661</v>
       </c>
       <c r="E93" t="n">
-        <v>0.147383</v>
+        <v>0.139936</v>
       </c>
       <c r="F93" t="n">
-        <v>0.172446</v>
+        <v>0.168376</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.333053</v>
+        <v>0.327899</v>
       </c>
       <c r="C94" t="n">
-        <v>0.380808</v>
+        <v>0.390124</v>
       </c>
       <c r="D94" t="n">
-        <v>0.459542</v>
+        <v>0.45994</v>
       </c>
       <c r="E94" t="n">
-        <v>0.112291</v>
+        <v>0.107598</v>
       </c>
       <c r="F94" t="n">
-        <v>0.126821</v>
+        <v>0.12093</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.13287</v>
+        <v>0.128748</v>
       </c>
       <c r="C95" t="n">
-        <v>0.15018</v>
+        <v>0.145247</v>
       </c>
       <c r="D95" t="n">
-        <v>0.477605</v>
+        <v>0.479408</v>
       </c>
       <c r="E95" t="n">
-        <v>0.114039</v>
+        <v>0.108706</v>
       </c>
       <c r="F95" t="n">
-        <v>0.129735</v>
+        <v>0.123663</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.136825</v>
+        <v>0.132248</v>
       </c>
       <c r="C96" t="n">
-        <v>0.154825</v>
+        <v>0.150416</v>
       </c>
       <c r="D96" t="n">
-        <v>0.498811</v>
+        <v>0.500299</v>
       </c>
       <c r="E96" t="n">
-        <v>0.115545</v>
+        <v>0.110261</v>
       </c>
       <c r="F96" t="n">
-        <v>0.132839</v>
+        <v>0.127629</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.139246</v>
+        <v>0.133859</v>
       </c>
       <c r="C97" t="n">
-        <v>0.159147</v>
+        <v>0.156454</v>
       </c>
       <c r="D97" t="n">
-        <v>0.519444</v>
+        <v>0.520953</v>
       </c>
       <c r="E97" t="n">
-        <v>0.117813</v>
+        <v>0.112214</v>
       </c>
       <c r="F97" t="n">
-        <v>0.135591</v>
+        <v>0.132499</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.143097</v>
+        <v>0.137871</v>
       </c>
       <c r="C98" t="n">
-        <v>0.164676</v>
+        <v>0.164733</v>
       </c>
       <c r="D98" t="n">
-        <v>0.540976</v>
+        <v>0.543405</v>
       </c>
       <c r="E98" t="n">
-        <v>0.119443</v>
+        <v>0.114332</v>
       </c>
       <c r="F98" t="n">
-        <v>0.139521</v>
+        <v>0.138376</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.147919</v>
+        <v>0.143235</v>
       </c>
       <c r="C99" t="n">
-        <v>0.170697</v>
+        <v>0.17423</v>
       </c>
       <c r="D99" t="n">
-        <v>0.563836</v>
+        <v>0.563623</v>
       </c>
       <c r="E99" t="n">
-        <v>0.121504</v>
+        <v>0.116929</v>
       </c>
       <c r="F99" t="n">
-        <v>0.142116</v>
+        <v>0.144152</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.153204</v>
+        <v>0.151135</v>
       </c>
       <c r="C100" t="n">
-        <v>0.178462</v>
+        <v>0.186735</v>
       </c>
       <c r="D100" t="n">
-        <v>0.587125</v>
+        <v>0.588762</v>
       </c>
       <c r="E100" t="n">
-        <v>0.123739</v>
+        <v>0.119087</v>
       </c>
       <c r="F100" t="n">
-        <v>0.145848</v>
+        <v>0.151338</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.163748</v>
+        <v>0.158376</v>
       </c>
       <c r="C101" t="n">
-        <v>0.187813</v>
+        <v>0.198115</v>
       </c>
       <c r="D101" t="n">
-        <v>0.61327</v>
+        <v>0.6129829999999999</v>
       </c>
       <c r="E101" t="n">
-        <v>0.126436</v>
+        <v>0.123276</v>
       </c>
       <c r="F101" t="n">
-        <v>0.149751</v>
+        <v>0.157328</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.168922</v>
+        <v>0.169796</v>
       </c>
       <c r="C102" t="n">
-        <v>0.201362</v>
+        <v>0.21508</v>
       </c>
       <c r="D102" t="n">
-        <v>0.637645</v>
+        <v>0.637775</v>
       </c>
       <c r="E102" t="n">
-        <v>0.128661</v>
+        <v>0.127684</v>
       </c>
       <c r="F102" t="n">
-        <v>0.154586</v>
+        <v>0.164686</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.179759</v>
+        <v>0.183446</v>
       </c>
       <c r="C103" t="n">
-        <v>0.219272</v>
+        <v>0.230885</v>
       </c>
       <c r="D103" t="n">
-        <v>0.6660740000000001</v>
+        <v>0.664764</v>
       </c>
       <c r="E103" t="n">
-        <v>0.131218</v>
+        <v>0.132895</v>
       </c>
       <c r="F103" t="n">
-        <v>0.160311</v>
+        <v>0.172531</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.198641</v>
+        <v>0.200971</v>
       </c>
       <c r="C104" t="n">
-        <v>0.238049</v>
+        <v>0.25311</v>
       </c>
       <c r="D104" t="n">
-        <v>0.693092</v>
+        <v>0.691976</v>
       </c>
       <c r="E104" t="n">
-        <v>0.135703</v>
+        <v>0.138966</v>
       </c>
       <c r="F104" t="n">
-        <v>0.168079</v>
+        <v>0.181154</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.213557</v>
+        <v>0.223651</v>
       </c>
       <c r="C105" t="n">
-        <v>0.267375</v>
+        <v>0.279828</v>
       </c>
       <c r="D105" t="n">
-        <v>0.723461</v>
+        <v>0.723005</v>
       </c>
       <c r="E105" t="n">
-        <v>0.141519</v>
+        <v>0.147415</v>
       </c>
       <c r="F105" t="n">
-        <v>0.177763</v>
+        <v>0.191528</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.247941</v>
+        <v>0.254785</v>
       </c>
       <c r="C106" t="n">
-        <v>0.307946</v>
+        <v>0.319132</v>
       </c>
       <c r="D106" t="n">
-        <v>0.758872</v>
+        <v>0.756235</v>
       </c>
       <c r="E106" t="n">
-        <v>0.150825</v>
+        <v>0.159742</v>
       </c>
       <c r="F106" t="n">
-        <v>0.192367</v>
+        <v>0.205591</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.286261</v>
+        <v>0.307128</v>
       </c>
       <c r="C107" t="n">
-        <v>0.363198</v>
+        <v>0.370042</v>
       </c>
       <c r="D107" t="n">
-        <v>0.594334</v>
+        <v>0.594198</v>
       </c>
       <c r="E107" t="n">
-        <v>0.164319</v>
+        <v>0.174103</v>
       </c>
       <c r="F107" t="n">
-        <v>0.213013</v>
+        <v>0.224243</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.360433</v>
+        <v>0.363043</v>
       </c>
       <c r="C108" t="n">
-        <v>0.44278</v>
+        <v>0.447157</v>
       </c>
       <c r="D108" t="n">
-        <v>0.6172609999999999</v>
+        <v>0.617595</v>
       </c>
       <c r="E108" t="n">
-        <v>0.122403</v>
+        <v>0.129082</v>
       </c>
       <c r="F108" t="n">
-        <v>0.146438</v>
+        <v>0.15949</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.450797</v>
+        <v>0.450133</v>
       </c>
       <c r="C109" t="n">
-        <v>0.5579</v>
+        <v>0.5615830000000001</v>
       </c>
       <c r="D109" t="n">
-        <v>0.639145</v>
+        <v>0.6395189999999999</v>
       </c>
       <c r="E109" t="n">
-        <v>0.123357</v>
+        <v>0.131253</v>
       </c>
       <c r="F109" t="n">
-        <v>0.149611</v>
+        <v>0.1633</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.145134</v>
+        <v>0.154819</v>
       </c>
       <c r="C110" t="n">
-        <v>0.176621</v>
+        <v>0.189519</v>
       </c>
       <c r="D110" t="n">
-        <v>0.662724</v>
+        <v>0.6614719999999999</v>
       </c>
       <c r="E110" t="n">
-        <v>0.124614</v>
+        <v>0.134048</v>
       </c>
       <c r="F110" t="n">
-        <v>0.153344</v>
+        <v>0.166992</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.147977</v>
+        <v>0.158538</v>
       </c>
       <c r="C111" t="n">
-        <v>0.183074</v>
+        <v>0.194433</v>
       </c>
       <c r="D111" t="n">
-        <v>0.687975</v>
+        <v>0.687651</v>
       </c>
       <c r="E111" t="n">
-        <v>0.126869</v>
+        <v>0.136207</v>
       </c>
       <c r="F111" t="n">
-        <v>0.158954</v>
+        <v>0.171045</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.149166</v>
+        <v>0.163082</v>
       </c>
       <c r="C112" t="n">
-        <v>0.189955</v>
+        <v>0.202273</v>
       </c>
       <c r="D112" t="n">
-        <v>0.714132</v>
+        <v>0.7133699999999999</v>
       </c>
       <c r="E112" t="n">
-        <v>0.128538</v>
+        <v>0.138507</v>
       </c>
       <c r="F112" t="n">
-        <v>0.163558</v>
+        <v>0.174688</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.156827</v>
+        <v>0.168392</v>
       </c>
       <c r="C113" t="n">
-        <v>0.20002</v>
+        <v>0.207988</v>
       </c>
       <c r="D113" t="n">
-        <v>0.74104</v>
+        <v>0.740206</v>
       </c>
       <c r="E113" t="n">
-        <v>0.126809</v>
+        <v>0.141474</v>
       </c>
       <c r="F113" t="n">
-        <v>0.169037</v>
+        <v>0.17878</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.160343</v>
+        <v>0.174763</v>
       </c>
       <c r="C114" t="n">
-        <v>0.209491</v>
+        <v>0.218572</v>
       </c>
       <c r="D114" t="n">
-        <v>0.767171</v>
+        <v>0.766764</v>
       </c>
       <c r="E114" t="n">
-        <v>0.132375</v>
+        <v>0.143652</v>
       </c>
       <c r="F114" t="n">
-        <v>0.17561</v>
+        <v>0.183178</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.171398</v>
+        <v>0.182388</v>
       </c>
       <c r="C115" t="n">
-        <v>0.22184</v>
+        <v>0.227639</v>
       </c>
       <c r="D115" t="n">
-        <v>0.794396</v>
+        <v>0.793699</v>
       </c>
       <c r="E115" t="n">
-        <v>0.136017</v>
+        <v>0.14665</v>
       </c>
       <c r="F115" t="n">
-        <v>0.18165</v>
+        <v>0.188056</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.182056</v>
+        <v>0.191822</v>
       </c>
       <c r="C116" t="n">
-        <v>0.235698</v>
+        <v>0.239832</v>
       </c>
       <c r="D116" t="n">
-        <v>0.822766</v>
+        <v>0.821994</v>
       </c>
       <c r="E116" t="n">
-        <v>0.140149</v>
+        <v>0.149934</v>
       </c>
       <c r="F116" t="n">
-        <v>0.18856</v>
+        <v>0.193323</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.196833</v>
+        <v>0.203914</v>
       </c>
       <c r="C117" t="n">
-        <v>0.254806</v>
+        <v>0.256025</v>
       </c>
       <c r="D117" t="n">
-        <v>0.8525779999999999</v>
+        <v>0.851566</v>
       </c>
       <c r="E117" t="n">
-        <v>0.146193</v>
+        <v>0.153847</v>
       </c>
       <c r="F117" t="n">
-        <v>0.196412</v>
+        <v>0.199911</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.214652</v>
+        <v>0.219369</v>
       </c>
       <c r="C118" t="n">
-        <v>0.27614</v>
+        <v>0.276529</v>
       </c>
       <c r="D118" t="n">
-        <v>0.881502</v>
+        <v>0.880243</v>
       </c>
       <c r="E118" t="n">
-        <v>0.149672</v>
+        <v>0.158857</v>
       </c>
       <c r="F118" t="n">
-        <v>0.204791</v>
+        <v>0.207368</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.237357</v>
+        <v>0.240254</v>
       </c>
       <c r="C119" t="n">
-        <v>0.302343</v>
+        <v>0.304006</v>
       </c>
       <c r="D119" t="n">
-        <v>0.912139</v>
+        <v>0.911983</v>
       </c>
       <c r="E119" t="n">
-        <v>0.161302</v>
+        <v>0.165266</v>
       </c>
       <c r="F119" t="n">
-        <v>0.214608</v>
+        <v>0.216558</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.267467</v>
+        <v>0.26935</v>
       </c>
       <c r="C120" t="n">
-        <v>0.33982</v>
+        <v>0.341183</v>
       </c>
       <c r="D120" t="n">
-        <v>0.945154</v>
+        <v>0.944621</v>
       </c>
       <c r="E120" t="n">
-        <v>0.167871</v>
+        <v>0.174598</v>
       </c>
       <c r="F120" t="n">
-        <v>0.228205</v>
+        <v>0.229763</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.315998</v>
+        <v>0.315599</v>
       </c>
       <c r="C121" t="n">
-        <v>0.393771</v>
+        <v>0.396869</v>
       </c>
       <c r="D121" t="n">
-        <v>0.684382</v>
+        <v>0.683569</v>
       </c>
       <c r="E121" t="n">
-        <v>0.187476</v>
+        <v>0.188549</v>
       </c>
       <c r="F121" t="n">
-        <v>0.247634</v>
+        <v>0.248646</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.372036</v>
+        <v>0.372458</v>
       </c>
       <c r="C122" t="n">
-        <v>0.483818</v>
+        <v>0.483687</v>
       </c>
       <c r="D122" t="n">
-        <v>0.705848</v>
+        <v>0.705874</v>
       </c>
       <c r="E122" t="n">
-        <v>0.209005</v>
+        <v>0.211729</v>
       </c>
       <c r="F122" t="n">
-        <v>0.278353</v>
+        <v>0.279252</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.472254</v>
+        <v>0.473987</v>
       </c>
       <c r="C123" t="n">
-        <v>0.597432</v>
+        <v>0.598539</v>
       </c>
       <c r="D123" t="n">
-        <v>0.729248</v>
+        <v>0.728479</v>
       </c>
       <c r="E123" t="n">
-        <v>0.148609</v>
+        <v>0.146641</v>
       </c>
       <c r="F123" t="n">
-        <v>0.182446</v>
+        <v>0.185066</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.169562</v>
+        <v>0.16926</v>
       </c>
       <c r="C124" t="n">
-        <v>0.206191</v>
+        <v>0.21224</v>
       </c>
       <c r="D124" t="n">
-        <v>0.75331</v>
+        <v>0.752739</v>
       </c>
       <c r="E124" t="n">
-        <v>0.152469</v>
+        <v>0.153135</v>
       </c>
       <c r="F124" t="n">
-        <v>0.186409</v>
+        <v>0.190246</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.174274</v>
+        <v>0.173153</v>
       </c>
       <c r="C125" t="n">
-        <v>0.212949</v>
+        <v>0.215612</v>
       </c>
       <c r="D125" t="n">
-        <v>0.778517</v>
+        <v>0.77793</v>
       </c>
       <c r="E125" t="n">
-        <v>0.151165</v>
+        <v>0.149804</v>
       </c>
       <c r="F125" t="n">
-        <v>0.184708</v>
+        <v>0.190012</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.168107</v>
+        <v>0.180774</v>
       </c>
       <c r="C126" t="n">
-        <v>0.209773</v>
+        <v>0.221727</v>
       </c>
       <c r="D126" t="n">
-        <v>0.803967</v>
+        <v>0.804163</v>
       </c>
       <c r="E126" t="n">
-        <v>0.153197</v>
+        <v>0.152283</v>
       </c>
       <c r="F126" t="n">
-        <v>0.194927</v>
+        <v>0.197202</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.187851</v>
+        <v>0.183416</v>
       </c>
       <c r="C127" t="n">
-        <v>0.229335</v>
+        <v>0.230848</v>
       </c>
       <c r="D127" t="n">
-        <v>0.820238</v>
+        <v>0.830915</v>
       </c>
       <c r="E127" t="n">
-        <v>0.157494</v>
+        <v>0.155153</v>
       </c>
       <c r="F127" t="n">
-        <v>0.201979</v>
+        <v>0.202525</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.19034</v>
+        <v>0.188385</v>
       </c>
       <c r="C128" t="n">
-        <v>0.236256</v>
+        <v>0.239511</v>
       </c>
       <c r="D128" t="n">
-        <v>0.859704</v>
+        <v>0.858599</v>
       </c>
       <c r="E128" t="n">
-        <v>0.157344</v>
+        <v>0.161339</v>
       </c>
       <c r="F128" t="n">
-        <v>0.208247</v>
+        <v>0.208455</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.19407</v>
+        <v>0.198117</v>
       </c>
       <c r="C129" t="n">
-        <v>0.23901</v>
+        <v>0.249568</v>
       </c>
       <c r="D129" t="n">
-        <v>0.877893</v>
+        <v>0.88734</v>
       </c>
       <c r="E129" t="n">
-        <v>0.159182</v>
+        <v>0.16378</v>
       </c>
       <c r="F129" t="n">
-        <v>0.211882</v>
+        <v>0.21171</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.21364</v>
+        <v>0.208587</v>
       </c>
       <c r="C130" t="n">
-        <v>0.26254</v>
+        <v>0.262955</v>
       </c>
       <c r="D130" t="n">
-        <v>0.918156</v>
+        <v>0.917223</v>
       </c>
       <c r="E130" t="n">
-        <v>0.171618</v>
+        <v>0.163407</v>
       </c>
       <c r="F130" t="n">
-        <v>0.216919</v>
+        <v>0.216746</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.219825</v>
+        <v>0.219144</v>
       </c>
       <c r="C131" t="n">
-        <v>0.279068</v>
+        <v>0.28583</v>
       </c>
       <c r="D131" t="n">
-        <v>0.947359</v>
+        <v>0.94731</v>
       </c>
       <c r="E131" t="n">
-        <v>0.162626</v>
+        <v>0.169731</v>
       </c>
       <c r="F131" t="n">
-        <v>0.22853</v>
+        <v>0.224644</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.233817</v>
+        <v>0.233654</v>
       </c>
       <c r="C132" t="n">
-        <v>0.301233</v>
+        <v>0.303017</v>
       </c>
       <c r="D132" t="n">
-        <v>0.9779099999999999</v>
+        <v>0.979282</v>
       </c>
       <c r="E132" t="n">
-        <v>0.173029</v>
+        <v>0.173823</v>
       </c>
       <c r="F132" t="n">
-        <v>0.222583</v>
+        <v>0.236584</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.256453</v>
+        <v>0.257627</v>
       </c>
       <c r="C133" t="n">
-        <v>0.323796</v>
+        <v>0.331551</v>
       </c>
       <c r="D133" t="n">
-        <v>1.00289</v>
+        <v>1.0116</v>
       </c>
       <c r="E133" t="n">
-        <v>0.181107</v>
+        <v>0.179297</v>
       </c>
       <c r="F133" t="n">
-        <v>0.244887</v>
+        <v>0.240728</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.288045</v>
+        <v>0.286939</v>
       </c>
       <c r="C134" t="n">
-        <v>0.369564</v>
+        <v>0.368619</v>
       </c>
       <c r="D134" t="n">
-        <v>1.04508</v>
+        <v>1.04454</v>
       </c>
       <c r="E134" t="n">
-        <v>0.188074</v>
+        <v>0.189065</v>
       </c>
       <c r="F134" t="n">
-        <v>0.256972</v>
+        <v>0.257097</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.313071</v>
+        <v>0.324738</v>
       </c>
       <c r="C135" t="n">
-        <v>0.423686</v>
+        <v>0.424301</v>
       </c>
       <c r="D135" t="n">
-        <v>0.700867</v>
+        <v>0.7009030000000001</v>
       </c>
       <c r="E135" t="n">
-        <v>0.206607</v>
+        <v>0.201778</v>
       </c>
       <c r="F135" t="n">
-        <v>0.27763</v>
+        <v>0.275524</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.38521</v>
+        <v>0.381444</v>
       </c>
       <c r="C136" t="n">
-        <v>0.506267</v>
+        <v>0.507969</v>
       </c>
       <c r="D136" t="n">
-        <v>0.713773</v>
+        <v>0.719042</v>
       </c>
       <c r="E136" t="n">
-        <v>0.220181</v>
+        <v>0.222649</v>
       </c>
       <c r="F136" t="n">
-        <v>0.305565</v>
+        <v>0.305598</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.481289</v>
+        <v>0.482353</v>
       </c>
       <c r="C137" t="n">
-        <v>0.633822</v>
+        <v>0.629258</v>
       </c>
       <c r="D137" t="n">
-        <v>0.738688</v>
+        <v>0.737899</v>
       </c>
       <c r="E137" t="n">
-        <v>0.273917</v>
+        <v>0.27607</v>
       </c>
       <c r="F137" t="n">
-        <v>0.321403</v>
+        <v>0.322645</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.304733</v>
+        <v>0.314108</v>
       </c>
       <c r="C138" t="n">
-        <v>0.356522</v>
+        <v>0.357654</v>
       </c>
       <c r="D138" t="n">
-        <v>0.75817</v>
+        <v>0.758773</v>
       </c>
       <c r="E138" t="n">
-        <v>0.261995</v>
+        <v>0.277954</v>
       </c>
       <c r="F138" t="n">
-        <v>0.326448</v>
+        <v>0.327675</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.288212</v>
+        <v>0.321323</v>
       </c>
       <c r="C139" t="n">
-        <v>0.362607</v>
+        <v>0.363635</v>
       </c>
       <c r="D139" t="n">
-        <v>0.779148</v>
+        <v>0.779991</v>
       </c>
       <c r="E139" t="n">
-        <v>0.282834</v>
+        <v>0.281569</v>
       </c>
       <c r="F139" t="n">
-        <v>0.321975</v>
+        <v>0.332512</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.3202</v>
+        <v>0.326333</v>
       </c>
       <c r="C140" t="n">
-        <v>0.371738</v>
+        <v>0.373185</v>
       </c>
       <c r="D140" t="n">
-        <v>0.80036</v>
+        <v>0.801628</v>
       </c>
       <c r="E140" t="n">
-        <v>0.279228</v>
+        <v>0.284559</v>
       </c>
       <c r="F140" t="n">
-        <v>0.34379</v>
+        <v>0.338253</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.327887</v>
+        <v>0.327591</v>
       </c>
       <c r="C141" t="n">
-        <v>0.378394</v>
+        <v>0.379817</v>
       </c>
       <c r="D141" t="n">
-        <v>0.823137</v>
+        <v>0.824173</v>
       </c>
       <c r="E141" t="n">
-        <v>0.272155</v>
+        <v>0.286187</v>
       </c>
       <c r="F141" t="n">
-        <v>0.34184</v>
+        <v>0.343384</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.309601</v>
+        <v>0.338226</v>
       </c>
       <c r="C142" t="n">
-        <v>0.393057</v>
+        <v>0.391751</v>
       </c>
       <c r="D142" t="n">
-        <v>0.846756</v>
+        <v>0.848237</v>
       </c>
       <c r="E142" t="n">
-        <v>0.270274</v>
+        <v>0.291221</v>
       </c>
       <c r="F142" t="n">
-        <v>0.34687</v>
+        <v>0.350334</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.323886</v>
+        <v>0.34254</v>
       </c>
       <c r="C143" t="n">
-        <v>0.403846</v>
+        <v>0.401533</v>
       </c>
       <c r="D143" t="n">
-        <v>0.864568</v>
+        <v>0.873367</v>
       </c>
       <c r="E143" t="n">
-        <v>0.289871</v>
+        <v>0.289508</v>
       </c>
       <c r="F143" t="n">
-        <v>0.34259</v>
+        <v>0.357176</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Scattered unsuccessful looukp.xlsx
+++ b/clang-x86/Scattered unsuccessful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.09510689999999999</v>
+        <v>0.0951053</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0979698</v>
+        <v>0.0977218</v>
       </c>
       <c r="D2" t="n">
-        <v>0.186124</v>
+        <v>0.185865</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0836824</v>
+        <v>0.0836353</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0842697</v>
+        <v>0.0843724</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.10249</v>
+        <v>0.102452</v>
       </c>
       <c r="C3" t="n">
-        <v>0.104906</v>
+        <v>0.104722</v>
       </c>
       <c r="D3" t="n">
-        <v>0.194801</v>
+        <v>0.19291</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0844707</v>
+        <v>0.0844673</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0849816</v>
+        <v>0.0850567</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.111941</v>
+        <v>0.112026</v>
       </c>
       <c r="C4" t="n">
-        <v>0.116314</v>
+        <v>0.113083</v>
       </c>
       <c r="D4" t="n">
-        <v>0.201542</v>
+        <v>0.200364</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0856698</v>
+        <v>0.0856763</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0863264</v>
+        <v>0.0862752</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.132074</v>
+        <v>0.131962</v>
       </c>
       <c r="C5" t="n">
-        <v>0.131072</v>
+        <v>0.131496</v>
       </c>
       <c r="D5" t="n">
-        <v>0.210318</v>
+        <v>0.207954</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0872352</v>
+        <v>0.0872378</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0875933</v>
+        <v>0.0876489</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.159301</v>
+        <v>0.1596</v>
       </c>
       <c r="C6" t="n">
-        <v>0.164138</v>
+        <v>0.164083</v>
       </c>
       <c r="D6" t="n">
-        <v>0.214344</v>
+        <v>0.214164</v>
       </c>
       <c r="E6" t="n">
-        <v>0.08907089999999999</v>
+        <v>0.0888671</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0895519</v>
+        <v>0.0895359</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.189112</v>
+        <v>0.189476</v>
       </c>
       <c r="C7" t="n">
-        <v>0.191707</v>
+        <v>0.191653</v>
       </c>
       <c r="D7" t="n">
-        <v>0.161276</v>
+        <v>0.161738</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0954599</v>
+        <v>0.0953779</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0948952</v>
+        <v>0.094679</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.229125</v>
+        <v>0.234511</v>
       </c>
       <c r="C8" t="n">
-        <v>0.225744</v>
+        <v>0.224739</v>
       </c>
       <c r="D8" t="n">
-        <v>0.168918</v>
+        <v>0.170085</v>
       </c>
       <c r="E8" t="n">
-        <v>0.107023</v>
+        <v>0.107151</v>
       </c>
       <c r="F8" t="n">
-        <v>0.106808</v>
+        <v>0.106702</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.272131</v>
+        <v>0.279912</v>
       </c>
       <c r="C9" t="n">
-        <v>0.267612</v>
+        <v>0.267577</v>
       </c>
       <c r="D9" t="n">
-        <v>0.175531</v>
+        <v>0.176718</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0818448</v>
+        <v>0.08184080000000001</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0827261</v>
+        <v>0.082512</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.08579829999999999</v>
+        <v>0.0857588</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0868883</v>
+        <v>0.0863396</v>
       </c>
       <c r="D10" t="n">
-        <v>0.183052</v>
+        <v>0.183281</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0821361</v>
+        <v>0.082181</v>
       </c>
       <c r="F10" t="n">
-        <v>0.08285090000000001</v>
+        <v>0.0828749</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0865242</v>
+        <v>0.0865377</v>
       </c>
       <c r="C11" t="n">
-        <v>0.088029</v>
+        <v>0.08743479999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>0.19069</v>
+        <v>0.190462</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0825896</v>
+        <v>0.0825895</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0833182</v>
+        <v>0.0832981</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.08807719999999999</v>
+        <v>0.0883142</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0904306</v>
+        <v>0.0891086</v>
       </c>
       <c r="D12" t="n">
-        <v>0.197936</v>
+        <v>0.198391</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0828414</v>
+        <v>0.0827748</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0835925</v>
+        <v>0.0836136</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0894858</v>
+        <v>0.0895072</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0913766</v>
+        <v>0.09084490000000001</v>
       </c>
       <c r="D13" t="n">
-        <v>0.204649</v>
+        <v>0.205451</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0830129</v>
+        <v>0.08317380000000001</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0840477</v>
+        <v>0.0841789</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0915938</v>
+        <v>0.093997</v>
       </c>
       <c r="C14" t="n">
-        <v>0.09345589999999999</v>
+        <v>0.0936495</v>
       </c>
       <c r="D14" t="n">
-        <v>0.210877</v>
+        <v>0.211651</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0832871</v>
+        <v>0.0832595</v>
       </c>
       <c r="F14" t="n">
-        <v>0.08430790000000001</v>
+        <v>0.0841988</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.09505619999999999</v>
+        <v>0.094703</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0968683</v>
+        <v>0.0980089</v>
       </c>
       <c r="D15" t="n">
-        <v>0.220383</v>
+        <v>0.220852</v>
       </c>
       <c r="E15" t="n">
-        <v>0.08404300000000001</v>
+        <v>0.08395660000000001</v>
       </c>
       <c r="F15" t="n">
-        <v>0.084787</v>
+        <v>0.0846596</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.1013</v>
+        <v>0.103725</v>
       </c>
       <c r="C16" t="n">
-        <v>0.101235</v>
+        <v>0.10356</v>
       </c>
       <c r="D16" t="n">
-        <v>0.227037</v>
+        <v>0.227115</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0844977</v>
+        <v>0.0843192</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0854125</v>
+        <v>0.0853916</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.109177</v>
+        <v>0.109869</v>
       </c>
       <c r="C17" t="n">
-        <v>0.110602</v>
+        <v>0.113202</v>
       </c>
       <c r="D17" t="n">
-        <v>0.233187</v>
+        <v>0.233817</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0854232</v>
+        <v>0.08554390000000001</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0863462</v>
+        <v>0.08639570000000001</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.120641</v>
+        <v>0.123383</v>
       </c>
       <c r="C18" t="n">
-        <v>0.122139</v>
+        <v>0.123016</v>
       </c>
       <c r="D18" t="n">
-        <v>0.238196</v>
+        <v>0.239327</v>
       </c>
       <c r="E18" t="n">
-        <v>0.08666459999999999</v>
+        <v>0.086725</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0874861</v>
+        <v>0.0886282</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.134941</v>
+        <v>0.142262</v>
       </c>
       <c r="C19" t="n">
-        <v>0.137553</v>
+        <v>0.137453</v>
       </c>
       <c r="D19" t="n">
-        <v>0.245367</v>
+        <v>0.246093</v>
       </c>
       <c r="E19" t="n">
-        <v>0.08964999999999999</v>
+        <v>0.0886488</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0894243</v>
+        <v>0.08970359999999999</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.154285</v>
+        <v>0.154841</v>
       </c>
       <c r="C20" t="n">
-        <v>0.157509</v>
+        <v>0.156967</v>
       </c>
       <c r="D20" t="n">
-        <v>0.251796</v>
+        <v>0.252167</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0918173</v>
+        <v>0.0916477</v>
       </c>
       <c r="F20" t="n">
-        <v>0.09282219999999999</v>
+        <v>0.0927697</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.184149</v>
+        <v>0.18381</v>
       </c>
       <c r="C21" t="n">
-        <v>0.191831</v>
+        <v>0.183146</v>
       </c>
       <c r="D21" t="n">
-        <v>0.182468</v>
+        <v>0.183547</v>
       </c>
       <c r="E21" t="n">
-        <v>0.09729500000000001</v>
+        <v>0.0975984</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0989048</v>
+        <v>0.0989828</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.217989</v>
+        <v>0.21666</v>
       </c>
       <c r="C22" t="n">
-        <v>0.219631</v>
+        <v>0.219752</v>
       </c>
       <c r="D22" t="n">
-        <v>0.190679</v>
+        <v>0.191381</v>
       </c>
       <c r="E22" t="n">
-        <v>0.109767</v>
+        <v>0.112162</v>
       </c>
       <c r="F22" t="n">
-        <v>0.111407</v>
+        <v>0.113075</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.274887</v>
+        <v>0.27108</v>
       </c>
       <c r="C23" t="n">
-        <v>0.258933</v>
+        <v>0.260421</v>
       </c>
       <c r="D23" t="n">
-        <v>0.199028</v>
+        <v>0.200091</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0829657</v>
+        <v>0.0830003</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0842058</v>
+        <v>0.0842844</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.09139799999999999</v>
+        <v>0.09155099999999999</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0927622</v>
+        <v>0.093116</v>
       </c>
       <c r="D24" t="n">
-        <v>0.206338</v>
+        <v>0.207591</v>
       </c>
       <c r="E24" t="n">
-        <v>0.08323079999999999</v>
+        <v>0.0832358</v>
       </c>
       <c r="F24" t="n">
-        <v>0.084564</v>
+        <v>0.08463759999999999</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0912872</v>
+        <v>0.0912845</v>
       </c>
       <c r="C25" t="n">
-        <v>0.09316439999999999</v>
+        <v>0.09341729999999999</v>
       </c>
       <c r="D25" t="n">
-        <v>0.213572</v>
+        <v>0.214838</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0834493</v>
+        <v>0.0837524</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0849791</v>
+        <v>0.0849188</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0928099</v>
+        <v>0.09324639999999999</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0957783</v>
+        <v>0.09612030000000001</v>
       </c>
       <c r="D26" t="n">
-        <v>0.221267</v>
+        <v>0.222063</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0838185</v>
+        <v>0.0842662</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08565109999999999</v>
+        <v>0.0858218</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0943272</v>
+        <v>0.0943103</v>
       </c>
       <c r="C27" t="n">
-        <v>0.09698660000000001</v>
+        <v>0.0977992</v>
       </c>
       <c r="D27" t="n">
-        <v>0.228849</v>
+        <v>0.22937</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0842878</v>
+        <v>0.0846741</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0866529</v>
+        <v>0.0861884</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.09704889999999999</v>
+        <v>0.0970229</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0995461</v>
+        <v>0.100443</v>
       </c>
       <c r="D28" t="n">
-        <v>0.235503</v>
+        <v>0.236146</v>
       </c>
       <c r="E28" t="n">
-        <v>0.084732</v>
+        <v>0.0847629</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0868183</v>
+        <v>0.0867351</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.100529</v>
+        <v>0.100471</v>
       </c>
       <c r="C29" t="n">
-        <v>0.104586</v>
+        <v>0.103687</v>
       </c>
       <c r="D29" t="n">
-        <v>0.241424</v>
+        <v>0.242331</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0852784</v>
+        <v>0.0852417</v>
       </c>
       <c r="F29" t="n">
-        <v>0.087771</v>
+        <v>0.0875408</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.106046</v>
+        <v>0.106033</v>
       </c>
       <c r="C30" t="n">
-        <v>0.11123</v>
+        <v>0.111298</v>
       </c>
       <c r="D30" t="n">
-        <v>0.247729</v>
+        <v>0.248154</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0859308</v>
+        <v>0.0859926</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08882619999999999</v>
+        <v>0.0889238</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.1135</v>
+        <v>0.11345</v>
       </c>
       <c r="C31" t="n">
-        <v>0.115288</v>
+        <v>0.117565</v>
       </c>
       <c r="D31" t="n">
-        <v>0.252538</v>
+        <v>0.252981</v>
       </c>
       <c r="E31" t="n">
-        <v>0.087073</v>
+        <v>0.0876928</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0900725</v>
+        <v>0.09029810000000001</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.121367</v>
+        <v>0.121307</v>
       </c>
       <c r="C32" t="n">
-        <v>0.125824</v>
+        <v>0.12808</v>
       </c>
       <c r="D32" t="n">
-        <v>0.25805</v>
+        <v>0.259127</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0886984</v>
+        <v>0.0886163</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0925546</v>
+        <v>0.0916262</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.134989</v>
+        <v>0.135011</v>
       </c>
       <c r="C33" t="n">
-        <v>0.137819</v>
+        <v>0.137709</v>
       </c>
       <c r="D33" t="n">
-        <v>0.263111</v>
+        <v>0.264325</v>
       </c>
       <c r="E33" t="n">
-        <v>0.091126</v>
+        <v>0.0910512</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0946548</v>
+        <v>0.0943425</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.150569</v>
+        <v>0.15045</v>
       </c>
       <c r="C34" t="n">
-        <v>0.154153</v>
+        <v>0.159844</v>
       </c>
       <c r="D34" t="n">
-        <v>0.2699</v>
+        <v>0.271295</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0950826</v>
+        <v>0.0949774</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0987225</v>
+        <v>0.0991635</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.176388</v>
+        <v>0.176274</v>
       </c>
       <c r="C35" t="n">
-        <v>0.177208</v>
+        <v>0.176539</v>
       </c>
       <c r="D35" t="n">
-        <v>0.196407</v>
+        <v>0.196599</v>
       </c>
       <c r="E35" t="n">
-        <v>0.101936</v>
+        <v>0.102183</v>
       </c>
       <c r="F35" t="n">
-        <v>0.105875</v>
+        <v>0.105801</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.208685</v>
+        <v>0.209017</v>
       </c>
       <c r="C36" t="n">
-        <v>0.209391</v>
+        <v>0.210142</v>
       </c>
       <c r="D36" t="n">
-        <v>0.20347</v>
+        <v>0.203958</v>
       </c>
       <c r="E36" t="n">
-        <v>0.113867</v>
+        <v>0.11562</v>
       </c>
       <c r="F36" t="n">
-        <v>0.116865</v>
+        <v>0.118501</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.258817</v>
+        <v>0.253686</v>
       </c>
       <c r="C37" t="n">
-        <v>0.25633</v>
+        <v>0.25423</v>
       </c>
       <c r="D37" t="n">
-        <v>0.211754</v>
+        <v>0.21188</v>
       </c>
       <c r="E37" t="n">
-        <v>0.08367289999999999</v>
+        <v>0.0836109</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0869129</v>
+        <v>0.086759</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0923727</v>
+        <v>0.09282269999999999</v>
       </c>
       <c r="C38" t="n">
-        <v>0.095849</v>
+        <v>0.09545770000000001</v>
       </c>
       <c r="D38" t="n">
-        <v>0.218692</v>
+        <v>0.218716</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0839516</v>
+        <v>0.0839771</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0873659</v>
+        <v>0.087168</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.09364989999999999</v>
+        <v>0.0947813</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0980109</v>
+        <v>0.09719800000000001</v>
       </c>
       <c r="D39" t="n">
-        <v>0.225879</v>
+        <v>0.226246</v>
       </c>
       <c r="E39" t="n">
-        <v>0.08421090000000001</v>
+        <v>0.08422979999999999</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0877947</v>
+        <v>0.0880348</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0949913</v>
+        <v>0.0953632</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0987286</v>
+        <v>0.099648</v>
       </c>
       <c r="D40" t="n">
-        <v>0.233511</v>
+        <v>0.234324</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0845374</v>
+        <v>0.0845752</v>
       </c>
       <c r="F40" t="n">
-        <v>0.08828510000000001</v>
+        <v>0.0884235</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0970684</v>
+        <v>0.09773469999999999</v>
       </c>
       <c r="C41" t="n">
-        <v>0.102429</v>
+        <v>0.101909</v>
       </c>
       <c r="D41" t="n">
-        <v>0.239564</v>
+        <v>0.240024</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0849979</v>
+        <v>0.0851283</v>
       </c>
       <c r="F41" t="n">
-        <v>0.08891209999999999</v>
+        <v>0.08876589999999999</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.100077</v>
+        <v>0.100083</v>
       </c>
       <c r="C42" t="n">
-        <v>0.104133</v>
+        <v>0.104405</v>
       </c>
       <c r="D42" t="n">
-        <v>0.247025</v>
+        <v>0.246629</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0857607</v>
+        <v>0.08542719999999999</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0893341</v>
+        <v>0.0894838</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.104456</v>
+        <v>0.104302</v>
       </c>
       <c r="C43" t="n">
         <v>0.108158</v>
       </c>
       <c r="D43" t="n">
-        <v>0.253346</v>
+        <v>0.253334</v>
       </c>
       <c r="E43" t="n">
-        <v>0.08591849999999999</v>
+        <v>0.0859993</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0900102</v>
+        <v>0.08997819999999999</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.109099</v>
+        <v>0.109087</v>
       </c>
       <c r="C44" t="n">
-        <v>0.113299</v>
+        <v>0.113256</v>
       </c>
       <c r="D44" t="n">
-        <v>0.259525</v>
+        <v>0.259441</v>
       </c>
       <c r="E44" t="n">
-        <v>0.08683299999999999</v>
+        <v>0.0868304</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0908979</v>
+        <v>0.09184109999999999</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.115406</v>
+        <v>0.115374</v>
       </c>
       <c r="C45" t="n">
-        <v>0.121504</v>
+        <v>0.119048</v>
       </c>
       <c r="D45" t="n">
-        <v>0.26537</v>
+        <v>0.265413</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0878143</v>
+        <v>0.0877352</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0920892</v>
+        <v>0.0923959</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.123681</v>
+        <v>0.123493</v>
       </c>
       <c r="C46" t="n">
-        <v>0.128683</v>
+        <v>0.128457</v>
       </c>
       <c r="D46" t="n">
-        <v>0.271784</v>
+        <v>0.271899</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0893732</v>
+        <v>0.0892563</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0937697</v>
+        <v>0.0941309</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.136337</v>
+        <v>0.135333</v>
       </c>
       <c r="C47" t="n">
-        <v>0.13983</v>
+        <v>0.143519</v>
       </c>
       <c r="D47" t="n">
-        <v>0.277076</v>
+        <v>0.277237</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0917019</v>
+        <v>0.09177689999999999</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0962293</v>
+        <v>0.09643699999999999</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.152533</v>
+        <v>0.150452</v>
       </c>
       <c r="C48" t="n">
-        <v>0.154176</v>
+        <v>0.153759</v>
       </c>
       <c r="D48" t="n">
-        <v>0.282696</v>
+        <v>0.282934</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0965086</v>
+        <v>0.0951975</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0998551</v>
+        <v>0.0997292</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.173063</v>
+        <v>0.18187</v>
       </c>
       <c r="C49" t="n">
-        <v>0.182387</v>
+        <v>0.175968</v>
       </c>
       <c r="D49" t="n">
-        <v>0.289216</v>
+        <v>0.289772</v>
       </c>
       <c r="E49" t="n">
-        <v>0.100987</v>
+        <v>0.101854</v>
       </c>
       <c r="F49" t="n">
-        <v>0.105493</v>
+        <v>0.105439</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.204621</v>
+        <v>0.204741</v>
       </c>
       <c r="C50" t="n">
-        <v>0.204967</v>
+        <v>0.205089</v>
       </c>
       <c r="D50" t="n">
-        <v>0.203615</v>
+        <v>0.20321</v>
       </c>
       <c r="E50" t="n">
-        <v>0.11399</v>
+        <v>0.110918</v>
       </c>
       <c r="F50" t="n">
-        <v>0.115306</v>
+        <v>0.116666</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.243862</v>
+        <v>0.244346</v>
       </c>
       <c r="C51" t="n">
-        <v>0.247873</v>
+        <v>0.248131</v>
       </c>
       <c r="D51" t="n">
-        <v>0.210924</v>
+        <v>0.210544</v>
       </c>
       <c r="E51" t="n">
-        <v>0.08562350000000001</v>
+        <v>0.0861973</v>
       </c>
       <c r="F51" t="n">
-        <v>0.08915869999999999</v>
+        <v>0.0894355</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.291502</v>
+        <v>0.302979</v>
       </c>
       <c r="C52" t="n">
-        <v>0.294893</v>
+        <v>0.294234</v>
       </c>
       <c r="D52" t="n">
-        <v>0.217246</v>
+        <v>0.217058</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0865667</v>
+        <v>0.08558399999999999</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0897608</v>
+        <v>0.0910088</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.097164</v>
+        <v>0.09711649999999999</v>
       </c>
       <c r="C53" t="n">
-        <v>0.100787</v>
+        <v>0.102505</v>
       </c>
       <c r="D53" t="n">
-        <v>0.224932</v>
+        <v>0.22473</v>
       </c>
       <c r="E53" t="n">
-        <v>0.08609020000000001</v>
+        <v>0.0861705</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0903815</v>
+        <v>0.0918358</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0987088</v>
+        <v>0.09834089999999999</v>
       </c>
       <c r="C54" t="n">
-        <v>0.102994</v>
+        <v>0.10228</v>
       </c>
       <c r="D54" t="n">
-        <v>0.231671</v>
+        <v>0.231753</v>
       </c>
       <c r="E54" t="n">
-        <v>0.08671810000000001</v>
+        <v>0.087122</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0905548</v>
+        <v>0.09206499999999999</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.100406</v>
+        <v>0.101462</v>
       </c>
       <c r="C55" t="n">
-        <v>0.106908</v>
+        <v>0.105361</v>
       </c>
       <c r="D55" t="n">
-        <v>0.238288</v>
+        <v>0.238494</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0868868</v>
+        <v>0.086523</v>
       </c>
       <c r="F55" t="n">
-        <v>0.09115379999999999</v>
+        <v>0.091584</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.103864</v>
+        <v>0.104907</v>
       </c>
       <c r="C56" t="n">
-        <v>0.108607</v>
+        <v>0.10846</v>
       </c>
       <c r="D56" t="n">
-        <v>0.245029</v>
+        <v>0.245168</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0872381</v>
+        <v>0.0870636</v>
       </c>
       <c r="F56" t="n">
-        <v>0.09244810000000001</v>
+        <v>0.0922687</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.105903</v>
+        <v>0.107848</v>
       </c>
       <c r="C57" t="n">
-        <v>0.113693</v>
+        <v>0.113575</v>
       </c>
       <c r="D57" t="n">
-        <v>0.251187</v>
+        <v>0.250627</v>
       </c>
       <c r="E57" t="n">
-        <v>0.087866</v>
+        <v>0.08779430000000001</v>
       </c>
       <c r="F57" t="n">
-        <v>0.0931714</v>
+        <v>0.09321500000000001</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.113097</v>
+        <v>0.11402</v>
       </c>
       <c r="C58" t="n">
-        <v>0.117529</v>
+        <v>0.115953</v>
       </c>
       <c r="D58" t="n">
-        <v>0.256981</v>
+        <v>0.256483</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0885387</v>
+        <v>0.0882887</v>
       </c>
       <c r="F58" t="n">
-        <v>0.09409389999999999</v>
+        <v>0.09396690000000001</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.117714</v>
+        <v>0.116431</v>
       </c>
       <c r="C59" t="n">
-        <v>0.122071</v>
+        <v>0.124066</v>
       </c>
       <c r="D59" t="n">
-        <v>0.262633</v>
+        <v>0.261915</v>
       </c>
       <c r="E59" t="n">
-        <v>0.08976770000000001</v>
+        <v>0.0903607</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0949091</v>
+        <v>0.0954541</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.12584</v>
+        <v>0.126668</v>
       </c>
       <c r="C60" t="n">
-        <v>0.134043</v>
+        <v>0.132435</v>
       </c>
       <c r="D60" t="n">
-        <v>0.267901</v>
+        <v>0.266859</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0914739</v>
+        <v>0.0934388</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0974052</v>
+        <v>0.0967951</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.135963</v>
+        <v>0.13451</v>
       </c>
       <c r="C61" t="n">
-        <v>0.140752</v>
+        <v>0.145081</v>
       </c>
       <c r="D61" t="n">
-        <v>0.273999</v>
+        <v>0.272427</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0934084</v>
+        <v>0.0931935</v>
       </c>
       <c r="F61" t="n">
-        <v>0.0997902</v>
+        <v>0.100355</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.151038</v>
+        <v>0.149733</v>
       </c>
       <c r="C62" t="n">
-        <v>0.15487</v>
+        <v>0.155655</v>
       </c>
       <c r="D62" t="n">
-        <v>0.279804</v>
+        <v>0.279571</v>
       </c>
       <c r="E62" t="n">
-        <v>0.0970589</v>
+        <v>0.09748229999999999</v>
       </c>
       <c r="F62" t="n">
-        <v>0.103592</v>
+        <v>0.103997</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.171317</v>
+        <v>0.176328</v>
       </c>
       <c r="C63" t="n">
-        <v>0.175252</v>
+        <v>0.174385</v>
       </c>
       <c r="D63" t="n">
-        <v>0.285335</v>
+        <v>0.284596</v>
       </c>
       <c r="E63" t="n">
-        <v>0.102386</v>
+        <v>0.101618</v>
       </c>
       <c r="F63" t="n">
-        <v>0.108213</v>
+        <v>0.108387</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.196649</v>
+        <v>0.20612</v>
       </c>
       <c r="C64" t="n">
-        <v>0.203908</v>
+        <v>0.204333</v>
       </c>
       <c r="D64" t="n">
-        <v>0.208907</v>
+        <v>0.209137</v>
       </c>
       <c r="E64" t="n">
-        <v>0.111255</v>
+        <v>0.110162</v>
       </c>
       <c r="F64" t="n">
-        <v>0.11634</v>
+        <v>0.116788</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.241688</v>
+        <v>0.237658</v>
       </c>
       <c r="C65" t="n">
-        <v>0.245792</v>
+        <v>0.243114</v>
       </c>
       <c r="D65" t="n">
-        <v>0.216234</v>
+        <v>0.216018</v>
       </c>
       <c r="E65" t="n">
-        <v>0.126137</v>
+        <v>0.125135</v>
       </c>
       <c r="F65" t="n">
-        <v>0.132889</v>
+        <v>0.133259</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.285685</v>
+        <v>0.293044</v>
       </c>
       <c r="C66" t="n">
-        <v>0.295538</v>
+        <v>0.301753</v>
       </c>
       <c r="D66" t="n">
-        <v>0.222468</v>
+        <v>0.223518</v>
       </c>
       <c r="E66" t="n">
-        <v>0.093616</v>
+        <v>0.09334000000000001</v>
       </c>
       <c r="F66" t="n">
-        <v>0.09766950000000001</v>
+        <v>0.0977975</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.10855</v>
+        <v>0.107614</v>
       </c>
       <c r="C67" t="n">
-        <v>0.112754</v>
+        <v>0.112823</v>
       </c>
       <c r="D67" t="n">
-        <v>0.234596</v>
+        <v>0.235704</v>
       </c>
       <c r="E67" t="n">
-        <v>0.09430189999999999</v>
+        <v>0.0939313</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0982326</v>
+        <v>0.0985077</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.10888</v>
+        <v>0.109645</v>
       </c>
       <c r="C68" t="n">
-        <v>0.116691</v>
+        <v>0.114393</v>
       </c>
       <c r="D68" t="n">
-        <v>0.239601</v>
+        <v>0.242127</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0941554</v>
+        <v>0.0946534</v>
       </c>
       <c r="F68" t="n">
-        <v>0.0988853</v>
+        <v>0.0989674</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.11133</v>
+        <v>0.110336</v>
       </c>
       <c r="C69" t="n">
-        <v>0.117665</v>
+        <v>0.117039</v>
       </c>
       <c r="D69" t="n">
-        <v>0.250012</v>
+        <v>0.250315</v>
       </c>
       <c r="E69" t="n">
-        <v>0.09497559999999999</v>
+        <v>0.0944836</v>
       </c>
       <c r="F69" t="n">
-        <v>0.09997730000000001</v>
+        <v>0.100277</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.115232</v>
+        <v>0.113018</v>
       </c>
       <c r="C70" t="n">
-        <v>0.119517</v>
+        <v>0.119673</v>
       </c>
       <c r="D70" t="n">
-        <v>0.259398</v>
+        <v>0.259053</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0956072</v>
+        <v>0.0947871</v>
       </c>
       <c r="F70" t="n">
-        <v>0.100666</v>
+        <v>0.100644</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.117205</v>
+        <v>0.117435</v>
       </c>
       <c r="C71" t="n">
-        <v>0.123332</v>
+        <v>0.125715</v>
       </c>
       <c r="D71" t="n">
-        <v>0.271079</v>
+        <v>0.269993</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0962466</v>
+        <v>0.0959725</v>
       </c>
       <c r="F71" t="n">
-        <v>0.101662</v>
+        <v>0.102109</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.122168</v>
+        <v>0.122447</v>
       </c>
       <c r="C72" t="n">
-        <v>0.13011</v>
+        <v>0.13013</v>
       </c>
       <c r="D72" t="n">
-        <v>0.282413</v>
+        <v>0.282342</v>
       </c>
       <c r="E72" t="n">
-        <v>0.09682730000000001</v>
+        <v>0.0964445</v>
       </c>
       <c r="F72" t="n">
-        <v>0.103158</v>
+        <v>0.103192</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.126791</v>
+        <v>0.126081</v>
       </c>
       <c r="C73" t="n">
-        <v>0.134908</v>
+        <v>0.134206</v>
       </c>
       <c r="D73" t="n">
-        <v>0.289701</v>
+        <v>0.292771</v>
       </c>
       <c r="E73" t="n">
-        <v>0.097791</v>
+        <v>0.0983233</v>
       </c>
       <c r="F73" t="n">
-        <v>0.104593</v>
+        <v>0.104883</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.136737</v>
+        <v>0.137986</v>
       </c>
       <c r="C74" t="n">
-        <v>0.1428</v>
+        <v>0.143143</v>
       </c>
       <c r="D74" t="n">
-        <v>0.306112</v>
+        <v>0.304243</v>
       </c>
       <c r="E74" t="n">
-        <v>0.09963080000000001</v>
+        <v>0.09996819999999999</v>
       </c>
       <c r="F74" t="n">
-        <v>0.106708</v>
+        <v>0.106573</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.144214</v>
+        <v>0.142661</v>
       </c>
       <c r="C75" t="n">
-        <v>0.153345</v>
+        <v>0.153719</v>
       </c>
       <c r="D75" t="n">
-        <v>0.320103</v>
+        <v>0.319583</v>
       </c>
       <c r="E75" t="n">
-        <v>0.101938</v>
+        <v>0.101679</v>
       </c>
       <c r="F75" t="n">
-        <v>0.109374</v>
+        <v>0.108872</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.157124</v>
+        <v>0.156779</v>
       </c>
       <c r="C76" t="n">
-        <v>0.167582</v>
+        <v>0.167908</v>
       </c>
       <c r="D76" t="n">
-        <v>0.333727</v>
+        <v>0.336705</v>
       </c>
       <c r="E76" t="n">
-        <v>0.104299</v>
+        <v>0.104312</v>
       </c>
       <c r="F76" t="n">
-        <v>0.112958</v>
+        <v>0.112059</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.183642</v>
+        <v>0.178307</v>
       </c>
       <c r="C77" t="n">
-        <v>0.18869</v>
+        <v>0.188233</v>
       </c>
       <c r="D77" t="n">
-        <v>0.348112</v>
+        <v>0.352068</v>
       </c>
       <c r="E77" t="n">
-        <v>0.109492</v>
+        <v>0.109319</v>
       </c>
       <c r="F77" t="n">
-        <v>0.118203</v>
+        <v>0.118851</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.207401</v>
+        <v>0.204391</v>
       </c>
       <c r="C78" t="n">
-        <v>0.219189</v>
+        <v>0.218222</v>
       </c>
       <c r="D78" t="n">
-        <v>0.270091</v>
+        <v>0.268949</v>
       </c>
       <c r="E78" t="n">
-        <v>0.116406</v>
+        <v>0.117755</v>
       </c>
       <c r="F78" t="n">
-        <v>0.126078</v>
+        <v>0.125366</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.252193</v>
+        <v>0.252933</v>
       </c>
       <c r="C79" t="n">
-        <v>0.258308</v>
+        <v>0.257545</v>
       </c>
       <c r="D79" t="n">
-        <v>0.286588</v>
+        <v>0.285521</v>
       </c>
       <c r="E79" t="n">
-        <v>0.131114</v>
+        <v>0.129816</v>
       </c>
       <c r="F79" t="n">
-        <v>0.141843</v>
+        <v>0.140249</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.294576</v>
+        <v>0.295011</v>
       </c>
       <c r="C80" t="n">
-        <v>0.31588</v>
+        <v>0.31383</v>
       </c>
       <c r="D80" t="n">
-        <v>0.306528</v>
+        <v>0.306767</v>
       </c>
       <c r="E80" t="n">
-        <v>0.10176</v>
+        <v>0.101668</v>
       </c>
       <c r="F80" t="n">
-        <v>0.106234</v>
+        <v>0.106859</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.120211</v>
+        <v>0.119673</v>
       </c>
       <c r="C81" t="n">
-        <v>0.125989</v>
+        <v>0.125728</v>
       </c>
       <c r="D81" t="n">
-        <v>0.325926</v>
+        <v>0.324345</v>
       </c>
       <c r="E81" t="n">
-        <v>0.102265</v>
+        <v>0.102244</v>
       </c>
       <c r="F81" t="n">
-        <v>0.107549</v>
+        <v>0.107903</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.122162</v>
+        <v>0.12291</v>
       </c>
       <c r="C82" t="n">
-        <v>0.12833</v>
+        <v>0.127673</v>
       </c>
       <c r="D82" t="n">
-        <v>0.346155</v>
+        <v>0.346545</v>
       </c>
       <c r="E82" t="n">
-        <v>0.10256</v>
+        <v>0.102635</v>
       </c>
       <c r="F82" t="n">
-        <v>0.107728</v>
+        <v>0.108396</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.123237</v>
+        <v>0.12394</v>
       </c>
       <c r="C83" t="n">
-        <v>0.130791</v>
+        <v>0.130477</v>
       </c>
       <c r="D83" t="n">
-        <v>0.368528</v>
+        <v>0.367907</v>
       </c>
       <c r="E83" t="n">
-        <v>0.103088</v>
+        <v>0.102843</v>
       </c>
       <c r="F83" t="n">
-        <v>0.108669</v>
+        <v>0.10963</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.126615</v>
+        <v>0.126433</v>
       </c>
       <c r="C84" t="n">
-        <v>0.133673</v>
+        <v>0.133295</v>
       </c>
       <c r="D84" t="n">
-        <v>0.389271</v>
+        <v>0.389164</v>
       </c>
       <c r="E84" t="n">
-        <v>0.103915</v>
+        <v>0.103318</v>
       </c>
       <c r="F84" t="n">
-        <v>0.109668</v>
+        <v>0.110089</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.128914</v>
+        <v>0.129027</v>
       </c>
       <c r="C85" t="n">
-        <v>0.137585</v>
+        <v>0.137636</v>
       </c>
       <c r="D85" t="n">
-        <v>0.411917</v>
+        <v>0.412445</v>
       </c>
       <c r="E85" t="n">
-        <v>0.104189</v>
+        <v>0.104478</v>
       </c>
       <c r="F85" t="n">
-        <v>0.11174</v>
+        <v>0.111441</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.133293</v>
+        <v>0.133182</v>
       </c>
       <c r="C86" t="n">
-        <v>0.14285</v>
+        <v>0.142428</v>
       </c>
       <c r="D86" t="n">
-        <v>0.435292</v>
+        <v>0.435477</v>
       </c>
       <c r="E86" t="n">
-        <v>0.105097</v>
+        <v>0.105451</v>
       </c>
       <c r="F86" t="n">
-        <v>0.11369</v>
+        <v>0.113741</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.139157</v>
+        <v>0.139343</v>
       </c>
       <c r="C87" t="n">
-        <v>0.150389</v>
+        <v>0.150169</v>
       </c>
       <c r="D87" t="n">
-        <v>0.459233</v>
+        <v>0.459146</v>
       </c>
       <c r="E87" t="n">
-        <v>0.106577</v>
+        <v>0.106771</v>
       </c>
       <c r="F87" t="n">
-        <v>0.115505</v>
+        <v>0.115905</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.146719</v>
+        <v>0.148711</v>
       </c>
       <c r="C88" t="n">
-        <v>0.159902</v>
+        <v>0.159886</v>
       </c>
       <c r="D88" t="n">
-        <v>0.483754</v>
+        <v>0.482495</v>
       </c>
       <c r="E88" t="n">
-        <v>0.107852</v>
+        <v>0.107875</v>
       </c>
       <c r="F88" t="n">
-        <v>0.118254</v>
+        <v>0.118095</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.159687</v>
+        <v>0.156831</v>
       </c>
       <c r="C89" t="n">
-        <v>0.176009</v>
+        <v>0.172935</v>
       </c>
       <c r="D89" t="n">
-        <v>0.50885</v>
+        <v>0.507478</v>
       </c>
       <c r="E89" t="n">
-        <v>0.109854</v>
+        <v>0.110006</v>
       </c>
       <c r="F89" t="n">
-        <v>0.122841</v>
+        <v>0.122309</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.17014</v>
+        <v>0.170054</v>
       </c>
       <c r="C90" t="n">
-        <v>0.191796</v>
+        <v>0.194528</v>
       </c>
       <c r="D90" t="n">
-        <v>0.534887</v>
+        <v>0.533786</v>
       </c>
       <c r="E90" t="n">
-        <v>0.113589</v>
+        <v>0.113327</v>
       </c>
       <c r="F90" t="n">
-        <v>0.128643</v>
+        <v>0.128361</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.189479</v>
+        <v>0.193962</v>
       </c>
       <c r="C91" t="n">
-        <v>0.222835</v>
+        <v>0.215836</v>
       </c>
       <c r="D91" t="n">
-        <v>0.562858</v>
+        <v>0.561063</v>
       </c>
       <c r="E91" t="n">
-        <v>0.118533</v>
+        <v>0.118653</v>
       </c>
       <c r="F91" t="n">
-        <v>0.137019</v>
+        <v>0.13645</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.217333</v>
+        <v>0.216705</v>
       </c>
       <c r="C92" t="n">
-        <v>0.255442</v>
+        <v>0.254563</v>
       </c>
       <c r="D92" t="n">
-        <v>0.421638</v>
+        <v>0.420425</v>
       </c>
       <c r="E92" t="n">
-        <v>0.126281</v>
+        <v>0.127711</v>
       </c>
       <c r="F92" t="n">
-        <v>0.149711</v>
+        <v>0.148781</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.267988</v>
+        <v>0.259662</v>
       </c>
       <c r="C93" t="n">
-        <v>0.310812</v>
+        <v>0.309994</v>
       </c>
       <c r="D93" t="n">
-        <v>0.440661</v>
+        <v>0.439388</v>
       </c>
       <c r="E93" t="n">
-        <v>0.139936</v>
+        <v>0.141353</v>
       </c>
       <c r="F93" t="n">
-        <v>0.168376</v>
+        <v>0.167991</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.327899</v>
+        <v>0.327616</v>
       </c>
       <c r="C94" t="n">
-        <v>0.390124</v>
+        <v>0.391646</v>
       </c>
       <c r="D94" t="n">
-        <v>0.45994</v>
+        <v>0.457601</v>
       </c>
       <c r="E94" t="n">
-        <v>0.107598</v>
+        <v>0.108028</v>
       </c>
       <c r="F94" t="n">
-        <v>0.12093</v>
+        <v>0.119509</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.128748</v>
+        <v>0.12817</v>
       </c>
       <c r="C95" t="n">
-        <v>0.145247</v>
+        <v>0.143998</v>
       </c>
       <c r="D95" t="n">
-        <v>0.479408</v>
+        <v>0.476935</v>
       </c>
       <c r="E95" t="n">
-        <v>0.108706</v>
+        <v>0.108421</v>
       </c>
       <c r="F95" t="n">
-        <v>0.123663</v>
+        <v>0.124032</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.132248</v>
+        <v>0.130639</v>
       </c>
       <c r="C96" t="n">
-        <v>0.150416</v>
+        <v>0.149356</v>
       </c>
       <c r="D96" t="n">
-        <v>0.500299</v>
+        <v>0.49861</v>
       </c>
       <c r="E96" t="n">
-        <v>0.110261</v>
+        <v>0.110561</v>
       </c>
       <c r="F96" t="n">
-        <v>0.127629</v>
+        <v>0.128239</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.133859</v>
+        <v>0.133677</v>
       </c>
       <c r="C97" t="n">
-        <v>0.156454</v>
+        <v>0.156809</v>
       </c>
       <c r="D97" t="n">
-        <v>0.520953</v>
+        <v>0.518663</v>
       </c>
       <c r="E97" t="n">
-        <v>0.112214</v>
+        <v>0.111634</v>
       </c>
       <c r="F97" t="n">
-        <v>0.132499</v>
+        <v>0.132888</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.137871</v>
+        <v>0.137565</v>
       </c>
       <c r="C98" t="n">
-        <v>0.164733</v>
+        <v>0.164447</v>
       </c>
       <c r="D98" t="n">
-        <v>0.543405</v>
+        <v>0.540535</v>
       </c>
       <c r="E98" t="n">
-        <v>0.114332</v>
+        <v>0.114122</v>
       </c>
       <c r="F98" t="n">
-        <v>0.138376</v>
+        <v>0.137976</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.143235</v>
+        <v>0.143624</v>
       </c>
       <c r="C99" t="n">
-        <v>0.17423</v>
+        <v>0.17364</v>
       </c>
       <c r="D99" t="n">
-        <v>0.563623</v>
+        <v>0.563089</v>
       </c>
       <c r="E99" t="n">
-        <v>0.116929</v>
+        <v>0.116861</v>
       </c>
       <c r="F99" t="n">
-        <v>0.144152</v>
+        <v>0.144171</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.151135</v>
+        <v>0.149715</v>
       </c>
       <c r="C100" t="n">
-        <v>0.186735</v>
+        <v>0.185544</v>
       </c>
       <c r="D100" t="n">
-        <v>0.588762</v>
+        <v>0.58619</v>
       </c>
       <c r="E100" t="n">
-        <v>0.119087</v>
+        <v>0.119339</v>
       </c>
       <c r="F100" t="n">
-        <v>0.151338</v>
+        <v>0.149621</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.158376</v>
+        <v>0.158102</v>
       </c>
       <c r="C101" t="n">
-        <v>0.198115</v>
+        <v>0.197478</v>
       </c>
       <c r="D101" t="n">
-        <v>0.6129829999999999</v>
+        <v>0.611273</v>
       </c>
       <c r="E101" t="n">
-        <v>0.123276</v>
+        <v>0.12376</v>
       </c>
       <c r="F101" t="n">
-        <v>0.157328</v>
+        <v>0.157422</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.169796</v>
+        <v>0.169205</v>
       </c>
       <c r="C102" t="n">
-        <v>0.21508</v>
+        <v>0.212017</v>
       </c>
       <c r="D102" t="n">
-        <v>0.637775</v>
+        <v>0.637056</v>
       </c>
       <c r="E102" t="n">
-        <v>0.127684</v>
+        <v>0.127412</v>
       </c>
       <c r="F102" t="n">
-        <v>0.164686</v>
+        <v>0.164287</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.183446</v>
+        <v>0.183076</v>
       </c>
       <c r="C103" t="n">
-        <v>0.230885</v>
+        <v>0.230028</v>
       </c>
       <c r="D103" t="n">
-        <v>0.664764</v>
+        <v>0.662996</v>
       </c>
       <c r="E103" t="n">
-        <v>0.132895</v>
+        <v>0.132507</v>
       </c>
       <c r="F103" t="n">
-        <v>0.172531</v>
+        <v>0.172894</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.200971</v>
+        <v>0.200586</v>
       </c>
       <c r="C104" t="n">
-        <v>0.25311</v>
+        <v>0.251423</v>
       </c>
       <c r="D104" t="n">
-        <v>0.691976</v>
+        <v>0.69152</v>
       </c>
       <c r="E104" t="n">
-        <v>0.138966</v>
+        <v>0.139401</v>
       </c>
       <c r="F104" t="n">
-        <v>0.181154</v>
+        <v>0.180731</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.223651</v>
+        <v>0.222815</v>
       </c>
       <c r="C105" t="n">
-        <v>0.279828</v>
+        <v>0.279212</v>
       </c>
       <c r="D105" t="n">
-        <v>0.723005</v>
+        <v>0.722985</v>
       </c>
       <c r="E105" t="n">
-        <v>0.147415</v>
+        <v>0.14739</v>
       </c>
       <c r="F105" t="n">
-        <v>0.191528</v>
+        <v>0.191265</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.254785</v>
+        <v>0.262675</v>
       </c>
       <c r="C106" t="n">
-        <v>0.319132</v>
+        <v>0.316861</v>
       </c>
       <c r="D106" t="n">
-        <v>0.756235</v>
+        <v>0.754583</v>
       </c>
       <c r="E106" t="n">
-        <v>0.159742</v>
+        <v>0.158332</v>
       </c>
       <c r="F106" t="n">
-        <v>0.205591</v>
+        <v>0.205155</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.307128</v>
+        <v>0.298061</v>
       </c>
       <c r="C107" t="n">
-        <v>0.370042</v>
+        <v>0.369436</v>
       </c>
       <c r="D107" t="n">
-        <v>0.594198</v>
+        <v>0.592529</v>
       </c>
       <c r="E107" t="n">
-        <v>0.174103</v>
+        <v>0.174995</v>
       </c>
       <c r="F107" t="n">
-        <v>0.224243</v>
+        <v>0.223805</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.363043</v>
+        <v>0.369819</v>
       </c>
       <c r="C108" t="n">
-        <v>0.447157</v>
+        <v>0.446566</v>
       </c>
       <c r="D108" t="n">
-        <v>0.617595</v>
+        <v>0.615626</v>
       </c>
       <c r="E108" t="n">
-        <v>0.129082</v>
+        <v>0.128594</v>
       </c>
       <c r="F108" t="n">
-        <v>0.15949</v>
+        <v>0.159373</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.450133</v>
+        <v>0.461797</v>
       </c>
       <c r="C109" t="n">
-        <v>0.5615830000000001</v>
+        <v>0.559431</v>
       </c>
       <c r="D109" t="n">
-        <v>0.6395189999999999</v>
+        <v>0.638358</v>
       </c>
       <c r="E109" t="n">
-        <v>0.131253</v>
+        <v>0.131535</v>
       </c>
       <c r="F109" t="n">
-        <v>0.1633</v>
+        <v>0.163004</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.154819</v>
+        <v>0.154565</v>
       </c>
       <c r="C110" t="n">
-        <v>0.189519</v>
+        <v>0.188477</v>
       </c>
       <c r="D110" t="n">
-        <v>0.6614719999999999</v>
+        <v>0.660977</v>
       </c>
       <c r="E110" t="n">
-        <v>0.134048</v>
+        <v>0.133572</v>
       </c>
       <c r="F110" t="n">
-        <v>0.166992</v>
+        <v>0.166707</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.158538</v>
+        <v>0.158512</v>
       </c>
       <c r="C111" t="n">
-        <v>0.194433</v>
+        <v>0.195596</v>
       </c>
       <c r="D111" t="n">
-        <v>0.687651</v>
+        <v>0.686494</v>
       </c>
       <c r="E111" t="n">
-        <v>0.136207</v>
+        <v>0.135929</v>
       </c>
       <c r="F111" t="n">
-        <v>0.171045</v>
+        <v>0.170667</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.163082</v>
+        <v>0.163006</v>
       </c>
       <c r="C112" t="n">
-        <v>0.202273</v>
+        <v>0.200284</v>
       </c>
       <c r="D112" t="n">
-        <v>0.7133699999999999</v>
+        <v>0.711626</v>
       </c>
       <c r="E112" t="n">
-        <v>0.138507</v>
+        <v>0.138581</v>
       </c>
       <c r="F112" t="n">
-        <v>0.174688</v>
+        <v>0.17446</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.168392</v>
+        <v>0.168512</v>
       </c>
       <c r="C113" t="n">
-        <v>0.207988</v>
+        <v>0.207725</v>
       </c>
       <c r="D113" t="n">
-        <v>0.740206</v>
+        <v>0.737104</v>
       </c>
       <c r="E113" t="n">
-        <v>0.141474</v>
+        <v>0.141059</v>
       </c>
       <c r="F113" t="n">
-        <v>0.17878</v>
+        <v>0.178504</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.174763</v>
+        <v>0.17435</v>
       </c>
       <c r="C114" t="n">
-        <v>0.218572</v>
+        <v>0.216309</v>
       </c>
       <c r="D114" t="n">
-        <v>0.766764</v>
+        <v>0.765215</v>
       </c>
       <c r="E114" t="n">
-        <v>0.143652</v>
+        <v>0.143622</v>
       </c>
       <c r="F114" t="n">
-        <v>0.183178</v>
+        <v>0.183092</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.182388</v>
+        <v>0.182212</v>
       </c>
       <c r="C115" t="n">
-        <v>0.227639</v>
+        <v>0.226723</v>
       </c>
       <c r="D115" t="n">
-        <v>0.793699</v>
+        <v>0.791899</v>
       </c>
       <c r="E115" t="n">
-        <v>0.14665</v>
+        <v>0.146768</v>
       </c>
       <c r="F115" t="n">
-        <v>0.188056</v>
+        <v>0.187843</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.191822</v>
+        <v>0.19171</v>
       </c>
       <c r="C116" t="n">
-        <v>0.239832</v>
+        <v>0.240876</v>
       </c>
       <c r="D116" t="n">
-        <v>0.821994</v>
+        <v>0.819426</v>
       </c>
       <c r="E116" t="n">
-        <v>0.149934</v>
+        <v>0.149843</v>
       </c>
       <c r="F116" t="n">
-        <v>0.193323</v>
+        <v>0.193189</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.203914</v>
+        <v>0.208291</v>
       </c>
       <c r="C117" t="n">
-        <v>0.256025</v>
+        <v>0.255444</v>
       </c>
       <c r="D117" t="n">
-        <v>0.851566</v>
+        <v>0.848027</v>
       </c>
       <c r="E117" t="n">
-        <v>0.153847</v>
+        <v>0.154006</v>
       </c>
       <c r="F117" t="n">
-        <v>0.199911</v>
+        <v>0.199337</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.219369</v>
+        <v>0.219272</v>
       </c>
       <c r="C118" t="n">
-        <v>0.276529</v>
+        <v>0.276126</v>
       </c>
       <c r="D118" t="n">
-        <v>0.880243</v>
+        <v>0.877562</v>
       </c>
       <c r="E118" t="n">
-        <v>0.158857</v>
+        <v>0.15875</v>
       </c>
       <c r="F118" t="n">
-        <v>0.207368</v>
+        <v>0.206981</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.240254</v>
+        <v>0.240152</v>
       </c>
       <c r="C119" t="n">
-        <v>0.304006</v>
+        <v>0.303358</v>
       </c>
       <c r="D119" t="n">
-        <v>0.911983</v>
+        <v>0.908919</v>
       </c>
       <c r="E119" t="n">
-        <v>0.165266</v>
+        <v>0.165318</v>
       </c>
       <c r="F119" t="n">
-        <v>0.216558</v>
+        <v>0.216261</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.26935</v>
+        <v>0.269043</v>
       </c>
       <c r="C120" t="n">
-        <v>0.341183</v>
+        <v>0.340823</v>
       </c>
       <c r="D120" t="n">
-        <v>0.944621</v>
+        <v>0.941647</v>
       </c>
       <c r="E120" t="n">
-        <v>0.174598</v>
+        <v>0.174412</v>
       </c>
       <c r="F120" t="n">
-        <v>0.229763</v>
+        <v>0.229385</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.315599</v>
+        <v>0.310134</v>
       </c>
       <c r="C121" t="n">
-        <v>0.396869</v>
+        <v>0.394492</v>
       </c>
       <c r="D121" t="n">
-        <v>0.683569</v>
+        <v>0.681185</v>
       </c>
       <c r="E121" t="n">
-        <v>0.188549</v>
+        <v>0.188456</v>
       </c>
       <c r="F121" t="n">
-        <v>0.248646</v>
+        <v>0.248406</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.372458</v>
+        <v>0.37618</v>
       </c>
       <c r="C122" t="n">
-        <v>0.483687</v>
+        <v>0.475225</v>
       </c>
       <c r="D122" t="n">
-        <v>0.705874</v>
+        <v>0.703302</v>
       </c>
       <c r="E122" t="n">
-        <v>0.211729</v>
+        <v>0.211902</v>
       </c>
       <c r="F122" t="n">
-        <v>0.279252</v>
+        <v>0.278804</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.473987</v>
+        <v>0.46613</v>
       </c>
       <c r="C123" t="n">
-        <v>0.598539</v>
+        <v>0.597567</v>
       </c>
       <c r="D123" t="n">
-        <v>0.728479</v>
+        <v>0.726194</v>
       </c>
       <c r="E123" t="n">
-        <v>0.146641</v>
+        <v>0.147876</v>
       </c>
       <c r="F123" t="n">
-        <v>0.185066</v>
+        <v>0.182574</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.16926</v>
+        <v>0.171153</v>
       </c>
       <c r="C124" t="n">
-        <v>0.21224</v>
+        <v>0.210587</v>
       </c>
       <c r="D124" t="n">
-        <v>0.752739</v>
+        <v>0.751217</v>
       </c>
       <c r="E124" t="n">
-        <v>0.153135</v>
+        <v>0.14947</v>
       </c>
       <c r="F124" t="n">
-        <v>0.190246</v>
+        <v>0.188164</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.173153</v>
+        <v>0.172585</v>
       </c>
       <c r="C125" t="n">
-        <v>0.215612</v>
+        <v>0.213283</v>
       </c>
       <c r="D125" t="n">
-        <v>0.77793</v>
+        <v>0.776126</v>
       </c>
       <c r="E125" t="n">
-        <v>0.149804</v>
+        <v>0.150241</v>
       </c>
       <c r="F125" t="n">
-        <v>0.190012</v>
+        <v>0.193769</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.180774</v>
+        <v>0.177311</v>
       </c>
       <c r="C126" t="n">
-        <v>0.221727</v>
+        <v>0.222682</v>
       </c>
       <c r="D126" t="n">
-        <v>0.804163</v>
+        <v>0.801966</v>
       </c>
       <c r="E126" t="n">
-        <v>0.152283</v>
+        <v>0.151589</v>
       </c>
       <c r="F126" t="n">
-        <v>0.197202</v>
+        <v>0.194787</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.183416</v>
+        <v>0.184625</v>
       </c>
       <c r="C127" t="n">
-        <v>0.230848</v>
+        <v>0.228873</v>
       </c>
       <c r="D127" t="n">
-        <v>0.830915</v>
+        <v>0.828736</v>
       </c>
       <c r="E127" t="n">
-        <v>0.155153</v>
+        <v>0.160288</v>
       </c>
       <c r="F127" t="n">
-        <v>0.202525</v>
+        <v>0.199683</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.188385</v>
+        <v>0.190694</v>
       </c>
       <c r="C128" t="n">
-        <v>0.239511</v>
+        <v>0.236963</v>
       </c>
       <c r="D128" t="n">
-        <v>0.858599</v>
+        <v>0.8567090000000001</v>
       </c>
       <c r="E128" t="n">
-        <v>0.161339</v>
+        <v>0.15925</v>
       </c>
       <c r="F128" t="n">
-        <v>0.208455</v>
+        <v>0.206027</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.198117</v>
+        <v>0.198564</v>
       </c>
       <c r="C129" t="n">
-        <v>0.249568</v>
+        <v>0.251109</v>
       </c>
       <c r="D129" t="n">
-        <v>0.88734</v>
+        <v>0.885795</v>
       </c>
       <c r="E129" t="n">
-        <v>0.16378</v>
+        <v>0.159846</v>
       </c>
       <c r="F129" t="n">
-        <v>0.21171</v>
+        <v>0.211475</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.208587</v>
+        <v>0.206731</v>
       </c>
       <c r="C130" t="n">
-        <v>0.262955</v>
+        <v>0.264422</v>
       </c>
       <c r="D130" t="n">
-        <v>0.917223</v>
+        <v>0.914308</v>
       </c>
       <c r="E130" t="n">
-        <v>0.163407</v>
+        <v>0.165442</v>
       </c>
       <c r="F130" t="n">
-        <v>0.216746</v>
+        <v>0.218137</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.219144</v>
+        <v>0.218388</v>
       </c>
       <c r="C131" t="n">
-        <v>0.28583</v>
+        <v>0.281828</v>
       </c>
       <c r="D131" t="n">
-        <v>0.94731</v>
+        <v>0.945032</v>
       </c>
       <c r="E131" t="n">
-        <v>0.169731</v>
+        <v>0.172071</v>
       </c>
       <c r="F131" t="n">
-        <v>0.224644</v>
+        <v>0.226177</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.233654</v>
+        <v>0.234195</v>
       </c>
       <c r="C132" t="n">
-        <v>0.303017</v>
+        <v>0.30332</v>
       </c>
       <c r="D132" t="n">
-        <v>0.979282</v>
+        <v>0.975635</v>
       </c>
       <c r="E132" t="n">
-        <v>0.173823</v>
+        <v>0.173866</v>
       </c>
       <c r="F132" t="n">
-        <v>0.236584</v>
+        <v>0.233574</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.257627</v>
+        <v>0.257798</v>
       </c>
       <c r="C133" t="n">
-        <v>0.331551</v>
+        <v>0.329667</v>
       </c>
       <c r="D133" t="n">
-        <v>1.0116</v>
+        <v>1.00791</v>
       </c>
       <c r="E133" t="n">
-        <v>0.179297</v>
+        <v>0.176731</v>
       </c>
       <c r="F133" t="n">
-        <v>0.240728</v>
+        <v>0.239808</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.286939</v>
+        <v>0.28293</v>
       </c>
       <c r="C134" t="n">
-        <v>0.368619</v>
+        <v>0.375306</v>
       </c>
       <c r="D134" t="n">
-        <v>1.04454</v>
+        <v>1.04049</v>
       </c>
       <c r="E134" t="n">
-        <v>0.189065</v>
+        <v>0.190531</v>
       </c>
       <c r="F134" t="n">
-        <v>0.257097</v>
+        <v>0.258931</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.324738</v>
+        <v>0.324601</v>
       </c>
       <c r="C135" t="n">
-        <v>0.424301</v>
+        <v>0.424125</v>
       </c>
       <c r="D135" t="n">
-        <v>0.7009030000000001</v>
+        <v>0.698025</v>
       </c>
       <c r="E135" t="n">
-        <v>0.201778</v>
+        <v>0.199729</v>
       </c>
       <c r="F135" t="n">
-        <v>0.275524</v>
+        <v>0.273738</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.381444</v>
+        <v>0.384778</v>
       </c>
       <c r="C136" t="n">
-        <v>0.507969</v>
+        <v>0.503515</v>
       </c>
       <c r="D136" t="n">
-        <v>0.719042</v>
+        <v>0.716129</v>
       </c>
       <c r="E136" t="n">
-        <v>0.222649</v>
+        <v>0.223349</v>
       </c>
       <c r="F136" t="n">
-        <v>0.305598</v>
+        <v>0.302801</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.482353</v>
+        <v>0.482617</v>
       </c>
       <c r="C137" t="n">
-        <v>0.629258</v>
+        <v>0.633019</v>
       </c>
       <c r="D137" t="n">
-        <v>0.737899</v>
+        <v>0.734921</v>
       </c>
       <c r="E137" t="n">
-        <v>0.27607</v>
+        <v>0.278631</v>
       </c>
       <c r="F137" t="n">
-        <v>0.322645</v>
+        <v>0.32475</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.314108</v>
+        <v>0.311841</v>
       </c>
       <c r="C138" t="n">
-        <v>0.357654</v>
+        <v>0.357124</v>
       </c>
       <c r="D138" t="n">
-        <v>0.758773</v>
+        <v>0.75579</v>
       </c>
       <c r="E138" t="n">
-        <v>0.277954</v>
+        <v>0.27592</v>
       </c>
       <c r="F138" t="n">
-        <v>0.327675</v>
+        <v>0.32574</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.321323</v>
+        <v>0.316507</v>
       </c>
       <c r="C139" t="n">
-        <v>0.363635</v>
+        <v>0.36474</v>
       </c>
       <c r="D139" t="n">
-        <v>0.779991</v>
+        <v>0.776521</v>
       </c>
       <c r="E139" t="n">
-        <v>0.281569</v>
+        <v>0.280819</v>
       </c>
       <c r="F139" t="n">
-        <v>0.332512</v>
+        <v>0.33179</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.326333</v>
+        <v>0.324196</v>
       </c>
       <c r="C140" t="n">
-        <v>0.373185</v>
+        <v>0.367199</v>
       </c>
       <c r="D140" t="n">
-        <v>0.801628</v>
+        <v>0.797982</v>
       </c>
       <c r="E140" t="n">
-        <v>0.284559</v>
+        <v>0.280805</v>
       </c>
       <c r="F140" t="n">
-        <v>0.338253</v>
+        <v>0.335188</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.327591</v>
+        <v>0.323866</v>
       </c>
       <c r="C141" t="n">
-        <v>0.379817</v>
+        <v>0.378302</v>
       </c>
       <c r="D141" t="n">
-        <v>0.824173</v>
+        <v>0.820562</v>
       </c>
       <c r="E141" t="n">
-        <v>0.286187</v>
+        <v>0.291311</v>
       </c>
       <c r="F141" t="n">
-        <v>0.343384</v>
+        <v>0.3417</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.338226</v>
+        <v>0.337781</v>
       </c>
       <c r="C142" t="n">
-        <v>0.391751</v>
+        <v>0.388141</v>
       </c>
       <c r="D142" t="n">
-        <v>0.848237</v>
+        <v>0.844238</v>
       </c>
       <c r="E142" t="n">
-        <v>0.291221</v>
+        <v>0.289494</v>
       </c>
       <c r="F142" t="n">
-        <v>0.350334</v>
+        <v>0.348649</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.34254</v>
+        <v>0.339886</v>
       </c>
       <c r="C143" t="n">
-        <v>0.401533</v>
+        <v>0.402039</v>
       </c>
       <c r="D143" t="n">
-        <v>0.873367</v>
+        <v>0.869393</v>
       </c>
       <c r="E143" t="n">
-        <v>0.289508</v>
+        <v>0.290031</v>
       </c>
       <c r="F143" t="n">
-        <v>0.357176</v>
+        <v>0.354123</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Scattered unsuccessful looukp.xlsx
+++ b/clang-x86/Scattered unsuccessful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0951053</v>
+        <v>0.09522360000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0977218</v>
+        <v>0.0978207</v>
       </c>
       <c r="D2" t="n">
-        <v>0.185865</v>
+        <v>0.186035</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0836353</v>
+        <v>0.0837237</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0843724</v>
+        <v>0.0846307</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.102452</v>
+        <v>0.102541</v>
       </c>
       <c r="C3" t="n">
-        <v>0.104722</v>
+        <v>0.105101</v>
       </c>
       <c r="D3" t="n">
-        <v>0.19291</v>
+        <v>0.194836</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0844673</v>
+        <v>0.0845014</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0850567</v>
+        <v>0.0852641</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.112026</v>
+        <v>0.11187</v>
       </c>
       <c r="C4" t="n">
-        <v>0.113083</v>
+        <v>0.113565</v>
       </c>
       <c r="D4" t="n">
-        <v>0.200364</v>
+        <v>0.202433</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0856763</v>
+        <v>0.0857072</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0862752</v>
+        <v>0.0863831</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.131962</v>
+        <v>0.132085</v>
       </c>
       <c r="C5" t="n">
-        <v>0.131496</v>
+        <v>0.132076</v>
       </c>
       <c r="D5" t="n">
-        <v>0.207954</v>
+        <v>0.210307</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0872378</v>
+        <v>0.0872424</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0876489</v>
+        <v>0.0881542</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.1596</v>
+        <v>0.159422</v>
       </c>
       <c r="C6" t="n">
-        <v>0.164083</v>
+        <v>0.163812</v>
       </c>
       <c r="D6" t="n">
-        <v>0.214164</v>
+        <v>0.215381</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0888671</v>
+        <v>0.08908580000000001</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0895359</v>
+        <v>0.0897222</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.189476</v>
+        <v>0.189473</v>
       </c>
       <c r="C7" t="n">
-        <v>0.191653</v>
+        <v>0.19136</v>
       </c>
       <c r="D7" t="n">
-        <v>0.161738</v>
+        <v>0.162318</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0953779</v>
+        <v>0.09537229999999999</v>
       </c>
       <c r="F7" t="n">
-        <v>0.094679</v>
+        <v>0.09476329999999999</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.234511</v>
+        <v>0.229311</v>
       </c>
       <c r="C8" t="n">
-        <v>0.224739</v>
+        <v>0.225196</v>
       </c>
       <c r="D8" t="n">
-        <v>0.170085</v>
+        <v>0.169613</v>
       </c>
       <c r="E8" t="n">
-        <v>0.107151</v>
+        <v>0.107103</v>
       </c>
       <c r="F8" t="n">
-        <v>0.106702</v>
+        <v>0.1073</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.279912</v>
+        <v>0.280366</v>
       </c>
       <c r="C9" t="n">
-        <v>0.267577</v>
+        <v>0.268298</v>
       </c>
       <c r="D9" t="n">
-        <v>0.176718</v>
+        <v>0.176542</v>
       </c>
       <c r="E9" t="n">
-        <v>0.08184080000000001</v>
+        <v>0.0819814</v>
       </c>
       <c r="F9" t="n">
-        <v>0.082512</v>
+        <v>0.0829138</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0857588</v>
+        <v>0.0858534</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0863396</v>
+        <v>0.08656469999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>0.183281</v>
+        <v>0.183287</v>
       </c>
       <c r="E10" t="n">
-        <v>0.082181</v>
+        <v>0.08217629999999999</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0828749</v>
+        <v>0.0831181</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0865377</v>
+        <v>0.0866043</v>
       </c>
       <c r="C11" t="n">
-        <v>0.08743479999999999</v>
+        <v>0.0884018</v>
       </c>
       <c r="D11" t="n">
-        <v>0.190462</v>
+        <v>0.190581</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0825895</v>
+        <v>0.0826151</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0832981</v>
+        <v>0.0835679</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0883142</v>
+        <v>0.0881622</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0891086</v>
+        <v>0.0893878</v>
       </c>
       <c r="D12" t="n">
-        <v>0.198391</v>
+        <v>0.197816</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0827748</v>
+        <v>0.0828412</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0836136</v>
+        <v>0.0842035</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0895072</v>
+        <v>0.0895503</v>
       </c>
       <c r="C13" t="n">
-        <v>0.09084490000000001</v>
+        <v>0.0916868</v>
       </c>
       <c r="D13" t="n">
-        <v>0.205451</v>
+        <v>0.204339</v>
       </c>
       <c r="E13" t="n">
-        <v>0.08317380000000001</v>
+        <v>0.0830328</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0841789</v>
+        <v>0.0842445</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.093997</v>
+        <v>0.0917882</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0936495</v>
+        <v>0.09399059999999999</v>
       </c>
       <c r="D14" t="n">
-        <v>0.211651</v>
+        <v>0.211043</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0832595</v>
+        <v>0.08328049999999999</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0841988</v>
+        <v>0.0846044</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.094703</v>
+        <v>0.0948555</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0980089</v>
+        <v>0.0987309</v>
       </c>
       <c r="D15" t="n">
-        <v>0.220852</v>
+        <v>0.220392</v>
       </c>
       <c r="E15" t="n">
-        <v>0.08395660000000001</v>
+        <v>0.0839159</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0846596</v>
+        <v>0.08520460000000001</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.103725</v>
+        <v>0.100095</v>
       </c>
       <c r="C16" t="n">
-        <v>0.10356</v>
+        <v>0.101924</v>
       </c>
       <c r="D16" t="n">
-        <v>0.227115</v>
+        <v>0.22687</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0843192</v>
+        <v>0.0843449</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0853916</v>
+        <v>0.0857081</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.109869</v>
+        <v>0.113363</v>
       </c>
       <c r="C17" t="n">
-        <v>0.113202</v>
+        <v>0.113477</v>
       </c>
       <c r="D17" t="n">
-        <v>0.233817</v>
+        <v>0.234308</v>
       </c>
       <c r="E17" t="n">
-        <v>0.08554390000000001</v>
+        <v>0.08539140000000001</v>
       </c>
       <c r="F17" t="n">
-        <v>0.08639570000000001</v>
+        <v>0.0870015</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.123383</v>
+        <v>0.120161</v>
       </c>
       <c r="C18" t="n">
-        <v>0.123016</v>
+        <v>0.124495</v>
       </c>
       <c r="D18" t="n">
-        <v>0.239327</v>
+        <v>0.238731</v>
       </c>
       <c r="E18" t="n">
-        <v>0.086725</v>
+        <v>0.08666459999999999</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0886282</v>
+        <v>0.08809889999999999</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.142262</v>
+        <v>0.135401</v>
       </c>
       <c r="C19" t="n">
-        <v>0.137453</v>
+        <v>0.14104</v>
       </c>
       <c r="D19" t="n">
-        <v>0.246093</v>
+        <v>0.245919</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0886488</v>
+        <v>0.0885247</v>
       </c>
       <c r="F19" t="n">
-        <v>0.08970359999999999</v>
+        <v>0.0901053</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.154841</v>
+        <v>0.154357</v>
       </c>
       <c r="C20" t="n">
-        <v>0.156967</v>
+        <v>0.157073</v>
       </c>
       <c r="D20" t="n">
-        <v>0.252167</v>
+        <v>0.251942</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0916477</v>
+        <v>0.0915738</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0927697</v>
+        <v>0.0931987</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.18381</v>
+        <v>0.188557</v>
       </c>
       <c r="C21" t="n">
-        <v>0.183146</v>
+        <v>0.189999</v>
       </c>
       <c r="D21" t="n">
-        <v>0.183547</v>
+        <v>0.182196</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0975984</v>
+        <v>0.09757349999999999</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0989828</v>
+        <v>0.0994599</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.21666</v>
+        <v>0.229848</v>
       </c>
       <c r="C22" t="n">
-        <v>0.219752</v>
+        <v>0.220026</v>
       </c>
       <c r="D22" t="n">
-        <v>0.191381</v>
+        <v>0.190407</v>
       </c>
       <c r="E22" t="n">
-        <v>0.112162</v>
+        <v>0.109769</v>
       </c>
       <c r="F22" t="n">
-        <v>0.113075</v>
+        <v>0.111407</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.27108</v>
+        <v>0.268851</v>
       </c>
       <c r="C23" t="n">
-        <v>0.260421</v>
+        <v>0.25941</v>
       </c>
       <c r="D23" t="n">
-        <v>0.200091</v>
+        <v>0.198597</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0830003</v>
+        <v>0.0829884</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0842844</v>
+        <v>0.08455500000000001</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.09155099999999999</v>
+        <v>0.09080199999999999</v>
       </c>
       <c r="C24" t="n">
-        <v>0.093116</v>
+        <v>0.0927245</v>
       </c>
       <c r="D24" t="n">
-        <v>0.207591</v>
+        <v>0.205896</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0832358</v>
+        <v>0.0836703</v>
       </c>
       <c r="F24" t="n">
-        <v>0.08463759999999999</v>
+        <v>0.0861162</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0912845</v>
+        <v>0.09144389999999999</v>
       </c>
       <c r="C25" t="n">
-        <v>0.09341729999999999</v>
+        <v>0.094011</v>
       </c>
       <c r="D25" t="n">
-        <v>0.214838</v>
+        <v>0.21348</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0837524</v>
+        <v>0.0836045</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0849188</v>
+        <v>0.0865974</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.09324639999999999</v>
+        <v>0.09436559999999999</v>
       </c>
       <c r="C26" t="n">
-        <v>0.09612030000000001</v>
+        <v>0.0949039</v>
       </c>
       <c r="D26" t="n">
-        <v>0.222063</v>
+        <v>0.220997</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0842662</v>
+        <v>0.08383599999999999</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0858218</v>
+        <v>0.0871301</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0943103</v>
+        <v>0.09448520000000001</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0977992</v>
+        <v>0.0968111</v>
       </c>
       <c r="D27" t="n">
-        <v>0.22937</v>
+        <v>0.228443</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0846741</v>
+        <v>0.08474520000000001</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0861884</v>
+        <v>0.0861999</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0970229</v>
+        <v>0.0971698</v>
       </c>
       <c r="C28" t="n">
-        <v>0.100443</v>
+        <v>0.0997811</v>
       </c>
       <c r="D28" t="n">
-        <v>0.236146</v>
+        <v>0.235088</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0847629</v>
+        <v>0.08474669999999999</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0867351</v>
+        <v>0.08685039999999999</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.100471</v>
+        <v>0.101233</v>
       </c>
       <c r="C29" t="n">
-        <v>0.103687</v>
+        <v>0.10399</v>
       </c>
       <c r="D29" t="n">
-        <v>0.242331</v>
+        <v>0.241836</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0852417</v>
+        <v>0.08524080000000001</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0875408</v>
+        <v>0.0881199</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.106033</v>
+        <v>0.106088</v>
       </c>
       <c r="C30" t="n">
-        <v>0.111298</v>
+        <v>0.111435</v>
       </c>
       <c r="D30" t="n">
-        <v>0.248154</v>
+        <v>0.246759</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0859926</v>
+        <v>0.08599610000000001</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0889238</v>
+        <v>0.089363</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.11345</v>
+        <v>0.113577</v>
       </c>
       <c r="C31" t="n">
-        <v>0.117565</v>
+        <v>0.114564</v>
       </c>
       <c r="D31" t="n">
-        <v>0.252981</v>
+        <v>0.254665</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0876928</v>
+        <v>0.0871146</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09029810000000001</v>
+        <v>0.08992550000000001</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.121307</v>
+        <v>0.125063</v>
       </c>
       <c r="C32" t="n">
-        <v>0.12808</v>
+        <v>0.129015</v>
       </c>
       <c r="D32" t="n">
-        <v>0.259127</v>
+        <v>0.258332</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0886163</v>
+        <v>0.0887236</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0916262</v>
+        <v>0.0913432</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.135011</v>
+        <v>0.135028</v>
       </c>
       <c r="C33" t="n">
-        <v>0.137709</v>
+        <v>0.13709</v>
       </c>
       <c r="D33" t="n">
-        <v>0.264325</v>
+        <v>0.265547</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0910512</v>
+        <v>0.0913124</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0943425</v>
+        <v>0.0937418</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.15045</v>
+        <v>0.152794</v>
       </c>
       <c r="C34" t="n">
-        <v>0.159844</v>
+        <v>0.153568</v>
       </c>
       <c r="D34" t="n">
-        <v>0.271295</v>
+        <v>0.271017</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0949774</v>
+        <v>0.0950266</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0991635</v>
+        <v>0.09771100000000001</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.176274</v>
+        <v>0.1765</v>
       </c>
       <c r="C35" t="n">
-        <v>0.176539</v>
+        <v>0.181119</v>
       </c>
       <c r="D35" t="n">
-        <v>0.196599</v>
+        <v>0.196735</v>
       </c>
       <c r="E35" t="n">
-        <v>0.102183</v>
+        <v>0.102393</v>
       </c>
       <c r="F35" t="n">
-        <v>0.105801</v>
+        <v>0.105308</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.209017</v>
+        <v>0.208794</v>
       </c>
       <c r="C36" t="n">
-        <v>0.210142</v>
+        <v>0.219706</v>
       </c>
       <c r="D36" t="n">
-        <v>0.203958</v>
+        <v>0.204059</v>
       </c>
       <c r="E36" t="n">
-        <v>0.11562</v>
+        <v>0.113927</v>
       </c>
       <c r="F36" t="n">
-        <v>0.118501</v>
+        <v>0.116744</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.253686</v>
+        <v>0.253931</v>
       </c>
       <c r="C37" t="n">
-        <v>0.25423</v>
+        <v>0.264046</v>
       </c>
       <c r="D37" t="n">
-        <v>0.21188</v>
+        <v>0.211528</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0836109</v>
+        <v>0.0838552</v>
       </c>
       <c r="F37" t="n">
-        <v>0.086759</v>
+        <v>0.0864362</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.09282269999999999</v>
+        <v>0.0923143</v>
       </c>
       <c r="C38" t="n">
-        <v>0.09545770000000001</v>
+        <v>0.0958536</v>
       </c>
       <c r="D38" t="n">
-        <v>0.218716</v>
+        <v>0.218279</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0839771</v>
+        <v>0.08486150000000001</v>
       </c>
       <c r="F38" t="n">
-        <v>0.087168</v>
+        <v>0.0869796</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0947813</v>
+        <v>0.09364160000000001</v>
       </c>
       <c r="C39" t="n">
-        <v>0.09719800000000001</v>
+        <v>0.09746050000000001</v>
       </c>
       <c r="D39" t="n">
-        <v>0.226246</v>
+        <v>0.225855</v>
       </c>
       <c r="E39" t="n">
-        <v>0.08422979999999999</v>
+        <v>0.0843368</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0880348</v>
+        <v>0.0879789</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0953632</v>
+        <v>0.0949789</v>
       </c>
       <c r="C40" t="n">
-        <v>0.099648</v>
+        <v>0.09813669999999999</v>
       </c>
       <c r="D40" t="n">
-        <v>0.234324</v>
+        <v>0.233643</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0845752</v>
+        <v>0.08546570000000001</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0884235</v>
+        <v>0.08750040000000001</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.09773469999999999</v>
+        <v>0.0968784</v>
       </c>
       <c r="C41" t="n">
-        <v>0.101909</v>
+        <v>0.101579</v>
       </c>
       <c r="D41" t="n">
-        <v>0.240024</v>
+        <v>0.239832</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0851283</v>
+        <v>0.0863964</v>
       </c>
       <c r="F41" t="n">
-        <v>0.08876589999999999</v>
+        <v>0.0879834</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.100083</v>
+        <v>0.10158</v>
       </c>
       <c r="C42" t="n">
-        <v>0.104405</v>
+        <v>0.103672</v>
       </c>
       <c r="D42" t="n">
-        <v>0.246629</v>
+        <v>0.24674</v>
       </c>
       <c r="E42" t="n">
-        <v>0.08542719999999999</v>
+        <v>0.0854975</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0894838</v>
+        <v>0.0892281</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.104302</v>
+        <v>0.104162</v>
       </c>
       <c r="C43" t="n">
-        <v>0.108158</v>
+        <v>0.10738</v>
       </c>
       <c r="D43" t="n">
-        <v>0.253334</v>
+        <v>0.253142</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0859993</v>
+        <v>0.08604000000000001</v>
       </c>
       <c r="F43" t="n">
-        <v>0.08997819999999999</v>
+        <v>0.0893756</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.109087</v>
+        <v>0.109871</v>
       </c>
       <c r="C44" t="n">
-        <v>0.113256</v>
+        <v>0.112961</v>
       </c>
       <c r="D44" t="n">
-        <v>0.259441</v>
+        <v>0.259913</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0868304</v>
+        <v>0.0880112</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09184109999999999</v>
+        <v>0.0908713</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.115374</v>
+        <v>0.115314</v>
       </c>
       <c r="C45" t="n">
-        <v>0.119048</v>
+        <v>0.119144</v>
       </c>
       <c r="D45" t="n">
-        <v>0.265413</v>
+        <v>0.265575</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0877352</v>
+        <v>0.0877679</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0923959</v>
+        <v>0.09198190000000001</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.123493</v>
+        <v>0.123611</v>
       </c>
       <c r="C46" t="n">
-        <v>0.128457</v>
+        <v>0.128326</v>
       </c>
       <c r="D46" t="n">
-        <v>0.271899</v>
+        <v>0.271668</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0892563</v>
+        <v>0.08980299999999999</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0941309</v>
+        <v>0.09326959999999999</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.135333</v>
+        <v>0.135592</v>
       </c>
       <c r="C47" t="n">
-        <v>0.143519</v>
+        <v>0.142911</v>
       </c>
       <c r="D47" t="n">
-        <v>0.277237</v>
+        <v>0.277444</v>
       </c>
       <c r="E47" t="n">
-        <v>0.09177689999999999</v>
+        <v>0.0917375</v>
       </c>
       <c r="F47" t="n">
-        <v>0.09643699999999999</v>
+        <v>0.0968899</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.150452</v>
+        <v>0.152274</v>
       </c>
       <c r="C48" t="n">
-        <v>0.153759</v>
+        <v>0.157347</v>
       </c>
       <c r="D48" t="n">
-        <v>0.282934</v>
+        <v>0.282747</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0951975</v>
+        <v>0.0952774</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0997292</v>
+        <v>0.0994351</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.18187</v>
+        <v>0.173051</v>
       </c>
       <c r="C49" t="n">
-        <v>0.175968</v>
+        <v>0.175849</v>
       </c>
       <c r="D49" t="n">
-        <v>0.289772</v>
+        <v>0.288817</v>
       </c>
       <c r="E49" t="n">
-        <v>0.101854</v>
+        <v>0.102135</v>
       </c>
       <c r="F49" t="n">
-        <v>0.105439</v>
+        <v>0.106204</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.204741</v>
+        <v>0.204932</v>
       </c>
       <c r="C50" t="n">
-        <v>0.205089</v>
+        <v>0.205644</v>
       </c>
       <c r="D50" t="n">
-        <v>0.20321</v>
+        <v>0.203246</v>
       </c>
       <c r="E50" t="n">
-        <v>0.110918</v>
+        <v>0.110926</v>
       </c>
       <c r="F50" t="n">
-        <v>0.116666</v>
+        <v>0.116811</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.244346</v>
+        <v>0.248195</v>
       </c>
       <c r="C51" t="n">
-        <v>0.248131</v>
+        <v>0.261331</v>
       </c>
       <c r="D51" t="n">
-        <v>0.210544</v>
+        <v>0.210558</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0861973</v>
+        <v>0.08698110000000001</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0894355</v>
+        <v>0.0890987</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.302979</v>
+        <v>0.293281</v>
       </c>
       <c r="C52" t="n">
-        <v>0.294234</v>
+        <v>0.293159</v>
       </c>
       <c r="D52" t="n">
-        <v>0.217058</v>
+        <v>0.217299</v>
       </c>
       <c r="E52" t="n">
-        <v>0.08558399999999999</v>
+        <v>0.0870703</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0910088</v>
+        <v>0.09017169999999999</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.09711649999999999</v>
+        <v>0.0986621</v>
       </c>
       <c r="C53" t="n">
-        <v>0.102505</v>
+        <v>0.102047</v>
       </c>
       <c r="D53" t="n">
-        <v>0.22473</v>
+        <v>0.224571</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0861705</v>
+        <v>0.0868867</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0918358</v>
+        <v>0.091215</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.09834089999999999</v>
+        <v>0.0986383</v>
       </c>
       <c r="C54" t="n">
-        <v>0.10228</v>
+        <v>0.103205</v>
       </c>
       <c r="D54" t="n">
-        <v>0.231753</v>
+        <v>0.231734</v>
       </c>
       <c r="E54" t="n">
-        <v>0.087122</v>
+        <v>0.0872202</v>
       </c>
       <c r="F54" t="n">
-        <v>0.09206499999999999</v>
+        <v>0.09178550000000001</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.101462</v>
+        <v>0.100886</v>
       </c>
       <c r="C55" t="n">
-        <v>0.105361</v>
+        <v>0.106108</v>
       </c>
       <c r="D55" t="n">
-        <v>0.238494</v>
+        <v>0.238319</v>
       </c>
       <c r="E55" t="n">
-        <v>0.086523</v>
+        <v>0.0873423</v>
       </c>
       <c r="F55" t="n">
-        <v>0.091584</v>
+        <v>0.0937904</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.104907</v>
+        <v>0.103879</v>
       </c>
       <c r="C56" t="n">
-        <v>0.10846</v>
+        <v>0.109198</v>
       </c>
       <c r="D56" t="n">
-        <v>0.245168</v>
+        <v>0.24502</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0870636</v>
+        <v>0.0872358</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0922687</v>
+        <v>0.09212819999999999</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.107848</v>
+        <v>0.107713</v>
       </c>
       <c r="C57" t="n">
-        <v>0.113575</v>
+        <v>0.114515</v>
       </c>
       <c r="D57" t="n">
-        <v>0.250627</v>
+        <v>0.25079</v>
       </c>
       <c r="E57" t="n">
-        <v>0.08779430000000001</v>
+        <v>0.0898636</v>
       </c>
       <c r="F57" t="n">
-        <v>0.09321500000000001</v>
+        <v>0.09213300000000001</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.11402</v>
+        <v>0.110761</v>
       </c>
       <c r="C58" t="n">
-        <v>0.115953</v>
+        <v>0.116819</v>
       </c>
       <c r="D58" t="n">
-        <v>0.256483</v>
+        <v>0.25634</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0882887</v>
+        <v>0.08879869999999999</v>
       </c>
       <c r="F58" t="n">
-        <v>0.09396690000000001</v>
+        <v>0.0950829</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.116431</v>
+        <v>0.116212</v>
       </c>
       <c r="C59" t="n">
-        <v>0.124066</v>
+        <v>0.12491</v>
       </c>
       <c r="D59" t="n">
-        <v>0.261915</v>
+        <v>0.261875</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0903607</v>
+        <v>0.0897771</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0954541</v>
+        <v>0.09496</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.126668</v>
+        <v>0.126048</v>
       </c>
       <c r="C60" t="n">
-        <v>0.132435</v>
+        <v>0.131043</v>
       </c>
       <c r="D60" t="n">
-        <v>0.266859</v>
+        <v>0.267214</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0934388</v>
+        <v>0.0924504</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0967951</v>
+        <v>0.0987059</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.13451</v>
+        <v>0.140639</v>
       </c>
       <c r="C61" t="n">
-        <v>0.145081</v>
+        <v>0.142968</v>
       </c>
       <c r="D61" t="n">
-        <v>0.272427</v>
+        <v>0.273562</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0931935</v>
+        <v>0.09476759999999999</v>
       </c>
       <c r="F61" t="n">
-        <v>0.100355</v>
+        <v>0.0999341</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.149733</v>
+        <v>0.151013</v>
       </c>
       <c r="C62" t="n">
-        <v>0.155655</v>
+        <v>0.158754</v>
       </c>
       <c r="D62" t="n">
-        <v>0.279571</v>
+        <v>0.279382</v>
       </c>
       <c r="E62" t="n">
-        <v>0.09748229999999999</v>
+        <v>0.09674770000000001</v>
       </c>
       <c r="F62" t="n">
-        <v>0.103997</v>
+        <v>0.104081</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.176328</v>
+        <v>0.172888</v>
       </c>
       <c r="C63" t="n">
-        <v>0.174385</v>
+        <v>0.178583</v>
       </c>
       <c r="D63" t="n">
-        <v>0.284596</v>
+        <v>0.285055</v>
       </c>
       <c r="E63" t="n">
-        <v>0.101618</v>
+        <v>0.102375</v>
       </c>
       <c r="F63" t="n">
-        <v>0.108387</v>
+        <v>0.109215</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.20612</v>
+        <v>0.202676</v>
       </c>
       <c r="C64" t="n">
-        <v>0.204333</v>
+        <v>0.205082</v>
       </c>
       <c r="D64" t="n">
-        <v>0.209137</v>
+        <v>0.210487</v>
       </c>
       <c r="E64" t="n">
-        <v>0.110162</v>
+        <v>0.111126</v>
       </c>
       <c r="F64" t="n">
-        <v>0.116788</v>
+        <v>0.116186</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.237658</v>
+        <v>0.248215</v>
       </c>
       <c r="C65" t="n">
-        <v>0.243114</v>
+        <v>0.245139</v>
       </c>
       <c r="D65" t="n">
-        <v>0.216018</v>
+        <v>0.219468</v>
       </c>
       <c r="E65" t="n">
-        <v>0.125135</v>
+        <v>0.126076</v>
       </c>
       <c r="F65" t="n">
-        <v>0.133259</v>
+        <v>0.132998</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.293044</v>
+        <v>0.299489</v>
       </c>
       <c r="C66" t="n">
-        <v>0.301753</v>
+        <v>0.300396</v>
       </c>
       <c r="D66" t="n">
-        <v>0.223518</v>
+        <v>0.224122</v>
       </c>
       <c r="E66" t="n">
-        <v>0.09334000000000001</v>
+        <v>0.093974</v>
       </c>
       <c r="F66" t="n">
-        <v>0.0977975</v>
+        <v>0.0979088</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.107614</v>
+        <v>0.107518</v>
       </c>
       <c r="C67" t="n">
-        <v>0.112823</v>
+        <v>0.113726</v>
       </c>
       <c r="D67" t="n">
-        <v>0.235704</v>
+        <v>0.237609</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0939313</v>
+        <v>0.093627</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0985077</v>
+        <v>0.0982493</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.109645</v>
+        <v>0.109672</v>
       </c>
       <c r="C68" t="n">
-        <v>0.114393</v>
+        <v>0.114222</v>
       </c>
       <c r="D68" t="n">
-        <v>0.242127</v>
+        <v>0.245643</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0946534</v>
+        <v>0.0947175</v>
       </c>
       <c r="F68" t="n">
-        <v>0.0989674</v>
+        <v>0.0991329</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.110336</v>
+        <v>0.111293</v>
       </c>
       <c r="C69" t="n">
-        <v>0.117039</v>
+        <v>0.117786</v>
       </c>
       <c r="D69" t="n">
-        <v>0.250315</v>
+        <v>0.25368</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0944836</v>
+        <v>0.094417</v>
       </c>
       <c r="F69" t="n">
-        <v>0.100277</v>
+        <v>0.09994409999999999</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.113018</v>
+        <v>0.114859</v>
       </c>
       <c r="C70" t="n">
-        <v>0.119673</v>
+        <v>0.120169</v>
       </c>
       <c r="D70" t="n">
-        <v>0.259053</v>
+        <v>0.264864</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0947871</v>
+        <v>0.0959275</v>
       </c>
       <c r="F70" t="n">
-        <v>0.100644</v>
+        <v>0.10038</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.117435</v>
+        <v>0.116887</v>
       </c>
       <c r="C71" t="n">
-        <v>0.125715</v>
+        <v>0.124226</v>
       </c>
       <c r="D71" t="n">
-        <v>0.269993</v>
+        <v>0.274965</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0959725</v>
+        <v>0.0956776</v>
       </c>
       <c r="F71" t="n">
-        <v>0.102109</v>
+        <v>0.101502</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.122447</v>
+        <v>0.122036</v>
       </c>
       <c r="C72" t="n">
-        <v>0.13013</v>
+        <v>0.129944</v>
       </c>
       <c r="D72" t="n">
-        <v>0.282342</v>
+        <v>0.287129</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0964445</v>
+        <v>0.0970902</v>
       </c>
       <c r="F72" t="n">
-        <v>0.103192</v>
+        <v>0.103989</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.126081</v>
+        <v>0.126435</v>
       </c>
       <c r="C73" t="n">
-        <v>0.134206</v>
+        <v>0.13492</v>
       </c>
       <c r="D73" t="n">
-        <v>0.292771</v>
+        <v>0.301177</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0983233</v>
+        <v>0.0977498</v>
       </c>
       <c r="F73" t="n">
-        <v>0.104883</v>
+        <v>0.104967</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.137986</v>
+        <v>0.134294</v>
       </c>
       <c r="C74" t="n">
-        <v>0.143143</v>
+        <v>0.143063</v>
       </c>
       <c r="D74" t="n">
-        <v>0.304243</v>
+        <v>0.312978</v>
       </c>
       <c r="E74" t="n">
-        <v>0.09996819999999999</v>
+        <v>0.09899810000000001</v>
       </c>
       <c r="F74" t="n">
-        <v>0.106573</v>
+        <v>0.107057</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.142661</v>
+        <v>0.144174</v>
       </c>
       <c r="C75" t="n">
-        <v>0.153719</v>
+        <v>0.154934</v>
       </c>
       <c r="D75" t="n">
-        <v>0.319583</v>
+        <v>0.32736</v>
       </c>
       <c r="E75" t="n">
-        <v>0.101679</v>
+        <v>0.10201</v>
       </c>
       <c r="F75" t="n">
-        <v>0.108872</v>
+        <v>0.109808</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.156779</v>
+        <v>0.159497</v>
       </c>
       <c r="C76" t="n">
-        <v>0.167908</v>
+        <v>0.168929</v>
       </c>
       <c r="D76" t="n">
-        <v>0.336705</v>
+        <v>0.341949</v>
       </c>
       <c r="E76" t="n">
-        <v>0.104312</v>
+        <v>0.104598</v>
       </c>
       <c r="F76" t="n">
-        <v>0.112059</v>
+        <v>0.113024</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.178307</v>
+        <v>0.179261</v>
       </c>
       <c r="C77" t="n">
-        <v>0.188233</v>
+        <v>0.190499</v>
       </c>
       <c r="D77" t="n">
-        <v>0.352068</v>
+        <v>0.360856</v>
       </c>
       <c r="E77" t="n">
-        <v>0.109319</v>
+        <v>0.10902</v>
       </c>
       <c r="F77" t="n">
-        <v>0.118851</v>
+        <v>0.119152</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.204391</v>
+        <v>0.205082</v>
       </c>
       <c r="C78" t="n">
-        <v>0.218222</v>
+        <v>0.225945</v>
       </c>
       <c r="D78" t="n">
-        <v>0.268949</v>
+        <v>0.272719</v>
       </c>
       <c r="E78" t="n">
-        <v>0.117755</v>
+        <v>0.117354</v>
       </c>
       <c r="F78" t="n">
-        <v>0.125366</v>
+        <v>0.127847</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.252933</v>
+        <v>0.255958</v>
       </c>
       <c r="C79" t="n">
-        <v>0.257545</v>
+        <v>0.270031</v>
       </c>
       <c r="D79" t="n">
-        <v>0.285521</v>
+        <v>0.289509</v>
       </c>
       <c r="E79" t="n">
-        <v>0.129816</v>
+        <v>0.131168</v>
       </c>
       <c r="F79" t="n">
-        <v>0.140249</v>
+        <v>0.141888</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.295011</v>
+        <v>0.307277</v>
       </c>
       <c r="C80" t="n">
-        <v>0.31383</v>
+        <v>0.323417</v>
       </c>
       <c r="D80" t="n">
-        <v>0.306767</v>
+        <v>0.308451</v>
       </c>
       <c r="E80" t="n">
-        <v>0.101668</v>
+        <v>0.101721</v>
       </c>
       <c r="F80" t="n">
-        <v>0.106859</v>
+        <v>0.107053</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.119673</v>
+        <v>0.119994</v>
       </c>
       <c r="C81" t="n">
-        <v>0.125728</v>
+        <v>0.126925</v>
       </c>
       <c r="D81" t="n">
-        <v>0.324345</v>
+        <v>0.326897</v>
       </c>
       <c r="E81" t="n">
-        <v>0.102244</v>
+        <v>0.102176</v>
       </c>
       <c r="F81" t="n">
-        <v>0.107903</v>
+        <v>0.108643</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.12291</v>
+        <v>0.122275</v>
       </c>
       <c r="C82" t="n">
-        <v>0.127673</v>
+        <v>0.129404</v>
       </c>
       <c r="D82" t="n">
-        <v>0.346545</v>
+        <v>0.348384</v>
       </c>
       <c r="E82" t="n">
-        <v>0.102635</v>
+        <v>0.10268</v>
       </c>
       <c r="F82" t="n">
-        <v>0.108396</v>
+        <v>0.110299</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.12394</v>
+        <v>0.123659</v>
       </c>
       <c r="C83" t="n">
-        <v>0.130477</v>
+        <v>0.132819</v>
       </c>
       <c r="D83" t="n">
-        <v>0.367907</v>
+        <v>0.365605</v>
       </c>
       <c r="E83" t="n">
-        <v>0.102843</v>
+        <v>0.10345</v>
       </c>
       <c r="F83" t="n">
-        <v>0.10963</v>
+        <v>0.112087</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.126433</v>
+        <v>0.126434</v>
       </c>
       <c r="C84" t="n">
-        <v>0.133295</v>
+        <v>0.136549</v>
       </c>
       <c r="D84" t="n">
-        <v>0.389164</v>
+        <v>0.387438</v>
       </c>
       <c r="E84" t="n">
-        <v>0.103318</v>
+        <v>0.104257</v>
       </c>
       <c r="F84" t="n">
-        <v>0.110089</v>
+        <v>0.112674</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.129027</v>
+        <v>0.130209</v>
       </c>
       <c r="C85" t="n">
-        <v>0.137636</v>
+        <v>0.143151</v>
       </c>
       <c r="D85" t="n">
-        <v>0.412445</v>
+        <v>0.409587</v>
       </c>
       <c r="E85" t="n">
-        <v>0.104478</v>
+        <v>0.105549</v>
       </c>
       <c r="F85" t="n">
-        <v>0.111441</v>
+        <v>0.114986</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.133182</v>
+        <v>0.136721</v>
       </c>
       <c r="C86" t="n">
-        <v>0.142428</v>
+        <v>0.149651</v>
       </c>
       <c r="D86" t="n">
-        <v>0.435477</v>
+        <v>0.434172</v>
       </c>
       <c r="E86" t="n">
-        <v>0.105451</v>
+        <v>0.10701</v>
       </c>
       <c r="F86" t="n">
-        <v>0.113741</v>
+        <v>0.118409</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.139343</v>
+        <v>0.141179</v>
       </c>
       <c r="C87" t="n">
-        <v>0.150169</v>
+        <v>0.157803</v>
       </c>
       <c r="D87" t="n">
-        <v>0.459146</v>
+        <v>0.456901</v>
       </c>
       <c r="E87" t="n">
-        <v>0.106771</v>
+        <v>0.108812</v>
       </c>
       <c r="F87" t="n">
-        <v>0.115905</v>
+        <v>0.122029</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.148711</v>
+        <v>0.149997</v>
       </c>
       <c r="C88" t="n">
-        <v>0.159886</v>
+        <v>0.169546</v>
       </c>
       <c r="D88" t="n">
-        <v>0.482495</v>
+        <v>0.479978</v>
       </c>
       <c r="E88" t="n">
-        <v>0.107875</v>
+        <v>0.11098</v>
       </c>
       <c r="F88" t="n">
-        <v>0.118095</v>
+        <v>0.126216</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.156831</v>
+        <v>0.163542</v>
       </c>
       <c r="C89" t="n">
-        <v>0.172935</v>
+        <v>0.183334</v>
       </c>
       <c r="D89" t="n">
-        <v>0.507478</v>
+        <v>0.504595</v>
       </c>
       <c r="E89" t="n">
-        <v>0.110006</v>
+        <v>0.114192</v>
       </c>
       <c r="F89" t="n">
-        <v>0.122309</v>
+        <v>0.132415</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.170054</v>
+        <v>0.175029</v>
       </c>
       <c r="C90" t="n">
-        <v>0.194528</v>
+        <v>0.201905</v>
       </c>
       <c r="D90" t="n">
-        <v>0.533786</v>
+        <v>0.530218</v>
       </c>
       <c r="E90" t="n">
-        <v>0.113327</v>
+        <v>0.118894</v>
       </c>
       <c r="F90" t="n">
-        <v>0.128361</v>
+        <v>0.138049</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.193962</v>
+        <v>0.20167</v>
       </c>
       <c r="C91" t="n">
-        <v>0.215836</v>
+        <v>0.226241</v>
       </c>
       <c r="D91" t="n">
-        <v>0.561063</v>
+        <v>0.55853</v>
       </c>
       <c r="E91" t="n">
-        <v>0.118653</v>
+        <v>0.124511</v>
       </c>
       <c r="F91" t="n">
-        <v>0.13645</v>
+        <v>0.145956</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.216705</v>
+        <v>0.224442</v>
       </c>
       <c r="C92" t="n">
-        <v>0.254563</v>
+        <v>0.259587</v>
       </c>
       <c r="D92" t="n">
-        <v>0.420425</v>
+        <v>0.417648</v>
       </c>
       <c r="E92" t="n">
-        <v>0.127711</v>
+        <v>0.13401</v>
       </c>
       <c r="F92" t="n">
-        <v>0.148781</v>
+        <v>0.157966</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.259662</v>
+        <v>0.268725</v>
       </c>
       <c r="C93" t="n">
-        <v>0.309994</v>
+        <v>0.309175</v>
       </c>
       <c r="D93" t="n">
-        <v>0.439388</v>
+        <v>0.437083</v>
       </c>
       <c r="E93" t="n">
-        <v>0.141353</v>
+        <v>0.148225</v>
       </c>
       <c r="F93" t="n">
-        <v>0.167991</v>
+        <v>0.17689</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.327616</v>
+        <v>0.327205</v>
       </c>
       <c r="C94" t="n">
-        <v>0.391646</v>
+        <v>0.381199</v>
       </c>
       <c r="D94" t="n">
-        <v>0.457601</v>
+        <v>0.455784</v>
       </c>
       <c r="E94" t="n">
-        <v>0.108028</v>
+        <v>0.112721</v>
       </c>
       <c r="F94" t="n">
-        <v>0.119509</v>
+        <v>0.128123</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.12817</v>
+        <v>0.133371</v>
       </c>
       <c r="C95" t="n">
-        <v>0.143998</v>
+        <v>0.151337</v>
       </c>
       <c r="D95" t="n">
-        <v>0.476935</v>
+        <v>0.476269</v>
       </c>
       <c r="E95" t="n">
-        <v>0.108421</v>
+        <v>0.113665</v>
       </c>
       <c r="F95" t="n">
-        <v>0.124032</v>
+        <v>0.130688</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.130639</v>
+        <v>0.137241</v>
       </c>
       <c r="C96" t="n">
-        <v>0.149356</v>
+        <v>0.155241</v>
       </c>
       <c r="D96" t="n">
-        <v>0.49861</v>
+        <v>0.498708</v>
       </c>
       <c r="E96" t="n">
-        <v>0.110561</v>
+        <v>0.115975</v>
       </c>
       <c r="F96" t="n">
-        <v>0.128239</v>
+        <v>0.134023</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.133677</v>
+        <v>0.14121</v>
       </c>
       <c r="C97" t="n">
-        <v>0.156809</v>
+        <v>0.160997</v>
       </c>
       <c r="D97" t="n">
-        <v>0.518663</v>
+        <v>0.5185110000000001</v>
       </c>
       <c r="E97" t="n">
-        <v>0.111634</v>
+        <v>0.117456</v>
       </c>
       <c r="F97" t="n">
-        <v>0.132888</v>
+        <v>0.137575</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.137565</v>
+        <v>0.143548</v>
       </c>
       <c r="C98" t="n">
-        <v>0.164447</v>
+        <v>0.165876</v>
       </c>
       <c r="D98" t="n">
-        <v>0.540535</v>
+        <v>0.539461</v>
       </c>
       <c r="E98" t="n">
-        <v>0.114122</v>
+        <v>0.119561</v>
       </c>
       <c r="F98" t="n">
-        <v>0.137976</v>
+        <v>0.14001</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.143624</v>
+        <v>0.147999</v>
       </c>
       <c r="C99" t="n">
-        <v>0.17364</v>
+        <v>0.172237</v>
       </c>
       <c r="D99" t="n">
-        <v>0.563089</v>
+        <v>0.563132</v>
       </c>
       <c r="E99" t="n">
-        <v>0.116861</v>
+        <v>0.121517</v>
       </c>
       <c r="F99" t="n">
-        <v>0.144171</v>
+        <v>0.14317</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.149715</v>
+        <v>0.153533</v>
       </c>
       <c r="C100" t="n">
-        <v>0.185544</v>
+        <v>0.179203</v>
       </c>
       <c r="D100" t="n">
-        <v>0.58619</v>
+        <v>0.585064</v>
       </c>
       <c r="E100" t="n">
-        <v>0.119339</v>
+        <v>0.123581</v>
       </c>
       <c r="F100" t="n">
-        <v>0.149621</v>
+        <v>0.146616</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.158102</v>
+        <v>0.160574</v>
       </c>
       <c r="C101" t="n">
-        <v>0.197478</v>
+        <v>0.188169</v>
       </c>
       <c r="D101" t="n">
-        <v>0.611273</v>
+        <v>0.609756</v>
       </c>
       <c r="E101" t="n">
-        <v>0.12376</v>
+        <v>0.126344</v>
       </c>
       <c r="F101" t="n">
-        <v>0.157422</v>
+        <v>0.150281</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.169205</v>
+        <v>0.169059</v>
       </c>
       <c r="C102" t="n">
-        <v>0.212017</v>
+        <v>0.20032</v>
       </c>
       <c r="D102" t="n">
-        <v>0.637056</v>
+        <v>0.637088</v>
       </c>
       <c r="E102" t="n">
-        <v>0.127412</v>
+        <v>0.1285</v>
       </c>
       <c r="F102" t="n">
-        <v>0.164287</v>
+        <v>0.15443</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.183076</v>
+        <v>0.179729</v>
       </c>
       <c r="C103" t="n">
-        <v>0.230028</v>
+        <v>0.216828</v>
       </c>
       <c r="D103" t="n">
-        <v>0.662996</v>
+        <v>0.66303</v>
       </c>
       <c r="E103" t="n">
-        <v>0.132507</v>
+        <v>0.131689</v>
       </c>
       <c r="F103" t="n">
-        <v>0.172894</v>
+        <v>0.16028</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.200586</v>
+        <v>0.194328</v>
       </c>
       <c r="C104" t="n">
-        <v>0.251423</v>
+        <v>0.237432</v>
       </c>
       <c r="D104" t="n">
-        <v>0.69152</v>
+        <v>0.691657</v>
       </c>
       <c r="E104" t="n">
-        <v>0.139401</v>
+        <v>0.135849</v>
       </c>
       <c r="F104" t="n">
-        <v>0.180731</v>
+        <v>0.168208</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.222815</v>
+        <v>0.216095</v>
       </c>
       <c r="C105" t="n">
-        <v>0.279212</v>
+        <v>0.266651</v>
       </c>
       <c r="D105" t="n">
-        <v>0.722985</v>
+        <v>0.722467</v>
       </c>
       <c r="E105" t="n">
-        <v>0.14739</v>
+        <v>0.141822</v>
       </c>
       <c r="F105" t="n">
-        <v>0.191265</v>
+        <v>0.177176</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.262675</v>
+        <v>0.243258</v>
       </c>
       <c r="C106" t="n">
-        <v>0.316861</v>
+        <v>0.312359</v>
       </c>
       <c r="D106" t="n">
-        <v>0.754583</v>
+        <v>0.754985</v>
       </c>
       <c r="E106" t="n">
-        <v>0.158332</v>
+        <v>0.151148</v>
       </c>
       <c r="F106" t="n">
-        <v>0.205155</v>
+        <v>0.192024</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.298061</v>
+        <v>0.294858</v>
       </c>
       <c r="C107" t="n">
-        <v>0.369436</v>
+        <v>0.361952</v>
       </c>
       <c r="D107" t="n">
-        <v>0.592529</v>
+        <v>0.591784</v>
       </c>
       <c r="E107" t="n">
-        <v>0.174995</v>
+        <v>0.163411</v>
       </c>
       <c r="F107" t="n">
-        <v>0.223805</v>
+        <v>0.212182</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.369819</v>
+        <v>0.360023</v>
       </c>
       <c r="C108" t="n">
-        <v>0.446566</v>
+        <v>0.44191</v>
       </c>
       <c r="D108" t="n">
-        <v>0.615626</v>
+        <v>0.615081</v>
       </c>
       <c r="E108" t="n">
-        <v>0.128594</v>
+        <v>0.121851</v>
       </c>
       <c r="F108" t="n">
-        <v>0.159373</v>
+        <v>0.145788</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.461797</v>
+        <v>0.441924</v>
       </c>
       <c r="C109" t="n">
-        <v>0.559431</v>
+        <v>0.558815</v>
       </c>
       <c r="D109" t="n">
-        <v>0.638358</v>
+        <v>0.6372060000000001</v>
       </c>
       <c r="E109" t="n">
-        <v>0.131535</v>
+        <v>0.123113</v>
       </c>
       <c r="F109" t="n">
-        <v>0.163004</v>
+        <v>0.149461</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.154565</v>
+        <v>0.145042</v>
       </c>
       <c r="C110" t="n">
-        <v>0.188477</v>
+        <v>0.175416</v>
       </c>
       <c r="D110" t="n">
-        <v>0.660977</v>
+        <v>0.660815</v>
       </c>
       <c r="E110" t="n">
-        <v>0.133572</v>
+        <v>0.124545</v>
       </c>
       <c r="F110" t="n">
-        <v>0.166707</v>
+        <v>0.154237</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.158512</v>
+        <v>0.149322</v>
       </c>
       <c r="C111" t="n">
-        <v>0.195596</v>
+        <v>0.182085</v>
       </c>
       <c r="D111" t="n">
-        <v>0.686494</v>
+        <v>0.686923</v>
       </c>
       <c r="E111" t="n">
-        <v>0.135929</v>
+        <v>0.126171</v>
       </c>
       <c r="F111" t="n">
-        <v>0.170667</v>
+        <v>0.158343</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.163006</v>
+        <v>0.151948</v>
       </c>
       <c r="C112" t="n">
-        <v>0.200284</v>
+        <v>0.189662</v>
       </c>
       <c r="D112" t="n">
-        <v>0.711626</v>
+        <v>0.711627</v>
       </c>
       <c r="E112" t="n">
-        <v>0.138581</v>
+        <v>0.128357</v>
       </c>
       <c r="F112" t="n">
-        <v>0.17446</v>
+        <v>0.163247</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.168512</v>
+        <v>0.157293</v>
       </c>
       <c r="C113" t="n">
-        <v>0.207725</v>
+        <v>0.201268</v>
       </c>
       <c r="D113" t="n">
-        <v>0.737104</v>
+        <v>0.73759</v>
       </c>
       <c r="E113" t="n">
-        <v>0.141059</v>
+        <v>0.130637</v>
       </c>
       <c r="F113" t="n">
-        <v>0.178504</v>
+        <v>0.170061</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.17435</v>
+        <v>0.164584</v>
       </c>
       <c r="C114" t="n">
-        <v>0.216309</v>
+        <v>0.210819</v>
       </c>
       <c r="D114" t="n">
-        <v>0.765215</v>
+        <v>0.764696</v>
       </c>
       <c r="E114" t="n">
-        <v>0.143622</v>
+        <v>0.134057</v>
       </c>
       <c r="F114" t="n">
-        <v>0.183092</v>
+        <v>0.177161</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.182212</v>
+        <v>0.173812</v>
       </c>
       <c r="C115" t="n">
-        <v>0.226723</v>
+        <v>0.223086</v>
       </c>
       <c r="D115" t="n">
-        <v>0.791899</v>
+        <v>0.791424</v>
       </c>
       <c r="E115" t="n">
-        <v>0.146768</v>
+        <v>0.138451</v>
       </c>
       <c r="F115" t="n">
-        <v>0.187843</v>
+        <v>0.183656</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.19171</v>
+        <v>0.185507</v>
       </c>
       <c r="C116" t="n">
-        <v>0.240876</v>
+        <v>0.236778</v>
       </c>
       <c r="D116" t="n">
-        <v>0.819426</v>
+        <v>0.819536</v>
       </c>
       <c r="E116" t="n">
-        <v>0.149843</v>
+        <v>0.143392</v>
       </c>
       <c r="F116" t="n">
-        <v>0.193189</v>
+        <v>0.190136</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.208291</v>
+        <v>0.199497</v>
       </c>
       <c r="C117" t="n">
-        <v>0.255444</v>
+        <v>0.253579</v>
       </c>
       <c r="D117" t="n">
-        <v>0.848027</v>
+        <v>0.848217</v>
       </c>
       <c r="E117" t="n">
-        <v>0.154006</v>
+        <v>0.148932</v>
       </c>
       <c r="F117" t="n">
-        <v>0.199337</v>
+        <v>0.197212</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.219272</v>
+        <v>0.21642</v>
       </c>
       <c r="C118" t="n">
-        <v>0.276126</v>
+        <v>0.274771</v>
       </c>
       <c r="D118" t="n">
-        <v>0.877562</v>
+        <v>0.877607</v>
       </c>
       <c r="E118" t="n">
-        <v>0.15875</v>
+        <v>0.15533</v>
       </c>
       <c r="F118" t="n">
-        <v>0.206981</v>
+        <v>0.205362</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.240152</v>
+        <v>0.238048</v>
       </c>
       <c r="C119" t="n">
-        <v>0.303358</v>
+        <v>0.302252</v>
       </c>
       <c r="D119" t="n">
-        <v>0.908919</v>
+        <v>0.909796</v>
       </c>
       <c r="E119" t="n">
-        <v>0.165318</v>
+        <v>0.162829</v>
       </c>
       <c r="F119" t="n">
-        <v>0.216261</v>
+        <v>0.214771</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.269043</v>
+        <v>0.269229</v>
       </c>
       <c r="C120" t="n">
-        <v>0.340823</v>
+        <v>0.341775</v>
       </c>
       <c r="D120" t="n">
-        <v>0.941647</v>
+        <v>0.94045</v>
       </c>
       <c r="E120" t="n">
-        <v>0.174412</v>
+        <v>0.172683</v>
       </c>
       <c r="F120" t="n">
-        <v>0.229385</v>
+        <v>0.228202</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.310134</v>
+        <v>0.309087</v>
       </c>
       <c r="C121" t="n">
-        <v>0.394492</v>
+        <v>0.393546</v>
       </c>
       <c r="D121" t="n">
-        <v>0.681185</v>
+        <v>0.68046</v>
       </c>
       <c r="E121" t="n">
-        <v>0.188456</v>
+        <v>0.187041</v>
       </c>
       <c r="F121" t="n">
-        <v>0.248406</v>
+        <v>0.247014</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.37618</v>
+        <v>0.376372</v>
       </c>
       <c r="C122" t="n">
-        <v>0.475225</v>
+        <v>0.473707</v>
       </c>
       <c r="D122" t="n">
-        <v>0.703302</v>
+        <v>0.702438</v>
       </c>
       <c r="E122" t="n">
-        <v>0.211902</v>
+        <v>0.210874</v>
       </c>
       <c r="F122" t="n">
-        <v>0.278804</v>
+        <v>0.277565</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.46613</v>
+        <v>0.461914</v>
       </c>
       <c r="C123" t="n">
-        <v>0.597567</v>
+        <v>0.600208</v>
       </c>
       <c r="D123" t="n">
-        <v>0.726194</v>
+        <v>0.726294</v>
       </c>
       <c r="E123" t="n">
-        <v>0.147876</v>
+        <v>0.148032</v>
       </c>
       <c r="F123" t="n">
-        <v>0.182574</v>
+        <v>0.184488</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.171153</v>
+        <v>0.170003</v>
       </c>
       <c r="C124" t="n">
-        <v>0.210587</v>
+        <v>0.211978</v>
       </c>
       <c r="D124" t="n">
-        <v>0.751217</v>
+        <v>0.750193</v>
       </c>
       <c r="E124" t="n">
-        <v>0.14947</v>
+        <v>0.149944</v>
       </c>
       <c r="F124" t="n">
-        <v>0.188164</v>
+        <v>0.188065</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.172585</v>
+        <v>0.173055</v>
       </c>
       <c r="C125" t="n">
-        <v>0.213283</v>
+        <v>0.214763</v>
       </c>
       <c r="D125" t="n">
-        <v>0.776126</v>
+        <v>0.774917</v>
       </c>
       <c r="E125" t="n">
-        <v>0.150241</v>
+        <v>0.151815</v>
       </c>
       <c r="F125" t="n">
-        <v>0.193769</v>
+        <v>0.192165</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.177311</v>
+        <v>0.178786</v>
       </c>
       <c r="C126" t="n">
-        <v>0.222682</v>
+        <v>0.224369</v>
       </c>
       <c r="D126" t="n">
-        <v>0.801966</v>
+        <v>0.800484</v>
       </c>
       <c r="E126" t="n">
-        <v>0.151589</v>
+        <v>0.154271</v>
       </c>
       <c r="F126" t="n">
-        <v>0.194787</v>
+        <v>0.197465</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.184625</v>
+        <v>0.183976</v>
       </c>
       <c r="C127" t="n">
-        <v>0.228873</v>
+        <v>0.231212</v>
       </c>
       <c r="D127" t="n">
-        <v>0.828736</v>
+        <v>0.828686</v>
       </c>
       <c r="E127" t="n">
-        <v>0.160288</v>
+        <v>0.156009</v>
       </c>
       <c r="F127" t="n">
-        <v>0.199683</v>
+        <v>0.200961</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.190694</v>
+        <v>0.188307</v>
       </c>
       <c r="C128" t="n">
-        <v>0.236963</v>
+        <v>0.239254</v>
       </c>
       <c r="D128" t="n">
-        <v>0.8567090000000001</v>
+        <v>0.8557</v>
       </c>
       <c r="E128" t="n">
-        <v>0.15925</v>
+        <v>0.158031</v>
       </c>
       <c r="F128" t="n">
-        <v>0.206027</v>
+        <v>0.203381</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.198564</v>
+        <v>0.198289</v>
       </c>
       <c r="C129" t="n">
-        <v>0.251109</v>
+        <v>0.256063</v>
       </c>
       <c r="D129" t="n">
-        <v>0.885795</v>
+        <v>0.884894</v>
       </c>
       <c r="E129" t="n">
-        <v>0.159846</v>
+        <v>0.159523</v>
       </c>
       <c r="F129" t="n">
-        <v>0.211475</v>
+        <v>0.210668</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.206731</v>
+        <v>0.209536</v>
       </c>
       <c r="C130" t="n">
-        <v>0.264422</v>
+        <v>0.262239</v>
       </c>
       <c r="D130" t="n">
-        <v>0.914308</v>
+        <v>0.914257</v>
       </c>
       <c r="E130" t="n">
-        <v>0.165442</v>
+        <v>0.166469</v>
       </c>
       <c r="F130" t="n">
-        <v>0.218137</v>
+        <v>0.218765</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.218388</v>
+        <v>0.217454</v>
       </c>
       <c r="C131" t="n">
-        <v>0.281828</v>
+        <v>0.28268</v>
       </c>
       <c r="D131" t="n">
-        <v>0.945032</v>
+        <v>0.943466</v>
       </c>
       <c r="E131" t="n">
-        <v>0.172071</v>
+        <v>0.170086</v>
       </c>
       <c r="F131" t="n">
-        <v>0.226177</v>
+        <v>0.225407</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.234195</v>
+        <v>0.236612</v>
       </c>
       <c r="C132" t="n">
-        <v>0.30332</v>
+        <v>0.30453</v>
       </c>
       <c r="D132" t="n">
-        <v>0.975635</v>
+        <v>0.975069</v>
       </c>
       <c r="E132" t="n">
-        <v>0.173866</v>
+        <v>0.175107</v>
       </c>
       <c r="F132" t="n">
-        <v>0.233574</v>
+        <v>0.234231</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.257798</v>
+        <v>0.255558</v>
       </c>
       <c r="C133" t="n">
-        <v>0.329667</v>
+        <v>0.334434</v>
       </c>
       <c r="D133" t="n">
-        <v>1.00791</v>
+        <v>1.00731</v>
       </c>
       <c r="E133" t="n">
-        <v>0.176731</v>
+        <v>0.179365</v>
       </c>
       <c r="F133" t="n">
-        <v>0.239808</v>
+        <v>0.242433</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.28293</v>
+        <v>0.29078</v>
       </c>
       <c r="C134" t="n">
-        <v>0.375306</v>
+        <v>0.368801</v>
       </c>
       <c r="D134" t="n">
-        <v>1.04049</v>
+        <v>1.03993</v>
       </c>
       <c r="E134" t="n">
-        <v>0.190531</v>
+        <v>0.188049</v>
       </c>
       <c r="F134" t="n">
-        <v>0.258931</v>
+        <v>0.255471</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.324601</v>
+        <v>0.328096</v>
       </c>
       <c r="C135" t="n">
-        <v>0.424125</v>
+        <v>0.425946</v>
       </c>
       <c r="D135" t="n">
-        <v>0.698025</v>
+        <v>0.697673</v>
       </c>
       <c r="E135" t="n">
-        <v>0.199729</v>
+        <v>0.199032</v>
       </c>
       <c r="F135" t="n">
-        <v>0.273738</v>
+        <v>0.273797</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.384778</v>
+        <v>0.382979</v>
       </c>
       <c r="C136" t="n">
-        <v>0.503515</v>
+        <v>0.5035849999999999</v>
       </c>
       <c r="D136" t="n">
-        <v>0.716129</v>
+        <v>0.715396</v>
       </c>
       <c r="E136" t="n">
-        <v>0.223349</v>
+        <v>0.222812</v>
       </c>
       <c r="F136" t="n">
-        <v>0.302801</v>
+        <v>0.302796</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.482617</v>
+        <v>0.475773</v>
       </c>
       <c r="C137" t="n">
-        <v>0.633019</v>
+        <v>0.628876</v>
       </c>
       <c r="D137" t="n">
-        <v>0.734921</v>
+        <v>0.734317</v>
       </c>
       <c r="E137" t="n">
-        <v>0.278631</v>
+        <v>0.272246</v>
       </c>
       <c r="F137" t="n">
-        <v>0.32475</v>
+        <v>0.320916</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.311841</v>
+        <v>0.312981</v>
       </c>
       <c r="C138" t="n">
-        <v>0.357124</v>
+        <v>0.354976</v>
       </c>
       <c r="D138" t="n">
-        <v>0.75579</v>
+        <v>0.754975</v>
       </c>
       <c r="E138" t="n">
-        <v>0.27592</v>
+        <v>0.277573</v>
       </c>
       <c r="F138" t="n">
-        <v>0.32574</v>
+        <v>0.326925</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.316507</v>
+        <v>0.314159</v>
       </c>
       <c r="C139" t="n">
-        <v>0.36474</v>
+        <v>0.361663</v>
       </c>
       <c r="D139" t="n">
-        <v>0.776521</v>
+        <v>0.77546</v>
       </c>
       <c r="E139" t="n">
-        <v>0.280819</v>
+        <v>0.285235</v>
       </c>
       <c r="F139" t="n">
-        <v>0.33179</v>
+        <v>0.330693</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.324196</v>
+        <v>0.319556</v>
       </c>
       <c r="C140" t="n">
-        <v>0.367199</v>
+        <v>0.372468</v>
       </c>
       <c r="D140" t="n">
-        <v>0.797982</v>
+        <v>0.797193</v>
       </c>
       <c r="E140" t="n">
-        <v>0.280805</v>
+        <v>0.281922</v>
       </c>
       <c r="F140" t="n">
-        <v>0.335188</v>
+        <v>0.337346</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.323866</v>
+        <v>0.329598</v>
       </c>
       <c r="C141" t="n">
-        <v>0.378302</v>
+        <v>0.378705</v>
       </c>
       <c r="D141" t="n">
-        <v>0.820562</v>
+        <v>0.819909</v>
       </c>
       <c r="E141" t="n">
-        <v>0.291311</v>
+        <v>0.282143</v>
       </c>
       <c r="F141" t="n">
-        <v>0.3417</v>
+        <v>0.341012</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.337781</v>
+        <v>0.331198</v>
       </c>
       <c r="C142" t="n">
-        <v>0.388141</v>
+        <v>0.387999</v>
       </c>
       <c r="D142" t="n">
-        <v>0.844238</v>
+        <v>0.843459</v>
       </c>
       <c r="E142" t="n">
-        <v>0.289494</v>
+        <v>0.288695</v>
       </c>
       <c r="F142" t="n">
-        <v>0.348649</v>
+        <v>0.345025</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.339886</v>
+        <v>0.335417</v>
       </c>
       <c r="C143" t="n">
-        <v>0.402039</v>
+        <v>0.400337</v>
       </c>
       <c r="D143" t="n">
-        <v>0.869393</v>
+        <v>0.868364</v>
       </c>
       <c r="E143" t="n">
-        <v>0.290031</v>
+        <v>0.292304</v>
       </c>
       <c r="F143" t="n">
-        <v>0.354123</v>
+        <v>0.353854</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Scattered unsuccessful looukp.xlsx
+++ b/clang-x86/Scattered unsuccessful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.09510689999999999</v>
+        <v>0.0951376</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0979698</v>
+        <v>0.09767389999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>0.186124</v>
+        <v>0.185494</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0836824</v>
+        <v>0.0836644</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0842697</v>
+        <v>0.0842753</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.10249</v>
+        <v>0.102627</v>
       </c>
       <c r="C3" t="n">
-        <v>0.104906</v>
+        <v>0.104787</v>
       </c>
       <c r="D3" t="n">
-        <v>0.194801</v>
+        <v>0.19398</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0844707</v>
+        <v>0.0845064</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0849816</v>
+        <v>0.0849588</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.111941</v>
+        <v>0.11217</v>
       </c>
       <c r="C4" t="n">
-        <v>0.116314</v>
+        <v>0.112713</v>
       </c>
       <c r="D4" t="n">
-        <v>0.201542</v>
+        <v>0.201824</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0856698</v>
+        <v>0.0856741</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0863264</v>
+        <v>0.08617519999999999</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.132074</v>
+        <v>0.131748</v>
       </c>
       <c r="C5" t="n">
-        <v>0.131072</v>
+        <v>0.131646</v>
       </c>
       <c r="D5" t="n">
-        <v>0.210318</v>
+        <v>0.209798</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0872352</v>
+        <v>0.08719689999999999</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0875933</v>
+        <v>0.0877386</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.159301</v>
+        <v>0.159795</v>
       </c>
       <c r="C6" t="n">
-        <v>0.164138</v>
+        <v>0.164252</v>
       </c>
       <c r="D6" t="n">
-        <v>0.214344</v>
+        <v>0.215157</v>
       </c>
       <c r="E6" t="n">
-        <v>0.08907089999999999</v>
+        <v>0.0891</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0895519</v>
+        <v>0.08941830000000001</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.189112</v>
+        <v>0.189463</v>
       </c>
       <c r="C7" t="n">
-        <v>0.191707</v>
+        <v>0.191634</v>
       </c>
       <c r="D7" t="n">
-        <v>0.161276</v>
+        <v>0.161548</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0954599</v>
+        <v>0.09526949999999999</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0948952</v>
+        <v>0.0948616</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.229125</v>
+        <v>0.228798</v>
       </c>
       <c r="C8" t="n">
-        <v>0.225744</v>
+        <v>0.22482</v>
       </c>
       <c r="D8" t="n">
-        <v>0.168918</v>
+        <v>0.168852</v>
       </c>
       <c r="E8" t="n">
-        <v>0.107023</v>
+        <v>0.107038</v>
       </c>
       <c r="F8" t="n">
-        <v>0.106808</v>
+        <v>0.106859</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.272131</v>
+        <v>0.272064</v>
       </c>
       <c r="C9" t="n">
-        <v>0.267612</v>
+        <v>0.268256</v>
       </c>
       <c r="D9" t="n">
-        <v>0.175531</v>
+        <v>0.176222</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0818448</v>
+        <v>0.0820207</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0827261</v>
+        <v>0.08283459999999999</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.08579829999999999</v>
+        <v>0.0861729</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0868883</v>
+        <v>0.0870794</v>
       </c>
       <c r="D10" t="n">
-        <v>0.183052</v>
+        <v>0.183007</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0821361</v>
+        <v>0.0821754</v>
       </c>
       <c r="F10" t="n">
-        <v>0.08285090000000001</v>
+        <v>0.0832579</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0865242</v>
+        <v>0.0865998</v>
       </c>
       <c r="C11" t="n">
-        <v>0.088029</v>
+        <v>0.08817700000000001</v>
       </c>
       <c r="D11" t="n">
-        <v>0.19069</v>
+        <v>0.190944</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0825896</v>
+        <v>0.08262269999999999</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0833182</v>
+        <v>0.08374379999999999</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.08807719999999999</v>
+        <v>0.0881429</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0904306</v>
+        <v>0.09000569999999999</v>
       </c>
       <c r="D12" t="n">
-        <v>0.197936</v>
+        <v>0.197837</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0828414</v>
+        <v>0.082971</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0835925</v>
+        <v>0.0839608</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0894858</v>
+        <v>0.0899451</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0913766</v>
+        <v>0.0918113</v>
       </c>
       <c r="D13" t="n">
-        <v>0.204649</v>
+        <v>0.204318</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0830129</v>
+        <v>0.08306810000000001</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0840477</v>
+        <v>0.08422109999999999</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0915938</v>
+        <v>0.0916759</v>
       </c>
       <c r="C14" t="n">
-        <v>0.09345589999999999</v>
+        <v>0.09397030000000001</v>
       </c>
       <c r="D14" t="n">
-        <v>0.210877</v>
+        <v>0.210131</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0832871</v>
+        <v>0.0833002</v>
       </c>
       <c r="F14" t="n">
-        <v>0.08430790000000001</v>
+        <v>0.08435520000000001</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.09505619999999999</v>
+        <v>0.0952469</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0968683</v>
+        <v>0.0974729</v>
       </c>
       <c r="D15" t="n">
-        <v>0.220383</v>
+        <v>0.220719</v>
       </c>
       <c r="E15" t="n">
-        <v>0.08404300000000001</v>
+        <v>0.0840432</v>
       </c>
       <c r="F15" t="n">
-        <v>0.084787</v>
+        <v>0.085211</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.1013</v>
+        <v>0.100669</v>
       </c>
       <c r="C16" t="n">
-        <v>0.101235</v>
+        <v>0.101819</v>
       </c>
       <c r="D16" t="n">
-        <v>0.227037</v>
+        <v>0.227487</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0844977</v>
+        <v>0.0843491</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0854125</v>
+        <v>0.085539</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.109177</v>
+        <v>0.109615</v>
       </c>
       <c r="C17" t="n">
-        <v>0.110602</v>
+        <v>0.110708</v>
       </c>
       <c r="D17" t="n">
-        <v>0.233187</v>
+        <v>0.232983</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0854232</v>
+        <v>0.08541609999999999</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0863462</v>
+        <v>0.0870421</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.120641</v>
+        <v>0.120137</v>
       </c>
       <c r="C18" t="n">
-        <v>0.122139</v>
+        <v>0.123157</v>
       </c>
       <c r="D18" t="n">
-        <v>0.238196</v>
+        <v>0.238613</v>
       </c>
       <c r="E18" t="n">
-        <v>0.08666459999999999</v>
+        <v>0.0867174</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0874861</v>
+        <v>0.0882469</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.134941</v>
+        <v>0.134792</v>
       </c>
       <c r="C19" t="n">
-        <v>0.137553</v>
+        <v>0.137776</v>
       </c>
       <c r="D19" t="n">
-        <v>0.245367</v>
+        <v>0.245164</v>
       </c>
       <c r="E19" t="n">
-        <v>0.08964999999999999</v>
+        <v>0.08851879999999999</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0894243</v>
+        <v>0.0902493</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.154285</v>
+        <v>0.154359</v>
       </c>
       <c r="C20" t="n">
-        <v>0.157509</v>
+        <v>0.157997</v>
       </c>
       <c r="D20" t="n">
-        <v>0.251796</v>
+        <v>0.252154</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0918173</v>
+        <v>0.0915584</v>
       </c>
       <c r="F20" t="n">
-        <v>0.09282219999999999</v>
+        <v>0.093</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.184149</v>
+        <v>0.184094</v>
       </c>
       <c r="C21" t="n">
-        <v>0.191831</v>
+        <v>0.183468</v>
       </c>
       <c r="D21" t="n">
-        <v>0.182468</v>
+        <v>0.182196</v>
       </c>
       <c r="E21" t="n">
-        <v>0.09729500000000001</v>
+        <v>0.09740459999999999</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0989048</v>
+        <v>0.0994331</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.217989</v>
+        <v>0.216689</v>
       </c>
       <c r="C22" t="n">
-        <v>0.219631</v>
+        <v>0.22005</v>
       </c>
       <c r="D22" t="n">
-        <v>0.190679</v>
+        <v>0.189529</v>
       </c>
       <c r="E22" t="n">
-        <v>0.109767</v>
+        <v>0.109753</v>
       </c>
       <c r="F22" t="n">
-        <v>0.111407</v>
+        <v>0.111121</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.274887</v>
+        <v>0.262372</v>
       </c>
       <c r="C23" t="n">
-        <v>0.258933</v>
+        <v>0.260146</v>
       </c>
       <c r="D23" t="n">
-        <v>0.199028</v>
+        <v>0.199188</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0829657</v>
+        <v>0.0830149</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0842058</v>
+        <v>0.0844599</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.09139799999999999</v>
+        <v>0.09028940000000001</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0927622</v>
+        <v>0.09198340000000001</v>
       </c>
       <c r="D24" t="n">
-        <v>0.206338</v>
+        <v>0.206643</v>
       </c>
       <c r="E24" t="n">
-        <v>0.08323079999999999</v>
+        <v>0.0832022</v>
       </c>
       <c r="F24" t="n">
-        <v>0.084564</v>
+        <v>0.08472780000000001</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0912872</v>
+        <v>0.0913021</v>
       </c>
       <c r="C25" t="n">
-        <v>0.09316439999999999</v>
+        <v>0.0931979</v>
       </c>
       <c r="D25" t="n">
-        <v>0.213572</v>
+        <v>0.215031</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0834493</v>
+        <v>0.083467</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0849791</v>
+        <v>0.0850853</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0928099</v>
+        <v>0.0928683</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0957783</v>
+        <v>0.0944282</v>
       </c>
       <c r="D26" t="n">
-        <v>0.221267</v>
+        <v>0.22164</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0838185</v>
+        <v>0.0838416</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08565109999999999</v>
+        <v>0.0854502</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0943272</v>
+        <v>0.0943315</v>
       </c>
       <c r="C27" t="n">
-        <v>0.09698660000000001</v>
+        <v>0.0963246</v>
       </c>
       <c r="D27" t="n">
-        <v>0.228849</v>
+        <v>0.229165</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0842878</v>
+        <v>0.0842835</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0866529</v>
+        <v>0.08608109999999999</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.09704889999999999</v>
+        <v>0.0971342</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0995461</v>
+        <v>0.0988808</v>
       </c>
       <c r="D28" t="n">
-        <v>0.235503</v>
+        <v>0.235511</v>
       </c>
       <c r="E28" t="n">
-        <v>0.084732</v>
+        <v>0.08473849999999999</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0868183</v>
+        <v>0.08673210000000001</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.100529</v>
+        <v>0.100607</v>
       </c>
       <c r="C29" t="n">
-        <v>0.104586</v>
+        <v>0.103701</v>
       </c>
       <c r="D29" t="n">
-        <v>0.241424</v>
+        <v>0.241797</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0852784</v>
+        <v>0.08524</v>
       </c>
       <c r="F29" t="n">
-        <v>0.087771</v>
+        <v>0.0872416</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.106046</v>
+        <v>0.106015</v>
       </c>
       <c r="C30" t="n">
-        <v>0.11123</v>
+        <v>0.109768</v>
       </c>
       <c r="D30" t="n">
-        <v>0.247729</v>
+        <v>0.247186</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0859308</v>
+        <v>0.0859458</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08882619999999999</v>
+        <v>0.0881122</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.1135</v>
+        <v>0.113366</v>
       </c>
       <c r="C31" t="n">
-        <v>0.115288</v>
+        <v>0.11404</v>
       </c>
       <c r="D31" t="n">
-        <v>0.252538</v>
+        <v>0.252269</v>
       </c>
       <c r="E31" t="n">
-        <v>0.087073</v>
+        <v>0.0870321</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0900725</v>
+        <v>0.0891952</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.121367</v>
+        <v>0.121359</v>
       </c>
       <c r="C32" t="n">
-        <v>0.125824</v>
+        <v>0.125458</v>
       </c>
       <c r="D32" t="n">
-        <v>0.25805</v>
+        <v>0.258094</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0886984</v>
+        <v>0.0885893</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0925546</v>
+        <v>0.09095019999999999</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.134989</v>
+        <v>0.134895</v>
       </c>
       <c r="C33" t="n">
-        <v>0.137819</v>
+        <v>0.13733</v>
       </c>
       <c r="D33" t="n">
-        <v>0.263111</v>
+        <v>0.263953</v>
       </c>
       <c r="E33" t="n">
-        <v>0.091126</v>
+        <v>0.0910707</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0946548</v>
+        <v>0.0936215</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.150569</v>
+        <v>0.15032</v>
       </c>
       <c r="C34" t="n">
-        <v>0.154153</v>
+        <v>0.153417</v>
       </c>
       <c r="D34" t="n">
-        <v>0.2699</v>
+        <v>0.270974</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0950826</v>
+        <v>0.0949376</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0987225</v>
+        <v>0.0976446</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.176388</v>
+        <v>0.176336</v>
       </c>
       <c r="C35" t="n">
-        <v>0.177208</v>
+        <v>0.17707</v>
       </c>
       <c r="D35" t="n">
-        <v>0.196407</v>
+        <v>0.19661</v>
       </c>
       <c r="E35" t="n">
-        <v>0.101936</v>
+        <v>0.102028</v>
       </c>
       <c r="F35" t="n">
-        <v>0.105875</v>
+        <v>0.104972</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.208685</v>
+        <v>0.208865</v>
       </c>
       <c r="C36" t="n">
-        <v>0.209391</v>
+        <v>0.209937</v>
       </c>
       <c r="D36" t="n">
-        <v>0.20347</v>
+        <v>0.203949</v>
       </c>
       <c r="E36" t="n">
-        <v>0.113867</v>
+        <v>0.113721</v>
       </c>
       <c r="F36" t="n">
-        <v>0.116865</v>
+        <v>0.11613</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.258817</v>
+        <v>0.252713</v>
       </c>
       <c r="C37" t="n">
-        <v>0.25633</v>
+        <v>0.254998</v>
       </c>
       <c r="D37" t="n">
-        <v>0.211754</v>
+        <v>0.212175</v>
       </c>
       <c r="E37" t="n">
-        <v>0.08367289999999999</v>
+        <v>0.0837162</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0869129</v>
+        <v>0.085837</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0923727</v>
+        <v>0.09218129999999999</v>
       </c>
       <c r="C38" t="n">
-        <v>0.095849</v>
+        <v>0.0944436</v>
       </c>
       <c r="D38" t="n">
-        <v>0.218692</v>
+        <v>0.218689</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0839516</v>
+        <v>0.0839555</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0873659</v>
+        <v>0.0862856</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.09364989999999999</v>
+        <v>0.0934304</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0980109</v>
+        <v>0.09587710000000001</v>
       </c>
       <c r="D39" t="n">
-        <v>0.225879</v>
+        <v>0.226159</v>
       </c>
       <c r="E39" t="n">
-        <v>0.08421090000000001</v>
+        <v>0.0842233</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0877947</v>
+        <v>0.0866857</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0949913</v>
+        <v>0.0945931</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0987286</v>
+        <v>0.0977093</v>
       </c>
       <c r="D40" t="n">
-        <v>0.233511</v>
+        <v>0.233707</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0845374</v>
+        <v>0.0846707</v>
       </c>
       <c r="F40" t="n">
-        <v>0.08828510000000001</v>
+        <v>0.0872425</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0970684</v>
+        <v>0.0967098</v>
       </c>
       <c r="C41" t="n">
-        <v>0.102429</v>
+        <v>0.100169</v>
       </c>
       <c r="D41" t="n">
-        <v>0.239564</v>
+        <v>0.240116</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0849979</v>
+        <v>0.0849086</v>
       </c>
       <c r="F41" t="n">
-        <v>0.08891209999999999</v>
+        <v>0.0878287</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.100077</v>
+        <v>0.0996548</v>
       </c>
       <c r="C42" t="n">
-        <v>0.104133</v>
+        <v>0.103272</v>
       </c>
       <c r="D42" t="n">
-        <v>0.247025</v>
+        <v>0.246977</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0857607</v>
+        <v>0.0853541</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0893341</v>
+        <v>0.08844399999999999</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.104456</v>
+        <v>0.103978</v>
       </c>
       <c r="C43" t="n">
-        <v>0.108158</v>
+        <v>0.107418</v>
       </c>
       <c r="D43" t="n">
-        <v>0.253346</v>
+        <v>0.253472</v>
       </c>
       <c r="E43" t="n">
-        <v>0.08591849999999999</v>
+        <v>0.08583739999999999</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0900102</v>
+        <v>0.08923200000000001</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.109099</v>
+        <v>0.108739</v>
       </c>
       <c r="C44" t="n">
-        <v>0.113299</v>
+        <v>0.112597</v>
       </c>
       <c r="D44" t="n">
-        <v>0.259525</v>
+        <v>0.25971</v>
       </c>
       <c r="E44" t="n">
-        <v>0.08683299999999999</v>
+        <v>0.0866123</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0908979</v>
+        <v>0.090116</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.115406</v>
+        <v>0.115157</v>
       </c>
       <c r="C45" t="n">
-        <v>0.121504</v>
+        <v>0.118914</v>
       </c>
       <c r="D45" t="n">
-        <v>0.26537</v>
+        <v>0.265643</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0878143</v>
+        <v>0.0878148</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0920892</v>
+        <v>0.0915328</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.123681</v>
+        <v>0.123563</v>
       </c>
       <c r="C46" t="n">
-        <v>0.128683</v>
+        <v>0.128213</v>
       </c>
       <c r="D46" t="n">
-        <v>0.271784</v>
+        <v>0.271491</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0893732</v>
+        <v>0.0893076</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0937697</v>
+        <v>0.09322519999999999</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.136337</v>
+        <v>0.134609</v>
       </c>
       <c r="C47" t="n">
-        <v>0.13983</v>
+        <v>0.139285</v>
       </c>
       <c r="D47" t="n">
-        <v>0.277076</v>
+        <v>0.276918</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0917019</v>
+        <v>0.0917197</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0962293</v>
+        <v>0.0957406</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.152533</v>
+        <v>0.150464</v>
       </c>
       <c r="C48" t="n">
-        <v>0.154176</v>
+        <v>0.154085</v>
       </c>
       <c r="D48" t="n">
-        <v>0.282696</v>
+        <v>0.282846</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0965086</v>
+        <v>0.0951279</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0998551</v>
+        <v>0.0995123</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.173063</v>
+        <v>0.173171</v>
       </c>
       <c r="C49" t="n">
-        <v>0.182387</v>
+        <v>0.175727</v>
       </c>
       <c r="D49" t="n">
-        <v>0.289216</v>
+        <v>0.288763</v>
       </c>
       <c r="E49" t="n">
-        <v>0.100987</v>
+        <v>0.100855</v>
       </c>
       <c r="F49" t="n">
-        <v>0.105493</v>
+        <v>0.105058</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.204621</v>
+        <v>0.204682</v>
       </c>
       <c r="C50" t="n">
-        <v>0.204967</v>
+        <v>0.20617</v>
       </c>
       <c r="D50" t="n">
-        <v>0.203615</v>
+        <v>0.203327</v>
       </c>
       <c r="E50" t="n">
-        <v>0.11399</v>
+        <v>0.110822</v>
       </c>
       <c r="F50" t="n">
-        <v>0.115306</v>
+        <v>0.114887</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.243862</v>
+        <v>0.243934</v>
       </c>
       <c r="C51" t="n">
-        <v>0.247873</v>
+        <v>0.247526</v>
       </c>
       <c r="D51" t="n">
-        <v>0.210924</v>
+        <v>0.210652</v>
       </c>
       <c r="E51" t="n">
-        <v>0.08562350000000001</v>
+        <v>0.0858486</v>
       </c>
       <c r="F51" t="n">
-        <v>0.08915869999999999</v>
+        <v>0.0890571</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.291502</v>
+        <v>0.291132</v>
       </c>
       <c r="C52" t="n">
-        <v>0.294893</v>
+        <v>0.293443</v>
       </c>
       <c r="D52" t="n">
-        <v>0.217246</v>
+        <v>0.217057</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0865667</v>
+        <v>0.085979</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0897608</v>
+        <v>0.0900603</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.097164</v>
+        <v>0.0957466</v>
       </c>
       <c r="C53" t="n">
-        <v>0.100787</v>
+        <v>0.101541</v>
       </c>
       <c r="D53" t="n">
-        <v>0.224932</v>
+        <v>0.224791</v>
       </c>
       <c r="E53" t="n">
-        <v>0.08609020000000001</v>
+        <v>0.086853</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0903815</v>
+        <v>0.09017269999999999</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0987088</v>
+        <v>0.098036</v>
       </c>
       <c r="C54" t="n">
-        <v>0.102994</v>
+        <v>0.102273</v>
       </c>
       <c r="D54" t="n">
-        <v>0.231671</v>
+        <v>0.231956</v>
       </c>
       <c r="E54" t="n">
-        <v>0.08671810000000001</v>
+        <v>0.0868623</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0905548</v>
+        <v>0.0908065</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.100406</v>
+        <v>0.100141</v>
       </c>
       <c r="C55" t="n">
-        <v>0.106908</v>
+        <v>0.104061</v>
       </c>
       <c r="D55" t="n">
-        <v>0.238288</v>
+        <v>0.238625</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0868868</v>
+        <v>0.0875678</v>
       </c>
       <c r="F55" t="n">
-        <v>0.09115379999999999</v>
+        <v>0.09118800000000001</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.103864</v>
+        <v>0.102615</v>
       </c>
       <c r="C56" t="n">
-        <v>0.108607</v>
+        <v>0.107418</v>
       </c>
       <c r="D56" t="n">
-        <v>0.245029</v>
+        <v>0.245052</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0872381</v>
+        <v>0.0868355</v>
       </c>
       <c r="F56" t="n">
-        <v>0.09244810000000001</v>
+        <v>0.0915723</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.105903</v>
+        <v>0.106086</v>
       </c>
       <c r="C57" t="n">
-        <v>0.113693</v>
+        <v>0.111999</v>
       </c>
       <c r="D57" t="n">
-        <v>0.251187</v>
+        <v>0.250915</v>
       </c>
       <c r="E57" t="n">
-        <v>0.087866</v>
+        <v>0.08777310000000001</v>
       </c>
       <c r="F57" t="n">
-        <v>0.0931714</v>
+        <v>0.0930681</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.113097</v>
+        <v>0.110654</v>
       </c>
       <c r="C58" t="n">
-        <v>0.117529</v>
+        <v>0.116478</v>
       </c>
       <c r="D58" t="n">
-        <v>0.256981</v>
+        <v>0.256301</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0885387</v>
+        <v>0.0885642</v>
       </c>
       <c r="F58" t="n">
-        <v>0.09409389999999999</v>
+        <v>0.093915</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.117714</v>
+        <v>0.11761</v>
       </c>
       <c r="C59" t="n">
-        <v>0.122071</v>
+        <v>0.121737</v>
       </c>
       <c r="D59" t="n">
-        <v>0.262633</v>
+        <v>0.26219</v>
       </c>
       <c r="E59" t="n">
-        <v>0.08976770000000001</v>
+        <v>0.0906705</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0949091</v>
+        <v>0.0945367</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.12584</v>
+        <v>0.125432</v>
       </c>
       <c r="C60" t="n">
-        <v>0.134043</v>
+        <v>0.129601</v>
       </c>
       <c r="D60" t="n">
-        <v>0.267901</v>
+        <v>0.267116</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0914739</v>
+        <v>0.0912931</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0974052</v>
+        <v>0.0967187</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.135963</v>
+        <v>0.135663</v>
       </c>
       <c r="C61" t="n">
-        <v>0.140752</v>
+        <v>0.144818</v>
       </c>
       <c r="D61" t="n">
-        <v>0.273999</v>
+        <v>0.272649</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0934084</v>
+        <v>0.0930826</v>
       </c>
       <c r="F61" t="n">
-        <v>0.0997902</v>
+        <v>0.0991059</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.151038</v>
+        <v>0.149085</v>
       </c>
       <c r="C62" t="n">
-        <v>0.15487</v>
+        <v>0.155171</v>
       </c>
       <c r="D62" t="n">
-        <v>0.279804</v>
+        <v>0.27918</v>
       </c>
       <c r="E62" t="n">
-        <v>0.0970589</v>
+        <v>0.09643259999999999</v>
       </c>
       <c r="F62" t="n">
-        <v>0.103592</v>
+        <v>0.102798</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.171317</v>
+        <v>0.168983</v>
       </c>
       <c r="C63" t="n">
-        <v>0.175252</v>
+        <v>0.17505</v>
       </c>
       <c r="D63" t="n">
-        <v>0.285335</v>
+        <v>0.285297</v>
       </c>
       <c r="E63" t="n">
-        <v>0.102386</v>
+        <v>0.101846</v>
       </c>
       <c r="F63" t="n">
-        <v>0.108213</v>
+        <v>0.108119</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.196649</v>
+        <v>0.19753</v>
       </c>
       <c r="C64" t="n">
-        <v>0.203908</v>
+        <v>0.205437</v>
       </c>
       <c r="D64" t="n">
-        <v>0.208907</v>
+        <v>0.20966</v>
       </c>
       <c r="E64" t="n">
-        <v>0.111255</v>
+        <v>0.112742</v>
       </c>
       <c r="F64" t="n">
-        <v>0.11634</v>
+        <v>0.117525</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.241688</v>
+        <v>0.23698</v>
       </c>
       <c r="C65" t="n">
-        <v>0.245792</v>
+        <v>0.244617</v>
       </c>
       <c r="D65" t="n">
-        <v>0.216234</v>
+        <v>0.21707</v>
       </c>
       <c r="E65" t="n">
-        <v>0.126137</v>
+        <v>0.124928</v>
       </c>
       <c r="F65" t="n">
-        <v>0.132889</v>
+        <v>0.130775</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.285685</v>
+        <v>0.286175</v>
       </c>
       <c r="C66" t="n">
-        <v>0.295538</v>
+        <v>0.293273</v>
       </c>
       <c r="D66" t="n">
-        <v>0.222468</v>
+        <v>0.224281</v>
       </c>
       <c r="E66" t="n">
-        <v>0.093616</v>
+        <v>0.0935465</v>
       </c>
       <c r="F66" t="n">
-        <v>0.09766950000000001</v>
+        <v>0.09746</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.10855</v>
+        <v>0.106377</v>
       </c>
       <c r="C67" t="n">
-        <v>0.112754</v>
+        <v>0.112796</v>
       </c>
       <c r="D67" t="n">
-        <v>0.234596</v>
+        <v>0.236096</v>
       </c>
       <c r="E67" t="n">
-        <v>0.09430189999999999</v>
+        <v>0.0942419</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0982326</v>
+        <v>0.09833790000000001</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.10888</v>
+        <v>0.109534</v>
       </c>
       <c r="C68" t="n">
-        <v>0.116691</v>
+        <v>0.114184</v>
       </c>
       <c r="D68" t="n">
-        <v>0.239601</v>
+        <v>0.241086</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0941554</v>
+        <v>0.093639</v>
       </c>
       <c r="F68" t="n">
-        <v>0.0988853</v>
+        <v>0.0987599</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.11133</v>
+        <v>0.111254</v>
       </c>
       <c r="C69" t="n">
-        <v>0.117665</v>
+        <v>0.116459</v>
       </c>
       <c r="D69" t="n">
-        <v>0.250012</v>
+        <v>0.251145</v>
       </c>
       <c r="E69" t="n">
-        <v>0.09497559999999999</v>
+        <v>0.09414119999999999</v>
       </c>
       <c r="F69" t="n">
-        <v>0.09997730000000001</v>
+        <v>0.0995664</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.115232</v>
+        <v>0.115165</v>
       </c>
       <c r="C70" t="n">
-        <v>0.119517</v>
+        <v>0.120217</v>
       </c>
       <c r="D70" t="n">
-        <v>0.259398</v>
+        <v>0.259976</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0956072</v>
+        <v>0.0945594</v>
       </c>
       <c r="F70" t="n">
-        <v>0.100666</v>
+        <v>0.100924</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.117205</v>
+        <v>0.117231</v>
       </c>
       <c r="C71" t="n">
-        <v>0.123332</v>
+        <v>0.12358</v>
       </c>
       <c r="D71" t="n">
-        <v>0.271079</v>
+        <v>0.271394</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0962466</v>
+        <v>0.09581919999999999</v>
       </c>
       <c r="F71" t="n">
-        <v>0.101662</v>
+        <v>0.101581</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.122168</v>
+        <v>0.120842</v>
       </c>
       <c r="C72" t="n">
-        <v>0.13011</v>
+        <v>0.130215</v>
       </c>
       <c r="D72" t="n">
-        <v>0.282413</v>
+        <v>0.28149</v>
       </c>
       <c r="E72" t="n">
-        <v>0.09682730000000001</v>
+        <v>0.09669030000000001</v>
       </c>
       <c r="F72" t="n">
-        <v>0.103158</v>
+        <v>0.102968</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.126791</v>
+        <v>0.128289</v>
       </c>
       <c r="C73" t="n">
-        <v>0.134908</v>
+        <v>0.134926</v>
       </c>
       <c r="D73" t="n">
-        <v>0.289701</v>
+        <v>0.293712</v>
       </c>
       <c r="E73" t="n">
-        <v>0.097791</v>
+        <v>0.0979956</v>
       </c>
       <c r="F73" t="n">
-        <v>0.104593</v>
+        <v>0.104713</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.136737</v>
+        <v>0.135543</v>
       </c>
       <c r="C74" t="n">
-        <v>0.1428</v>
+        <v>0.143886</v>
       </c>
       <c r="D74" t="n">
-        <v>0.306112</v>
+        <v>0.307369</v>
       </c>
       <c r="E74" t="n">
-        <v>0.09963080000000001</v>
+        <v>0.0986722</v>
       </c>
       <c r="F74" t="n">
-        <v>0.106708</v>
+        <v>0.106035</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.144214</v>
+        <v>0.144822</v>
       </c>
       <c r="C75" t="n">
-        <v>0.153345</v>
+        <v>0.155094</v>
       </c>
       <c r="D75" t="n">
-        <v>0.320103</v>
+        <v>0.323002</v>
       </c>
       <c r="E75" t="n">
-        <v>0.101938</v>
+        <v>0.100901</v>
       </c>
       <c r="F75" t="n">
-        <v>0.109374</v>
+        <v>0.108814</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.157124</v>
+        <v>0.159541</v>
       </c>
       <c r="C76" t="n">
-        <v>0.167582</v>
+        <v>0.170552</v>
       </c>
       <c r="D76" t="n">
-        <v>0.333727</v>
+        <v>0.335358</v>
       </c>
       <c r="E76" t="n">
-        <v>0.104299</v>
+        <v>0.104234</v>
       </c>
       <c r="F76" t="n">
-        <v>0.112958</v>
+        <v>0.112859</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.183642</v>
+        <v>0.177856</v>
       </c>
       <c r="C77" t="n">
-        <v>0.18869</v>
+        <v>0.191198</v>
       </c>
       <c r="D77" t="n">
-        <v>0.348112</v>
+        <v>0.350065</v>
       </c>
       <c r="E77" t="n">
-        <v>0.109492</v>
+        <v>0.110399</v>
       </c>
       <c r="F77" t="n">
-        <v>0.118203</v>
+        <v>0.118762</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.207401</v>
+        <v>0.205228</v>
       </c>
       <c r="C78" t="n">
-        <v>0.219189</v>
+        <v>0.220044</v>
       </c>
       <c r="D78" t="n">
-        <v>0.270091</v>
+        <v>0.272654</v>
       </c>
       <c r="E78" t="n">
-        <v>0.116406</v>
+        <v>0.116782</v>
       </c>
       <c r="F78" t="n">
-        <v>0.126078</v>
+        <v>0.127295</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.252193</v>
+        <v>0.246701</v>
       </c>
       <c r="C79" t="n">
-        <v>0.258308</v>
+        <v>0.26114</v>
       </c>
       <c r="D79" t="n">
-        <v>0.286588</v>
+        <v>0.288435</v>
       </c>
       <c r="E79" t="n">
-        <v>0.131114</v>
+        <v>0.131186</v>
       </c>
       <c r="F79" t="n">
-        <v>0.141843</v>
+        <v>0.142163</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.294576</v>
+        <v>0.297592</v>
       </c>
       <c r="C80" t="n">
-        <v>0.31588</v>
+        <v>0.324783</v>
       </c>
       <c r="D80" t="n">
-        <v>0.306528</v>
+        <v>0.305099</v>
       </c>
       <c r="E80" t="n">
-        <v>0.10176</v>
+        <v>0.101644</v>
       </c>
       <c r="F80" t="n">
-        <v>0.106234</v>
+        <v>0.10684</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.120211</v>
+        <v>0.119573</v>
       </c>
       <c r="C81" t="n">
-        <v>0.125989</v>
+        <v>0.12643</v>
       </c>
       <c r="D81" t="n">
-        <v>0.325926</v>
+        <v>0.325225</v>
       </c>
       <c r="E81" t="n">
-        <v>0.102265</v>
+        <v>0.102062</v>
       </c>
       <c r="F81" t="n">
-        <v>0.107549</v>
+        <v>0.108109</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.122162</v>
+        <v>0.121573</v>
       </c>
       <c r="C82" t="n">
-        <v>0.12833</v>
+        <v>0.129544</v>
       </c>
       <c r="D82" t="n">
-        <v>0.346155</v>
+        <v>0.346228</v>
       </c>
       <c r="E82" t="n">
-        <v>0.10256</v>
+        <v>0.102402</v>
       </c>
       <c r="F82" t="n">
-        <v>0.107728</v>
+        <v>0.109369</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.123237</v>
+        <v>0.123663</v>
       </c>
       <c r="C83" t="n">
-        <v>0.130791</v>
+        <v>0.132661</v>
       </c>
       <c r="D83" t="n">
-        <v>0.368528</v>
+        <v>0.367537</v>
       </c>
       <c r="E83" t="n">
-        <v>0.103088</v>
+        <v>0.103195</v>
       </c>
       <c r="F83" t="n">
-        <v>0.108669</v>
+        <v>0.110966</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.126615</v>
+        <v>0.126775</v>
       </c>
       <c r="C84" t="n">
-        <v>0.133673</v>
+        <v>0.136312</v>
       </c>
       <c r="D84" t="n">
-        <v>0.389271</v>
+        <v>0.388641</v>
       </c>
       <c r="E84" t="n">
-        <v>0.103915</v>
+        <v>0.104157</v>
       </c>
       <c r="F84" t="n">
-        <v>0.109668</v>
+        <v>0.112733</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.128914</v>
+        <v>0.130266</v>
       </c>
       <c r="C85" t="n">
-        <v>0.137585</v>
+        <v>0.141193</v>
       </c>
       <c r="D85" t="n">
-        <v>0.411917</v>
+        <v>0.409513</v>
       </c>
       <c r="E85" t="n">
-        <v>0.104189</v>
+        <v>0.105372</v>
       </c>
       <c r="F85" t="n">
-        <v>0.11174</v>
+        <v>0.114856</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.133293</v>
+        <v>0.134844</v>
       </c>
       <c r="C86" t="n">
-        <v>0.14285</v>
+        <v>0.14785</v>
       </c>
       <c r="D86" t="n">
-        <v>0.435292</v>
+        <v>0.433452</v>
       </c>
       <c r="E86" t="n">
-        <v>0.105097</v>
+        <v>0.106489</v>
       </c>
       <c r="F86" t="n">
-        <v>0.11369</v>
+        <v>0.116958</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.139157</v>
+        <v>0.141469</v>
       </c>
       <c r="C87" t="n">
-        <v>0.150389</v>
+        <v>0.156276</v>
       </c>
       <c r="D87" t="n">
-        <v>0.459233</v>
+        <v>0.457293</v>
       </c>
       <c r="E87" t="n">
-        <v>0.106577</v>
+        <v>0.108178</v>
       </c>
       <c r="F87" t="n">
-        <v>0.115505</v>
+        <v>0.121882</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.146719</v>
+        <v>0.151162</v>
       </c>
       <c r="C88" t="n">
-        <v>0.159902</v>
+        <v>0.166764</v>
       </c>
       <c r="D88" t="n">
-        <v>0.483754</v>
+        <v>0.480301</v>
       </c>
       <c r="E88" t="n">
-        <v>0.107852</v>
+        <v>0.111161</v>
       </c>
       <c r="F88" t="n">
-        <v>0.118254</v>
+        <v>0.125773</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.159687</v>
+        <v>0.160821</v>
       </c>
       <c r="C89" t="n">
-        <v>0.176009</v>
+        <v>0.181613</v>
       </c>
       <c r="D89" t="n">
-        <v>0.50885</v>
+        <v>0.505564</v>
       </c>
       <c r="E89" t="n">
-        <v>0.109854</v>
+        <v>0.113745</v>
       </c>
       <c r="F89" t="n">
-        <v>0.122841</v>
+        <v>0.130359</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.17014</v>
+        <v>0.174782</v>
       </c>
       <c r="C90" t="n">
-        <v>0.191796</v>
+        <v>0.199852</v>
       </c>
       <c r="D90" t="n">
-        <v>0.534887</v>
+        <v>0.53061</v>
       </c>
       <c r="E90" t="n">
-        <v>0.113589</v>
+        <v>0.117491</v>
       </c>
       <c r="F90" t="n">
-        <v>0.128643</v>
+        <v>0.137002</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.189479</v>
+        <v>0.195638</v>
       </c>
       <c r="C91" t="n">
-        <v>0.222835</v>
+        <v>0.223327</v>
       </c>
       <c r="D91" t="n">
-        <v>0.562858</v>
+        <v>0.559727</v>
       </c>
       <c r="E91" t="n">
-        <v>0.118533</v>
+        <v>0.124554</v>
       </c>
       <c r="F91" t="n">
-        <v>0.137019</v>
+        <v>0.144549</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.217333</v>
+        <v>0.229944</v>
       </c>
       <c r="C92" t="n">
-        <v>0.255442</v>
+        <v>0.258903</v>
       </c>
       <c r="D92" t="n">
-        <v>0.421638</v>
+        <v>0.419046</v>
       </c>
       <c r="E92" t="n">
-        <v>0.126281</v>
+        <v>0.13405</v>
       </c>
       <c r="F92" t="n">
-        <v>0.149711</v>
+        <v>0.157495</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.267988</v>
+        <v>0.266103</v>
       </c>
       <c r="C93" t="n">
-        <v>0.310812</v>
+        <v>0.306753</v>
       </c>
       <c r="D93" t="n">
-        <v>0.440661</v>
+        <v>0.43899</v>
       </c>
       <c r="E93" t="n">
-        <v>0.139936</v>
+        <v>0.14706</v>
       </c>
       <c r="F93" t="n">
-        <v>0.168376</v>
+        <v>0.174425</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.327899</v>
+        <v>0.331663</v>
       </c>
       <c r="C94" t="n">
-        <v>0.390124</v>
+        <v>0.379442</v>
       </c>
       <c r="D94" t="n">
-        <v>0.45994</v>
+        <v>0.457526</v>
       </c>
       <c r="E94" t="n">
-        <v>0.107598</v>
+        <v>0.112494</v>
       </c>
       <c r="F94" t="n">
-        <v>0.12093</v>
+        <v>0.127237</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.128748</v>
+        <v>0.133574</v>
       </c>
       <c r="C95" t="n">
-        <v>0.145247</v>
+        <v>0.150417</v>
       </c>
       <c r="D95" t="n">
-        <v>0.479408</v>
+        <v>0.476229</v>
       </c>
       <c r="E95" t="n">
-        <v>0.108706</v>
+        <v>0.113892</v>
       </c>
       <c r="F95" t="n">
-        <v>0.123663</v>
+        <v>0.130091</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.132248</v>
+        <v>0.136154</v>
       </c>
       <c r="C96" t="n">
-        <v>0.150416</v>
+        <v>0.154866</v>
       </c>
       <c r="D96" t="n">
-        <v>0.500299</v>
+        <v>0.497956</v>
       </c>
       <c r="E96" t="n">
-        <v>0.110261</v>
+        <v>0.115458</v>
       </c>
       <c r="F96" t="n">
-        <v>0.127629</v>
+        <v>0.132981</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.133859</v>
+        <v>0.139033</v>
       </c>
       <c r="C97" t="n">
-        <v>0.156454</v>
+        <v>0.158857</v>
       </c>
       <c r="D97" t="n">
-        <v>0.520953</v>
+        <v>0.518239</v>
       </c>
       <c r="E97" t="n">
-        <v>0.112214</v>
+        <v>0.117883</v>
       </c>
       <c r="F97" t="n">
-        <v>0.132499</v>
+        <v>0.136141</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.137871</v>
+        <v>0.143277</v>
       </c>
       <c r="C98" t="n">
-        <v>0.164733</v>
+        <v>0.165188</v>
       </c>
       <c r="D98" t="n">
-        <v>0.543405</v>
+        <v>0.541023</v>
       </c>
       <c r="E98" t="n">
-        <v>0.114332</v>
+        <v>0.119243</v>
       </c>
       <c r="F98" t="n">
-        <v>0.138376</v>
+        <v>0.139715</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.143235</v>
+        <v>0.14753</v>
       </c>
       <c r="C99" t="n">
-        <v>0.17423</v>
+        <v>0.170163</v>
       </c>
       <c r="D99" t="n">
-        <v>0.563623</v>
+        <v>0.56289</v>
       </c>
       <c r="E99" t="n">
-        <v>0.116929</v>
+        <v>0.121743</v>
       </c>
       <c r="F99" t="n">
-        <v>0.144152</v>
+        <v>0.142247</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.151135</v>
+        <v>0.15302</v>
       </c>
       <c r="C100" t="n">
-        <v>0.186735</v>
+        <v>0.178468</v>
       </c>
       <c r="D100" t="n">
-        <v>0.588762</v>
+        <v>0.586075</v>
       </c>
       <c r="E100" t="n">
-        <v>0.119087</v>
+        <v>0.123629</v>
       </c>
       <c r="F100" t="n">
-        <v>0.151338</v>
+        <v>0.145496</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.158376</v>
+        <v>0.160168</v>
       </c>
       <c r="C101" t="n">
-        <v>0.198115</v>
+        <v>0.187316</v>
       </c>
       <c r="D101" t="n">
-        <v>0.6129829999999999</v>
+        <v>0.611726</v>
       </c>
       <c r="E101" t="n">
-        <v>0.123276</v>
+        <v>0.12552</v>
       </c>
       <c r="F101" t="n">
-        <v>0.157328</v>
+        <v>0.149265</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.169796</v>
+        <v>0.16859</v>
       </c>
       <c r="C102" t="n">
-        <v>0.21508</v>
+        <v>0.201309</v>
       </c>
       <c r="D102" t="n">
-        <v>0.637775</v>
+        <v>0.636475</v>
       </c>
       <c r="E102" t="n">
-        <v>0.127684</v>
+        <v>0.128267</v>
       </c>
       <c r="F102" t="n">
-        <v>0.164686</v>
+        <v>0.153774</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.183446</v>
+        <v>0.184643</v>
       </c>
       <c r="C103" t="n">
-        <v>0.230885</v>
+        <v>0.217867</v>
       </c>
       <c r="D103" t="n">
-        <v>0.664764</v>
+        <v>0.662996</v>
       </c>
       <c r="E103" t="n">
-        <v>0.132895</v>
+        <v>0.132127</v>
       </c>
       <c r="F103" t="n">
-        <v>0.172531</v>
+        <v>0.160736</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.200971</v>
+        <v>0.196706</v>
       </c>
       <c r="C104" t="n">
-        <v>0.25311</v>
+        <v>0.240473</v>
       </c>
       <c r="D104" t="n">
-        <v>0.691976</v>
+        <v>0.692783</v>
       </c>
       <c r="E104" t="n">
-        <v>0.138966</v>
+        <v>0.13627</v>
       </c>
       <c r="F104" t="n">
-        <v>0.181154</v>
+        <v>0.170769</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.223651</v>
+        <v>0.215589</v>
       </c>
       <c r="C105" t="n">
-        <v>0.279828</v>
+        <v>0.272121</v>
       </c>
       <c r="D105" t="n">
-        <v>0.723005</v>
+        <v>0.723838</v>
       </c>
       <c r="E105" t="n">
-        <v>0.147415</v>
+        <v>0.141606</v>
       </c>
       <c r="F105" t="n">
-        <v>0.191528</v>
+        <v>0.182027</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.254785</v>
+        <v>0.246909</v>
       </c>
       <c r="C106" t="n">
-        <v>0.319132</v>
+        <v>0.31158</v>
       </c>
       <c r="D106" t="n">
-        <v>0.756235</v>
+        <v>0.75641</v>
       </c>
       <c r="E106" t="n">
-        <v>0.159742</v>
+        <v>0.15275</v>
       </c>
       <c r="F106" t="n">
-        <v>0.205591</v>
+        <v>0.198141</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.307128</v>
+        <v>0.291655</v>
       </c>
       <c r="C107" t="n">
-        <v>0.370042</v>
+        <v>0.366751</v>
       </c>
       <c r="D107" t="n">
-        <v>0.594198</v>
+        <v>0.593681</v>
       </c>
       <c r="E107" t="n">
-        <v>0.174103</v>
+        <v>0.166927</v>
       </c>
       <c r="F107" t="n">
-        <v>0.224243</v>
+        <v>0.219562</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.363043</v>
+        <v>0.364853</v>
       </c>
       <c r="C108" t="n">
-        <v>0.447157</v>
+        <v>0.445526</v>
       </c>
       <c r="D108" t="n">
-        <v>0.617595</v>
+        <v>0.616269</v>
       </c>
       <c r="E108" t="n">
-        <v>0.129082</v>
+        <v>0.124954</v>
       </c>
       <c r="F108" t="n">
-        <v>0.15949</v>
+        <v>0.154154</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.450133</v>
+        <v>0.44676</v>
       </c>
       <c r="C109" t="n">
-        <v>0.5615830000000001</v>
+        <v>0.559745</v>
       </c>
       <c r="D109" t="n">
-        <v>0.6395189999999999</v>
+        <v>0.63907</v>
       </c>
       <c r="E109" t="n">
-        <v>0.131253</v>
+        <v>0.127048</v>
       </c>
       <c r="F109" t="n">
-        <v>0.1633</v>
+        <v>0.159539</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.154819</v>
+        <v>0.151421</v>
       </c>
       <c r="C110" t="n">
-        <v>0.189519</v>
+        <v>0.186603</v>
       </c>
       <c r="D110" t="n">
-        <v>0.6614719999999999</v>
+        <v>0.661904</v>
       </c>
       <c r="E110" t="n">
-        <v>0.134048</v>
+        <v>0.129837</v>
       </c>
       <c r="F110" t="n">
-        <v>0.166992</v>
+        <v>0.16442</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.158538</v>
+        <v>0.155975</v>
       </c>
       <c r="C111" t="n">
-        <v>0.194433</v>
+        <v>0.193283</v>
       </c>
       <c r="D111" t="n">
-        <v>0.687651</v>
+        <v>0.68749</v>
       </c>
       <c r="E111" t="n">
-        <v>0.136207</v>
+        <v>0.133913</v>
       </c>
       <c r="F111" t="n">
-        <v>0.171045</v>
+        <v>0.169533</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.163082</v>
+        <v>0.161879</v>
       </c>
       <c r="C112" t="n">
-        <v>0.202273</v>
+        <v>0.201259</v>
       </c>
       <c r="D112" t="n">
-        <v>0.7133699999999999</v>
+        <v>0.7133659999999999</v>
       </c>
       <c r="E112" t="n">
-        <v>0.138507</v>
+        <v>0.136914</v>
       </c>
       <c r="F112" t="n">
-        <v>0.174688</v>
+        <v>0.17378</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.168392</v>
+        <v>0.167547</v>
       </c>
       <c r="C113" t="n">
-        <v>0.207988</v>
+        <v>0.207376</v>
       </c>
       <c r="D113" t="n">
-        <v>0.740206</v>
+        <v>0.738899</v>
       </c>
       <c r="E113" t="n">
-        <v>0.141474</v>
+        <v>0.140029</v>
       </c>
       <c r="F113" t="n">
-        <v>0.17878</v>
+        <v>0.177792</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.174763</v>
+        <v>0.17395</v>
       </c>
       <c r="C114" t="n">
-        <v>0.218572</v>
+        <v>0.216041</v>
       </c>
       <c r="D114" t="n">
-        <v>0.766764</v>
+        <v>0.767212</v>
       </c>
       <c r="E114" t="n">
-        <v>0.143652</v>
+        <v>0.143509</v>
       </c>
       <c r="F114" t="n">
-        <v>0.183178</v>
+        <v>0.182546</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.182388</v>
+        <v>0.18165</v>
       </c>
       <c r="C115" t="n">
-        <v>0.227639</v>
+        <v>0.226456</v>
       </c>
       <c r="D115" t="n">
-        <v>0.793699</v>
+        <v>0.794196</v>
       </c>
       <c r="E115" t="n">
-        <v>0.14665</v>
+        <v>0.146177</v>
       </c>
       <c r="F115" t="n">
-        <v>0.188056</v>
+        <v>0.187277</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.191822</v>
+        <v>0.191313</v>
       </c>
       <c r="C116" t="n">
-        <v>0.239832</v>
+        <v>0.238955</v>
       </c>
       <c r="D116" t="n">
-        <v>0.821994</v>
+        <v>0.821238</v>
       </c>
       <c r="E116" t="n">
-        <v>0.149934</v>
+        <v>0.149326</v>
       </c>
       <c r="F116" t="n">
-        <v>0.193323</v>
+        <v>0.192427</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.203914</v>
+        <v>0.203302</v>
       </c>
       <c r="C117" t="n">
-        <v>0.256025</v>
+        <v>0.254945</v>
       </c>
       <c r="D117" t="n">
-        <v>0.851566</v>
+        <v>0.849967</v>
       </c>
       <c r="E117" t="n">
-        <v>0.153847</v>
+        <v>0.154095</v>
       </c>
       <c r="F117" t="n">
-        <v>0.199911</v>
+        <v>0.198584</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.219369</v>
+        <v>0.218741</v>
       </c>
       <c r="C118" t="n">
-        <v>0.276529</v>
+        <v>0.275443</v>
       </c>
       <c r="D118" t="n">
-        <v>0.880243</v>
+        <v>0.879895</v>
       </c>
       <c r="E118" t="n">
-        <v>0.158857</v>
+        <v>0.158274</v>
       </c>
       <c r="F118" t="n">
-        <v>0.207368</v>
+        <v>0.206518</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.240254</v>
+        <v>0.239691</v>
       </c>
       <c r="C119" t="n">
-        <v>0.304006</v>
+        <v>0.302842</v>
       </c>
       <c r="D119" t="n">
-        <v>0.911983</v>
+        <v>0.909131</v>
       </c>
       <c r="E119" t="n">
-        <v>0.165266</v>
+        <v>0.164987</v>
       </c>
       <c r="F119" t="n">
-        <v>0.216558</v>
+        <v>0.215861</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.26935</v>
+        <v>0.268734</v>
       </c>
       <c r="C120" t="n">
-        <v>0.341183</v>
+        <v>0.340136</v>
       </c>
       <c r="D120" t="n">
-        <v>0.944621</v>
+        <v>0.942106</v>
       </c>
       <c r="E120" t="n">
-        <v>0.174598</v>
+        <v>0.173973</v>
       </c>
       <c r="F120" t="n">
-        <v>0.229763</v>
+        <v>0.228652</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.315599</v>
+        <v>0.309811</v>
       </c>
       <c r="C121" t="n">
-        <v>0.396869</v>
+        <v>0.393959</v>
       </c>
       <c r="D121" t="n">
-        <v>0.683569</v>
+        <v>0.6824210000000001</v>
       </c>
       <c r="E121" t="n">
-        <v>0.188549</v>
+        <v>0.188115</v>
       </c>
       <c r="F121" t="n">
-        <v>0.248646</v>
+        <v>0.248123</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.372458</v>
+        <v>0.376635</v>
       </c>
       <c r="C122" t="n">
-        <v>0.483687</v>
+        <v>0.474148</v>
       </c>
       <c r="D122" t="n">
-        <v>0.705874</v>
+        <v>0.70411</v>
       </c>
       <c r="E122" t="n">
-        <v>0.211729</v>
+        <v>0.211456</v>
       </c>
       <c r="F122" t="n">
-        <v>0.279252</v>
+        <v>0.278681</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.473987</v>
+        <v>0.470423</v>
       </c>
       <c r="C123" t="n">
-        <v>0.598539</v>
+        <v>0.595743</v>
       </c>
       <c r="D123" t="n">
-        <v>0.728479</v>
+        <v>0.726752</v>
       </c>
       <c r="E123" t="n">
-        <v>0.146641</v>
+        <v>0.149508</v>
       </c>
       <c r="F123" t="n">
-        <v>0.185066</v>
+        <v>0.184428</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.16926</v>
+        <v>0.168995</v>
       </c>
       <c r="C124" t="n">
-        <v>0.21224</v>
+        <v>0.213324</v>
       </c>
       <c r="D124" t="n">
-        <v>0.752739</v>
+        <v>0.750758</v>
       </c>
       <c r="E124" t="n">
-        <v>0.153135</v>
+        <v>0.148135</v>
       </c>
       <c r="F124" t="n">
-        <v>0.190246</v>
+        <v>0.190476</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.173153</v>
+        <v>0.172332</v>
       </c>
       <c r="C125" t="n">
-        <v>0.215612</v>
+        <v>0.215136</v>
       </c>
       <c r="D125" t="n">
-        <v>0.77793</v>
+        <v>0.775572</v>
       </c>
       <c r="E125" t="n">
-        <v>0.149804</v>
+        <v>0.150413</v>
       </c>
       <c r="F125" t="n">
-        <v>0.190012</v>
+        <v>0.192997</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.180774</v>
+        <v>0.181181</v>
       </c>
       <c r="C126" t="n">
-        <v>0.221727</v>
+        <v>0.224367</v>
       </c>
       <c r="D126" t="n">
-        <v>0.804163</v>
+        <v>0.801238</v>
       </c>
       <c r="E126" t="n">
-        <v>0.152283</v>
+        <v>0.153705</v>
       </c>
       <c r="F126" t="n">
-        <v>0.197202</v>
+        <v>0.196778</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.183416</v>
+        <v>0.182519</v>
       </c>
       <c r="C127" t="n">
-        <v>0.230848</v>
+        <v>0.229524</v>
       </c>
       <c r="D127" t="n">
-        <v>0.830915</v>
+        <v>0.8284899999999999</v>
       </c>
       <c r="E127" t="n">
-        <v>0.155153</v>
+        <v>0.154779</v>
       </c>
       <c r="F127" t="n">
-        <v>0.202525</v>
+        <v>0.199003</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.188385</v>
+        <v>0.191256</v>
       </c>
       <c r="C128" t="n">
-        <v>0.239511</v>
+        <v>0.238616</v>
       </c>
       <c r="D128" t="n">
-        <v>0.858599</v>
+        <v>0.856209</v>
       </c>
       <c r="E128" t="n">
-        <v>0.161339</v>
+        <v>0.157699</v>
       </c>
       <c r="F128" t="n">
-        <v>0.208455</v>
+        <v>0.205114</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.198117</v>
+        <v>0.198398</v>
       </c>
       <c r="C129" t="n">
-        <v>0.249568</v>
+        <v>0.250025</v>
       </c>
       <c r="D129" t="n">
-        <v>0.88734</v>
+        <v>0.885036</v>
       </c>
       <c r="E129" t="n">
-        <v>0.16378</v>
+        <v>0.164328</v>
       </c>
       <c r="F129" t="n">
-        <v>0.21171</v>
+        <v>0.211748</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.208587</v>
+        <v>0.205909</v>
       </c>
       <c r="C130" t="n">
-        <v>0.262955</v>
+        <v>0.264371</v>
       </c>
       <c r="D130" t="n">
-        <v>0.917223</v>
+        <v>0.914512</v>
       </c>
       <c r="E130" t="n">
-        <v>0.163407</v>
+        <v>0.162267</v>
       </c>
       <c r="F130" t="n">
-        <v>0.216746</v>
+        <v>0.220439</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.219144</v>
+        <v>0.219331</v>
       </c>
       <c r="C131" t="n">
-        <v>0.28583</v>
+        <v>0.281182</v>
       </c>
       <c r="D131" t="n">
-        <v>0.94731</v>
+        <v>0.944973</v>
       </c>
       <c r="E131" t="n">
-        <v>0.169731</v>
+        <v>0.167351</v>
       </c>
       <c r="F131" t="n">
-        <v>0.224644</v>
+        <v>0.22428</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.233654</v>
+        <v>0.234684</v>
       </c>
       <c r="C132" t="n">
-        <v>0.303017</v>
+        <v>0.303892</v>
       </c>
       <c r="D132" t="n">
-        <v>0.979282</v>
+        <v>0.9757209999999999</v>
       </c>
       <c r="E132" t="n">
-        <v>0.173823</v>
+        <v>0.173316</v>
       </c>
       <c r="F132" t="n">
-        <v>0.236584</v>
+        <v>0.235234</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.257627</v>
+        <v>0.256141</v>
       </c>
       <c r="C133" t="n">
-        <v>0.331551</v>
+        <v>0.330048</v>
       </c>
       <c r="D133" t="n">
-        <v>1.0116</v>
+        <v>1.00775</v>
       </c>
       <c r="E133" t="n">
-        <v>0.179297</v>
+        <v>0.177448</v>
       </c>
       <c r="F133" t="n">
-        <v>0.240728</v>
+        <v>0.244643</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.286939</v>
+        <v>0.282762</v>
       </c>
       <c r="C134" t="n">
-        <v>0.368619</v>
+        <v>0.37385</v>
       </c>
       <c r="D134" t="n">
-        <v>1.04454</v>
+        <v>1.04044</v>
       </c>
       <c r="E134" t="n">
-        <v>0.189065</v>
+        <v>0.188954</v>
       </c>
       <c r="F134" t="n">
-        <v>0.257097</v>
+        <v>0.256544</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.324738</v>
+        <v>0.325289</v>
       </c>
       <c r="C135" t="n">
-        <v>0.424301</v>
+        <v>0.427968</v>
       </c>
       <c r="D135" t="n">
-        <v>0.7009030000000001</v>
+        <v>0.698011</v>
       </c>
       <c r="E135" t="n">
-        <v>0.201778</v>
+        <v>0.202355</v>
       </c>
       <c r="F135" t="n">
-        <v>0.275524</v>
+        <v>0.278107</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.381444</v>
+        <v>0.389258</v>
       </c>
       <c r="C136" t="n">
-        <v>0.507969</v>
+        <v>0.505543</v>
       </c>
       <c r="D136" t="n">
-        <v>0.719042</v>
+        <v>0.71648</v>
       </c>
       <c r="E136" t="n">
-        <v>0.222649</v>
+        <v>0.223329</v>
       </c>
       <c r="F136" t="n">
-        <v>0.305598</v>
+        <v>0.304825</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.482353</v>
+        <v>0.476846</v>
       </c>
       <c r="C137" t="n">
-        <v>0.629258</v>
+        <v>0.63161</v>
       </c>
       <c r="D137" t="n">
-        <v>0.737899</v>
+        <v>0.735202</v>
       </c>
       <c r="E137" t="n">
-        <v>0.27607</v>
+        <v>0.278111</v>
       </c>
       <c r="F137" t="n">
-        <v>0.322645</v>
+        <v>0.322047</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.314108</v>
+        <v>0.316825</v>
       </c>
       <c r="C138" t="n">
-        <v>0.357654</v>
+        <v>0.356243</v>
       </c>
       <c r="D138" t="n">
-        <v>0.758773</v>
+        <v>0.755259</v>
       </c>
       <c r="E138" t="n">
-        <v>0.277954</v>
+        <v>0.277948</v>
       </c>
       <c r="F138" t="n">
-        <v>0.327675</v>
+        <v>0.328309</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.321323</v>
+        <v>0.318085</v>
       </c>
       <c r="C139" t="n">
-        <v>0.363635</v>
+        <v>0.364237</v>
       </c>
       <c r="D139" t="n">
-        <v>0.779991</v>
+        <v>0.776293</v>
       </c>
       <c r="E139" t="n">
-        <v>0.281569</v>
+        <v>0.281991</v>
       </c>
       <c r="F139" t="n">
-        <v>0.332512</v>
+        <v>0.330265</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.326333</v>
+        <v>0.321298</v>
       </c>
       <c r="C140" t="n">
-        <v>0.373185</v>
+        <v>0.37243</v>
       </c>
       <c r="D140" t="n">
-        <v>0.801628</v>
+        <v>0.797655</v>
       </c>
       <c r="E140" t="n">
-        <v>0.284559</v>
+        <v>0.283389</v>
       </c>
       <c r="F140" t="n">
-        <v>0.338253</v>
+        <v>0.33806</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.327591</v>
+        <v>0.327185</v>
       </c>
       <c r="C141" t="n">
-        <v>0.379817</v>
+        <v>0.377881</v>
       </c>
       <c r="D141" t="n">
-        <v>0.824173</v>
+        <v>0.820397</v>
       </c>
       <c r="E141" t="n">
-        <v>0.286187</v>
+        <v>0.28453</v>
       </c>
       <c r="F141" t="n">
-        <v>0.343384</v>
+        <v>0.343618</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.338226</v>
+        <v>0.332989</v>
       </c>
       <c r="C142" t="n">
-        <v>0.391751</v>
+        <v>0.387276</v>
       </c>
       <c r="D142" t="n">
-        <v>0.848237</v>
+        <v>0.844361</v>
       </c>
       <c r="E142" t="n">
-        <v>0.291221</v>
+        <v>0.289014</v>
       </c>
       <c r="F142" t="n">
-        <v>0.350334</v>
+        <v>0.345884</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.34254</v>
+        <v>0.339463</v>
       </c>
       <c r="C143" t="n">
-        <v>0.401533</v>
+        <v>0.399613</v>
       </c>
       <c r="D143" t="n">
-        <v>0.873367</v>
+        <v>0.868805</v>
       </c>
       <c r="E143" t="n">
-        <v>0.289508</v>
+        <v>0.287989</v>
       </c>
       <c r="F143" t="n">
-        <v>0.357176</v>
+        <v>0.353622</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Scattered unsuccessful looukp.xlsx
+++ b/clang-x86/Scattered unsuccessful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0951376</v>
+        <v>0.09514300000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>0.09767389999999999</v>
+        <v>0.0980737</v>
       </c>
       <c r="D2" t="n">
-        <v>0.185494</v>
+        <v>0.186138</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0836644</v>
+        <v>0.0837145</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0842753</v>
+        <v>0.08437799999999999</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.102627</v>
+        <v>0.102575</v>
       </c>
       <c r="C3" t="n">
-        <v>0.104787</v>
+        <v>0.104455</v>
       </c>
       <c r="D3" t="n">
-        <v>0.19398</v>
+        <v>0.193627</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0845064</v>
+        <v>0.0845114</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0849588</v>
+        <v>0.0850645</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.11217</v>
+        <v>0.11198</v>
       </c>
       <c r="C4" t="n">
-        <v>0.112713</v>
+        <v>0.112835</v>
       </c>
       <c r="D4" t="n">
-        <v>0.201824</v>
+        <v>0.201432</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0856741</v>
+        <v>0.0856888</v>
       </c>
       <c r="F4" t="n">
-        <v>0.08617519999999999</v>
+        <v>0.0863546</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.131748</v>
+        <v>0.132086</v>
       </c>
       <c r="C5" t="n">
-        <v>0.131646</v>
+        <v>0.131594</v>
       </c>
       <c r="D5" t="n">
-        <v>0.209798</v>
+        <v>0.208653</v>
       </c>
       <c r="E5" t="n">
-        <v>0.08719689999999999</v>
+        <v>0.0871676</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0877386</v>
+        <v>0.0876861</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.159795</v>
+        <v>0.159235</v>
       </c>
       <c r="C6" t="n">
-        <v>0.164252</v>
+        <v>0.163859</v>
       </c>
       <c r="D6" t="n">
-        <v>0.215157</v>
+        <v>0.215464</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0891</v>
+        <v>0.08907669999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>0.08941830000000001</v>
+        <v>0.0895343</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.189463</v>
+        <v>0.189226</v>
       </c>
       <c r="C7" t="n">
-        <v>0.191634</v>
+        <v>0.202328</v>
       </c>
       <c r="D7" t="n">
-        <v>0.161548</v>
+        <v>0.162016</v>
       </c>
       <c r="E7" t="n">
-        <v>0.09526949999999999</v>
+        <v>0.0954735</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0948616</v>
+        <v>0.0945476</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.228798</v>
+        <v>0.228696</v>
       </c>
       <c r="C8" t="n">
-        <v>0.22482</v>
+        <v>0.232322</v>
       </c>
       <c r="D8" t="n">
-        <v>0.168852</v>
+        <v>0.169731</v>
       </c>
       <c r="E8" t="n">
-        <v>0.107038</v>
+        <v>0.107532</v>
       </c>
       <c r="F8" t="n">
-        <v>0.106859</v>
+        <v>0.108385</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.272064</v>
+        <v>0.2851</v>
       </c>
       <c r="C9" t="n">
-        <v>0.268256</v>
+        <v>0.267695</v>
       </c>
       <c r="D9" t="n">
-        <v>0.176222</v>
+        <v>0.176981</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0820207</v>
+        <v>0.0820525</v>
       </c>
       <c r="F9" t="n">
-        <v>0.08283459999999999</v>
+        <v>0.08276219999999999</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0861729</v>
+        <v>0.0861686</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0870794</v>
+        <v>0.0870088</v>
       </c>
       <c r="D10" t="n">
-        <v>0.183007</v>
+        <v>0.183963</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0821754</v>
+        <v>0.08219</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0832579</v>
+        <v>0.0831769</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0865998</v>
+        <v>0.0866571</v>
       </c>
       <c r="C11" t="n">
-        <v>0.08817700000000001</v>
+        <v>0.0882844</v>
       </c>
       <c r="D11" t="n">
-        <v>0.190944</v>
+        <v>0.190135</v>
       </c>
       <c r="E11" t="n">
-        <v>0.08262269999999999</v>
+        <v>0.08264489999999999</v>
       </c>
       <c r="F11" t="n">
-        <v>0.08374379999999999</v>
+        <v>0.0836109</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0881429</v>
+        <v>0.0880601</v>
       </c>
       <c r="C12" t="n">
-        <v>0.09000569999999999</v>
+        <v>0.0899718</v>
       </c>
       <c r="D12" t="n">
-        <v>0.197837</v>
+        <v>0.198678</v>
       </c>
       <c r="E12" t="n">
-        <v>0.082971</v>
+        <v>0.0828754</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0839608</v>
+        <v>0.0839863</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0899451</v>
+        <v>0.0900041</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0918113</v>
+        <v>0.0917239</v>
       </c>
       <c r="D13" t="n">
-        <v>0.204318</v>
+        <v>0.204681</v>
       </c>
       <c r="E13" t="n">
-        <v>0.08306810000000001</v>
+        <v>0.0832353</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08422109999999999</v>
+        <v>0.08430749999999999</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0916759</v>
+        <v>0.09209489999999999</v>
       </c>
       <c r="C14" t="n">
-        <v>0.09397030000000001</v>
+        <v>0.0938533</v>
       </c>
       <c r="D14" t="n">
-        <v>0.210131</v>
+        <v>0.212101</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0833002</v>
+        <v>0.0834886</v>
       </c>
       <c r="F14" t="n">
-        <v>0.08435520000000001</v>
+        <v>0.08446140000000001</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0952469</v>
+        <v>0.09475939999999999</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0974729</v>
+        <v>0.09742290000000001</v>
       </c>
       <c r="D15" t="n">
-        <v>0.220719</v>
+        <v>0.220188</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0840432</v>
+        <v>0.08389969999999999</v>
       </c>
       <c r="F15" t="n">
-        <v>0.085211</v>
+        <v>0.08521280000000001</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.100669</v>
+        <v>0.101448</v>
       </c>
       <c r="C16" t="n">
-        <v>0.101819</v>
+        <v>0.10397</v>
       </c>
       <c r="D16" t="n">
-        <v>0.227487</v>
+        <v>0.226874</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0843491</v>
+        <v>0.0843622</v>
       </c>
       <c r="F16" t="n">
-        <v>0.085539</v>
+        <v>0.0856687</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.109615</v>
+        <v>0.10993</v>
       </c>
       <c r="C17" t="n">
-        <v>0.110708</v>
+        <v>0.110999</v>
       </c>
       <c r="D17" t="n">
-        <v>0.232983</v>
+        <v>0.234098</v>
       </c>
       <c r="E17" t="n">
-        <v>0.08541609999999999</v>
+        <v>0.0854823</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0870421</v>
+        <v>0.0866513</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.120137</v>
+        <v>0.120467</v>
       </c>
       <c r="C18" t="n">
-        <v>0.123157</v>
+        <v>0.122388</v>
       </c>
       <c r="D18" t="n">
-        <v>0.238613</v>
+        <v>0.238283</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0867174</v>
+        <v>0.0866966</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0882469</v>
+        <v>0.0887927</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.134792</v>
+        <v>0.135289</v>
       </c>
       <c r="C19" t="n">
-        <v>0.137776</v>
+        <v>0.14171</v>
       </c>
       <c r="D19" t="n">
-        <v>0.245164</v>
+        <v>0.245846</v>
       </c>
       <c r="E19" t="n">
-        <v>0.08851879999999999</v>
+        <v>0.0885222</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0902493</v>
+        <v>0.0902255</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.154359</v>
+        <v>0.156462</v>
       </c>
       <c r="C20" t="n">
-        <v>0.157997</v>
+        <v>0.163053</v>
       </c>
       <c r="D20" t="n">
-        <v>0.252154</v>
+        <v>0.251902</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0915584</v>
+        <v>0.0916611</v>
       </c>
       <c r="F20" t="n">
-        <v>0.093</v>
+        <v>0.0940255</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.184094</v>
+        <v>0.194681</v>
       </c>
       <c r="C21" t="n">
-        <v>0.183468</v>
+        <v>0.183639</v>
       </c>
       <c r="D21" t="n">
-        <v>0.182196</v>
+        <v>0.181962</v>
       </c>
       <c r="E21" t="n">
-        <v>0.09740459999999999</v>
+        <v>0.0974971</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0994331</v>
+        <v>0.0995048</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.216689</v>
+        <v>0.217723</v>
       </c>
       <c r="C22" t="n">
-        <v>0.22005</v>
+        <v>0.225332</v>
       </c>
       <c r="D22" t="n">
-        <v>0.189529</v>
+        <v>0.190573</v>
       </c>
       <c r="E22" t="n">
-        <v>0.109753</v>
+        <v>0.112525</v>
       </c>
       <c r="F22" t="n">
-        <v>0.111121</v>
+        <v>0.111801</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.262372</v>
+        <v>0.274126</v>
       </c>
       <c r="C23" t="n">
-        <v>0.260146</v>
+        <v>0.273241</v>
       </c>
       <c r="D23" t="n">
-        <v>0.199188</v>
+        <v>0.198072</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0830149</v>
+        <v>0.0833293</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0844599</v>
+        <v>0.0845096</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.09028940000000001</v>
+        <v>0.0903405</v>
       </c>
       <c r="C24" t="n">
-        <v>0.09198340000000001</v>
+        <v>0.0933496</v>
       </c>
       <c r="D24" t="n">
-        <v>0.206643</v>
+        <v>0.205239</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0832022</v>
+        <v>0.0835074</v>
       </c>
       <c r="F24" t="n">
-        <v>0.08472780000000001</v>
+        <v>0.08500480000000001</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0913021</v>
+        <v>0.091742</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0931979</v>
+        <v>0.0933858</v>
       </c>
       <c r="D25" t="n">
-        <v>0.215031</v>
+        <v>0.212723</v>
       </c>
       <c r="E25" t="n">
-        <v>0.083467</v>
+        <v>0.08348270000000001</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0850853</v>
+        <v>0.0853445</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0928683</v>
+        <v>0.0930607</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0944282</v>
+        <v>0.0943293</v>
       </c>
       <c r="D26" t="n">
-        <v>0.22164</v>
+        <v>0.220443</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0838416</v>
+        <v>0.0838315</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0854502</v>
+        <v>0.0854612</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0943315</v>
+        <v>0.09586260000000001</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0963246</v>
+        <v>0.096149</v>
       </c>
       <c r="D27" t="n">
-        <v>0.229165</v>
+        <v>0.228077</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0842835</v>
+        <v>0.08431039999999999</v>
       </c>
       <c r="F27" t="n">
-        <v>0.08608109999999999</v>
+        <v>0.08598409999999999</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0971342</v>
+        <v>0.09707109999999999</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0988808</v>
+        <v>0.0987114</v>
       </c>
       <c r="D28" t="n">
-        <v>0.235511</v>
+        <v>0.234547</v>
       </c>
       <c r="E28" t="n">
-        <v>0.08473849999999999</v>
+        <v>0.0848127</v>
       </c>
       <c r="F28" t="n">
-        <v>0.08673210000000001</v>
+        <v>0.086658</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.100607</v>
+        <v>0.101241</v>
       </c>
       <c r="C29" t="n">
-        <v>0.103701</v>
+        <v>0.103976</v>
       </c>
       <c r="D29" t="n">
-        <v>0.241797</v>
+        <v>0.24182</v>
       </c>
       <c r="E29" t="n">
-        <v>0.08524</v>
+        <v>0.08523029999999999</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0872416</v>
+        <v>0.0882264</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.106015</v>
+        <v>0.107833</v>
       </c>
       <c r="C30" t="n">
-        <v>0.109768</v>
+        <v>0.109723</v>
       </c>
       <c r="D30" t="n">
-        <v>0.247186</v>
+        <v>0.246512</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0859458</v>
+        <v>0.0859779</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0881122</v>
+        <v>0.0884273</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.113366</v>
+        <v>0.117136</v>
       </c>
       <c r="C31" t="n">
-        <v>0.11404</v>
+        <v>0.116841</v>
       </c>
       <c r="D31" t="n">
-        <v>0.252269</v>
+        <v>0.252303</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0870321</v>
+        <v>0.08707479999999999</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0891952</v>
+        <v>0.0893969</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.121359</v>
+        <v>0.125901</v>
       </c>
       <c r="C32" t="n">
-        <v>0.125458</v>
+        <v>0.125029</v>
       </c>
       <c r="D32" t="n">
-        <v>0.258094</v>
+        <v>0.257522</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0885893</v>
+        <v>0.0886434</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09095019999999999</v>
+        <v>0.09105870000000001</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.134895</v>
+        <v>0.13491</v>
       </c>
       <c r="C33" t="n">
-        <v>0.13733</v>
+        <v>0.137891</v>
       </c>
       <c r="D33" t="n">
-        <v>0.263953</v>
+        <v>0.263926</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0910707</v>
+        <v>0.091047</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0936215</v>
+        <v>0.09372809999999999</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.15032</v>
+        <v>0.150391</v>
       </c>
       <c r="C34" t="n">
-        <v>0.153417</v>
+        <v>0.157159</v>
       </c>
       <c r="D34" t="n">
-        <v>0.270974</v>
+        <v>0.269972</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0949376</v>
+        <v>0.0949776</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0976446</v>
+        <v>0.0977706</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.176336</v>
+        <v>0.176342</v>
       </c>
       <c r="C35" t="n">
-        <v>0.17707</v>
+        <v>0.18397</v>
       </c>
       <c r="D35" t="n">
-        <v>0.19661</v>
+        <v>0.195863</v>
       </c>
       <c r="E35" t="n">
-        <v>0.102028</v>
+        <v>0.102086</v>
       </c>
       <c r="F35" t="n">
-        <v>0.104972</v>
+        <v>0.105228</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.208865</v>
+        <v>0.208702</v>
       </c>
       <c r="C36" t="n">
-        <v>0.209937</v>
+        <v>0.219832</v>
       </c>
       <c r="D36" t="n">
-        <v>0.203949</v>
+        <v>0.203338</v>
       </c>
       <c r="E36" t="n">
-        <v>0.113721</v>
+        <v>0.113851</v>
       </c>
       <c r="F36" t="n">
-        <v>0.11613</v>
+        <v>0.116339</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.252713</v>
+        <v>0.263473</v>
       </c>
       <c r="C37" t="n">
-        <v>0.254998</v>
+        <v>0.25386</v>
       </c>
       <c r="D37" t="n">
-        <v>0.212175</v>
+        <v>0.211792</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0837162</v>
+        <v>0.08484899999999999</v>
       </c>
       <c r="F37" t="n">
-        <v>0.085837</v>
+        <v>0.0863585</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.09218129999999999</v>
+        <v>0.092629</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0944436</v>
+        <v>0.09485830000000001</v>
       </c>
       <c r="D38" t="n">
-        <v>0.218689</v>
+        <v>0.218555</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0839555</v>
+        <v>0.0841643</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0862856</v>
+        <v>0.08666359999999999</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0934304</v>
+        <v>0.09344959999999999</v>
       </c>
       <c r="C39" t="n">
-        <v>0.09587710000000001</v>
+        <v>0.09621349999999999</v>
       </c>
       <c r="D39" t="n">
-        <v>0.226159</v>
+        <v>0.226103</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0842233</v>
+        <v>0.085397</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0866857</v>
+        <v>0.08784169999999999</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0945931</v>
+        <v>0.0947301</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0977093</v>
+        <v>0.0976141</v>
       </c>
       <c r="D40" t="n">
-        <v>0.233707</v>
+        <v>0.233625</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0846707</v>
+        <v>0.08491700000000001</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0872425</v>
+        <v>0.087478</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0967098</v>
+        <v>0.09681149999999999</v>
       </c>
       <c r="C41" t="n">
-        <v>0.100169</v>
+        <v>0.101671</v>
       </c>
       <c r="D41" t="n">
-        <v>0.240116</v>
+        <v>0.240298</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0849086</v>
+        <v>0.0854647</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0878287</v>
+        <v>0.0879534</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0996548</v>
+        <v>0.09981859999999999</v>
       </c>
       <c r="C42" t="n">
-        <v>0.103272</v>
+        <v>0.103677</v>
       </c>
       <c r="D42" t="n">
-        <v>0.246977</v>
+        <v>0.247419</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0853541</v>
+        <v>0.0863223</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08844399999999999</v>
+        <v>0.08908389999999999</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.103978</v>
+        <v>0.106281</v>
       </c>
       <c r="C43" t="n">
-        <v>0.107418</v>
+        <v>0.107408</v>
       </c>
       <c r="D43" t="n">
-        <v>0.253472</v>
+        <v>0.253196</v>
       </c>
       <c r="E43" t="n">
-        <v>0.08583739999999999</v>
+        <v>0.08636969999999999</v>
       </c>
       <c r="F43" t="n">
-        <v>0.08923200000000001</v>
+        <v>0.0897241</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.108739</v>
+        <v>0.11174</v>
       </c>
       <c r="C44" t="n">
-        <v>0.112597</v>
+        <v>0.112479</v>
       </c>
       <c r="D44" t="n">
-        <v>0.25971</v>
+        <v>0.25934</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0866123</v>
+        <v>0.08720840000000001</v>
       </c>
       <c r="F44" t="n">
-        <v>0.090116</v>
+        <v>0.0903124</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.115157</v>
+        <v>0.115192</v>
       </c>
       <c r="C45" t="n">
-        <v>0.118914</v>
+        <v>0.121306</v>
       </c>
       <c r="D45" t="n">
-        <v>0.265643</v>
+        <v>0.265826</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0878148</v>
+        <v>0.0882805</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0915328</v>
+        <v>0.0915353</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.123563</v>
+        <v>0.123572</v>
       </c>
       <c r="C46" t="n">
-        <v>0.128213</v>
+        <v>0.12855</v>
       </c>
       <c r="D46" t="n">
-        <v>0.271491</v>
+        <v>0.27176</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0893076</v>
+        <v>0.0896776</v>
       </c>
       <c r="F46" t="n">
-        <v>0.09322519999999999</v>
+        <v>0.0931463</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.134609</v>
+        <v>0.134629</v>
       </c>
       <c r="C47" t="n">
-        <v>0.139285</v>
+        <v>0.139758</v>
       </c>
       <c r="D47" t="n">
-        <v>0.276918</v>
+        <v>0.27725</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0917197</v>
+        <v>0.09152689999999999</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0957406</v>
+        <v>0.0958912</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.150464</v>
+        <v>0.150339</v>
       </c>
       <c r="C48" t="n">
-        <v>0.154085</v>
+        <v>0.154376</v>
       </c>
       <c r="D48" t="n">
-        <v>0.282846</v>
+        <v>0.282829</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0951279</v>
+        <v>0.0952645</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0995123</v>
+        <v>0.0994617</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.173171</v>
+        <v>0.173105</v>
       </c>
       <c r="C49" t="n">
-        <v>0.175727</v>
+        <v>0.175833</v>
       </c>
       <c r="D49" t="n">
-        <v>0.288763</v>
+        <v>0.289164</v>
       </c>
       <c r="E49" t="n">
-        <v>0.100855</v>
+        <v>0.100874</v>
       </c>
       <c r="F49" t="n">
-        <v>0.105058</v>
+        <v>0.106642</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.204682</v>
+        <v>0.214646</v>
       </c>
       <c r="C50" t="n">
-        <v>0.20617</v>
+        <v>0.205055</v>
       </c>
       <c r="D50" t="n">
-        <v>0.203327</v>
+        <v>0.203162</v>
       </c>
       <c r="E50" t="n">
-        <v>0.110822</v>
+        <v>0.110848</v>
       </c>
       <c r="F50" t="n">
-        <v>0.114887</v>
+        <v>0.114849</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.243934</v>
+        <v>0.243668</v>
       </c>
       <c r="C51" t="n">
-        <v>0.247526</v>
+        <v>0.258021</v>
       </c>
       <c r="D51" t="n">
-        <v>0.210652</v>
+        <v>0.209865</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0858486</v>
+        <v>0.0868062</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0890571</v>
+        <v>0.0900577</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.291132</v>
+        <v>0.290761</v>
       </c>
       <c r="C52" t="n">
-        <v>0.293443</v>
+        <v>0.293596</v>
       </c>
       <c r="D52" t="n">
-        <v>0.217057</v>
+        <v>0.216997</v>
       </c>
       <c r="E52" t="n">
-        <v>0.085979</v>
+        <v>0.0863285</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0900603</v>
+        <v>0.08996170000000001</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0957466</v>
+        <v>0.0972056</v>
       </c>
       <c r="C53" t="n">
-        <v>0.101541</v>
+        <v>0.100428</v>
       </c>
       <c r="D53" t="n">
-        <v>0.224791</v>
+        <v>0.224888</v>
       </c>
       <c r="E53" t="n">
-        <v>0.086853</v>
+        <v>0.08701739999999999</v>
       </c>
       <c r="F53" t="n">
-        <v>0.09017269999999999</v>
+        <v>0.0900072</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.098036</v>
+        <v>0.09794029999999999</v>
       </c>
       <c r="C54" t="n">
-        <v>0.102273</v>
+        <v>0.102199</v>
       </c>
       <c r="D54" t="n">
-        <v>0.231956</v>
+        <v>0.23176</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0868623</v>
+        <v>0.08759</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0908065</v>
+        <v>0.0913467</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.100141</v>
+        <v>0.10098</v>
       </c>
       <c r="C55" t="n">
-        <v>0.104061</v>
+        <v>0.105292</v>
       </c>
       <c r="D55" t="n">
-        <v>0.238625</v>
+        <v>0.238395</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0875678</v>
+        <v>0.08674370000000001</v>
       </c>
       <c r="F55" t="n">
-        <v>0.09118800000000001</v>
+        <v>0.0911375</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.102615</v>
+        <v>0.103798</v>
       </c>
       <c r="C56" t="n">
-        <v>0.107418</v>
+        <v>0.107769</v>
       </c>
       <c r="D56" t="n">
-        <v>0.245052</v>
+        <v>0.244755</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0868355</v>
+        <v>0.08793670000000001</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0915723</v>
+        <v>0.0926916</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.106086</v>
+        <v>0.106825</v>
       </c>
       <c r="C57" t="n">
-        <v>0.111999</v>
+        <v>0.113344</v>
       </c>
       <c r="D57" t="n">
-        <v>0.250915</v>
+        <v>0.250803</v>
       </c>
       <c r="E57" t="n">
-        <v>0.08777310000000001</v>
+        <v>0.0895239</v>
       </c>
       <c r="F57" t="n">
-        <v>0.0930681</v>
+        <v>0.0933457</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.110654</v>
+        <v>0.113425</v>
       </c>
       <c r="C58" t="n">
-        <v>0.116478</v>
+        <v>0.118041</v>
       </c>
       <c r="D58" t="n">
         <v>0.256301</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0885642</v>
+        <v>0.0898718</v>
       </c>
       <c r="F58" t="n">
-        <v>0.093915</v>
+        <v>0.094388</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.11761</v>
+        <v>0.119716</v>
       </c>
       <c r="C59" t="n">
-        <v>0.121737</v>
+        <v>0.123582</v>
       </c>
       <c r="D59" t="n">
-        <v>0.26219</v>
+        <v>0.262946</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0906705</v>
+        <v>0.09065579999999999</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0945367</v>
+        <v>0.0956592</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.125432</v>
+        <v>0.127168</v>
       </c>
       <c r="C60" t="n">
-        <v>0.129601</v>
+        <v>0.129826</v>
       </c>
       <c r="D60" t="n">
-        <v>0.267116</v>
+        <v>0.267693</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0912931</v>
+        <v>0.09157220000000001</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0967187</v>
+        <v>0.0973931</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.135663</v>
+        <v>0.140155</v>
       </c>
       <c r="C61" t="n">
-        <v>0.144818</v>
+        <v>0.142924</v>
       </c>
       <c r="D61" t="n">
-        <v>0.272649</v>
+        <v>0.272929</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0930826</v>
+        <v>0.09384919999999999</v>
       </c>
       <c r="F61" t="n">
-        <v>0.0991059</v>
+        <v>0.09939149999999999</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.149085</v>
+        <v>0.152345</v>
       </c>
       <c r="C62" t="n">
-        <v>0.155171</v>
+        <v>0.158576</v>
       </c>
       <c r="D62" t="n">
-        <v>0.27918</v>
+        <v>0.279857</v>
       </c>
       <c r="E62" t="n">
-        <v>0.09643259999999999</v>
+        <v>0.0977137</v>
       </c>
       <c r="F62" t="n">
-        <v>0.102798</v>
+        <v>0.103698</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.168983</v>
+        <v>0.175835</v>
       </c>
       <c r="C63" t="n">
-        <v>0.17505</v>
+        <v>0.175625</v>
       </c>
       <c r="D63" t="n">
-        <v>0.285297</v>
+        <v>0.284823</v>
       </c>
       <c r="E63" t="n">
-        <v>0.101846</v>
+        <v>0.10225</v>
       </c>
       <c r="F63" t="n">
-        <v>0.108119</v>
+        <v>0.108824</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.19753</v>
+        <v>0.204383</v>
       </c>
       <c r="C64" t="n">
-        <v>0.205437</v>
+        <v>0.203416</v>
       </c>
       <c r="D64" t="n">
-        <v>0.20966</v>
+        <v>0.211307</v>
       </c>
       <c r="E64" t="n">
-        <v>0.112742</v>
+        <v>0.111334</v>
       </c>
       <c r="F64" t="n">
-        <v>0.117525</v>
+        <v>0.116775</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.23698</v>
+        <v>0.244924</v>
       </c>
       <c r="C65" t="n">
-        <v>0.244617</v>
+        <v>0.244229</v>
       </c>
       <c r="D65" t="n">
-        <v>0.21707</v>
+        <v>0.216888</v>
       </c>
       <c r="E65" t="n">
-        <v>0.124928</v>
+        <v>0.126792</v>
       </c>
       <c r="F65" t="n">
-        <v>0.130775</v>
+        <v>0.130502</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.286175</v>
+        <v>0.290506</v>
       </c>
       <c r="C66" t="n">
-        <v>0.293273</v>
+        <v>0.296037</v>
       </c>
       <c r="D66" t="n">
-        <v>0.224281</v>
+        <v>0.223559</v>
       </c>
       <c r="E66" t="n">
-        <v>0.0935465</v>
+        <v>0.0936229</v>
       </c>
       <c r="F66" t="n">
-        <v>0.09746</v>
+        <v>0.0982039</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.106377</v>
+        <v>0.107891</v>
       </c>
       <c r="C67" t="n">
-        <v>0.112796</v>
+        <v>0.112751</v>
       </c>
       <c r="D67" t="n">
-        <v>0.236096</v>
+        <v>0.235002</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0942419</v>
+        <v>0.0934422</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09833790000000001</v>
+        <v>0.098369</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.109534</v>
+        <v>0.109948</v>
       </c>
       <c r="C68" t="n">
-        <v>0.114184</v>
+        <v>0.113462</v>
       </c>
       <c r="D68" t="n">
-        <v>0.241086</v>
+        <v>0.242837</v>
       </c>
       <c r="E68" t="n">
-        <v>0.093639</v>
+        <v>0.0949094</v>
       </c>
       <c r="F68" t="n">
-        <v>0.0987599</v>
+        <v>0.09848270000000001</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.111254</v>
+        <v>0.113199</v>
       </c>
       <c r="C69" t="n">
-        <v>0.116459</v>
+        <v>0.11787</v>
       </c>
       <c r="D69" t="n">
-        <v>0.251145</v>
+        <v>0.251946</v>
       </c>
       <c r="E69" t="n">
-        <v>0.09414119999999999</v>
+        <v>0.0941111</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0995664</v>
+        <v>0.100146</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.115165</v>
+        <v>0.11535</v>
       </c>
       <c r="C70" t="n">
-        <v>0.120217</v>
+        <v>0.120661</v>
       </c>
       <c r="D70" t="n">
-        <v>0.259976</v>
+        <v>0.260103</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0945594</v>
+        <v>0.0950066</v>
       </c>
       <c r="F70" t="n">
-        <v>0.100924</v>
+        <v>0.101482</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.117231</v>
+        <v>0.116449</v>
       </c>
       <c r="C71" t="n">
-        <v>0.12358</v>
+        <v>0.123044</v>
       </c>
       <c r="D71" t="n">
-        <v>0.271394</v>
+        <v>0.271617</v>
       </c>
       <c r="E71" t="n">
-        <v>0.09581919999999999</v>
+        <v>0.0959825</v>
       </c>
       <c r="F71" t="n">
-        <v>0.101581</v>
+        <v>0.10143</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.120842</v>
+        <v>0.123669</v>
       </c>
       <c r="C72" t="n">
-        <v>0.130215</v>
+        <v>0.129667</v>
       </c>
       <c r="D72" t="n">
-        <v>0.28149</v>
+        <v>0.278533</v>
       </c>
       <c r="E72" t="n">
-        <v>0.09669030000000001</v>
+        <v>0.09669229999999999</v>
       </c>
       <c r="F72" t="n">
-        <v>0.102968</v>
+        <v>0.102684</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.128289</v>
+        <v>0.127541</v>
       </c>
       <c r="C73" t="n">
-        <v>0.134926</v>
+        <v>0.134336</v>
       </c>
       <c r="D73" t="n">
-        <v>0.293712</v>
+        <v>0.293867</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0979956</v>
+        <v>0.0978622</v>
       </c>
       <c r="F73" t="n">
-        <v>0.104713</v>
+        <v>0.10517</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.135543</v>
+        <v>0.135217</v>
       </c>
       <c r="C74" t="n">
-        <v>0.143886</v>
+        <v>0.145445</v>
       </c>
       <c r="D74" t="n">
-        <v>0.307369</v>
+        <v>0.306773</v>
       </c>
       <c r="E74" t="n">
-        <v>0.0986722</v>
+        <v>0.09928480000000001</v>
       </c>
       <c r="F74" t="n">
-        <v>0.106035</v>
+        <v>0.106892</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.144822</v>
+        <v>0.14915</v>
       </c>
       <c r="C75" t="n">
-        <v>0.155094</v>
+        <v>0.156052</v>
       </c>
       <c r="D75" t="n">
-        <v>0.323002</v>
+        <v>0.320316</v>
       </c>
       <c r="E75" t="n">
-        <v>0.100901</v>
+        <v>0.102312</v>
       </c>
       <c r="F75" t="n">
-        <v>0.108814</v>
+        <v>0.109786</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.159541</v>
+        <v>0.159684</v>
       </c>
       <c r="C76" t="n">
-        <v>0.170552</v>
+        <v>0.168794</v>
       </c>
       <c r="D76" t="n">
-        <v>0.335358</v>
+        <v>0.332669</v>
       </c>
       <c r="E76" t="n">
-        <v>0.104234</v>
+        <v>0.104308</v>
       </c>
       <c r="F76" t="n">
-        <v>0.112859</v>
+        <v>0.112572</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.177856</v>
+        <v>0.186417</v>
       </c>
       <c r="C77" t="n">
-        <v>0.191198</v>
+        <v>0.191012</v>
       </c>
       <c r="D77" t="n">
-        <v>0.350065</v>
+        <v>0.352864</v>
       </c>
       <c r="E77" t="n">
-        <v>0.110399</v>
+        <v>0.109486</v>
       </c>
       <c r="F77" t="n">
-        <v>0.118762</v>
+        <v>0.119162</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.205228</v>
+        <v>0.21292</v>
       </c>
       <c r="C78" t="n">
-        <v>0.220044</v>
+        <v>0.219242</v>
       </c>
       <c r="D78" t="n">
-        <v>0.272654</v>
+        <v>0.270354</v>
       </c>
       <c r="E78" t="n">
-        <v>0.116782</v>
+        <v>0.117885</v>
       </c>
       <c r="F78" t="n">
-        <v>0.127295</v>
+        <v>0.127062</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.246701</v>
+        <v>0.254927</v>
       </c>
       <c r="C79" t="n">
-        <v>0.26114</v>
+        <v>0.260898</v>
       </c>
       <c r="D79" t="n">
-        <v>0.288435</v>
+        <v>0.286702</v>
       </c>
       <c r="E79" t="n">
-        <v>0.131186</v>
+        <v>0.131438</v>
       </c>
       <c r="F79" t="n">
-        <v>0.142163</v>
+        <v>0.141343</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.297592</v>
+        <v>0.297399</v>
       </c>
       <c r="C80" t="n">
-        <v>0.324783</v>
+        <v>0.321598</v>
       </c>
       <c r="D80" t="n">
-        <v>0.305099</v>
+        <v>0.303705</v>
       </c>
       <c r="E80" t="n">
-        <v>0.101644</v>
+        <v>0.101643</v>
       </c>
       <c r="F80" t="n">
-        <v>0.10684</v>
+        <v>0.10686</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.119573</v>
+        <v>0.119585</v>
       </c>
       <c r="C81" t="n">
-        <v>0.12643</v>
+        <v>0.126774</v>
       </c>
       <c r="D81" t="n">
-        <v>0.325225</v>
+        <v>0.324512</v>
       </c>
       <c r="E81" t="n">
-        <v>0.102062</v>
+        <v>0.101948</v>
       </c>
       <c r="F81" t="n">
-        <v>0.108109</v>
+        <v>0.107905</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.121573</v>
+        <v>0.121225</v>
       </c>
       <c r="C82" t="n">
-        <v>0.129544</v>
+        <v>0.13008</v>
       </c>
       <c r="D82" t="n">
-        <v>0.346228</v>
+        <v>0.341692</v>
       </c>
       <c r="E82" t="n">
-        <v>0.102402</v>
+        <v>0.102749</v>
       </c>
       <c r="F82" t="n">
-        <v>0.109369</v>
+        <v>0.109446</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.123663</v>
+        <v>0.123567</v>
       </c>
       <c r="C83" t="n">
-        <v>0.132661</v>
+        <v>0.131545</v>
       </c>
       <c r="D83" t="n">
-        <v>0.367537</v>
+        <v>0.364323</v>
       </c>
       <c r="E83" t="n">
-        <v>0.103195</v>
+        <v>0.103174</v>
       </c>
       <c r="F83" t="n">
-        <v>0.110966</v>
+        <v>0.111071</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.126775</v>
+        <v>0.127892</v>
       </c>
       <c r="C84" t="n">
-        <v>0.136312</v>
+        <v>0.137189</v>
       </c>
       <c r="D84" t="n">
-        <v>0.388641</v>
+        <v>0.386126</v>
       </c>
       <c r="E84" t="n">
-        <v>0.104157</v>
+        <v>0.104086</v>
       </c>
       <c r="F84" t="n">
-        <v>0.112733</v>
+        <v>0.112043</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.130266</v>
+        <v>0.130708</v>
       </c>
       <c r="C85" t="n">
-        <v>0.141193</v>
+        <v>0.141823</v>
       </c>
       <c r="D85" t="n">
-        <v>0.409513</v>
+        <v>0.409276</v>
       </c>
       <c r="E85" t="n">
-        <v>0.105372</v>
+        <v>0.104935</v>
       </c>
       <c r="F85" t="n">
-        <v>0.114856</v>
+        <v>0.114761</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.134844</v>
+        <v>0.134966</v>
       </c>
       <c r="C86" t="n">
-        <v>0.14785</v>
+        <v>0.148285</v>
       </c>
       <c r="D86" t="n">
-        <v>0.433452</v>
+        <v>0.434146</v>
       </c>
       <c r="E86" t="n">
-        <v>0.106489</v>
+        <v>0.106226</v>
       </c>
       <c r="F86" t="n">
-        <v>0.116958</v>
+        <v>0.117229</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.141469</v>
+        <v>0.14044</v>
       </c>
       <c r="C87" t="n">
-        <v>0.156276</v>
+        <v>0.15643</v>
       </c>
       <c r="D87" t="n">
-        <v>0.457293</v>
+        <v>0.456678</v>
       </c>
       <c r="E87" t="n">
-        <v>0.108178</v>
+        <v>0.107871</v>
       </c>
       <c r="F87" t="n">
-        <v>0.121882</v>
+        <v>0.120332</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.151162</v>
+        <v>0.148814</v>
       </c>
       <c r="C88" t="n">
-        <v>0.166764</v>
+        <v>0.167538</v>
       </c>
       <c r="D88" t="n">
-        <v>0.480301</v>
+        <v>0.479885</v>
       </c>
       <c r="E88" t="n">
-        <v>0.111161</v>
+        <v>0.110137</v>
       </c>
       <c r="F88" t="n">
-        <v>0.125773</v>
+        <v>0.125578</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.160821</v>
+        <v>0.162701</v>
       </c>
       <c r="C89" t="n">
-        <v>0.181613</v>
+        <v>0.181763</v>
       </c>
       <c r="D89" t="n">
-        <v>0.505564</v>
+        <v>0.506575</v>
       </c>
       <c r="E89" t="n">
-        <v>0.113745</v>
+        <v>0.11349</v>
       </c>
       <c r="F89" t="n">
-        <v>0.130359</v>
+        <v>0.130133</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.174782</v>
+        <v>0.174736</v>
       </c>
       <c r="C90" t="n">
-        <v>0.199852</v>
+        <v>0.19961</v>
       </c>
       <c r="D90" t="n">
-        <v>0.53061</v>
+        <v>0.531564</v>
       </c>
       <c r="E90" t="n">
-        <v>0.117491</v>
+        <v>0.117347</v>
       </c>
       <c r="F90" t="n">
-        <v>0.137002</v>
+        <v>0.136196</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.195638</v>
+        <v>0.200532</v>
       </c>
       <c r="C91" t="n">
-        <v>0.223327</v>
+        <v>0.223884</v>
       </c>
       <c r="D91" t="n">
-        <v>0.559727</v>
+        <v>0.559863</v>
       </c>
       <c r="E91" t="n">
-        <v>0.124554</v>
+        <v>0.123791</v>
       </c>
       <c r="F91" t="n">
-        <v>0.144549</v>
+        <v>0.145581</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.229944</v>
+        <v>0.225498</v>
       </c>
       <c r="C92" t="n">
-        <v>0.258903</v>
+        <v>0.258181</v>
       </c>
       <c r="D92" t="n">
-        <v>0.419046</v>
+        <v>0.420042</v>
       </c>
       <c r="E92" t="n">
-        <v>0.13405</v>
+        <v>0.133307</v>
       </c>
       <c r="F92" t="n">
-        <v>0.157495</v>
+        <v>0.157663</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.266103</v>
+        <v>0.26627</v>
       </c>
       <c r="C93" t="n">
-        <v>0.306753</v>
+        <v>0.307445</v>
       </c>
       <c r="D93" t="n">
-        <v>0.43899</v>
+        <v>0.437775</v>
       </c>
       <c r="E93" t="n">
-        <v>0.14706</v>
+        <v>0.147547</v>
       </c>
       <c r="F93" t="n">
-        <v>0.174425</v>
+        <v>0.173656</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.331663</v>
+        <v>0.33574</v>
       </c>
       <c r="C94" t="n">
-        <v>0.379442</v>
+        <v>0.380953</v>
       </c>
       <c r="D94" t="n">
-        <v>0.457526</v>
+        <v>0.45732</v>
       </c>
       <c r="E94" t="n">
-        <v>0.112494</v>
+        <v>0.112488</v>
       </c>
       <c r="F94" t="n">
-        <v>0.127237</v>
+        <v>0.127234</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.133574</v>
+        <v>0.133429</v>
       </c>
       <c r="C95" t="n">
-        <v>0.150417</v>
+        <v>0.151238</v>
       </c>
       <c r="D95" t="n">
-        <v>0.476229</v>
+        <v>0.477736</v>
       </c>
       <c r="E95" t="n">
-        <v>0.113892</v>
+        <v>0.114055</v>
       </c>
       <c r="F95" t="n">
-        <v>0.130091</v>
+        <v>0.129925</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.136154</v>
+        <v>0.136146</v>
       </c>
       <c r="C96" t="n">
-        <v>0.154866</v>
+        <v>0.154486</v>
       </c>
       <c r="D96" t="n">
-        <v>0.497956</v>
+        <v>0.497267</v>
       </c>
       <c r="E96" t="n">
-        <v>0.115458</v>
+        <v>0.115989</v>
       </c>
       <c r="F96" t="n">
-        <v>0.132981</v>
+        <v>0.132454</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.139033</v>
+        <v>0.139506</v>
       </c>
       <c r="C97" t="n">
-        <v>0.158857</v>
+        <v>0.158699</v>
       </c>
       <c r="D97" t="n">
-        <v>0.518239</v>
+        <v>0.519903</v>
       </c>
       <c r="E97" t="n">
-        <v>0.117883</v>
+        <v>0.117772</v>
       </c>
       <c r="F97" t="n">
-        <v>0.136141</v>
+        <v>0.135297</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.143277</v>
+        <v>0.143567</v>
       </c>
       <c r="C98" t="n">
-        <v>0.165188</v>
+        <v>0.165025</v>
       </c>
       <c r="D98" t="n">
-        <v>0.541023</v>
+        <v>0.541887</v>
       </c>
       <c r="E98" t="n">
-        <v>0.119243</v>
+        <v>0.119583</v>
       </c>
       <c r="F98" t="n">
-        <v>0.139715</v>
+        <v>0.138935</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.14753</v>
+        <v>0.148467</v>
       </c>
       <c r="C99" t="n">
-        <v>0.170163</v>
+        <v>0.170935</v>
       </c>
       <c r="D99" t="n">
-        <v>0.56289</v>
+        <v>0.564222</v>
       </c>
       <c r="E99" t="n">
-        <v>0.121743</v>
+        <v>0.121476</v>
       </c>
       <c r="F99" t="n">
-        <v>0.142247</v>
+        <v>0.141945</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.15302</v>
+        <v>0.154213</v>
       </c>
       <c r="C100" t="n">
-        <v>0.178468</v>
+        <v>0.179013</v>
       </c>
       <c r="D100" t="n">
-        <v>0.586075</v>
+        <v>0.587082</v>
       </c>
       <c r="E100" t="n">
-        <v>0.123629</v>
+        <v>0.123762</v>
       </c>
       <c r="F100" t="n">
-        <v>0.145496</v>
+        <v>0.145332</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.160168</v>
+        <v>0.160235</v>
       </c>
       <c r="C101" t="n">
-        <v>0.187316</v>
+        <v>0.189212</v>
       </c>
       <c r="D101" t="n">
-        <v>0.611726</v>
+        <v>0.611743</v>
       </c>
       <c r="E101" t="n">
-        <v>0.12552</v>
+        <v>0.125796</v>
       </c>
       <c r="F101" t="n">
-        <v>0.149265</v>
+        <v>0.149431</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.16859</v>
+        <v>0.168911</v>
       </c>
       <c r="C102" t="n">
-        <v>0.201309</v>
+        <v>0.199847</v>
       </c>
       <c r="D102" t="n">
-        <v>0.636475</v>
+        <v>0.636496</v>
       </c>
       <c r="E102" t="n">
-        <v>0.128267</v>
+        <v>0.128298</v>
       </c>
       <c r="F102" t="n">
-        <v>0.153774</v>
+        <v>0.153992</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.184643</v>
+        <v>0.179528</v>
       </c>
       <c r="C103" t="n">
-        <v>0.217867</v>
+        <v>0.216589</v>
       </c>
       <c r="D103" t="n">
-        <v>0.662996</v>
+        <v>0.6638269999999999</v>
       </c>
       <c r="E103" t="n">
-        <v>0.132127</v>
+        <v>0.132394</v>
       </c>
       <c r="F103" t="n">
-        <v>0.160736</v>
+        <v>0.159919</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.196706</v>
+        <v>0.194369</v>
       </c>
       <c r="C104" t="n">
-        <v>0.240473</v>
+        <v>0.242698</v>
       </c>
       <c r="D104" t="n">
-        <v>0.692783</v>
+        <v>0.691833</v>
       </c>
       <c r="E104" t="n">
-        <v>0.13627</v>
+        <v>0.135859</v>
       </c>
       <c r="F104" t="n">
-        <v>0.170769</v>
+        <v>0.167292</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.215589</v>
+        <v>0.213837</v>
       </c>
       <c r="C105" t="n">
-        <v>0.272121</v>
+        <v>0.267416</v>
       </c>
       <c r="D105" t="n">
-        <v>0.723838</v>
+        <v>0.7225819999999999</v>
       </c>
       <c r="E105" t="n">
-        <v>0.141606</v>
+        <v>0.142314</v>
       </c>
       <c r="F105" t="n">
-        <v>0.182027</v>
+        <v>0.177781</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.246909</v>
+        <v>0.246024</v>
       </c>
       <c r="C106" t="n">
-        <v>0.31158</v>
+        <v>0.30774</v>
       </c>
       <c r="D106" t="n">
-        <v>0.75641</v>
+        <v>0.75518</v>
       </c>
       <c r="E106" t="n">
-        <v>0.15275</v>
+        <v>0.149997</v>
       </c>
       <c r="F106" t="n">
-        <v>0.198141</v>
+        <v>0.192073</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.291655</v>
+        <v>0.294825</v>
       </c>
       <c r="C107" t="n">
-        <v>0.366751</v>
+        <v>0.363316</v>
       </c>
       <c r="D107" t="n">
-        <v>0.593681</v>
+        <v>0.593015</v>
       </c>
       <c r="E107" t="n">
-        <v>0.166927</v>
+        <v>0.164366</v>
       </c>
       <c r="F107" t="n">
-        <v>0.219562</v>
+        <v>0.213227</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.364853</v>
+        <v>0.357857</v>
       </c>
       <c r="C108" t="n">
-        <v>0.445526</v>
+        <v>0.442721</v>
       </c>
       <c r="D108" t="n">
-        <v>0.616269</v>
+        <v>0.615976</v>
       </c>
       <c r="E108" t="n">
-        <v>0.124954</v>
+        <v>0.122004</v>
       </c>
       <c r="F108" t="n">
-        <v>0.154154</v>
+        <v>0.145453</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.44676</v>
+        <v>0.444394</v>
       </c>
       <c r="C109" t="n">
-        <v>0.559745</v>
+        <v>0.5583320000000001</v>
       </c>
       <c r="D109" t="n">
-        <v>0.63907</v>
+        <v>0.638655</v>
       </c>
       <c r="E109" t="n">
-        <v>0.127048</v>
+        <v>0.123196</v>
       </c>
       <c r="F109" t="n">
-        <v>0.159539</v>
+        <v>0.149189</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.151421</v>
+        <v>0.145065</v>
       </c>
       <c r="C110" t="n">
-        <v>0.186603</v>
+        <v>0.175344</v>
       </c>
       <c r="D110" t="n">
-        <v>0.661904</v>
+        <v>0.661449</v>
       </c>
       <c r="E110" t="n">
-        <v>0.129837</v>
+        <v>0.124616</v>
       </c>
       <c r="F110" t="n">
-        <v>0.16442</v>
+        <v>0.153511</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.155975</v>
+        <v>0.147863</v>
       </c>
       <c r="C111" t="n">
-        <v>0.193283</v>
+        <v>0.181945</v>
       </c>
       <c r="D111" t="n">
-        <v>0.68749</v>
+        <v>0.6864980000000001</v>
       </c>
       <c r="E111" t="n">
-        <v>0.133913</v>
+        <v>0.126376</v>
       </c>
       <c r="F111" t="n">
-        <v>0.169533</v>
+        <v>0.159334</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.161879</v>
+        <v>0.151577</v>
       </c>
       <c r="C112" t="n">
-        <v>0.201259</v>
+        <v>0.189875</v>
       </c>
       <c r="D112" t="n">
-        <v>0.7133659999999999</v>
+        <v>0.712715</v>
       </c>
       <c r="E112" t="n">
-        <v>0.136914</v>
+        <v>0.127656</v>
       </c>
       <c r="F112" t="n">
-        <v>0.17378</v>
+        <v>0.164009</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.167547</v>
+        <v>0.156961</v>
       </c>
       <c r="C113" t="n">
-        <v>0.207376</v>
+        <v>0.199694</v>
       </c>
       <c r="D113" t="n">
-        <v>0.738899</v>
+        <v>0.739684</v>
       </c>
       <c r="E113" t="n">
-        <v>0.140029</v>
+        <v>0.130187</v>
       </c>
       <c r="F113" t="n">
-        <v>0.177792</v>
+        <v>0.170046</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.17395</v>
+        <v>0.16406</v>
       </c>
       <c r="C114" t="n">
-        <v>0.216041</v>
+        <v>0.212379</v>
       </c>
       <c r="D114" t="n">
-        <v>0.767212</v>
+        <v>0.766191</v>
       </c>
       <c r="E114" t="n">
-        <v>0.143509</v>
+        <v>0.134215</v>
       </c>
       <c r="F114" t="n">
-        <v>0.182546</v>
+        <v>0.177087</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.18165</v>
+        <v>0.173465</v>
       </c>
       <c r="C115" t="n">
-        <v>0.226456</v>
+        <v>0.222739</v>
       </c>
       <c r="D115" t="n">
-        <v>0.794196</v>
+        <v>0.793671</v>
       </c>
       <c r="E115" t="n">
-        <v>0.146177</v>
+        <v>0.138537</v>
       </c>
       <c r="F115" t="n">
-        <v>0.187277</v>
+        <v>0.183882</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.191313</v>
+        <v>0.185069</v>
       </c>
       <c r="C116" t="n">
-        <v>0.238955</v>
+        <v>0.237184</v>
       </c>
       <c r="D116" t="n">
-        <v>0.821238</v>
+        <v>0.820161</v>
       </c>
       <c r="E116" t="n">
-        <v>0.149326</v>
+        <v>0.142809</v>
       </c>
       <c r="F116" t="n">
-        <v>0.192427</v>
+        <v>0.190213</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.203302</v>
+        <v>0.199049</v>
       </c>
       <c r="C117" t="n">
-        <v>0.254945</v>
+        <v>0.253712</v>
       </c>
       <c r="D117" t="n">
-        <v>0.849967</v>
+        <v>0.849087</v>
       </c>
       <c r="E117" t="n">
-        <v>0.154095</v>
+        <v>0.148886</v>
       </c>
       <c r="F117" t="n">
-        <v>0.198584</v>
+        <v>0.197137</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.218741</v>
+        <v>0.219859</v>
       </c>
       <c r="C118" t="n">
-        <v>0.275443</v>
+        <v>0.274546</v>
       </c>
       <c r="D118" t="n">
-        <v>0.879895</v>
+        <v>0.8804689999999999</v>
       </c>
       <c r="E118" t="n">
-        <v>0.158274</v>
+        <v>0.155071</v>
       </c>
       <c r="F118" t="n">
-        <v>0.206518</v>
+        <v>0.205403</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.239691</v>
+        <v>0.238638</v>
       </c>
       <c r="C119" t="n">
-        <v>0.302842</v>
+        <v>0.302398</v>
       </c>
       <c r="D119" t="n">
-        <v>0.909131</v>
+        <v>0.910176</v>
       </c>
       <c r="E119" t="n">
-        <v>0.164987</v>
+        <v>0.162497</v>
       </c>
       <c r="F119" t="n">
-        <v>0.215861</v>
+        <v>0.215143</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.268734</v>
+        <v>0.267383</v>
       </c>
       <c r="C120" t="n">
-        <v>0.340136</v>
+        <v>0.339894</v>
       </c>
       <c r="D120" t="n">
-        <v>0.942106</v>
+        <v>0.94202</v>
       </c>
       <c r="E120" t="n">
-        <v>0.173973</v>
+        <v>0.172705</v>
       </c>
       <c r="F120" t="n">
-        <v>0.228652</v>
+        <v>0.228553</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.309811</v>
+        <v>0.3163</v>
       </c>
       <c r="C121" t="n">
-        <v>0.393959</v>
+        <v>0.393642</v>
       </c>
       <c r="D121" t="n">
-        <v>0.6824210000000001</v>
+        <v>0.681583</v>
       </c>
       <c r="E121" t="n">
-        <v>0.188115</v>
+        <v>0.188589</v>
       </c>
       <c r="F121" t="n">
-        <v>0.248123</v>
+        <v>0.247666</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.376635</v>
+        <v>0.371869</v>
       </c>
       <c r="C122" t="n">
-        <v>0.474148</v>
+        <v>0.474483</v>
       </c>
       <c r="D122" t="n">
-        <v>0.70411</v>
+        <v>0.703498</v>
       </c>
       <c r="E122" t="n">
-        <v>0.211456</v>
+        <v>0.210442</v>
       </c>
       <c r="F122" t="n">
-        <v>0.278681</v>
+        <v>0.278342</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.470423</v>
+        <v>0.464496</v>
       </c>
       <c r="C123" t="n">
-        <v>0.595743</v>
+        <v>0.59675</v>
       </c>
       <c r="D123" t="n">
-        <v>0.726752</v>
+        <v>0.727206</v>
       </c>
       <c r="E123" t="n">
-        <v>0.149508</v>
+        <v>0.146453</v>
       </c>
       <c r="F123" t="n">
-        <v>0.184428</v>
+        <v>0.186559</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.168995</v>
+        <v>0.171009</v>
       </c>
       <c r="C124" t="n">
-        <v>0.213324</v>
+        <v>0.210447</v>
       </c>
       <c r="D124" t="n">
-        <v>0.750758</v>
+        <v>0.75113</v>
       </c>
       <c r="E124" t="n">
-        <v>0.148135</v>
+        <v>0.148245</v>
       </c>
       <c r="F124" t="n">
-        <v>0.190476</v>
+        <v>0.1901</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.172332</v>
+        <v>0.174976</v>
       </c>
       <c r="C125" t="n">
-        <v>0.215136</v>
+        <v>0.215858</v>
       </c>
       <c r="D125" t="n">
-        <v>0.775572</v>
+        <v>0.776618</v>
       </c>
       <c r="E125" t="n">
-        <v>0.150413</v>
+        <v>0.152392</v>
       </c>
       <c r="F125" t="n">
-        <v>0.192997</v>
+        <v>0.193257</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.181181</v>
+        <v>0.18019</v>
       </c>
       <c r="C126" t="n">
-        <v>0.224367</v>
+        <v>0.221468</v>
       </c>
       <c r="D126" t="n">
-        <v>0.801238</v>
+        <v>0.801918</v>
       </c>
       <c r="E126" t="n">
-        <v>0.153705</v>
+        <v>0.155347</v>
       </c>
       <c r="F126" t="n">
-        <v>0.196778</v>
+        <v>0.198771</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.182519</v>
+        <v>0.182841</v>
       </c>
       <c r="C127" t="n">
-        <v>0.229524</v>
+        <v>0.231157</v>
       </c>
       <c r="D127" t="n">
-        <v>0.8284899999999999</v>
+        <v>0.829199</v>
       </c>
       <c r="E127" t="n">
-        <v>0.154779</v>
+        <v>0.155717</v>
       </c>
       <c r="F127" t="n">
-        <v>0.199003</v>
+        <v>0.203425</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.191256</v>
+        <v>0.191565</v>
       </c>
       <c r="C128" t="n">
-        <v>0.238616</v>
+        <v>0.237469</v>
       </c>
       <c r="D128" t="n">
-        <v>0.856209</v>
+        <v>0.857439</v>
       </c>
       <c r="E128" t="n">
-        <v>0.157699</v>
+        <v>0.159062</v>
       </c>
       <c r="F128" t="n">
-        <v>0.205114</v>
+        <v>0.206023</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.198398</v>
+        <v>0.19609</v>
       </c>
       <c r="C129" t="n">
-        <v>0.250025</v>
+        <v>0.250481</v>
       </c>
       <c r="D129" t="n">
-        <v>0.885036</v>
+        <v>0.885737</v>
       </c>
       <c r="E129" t="n">
-        <v>0.164328</v>
+        <v>0.160358</v>
       </c>
       <c r="F129" t="n">
-        <v>0.211748</v>
+        <v>0.209348</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.205909</v>
+        <v>0.209882</v>
       </c>
       <c r="C130" t="n">
-        <v>0.264371</v>
+        <v>0.26242</v>
       </c>
       <c r="D130" t="n">
-        <v>0.914512</v>
+        <v>0.915113</v>
       </c>
       <c r="E130" t="n">
-        <v>0.162267</v>
+        <v>0.164397</v>
       </c>
       <c r="F130" t="n">
-        <v>0.220439</v>
+        <v>0.216423</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.219331</v>
+        <v>0.219008</v>
       </c>
       <c r="C131" t="n">
-        <v>0.281182</v>
+        <v>0.279687</v>
       </c>
       <c r="D131" t="n">
-        <v>0.944973</v>
+        <v>0.94525</v>
       </c>
       <c r="E131" t="n">
-        <v>0.167351</v>
+        <v>0.168839</v>
       </c>
       <c r="F131" t="n">
-        <v>0.22428</v>
+        <v>0.223157</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.234684</v>
+        <v>0.23596</v>
       </c>
       <c r="C132" t="n">
-        <v>0.303892</v>
+        <v>0.304528</v>
       </c>
       <c r="D132" t="n">
-        <v>0.9757209999999999</v>
+        <v>0.976897</v>
       </c>
       <c r="E132" t="n">
-        <v>0.173316</v>
+        <v>0.173615</v>
       </c>
       <c r="F132" t="n">
-        <v>0.235234</v>
+        <v>0.230957</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.256141</v>
+        <v>0.257523</v>
       </c>
       <c r="C133" t="n">
-        <v>0.330048</v>
+        <v>0.329417</v>
       </c>
       <c r="D133" t="n">
-        <v>1.00775</v>
+        <v>1.00909</v>
       </c>
       <c r="E133" t="n">
-        <v>0.177448</v>
+        <v>0.182021</v>
       </c>
       <c r="F133" t="n">
-        <v>0.244643</v>
+        <v>0.243222</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.282762</v>
+        <v>0.283983</v>
       </c>
       <c r="C134" t="n">
-        <v>0.37385</v>
+        <v>0.372591</v>
       </c>
       <c r="D134" t="n">
-        <v>1.04044</v>
+        <v>1.04155</v>
       </c>
       <c r="E134" t="n">
-        <v>0.188954</v>
+        <v>0.187991</v>
       </c>
       <c r="F134" t="n">
-        <v>0.256544</v>
+        <v>0.257491</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.325289</v>
+        <v>0.324435</v>
       </c>
       <c r="C135" t="n">
-        <v>0.427968</v>
+        <v>0.424428</v>
       </c>
       <c r="D135" t="n">
-        <v>0.698011</v>
+        <v>0.698418</v>
       </c>
       <c r="E135" t="n">
-        <v>0.202355</v>
+        <v>0.204856</v>
       </c>
       <c r="F135" t="n">
-        <v>0.278107</v>
+        <v>0.2769</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.389258</v>
+        <v>0.389906</v>
       </c>
       <c r="C136" t="n">
-        <v>0.505543</v>
+        <v>0.5067739999999999</v>
       </c>
       <c r="D136" t="n">
-        <v>0.71648</v>
+        <v>0.71651</v>
       </c>
       <c r="E136" t="n">
-        <v>0.223329</v>
+        <v>0.224208</v>
       </c>
       <c r="F136" t="n">
-        <v>0.304825</v>
+        <v>0.307036</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.476846</v>
+        <v>0.485279</v>
       </c>
       <c r="C137" t="n">
-        <v>0.63161</v>
+        <v>0.63349</v>
       </c>
       <c r="D137" t="n">
-        <v>0.735202</v>
+        <v>0.735884</v>
       </c>
       <c r="E137" t="n">
-        <v>0.278111</v>
+        <v>0.275347</v>
       </c>
       <c r="F137" t="n">
-        <v>0.322047</v>
+        <v>0.319209</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.316825</v>
+        <v>0.313643</v>
       </c>
       <c r="C138" t="n">
-        <v>0.356243</v>
+        <v>0.355944</v>
       </c>
       <c r="D138" t="n">
-        <v>0.755259</v>
+        <v>0.755849</v>
       </c>
       <c r="E138" t="n">
-        <v>0.277948</v>
+        <v>0.275522</v>
       </c>
       <c r="F138" t="n">
-        <v>0.328309</v>
+        <v>0.325393</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.318085</v>
+        <v>0.316622</v>
       </c>
       <c r="C139" t="n">
-        <v>0.364237</v>
+        <v>0.36018</v>
       </c>
       <c r="D139" t="n">
-        <v>0.776293</v>
+        <v>0.776771</v>
       </c>
       <c r="E139" t="n">
-        <v>0.281991</v>
+        <v>0.281935</v>
       </c>
       <c r="F139" t="n">
-        <v>0.330265</v>
+        <v>0.333715</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.321298</v>
+        <v>0.318204</v>
       </c>
       <c r="C140" t="n">
-        <v>0.37243</v>
+        <v>0.370755</v>
       </c>
       <c r="D140" t="n">
-        <v>0.797655</v>
+        <v>0.798358</v>
       </c>
       <c r="E140" t="n">
-        <v>0.283389</v>
+        <v>0.285938</v>
       </c>
       <c r="F140" t="n">
-        <v>0.33806</v>
+        <v>0.335873</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.327185</v>
+        <v>0.329956</v>
       </c>
       <c r="C141" t="n">
-        <v>0.377881</v>
+        <v>0.3797</v>
       </c>
       <c r="D141" t="n">
-        <v>0.820397</v>
+        <v>0.820958</v>
       </c>
       <c r="E141" t="n">
-        <v>0.28453</v>
+        <v>0.285057</v>
       </c>
       <c r="F141" t="n">
-        <v>0.343618</v>
+        <v>0.341933</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.332989</v>
+        <v>0.332773</v>
       </c>
       <c r="C142" t="n">
-        <v>0.387276</v>
+        <v>0.388159</v>
       </c>
       <c r="D142" t="n">
-        <v>0.844361</v>
+        <v>0.844675</v>
       </c>
       <c r="E142" t="n">
-        <v>0.289014</v>
+        <v>0.284222</v>
       </c>
       <c r="F142" t="n">
-        <v>0.345884</v>
+        <v>0.347122</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.339463</v>
+        <v>0.335884</v>
       </c>
       <c r="C143" t="n">
-        <v>0.399613</v>
+        <v>0.399331</v>
       </c>
       <c r="D143" t="n">
-        <v>0.868805</v>
+        <v>0.8693109999999999</v>
       </c>
       <c r="E143" t="n">
-        <v>0.287989</v>
+        <v>0.292819</v>
       </c>
       <c r="F143" t="n">
-        <v>0.353622</v>
+        <v>0.353748</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Scattered unsuccessful looukp.xlsx
+++ b/clang-x86/Scattered unsuccessful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.09510689999999999</v>
+        <v>0.0950819</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0979698</v>
+        <v>0.09787899999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>0.186124</v>
+        <v>0.185381</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0836824</v>
+        <v>0.0837088</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0842697</v>
+        <v>0.0843506</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.10249</v>
+        <v>0.102585</v>
       </c>
       <c r="C3" t="n">
-        <v>0.104906</v>
+        <v>0.104707</v>
       </c>
       <c r="D3" t="n">
-        <v>0.194801</v>
+        <v>0.193605</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0844707</v>
+        <v>0.084559</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0849816</v>
+        <v>0.08498120000000001</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.111941</v>
+        <v>0.112117</v>
       </c>
       <c r="C4" t="n">
-        <v>0.116314</v>
+        <v>0.112652</v>
       </c>
       <c r="D4" t="n">
-        <v>0.201542</v>
+        <v>0.201695</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0856698</v>
+        <v>0.0857117</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0863264</v>
+        <v>0.08631229999999999</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.132074</v>
+        <v>0.132218</v>
       </c>
       <c r="C5" t="n">
-        <v>0.131072</v>
+        <v>0.131553</v>
       </c>
       <c r="D5" t="n">
-        <v>0.210318</v>
+        <v>0.208077</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0872352</v>
+        <v>0.08730599999999999</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0875933</v>
+        <v>0.0876251</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.159301</v>
+        <v>0.159574</v>
       </c>
       <c r="C6" t="n">
-        <v>0.164138</v>
+        <v>0.164266</v>
       </c>
       <c r="D6" t="n">
-        <v>0.214344</v>
+        <v>0.214255</v>
       </c>
       <c r="E6" t="n">
-        <v>0.08907089999999999</v>
+        <v>0.08911139999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0895519</v>
+        <v>0.0908081</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.189112</v>
+        <v>0.189555</v>
       </c>
       <c r="C7" t="n">
-        <v>0.191707</v>
+        <v>0.191383</v>
       </c>
       <c r="D7" t="n">
-        <v>0.161276</v>
+        <v>0.16155</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0954599</v>
+        <v>0.0954965</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0948952</v>
+        <v>0.0949475</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.229125</v>
+        <v>0.229116</v>
       </c>
       <c r="C8" t="n">
-        <v>0.225744</v>
+        <v>0.225027</v>
       </c>
       <c r="D8" t="n">
-        <v>0.168918</v>
+        <v>0.168675</v>
       </c>
       <c r="E8" t="n">
-        <v>0.107023</v>
+        <v>0.107329</v>
       </c>
       <c r="F8" t="n">
-        <v>0.106808</v>
+        <v>0.107025</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.272131</v>
+        <v>0.272007</v>
       </c>
       <c r="C9" t="n">
-        <v>0.267612</v>
+        <v>0.26772</v>
       </c>
       <c r="D9" t="n">
-        <v>0.175531</v>
+        <v>0.175892</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0818448</v>
+        <v>0.0820186</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0827261</v>
+        <v>0.08273179999999999</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.08579829999999999</v>
+        <v>0.0861571</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0868883</v>
+        <v>0.08690390000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>0.183052</v>
+        <v>0.183753</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0821361</v>
+        <v>0.0823108</v>
       </c>
       <c r="F10" t="n">
-        <v>0.08285090000000001</v>
+        <v>0.0830987</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0865242</v>
+        <v>0.0870737</v>
       </c>
       <c r="C11" t="n">
-        <v>0.088029</v>
+        <v>0.08807470000000001</v>
       </c>
       <c r="D11" t="n">
-        <v>0.19069</v>
+        <v>0.190997</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0825896</v>
+        <v>0.0826342</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0833182</v>
+        <v>0.0835243</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.08807719999999999</v>
+        <v>0.0881508</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0904306</v>
+        <v>0.0896733</v>
       </c>
       <c r="D12" t="n">
-        <v>0.197936</v>
+        <v>0.197916</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0828414</v>
+        <v>0.0828562</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0835925</v>
+        <v>0.0838468</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0894858</v>
+        <v>0.0896697</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0913766</v>
+        <v>0.0915229</v>
       </c>
       <c r="D13" t="n">
-        <v>0.204649</v>
+        <v>0.204292</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0830129</v>
+        <v>0.0830999</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0840477</v>
+        <v>0.084102</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0915938</v>
+        <v>0.0917212</v>
       </c>
       <c r="C14" t="n">
-        <v>0.09345589999999999</v>
+        <v>0.0937032</v>
       </c>
       <c r="D14" t="n">
-        <v>0.210877</v>
+        <v>0.211015</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0832871</v>
+        <v>0.08339340000000001</v>
       </c>
       <c r="F14" t="n">
-        <v>0.08430790000000001</v>
+        <v>0.0844471</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.09505619999999999</v>
+        <v>0.0977524</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0968683</v>
+        <v>0.0973719</v>
       </c>
       <c r="D15" t="n">
-        <v>0.220383</v>
+        <v>0.219674</v>
       </c>
       <c r="E15" t="n">
-        <v>0.08404300000000001</v>
+        <v>0.0840214</v>
       </c>
       <c r="F15" t="n">
-        <v>0.084787</v>
+        <v>0.08499950000000001</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.1013</v>
+        <v>0.100493</v>
       </c>
       <c r="C16" t="n">
-        <v>0.101235</v>
+        <v>0.103884</v>
       </c>
       <c r="D16" t="n">
-        <v>0.227037</v>
+        <v>0.22679</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0844977</v>
+        <v>0.08452990000000001</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0854125</v>
+        <v>0.0854945</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.109177</v>
+        <v>0.109382</v>
       </c>
       <c r="C17" t="n">
-        <v>0.110602</v>
+        <v>0.112539</v>
       </c>
       <c r="D17" t="n">
-        <v>0.233187</v>
+        <v>0.233088</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0854232</v>
+        <v>0.08572109999999999</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0863462</v>
+        <v>0.0867339</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.120641</v>
+        <v>0.120029</v>
       </c>
       <c r="C18" t="n">
-        <v>0.122139</v>
+        <v>0.123005</v>
       </c>
       <c r="D18" t="n">
-        <v>0.238196</v>
+        <v>0.238404</v>
       </c>
       <c r="E18" t="n">
-        <v>0.08666459999999999</v>
+        <v>0.0868285</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0874861</v>
+        <v>0.0878517</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.134941</v>
+        <v>0.134865</v>
       </c>
       <c r="C19" t="n">
-        <v>0.137553</v>
+        <v>0.138098</v>
       </c>
       <c r="D19" t="n">
-        <v>0.245367</v>
+        <v>0.245426</v>
       </c>
       <c r="E19" t="n">
-        <v>0.08964999999999999</v>
+        <v>0.0886396</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0894243</v>
+        <v>0.0899754</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.154285</v>
+        <v>0.154914</v>
       </c>
       <c r="C20" t="n">
-        <v>0.157509</v>
+        <v>0.157008</v>
       </c>
       <c r="D20" t="n">
-        <v>0.251796</v>
+        <v>0.25244</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0918173</v>
+        <v>0.0915373</v>
       </c>
       <c r="F20" t="n">
-        <v>0.09282219999999999</v>
+        <v>0.0930861</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.184149</v>
+        <v>0.184617</v>
       </c>
       <c r="C21" t="n">
-        <v>0.191831</v>
+        <v>0.182659</v>
       </c>
       <c r="D21" t="n">
-        <v>0.182468</v>
+        <v>0.182891</v>
       </c>
       <c r="E21" t="n">
-        <v>0.09729500000000001</v>
+        <v>0.097486</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0989048</v>
+        <v>0.09959800000000001</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.217989</v>
+        <v>0.216988</v>
       </c>
       <c r="C22" t="n">
-        <v>0.219631</v>
+        <v>0.220097</v>
       </c>
       <c r="D22" t="n">
-        <v>0.190679</v>
+        <v>0.190126</v>
       </c>
       <c r="E22" t="n">
-        <v>0.109767</v>
+        <v>0.11015</v>
       </c>
       <c r="F22" t="n">
-        <v>0.111407</v>
+        <v>0.111277</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.274887</v>
+        <v>0.264474</v>
       </c>
       <c r="C23" t="n">
-        <v>0.258933</v>
+        <v>0.260015</v>
       </c>
       <c r="D23" t="n">
-        <v>0.199028</v>
+        <v>0.199037</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0829657</v>
+        <v>0.0840858</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0842058</v>
+        <v>0.0843042</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.09139799999999999</v>
+        <v>0.0902476</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0927622</v>
+        <v>0.0920224</v>
       </c>
       <c r="D24" t="n">
-        <v>0.206338</v>
+        <v>0.20741</v>
       </c>
       <c r="E24" t="n">
-        <v>0.08323079999999999</v>
+        <v>0.0832721</v>
       </c>
       <c r="F24" t="n">
-        <v>0.084564</v>
+        <v>0.0849268</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0912872</v>
+        <v>0.0924996</v>
       </c>
       <c r="C25" t="n">
-        <v>0.09316439999999999</v>
+        <v>0.093336</v>
       </c>
       <c r="D25" t="n">
-        <v>0.213572</v>
+        <v>0.213937</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0834493</v>
+        <v>0.0834964</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0849791</v>
+        <v>0.085133</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0928099</v>
+        <v>0.0933915</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0957783</v>
+        <v>0.0947728</v>
       </c>
       <c r="D26" t="n">
-        <v>0.221267</v>
+        <v>0.22144</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0838185</v>
+        <v>0.084217</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08565109999999999</v>
+        <v>0.08571819999999999</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0943272</v>
+        <v>0.0944179</v>
       </c>
       <c r="C27" t="n">
-        <v>0.09698660000000001</v>
+        <v>0.0969245</v>
       </c>
       <c r="D27" t="n">
-        <v>0.228849</v>
+        <v>0.228883</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0842878</v>
+        <v>0.08467760000000001</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0866529</v>
+        <v>0.08668629999999999</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.09704889999999999</v>
+        <v>0.09728779999999999</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0995461</v>
+        <v>0.0999512</v>
       </c>
       <c r="D28" t="n">
-        <v>0.235503</v>
+        <v>0.235527</v>
       </c>
       <c r="E28" t="n">
-        <v>0.084732</v>
+        <v>0.08516990000000001</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0868183</v>
+        <v>0.0871821</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.100529</v>
+        <v>0.100571</v>
       </c>
       <c r="C29" t="n">
-        <v>0.104586</v>
+        <v>0.104558</v>
       </c>
       <c r="D29" t="n">
-        <v>0.241424</v>
+        <v>0.241316</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0852784</v>
+        <v>0.08540789999999999</v>
       </c>
       <c r="F29" t="n">
-        <v>0.087771</v>
+        <v>0.08821950000000001</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.106046</v>
+        <v>0.106606</v>
       </c>
       <c r="C30" t="n">
-        <v>0.11123</v>
+        <v>0.112173</v>
       </c>
       <c r="D30" t="n">
-        <v>0.247729</v>
+        <v>0.247512</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0859308</v>
+        <v>0.0861305</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08882619999999999</v>
+        <v>0.0887734</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.1135</v>
+        <v>0.113542</v>
       </c>
       <c r="C31" t="n">
-        <v>0.115288</v>
+        <v>0.115289</v>
       </c>
       <c r="D31" t="n">
-        <v>0.252538</v>
+        <v>0.253311</v>
       </c>
       <c r="E31" t="n">
-        <v>0.087073</v>
+        <v>0.0871527</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0900725</v>
+        <v>0.0901539</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.121367</v>
+        <v>0.121594</v>
       </c>
       <c r="C32" t="n">
-        <v>0.125824</v>
+        <v>0.12933</v>
       </c>
       <c r="D32" t="n">
-        <v>0.25805</v>
+        <v>0.259441</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0886984</v>
+        <v>0.0887566</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0925546</v>
+        <v>0.0918361</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.134989</v>
+        <v>0.136942</v>
       </c>
       <c r="C33" t="n">
-        <v>0.137819</v>
+        <v>0.142376</v>
       </c>
       <c r="D33" t="n">
-        <v>0.263111</v>
+        <v>0.264498</v>
       </c>
       <c r="E33" t="n">
-        <v>0.091126</v>
+        <v>0.09121700000000001</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0946548</v>
+        <v>0.09448189999999999</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.150569</v>
+        <v>0.150574</v>
       </c>
       <c r="C34" t="n">
-        <v>0.154153</v>
+        <v>0.154203</v>
       </c>
       <c r="D34" t="n">
-        <v>0.2699</v>
+        <v>0.270116</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0950826</v>
+        <v>0.0951036</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0987225</v>
+        <v>0.0986839</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.176388</v>
+        <v>0.176432</v>
       </c>
       <c r="C35" t="n">
-        <v>0.177208</v>
+        <v>0.185151</v>
       </c>
       <c r="D35" t="n">
-        <v>0.196407</v>
+        <v>0.196781</v>
       </c>
       <c r="E35" t="n">
-        <v>0.101936</v>
+        <v>0.102251</v>
       </c>
       <c r="F35" t="n">
-        <v>0.105875</v>
+        <v>0.105744</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.208685</v>
+        <v>0.208966</v>
       </c>
       <c r="C36" t="n">
-        <v>0.209391</v>
+        <v>0.217312</v>
       </c>
       <c r="D36" t="n">
-        <v>0.20347</v>
+        <v>0.204086</v>
       </c>
       <c r="E36" t="n">
         <v>0.113867</v>
       </c>
       <c r="F36" t="n">
-        <v>0.116865</v>
+        <v>0.116863</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.258817</v>
+        <v>0.265104</v>
       </c>
       <c r="C37" t="n">
-        <v>0.25633</v>
+        <v>0.267973</v>
       </c>
       <c r="D37" t="n">
-        <v>0.211754</v>
+        <v>0.212189</v>
       </c>
       <c r="E37" t="n">
-        <v>0.08367289999999999</v>
+        <v>0.0841871</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0869129</v>
+        <v>0.0869105</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0923727</v>
+        <v>0.09290379999999999</v>
       </c>
       <c r="C38" t="n">
-        <v>0.095849</v>
+        <v>0.0961989</v>
       </c>
       <c r="D38" t="n">
-        <v>0.218692</v>
+        <v>0.218693</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0839516</v>
+        <v>0.0839766</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0873659</v>
+        <v>0.0875527</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.09364989999999999</v>
+        <v>0.09414790000000001</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0980109</v>
+        <v>0.0972961</v>
       </c>
       <c r="D39" t="n">
-        <v>0.225879</v>
+        <v>0.226465</v>
       </c>
       <c r="E39" t="n">
-        <v>0.08421090000000001</v>
+        <v>0.0853766</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0877947</v>
+        <v>0.0878616</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0949913</v>
+        <v>0.095009</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0987286</v>
+        <v>0.0998274</v>
       </c>
       <c r="D40" t="n">
-        <v>0.233511</v>
+        <v>0.234052</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0845374</v>
+        <v>0.08468680000000001</v>
       </c>
       <c r="F40" t="n">
-        <v>0.08828510000000001</v>
+        <v>0.0883695</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0970684</v>
+        <v>0.0976503</v>
       </c>
       <c r="C41" t="n">
-        <v>0.102429</v>
+        <v>0.102566</v>
       </c>
       <c r="D41" t="n">
-        <v>0.239564</v>
+        <v>0.240356</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0849979</v>
+        <v>0.0854444</v>
       </c>
       <c r="F41" t="n">
-        <v>0.08891209999999999</v>
+        <v>0.0888408</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.100077</v>
+        <v>0.100687</v>
       </c>
       <c r="C42" t="n">
-        <v>0.104133</v>
+        <v>0.103908</v>
       </c>
       <c r="D42" t="n">
-        <v>0.247025</v>
+        <v>0.246616</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0857607</v>
+        <v>0.0858723</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0893341</v>
+        <v>0.0895257</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.104456</v>
+        <v>0.10506</v>
       </c>
       <c r="C43" t="n">
-        <v>0.108158</v>
+        <v>0.108147</v>
       </c>
       <c r="D43" t="n">
-        <v>0.253346</v>
+        <v>0.25367</v>
       </c>
       <c r="E43" t="n">
-        <v>0.08591849999999999</v>
+        <v>0.0865578</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0900102</v>
+        <v>0.09090860000000001</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.109099</v>
+        <v>0.11008</v>
       </c>
       <c r="C44" t="n">
-        <v>0.113299</v>
+        <v>0.11571</v>
       </c>
       <c r="D44" t="n">
-        <v>0.259525</v>
+        <v>0.259514</v>
       </c>
       <c r="E44" t="n">
-        <v>0.08683299999999999</v>
+        <v>0.0867947</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0908979</v>
+        <v>0.09118759999999999</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.115406</v>
+        <v>0.11549</v>
       </c>
       <c r="C45" t="n">
-        <v>0.121504</v>
+        <v>0.122011</v>
       </c>
       <c r="D45" t="n">
-        <v>0.26537</v>
+        <v>0.265483</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0878143</v>
+        <v>0.0885338</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0920892</v>
+        <v>0.0925508</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.123681</v>
+        <v>0.123857</v>
       </c>
       <c r="C46" t="n">
-        <v>0.128683</v>
+        <v>0.12892</v>
       </c>
       <c r="D46" t="n">
-        <v>0.271784</v>
+        <v>0.271597</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0893732</v>
+        <v>0.0894042</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0937697</v>
+        <v>0.09379460000000001</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.136337</v>
+        <v>0.134817</v>
       </c>
       <c r="C47" t="n">
-        <v>0.13983</v>
+        <v>0.139813</v>
       </c>
       <c r="D47" t="n">
-        <v>0.277076</v>
+        <v>0.277247</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0917019</v>
+        <v>0.09175319999999999</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0962293</v>
+        <v>0.0962575</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.152533</v>
+        <v>0.150499</v>
       </c>
       <c r="C48" t="n">
-        <v>0.154176</v>
+        <v>0.154213</v>
       </c>
       <c r="D48" t="n">
-        <v>0.282696</v>
+        <v>0.283206</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0965086</v>
+        <v>0.0953305</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0998551</v>
+        <v>0.0998549</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.173063</v>
+        <v>0.173223</v>
       </c>
       <c r="C49" t="n">
-        <v>0.182387</v>
+        <v>0.181972</v>
       </c>
       <c r="D49" t="n">
-        <v>0.289216</v>
+        <v>0.288881</v>
       </c>
       <c r="E49" t="n">
-        <v>0.100987</v>
+        <v>0.101083</v>
       </c>
       <c r="F49" t="n">
-        <v>0.105493</v>
+        <v>0.105432</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.204621</v>
+        <v>0.205155</v>
       </c>
       <c r="C50" t="n">
-        <v>0.204967</v>
+        <v>0.211754</v>
       </c>
       <c r="D50" t="n">
-        <v>0.203615</v>
+        <v>0.203252</v>
       </c>
       <c r="E50" t="n">
-        <v>0.11399</v>
+        <v>0.111076</v>
       </c>
       <c r="F50" t="n">
-        <v>0.115306</v>
+        <v>0.115167</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.243862</v>
+        <v>0.243033</v>
       </c>
       <c r="C51" t="n">
-        <v>0.247873</v>
+        <v>0.249657</v>
       </c>
       <c r="D51" t="n">
-        <v>0.210924</v>
+        <v>0.21056</v>
       </c>
       <c r="E51" t="n">
-        <v>0.08562350000000001</v>
+        <v>0.0856481</v>
       </c>
       <c r="F51" t="n">
-        <v>0.08915869999999999</v>
+        <v>0.08999790000000001</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.291502</v>
+        <v>0.300091</v>
       </c>
       <c r="C52" t="n">
-        <v>0.294893</v>
+        <v>0.293923</v>
       </c>
       <c r="D52" t="n">
-        <v>0.217246</v>
+        <v>0.217279</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0865667</v>
+        <v>0.08559269999999999</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0897608</v>
+        <v>0.0900987</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.097164</v>
+        <v>0.09743690000000001</v>
       </c>
       <c r="C53" t="n">
-        <v>0.100787</v>
+        <v>0.100356</v>
       </c>
       <c r="D53" t="n">
-        <v>0.224932</v>
+        <v>0.225017</v>
       </c>
       <c r="E53" t="n">
-        <v>0.08609020000000001</v>
+        <v>0.0866986</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0903815</v>
+        <v>0.0908335</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0987088</v>
+        <v>0.0977116</v>
       </c>
       <c r="C54" t="n">
-        <v>0.102994</v>
+        <v>0.103801</v>
       </c>
       <c r="D54" t="n">
-        <v>0.231671</v>
+        <v>0.231759</v>
       </c>
       <c r="E54" t="n">
-        <v>0.08671810000000001</v>
+        <v>0.0870687</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0905548</v>
+        <v>0.0914582</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.100406</v>
+        <v>0.101401</v>
       </c>
       <c r="C55" t="n">
-        <v>0.106908</v>
+        <v>0.107327</v>
       </c>
       <c r="D55" t="n">
-        <v>0.238288</v>
+        <v>0.238397</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0868868</v>
+        <v>0.08695</v>
       </c>
       <c r="F55" t="n">
-        <v>0.09115379999999999</v>
+        <v>0.0912308</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.103864</v>
+        <v>0.104171</v>
       </c>
       <c r="C56" t="n">
-        <v>0.108607</v>
+        <v>0.110443</v>
       </c>
       <c r="D56" t="n">
-        <v>0.245029</v>
+        <v>0.244812</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0872381</v>
+        <v>0.0879191</v>
       </c>
       <c r="F56" t="n">
-        <v>0.09244810000000001</v>
+        <v>0.09202050000000001</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.105903</v>
+        <v>0.107632</v>
       </c>
       <c r="C57" t="n">
-        <v>0.113693</v>
+        <v>0.113631</v>
       </c>
       <c r="D57" t="n">
-        <v>0.251187</v>
+        <v>0.250985</v>
       </c>
       <c r="E57" t="n">
-        <v>0.087866</v>
+        <v>0.0885688</v>
       </c>
       <c r="F57" t="n">
-        <v>0.0931714</v>
+        <v>0.09256490000000001</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.113097</v>
+        <v>0.111508</v>
       </c>
       <c r="C58" t="n">
-        <v>0.117529</v>
+        <v>0.115371</v>
       </c>
       <c r="D58" t="n">
-        <v>0.256981</v>
+        <v>0.256509</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0885387</v>
+        <v>0.0891652</v>
       </c>
       <c r="F58" t="n">
-        <v>0.09409389999999999</v>
+        <v>0.093676</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.117714</v>
+        <v>0.119755</v>
       </c>
       <c r="C59" t="n">
-        <v>0.122071</v>
+        <v>0.124482</v>
       </c>
       <c r="D59" t="n">
-        <v>0.262633</v>
+        <v>0.26201</v>
       </c>
       <c r="E59" t="n">
-        <v>0.08976770000000001</v>
+        <v>0.090796</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0949091</v>
+        <v>0.0950713</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.12584</v>
+        <v>0.127002</v>
       </c>
       <c r="C60" t="n">
-        <v>0.134043</v>
+        <v>0.132658</v>
       </c>
       <c r="D60" t="n">
-        <v>0.267901</v>
+        <v>0.267176</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0914739</v>
+        <v>0.0910078</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0974052</v>
+        <v>0.0978332</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.135963</v>
+        <v>0.135849</v>
       </c>
       <c r="C61" t="n">
-        <v>0.140752</v>
+        <v>0.141319</v>
       </c>
       <c r="D61" t="n">
-        <v>0.273999</v>
+        <v>0.272838</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0934084</v>
+        <v>0.0942099</v>
       </c>
       <c r="F61" t="n">
-        <v>0.0997902</v>
+        <v>0.099189</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.151038</v>
+        <v>0.1509</v>
       </c>
       <c r="C62" t="n">
-        <v>0.15487</v>
+        <v>0.159647</v>
       </c>
       <c r="D62" t="n">
-        <v>0.279804</v>
+        <v>0.27926</v>
       </c>
       <c r="E62" t="n">
-        <v>0.0970589</v>
+        <v>0.0966542</v>
       </c>
       <c r="F62" t="n">
-        <v>0.103592</v>
+        <v>0.103283</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.171317</v>
+        <v>0.176814</v>
       </c>
       <c r="C63" t="n">
-        <v>0.175252</v>
+        <v>0.175643</v>
       </c>
       <c r="D63" t="n">
-        <v>0.285335</v>
+        <v>0.284742</v>
       </c>
       <c r="E63" t="n">
-        <v>0.102386</v>
+        <v>0.102417</v>
       </c>
       <c r="F63" t="n">
-        <v>0.108213</v>
+        <v>0.108563</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.196649</v>
+        <v>0.20247</v>
       </c>
       <c r="C64" t="n">
-        <v>0.203908</v>
+        <v>0.211807</v>
       </c>
       <c r="D64" t="n">
-        <v>0.208907</v>
+        <v>0.209422</v>
       </c>
       <c r="E64" t="n">
-        <v>0.111255</v>
+        <v>0.112372</v>
       </c>
       <c r="F64" t="n">
-        <v>0.11634</v>
+        <v>0.117014</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.241688</v>
+        <v>0.239329</v>
       </c>
       <c r="C65" t="n">
-        <v>0.245792</v>
+        <v>0.244843</v>
       </c>
       <c r="D65" t="n">
-        <v>0.216234</v>
+        <v>0.215921</v>
       </c>
       <c r="E65" t="n">
-        <v>0.126137</v>
+        <v>0.127314</v>
       </c>
       <c r="F65" t="n">
-        <v>0.132889</v>
+        <v>0.131022</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.285685</v>
+        <v>0.291717</v>
       </c>
       <c r="C66" t="n">
-        <v>0.295538</v>
+        <v>0.291716</v>
       </c>
       <c r="D66" t="n">
-        <v>0.222468</v>
+        <v>0.223525</v>
       </c>
       <c r="E66" t="n">
-        <v>0.093616</v>
+        <v>0.0939137</v>
       </c>
       <c r="F66" t="n">
-        <v>0.09766950000000001</v>
+        <v>0.0977292</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.10855</v>
+        <v>0.106741</v>
       </c>
       <c r="C67" t="n">
-        <v>0.112754</v>
+        <v>0.112857</v>
       </c>
       <c r="D67" t="n">
-        <v>0.234596</v>
+        <v>0.233968</v>
       </c>
       <c r="E67" t="n">
-        <v>0.09430189999999999</v>
+        <v>0.0935574</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0982326</v>
+        <v>0.098408</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.10888</v>
+        <v>0.107932</v>
       </c>
       <c r="C68" t="n">
-        <v>0.116691</v>
+        <v>0.114776</v>
       </c>
       <c r="D68" t="n">
-        <v>0.239601</v>
+        <v>0.241341</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0941554</v>
+        <v>0.09387819999999999</v>
       </c>
       <c r="F68" t="n">
-        <v>0.0988853</v>
+        <v>0.09872259999999999</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.11133</v>
+        <v>0.111502</v>
       </c>
       <c r="C69" t="n">
-        <v>0.117665</v>
+        <v>0.117276</v>
       </c>
       <c r="D69" t="n">
-        <v>0.250012</v>
+        <v>0.249376</v>
       </c>
       <c r="E69" t="n">
-        <v>0.09497559999999999</v>
+        <v>0.0947225</v>
       </c>
       <c r="F69" t="n">
-        <v>0.09997730000000001</v>
+        <v>0.09976359999999999</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.115232</v>
+        <v>0.115963</v>
       </c>
       <c r="C70" t="n">
-        <v>0.119517</v>
+        <v>0.119754</v>
       </c>
       <c r="D70" t="n">
-        <v>0.259398</v>
+        <v>0.258235</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0956072</v>
+        <v>0.09531389999999999</v>
       </c>
       <c r="F70" t="n">
-        <v>0.100666</v>
+        <v>0.100446</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.117205</v>
+        <v>0.118364</v>
       </c>
       <c r="C71" t="n">
-        <v>0.123332</v>
+        <v>0.123876</v>
       </c>
       <c r="D71" t="n">
-        <v>0.271079</v>
+        <v>0.26864</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0962466</v>
+        <v>0.0964361</v>
       </c>
       <c r="F71" t="n">
-        <v>0.101662</v>
+        <v>0.102172</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.122168</v>
+        <v>0.12353</v>
       </c>
       <c r="C72" t="n">
-        <v>0.13011</v>
+        <v>0.127992</v>
       </c>
       <c r="D72" t="n">
-        <v>0.282413</v>
+        <v>0.276191</v>
       </c>
       <c r="E72" t="n">
-        <v>0.09682730000000001</v>
+        <v>0.09683840000000001</v>
       </c>
       <c r="F72" t="n">
-        <v>0.103158</v>
+        <v>0.102949</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.126791</v>
+        <v>0.127852</v>
       </c>
       <c r="C73" t="n">
-        <v>0.134908</v>
+        <v>0.135544</v>
       </c>
       <c r="D73" t="n">
-        <v>0.289701</v>
+        <v>0.289657</v>
       </c>
       <c r="E73" t="n">
-        <v>0.097791</v>
+        <v>0.0979351</v>
       </c>
       <c r="F73" t="n">
-        <v>0.104593</v>
+        <v>0.104971</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.136737</v>
+        <v>0.13815</v>
       </c>
       <c r="C74" t="n">
-        <v>0.1428</v>
+        <v>0.143852</v>
       </c>
       <c r="D74" t="n">
-        <v>0.306112</v>
+        <v>0.302723</v>
       </c>
       <c r="E74" t="n">
-        <v>0.09963080000000001</v>
+        <v>0.0996804</v>
       </c>
       <c r="F74" t="n">
-        <v>0.106708</v>
+        <v>0.10652</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.144214</v>
+        <v>0.14425</v>
       </c>
       <c r="C75" t="n">
-        <v>0.153345</v>
+        <v>0.154822</v>
       </c>
       <c r="D75" t="n">
-        <v>0.320103</v>
+        <v>0.317461</v>
       </c>
       <c r="E75" t="n">
-        <v>0.101938</v>
+        <v>0.101608</v>
       </c>
       <c r="F75" t="n">
-        <v>0.109374</v>
+        <v>0.109703</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.157124</v>
+        <v>0.157998</v>
       </c>
       <c r="C76" t="n">
-        <v>0.167582</v>
+        <v>0.168161</v>
       </c>
       <c r="D76" t="n">
-        <v>0.333727</v>
+        <v>0.332402</v>
       </c>
       <c r="E76" t="n">
-        <v>0.104299</v>
+        <v>0.103746</v>
       </c>
       <c r="F76" t="n">
-        <v>0.112958</v>
+        <v>0.112389</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.183642</v>
+        <v>0.177553</v>
       </c>
       <c r="C77" t="n">
-        <v>0.18869</v>
+        <v>0.193456</v>
       </c>
       <c r="D77" t="n">
-        <v>0.348112</v>
+        <v>0.345673</v>
       </c>
       <c r="E77" t="n">
-        <v>0.109492</v>
+        <v>0.109559</v>
       </c>
       <c r="F77" t="n">
-        <v>0.118203</v>
+        <v>0.119037</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.207401</v>
+        <v>0.207295</v>
       </c>
       <c r="C78" t="n">
-        <v>0.219189</v>
+        <v>0.219177</v>
       </c>
       <c r="D78" t="n">
-        <v>0.270091</v>
+        <v>0.268623</v>
       </c>
       <c r="E78" t="n">
-        <v>0.116406</v>
+        <v>0.117538</v>
       </c>
       <c r="F78" t="n">
-        <v>0.126078</v>
+        <v>0.125707</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.252193</v>
+        <v>0.2459</v>
       </c>
       <c r="C79" t="n">
-        <v>0.258308</v>
+        <v>0.259466</v>
       </c>
       <c r="D79" t="n">
-        <v>0.286588</v>
+        <v>0.28625</v>
       </c>
       <c r="E79" t="n">
-        <v>0.131114</v>
+        <v>0.130786</v>
       </c>
       <c r="F79" t="n">
-        <v>0.141843</v>
+        <v>0.14001</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.294576</v>
+        <v>0.296336</v>
       </c>
       <c r="C80" t="n">
-        <v>0.31588</v>
+        <v>0.325808</v>
       </c>
       <c r="D80" t="n">
-        <v>0.306528</v>
+        <v>0.305893</v>
       </c>
       <c r="E80" t="n">
-        <v>0.10176</v>
+        <v>0.101781</v>
       </c>
       <c r="F80" t="n">
-        <v>0.106234</v>
+        <v>0.106639</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.120211</v>
+        <v>0.120115</v>
       </c>
       <c r="C81" t="n">
-        <v>0.125989</v>
+        <v>0.126853</v>
       </c>
       <c r="D81" t="n">
-        <v>0.325926</v>
+        <v>0.326003</v>
       </c>
       <c r="E81" t="n">
-        <v>0.102265</v>
+        <v>0.102119</v>
       </c>
       <c r="F81" t="n">
-        <v>0.107549</v>
+        <v>0.107155</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.122162</v>
+        <v>0.121474</v>
       </c>
       <c r="C82" t="n">
-        <v>0.12833</v>
+        <v>0.128109</v>
       </c>
       <c r="D82" t="n">
-        <v>0.346155</v>
+        <v>0.346343</v>
       </c>
       <c r="E82" t="n">
-        <v>0.10256</v>
+        <v>0.102531</v>
       </c>
       <c r="F82" t="n">
-        <v>0.107728</v>
+        <v>0.107723</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.123237</v>
+        <v>0.124936</v>
       </c>
       <c r="C83" t="n">
-        <v>0.130791</v>
+        <v>0.13028</v>
       </c>
       <c r="D83" t="n">
-        <v>0.368528</v>
+        <v>0.368045</v>
       </c>
       <c r="E83" t="n">
-        <v>0.103088</v>
+        <v>0.10302</v>
       </c>
       <c r="F83" t="n">
-        <v>0.108669</v>
+        <v>0.108966</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.126615</v>
+        <v>0.126038</v>
       </c>
       <c r="C84" t="n">
-        <v>0.133673</v>
+        <v>0.134264</v>
       </c>
       <c r="D84" t="n">
-        <v>0.389271</v>
+        <v>0.390516</v>
       </c>
       <c r="E84" t="n">
-        <v>0.103915</v>
+        <v>0.103598</v>
       </c>
       <c r="F84" t="n">
-        <v>0.109668</v>
+        <v>0.110019</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.128914</v>
+        <v>0.129101</v>
       </c>
       <c r="C85" t="n">
-        <v>0.137585</v>
+        <v>0.138007</v>
       </c>
       <c r="D85" t="n">
-        <v>0.411917</v>
+        <v>0.413324</v>
       </c>
       <c r="E85" t="n">
-        <v>0.104189</v>
+        <v>0.104385</v>
       </c>
       <c r="F85" t="n">
-        <v>0.11174</v>
+        <v>0.111627</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.133293</v>
+        <v>0.133107</v>
       </c>
       <c r="C86" t="n">
-        <v>0.14285</v>
+        <v>0.143668</v>
       </c>
       <c r="D86" t="n">
-        <v>0.435292</v>
+        <v>0.437578</v>
       </c>
       <c r="E86" t="n">
-        <v>0.105097</v>
+        <v>0.105416</v>
       </c>
       <c r="F86" t="n">
-        <v>0.11369</v>
+        <v>0.112826</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.139157</v>
+        <v>0.138957</v>
       </c>
       <c r="C87" t="n">
-        <v>0.150389</v>
+        <v>0.150216</v>
       </c>
       <c r="D87" t="n">
-        <v>0.459233</v>
+        <v>0.460856</v>
       </c>
       <c r="E87" t="n">
-        <v>0.106577</v>
+        <v>0.106774</v>
       </c>
       <c r="F87" t="n">
-        <v>0.115505</v>
+        <v>0.11533</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.146719</v>
+        <v>0.146709</v>
       </c>
       <c r="C88" t="n">
-        <v>0.159902</v>
+        <v>0.159962</v>
       </c>
       <c r="D88" t="n">
-        <v>0.483754</v>
+        <v>0.484625</v>
       </c>
       <c r="E88" t="n">
-        <v>0.107852</v>
+        <v>0.108126</v>
       </c>
       <c r="F88" t="n">
-        <v>0.118254</v>
+        <v>0.117686</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.159687</v>
+        <v>0.156797</v>
       </c>
       <c r="C89" t="n">
-        <v>0.176009</v>
+        <v>0.172495</v>
       </c>
       <c r="D89" t="n">
-        <v>0.50885</v>
+        <v>0.509381</v>
       </c>
       <c r="E89" t="n">
-        <v>0.109854</v>
+        <v>0.11067</v>
       </c>
       <c r="F89" t="n">
-        <v>0.122841</v>
+        <v>0.121966</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.17014</v>
+        <v>0.172023</v>
       </c>
       <c r="C90" t="n">
-        <v>0.191796</v>
+        <v>0.191534</v>
       </c>
       <c r="D90" t="n">
-        <v>0.534887</v>
+        <v>0.535875</v>
       </c>
       <c r="E90" t="n">
-        <v>0.113589</v>
+        <v>0.113164</v>
       </c>
       <c r="F90" t="n">
-        <v>0.128643</v>
+        <v>0.127392</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.189479</v>
+        <v>0.189449</v>
       </c>
       <c r="C91" t="n">
-        <v>0.222835</v>
+        <v>0.217054</v>
       </c>
       <c r="D91" t="n">
-        <v>0.562858</v>
+        <v>0.563196</v>
       </c>
       <c r="E91" t="n">
-        <v>0.118533</v>
+        <v>0.118712</v>
       </c>
       <c r="F91" t="n">
-        <v>0.137019</v>
+        <v>0.136123</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.217333</v>
+        <v>0.219769</v>
       </c>
       <c r="C92" t="n">
-        <v>0.255442</v>
+        <v>0.254811</v>
       </c>
       <c r="D92" t="n">
-        <v>0.421638</v>
+        <v>0.421927</v>
       </c>
       <c r="E92" t="n">
-        <v>0.126281</v>
+        <v>0.12655</v>
       </c>
       <c r="F92" t="n">
-        <v>0.149711</v>
+        <v>0.149439</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.267988</v>
+        <v>0.261928</v>
       </c>
       <c r="C93" t="n">
-        <v>0.310812</v>
+        <v>0.318897</v>
       </c>
       <c r="D93" t="n">
-        <v>0.440661</v>
+        <v>0.440314</v>
       </c>
       <c r="E93" t="n">
-        <v>0.139936</v>
+        <v>0.140545</v>
       </c>
       <c r="F93" t="n">
-        <v>0.168376</v>
+        <v>0.169599</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.327899</v>
+        <v>0.328805</v>
       </c>
       <c r="C94" t="n">
-        <v>0.390124</v>
+        <v>0.389632</v>
       </c>
       <c r="D94" t="n">
-        <v>0.45994</v>
+        <v>0.460019</v>
       </c>
       <c r="E94" t="n">
-        <v>0.107598</v>
+        <v>0.107902</v>
       </c>
       <c r="F94" t="n">
-        <v>0.12093</v>
+        <v>0.11959</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.128748</v>
+        <v>0.127967</v>
       </c>
       <c r="C95" t="n">
-        <v>0.145247</v>
+        <v>0.144813</v>
       </c>
       <c r="D95" t="n">
-        <v>0.479408</v>
+        <v>0.479233</v>
       </c>
       <c r="E95" t="n">
-        <v>0.108706</v>
+        <v>0.108664</v>
       </c>
       <c r="F95" t="n">
-        <v>0.123663</v>
+        <v>0.123823</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.132248</v>
+        <v>0.130457</v>
       </c>
       <c r="C96" t="n">
-        <v>0.150416</v>
+        <v>0.150312</v>
       </c>
       <c r="D96" t="n">
-        <v>0.500299</v>
+        <v>0.50016</v>
       </c>
       <c r="E96" t="n">
-        <v>0.110261</v>
+        <v>0.110168</v>
       </c>
       <c r="F96" t="n">
-        <v>0.127629</v>
+        <v>0.127543</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.133859</v>
+        <v>0.134026</v>
       </c>
       <c r="C97" t="n">
-        <v>0.156454</v>
+        <v>0.156728</v>
       </c>
       <c r="D97" t="n">
-        <v>0.520953</v>
+        <v>0.5213989999999999</v>
       </c>
       <c r="E97" t="n">
-        <v>0.112214</v>
+        <v>0.111706</v>
       </c>
       <c r="F97" t="n">
-        <v>0.132499</v>
+        <v>0.132546</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.137871</v>
+        <v>0.137739</v>
       </c>
       <c r="C98" t="n">
-        <v>0.164733</v>
+        <v>0.164031</v>
       </c>
       <c r="D98" t="n">
-        <v>0.543405</v>
+        <v>0.542507</v>
       </c>
       <c r="E98" t="n">
-        <v>0.114332</v>
+        <v>0.114043</v>
       </c>
       <c r="F98" t="n">
-        <v>0.138376</v>
+        <v>0.138315</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.143235</v>
+        <v>0.143845</v>
       </c>
       <c r="C99" t="n">
-        <v>0.17423</v>
+        <v>0.174222</v>
       </c>
       <c r="D99" t="n">
-        <v>0.563623</v>
+        <v>0.565937</v>
       </c>
       <c r="E99" t="n">
-        <v>0.116929</v>
+        <v>0.116797</v>
       </c>
       <c r="F99" t="n">
-        <v>0.144152</v>
+        <v>0.144588</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.151135</v>
+        <v>0.149336</v>
       </c>
       <c r="C100" t="n">
-        <v>0.186735</v>
+        <v>0.187258</v>
       </c>
       <c r="D100" t="n">
-        <v>0.588762</v>
+        <v>0.588866</v>
       </c>
       <c r="E100" t="n">
-        <v>0.119087</v>
+        <v>0.120291</v>
       </c>
       <c r="F100" t="n">
-        <v>0.151338</v>
+        <v>0.15086</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.158376</v>
+        <v>0.160741</v>
       </c>
       <c r="C101" t="n">
-        <v>0.198115</v>
+        <v>0.197987</v>
       </c>
       <c r="D101" t="n">
-        <v>0.6129829999999999</v>
+        <v>0.613133</v>
       </c>
       <c r="E101" t="n">
-        <v>0.123276</v>
+        <v>0.123194</v>
       </c>
       <c r="F101" t="n">
-        <v>0.157328</v>
+        <v>0.157706</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.169796</v>
+        <v>0.169831</v>
       </c>
       <c r="C102" t="n">
-        <v>0.21508</v>
+        <v>0.214396</v>
       </c>
       <c r="D102" t="n">
-        <v>0.637775</v>
+        <v>0.63868</v>
       </c>
       <c r="E102" t="n">
-        <v>0.127684</v>
+        <v>0.127794</v>
       </c>
       <c r="F102" t="n">
-        <v>0.164686</v>
+        <v>0.165252</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.183446</v>
+        <v>0.18342</v>
       </c>
       <c r="C103" t="n">
-        <v>0.230885</v>
+        <v>0.230538</v>
       </c>
       <c r="D103" t="n">
-        <v>0.664764</v>
+        <v>0.666014</v>
       </c>
       <c r="E103" t="n">
-        <v>0.132895</v>
+        <v>0.132903</v>
       </c>
       <c r="F103" t="n">
-        <v>0.172531</v>
+        <v>0.172914</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.200971</v>
+        <v>0.2012</v>
       </c>
       <c r="C104" t="n">
-        <v>0.25311</v>
+        <v>0.253534</v>
       </c>
       <c r="D104" t="n">
-        <v>0.691976</v>
+        <v>0.694584</v>
       </c>
       <c r="E104" t="n">
-        <v>0.138966</v>
+        <v>0.139132</v>
       </c>
       <c r="F104" t="n">
-        <v>0.181154</v>
+        <v>0.181275</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.223651</v>
+        <v>0.224036</v>
       </c>
       <c r="C105" t="n">
-        <v>0.279828</v>
+        <v>0.279722</v>
       </c>
       <c r="D105" t="n">
-        <v>0.723005</v>
+        <v>0.725625</v>
       </c>
       <c r="E105" t="n">
-        <v>0.147415</v>
+        <v>0.147961</v>
       </c>
       <c r="F105" t="n">
-        <v>0.191528</v>
+        <v>0.191843</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.254785</v>
+        <v>0.255188</v>
       </c>
       <c r="C106" t="n">
-        <v>0.319132</v>
+        <v>0.323493</v>
       </c>
       <c r="D106" t="n">
-        <v>0.756235</v>
+        <v>0.756753</v>
       </c>
       <c r="E106" t="n">
-        <v>0.159742</v>
+        <v>0.158539</v>
       </c>
       <c r="F106" t="n">
-        <v>0.205591</v>
+        <v>0.205581</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.307128</v>
+        <v>0.298338</v>
       </c>
       <c r="C107" t="n">
-        <v>0.370042</v>
+        <v>0.371827</v>
       </c>
       <c r="D107" t="n">
-        <v>0.594198</v>
+        <v>0.595457</v>
       </c>
       <c r="E107" t="n">
-        <v>0.174103</v>
+        <v>0.174</v>
       </c>
       <c r="F107" t="n">
-        <v>0.224243</v>
+        <v>0.22459</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.363043</v>
+        <v>0.365733</v>
       </c>
       <c r="C108" t="n">
-        <v>0.447157</v>
+        <v>0.448315</v>
       </c>
       <c r="D108" t="n">
-        <v>0.617595</v>
+        <v>0.6180099999999999</v>
       </c>
       <c r="E108" t="n">
-        <v>0.129082</v>
+        <v>0.128802</v>
       </c>
       <c r="F108" t="n">
-        <v>0.15949</v>
+        <v>0.159922</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.450133</v>
+        <v>0.46433</v>
       </c>
       <c r="C109" t="n">
-        <v>0.5615830000000001</v>
+        <v>0.563656</v>
       </c>
       <c r="D109" t="n">
-        <v>0.6395189999999999</v>
+        <v>0.641202</v>
       </c>
       <c r="E109" t="n">
-        <v>0.131253</v>
+        <v>0.131205</v>
       </c>
       <c r="F109" t="n">
-        <v>0.1633</v>
+        <v>0.163533</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.154819</v>
+        <v>0.154806</v>
       </c>
       <c r="C110" t="n">
-        <v>0.189519</v>
+        <v>0.189032</v>
       </c>
       <c r="D110" t="n">
-        <v>0.6614719999999999</v>
+        <v>0.664702</v>
       </c>
       <c r="E110" t="n">
-        <v>0.134048</v>
+        <v>0.133961</v>
       </c>
       <c r="F110" t="n">
-        <v>0.166992</v>
+        <v>0.167255</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.158538</v>
+        <v>0.158608</v>
       </c>
       <c r="C111" t="n">
-        <v>0.194433</v>
+        <v>0.195749</v>
       </c>
       <c r="D111" t="n">
-        <v>0.687651</v>
+        <v>0.689325</v>
       </c>
       <c r="E111" t="n">
-        <v>0.136207</v>
+        <v>0.136447</v>
       </c>
       <c r="F111" t="n">
-        <v>0.171045</v>
+        <v>0.171252</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.163082</v>
+        <v>0.163139</v>
       </c>
       <c r="C112" t="n">
-        <v>0.202273</v>
+        <v>0.200802</v>
       </c>
       <c r="D112" t="n">
-        <v>0.7133699999999999</v>
+        <v>0.714857</v>
       </c>
       <c r="E112" t="n">
-        <v>0.138507</v>
+        <v>0.138768</v>
       </c>
       <c r="F112" t="n">
-        <v>0.174688</v>
+        <v>0.175037</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.168392</v>
+        <v>0.168512</v>
       </c>
       <c r="C113" t="n">
-        <v>0.207988</v>
+        <v>0.20822</v>
       </c>
       <c r="D113" t="n">
-        <v>0.740206</v>
+        <v>0.740903</v>
       </c>
       <c r="E113" t="n">
-        <v>0.141474</v>
+        <v>0.141242</v>
       </c>
       <c r="F113" t="n">
-        <v>0.17878</v>
+        <v>0.179043</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.174763</v>
+        <v>0.174897</v>
       </c>
       <c r="C114" t="n">
-        <v>0.218572</v>
+        <v>0.216901</v>
       </c>
       <c r="D114" t="n">
-        <v>0.766764</v>
+        <v>0.767903</v>
       </c>
       <c r="E114" t="n">
-        <v>0.143652</v>
+        <v>0.144013</v>
       </c>
       <c r="F114" t="n">
-        <v>0.183178</v>
+        <v>0.183543</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.182388</v>
+        <v>0.182509</v>
       </c>
       <c r="C115" t="n">
-        <v>0.227639</v>
+        <v>0.227193</v>
       </c>
       <c r="D115" t="n">
-        <v>0.793699</v>
+        <v>0.795362</v>
       </c>
       <c r="E115" t="n">
-        <v>0.14665</v>
+        <v>0.14769</v>
       </c>
       <c r="F115" t="n">
-        <v>0.188056</v>
+        <v>0.188296</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.191822</v>
+        <v>0.191959</v>
       </c>
       <c r="C116" t="n">
-        <v>0.239832</v>
+        <v>0.241299</v>
       </c>
       <c r="D116" t="n">
-        <v>0.821994</v>
+        <v>0.823948</v>
       </c>
       <c r="E116" t="n">
-        <v>0.149934</v>
+        <v>0.150131</v>
       </c>
       <c r="F116" t="n">
-        <v>0.193323</v>
+        <v>0.193656</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.203914</v>
+        <v>0.204078</v>
       </c>
       <c r="C117" t="n">
-        <v>0.256025</v>
+        <v>0.257804</v>
       </c>
       <c r="D117" t="n">
-        <v>0.851566</v>
+        <v>0.852139</v>
       </c>
       <c r="E117" t="n">
-        <v>0.153847</v>
+        <v>0.154158</v>
       </c>
       <c r="F117" t="n">
-        <v>0.199911</v>
+        <v>0.199855</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.219369</v>
+        <v>0.221215</v>
       </c>
       <c r="C118" t="n">
-        <v>0.276529</v>
+        <v>0.276899</v>
       </c>
       <c r="D118" t="n">
-        <v>0.880243</v>
+        <v>0.881912</v>
       </c>
       <c r="E118" t="n">
-        <v>0.158857</v>
+        <v>0.159007</v>
       </c>
       <c r="F118" t="n">
-        <v>0.207368</v>
+        <v>0.207355</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.240254</v>
+        <v>0.240574</v>
       </c>
       <c r="C119" t="n">
-        <v>0.304006</v>
+        <v>0.304275</v>
       </c>
       <c r="D119" t="n">
-        <v>0.911983</v>
+        <v>0.913726</v>
       </c>
       <c r="E119" t="n">
-        <v>0.165266</v>
+        <v>0.16553</v>
       </c>
       <c r="F119" t="n">
-        <v>0.216558</v>
+        <v>0.216969</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.26935</v>
+        <v>0.269623</v>
       </c>
       <c r="C120" t="n">
-        <v>0.341183</v>
+        <v>0.343574</v>
       </c>
       <c r="D120" t="n">
-        <v>0.944621</v>
+        <v>0.946396</v>
       </c>
       <c r="E120" t="n">
-        <v>0.174598</v>
+        <v>0.174835</v>
       </c>
       <c r="F120" t="n">
-        <v>0.229763</v>
+        <v>0.229914</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.315599</v>
+        <v>0.311168</v>
       </c>
       <c r="C121" t="n">
-        <v>0.396869</v>
+        <v>0.396604</v>
       </c>
       <c r="D121" t="n">
-        <v>0.683569</v>
+        <v>0.685324</v>
       </c>
       <c r="E121" t="n">
-        <v>0.188549</v>
+        <v>0.188932</v>
       </c>
       <c r="F121" t="n">
-        <v>0.248646</v>
+        <v>0.249175</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.372458</v>
+        <v>0.383188</v>
       </c>
       <c r="C122" t="n">
-        <v>0.483687</v>
+        <v>0.477999</v>
       </c>
       <c r="D122" t="n">
-        <v>0.705874</v>
+        <v>0.707565</v>
       </c>
       <c r="E122" t="n">
-        <v>0.211729</v>
+        <v>0.211868</v>
       </c>
       <c r="F122" t="n">
-        <v>0.279252</v>
+        <v>0.279956</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.473987</v>
+        <v>0.47481</v>
       </c>
       <c r="C123" t="n">
-        <v>0.598539</v>
+        <v>0.599163</v>
       </c>
       <c r="D123" t="n">
-        <v>0.728479</v>
+        <v>0.73033</v>
       </c>
       <c r="E123" t="n">
-        <v>0.146641</v>
+        <v>0.149318</v>
       </c>
       <c r="F123" t="n">
-        <v>0.185066</v>
+        <v>0.184333</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.16926</v>
+        <v>0.169721</v>
       </c>
       <c r="C124" t="n">
-        <v>0.21224</v>
+        <v>0.209165</v>
       </c>
       <c r="D124" t="n">
-        <v>0.752739</v>
+        <v>0.754864</v>
       </c>
       <c r="E124" t="n">
-        <v>0.153135</v>
+        <v>0.150041</v>
       </c>
       <c r="F124" t="n">
-        <v>0.190246</v>
+        <v>0.190291</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.173153</v>
+        <v>0.17404</v>
       </c>
       <c r="C125" t="n">
-        <v>0.215612</v>
+        <v>0.219299</v>
       </c>
       <c r="D125" t="n">
-        <v>0.77793</v>
+        <v>0.779888</v>
       </c>
       <c r="E125" t="n">
-        <v>0.149804</v>
+        <v>0.150071</v>
       </c>
       <c r="F125" t="n">
-        <v>0.190012</v>
+        <v>0.19237</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.180774</v>
+        <v>0.176911</v>
       </c>
       <c r="C126" t="n">
-        <v>0.221727</v>
+        <v>0.225666</v>
       </c>
       <c r="D126" t="n">
-        <v>0.804163</v>
+        <v>0.806312</v>
       </c>
       <c r="E126" t="n">
-        <v>0.152283</v>
+        <v>0.152822</v>
       </c>
       <c r="F126" t="n">
-        <v>0.197202</v>
+        <v>0.195585</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.183416</v>
+        <v>0.182922</v>
       </c>
       <c r="C127" t="n">
-        <v>0.230848</v>
+        <v>0.228799</v>
       </c>
       <c r="D127" t="n">
-        <v>0.830915</v>
+        <v>0.832906</v>
       </c>
       <c r="E127" t="n">
-        <v>0.155153</v>
+        <v>0.162376</v>
       </c>
       <c r="F127" t="n">
-        <v>0.202525</v>
+        <v>0.199577</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.188385</v>
+        <v>0.191836</v>
       </c>
       <c r="C128" t="n">
-        <v>0.239511</v>
+        <v>0.238242</v>
       </c>
       <c r="D128" t="n">
-        <v>0.858599</v>
+        <v>0.860819</v>
       </c>
       <c r="E128" t="n">
-        <v>0.161339</v>
+        <v>0.158186</v>
       </c>
       <c r="F128" t="n">
-        <v>0.208455</v>
+        <v>0.206648</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.198117</v>
+        <v>0.195846</v>
       </c>
       <c r="C129" t="n">
-        <v>0.249568</v>
+        <v>0.253145</v>
       </c>
       <c r="D129" t="n">
-        <v>0.88734</v>
+        <v>0.891109</v>
       </c>
       <c r="E129" t="n">
-        <v>0.16378</v>
+        <v>0.161557</v>
       </c>
       <c r="F129" t="n">
-        <v>0.21171</v>
+        <v>0.211005</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.208587</v>
+        <v>0.207733</v>
       </c>
       <c r="C130" t="n">
-        <v>0.262955</v>
+        <v>0.266013</v>
       </c>
       <c r="D130" t="n">
-        <v>0.917223</v>
+        <v>0.9194639999999999</v>
       </c>
       <c r="E130" t="n">
-        <v>0.163407</v>
+        <v>0.163628</v>
       </c>
       <c r="F130" t="n">
-        <v>0.216746</v>
+        <v>0.216239</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.219144</v>
+        <v>0.220179</v>
       </c>
       <c r="C131" t="n">
-        <v>0.28583</v>
+        <v>0.283822</v>
       </c>
       <c r="D131" t="n">
-        <v>0.94731</v>
+        <v>0.949951</v>
       </c>
       <c r="E131" t="n">
-        <v>0.169731</v>
+        <v>0.168866</v>
       </c>
       <c r="F131" t="n">
-        <v>0.224644</v>
+        <v>0.224129</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.233654</v>
+        <v>0.234999</v>
       </c>
       <c r="C132" t="n">
-        <v>0.303017</v>
+        <v>0.308588</v>
       </c>
       <c r="D132" t="n">
-        <v>0.979282</v>
+        <v>0.980921</v>
       </c>
       <c r="E132" t="n">
-        <v>0.173823</v>
+        <v>0.177021</v>
       </c>
       <c r="F132" t="n">
-        <v>0.236584</v>
+        <v>0.234396</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.257627</v>
+        <v>0.261121</v>
       </c>
       <c r="C133" t="n">
-        <v>0.331551</v>
+        <v>0.331071</v>
       </c>
       <c r="D133" t="n">
-        <v>1.0116</v>
+        <v>1.0132</v>
       </c>
       <c r="E133" t="n">
-        <v>0.179297</v>
+        <v>0.181364</v>
       </c>
       <c r="F133" t="n">
-        <v>0.240728</v>
+        <v>0.245294</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.286939</v>
+        <v>0.283924</v>
       </c>
       <c r="C134" t="n">
-        <v>0.368619</v>
+        <v>0.369012</v>
       </c>
       <c r="D134" t="n">
-        <v>1.04454</v>
+        <v>1.04729</v>
       </c>
       <c r="E134" t="n">
-        <v>0.189065</v>
+        <v>0.193168</v>
       </c>
       <c r="F134" t="n">
-        <v>0.257097</v>
+        <v>0.256171</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.324738</v>
+        <v>0.326742</v>
       </c>
       <c r="C135" t="n">
-        <v>0.424301</v>
+        <v>0.427954</v>
       </c>
       <c r="D135" t="n">
-        <v>0.7009030000000001</v>
+        <v>0.7016790000000001</v>
       </c>
       <c r="E135" t="n">
-        <v>0.201778</v>
+        <v>0.203497</v>
       </c>
       <c r="F135" t="n">
-        <v>0.275524</v>
+        <v>0.279661</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.381444</v>
+        <v>0.392374</v>
       </c>
       <c r="C136" t="n">
-        <v>0.507969</v>
+        <v>0.509176</v>
       </c>
       <c r="D136" t="n">
-        <v>0.719042</v>
+        <v>0.720491</v>
       </c>
       <c r="E136" t="n">
-        <v>0.222649</v>
+        <v>0.224634</v>
       </c>
       <c r="F136" t="n">
-        <v>0.305598</v>
+        <v>0.306484</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.482353</v>
+        <v>0.478491</v>
       </c>
       <c r="C137" t="n">
-        <v>0.629258</v>
+        <v>0.636464</v>
       </c>
       <c r="D137" t="n">
-        <v>0.737899</v>
+        <v>0.739531</v>
       </c>
       <c r="E137" t="n">
-        <v>0.27607</v>
+        <v>0.279532</v>
       </c>
       <c r="F137" t="n">
-        <v>0.322645</v>
+        <v>0.323912</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.314108</v>
+        <v>0.318767</v>
       </c>
       <c r="C138" t="n">
-        <v>0.357654</v>
+        <v>0.363146</v>
       </c>
       <c r="D138" t="n">
-        <v>0.758773</v>
+        <v>0.759402</v>
       </c>
       <c r="E138" t="n">
-        <v>0.277954</v>
+        <v>0.281167</v>
       </c>
       <c r="F138" t="n">
-        <v>0.327675</v>
+        <v>0.331213</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.321323</v>
+        <v>0.31806</v>
       </c>
       <c r="C139" t="n">
-        <v>0.363635</v>
+        <v>0.366953</v>
       </c>
       <c r="D139" t="n">
-        <v>0.779991</v>
+        <v>0.781213</v>
       </c>
       <c r="E139" t="n">
-        <v>0.281569</v>
+        <v>0.280032</v>
       </c>
       <c r="F139" t="n">
-        <v>0.332512</v>
+        <v>0.333472</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.326333</v>
+        <v>0.323601</v>
       </c>
       <c r="C140" t="n">
-        <v>0.373185</v>
+        <v>0.374706</v>
       </c>
       <c r="D140" t="n">
-        <v>0.801628</v>
+        <v>0.802931</v>
       </c>
       <c r="E140" t="n">
-        <v>0.284559</v>
+        <v>0.285435</v>
       </c>
       <c r="F140" t="n">
-        <v>0.338253</v>
+        <v>0.338503</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.327591</v>
+        <v>0.325646</v>
       </c>
       <c r="C141" t="n">
-        <v>0.379817</v>
+        <v>0.379187</v>
       </c>
       <c r="D141" t="n">
-        <v>0.824173</v>
+        <v>0.825874</v>
       </c>
       <c r="E141" t="n">
-        <v>0.286187</v>
+        <v>0.285853</v>
       </c>
       <c r="F141" t="n">
-        <v>0.343384</v>
+        <v>0.346132</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.338226</v>
+        <v>0.336463</v>
       </c>
       <c r="C142" t="n">
-        <v>0.391751</v>
+        <v>0.396168</v>
       </c>
       <c r="D142" t="n">
-        <v>0.848237</v>
+        <v>0.849923</v>
       </c>
       <c r="E142" t="n">
-        <v>0.291221</v>
+        <v>0.287848</v>
       </c>
       <c r="F142" t="n">
-        <v>0.350334</v>
+        <v>0.350185</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.34254</v>
+        <v>0.338345</v>
       </c>
       <c r="C143" t="n">
-        <v>0.401533</v>
+        <v>0.400891</v>
       </c>
       <c r="D143" t="n">
-        <v>0.873367</v>
+        <v>0.875058</v>
       </c>
       <c r="E143" t="n">
-        <v>0.289508</v>
+        <v>0.279969</v>
       </c>
       <c r="F143" t="n">
-        <v>0.357176</v>
+        <v>0.393479</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Scattered unsuccessful looukp.xlsx
+++ b/clang-x86/Scattered unsuccessful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.09510689999999999</v>
+        <v>0.09624050000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0979698</v>
+        <v>0.0990316</v>
       </c>
       <c r="D2" t="n">
-        <v>0.186124</v>
+        <v>0.18712</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0836824</v>
+        <v>0.0837338</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0842697</v>
+        <v>0.0844164</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.10249</v>
+        <v>0.103527</v>
       </c>
       <c r="C3" t="n">
-        <v>0.104906</v>
+        <v>0.105219</v>
       </c>
       <c r="D3" t="n">
-        <v>0.194801</v>
+        <v>0.193572</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0844707</v>
+        <v>0.0844121</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0849816</v>
+        <v>0.08518199999999999</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.111941</v>
+        <v>0.113477</v>
       </c>
       <c r="C4" t="n">
-        <v>0.116314</v>
+        <v>0.113833</v>
       </c>
       <c r="D4" t="n">
-        <v>0.201542</v>
+        <v>0.202009</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0856698</v>
+        <v>0.08573500000000001</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0863264</v>
+        <v>0.0867922</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.132074</v>
+        <v>0.133634</v>
       </c>
       <c r="C5" t="n">
-        <v>0.131072</v>
+        <v>0.131716</v>
       </c>
       <c r="D5" t="n">
-        <v>0.210318</v>
+        <v>0.206777</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0872352</v>
+        <v>0.086996</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0875933</v>
+        <v>0.0879959</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.159301</v>
+        <v>0.161002</v>
       </c>
       <c r="C6" t="n">
-        <v>0.164138</v>
+        <v>0.163579</v>
       </c>
       <c r="D6" t="n">
-        <v>0.214344</v>
+        <v>0.21407</v>
       </c>
       <c r="E6" t="n">
-        <v>0.08907089999999999</v>
+        <v>0.089146</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0895519</v>
+        <v>0.0900933</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.189112</v>
+        <v>0.19035</v>
       </c>
       <c r="C7" t="n">
-        <v>0.191707</v>
+        <v>0.190855</v>
       </c>
       <c r="D7" t="n">
         <v>0.161276</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0954599</v>
+        <v>0.09498280000000001</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0948952</v>
+        <v>0.09495869999999999</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.229125</v>
+        <v>0.230379</v>
       </c>
       <c r="C8" t="n">
-        <v>0.225744</v>
+        <v>0.224884</v>
       </c>
       <c r="D8" t="n">
-        <v>0.168918</v>
+        <v>0.16825</v>
       </c>
       <c r="E8" t="n">
-        <v>0.107023</v>
+        <v>0.106246</v>
       </c>
       <c r="F8" t="n">
-        <v>0.106808</v>
+        <v>0.107594</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.272131</v>
+        <v>0.277025</v>
       </c>
       <c r="C9" t="n">
-        <v>0.267612</v>
+        <v>0.269128</v>
       </c>
       <c r="D9" t="n">
-        <v>0.175531</v>
+        <v>0.176104</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0818448</v>
+        <v>0.082162</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0827261</v>
+        <v>0.082612</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.08579829999999999</v>
+        <v>0.0863903</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0868883</v>
+        <v>0.0870997</v>
       </c>
       <c r="D10" t="n">
-        <v>0.183052</v>
+        <v>0.182792</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0821361</v>
+        <v>0.0823599</v>
       </c>
       <c r="F10" t="n">
-        <v>0.08285090000000001</v>
+        <v>0.0829714</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0865242</v>
+        <v>0.08714180000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>0.088029</v>
+        <v>0.0877874</v>
       </c>
       <c r="D11" t="n">
-        <v>0.19069</v>
+        <v>0.190403</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0825896</v>
+        <v>0.0828043</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0833182</v>
+        <v>0.08338719999999999</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.08807719999999999</v>
+        <v>0.0885811</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0904306</v>
+        <v>0.08944879999999999</v>
       </c>
       <c r="D12" t="n">
-        <v>0.197936</v>
+        <v>0.197984</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0828414</v>
+        <v>0.08295520000000001</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0835925</v>
+        <v>0.08365019999999999</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0894858</v>
+        <v>0.0901073</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0913766</v>
+        <v>0.0910749</v>
       </c>
       <c r="D13" t="n">
-        <v>0.204649</v>
+        <v>0.204973</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0830129</v>
+        <v>0.0832455</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0840477</v>
+        <v>0.0839318</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0915938</v>
+        <v>0.0921129</v>
       </c>
       <c r="C14" t="n">
-        <v>0.09345589999999999</v>
+        <v>0.0931372</v>
       </c>
       <c r="D14" t="n">
-        <v>0.210877</v>
+        <v>0.211918</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0832871</v>
+        <v>0.0835091</v>
       </c>
       <c r="F14" t="n">
-        <v>0.08430790000000001</v>
+        <v>0.08445660000000001</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.09505619999999999</v>
+        <v>0.09571490000000001</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0968683</v>
+        <v>0.09693499999999999</v>
       </c>
       <c r="D15" t="n">
-        <v>0.220383</v>
+        <v>0.220111</v>
       </c>
       <c r="E15" t="n">
-        <v>0.08404300000000001</v>
+        <v>0.0839183</v>
       </c>
       <c r="F15" t="n">
-        <v>0.084787</v>
+        <v>0.08492959999999999</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.1013</v>
+        <v>0.101488</v>
       </c>
       <c r="C16" t="n">
-        <v>0.101235</v>
+        <v>0.101907</v>
       </c>
       <c r="D16" t="n">
-        <v>0.227037</v>
+        <v>0.2264</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0844977</v>
+        <v>0.0843952</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0854125</v>
+        <v>0.0853763</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.109177</v>
+        <v>0.110324</v>
       </c>
       <c r="C17" t="n">
-        <v>0.110602</v>
+        <v>0.110139</v>
       </c>
       <c r="D17" t="n">
-        <v>0.233187</v>
+        <v>0.233654</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0854232</v>
+        <v>0.0853212</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0863462</v>
+        <v>0.086661</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.120641</v>
+        <v>0.12151</v>
       </c>
       <c r="C18" t="n">
-        <v>0.122139</v>
+        <v>0.125264</v>
       </c>
       <c r="D18" t="n">
-        <v>0.238196</v>
+        <v>0.239052</v>
       </c>
       <c r="E18" t="n">
-        <v>0.08666459999999999</v>
+        <v>0.0865426</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0874861</v>
+        <v>0.0879385</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.134941</v>
+        <v>0.136235</v>
       </c>
       <c r="C19" t="n">
-        <v>0.137553</v>
+        <v>0.138549</v>
       </c>
       <c r="D19" t="n">
-        <v>0.245367</v>
+        <v>0.246563</v>
       </c>
       <c r="E19" t="n">
-        <v>0.08964999999999999</v>
+        <v>0.088389</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0894243</v>
+        <v>0.0898542</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.154285</v>
+        <v>0.15577</v>
       </c>
       <c r="C20" t="n">
-        <v>0.157509</v>
+        <v>0.157297</v>
       </c>
       <c r="D20" t="n">
-        <v>0.251796</v>
+        <v>0.251399</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0918173</v>
+        <v>0.0912954</v>
       </c>
       <c r="F20" t="n">
-        <v>0.09282219999999999</v>
+        <v>0.09264319999999999</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.184149</v>
+        <v>0.184946</v>
       </c>
       <c r="C21" t="n">
-        <v>0.191831</v>
+        <v>0.182445</v>
       </c>
       <c r="D21" t="n">
-        <v>0.182468</v>
+        <v>0.182818</v>
       </c>
       <c r="E21" t="n">
-        <v>0.09729500000000001</v>
+        <v>0.0970705</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0989048</v>
+        <v>0.0991755</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.217989</v>
+        <v>0.219006</v>
       </c>
       <c r="C22" t="n">
-        <v>0.219631</v>
+        <v>0.22052</v>
       </c>
       <c r="D22" t="n">
-        <v>0.190679</v>
+        <v>0.190873</v>
       </c>
       <c r="E22" t="n">
-        <v>0.109767</v>
+        <v>0.10923</v>
       </c>
       <c r="F22" t="n">
-        <v>0.111407</v>
+        <v>0.111211</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.274887</v>
+        <v>0.266895</v>
       </c>
       <c r="C23" t="n">
-        <v>0.258933</v>
+        <v>0.260453</v>
       </c>
       <c r="D23" t="n">
-        <v>0.199028</v>
+        <v>0.197971</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0829657</v>
+        <v>0.08317479999999999</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0842058</v>
+        <v>0.0842417</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.09139799999999999</v>
+        <v>0.09069199999999999</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0927622</v>
+        <v>0.0920463</v>
       </c>
       <c r="D24" t="n">
-        <v>0.206338</v>
+        <v>0.205772</v>
       </c>
       <c r="E24" t="n">
-        <v>0.08323079999999999</v>
+        <v>0.083296</v>
       </c>
       <c r="F24" t="n">
-        <v>0.084564</v>
+        <v>0.0847</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0912872</v>
+        <v>0.09171029999999999</v>
       </c>
       <c r="C25" t="n">
-        <v>0.09316439999999999</v>
+        <v>0.0930163</v>
       </c>
       <c r="D25" t="n">
-        <v>0.213572</v>
+        <v>0.212988</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0834493</v>
+        <v>0.08365549999999999</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0849791</v>
+        <v>0.0851186</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0928099</v>
+        <v>0.09334969999999999</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0957783</v>
+        <v>0.0946541</v>
       </c>
       <c r="D26" t="n">
-        <v>0.221267</v>
+        <v>0.220471</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0838185</v>
+        <v>0.0839939</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08565109999999999</v>
+        <v>0.0856748</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0943272</v>
+        <v>0.0951167</v>
       </c>
       <c r="C27" t="n">
-        <v>0.09698660000000001</v>
+        <v>0.0964183</v>
       </c>
       <c r="D27" t="n">
-        <v>0.228849</v>
+        <v>0.228614</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0842878</v>
+        <v>0.0844758</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0866529</v>
+        <v>0.08639139999999999</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.09704889999999999</v>
+        <v>0.0978419</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0995461</v>
+        <v>0.0995683</v>
       </c>
       <c r="D28" t="n">
-        <v>0.235503</v>
+        <v>0.234575</v>
       </c>
       <c r="E28" t="n">
-        <v>0.084732</v>
+        <v>0.0848793</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0868183</v>
+        <v>0.0871131</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.100529</v>
+        <v>0.101348</v>
       </c>
       <c r="C29" t="n">
-        <v>0.104586</v>
+        <v>0.104599</v>
       </c>
       <c r="D29" t="n">
-        <v>0.241424</v>
+        <v>0.242244</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0852784</v>
+        <v>0.0853091</v>
       </c>
       <c r="F29" t="n">
-        <v>0.087771</v>
+        <v>0.08765390000000001</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.106046</v>
+        <v>0.106975</v>
       </c>
       <c r="C30" t="n">
-        <v>0.11123</v>
+        <v>0.110304</v>
       </c>
       <c r="D30" t="n">
-        <v>0.247729</v>
+        <v>0.246643</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0859308</v>
+        <v>0.0859814</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08882619999999999</v>
+        <v>0.0889567</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.1135</v>
+        <v>0.116745</v>
       </c>
       <c r="C31" t="n">
-        <v>0.115288</v>
+        <v>0.116318</v>
       </c>
       <c r="D31" t="n">
-        <v>0.252538</v>
+        <v>0.25253</v>
       </c>
       <c r="E31" t="n">
-        <v>0.087073</v>
+        <v>0.086964</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0900725</v>
+        <v>0.090062</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.121367</v>
+        <v>0.122403</v>
       </c>
       <c r="C32" t="n">
-        <v>0.125824</v>
+        <v>0.12833</v>
       </c>
       <c r="D32" t="n">
-        <v>0.25805</v>
+        <v>0.25823</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0886984</v>
+        <v>0.08944340000000001</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0925546</v>
+        <v>0.0924189</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.134989</v>
+        <v>0.136038</v>
       </c>
       <c r="C33" t="n">
-        <v>0.137819</v>
+        <v>0.138401</v>
       </c>
       <c r="D33" t="n">
-        <v>0.263111</v>
+        <v>0.264186</v>
       </c>
       <c r="E33" t="n">
-        <v>0.091126</v>
+        <v>0.09159689999999999</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0946548</v>
+        <v>0.09467399999999999</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.150569</v>
+        <v>0.151334</v>
       </c>
       <c r="C34" t="n">
-        <v>0.154153</v>
+        <v>0.157864</v>
       </c>
       <c r="D34" t="n">
-        <v>0.2699</v>
+        <v>0.270129</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0950826</v>
+        <v>0.0947615</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0987225</v>
+        <v>0.0987377</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.176388</v>
+        <v>0.177755</v>
       </c>
       <c r="C35" t="n">
-        <v>0.177208</v>
+        <v>0.180111</v>
       </c>
       <c r="D35" t="n">
-        <v>0.196407</v>
+        <v>0.196038</v>
       </c>
       <c r="E35" t="n">
-        <v>0.101936</v>
+        <v>0.103037</v>
       </c>
       <c r="F35" t="n">
-        <v>0.105875</v>
+        <v>0.107058</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.208685</v>
+        <v>0.211136</v>
       </c>
       <c r="C36" t="n">
-        <v>0.209391</v>
+        <v>0.210059</v>
       </c>
       <c r="D36" t="n">
-        <v>0.20347</v>
+        <v>0.203054</v>
       </c>
       <c r="E36" t="n">
-        <v>0.113867</v>
+        <v>0.112928</v>
       </c>
       <c r="F36" t="n">
-        <v>0.116865</v>
+        <v>0.116985</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.258817</v>
+        <v>0.256845</v>
       </c>
       <c r="C37" t="n">
-        <v>0.25633</v>
+        <v>0.25631</v>
       </c>
       <c r="D37" t="n">
-        <v>0.211754</v>
+        <v>0.210908</v>
       </c>
       <c r="E37" t="n">
-        <v>0.08367289999999999</v>
+        <v>0.0837995</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0869129</v>
+        <v>0.0870674</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0923727</v>
+        <v>0.0931806</v>
       </c>
       <c r="C38" t="n">
-        <v>0.095849</v>
+        <v>0.0969174</v>
       </c>
       <c r="D38" t="n">
-        <v>0.218692</v>
+        <v>0.218157</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0839516</v>
+        <v>0.0846614</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0873659</v>
+        <v>0.0875117</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.09364989999999999</v>
+        <v>0.09401959999999999</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0980109</v>
+        <v>0.0978883</v>
       </c>
       <c r="D39" t="n">
-        <v>0.225879</v>
+        <v>0.225363</v>
       </c>
       <c r="E39" t="n">
-        <v>0.08421090000000001</v>
+        <v>0.0848469</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0877947</v>
+        <v>0.08814370000000001</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0949913</v>
+        <v>0.0959055</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0987286</v>
+        <v>0.0995815</v>
       </c>
       <c r="D40" t="n">
-        <v>0.233511</v>
+        <v>0.232946</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0845374</v>
+        <v>0.08531999999999999</v>
       </c>
       <c r="F40" t="n">
-        <v>0.08828510000000001</v>
+        <v>0.08838790000000001</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0970684</v>
+        <v>0.0983282</v>
       </c>
       <c r="C41" t="n">
-        <v>0.102429</v>
+        <v>0.101502</v>
       </c>
       <c r="D41" t="n">
-        <v>0.239564</v>
+        <v>0.240092</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0849979</v>
+        <v>0.0851705</v>
       </c>
       <c r="F41" t="n">
-        <v>0.08891209999999999</v>
+        <v>0.08897480000000001</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.100077</v>
+        <v>0.100729</v>
       </c>
       <c r="C42" t="n">
-        <v>0.104133</v>
+        <v>0.10537</v>
       </c>
       <c r="D42" t="n">
-        <v>0.247025</v>
+        <v>0.246833</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0857607</v>
+        <v>0.0865509</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0893341</v>
+        <v>0.0904745</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.104456</v>
+        <v>0.106307</v>
       </c>
       <c r="C43" t="n">
-        <v>0.108158</v>
+        <v>0.108173</v>
       </c>
       <c r="D43" t="n">
-        <v>0.253346</v>
+        <v>0.253385</v>
       </c>
       <c r="E43" t="n">
-        <v>0.08591849999999999</v>
+        <v>0.0864492</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0900102</v>
+        <v>0.0901619</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.109099</v>
+        <v>0.110039</v>
       </c>
       <c r="C44" t="n">
-        <v>0.113299</v>
+        <v>0.113506</v>
       </c>
       <c r="D44" t="n">
-        <v>0.259525</v>
+        <v>0.259414</v>
       </c>
       <c r="E44" t="n">
-        <v>0.08683299999999999</v>
+        <v>0.0873411</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0908979</v>
+        <v>0.0918403</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.115406</v>
+        <v>0.11833</v>
       </c>
       <c r="C45" t="n">
-        <v>0.121504</v>
+        <v>0.119723</v>
       </c>
       <c r="D45" t="n">
-        <v>0.26537</v>
+        <v>0.26561</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0878143</v>
+        <v>0.08776490000000001</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0920892</v>
+        <v>0.09263689999999999</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.123681</v>
+        <v>0.124904</v>
       </c>
       <c r="C46" t="n">
-        <v>0.128683</v>
+        <v>0.12906</v>
       </c>
       <c r="D46" t="n">
-        <v>0.271784</v>
+        <v>0.271155</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0893732</v>
+        <v>0.0899107</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0937697</v>
+        <v>0.0940014</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.136337</v>
+        <v>0.136024</v>
       </c>
       <c r="C47" t="n">
-        <v>0.13983</v>
+        <v>0.14018</v>
       </c>
       <c r="D47" t="n">
-        <v>0.277076</v>
+        <v>0.276985</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0917019</v>
+        <v>0.09132709999999999</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0962293</v>
+        <v>0.09631579999999999</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.152533</v>
+        <v>0.151981</v>
       </c>
       <c r="C48" t="n">
-        <v>0.154176</v>
+        <v>0.154475</v>
       </c>
       <c r="D48" t="n">
-        <v>0.282696</v>
+        <v>0.283017</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0965086</v>
+        <v>0.0950077</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0998551</v>
+        <v>0.0997841</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.173063</v>
+        <v>0.179381</v>
       </c>
       <c r="C49" t="n">
-        <v>0.182387</v>
+        <v>0.176329</v>
       </c>
       <c r="D49" t="n">
-        <v>0.289216</v>
+        <v>0.288887</v>
       </c>
       <c r="E49" t="n">
-        <v>0.100987</v>
+        <v>0.102126</v>
       </c>
       <c r="F49" t="n">
-        <v>0.105493</v>
+        <v>0.105979</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.204621</v>
+        <v>0.215727</v>
       </c>
       <c r="C50" t="n">
-        <v>0.204967</v>
+        <v>0.205626</v>
       </c>
       <c r="D50" t="n">
-        <v>0.203615</v>
+        <v>0.203165</v>
       </c>
       <c r="E50" t="n">
-        <v>0.11399</v>
+        <v>0.110065</v>
       </c>
       <c r="F50" t="n">
-        <v>0.115306</v>
+        <v>0.115207</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.243862</v>
+        <v>0.247276</v>
       </c>
       <c r="C51" t="n">
-        <v>0.247873</v>
+        <v>0.253751</v>
       </c>
       <c r="D51" t="n">
-        <v>0.210924</v>
+        <v>0.210493</v>
       </c>
       <c r="E51" t="n">
-        <v>0.08562350000000001</v>
+        <v>0.0862458</v>
       </c>
       <c r="F51" t="n">
-        <v>0.08915869999999999</v>
+        <v>0.09056500000000001</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.291502</v>
+        <v>0.30971</v>
       </c>
       <c r="C52" t="n">
-        <v>0.294893</v>
+        <v>0.294104</v>
       </c>
       <c r="D52" t="n">
-        <v>0.217246</v>
+        <v>0.217082</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0865667</v>
+        <v>0.0862459</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0897608</v>
+        <v>0.0901762</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.097164</v>
+        <v>0.0973488</v>
       </c>
       <c r="C53" t="n">
-        <v>0.100787</v>
+        <v>0.101042</v>
       </c>
       <c r="D53" t="n">
-        <v>0.224932</v>
+        <v>0.22469</v>
       </c>
       <c r="E53" t="n">
-        <v>0.08609020000000001</v>
+        <v>0.08666699999999999</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0903815</v>
+        <v>0.09117749999999999</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0987088</v>
+        <v>0.0988064</v>
       </c>
       <c r="C54" t="n">
-        <v>0.102994</v>
+        <v>0.10341</v>
       </c>
       <c r="D54" t="n">
-        <v>0.231671</v>
+        <v>0.231194</v>
       </c>
       <c r="E54" t="n">
-        <v>0.08671810000000001</v>
+        <v>0.0871082</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0905548</v>
+        <v>0.090605</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.100406</v>
+        <v>0.102706</v>
       </c>
       <c r="C55" t="n">
-        <v>0.106908</v>
+        <v>0.106161</v>
       </c>
       <c r="D55" t="n">
-        <v>0.238288</v>
+        <v>0.238133</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0868868</v>
+        <v>0.0876237</v>
       </c>
       <c r="F55" t="n">
-        <v>0.09115379999999999</v>
+        <v>0.0925053</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.103864</v>
+        <v>0.103556</v>
       </c>
       <c r="C56" t="n">
-        <v>0.108607</v>
+        <v>0.108377</v>
       </c>
       <c r="D56" t="n">
-        <v>0.245029</v>
+        <v>0.24452</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0872381</v>
+        <v>0.08828469999999999</v>
       </c>
       <c r="F56" t="n">
-        <v>0.09244810000000001</v>
+        <v>0.0919697</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.105903</v>
+        <v>0.106527</v>
       </c>
       <c r="C57" t="n">
-        <v>0.113693</v>
+        <v>0.112361</v>
       </c>
       <c r="D57" t="n">
-        <v>0.251187</v>
+        <v>0.250463</v>
       </c>
       <c r="E57" t="n">
-        <v>0.087866</v>
+        <v>0.0900036</v>
       </c>
       <c r="F57" t="n">
-        <v>0.0931714</v>
+        <v>0.0934195</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.113097</v>
+        <v>0.112027</v>
       </c>
       <c r="C58" t="n">
-        <v>0.117529</v>
+        <v>0.118496</v>
       </c>
       <c r="D58" t="n">
-        <v>0.256981</v>
+        <v>0.256239</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0885387</v>
+        <v>0.0890358</v>
       </c>
       <c r="F58" t="n">
-        <v>0.09409389999999999</v>
+        <v>0.0947258</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.117714</v>
+        <v>0.120844</v>
       </c>
       <c r="C59" t="n">
-        <v>0.122071</v>
+        <v>0.123704</v>
       </c>
       <c r="D59" t="n">
-        <v>0.262633</v>
+        <v>0.261789</v>
       </c>
       <c r="E59" t="n">
-        <v>0.08976770000000001</v>
+        <v>0.09011660000000001</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0949091</v>
+        <v>0.0964294</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.12584</v>
+        <v>0.128675</v>
       </c>
       <c r="C60" t="n">
-        <v>0.134043</v>
+        <v>0.13208</v>
       </c>
       <c r="D60" t="n">
-        <v>0.267901</v>
+        <v>0.266899</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0914739</v>
+        <v>0.09128650000000001</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0974052</v>
+        <v>0.0972876</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.135963</v>
+        <v>0.140651</v>
       </c>
       <c r="C61" t="n">
-        <v>0.140752</v>
+        <v>0.1421</v>
       </c>
       <c r="D61" t="n">
-        <v>0.273999</v>
+        <v>0.27187</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0934084</v>
+        <v>0.0940506</v>
       </c>
       <c r="F61" t="n">
-        <v>0.0997902</v>
+        <v>0.100186</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.151038</v>
+        <v>0.150183</v>
       </c>
       <c r="C62" t="n">
-        <v>0.15487</v>
+        <v>0.157522</v>
       </c>
       <c r="D62" t="n">
-        <v>0.279804</v>
+        <v>0.278499</v>
       </c>
       <c r="E62" t="n">
-        <v>0.0970589</v>
+        <v>0.0977621</v>
       </c>
       <c r="F62" t="n">
-        <v>0.103592</v>
+        <v>0.103244</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.171317</v>
+        <v>0.177143</v>
       </c>
       <c r="C63" t="n">
-        <v>0.175252</v>
+        <v>0.176747</v>
       </c>
       <c r="D63" t="n">
-        <v>0.285335</v>
+        <v>0.284356</v>
       </c>
       <c r="E63" t="n">
-        <v>0.102386</v>
+        <v>0.10173</v>
       </c>
       <c r="F63" t="n">
-        <v>0.108213</v>
+        <v>0.108657</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.196649</v>
+        <v>0.208074</v>
       </c>
       <c r="C64" t="n">
-        <v>0.203908</v>
+        <v>0.204745</v>
       </c>
       <c r="D64" t="n">
-        <v>0.208907</v>
+        <v>0.208723</v>
       </c>
       <c r="E64" t="n">
-        <v>0.111255</v>
+        <v>0.111732</v>
       </c>
       <c r="F64" t="n">
-        <v>0.11634</v>
+        <v>0.116748</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.241688</v>
+        <v>0.245219</v>
       </c>
       <c r="C65" t="n">
-        <v>0.245792</v>
+        <v>0.251215</v>
       </c>
       <c r="D65" t="n">
-        <v>0.216234</v>
+        <v>0.217026</v>
       </c>
       <c r="E65" t="n">
-        <v>0.126137</v>
+        <v>0.126484</v>
       </c>
       <c r="F65" t="n">
-        <v>0.132889</v>
+        <v>0.13288</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.285685</v>
+        <v>0.301462</v>
       </c>
       <c r="C66" t="n">
-        <v>0.295538</v>
+        <v>0.294831</v>
       </c>
       <c r="D66" t="n">
-        <v>0.222468</v>
+        <v>0.223002</v>
       </c>
       <c r="E66" t="n">
-        <v>0.093616</v>
+        <v>0.0938204</v>
       </c>
       <c r="F66" t="n">
-        <v>0.09766950000000001</v>
+        <v>0.0974846</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.10855</v>
+        <v>0.110666</v>
       </c>
       <c r="C67" t="n">
-        <v>0.112754</v>
+        <v>0.112874</v>
       </c>
       <c r="D67" t="n">
-        <v>0.234596</v>
+        <v>0.233366</v>
       </c>
       <c r="E67" t="n">
-        <v>0.09430189999999999</v>
+        <v>0.0946466</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0982326</v>
+        <v>0.0985135</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.10888</v>
+        <v>0.111205</v>
       </c>
       <c r="C68" t="n">
-        <v>0.116691</v>
+        <v>0.11514</v>
       </c>
       <c r="D68" t="n">
-        <v>0.239601</v>
+        <v>0.242558</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0941554</v>
+        <v>0.09502480000000001</v>
       </c>
       <c r="F68" t="n">
-        <v>0.0988853</v>
+        <v>0.0994131</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.11133</v>
+        <v>0.112016</v>
       </c>
       <c r="C69" t="n">
-        <v>0.117665</v>
+        <v>0.117848</v>
       </c>
       <c r="D69" t="n">
-        <v>0.250012</v>
+        <v>0.2522</v>
       </c>
       <c r="E69" t="n">
-        <v>0.09497559999999999</v>
+        <v>0.0948773</v>
       </c>
       <c r="F69" t="n">
-        <v>0.09997730000000001</v>
+        <v>0.0997598</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.115232</v>
+        <v>0.115325</v>
       </c>
       <c r="C70" t="n">
-        <v>0.119517</v>
+        <v>0.119462</v>
       </c>
       <c r="D70" t="n">
-        <v>0.259398</v>
+        <v>0.259939</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0956072</v>
+        <v>0.0956866</v>
       </c>
       <c r="F70" t="n">
-        <v>0.100666</v>
+        <v>0.100834</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.117205</v>
+        <v>0.118386</v>
       </c>
       <c r="C71" t="n">
-        <v>0.123332</v>
+        <v>0.126265</v>
       </c>
       <c r="D71" t="n">
-        <v>0.271079</v>
+        <v>0.273483</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0962466</v>
+        <v>0.0960527</v>
       </c>
       <c r="F71" t="n">
-        <v>0.101662</v>
+        <v>0.101896</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.122168</v>
+        <v>0.12356</v>
       </c>
       <c r="C72" t="n">
-        <v>0.13011</v>
+        <v>0.128408</v>
       </c>
       <c r="D72" t="n">
-        <v>0.282413</v>
+        <v>0.282796</v>
       </c>
       <c r="E72" t="n">
-        <v>0.09682730000000001</v>
+        <v>0.09699099999999999</v>
       </c>
       <c r="F72" t="n">
-        <v>0.103158</v>
+        <v>0.102745</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.126791</v>
+        <v>0.131855</v>
       </c>
       <c r="C73" t="n">
-        <v>0.134908</v>
+        <v>0.137049</v>
       </c>
       <c r="D73" t="n">
-        <v>0.289701</v>
+        <v>0.293608</v>
       </c>
       <c r="E73" t="n">
-        <v>0.097791</v>
+        <v>0.0974428</v>
       </c>
       <c r="F73" t="n">
-        <v>0.104593</v>
+        <v>0.105354</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.136737</v>
+        <v>0.137233</v>
       </c>
       <c r="C74" t="n">
-        <v>0.1428</v>
+        <v>0.144755</v>
       </c>
       <c r="D74" t="n">
-        <v>0.306112</v>
+        <v>0.306154</v>
       </c>
       <c r="E74" t="n">
-        <v>0.09963080000000001</v>
+        <v>0.0995843</v>
       </c>
       <c r="F74" t="n">
-        <v>0.106708</v>
+        <v>0.106472</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.144214</v>
+        <v>0.149744</v>
       </c>
       <c r="C75" t="n">
-        <v>0.153345</v>
+        <v>0.15403</v>
       </c>
       <c r="D75" t="n">
-        <v>0.320103</v>
+        <v>0.320435</v>
       </c>
       <c r="E75" t="n">
-        <v>0.101938</v>
+        <v>0.102042</v>
       </c>
       <c r="F75" t="n">
-        <v>0.109374</v>
+        <v>0.109124</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.157124</v>
+        <v>0.162756</v>
       </c>
       <c r="C76" t="n">
-        <v>0.167582</v>
+        <v>0.168959</v>
       </c>
       <c r="D76" t="n">
-        <v>0.333727</v>
+        <v>0.333679</v>
       </c>
       <c r="E76" t="n">
-        <v>0.104299</v>
+        <v>0.104008</v>
       </c>
       <c r="F76" t="n">
-        <v>0.112958</v>
+        <v>0.11259</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.183642</v>
+        <v>0.178594</v>
       </c>
       <c r="C77" t="n">
-        <v>0.18869</v>
+        <v>0.188381</v>
       </c>
       <c r="D77" t="n">
-        <v>0.348112</v>
+        <v>0.348312</v>
       </c>
       <c r="E77" t="n">
-        <v>0.109492</v>
+        <v>0.109045</v>
       </c>
       <c r="F77" t="n">
-        <v>0.118203</v>
+        <v>0.117763</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.207401</v>
+        <v>0.204472</v>
       </c>
       <c r="C78" t="n">
-        <v>0.219189</v>
+        <v>0.217606</v>
       </c>
       <c r="D78" t="n">
-        <v>0.270091</v>
+        <v>0.269609</v>
       </c>
       <c r="E78" t="n">
-        <v>0.116406</v>
+        <v>0.116559</v>
       </c>
       <c r="F78" t="n">
-        <v>0.126078</v>
+        <v>0.125408</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.252193</v>
+        <v>0.25556</v>
       </c>
       <c r="C79" t="n">
-        <v>0.258308</v>
+        <v>0.263451</v>
       </c>
       <c r="D79" t="n">
-        <v>0.286588</v>
+        <v>0.287001</v>
       </c>
       <c r="E79" t="n">
-        <v>0.131114</v>
+        <v>0.130106</v>
       </c>
       <c r="F79" t="n">
-        <v>0.141843</v>
+        <v>0.141223</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.294576</v>
+        <v>0.309828</v>
       </c>
       <c r="C80" t="n">
-        <v>0.31588</v>
+        <v>0.321009</v>
       </c>
       <c r="D80" t="n">
-        <v>0.306528</v>
+        <v>0.30547</v>
       </c>
       <c r="E80" t="n">
-        <v>0.10176</v>
+        <v>0.101718</v>
       </c>
       <c r="F80" t="n">
-        <v>0.106234</v>
+        <v>0.106217</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.120211</v>
+        <v>0.120701</v>
       </c>
       <c r="C81" t="n">
-        <v>0.125989</v>
+        <v>0.12547</v>
       </c>
       <c r="D81" t="n">
-        <v>0.325926</v>
+        <v>0.326124</v>
       </c>
       <c r="E81" t="n">
-        <v>0.102265</v>
+        <v>0.10216</v>
       </c>
       <c r="F81" t="n">
-        <v>0.107549</v>
+        <v>0.107096</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.122162</v>
+        <v>0.122042</v>
       </c>
       <c r="C82" t="n">
-        <v>0.12833</v>
+        <v>0.127522</v>
       </c>
       <c r="D82" t="n">
-        <v>0.346155</v>
+        <v>0.345132</v>
       </c>
       <c r="E82" t="n">
-        <v>0.10256</v>
+        <v>0.102604</v>
       </c>
       <c r="F82" t="n">
-        <v>0.107728</v>
+        <v>0.107829</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.123237</v>
+        <v>0.123481</v>
       </c>
       <c r="C83" t="n">
-        <v>0.130791</v>
+        <v>0.130213</v>
       </c>
       <c r="D83" t="n">
-        <v>0.368528</v>
+        <v>0.368972</v>
       </c>
       <c r="E83" t="n">
-        <v>0.103088</v>
+        <v>0.102914</v>
       </c>
       <c r="F83" t="n">
-        <v>0.108669</v>
+        <v>0.108829</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.126615</v>
+        <v>0.126027</v>
       </c>
       <c r="C84" t="n">
-        <v>0.133673</v>
+        <v>0.133408</v>
       </c>
       <c r="D84" t="n">
-        <v>0.389271</v>
+        <v>0.388107</v>
       </c>
       <c r="E84" t="n">
-        <v>0.103915</v>
+        <v>0.103458</v>
       </c>
       <c r="F84" t="n">
-        <v>0.109668</v>
+        <v>0.109657</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.128914</v>
+        <v>0.129396</v>
       </c>
       <c r="C85" t="n">
-        <v>0.137585</v>
+        <v>0.137608</v>
       </c>
       <c r="D85" t="n">
-        <v>0.411917</v>
+        <v>0.412268</v>
       </c>
       <c r="E85" t="n">
-        <v>0.104189</v>
+        <v>0.104296</v>
       </c>
       <c r="F85" t="n">
-        <v>0.11174</v>
+        <v>0.111205</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.133293</v>
+        <v>0.134185</v>
       </c>
       <c r="C86" t="n">
-        <v>0.14285</v>
+        <v>0.142348</v>
       </c>
       <c r="D86" t="n">
-        <v>0.435292</v>
+        <v>0.434621</v>
       </c>
       <c r="E86" t="n">
-        <v>0.105097</v>
+        <v>0.10563</v>
       </c>
       <c r="F86" t="n">
-        <v>0.11369</v>
+        <v>0.112835</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.139157</v>
+        <v>0.140846</v>
       </c>
       <c r="C87" t="n">
-        <v>0.150389</v>
+        <v>0.14982</v>
       </c>
       <c r="D87" t="n">
-        <v>0.459233</v>
+        <v>0.457941</v>
       </c>
       <c r="E87" t="n">
-        <v>0.106577</v>
+        <v>0.106149</v>
       </c>
       <c r="F87" t="n">
-        <v>0.115505</v>
+        <v>0.115023</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.146719</v>
+        <v>0.148978</v>
       </c>
       <c r="C88" t="n">
-        <v>0.159902</v>
+        <v>0.159259</v>
       </c>
       <c r="D88" t="n">
-        <v>0.483754</v>
+        <v>0.481824</v>
       </c>
       <c r="E88" t="n">
-        <v>0.107852</v>
+        <v>0.107697</v>
       </c>
       <c r="F88" t="n">
-        <v>0.118254</v>
+        <v>0.118617</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.159687</v>
+        <v>0.158955</v>
       </c>
       <c r="C89" t="n">
-        <v>0.176009</v>
+        <v>0.173756</v>
       </c>
       <c r="D89" t="n">
-        <v>0.50885</v>
+        <v>0.506917</v>
       </c>
       <c r="E89" t="n">
-        <v>0.109854</v>
+        <v>0.110066</v>
       </c>
       <c r="F89" t="n">
-        <v>0.122841</v>
+        <v>0.121563</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.17014</v>
+        <v>0.174058</v>
       </c>
       <c r="C90" t="n">
-        <v>0.191796</v>
+        <v>0.191236</v>
       </c>
       <c r="D90" t="n">
-        <v>0.534887</v>
+        <v>0.533902</v>
       </c>
       <c r="E90" t="n">
-        <v>0.113589</v>
+        <v>0.113154</v>
       </c>
       <c r="F90" t="n">
-        <v>0.128643</v>
+        <v>0.127146</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.189479</v>
+        <v>0.190217</v>
       </c>
       <c r="C91" t="n">
-        <v>0.222835</v>
+        <v>0.217278</v>
       </c>
       <c r="D91" t="n">
-        <v>0.562858</v>
+        <v>0.561067</v>
       </c>
       <c r="E91" t="n">
-        <v>0.118533</v>
+        <v>0.117807</v>
       </c>
       <c r="F91" t="n">
-        <v>0.137019</v>
+        <v>0.135488</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.217333</v>
+        <v>0.217578</v>
       </c>
       <c r="C92" t="n">
-        <v>0.255442</v>
+        <v>0.25581</v>
       </c>
       <c r="D92" t="n">
-        <v>0.421638</v>
+        <v>0.420203</v>
       </c>
       <c r="E92" t="n">
-        <v>0.126281</v>
+        <v>0.1255</v>
       </c>
       <c r="F92" t="n">
-        <v>0.149711</v>
+        <v>0.149614</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.267988</v>
+        <v>0.268637</v>
       </c>
       <c r="C93" t="n">
-        <v>0.310812</v>
+        <v>0.312004</v>
       </c>
       <c r="D93" t="n">
-        <v>0.440661</v>
+        <v>0.439427</v>
       </c>
       <c r="E93" t="n">
-        <v>0.139936</v>
+        <v>0.139586</v>
       </c>
       <c r="F93" t="n">
-        <v>0.168376</v>
+        <v>0.169673</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.327899</v>
+        <v>0.333797</v>
       </c>
       <c r="C94" t="n">
-        <v>0.390124</v>
+        <v>0.388532</v>
       </c>
       <c r="D94" t="n">
-        <v>0.45994</v>
+        <v>0.458869</v>
       </c>
       <c r="E94" t="n">
-        <v>0.107598</v>
+        <v>0.107628</v>
       </c>
       <c r="F94" t="n">
-        <v>0.12093</v>
+        <v>0.120642</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.128748</v>
+        <v>0.127951</v>
       </c>
       <c r="C95" t="n">
-        <v>0.145247</v>
+        <v>0.143838</v>
       </c>
       <c r="D95" t="n">
-        <v>0.479408</v>
+        <v>0.478456</v>
       </c>
       <c r="E95" t="n">
-        <v>0.108706</v>
+        <v>0.108838</v>
       </c>
       <c r="F95" t="n">
-        <v>0.123663</v>
+        <v>0.123252</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.132248</v>
+        <v>0.131326</v>
       </c>
       <c r="C96" t="n">
-        <v>0.150416</v>
+        <v>0.14932</v>
       </c>
       <c r="D96" t="n">
-        <v>0.500299</v>
+        <v>0.498101</v>
       </c>
       <c r="E96" t="n">
-        <v>0.110261</v>
+        <v>0.110323</v>
       </c>
       <c r="F96" t="n">
-        <v>0.127629</v>
+        <v>0.127477</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.133859</v>
+        <v>0.133975</v>
       </c>
       <c r="C97" t="n">
-        <v>0.156454</v>
+        <v>0.155915</v>
       </c>
       <c r="D97" t="n">
-        <v>0.520953</v>
+        <v>0.520097</v>
       </c>
       <c r="E97" t="n">
-        <v>0.112214</v>
+        <v>0.112246</v>
       </c>
       <c r="F97" t="n">
-        <v>0.132499</v>
+        <v>0.132391</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.137871</v>
+        <v>0.138356</v>
       </c>
       <c r="C98" t="n">
-        <v>0.164733</v>
+        <v>0.165123</v>
       </c>
       <c r="D98" t="n">
-        <v>0.543405</v>
+        <v>0.540376</v>
       </c>
       <c r="E98" t="n">
-        <v>0.114332</v>
+        <v>0.11366</v>
       </c>
       <c r="F98" t="n">
-        <v>0.138376</v>
+        <v>0.138906</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.143235</v>
+        <v>0.143765</v>
       </c>
       <c r="C99" t="n">
-        <v>0.17423</v>
+        <v>0.173772</v>
       </c>
       <c r="D99" t="n">
-        <v>0.563623</v>
+        <v>0.5639110000000001</v>
       </c>
       <c r="E99" t="n">
-        <v>0.116929</v>
+        <v>0.116988</v>
       </c>
       <c r="F99" t="n">
-        <v>0.144152</v>
+        <v>0.144688</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.151135</v>
+        <v>0.150118</v>
       </c>
       <c r="C100" t="n">
-        <v>0.186735</v>
+        <v>0.1861</v>
       </c>
       <c r="D100" t="n">
-        <v>0.588762</v>
+        <v>0.587149</v>
       </c>
       <c r="E100" t="n">
-        <v>0.119087</v>
+        <v>0.119469</v>
       </c>
       <c r="F100" t="n">
-        <v>0.151338</v>
+        <v>0.150692</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.158376</v>
+        <v>0.16088</v>
       </c>
       <c r="C101" t="n">
-        <v>0.198115</v>
+        <v>0.198211</v>
       </c>
       <c r="D101" t="n">
-        <v>0.6129829999999999</v>
+        <v>0.612448</v>
       </c>
       <c r="E101" t="n">
-        <v>0.123276</v>
+        <v>0.123501</v>
       </c>
       <c r="F101" t="n">
-        <v>0.157328</v>
+        <v>0.157824</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.169796</v>
+        <v>0.170458</v>
       </c>
       <c r="C102" t="n">
-        <v>0.21508</v>
+        <v>0.21286</v>
       </c>
       <c r="D102" t="n">
-        <v>0.637775</v>
+        <v>0.63646</v>
       </c>
       <c r="E102" t="n">
-        <v>0.127684</v>
+        <v>0.127505</v>
       </c>
       <c r="F102" t="n">
-        <v>0.164686</v>
+        <v>0.164656</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.183446</v>
+        <v>0.18421</v>
       </c>
       <c r="C103" t="n">
-        <v>0.230885</v>
+        <v>0.230708</v>
       </c>
       <c r="D103" t="n">
-        <v>0.664764</v>
+        <v>0.663597</v>
       </c>
       <c r="E103" t="n">
-        <v>0.132895</v>
+        <v>0.133013</v>
       </c>
       <c r="F103" t="n">
-        <v>0.172531</v>
+        <v>0.172928</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.200971</v>
+        <v>0.2021</v>
       </c>
       <c r="C104" t="n">
-        <v>0.25311</v>
+        <v>0.252143</v>
       </c>
       <c r="D104" t="n">
-        <v>0.691976</v>
+        <v>0.692484</v>
       </c>
       <c r="E104" t="n">
-        <v>0.138966</v>
+        <v>0.139483</v>
       </c>
       <c r="F104" t="n">
-        <v>0.181154</v>
+        <v>0.181049</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.223651</v>
+        <v>0.226498</v>
       </c>
       <c r="C105" t="n">
-        <v>0.279828</v>
+        <v>0.280536</v>
       </c>
       <c r="D105" t="n">
-        <v>0.723005</v>
+        <v>0.7235009999999999</v>
       </c>
       <c r="E105" t="n">
-        <v>0.147415</v>
+        <v>0.148093</v>
       </c>
       <c r="F105" t="n">
-        <v>0.191528</v>
+        <v>0.191589</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.254785</v>
+        <v>0.255663</v>
       </c>
       <c r="C106" t="n">
-        <v>0.319132</v>
+        <v>0.317695</v>
       </c>
       <c r="D106" t="n">
-        <v>0.756235</v>
+        <v>0.75474</v>
       </c>
       <c r="E106" t="n">
-        <v>0.159742</v>
+        <v>0.158457</v>
       </c>
       <c r="F106" t="n">
-        <v>0.205591</v>
+        <v>0.205619</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.307128</v>
+        <v>0.305211</v>
       </c>
       <c r="C107" t="n">
-        <v>0.370042</v>
+        <v>0.37506</v>
       </c>
       <c r="D107" t="n">
-        <v>0.594198</v>
+        <v>0.594697</v>
       </c>
       <c r="E107" t="n">
-        <v>0.174103</v>
+        <v>0.173625</v>
       </c>
       <c r="F107" t="n">
-        <v>0.224243</v>
+        <v>0.223999</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.363043</v>
+        <v>0.361419</v>
       </c>
       <c r="C108" t="n">
-        <v>0.447157</v>
+        <v>0.449656</v>
       </c>
       <c r="D108" t="n">
-        <v>0.617595</v>
+        <v>0.616128</v>
       </c>
       <c r="E108" t="n">
-        <v>0.129082</v>
+        <v>0.128502</v>
       </c>
       <c r="F108" t="n">
-        <v>0.15949</v>
+        <v>0.159549</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.450133</v>
+        <v>0.460908</v>
       </c>
       <c r="C109" t="n">
-        <v>0.5615830000000001</v>
+        <v>0.568834</v>
       </c>
       <c r="D109" t="n">
-        <v>0.6395189999999999</v>
+        <v>0.639571</v>
       </c>
       <c r="E109" t="n">
-        <v>0.131253</v>
+        <v>0.131003</v>
       </c>
       <c r="F109" t="n">
-        <v>0.1633</v>
+        <v>0.163359</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.154819</v>
+        <v>0.156318</v>
       </c>
       <c r="C110" t="n">
-        <v>0.189519</v>
+        <v>0.188578</v>
       </c>
       <c r="D110" t="n">
-        <v>0.6614719999999999</v>
+        <v>0.662731</v>
       </c>
       <c r="E110" t="n">
-        <v>0.134048</v>
+        <v>0.133548</v>
       </c>
       <c r="F110" t="n">
-        <v>0.166992</v>
+        <v>0.166983</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.158538</v>
+        <v>0.158609</v>
       </c>
       <c r="C111" t="n">
-        <v>0.194433</v>
+        <v>0.194242</v>
       </c>
       <c r="D111" t="n">
-        <v>0.687651</v>
+        <v>0.687681</v>
       </c>
       <c r="E111" t="n">
-        <v>0.136207</v>
+        <v>0.136102</v>
       </c>
       <c r="F111" t="n">
-        <v>0.171045</v>
+        <v>0.170737</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.163082</v>
+        <v>0.163209</v>
       </c>
       <c r="C112" t="n">
-        <v>0.202273</v>
+        <v>0.200547</v>
       </c>
       <c r="D112" t="n">
-        <v>0.7133699999999999</v>
+        <v>0.713263</v>
       </c>
       <c r="E112" t="n">
-        <v>0.138507</v>
+        <v>0.138506</v>
       </c>
       <c r="F112" t="n">
-        <v>0.174688</v>
+        <v>0.174589</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.168392</v>
+        <v>0.16859</v>
       </c>
       <c r="C113" t="n">
-        <v>0.207988</v>
+        <v>0.207839</v>
       </c>
       <c r="D113" t="n">
-        <v>0.740206</v>
+        <v>0.7392840000000001</v>
       </c>
       <c r="E113" t="n">
-        <v>0.141474</v>
+        <v>0.141088</v>
       </c>
       <c r="F113" t="n">
-        <v>0.17878</v>
+        <v>0.178592</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.174763</v>
+        <v>0.174911</v>
       </c>
       <c r="C114" t="n">
-        <v>0.218572</v>
+        <v>0.216623</v>
       </c>
       <c r="D114" t="n">
-        <v>0.766764</v>
+        <v>0.7661</v>
       </c>
       <c r="E114" t="n">
-        <v>0.143652</v>
+        <v>0.143676</v>
       </c>
       <c r="F114" t="n">
-        <v>0.183178</v>
+        <v>0.183191</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.182388</v>
+        <v>0.182675</v>
       </c>
       <c r="C115" t="n">
-        <v>0.227639</v>
+        <v>0.226997</v>
       </c>
       <c r="D115" t="n">
-        <v>0.793699</v>
+        <v>0.792788</v>
       </c>
       <c r="E115" t="n">
-        <v>0.14665</v>
+        <v>0.146651</v>
       </c>
       <c r="F115" t="n">
-        <v>0.188056</v>
+        <v>0.187851</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.191822</v>
+        <v>0.192212</v>
       </c>
       <c r="C116" t="n">
-        <v>0.239832</v>
+        <v>0.240838</v>
       </c>
       <c r="D116" t="n">
-        <v>0.821994</v>
+        <v>0.820854</v>
       </c>
       <c r="E116" t="n">
-        <v>0.149934</v>
+        <v>0.149779</v>
       </c>
       <c r="F116" t="n">
-        <v>0.193323</v>
+        <v>0.193311</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.203914</v>
+        <v>0.204344</v>
       </c>
       <c r="C117" t="n">
-        <v>0.256025</v>
+        <v>0.25593</v>
       </c>
       <c r="D117" t="n">
-        <v>0.851566</v>
+        <v>0.848511</v>
       </c>
       <c r="E117" t="n">
-        <v>0.153847</v>
+        <v>0.153706</v>
       </c>
       <c r="F117" t="n">
-        <v>0.199911</v>
+        <v>0.199606</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.219369</v>
+        <v>0.223145</v>
       </c>
       <c r="C118" t="n">
-        <v>0.276529</v>
+        <v>0.276484</v>
       </c>
       <c r="D118" t="n">
-        <v>0.880243</v>
+        <v>0.879228</v>
       </c>
       <c r="E118" t="n">
-        <v>0.158857</v>
+        <v>0.15863</v>
       </c>
       <c r="F118" t="n">
-        <v>0.207368</v>
+        <v>0.207132</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.240254</v>
+        <v>0.243848</v>
       </c>
       <c r="C119" t="n">
-        <v>0.304006</v>
+        <v>0.304655</v>
       </c>
       <c r="D119" t="n">
-        <v>0.911983</v>
+        <v>0.909125</v>
       </c>
       <c r="E119" t="n">
-        <v>0.165266</v>
+        <v>0.165703</v>
       </c>
       <c r="F119" t="n">
-        <v>0.216558</v>
+        <v>0.216535</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.26935</v>
+        <v>0.275634</v>
       </c>
       <c r="C120" t="n">
-        <v>0.341183</v>
+        <v>0.342067</v>
       </c>
       <c r="D120" t="n">
-        <v>0.944621</v>
+        <v>0.9422779999999999</v>
       </c>
       <c r="E120" t="n">
-        <v>0.174598</v>
+        <v>0.17495</v>
       </c>
       <c r="F120" t="n">
-        <v>0.229763</v>
+        <v>0.229531</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.315599</v>
+        <v>0.311381</v>
       </c>
       <c r="C121" t="n">
-        <v>0.396869</v>
+        <v>0.39519</v>
       </c>
       <c r="D121" t="n">
-        <v>0.683569</v>
+        <v>0.681785</v>
       </c>
       <c r="E121" t="n">
-        <v>0.188549</v>
+        <v>0.187854</v>
       </c>
       <c r="F121" t="n">
-        <v>0.248646</v>
+        <v>0.248515</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.372458</v>
+        <v>0.384223</v>
       </c>
       <c r="C122" t="n">
-        <v>0.483687</v>
+        <v>0.478227</v>
       </c>
       <c r="D122" t="n">
-        <v>0.705874</v>
+        <v>0.703494</v>
       </c>
       <c r="E122" t="n">
-        <v>0.211729</v>
+        <v>0.210909</v>
       </c>
       <c r="F122" t="n">
-        <v>0.279252</v>
+        <v>0.279127</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.473987</v>
+        <v>0.477551</v>
       </c>
       <c r="C123" t="n">
-        <v>0.598539</v>
+        <v>0.595909</v>
       </c>
       <c r="D123" t="n">
-        <v>0.728479</v>
+        <v>0.726561</v>
       </c>
       <c r="E123" t="n">
-        <v>0.146641</v>
+        <v>0.145072</v>
       </c>
       <c r="F123" t="n">
-        <v>0.185066</v>
+        <v>0.188449</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.16926</v>
+        <v>0.170005</v>
       </c>
       <c r="C124" t="n">
-        <v>0.21224</v>
+        <v>0.210397</v>
       </c>
       <c r="D124" t="n">
-        <v>0.752739</v>
+        <v>0.751022</v>
       </c>
       <c r="E124" t="n">
-        <v>0.153135</v>
+        <v>0.151154</v>
       </c>
       <c r="F124" t="n">
-        <v>0.190246</v>
+        <v>0.188786</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.173153</v>
+        <v>0.179382</v>
       </c>
       <c r="C125" t="n">
-        <v>0.215612</v>
+        <v>0.217459</v>
       </c>
       <c r="D125" t="n">
-        <v>0.77793</v>
+        <v>0.775805</v>
       </c>
       <c r="E125" t="n">
-        <v>0.149804</v>
+        <v>0.151001</v>
       </c>
       <c r="F125" t="n">
-        <v>0.190012</v>
+        <v>0.191563</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.180774</v>
+        <v>0.181242</v>
       </c>
       <c r="C126" t="n">
-        <v>0.221727</v>
+        <v>0.225959</v>
       </c>
       <c r="D126" t="n">
-        <v>0.804163</v>
+        <v>0.801959</v>
       </c>
       <c r="E126" t="n">
-        <v>0.152283</v>
+        <v>0.155809</v>
       </c>
       <c r="F126" t="n">
-        <v>0.197202</v>
+        <v>0.198161</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.183416</v>
+        <v>0.180939</v>
       </c>
       <c r="C127" t="n">
-        <v>0.230848</v>
+        <v>0.228131</v>
       </c>
       <c r="D127" t="n">
-        <v>0.830915</v>
+        <v>0.82875</v>
       </c>
       <c r="E127" t="n">
-        <v>0.155153</v>
+        <v>0.155511</v>
       </c>
       <c r="F127" t="n">
-        <v>0.202525</v>
+        <v>0.201632</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.188385</v>
+        <v>0.190621</v>
       </c>
       <c r="C128" t="n">
-        <v>0.239511</v>
+        <v>0.240982</v>
       </c>
       <c r="D128" t="n">
-        <v>0.858599</v>
+        <v>0.856503</v>
       </c>
       <c r="E128" t="n">
-        <v>0.161339</v>
+        <v>0.161063</v>
       </c>
       <c r="F128" t="n">
-        <v>0.208455</v>
+        <v>0.205023</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.198117</v>
+        <v>0.197717</v>
       </c>
       <c r="C129" t="n">
-        <v>0.249568</v>
+        <v>0.250002</v>
       </c>
       <c r="D129" t="n">
-        <v>0.88734</v>
+        <v>0.885377</v>
       </c>
       <c r="E129" t="n">
-        <v>0.16378</v>
+        <v>0.158587</v>
       </c>
       <c r="F129" t="n">
-        <v>0.21171</v>
+        <v>0.209593</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.208587</v>
+        <v>0.205552</v>
       </c>
       <c r="C130" t="n">
-        <v>0.262955</v>
+        <v>0.263568</v>
       </c>
       <c r="D130" t="n">
-        <v>0.917223</v>
+        <v>0.9143790000000001</v>
       </c>
       <c r="E130" t="n">
-        <v>0.163407</v>
+        <v>0.164514</v>
       </c>
       <c r="F130" t="n">
-        <v>0.216746</v>
+        <v>0.214544</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.219144</v>
+        <v>0.224843</v>
       </c>
       <c r="C131" t="n">
-        <v>0.28583</v>
+        <v>0.2795</v>
       </c>
       <c r="D131" t="n">
-        <v>0.94731</v>
+        <v>0.944572</v>
       </c>
       <c r="E131" t="n">
-        <v>0.169731</v>
+        <v>0.164795</v>
       </c>
       <c r="F131" t="n">
-        <v>0.224644</v>
+        <v>0.220578</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.233654</v>
+        <v>0.233343</v>
       </c>
       <c r="C132" t="n">
-        <v>0.303017</v>
+        <v>0.302296</v>
       </c>
       <c r="D132" t="n">
-        <v>0.979282</v>
+        <v>0.975638</v>
       </c>
       <c r="E132" t="n">
-        <v>0.173823</v>
+        <v>0.174533</v>
       </c>
       <c r="F132" t="n">
-        <v>0.236584</v>
+        <v>0.233883</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.257627</v>
+        <v>0.261216</v>
       </c>
       <c r="C133" t="n">
-        <v>0.331551</v>
+        <v>0.335439</v>
       </c>
       <c r="D133" t="n">
-        <v>1.0116</v>
+        <v>1.00791</v>
       </c>
       <c r="E133" t="n">
-        <v>0.179297</v>
+        <v>0.179765</v>
       </c>
       <c r="F133" t="n">
-        <v>0.240728</v>
+        <v>0.241571</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.286939</v>
+        <v>0.288289</v>
       </c>
       <c r="C134" t="n">
-        <v>0.368619</v>
+        <v>0.371658</v>
       </c>
       <c r="D134" t="n">
-        <v>1.04454</v>
+        <v>1.04069</v>
       </c>
       <c r="E134" t="n">
-        <v>0.189065</v>
+        <v>0.18691</v>
       </c>
       <c r="F134" t="n">
-        <v>0.257097</v>
+        <v>0.255952</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.324738</v>
+        <v>0.324747</v>
       </c>
       <c r="C135" t="n">
-        <v>0.424301</v>
+        <v>0.428289</v>
       </c>
       <c r="D135" t="n">
-        <v>0.7009030000000001</v>
+        <v>0.697979</v>
       </c>
       <c r="E135" t="n">
-        <v>0.201778</v>
+        <v>0.200053</v>
       </c>
       <c r="F135" t="n">
-        <v>0.275524</v>
+        <v>0.275697</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.381444</v>
+        <v>0.394536</v>
       </c>
       <c r="C136" t="n">
-        <v>0.507969</v>
+        <v>0.505807</v>
       </c>
       <c r="D136" t="n">
-        <v>0.719042</v>
+        <v>0.715785</v>
       </c>
       <c r="E136" t="n">
-        <v>0.222649</v>
+        <v>0.225074</v>
       </c>
       <c r="F136" t="n">
-        <v>0.305598</v>
+        <v>0.305106</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.482353</v>
+        <v>0.491044</v>
       </c>
       <c r="C137" t="n">
-        <v>0.629258</v>
+        <v>0.628798</v>
       </c>
       <c r="D137" t="n">
-        <v>0.737899</v>
+        <v>0.734935</v>
       </c>
       <c r="E137" t="n">
-        <v>0.27607</v>
+        <v>0.281137</v>
       </c>
       <c r="F137" t="n">
-        <v>0.322645</v>
+        <v>0.319691</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.314108</v>
+        <v>0.313782</v>
       </c>
       <c r="C138" t="n">
-        <v>0.357654</v>
+        <v>0.358998</v>
       </c>
       <c r="D138" t="n">
-        <v>0.758773</v>
+        <v>0.7550519999999999</v>
       </c>
       <c r="E138" t="n">
-        <v>0.277954</v>
+        <v>0.280072</v>
       </c>
       <c r="F138" t="n">
-        <v>0.327675</v>
+        <v>0.327653</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.321323</v>
+        <v>0.32175</v>
       </c>
       <c r="C139" t="n">
-        <v>0.363635</v>
+        <v>0.364075</v>
       </c>
       <c r="D139" t="n">
-        <v>0.779991</v>
+        <v>0.775976</v>
       </c>
       <c r="E139" t="n">
-        <v>0.281569</v>
+        <v>0.282285</v>
       </c>
       <c r="F139" t="n">
-        <v>0.332512</v>
+        <v>0.331839</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.326333</v>
+        <v>0.324847</v>
       </c>
       <c r="C140" t="n">
-        <v>0.373185</v>
+        <v>0.37015</v>
       </c>
       <c r="D140" t="n">
-        <v>0.801628</v>
+        <v>0.797828</v>
       </c>
       <c r="E140" t="n">
-        <v>0.284559</v>
+        <v>0.282058</v>
       </c>
       <c r="F140" t="n">
-        <v>0.338253</v>
+        <v>0.336387</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.327591</v>
+        <v>0.327855</v>
       </c>
       <c r="C141" t="n">
-        <v>0.379817</v>
+        <v>0.377524</v>
       </c>
       <c r="D141" t="n">
-        <v>0.824173</v>
+        <v>0.820338</v>
       </c>
       <c r="E141" t="n">
-        <v>0.286187</v>
+        <v>0.287494</v>
       </c>
       <c r="F141" t="n">
-        <v>0.343384</v>
+        <v>0.34174</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.338226</v>
+        <v>0.332316</v>
       </c>
       <c r="C142" t="n">
-        <v>0.391751</v>
+        <v>0.388431</v>
       </c>
       <c r="D142" t="n">
-        <v>0.848237</v>
+        <v>0.844097</v>
       </c>
       <c r="E142" t="n">
-        <v>0.291221</v>
+        <v>0.29054</v>
       </c>
       <c r="F142" t="n">
-        <v>0.350334</v>
+        <v>0.348564</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.34254</v>
+        <v>0.338567</v>
       </c>
       <c r="C143" t="n">
-        <v>0.401533</v>
+        <v>0.399259</v>
       </c>
       <c r="D143" t="n">
-        <v>0.873367</v>
+        <v>0.868936</v>
       </c>
       <c r="E143" t="n">
-        <v>0.289508</v>
+        <v>0.290436</v>
       </c>
       <c r="F143" t="n">
-        <v>0.357176</v>
+        <v>0.352561</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Scattered unsuccessful looukp.xlsx
+++ b/clang-x86/Scattered unsuccessful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.09624050000000001</v>
+        <v>0.0951806</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0990316</v>
+        <v>0.09846539999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>0.18712</v>
+        <v>0.184584</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0837338</v>
+        <v>0.0838361</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0844164</v>
+        <v>0.0843742</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.103527</v>
+        <v>0.101704</v>
       </c>
       <c r="C3" t="n">
-        <v>0.105219</v>
+        <v>0.10614</v>
       </c>
       <c r="D3" t="n">
-        <v>0.193572</v>
+        <v>0.19192</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0844121</v>
+        <v>0.0846635</v>
       </c>
       <c r="F3" t="n">
-        <v>0.08518199999999999</v>
+        <v>0.0851865</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.113477</v>
+        <v>0.11141</v>
       </c>
       <c r="C4" t="n">
-        <v>0.113833</v>
+        <v>0.114156</v>
       </c>
       <c r="D4" t="n">
-        <v>0.202009</v>
+        <v>0.200138</v>
       </c>
       <c r="E4" t="n">
-        <v>0.08573500000000001</v>
+        <v>0.08588510000000001</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0867922</v>
+        <v>0.08667229999999999</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.133634</v>
+        <v>0.132038</v>
       </c>
       <c r="C5" t="n">
-        <v>0.131716</v>
+        <v>0.131572</v>
       </c>
       <c r="D5" t="n">
-        <v>0.206777</v>
+        <v>0.210889</v>
       </c>
       <c r="E5" t="n">
-        <v>0.086996</v>
+        <v>0.0875348</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0879959</v>
+        <v>0.0879023</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.161002</v>
+        <v>0.158941</v>
       </c>
       <c r="C6" t="n">
-        <v>0.163579</v>
+        <v>0.162538</v>
       </c>
       <c r="D6" t="n">
-        <v>0.21407</v>
+        <v>0.215999</v>
       </c>
       <c r="E6" t="n">
-        <v>0.089146</v>
+        <v>0.0894113</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0900933</v>
+        <v>0.0901217</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.19035</v>
+        <v>0.189063</v>
       </c>
       <c r="C7" t="n">
-        <v>0.190855</v>
+        <v>0.191334</v>
       </c>
       <c r="D7" t="n">
-        <v>0.161276</v>
+        <v>0.159856</v>
       </c>
       <c r="E7" t="n">
-        <v>0.09498280000000001</v>
+        <v>0.09578</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09495869999999999</v>
+        <v>0.09494610000000001</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.230379</v>
+        <v>0.22812</v>
       </c>
       <c r="C8" t="n">
-        <v>0.224884</v>
+        <v>0.225563</v>
       </c>
       <c r="D8" t="n">
-        <v>0.16825</v>
+        <v>0.166445</v>
       </c>
       <c r="E8" t="n">
-        <v>0.106246</v>
+        <v>0.106681</v>
       </c>
       <c r="F8" t="n">
-        <v>0.107594</v>
+        <v>0.107145</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.277025</v>
+        <v>0.272829</v>
       </c>
       <c r="C9" t="n">
-        <v>0.269128</v>
+        <v>0.268147</v>
       </c>
       <c r="D9" t="n">
-        <v>0.176104</v>
+        <v>0.173887</v>
       </c>
       <c r="E9" t="n">
-        <v>0.082162</v>
+        <v>0.0820697</v>
       </c>
       <c r="F9" t="n">
-        <v>0.082612</v>
+        <v>0.08277909999999999</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0863903</v>
+        <v>0.0861928</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0870997</v>
+        <v>0.08691309999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>0.182792</v>
+        <v>0.181714</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0823599</v>
+        <v>0.0822319</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0829714</v>
+        <v>0.0831725</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.08714180000000001</v>
+        <v>0.0865692</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0877874</v>
+        <v>0.08823789999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>0.190403</v>
+        <v>0.189765</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0828043</v>
+        <v>0.0826698</v>
       </c>
       <c r="F11" t="n">
-        <v>0.08338719999999999</v>
+        <v>0.08357249999999999</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0885811</v>
+        <v>0.0881125</v>
       </c>
       <c r="C12" t="n">
-        <v>0.08944879999999999</v>
+        <v>0.0898375</v>
       </c>
       <c r="D12" t="n">
-        <v>0.197984</v>
+        <v>0.197544</v>
       </c>
       <c r="E12" t="n">
-        <v>0.08295520000000001</v>
+        <v>0.0828977</v>
       </c>
       <c r="F12" t="n">
-        <v>0.08365019999999999</v>
+        <v>0.0838161</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0901073</v>
+        <v>0.08948970000000001</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0910749</v>
+        <v>0.09152</v>
       </c>
       <c r="D13" t="n">
-        <v>0.204973</v>
+        <v>0.204623</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0832455</v>
+        <v>0.08321149999999999</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0839318</v>
+        <v>0.0840043</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0921129</v>
+        <v>0.091831</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0931372</v>
+        <v>0.093001</v>
       </c>
       <c r="D14" t="n">
-        <v>0.211918</v>
+        <v>0.212414</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0835091</v>
+        <v>0.08350100000000001</v>
       </c>
       <c r="F14" t="n">
-        <v>0.08445660000000001</v>
+        <v>0.0843742</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.09571490000000001</v>
+        <v>0.0955584</v>
       </c>
       <c r="C15" t="n">
-        <v>0.09693499999999999</v>
+        <v>0.09644320000000001</v>
       </c>
       <c r="D15" t="n">
-        <v>0.220111</v>
+        <v>0.220458</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0839183</v>
+        <v>0.08417239999999999</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08492959999999999</v>
+        <v>0.08495179999999999</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.101488</v>
+        <v>0.100882</v>
       </c>
       <c r="C16" t="n">
-        <v>0.101907</v>
+        <v>0.101659</v>
       </c>
       <c r="D16" t="n">
-        <v>0.2264</v>
+        <v>0.229258</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0843952</v>
+        <v>0.0843694</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0853763</v>
+        <v>0.08533640000000001</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.110324</v>
+        <v>0.109061</v>
       </c>
       <c r="C17" t="n">
-        <v>0.110139</v>
+        <v>0.110484</v>
       </c>
       <c r="D17" t="n">
-        <v>0.233654</v>
+        <v>0.236575</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0853212</v>
+        <v>0.08558830000000001</v>
       </c>
       <c r="F17" t="n">
-        <v>0.086661</v>
+        <v>0.086464</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.12151</v>
+        <v>0.120542</v>
       </c>
       <c r="C18" t="n">
-        <v>0.125264</v>
+        <v>0.122931</v>
       </c>
       <c r="D18" t="n">
-        <v>0.239052</v>
+        <v>0.242482</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0865426</v>
+        <v>0.08691210000000001</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0879385</v>
+        <v>0.0879646</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.136235</v>
+        <v>0.134645</v>
       </c>
       <c r="C19" t="n">
-        <v>0.138549</v>
+        <v>0.137408</v>
       </c>
       <c r="D19" t="n">
-        <v>0.246563</v>
+        <v>0.250147</v>
       </c>
       <c r="E19" t="n">
-        <v>0.088389</v>
+        <v>0.088738</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0898542</v>
+        <v>0.0898969</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.15577</v>
+        <v>0.154465</v>
       </c>
       <c r="C20" t="n">
-        <v>0.157297</v>
+        <v>0.157061</v>
       </c>
       <c r="D20" t="n">
-        <v>0.251399</v>
+        <v>0.255194</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0912954</v>
+        <v>0.091623</v>
       </c>
       <c r="F20" t="n">
-        <v>0.09264319999999999</v>
+        <v>0.09252000000000001</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.184946</v>
+        <v>0.183448</v>
       </c>
       <c r="C21" t="n">
-        <v>0.182445</v>
+        <v>0.18322</v>
       </c>
       <c r="D21" t="n">
-        <v>0.182818</v>
+        <v>0.183856</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0970705</v>
+        <v>0.09780460000000001</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0991755</v>
+        <v>0.09894120000000001</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.219006</v>
+        <v>0.215945</v>
       </c>
       <c r="C22" t="n">
-        <v>0.22052</v>
+        <v>0.221367</v>
       </c>
       <c r="D22" t="n">
-        <v>0.190873</v>
+        <v>0.193084</v>
       </c>
       <c r="E22" t="n">
-        <v>0.10923</v>
+        <v>0.10989</v>
       </c>
       <c r="F22" t="n">
-        <v>0.111211</v>
+        <v>0.110895</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.266895</v>
+        <v>0.262417</v>
       </c>
       <c r="C23" t="n">
-        <v>0.260453</v>
+        <v>0.260114</v>
       </c>
       <c r="D23" t="n">
-        <v>0.197971</v>
+        <v>0.200376</v>
       </c>
       <c r="E23" t="n">
-        <v>0.08317479999999999</v>
+        <v>0.0830654</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0842417</v>
+        <v>0.0842487</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.09069199999999999</v>
+        <v>0.0903134</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0920463</v>
+        <v>0.0920942</v>
       </c>
       <c r="D24" t="n">
-        <v>0.205772</v>
+        <v>0.208097</v>
       </c>
       <c r="E24" t="n">
-        <v>0.083296</v>
+        <v>0.08327809999999999</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0847</v>
+        <v>0.0847019</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.09171029999999999</v>
+        <v>0.09122860000000001</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0930163</v>
+        <v>0.0932644</v>
       </c>
       <c r="D25" t="n">
-        <v>0.212988</v>
+        <v>0.215284</v>
       </c>
       <c r="E25" t="n">
-        <v>0.08365549999999999</v>
+        <v>0.0835245</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0851186</v>
+        <v>0.0849782</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.09334969999999999</v>
+        <v>0.0928065</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0946541</v>
+        <v>0.0947308</v>
       </c>
       <c r="D26" t="n">
-        <v>0.220471</v>
+        <v>0.222292</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0839939</v>
+        <v>0.0838846</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0856748</v>
+        <v>0.08559650000000001</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0951167</v>
+        <v>0.09447419999999999</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0964183</v>
+        <v>0.0965406</v>
       </c>
       <c r="D27" t="n">
-        <v>0.228614</v>
+        <v>0.2315</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0844758</v>
+        <v>0.0843522</v>
       </c>
       <c r="F27" t="n">
-        <v>0.08639139999999999</v>
+        <v>0.086339</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0978419</v>
+        <v>0.0971405</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0995683</v>
+        <v>0.0995451</v>
       </c>
       <c r="D28" t="n">
-        <v>0.234575</v>
+        <v>0.238387</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0848793</v>
+        <v>0.0848655</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0871131</v>
+        <v>0.0871063</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.101348</v>
+        <v>0.100448</v>
       </c>
       <c r="C29" t="n">
-        <v>0.104599</v>
+        <v>0.104566</v>
       </c>
       <c r="D29" t="n">
-        <v>0.242244</v>
+        <v>0.243761</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0853091</v>
+        <v>0.0853646</v>
       </c>
       <c r="F29" t="n">
-        <v>0.08765390000000001</v>
+        <v>0.0877247</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.106975</v>
+        <v>0.106041</v>
       </c>
       <c r="C30" t="n">
-        <v>0.110304</v>
+        <v>0.110498</v>
       </c>
       <c r="D30" t="n">
-        <v>0.246643</v>
+        <v>0.25178</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0859814</v>
+        <v>0.08610139999999999</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0889567</v>
+        <v>0.08868910000000001</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.116745</v>
+        <v>0.113618</v>
       </c>
       <c r="C31" t="n">
-        <v>0.116318</v>
+        <v>0.115537</v>
       </c>
       <c r="D31" t="n">
-        <v>0.25253</v>
+        <v>0.258486</v>
       </c>
       <c r="E31" t="n">
-        <v>0.086964</v>
+        <v>0.0872372</v>
       </c>
       <c r="F31" t="n">
-        <v>0.090062</v>
+        <v>0.09012240000000001</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.122403</v>
+        <v>0.121411</v>
       </c>
       <c r="C32" t="n">
-        <v>0.12833</v>
+        <v>0.126532</v>
       </c>
       <c r="D32" t="n">
-        <v>0.25823</v>
+        <v>0.262502</v>
       </c>
       <c r="E32" t="n">
-        <v>0.08944340000000001</v>
+        <v>0.0888784</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0924189</v>
+        <v>0.0923921</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.136038</v>
+        <v>0.13494</v>
       </c>
       <c r="C33" t="n">
-        <v>0.138401</v>
+        <v>0.137916</v>
       </c>
       <c r="D33" t="n">
-        <v>0.264186</v>
+        <v>0.269293</v>
       </c>
       <c r="E33" t="n">
-        <v>0.09159689999999999</v>
+        <v>0.0910668</v>
       </c>
       <c r="F33" t="n">
-        <v>0.09467399999999999</v>
+        <v>0.094551</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.151334</v>
+        <v>0.150494</v>
       </c>
       <c r="C34" t="n">
-        <v>0.157864</v>
+        <v>0.15418</v>
       </c>
       <c r="D34" t="n">
-        <v>0.270129</v>
+        <v>0.274836</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0947615</v>
+        <v>0.09519909999999999</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0987377</v>
+        <v>0.09869989999999999</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.177755</v>
+        <v>0.176297</v>
       </c>
       <c r="C35" t="n">
-        <v>0.180111</v>
+        <v>0.181111</v>
       </c>
       <c r="D35" t="n">
-        <v>0.196038</v>
+        <v>0.196694</v>
       </c>
       <c r="E35" t="n">
-        <v>0.103037</v>
+        <v>0.102262</v>
       </c>
       <c r="F35" t="n">
-        <v>0.107058</v>
+        <v>0.105728</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.211136</v>
+        <v>0.208619</v>
       </c>
       <c r="C36" t="n">
-        <v>0.210059</v>
+        <v>0.209863</v>
       </c>
       <c r="D36" t="n">
-        <v>0.203054</v>
+        <v>0.204906</v>
       </c>
       <c r="E36" t="n">
-        <v>0.112928</v>
+        <v>0.115081</v>
       </c>
       <c r="F36" t="n">
-        <v>0.116985</v>
+        <v>0.116969</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.256845</v>
+        <v>0.25312</v>
       </c>
       <c r="C37" t="n">
-        <v>0.25631</v>
+        <v>0.254534</v>
       </c>
       <c r="D37" t="n">
-        <v>0.210908</v>
+        <v>0.212934</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0837995</v>
+        <v>0.0837001</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0870674</v>
+        <v>0.08758539999999999</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0931806</v>
+        <v>0.0936864</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0969174</v>
+        <v>0.09616479999999999</v>
       </c>
       <c r="D38" t="n">
-        <v>0.218157</v>
+        <v>0.220116</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0846614</v>
+        <v>0.0840318</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0875117</v>
+        <v>0.0873037</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.09401959999999999</v>
+        <v>0.0938267</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0978883</v>
+        <v>0.0978516</v>
       </c>
       <c r="D39" t="n">
-        <v>0.225363</v>
+        <v>0.228565</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0848469</v>
+        <v>0.0847521</v>
       </c>
       <c r="F39" t="n">
-        <v>0.08814370000000001</v>
+        <v>0.0879813</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0959055</v>
+        <v>0.09494180000000001</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0995815</v>
+        <v>0.0990243</v>
       </c>
       <c r="D40" t="n">
-        <v>0.232946</v>
+        <v>0.236109</v>
       </c>
       <c r="E40" t="n">
-        <v>0.08531999999999999</v>
+        <v>0.0845728</v>
       </c>
       <c r="F40" t="n">
-        <v>0.08838790000000001</v>
+        <v>0.0882498</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0983282</v>
+        <v>0.0971775</v>
       </c>
       <c r="C41" t="n">
-        <v>0.101502</v>
+        <v>0.101081</v>
       </c>
       <c r="D41" t="n">
-        <v>0.240092</v>
+        <v>0.242699</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0851705</v>
+        <v>0.0850986</v>
       </c>
       <c r="F41" t="n">
-        <v>0.08897480000000001</v>
+        <v>0.0888528</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.100729</v>
+        <v>0.10009</v>
       </c>
       <c r="C42" t="n">
-        <v>0.10537</v>
+        <v>0.104171</v>
       </c>
       <c r="D42" t="n">
-        <v>0.246833</v>
+        <v>0.249412</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0865509</v>
+        <v>0.0855129</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0904745</v>
+        <v>0.0893843</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.106307</v>
+        <v>0.104328</v>
       </c>
       <c r="C43" t="n">
-        <v>0.108173</v>
+        <v>0.108388</v>
       </c>
       <c r="D43" t="n">
-        <v>0.253385</v>
+        <v>0.257015</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0864492</v>
+        <v>0.086073</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0901619</v>
+        <v>0.0901301</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.110039</v>
+        <v>0.110379</v>
       </c>
       <c r="C44" t="n">
-        <v>0.113506</v>
+        <v>0.113982</v>
       </c>
       <c r="D44" t="n">
-        <v>0.259414</v>
+        <v>0.263295</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0873411</v>
+        <v>0.0873559</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0918403</v>
+        <v>0.0908882</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.11833</v>
+        <v>0.116568</v>
       </c>
       <c r="C45" t="n">
-        <v>0.119723</v>
+        <v>0.120239</v>
       </c>
       <c r="D45" t="n">
-        <v>0.26561</v>
+        <v>0.270175</v>
       </c>
       <c r="E45" t="n">
-        <v>0.08776490000000001</v>
+        <v>0.0879548</v>
       </c>
       <c r="F45" t="n">
-        <v>0.09263689999999999</v>
+        <v>0.0922651</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.124904</v>
+        <v>0.12802</v>
       </c>
       <c r="C46" t="n">
-        <v>0.12906</v>
+        <v>0.12857</v>
       </c>
       <c r="D46" t="n">
-        <v>0.271155</v>
+        <v>0.275538</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0899107</v>
+        <v>0.0894086</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0940014</v>
+        <v>0.0937679</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.136024</v>
+        <v>0.140153</v>
       </c>
       <c r="C47" t="n">
-        <v>0.14018</v>
+        <v>0.139771</v>
       </c>
       <c r="D47" t="n">
-        <v>0.276985</v>
+        <v>0.281173</v>
       </c>
       <c r="E47" t="n">
-        <v>0.09132709999999999</v>
+        <v>0.0917321</v>
       </c>
       <c r="F47" t="n">
-        <v>0.09631579999999999</v>
+        <v>0.0962866</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.151981</v>
+        <v>0.150504</v>
       </c>
       <c r="C48" t="n">
-        <v>0.154475</v>
+        <v>0.154422</v>
       </c>
       <c r="D48" t="n">
-        <v>0.283017</v>
+        <v>0.286876</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0950077</v>
+        <v>0.09519</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0997841</v>
+        <v>0.0997986</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.179381</v>
+        <v>0.173161</v>
       </c>
       <c r="C49" t="n">
-        <v>0.176329</v>
+        <v>0.176127</v>
       </c>
       <c r="D49" t="n">
-        <v>0.288887</v>
+        <v>0.29401</v>
       </c>
       <c r="E49" t="n">
-        <v>0.102126</v>
+        <v>0.101029</v>
       </c>
       <c r="F49" t="n">
-        <v>0.105979</v>
+        <v>0.105485</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.215727</v>
+        <v>0.214591</v>
       </c>
       <c r="C50" t="n">
-        <v>0.205626</v>
+        <v>0.205024</v>
       </c>
       <c r="D50" t="n">
-        <v>0.203165</v>
+        <v>0.205946</v>
       </c>
       <c r="E50" t="n">
-        <v>0.110065</v>
+        <v>0.110758</v>
       </c>
       <c r="F50" t="n">
-        <v>0.115207</v>
+        <v>0.115249</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.247276</v>
+        <v>0.24338</v>
       </c>
       <c r="C51" t="n">
-        <v>0.253751</v>
+        <v>0.248479</v>
       </c>
       <c r="D51" t="n">
-        <v>0.210493</v>
+        <v>0.212688</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0862458</v>
+        <v>0.0858828</v>
       </c>
       <c r="F51" t="n">
-        <v>0.09056500000000001</v>
+        <v>0.0893974</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.30971</v>
+        <v>0.295068</v>
       </c>
       <c r="C52" t="n">
-        <v>0.294104</v>
+        <v>0.302685</v>
       </c>
       <c r="D52" t="n">
-        <v>0.217082</v>
+        <v>0.219674</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0862459</v>
+        <v>0.0859911</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0901762</v>
+        <v>0.0901004</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0973488</v>
+        <v>0.09724670000000001</v>
       </c>
       <c r="C53" t="n">
-        <v>0.101042</v>
+        <v>0.100204</v>
       </c>
       <c r="D53" t="n">
-        <v>0.22469</v>
+        <v>0.227674</v>
       </c>
       <c r="E53" t="n">
-        <v>0.08666699999999999</v>
+        <v>0.08687159999999999</v>
       </c>
       <c r="F53" t="n">
-        <v>0.09117749999999999</v>
+        <v>0.09013210000000001</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0988064</v>
+        <v>0.0992793</v>
       </c>
       <c r="C54" t="n">
-        <v>0.10341</v>
+        <v>0.102168</v>
       </c>
       <c r="D54" t="n">
-        <v>0.231194</v>
+        <v>0.235031</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0871082</v>
+        <v>0.0868027</v>
       </c>
       <c r="F54" t="n">
-        <v>0.090605</v>
+        <v>0.0912965</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.102706</v>
+        <v>0.101489</v>
       </c>
       <c r="C55" t="n">
-        <v>0.106161</v>
+        <v>0.10544</v>
       </c>
       <c r="D55" t="n">
-        <v>0.238133</v>
+        <v>0.241776</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0876237</v>
+        <v>0.0868637</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0925053</v>
+        <v>0.0917589</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.103556</v>
+        <v>0.104981</v>
       </c>
       <c r="C56" t="n">
-        <v>0.108377</v>
+        <v>0.10753</v>
       </c>
       <c r="D56" t="n">
-        <v>0.24452</v>
+        <v>0.248015</v>
       </c>
       <c r="E56" t="n">
-        <v>0.08828469999999999</v>
+        <v>0.0870788</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0919697</v>
+        <v>0.0921802</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.106527</v>
+        <v>0.107283</v>
       </c>
       <c r="C57" t="n">
-        <v>0.112361</v>
+        <v>0.113291</v>
       </c>
       <c r="D57" t="n">
-        <v>0.250463</v>
+        <v>0.254123</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0900036</v>
+        <v>0.08856269999999999</v>
       </c>
       <c r="F57" t="n">
-        <v>0.0934195</v>
+        <v>0.0933248</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.112027</v>
+        <v>0.114827</v>
       </c>
       <c r="C58" t="n">
-        <v>0.118496</v>
+        <v>0.115876</v>
       </c>
       <c r="D58" t="n">
-        <v>0.256239</v>
+        <v>0.260773</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0890358</v>
+        <v>0.0881419</v>
       </c>
       <c r="F58" t="n">
-        <v>0.0947258</v>
+        <v>0.09425749999999999</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.120844</v>
+        <v>0.117023</v>
       </c>
       <c r="C59" t="n">
-        <v>0.123704</v>
+        <v>0.122417</v>
       </c>
       <c r="D59" t="n">
-        <v>0.261789</v>
+        <v>0.267079</v>
       </c>
       <c r="E59" t="n">
-        <v>0.09011660000000001</v>
+        <v>0.0899544</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0964294</v>
+        <v>0.0949218</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.128675</v>
+        <v>0.125218</v>
       </c>
       <c r="C60" t="n">
-        <v>0.13208</v>
+        <v>0.130273</v>
       </c>
       <c r="D60" t="n">
-        <v>0.266899</v>
+        <v>0.27271</v>
       </c>
       <c r="E60" t="n">
-        <v>0.09128650000000001</v>
+        <v>0.0914092</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0972876</v>
+        <v>0.0969235</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.140651</v>
+        <v>0.14002</v>
       </c>
       <c r="C61" t="n">
-        <v>0.1421</v>
+        <v>0.142065</v>
       </c>
       <c r="D61" t="n">
-        <v>0.27187</v>
+        <v>0.27833</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0940506</v>
+        <v>0.0930098</v>
       </c>
       <c r="F61" t="n">
-        <v>0.100186</v>
+        <v>0.0995499</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.150183</v>
+        <v>0.148734</v>
       </c>
       <c r="C62" t="n">
-        <v>0.157522</v>
+        <v>0.16046</v>
       </c>
       <c r="D62" t="n">
-        <v>0.278499</v>
+        <v>0.284702</v>
       </c>
       <c r="E62" t="n">
-        <v>0.0977621</v>
+        <v>0.0969812</v>
       </c>
       <c r="F62" t="n">
-        <v>0.103244</v>
+        <v>0.103232</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.177143</v>
+        <v>0.177393</v>
       </c>
       <c r="C63" t="n">
-        <v>0.176747</v>
+        <v>0.175607</v>
       </c>
       <c r="D63" t="n">
-        <v>0.284356</v>
+        <v>0.290302</v>
       </c>
       <c r="E63" t="n">
-        <v>0.10173</v>
+        <v>0.102229</v>
       </c>
       <c r="F63" t="n">
-        <v>0.108657</v>
+        <v>0.108703</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.208074</v>
+        <v>0.207305</v>
       </c>
       <c r="C64" t="n">
-        <v>0.204745</v>
+        <v>0.20704</v>
       </c>
       <c r="D64" t="n">
-        <v>0.208723</v>
+        <v>0.212594</v>
       </c>
       <c r="E64" t="n">
-        <v>0.111732</v>
+        <v>0.110587</v>
       </c>
       <c r="F64" t="n">
-        <v>0.116748</v>
+        <v>0.117231</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.245219</v>
+        <v>0.236887</v>
       </c>
       <c r="C65" t="n">
-        <v>0.251215</v>
+        <v>0.246858</v>
       </c>
       <c r="D65" t="n">
-        <v>0.217026</v>
+        <v>0.219339</v>
       </c>
       <c r="E65" t="n">
-        <v>0.126484</v>
+        <v>0.125036</v>
       </c>
       <c r="F65" t="n">
-        <v>0.13288</v>
+        <v>0.131175</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.301462</v>
+        <v>0.28447</v>
       </c>
       <c r="C66" t="n">
-        <v>0.294831</v>
+        <v>0.293717</v>
       </c>
       <c r="D66" t="n">
-        <v>0.223002</v>
+        <v>0.225208</v>
       </c>
       <c r="E66" t="n">
-        <v>0.0938204</v>
+        <v>0.09336560000000001</v>
       </c>
       <c r="F66" t="n">
-        <v>0.0974846</v>
+        <v>0.0975164</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.110666</v>
+        <v>0.107366</v>
       </c>
       <c r="C67" t="n">
-        <v>0.112874</v>
+        <v>0.112767</v>
       </c>
       <c r="D67" t="n">
-        <v>0.233366</v>
+        <v>0.236966</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0946466</v>
+        <v>0.0939542</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0985135</v>
+        <v>0.0981107</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.111205</v>
+        <v>0.111044</v>
       </c>
       <c r="C68" t="n">
-        <v>0.11514</v>
+        <v>0.114928</v>
       </c>
       <c r="D68" t="n">
-        <v>0.242558</v>
+        <v>0.244573</v>
       </c>
       <c r="E68" t="n">
-        <v>0.09502480000000001</v>
+        <v>0.09404079999999999</v>
       </c>
       <c r="F68" t="n">
-        <v>0.0994131</v>
+        <v>0.0991469</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.112016</v>
+        <v>0.112425</v>
       </c>
       <c r="C69" t="n">
-        <v>0.117848</v>
+        <v>0.116601</v>
       </c>
       <c r="D69" t="n">
-        <v>0.2522</v>
+        <v>0.252364</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0948773</v>
+        <v>0.095291</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0997598</v>
+        <v>0.09960289999999999</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.115325</v>
+        <v>0.115611</v>
       </c>
       <c r="C70" t="n">
-        <v>0.119462</v>
+        <v>0.121702</v>
       </c>
       <c r="D70" t="n">
-        <v>0.259939</v>
+        <v>0.257102</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0956866</v>
+        <v>0.0950406</v>
       </c>
       <c r="F70" t="n">
-        <v>0.100834</v>
+        <v>0.101022</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.118386</v>
+        <v>0.116822</v>
       </c>
       <c r="C71" t="n">
-        <v>0.126265</v>
+        <v>0.12429</v>
       </c>
       <c r="D71" t="n">
-        <v>0.273483</v>
+        <v>0.266982</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0960527</v>
+        <v>0.09621</v>
       </c>
       <c r="F71" t="n">
-        <v>0.101896</v>
+        <v>0.101952</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.12356</v>
+        <v>0.121917</v>
       </c>
       <c r="C72" t="n">
-        <v>0.128408</v>
+        <v>0.129944</v>
       </c>
       <c r="D72" t="n">
-        <v>0.282796</v>
+        <v>0.276222</v>
       </c>
       <c r="E72" t="n">
-        <v>0.09699099999999999</v>
+        <v>0.0962358</v>
       </c>
       <c r="F72" t="n">
-        <v>0.102745</v>
+        <v>0.103653</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.131855</v>
+        <v>0.128</v>
       </c>
       <c r="C73" t="n">
-        <v>0.137049</v>
+        <v>0.134806</v>
       </c>
       <c r="D73" t="n">
-        <v>0.293608</v>
+        <v>0.287006</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0974428</v>
+        <v>0.0978147</v>
       </c>
       <c r="F73" t="n">
-        <v>0.105354</v>
+        <v>0.105701</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.137233</v>
+        <v>0.138013</v>
       </c>
       <c r="C74" t="n">
-        <v>0.144755</v>
+        <v>0.145797</v>
       </c>
       <c r="D74" t="n">
-        <v>0.306154</v>
+        <v>0.301679</v>
       </c>
       <c r="E74" t="n">
-        <v>0.0995843</v>
+        <v>0.0995605</v>
       </c>
       <c r="F74" t="n">
-        <v>0.106472</v>
+        <v>0.106797</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.149744</v>
+        <v>0.14847</v>
       </c>
       <c r="C75" t="n">
-        <v>0.15403</v>
+        <v>0.153081</v>
       </c>
       <c r="D75" t="n">
-        <v>0.320435</v>
+        <v>0.314029</v>
       </c>
       <c r="E75" t="n">
-        <v>0.102042</v>
+        <v>0.100954</v>
       </c>
       <c r="F75" t="n">
-        <v>0.109124</v>
+        <v>0.108916</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.162756</v>
+        <v>0.163587</v>
       </c>
       <c r="C76" t="n">
-        <v>0.168959</v>
+        <v>0.167889</v>
       </c>
       <c r="D76" t="n">
-        <v>0.333679</v>
+        <v>0.32943</v>
       </c>
       <c r="E76" t="n">
-        <v>0.104008</v>
+        <v>0.10433</v>
       </c>
       <c r="F76" t="n">
-        <v>0.11259</v>
+        <v>0.11266</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.178594</v>
+        <v>0.176538</v>
       </c>
       <c r="C77" t="n">
-        <v>0.188381</v>
+        <v>0.190132</v>
       </c>
       <c r="D77" t="n">
-        <v>0.348312</v>
+        <v>0.349754</v>
       </c>
       <c r="E77" t="n">
-        <v>0.109045</v>
+        <v>0.109171</v>
       </c>
       <c r="F77" t="n">
-        <v>0.117763</v>
+        <v>0.118664</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.204472</v>
+        <v>0.213531</v>
       </c>
       <c r="C78" t="n">
-        <v>0.217606</v>
+        <v>0.217755</v>
       </c>
       <c r="D78" t="n">
-        <v>0.269609</v>
+        <v>0.266938</v>
       </c>
       <c r="E78" t="n">
-        <v>0.116559</v>
+        <v>0.11644</v>
       </c>
       <c r="F78" t="n">
-        <v>0.125408</v>
+        <v>0.126244</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.25556</v>
+        <v>0.252768</v>
       </c>
       <c r="C79" t="n">
-        <v>0.263451</v>
+        <v>0.259316</v>
       </c>
       <c r="D79" t="n">
-        <v>0.287001</v>
+        <v>0.286719</v>
       </c>
       <c r="E79" t="n">
-        <v>0.130106</v>
+        <v>0.13016</v>
       </c>
       <c r="F79" t="n">
-        <v>0.141223</v>
+        <v>0.141016</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.309828</v>
+        <v>0.301837</v>
       </c>
       <c r="C80" t="n">
-        <v>0.321009</v>
+        <v>0.316017</v>
       </c>
       <c r="D80" t="n">
-        <v>0.30547</v>
+        <v>0.304811</v>
       </c>
       <c r="E80" t="n">
-        <v>0.101718</v>
+        <v>0.101557</v>
       </c>
       <c r="F80" t="n">
-        <v>0.106217</v>
+        <v>0.106859</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.120701</v>
+        <v>0.119594</v>
       </c>
       <c r="C81" t="n">
-        <v>0.12547</v>
+        <v>0.126788</v>
       </c>
       <c r="D81" t="n">
-        <v>0.326124</v>
+        <v>0.325475</v>
       </c>
       <c r="E81" t="n">
-        <v>0.10216</v>
+        <v>0.102198</v>
       </c>
       <c r="F81" t="n">
-        <v>0.107096</v>
+        <v>0.107186</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.122042</v>
+        <v>0.122206</v>
       </c>
       <c r="C82" t="n">
-        <v>0.127522</v>
+        <v>0.128129</v>
       </c>
       <c r="D82" t="n">
-        <v>0.345132</v>
+        <v>0.346261</v>
       </c>
       <c r="E82" t="n">
-        <v>0.102604</v>
+        <v>0.102598</v>
       </c>
       <c r="F82" t="n">
-        <v>0.107829</v>
+        <v>0.107863</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.123481</v>
+        <v>0.123175</v>
       </c>
       <c r="C83" t="n">
-        <v>0.130213</v>
+        <v>0.130202</v>
       </c>
       <c r="D83" t="n">
-        <v>0.368972</v>
+        <v>0.36815</v>
       </c>
       <c r="E83" t="n">
-        <v>0.102914</v>
+        <v>0.103074</v>
       </c>
       <c r="F83" t="n">
-        <v>0.108829</v>
+        <v>0.108941</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.126027</v>
+        <v>0.127744</v>
       </c>
       <c r="C84" t="n">
-        <v>0.133408</v>
+        <v>0.133933</v>
       </c>
       <c r="D84" t="n">
-        <v>0.388107</v>
+        <v>0.388781</v>
       </c>
       <c r="E84" t="n">
-        <v>0.103458</v>
+        <v>0.10402</v>
       </c>
       <c r="F84" t="n">
-        <v>0.109657</v>
+        <v>0.109936</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.129396</v>
+        <v>0.129453</v>
       </c>
       <c r="C85" t="n">
-        <v>0.137608</v>
+        <v>0.137692</v>
       </c>
       <c r="D85" t="n">
-        <v>0.412268</v>
+        <v>0.411601</v>
       </c>
       <c r="E85" t="n">
-        <v>0.104296</v>
+        <v>0.104274</v>
       </c>
       <c r="F85" t="n">
-        <v>0.111205</v>
+        <v>0.111343</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.134185</v>
+        <v>0.133584</v>
       </c>
       <c r="C86" t="n">
-        <v>0.142348</v>
+        <v>0.142968</v>
       </c>
       <c r="D86" t="n">
-        <v>0.434621</v>
+        <v>0.434891</v>
       </c>
       <c r="E86" t="n">
-        <v>0.10563</v>
+        <v>0.105442</v>
       </c>
       <c r="F86" t="n">
-        <v>0.112835</v>
+        <v>0.113137</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.140846</v>
+        <v>0.139318</v>
       </c>
       <c r="C87" t="n">
-        <v>0.14982</v>
+        <v>0.150995</v>
       </c>
       <c r="D87" t="n">
-        <v>0.457941</v>
+        <v>0.458057</v>
       </c>
       <c r="E87" t="n">
-        <v>0.106149</v>
+        <v>0.106388</v>
       </c>
       <c r="F87" t="n">
-        <v>0.115023</v>
+        <v>0.11538</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.148978</v>
+        <v>0.146938</v>
       </c>
       <c r="C88" t="n">
-        <v>0.159259</v>
+        <v>0.159883</v>
       </c>
       <c r="D88" t="n">
-        <v>0.481824</v>
+        <v>0.483069</v>
       </c>
       <c r="E88" t="n">
-        <v>0.107697</v>
+        <v>0.108176</v>
       </c>
       <c r="F88" t="n">
-        <v>0.118617</v>
+        <v>0.118259</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.158955</v>
+        <v>0.156678</v>
       </c>
       <c r="C89" t="n">
-        <v>0.173756</v>
+        <v>0.174948</v>
       </c>
       <c r="D89" t="n">
-        <v>0.506917</v>
+        <v>0.507703</v>
       </c>
       <c r="E89" t="n">
-        <v>0.110066</v>
+        <v>0.110029</v>
       </c>
       <c r="F89" t="n">
-        <v>0.121563</v>
+        <v>0.121944</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.174058</v>
+        <v>0.170118</v>
       </c>
       <c r="C90" t="n">
-        <v>0.191236</v>
+        <v>0.191171</v>
       </c>
       <c r="D90" t="n">
-        <v>0.533902</v>
+        <v>0.5331</v>
       </c>
       <c r="E90" t="n">
-        <v>0.113154</v>
+        <v>0.113695</v>
       </c>
       <c r="F90" t="n">
-        <v>0.127146</v>
+        <v>0.129236</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.190217</v>
+        <v>0.192473</v>
       </c>
       <c r="C91" t="n">
-        <v>0.217278</v>
+        <v>0.218249</v>
       </c>
       <c r="D91" t="n">
-        <v>0.561067</v>
+        <v>0.5623860000000001</v>
       </c>
       <c r="E91" t="n">
-        <v>0.117807</v>
+        <v>0.11832</v>
       </c>
       <c r="F91" t="n">
-        <v>0.135488</v>
+        <v>0.137105</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.217578</v>
+        <v>0.225103</v>
       </c>
       <c r="C92" t="n">
-        <v>0.25581</v>
+        <v>0.255822</v>
       </c>
       <c r="D92" t="n">
-        <v>0.420203</v>
+        <v>0.422866</v>
       </c>
       <c r="E92" t="n">
-        <v>0.1255</v>
+        <v>0.12592</v>
       </c>
       <c r="F92" t="n">
-        <v>0.149614</v>
+        <v>0.148992</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.268637</v>
+        <v>0.266273</v>
       </c>
       <c r="C93" t="n">
-        <v>0.312004</v>
+        <v>0.310388</v>
       </c>
       <c r="D93" t="n">
-        <v>0.439427</v>
+        <v>0.44155</v>
       </c>
       <c r="E93" t="n">
-        <v>0.139586</v>
+        <v>0.140631</v>
       </c>
       <c r="F93" t="n">
-        <v>0.169673</v>
+        <v>0.16867</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.333797</v>
+        <v>0.328047</v>
       </c>
       <c r="C94" t="n">
-        <v>0.388532</v>
+        <v>0.396444</v>
       </c>
       <c r="D94" t="n">
-        <v>0.458869</v>
+        <v>0.459377</v>
       </c>
       <c r="E94" t="n">
-        <v>0.107628</v>
+        <v>0.107475</v>
       </c>
       <c r="F94" t="n">
-        <v>0.120642</v>
+        <v>0.120201</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.127951</v>
+        <v>0.127735</v>
       </c>
       <c r="C95" t="n">
-        <v>0.143838</v>
+        <v>0.143559</v>
       </c>
       <c r="D95" t="n">
-        <v>0.478456</v>
+        <v>0.478274</v>
       </c>
       <c r="E95" t="n">
-        <v>0.108838</v>
+        <v>0.108898</v>
       </c>
       <c r="F95" t="n">
-        <v>0.123252</v>
+        <v>0.123659</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.131326</v>
+        <v>0.130162</v>
       </c>
       <c r="C96" t="n">
-        <v>0.14932</v>
+        <v>0.149786</v>
       </c>
       <c r="D96" t="n">
-        <v>0.498101</v>
+        <v>0.5000790000000001</v>
       </c>
       <c r="E96" t="n">
-        <v>0.110323</v>
+        <v>0.11008</v>
       </c>
       <c r="F96" t="n">
-        <v>0.127477</v>
+        <v>0.127973</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.133975</v>
+        <v>0.133209</v>
       </c>
       <c r="C97" t="n">
-        <v>0.155915</v>
+        <v>0.155868</v>
       </c>
       <c r="D97" t="n">
-        <v>0.520097</v>
+        <v>0.520223</v>
       </c>
       <c r="E97" t="n">
-        <v>0.112246</v>
+        <v>0.111498</v>
       </c>
       <c r="F97" t="n">
-        <v>0.132391</v>
+        <v>0.133587</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.138356</v>
+        <v>0.137567</v>
       </c>
       <c r="C98" t="n">
-        <v>0.165123</v>
+        <v>0.164308</v>
       </c>
       <c r="D98" t="n">
-        <v>0.540376</v>
+        <v>0.542802</v>
       </c>
       <c r="E98" t="n">
-        <v>0.11366</v>
+        <v>0.114115</v>
       </c>
       <c r="F98" t="n">
-        <v>0.138906</v>
+        <v>0.138219</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.143765</v>
+        <v>0.145588</v>
       </c>
       <c r="C99" t="n">
-        <v>0.173772</v>
+        <v>0.174723</v>
       </c>
       <c r="D99" t="n">
-        <v>0.5639110000000001</v>
+        <v>0.564566</v>
       </c>
       <c r="E99" t="n">
-        <v>0.116988</v>
+        <v>0.116267</v>
       </c>
       <c r="F99" t="n">
-        <v>0.144688</v>
+        <v>0.144672</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.150118</v>
+        <v>0.150182</v>
       </c>
       <c r="C100" t="n">
-        <v>0.1861</v>
+        <v>0.185416</v>
       </c>
       <c r="D100" t="n">
-        <v>0.587149</v>
+        <v>0.5872230000000001</v>
       </c>
       <c r="E100" t="n">
-        <v>0.119469</v>
+        <v>0.1191</v>
       </c>
       <c r="F100" t="n">
-        <v>0.150692</v>
+        <v>0.150758</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.16088</v>
+        <v>0.158733</v>
       </c>
       <c r="C101" t="n">
-        <v>0.198211</v>
+        <v>0.20014</v>
       </c>
       <c r="D101" t="n">
-        <v>0.612448</v>
+        <v>0.611882</v>
       </c>
       <c r="E101" t="n">
-        <v>0.123501</v>
+        <v>0.123136</v>
       </c>
       <c r="F101" t="n">
-        <v>0.157824</v>
+        <v>0.157345</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.170458</v>
+        <v>0.170886</v>
       </c>
       <c r="C102" t="n">
-        <v>0.21286</v>
+        <v>0.215395</v>
       </c>
       <c r="D102" t="n">
-        <v>0.63646</v>
+        <v>0.63751</v>
       </c>
       <c r="E102" t="n">
-        <v>0.127505</v>
+        <v>0.1285</v>
       </c>
       <c r="F102" t="n">
-        <v>0.164656</v>
+        <v>0.165078</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.18421</v>
+        <v>0.18349</v>
       </c>
       <c r="C103" t="n">
-        <v>0.230708</v>
+        <v>0.230993</v>
       </c>
       <c r="D103" t="n">
-        <v>0.663597</v>
+        <v>0.664747</v>
       </c>
       <c r="E103" t="n">
-        <v>0.133013</v>
+        <v>0.13315</v>
       </c>
       <c r="F103" t="n">
-        <v>0.172928</v>
+        <v>0.172919</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.2021</v>
+        <v>0.201012</v>
       </c>
       <c r="C104" t="n">
-        <v>0.252143</v>
+        <v>0.253298</v>
       </c>
       <c r="D104" t="n">
-        <v>0.692484</v>
+        <v>0.693128</v>
       </c>
       <c r="E104" t="n">
-        <v>0.139483</v>
+        <v>0.139305</v>
       </c>
       <c r="F104" t="n">
-        <v>0.181049</v>
+        <v>0.181796</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.226498</v>
+        <v>0.223465</v>
       </c>
       <c r="C105" t="n">
-        <v>0.280536</v>
+        <v>0.280396</v>
       </c>
       <c r="D105" t="n">
-        <v>0.7235009999999999</v>
+        <v>0.724596</v>
       </c>
       <c r="E105" t="n">
-        <v>0.148093</v>
+        <v>0.148382</v>
       </c>
       <c r="F105" t="n">
-        <v>0.191589</v>
+        <v>0.191909</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.255663</v>
+        <v>0.255054</v>
       </c>
       <c r="C106" t="n">
-        <v>0.317695</v>
+        <v>0.317662</v>
       </c>
       <c r="D106" t="n">
-        <v>0.75474</v>
+        <v>0.757169</v>
       </c>
       <c r="E106" t="n">
-        <v>0.158457</v>
+        <v>0.158409</v>
       </c>
       <c r="F106" t="n">
-        <v>0.205619</v>
+        <v>0.205872</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.305211</v>
+        <v>0.29813</v>
       </c>
       <c r="C107" t="n">
-        <v>0.37506</v>
+        <v>0.371676</v>
       </c>
       <c r="D107" t="n">
-        <v>0.594697</v>
+        <v>0.596337</v>
       </c>
       <c r="E107" t="n">
-        <v>0.173625</v>
+        <v>0.173794</v>
       </c>
       <c r="F107" t="n">
-        <v>0.223999</v>
+        <v>0.224335</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.361419</v>
+        <v>0.368728</v>
       </c>
       <c r="C108" t="n">
-        <v>0.449656</v>
+        <v>0.447274</v>
       </c>
       <c r="D108" t="n">
-        <v>0.616128</v>
+        <v>0.617695</v>
       </c>
       <c r="E108" t="n">
-        <v>0.128502</v>
+        <v>0.128869</v>
       </c>
       <c r="F108" t="n">
-        <v>0.159549</v>
+        <v>0.159867</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.460908</v>
+        <v>0.45635</v>
       </c>
       <c r="C109" t="n">
-        <v>0.568834</v>
+        <v>0.564648</v>
       </c>
       <c r="D109" t="n">
-        <v>0.639571</v>
+        <v>0.639022</v>
       </c>
       <c r="E109" t="n">
-        <v>0.131003</v>
+        <v>0.131664</v>
       </c>
       <c r="F109" t="n">
-        <v>0.163359</v>
+        <v>0.163664</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.156318</v>
+        <v>0.155115</v>
       </c>
       <c r="C110" t="n">
-        <v>0.188578</v>
+        <v>0.188818</v>
       </c>
       <c r="D110" t="n">
-        <v>0.662731</v>
+        <v>0.6640509999999999</v>
       </c>
       <c r="E110" t="n">
-        <v>0.133548</v>
+        <v>0.134036</v>
       </c>
       <c r="F110" t="n">
-        <v>0.166983</v>
+        <v>0.167202</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.158609</v>
+        <v>0.158825</v>
       </c>
       <c r="C111" t="n">
-        <v>0.194242</v>
+        <v>0.194933</v>
       </c>
       <c r="D111" t="n">
-        <v>0.687681</v>
+        <v>0.688961</v>
       </c>
       <c r="E111" t="n">
-        <v>0.136102</v>
+        <v>0.136789</v>
       </c>
       <c r="F111" t="n">
-        <v>0.170737</v>
+        <v>0.171014</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.163209</v>
+        <v>0.163268</v>
       </c>
       <c r="C112" t="n">
-        <v>0.200547</v>
+        <v>0.20158</v>
       </c>
       <c r="D112" t="n">
-        <v>0.713263</v>
+        <v>0.713486</v>
       </c>
       <c r="E112" t="n">
-        <v>0.138506</v>
+        <v>0.138918</v>
       </c>
       <c r="F112" t="n">
-        <v>0.174589</v>
+        <v>0.175078</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.16859</v>
+        <v>0.168604</v>
       </c>
       <c r="C113" t="n">
-        <v>0.207839</v>
+        <v>0.209739</v>
       </c>
       <c r="D113" t="n">
-        <v>0.7392840000000001</v>
+        <v>0.73961</v>
       </c>
       <c r="E113" t="n">
-        <v>0.141088</v>
+        <v>0.141163</v>
       </c>
       <c r="F113" t="n">
-        <v>0.178592</v>
+        <v>0.178818</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.174911</v>
+        <v>0.174773</v>
       </c>
       <c r="C114" t="n">
-        <v>0.216623</v>
+        <v>0.216749</v>
       </c>
       <c r="D114" t="n">
-        <v>0.7661</v>
+        <v>0.766142</v>
       </c>
       <c r="E114" t="n">
-        <v>0.143676</v>
+        <v>0.143819</v>
       </c>
       <c r="F114" t="n">
-        <v>0.183191</v>
+        <v>0.183392</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.182675</v>
+        <v>0.182408</v>
       </c>
       <c r="C115" t="n">
-        <v>0.226997</v>
+        <v>0.227085</v>
       </c>
       <c r="D115" t="n">
-        <v>0.792788</v>
+        <v>0.792965</v>
       </c>
       <c r="E115" t="n">
-        <v>0.146651</v>
+        <v>0.146888</v>
       </c>
       <c r="F115" t="n">
-        <v>0.187851</v>
+        <v>0.188263</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.192212</v>
+        <v>0.191792</v>
       </c>
       <c r="C116" t="n">
-        <v>0.240838</v>
+        <v>0.241177</v>
       </c>
       <c r="D116" t="n">
-        <v>0.820854</v>
+        <v>0.821665</v>
       </c>
       <c r="E116" t="n">
-        <v>0.149779</v>
+        <v>0.150194</v>
       </c>
       <c r="F116" t="n">
-        <v>0.193311</v>
+        <v>0.193453</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.204344</v>
+        <v>0.20402</v>
       </c>
       <c r="C117" t="n">
-        <v>0.25593</v>
+        <v>0.256034</v>
       </c>
       <c r="D117" t="n">
-        <v>0.848511</v>
+        <v>0.8502769999999999</v>
       </c>
       <c r="E117" t="n">
-        <v>0.153706</v>
+        <v>0.154092</v>
       </c>
       <c r="F117" t="n">
-        <v>0.199606</v>
+        <v>0.199818</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.223145</v>
+        <v>0.219509</v>
       </c>
       <c r="C118" t="n">
-        <v>0.276484</v>
+        <v>0.278544</v>
       </c>
       <c r="D118" t="n">
-        <v>0.879228</v>
+        <v>0.8796310000000001</v>
       </c>
       <c r="E118" t="n">
-        <v>0.15863</v>
+        <v>0.158968</v>
       </c>
       <c r="F118" t="n">
-        <v>0.207132</v>
+        <v>0.207262</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.243848</v>
+        <v>0.240462</v>
       </c>
       <c r="C119" t="n">
-        <v>0.304655</v>
+        <v>0.303859</v>
       </c>
       <c r="D119" t="n">
-        <v>0.909125</v>
+        <v>0.911012</v>
       </c>
       <c r="E119" t="n">
-        <v>0.165703</v>
+        <v>0.16542</v>
       </c>
       <c r="F119" t="n">
-        <v>0.216535</v>
+        <v>0.216812</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.275634</v>
+        <v>0.269602</v>
       </c>
       <c r="C120" t="n">
-        <v>0.342067</v>
+        <v>0.341325</v>
       </c>
       <c r="D120" t="n">
-        <v>0.9422779999999999</v>
+        <v>0.94336</v>
       </c>
       <c r="E120" t="n">
-        <v>0.17495</v>
+        <v>0.174548</v>
       </c>
       <c r="F120" t="n">
-        <v>0.229531</v>
+        <v>0.229922</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.311381</v>
+        <v>0.310841</v>
       </c>
       <c r="C121" t="n">
-        <v>0.39519</v>
+        <v>0.394995</v>
       </c>
       <c r="D121" t="n">
-        <v>0.681785</v>
+        <v>0.684057</v>
       </c>
       <c r="E121" t="n">
-        <v>0.187854</v>
+        <v>0.18837</v>
       </c>
       <c r="F121" t="n">
-        <v>0.248515</v>
+        <v>0.248805</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.384223</v>
+        <v>0.371874</v>
       </c>
       <c r="C122" t="n">
-        <v>0.478227</v>
+        <v>0.477256</v>
       </c>
       <c r="D122" t="n">
-        <v>0.703494</v>
+        <v>0.706269</v>
       </c>
       <c r="E122" t="n">
-        <v>0.210909</v>
+        <v>0.210876</v>
       </c>
       <c r="F122" t="n">
-        <v>0.279127</v>
+        <v>0.279532</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.477551</v>
+        <v>0.463153</v>
       </c>
       <c r="C123" t="n">
-        <v>0.595909</v>
+        <v>0.59858</v>
       </c>
       <c r="D123" t="n">
-        <v>0.726561</v>
+        <v>0.729104</v>
       </c>
       <c r="E123" t="n">
-        <v>0.145072</v>
+        <v>0.148737</v>
       </c>
       <c r="F123" t="n">
-        <v>0.188449</v>
+        <v>0.184791</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.170005</v>
+        <v>0.170176</v>
       </c>
       <c r="C124" t="n">
-        <v>0.210397</v>
+        <v>0.2091</v>
       </c>
       <c r="D124" t="n">
-        <v>0.751022</v>
+        <v>0.753279</v>
       </c>
       <c r="E124" t="n">
-        <v>0.151154</v>
+        <v>0.147364</v>
       </c>
       <c r="F124" t="n">
-        <v>0.188786</v>
+        <v>0.187927</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.179382</v>
+        <v>0.174734</v>
       </c>
       <c r="C125" t="n">
-        <v>0.217459</v>
+        <v>0.219819</v>
       </c>
       <c r="D125" t="n">
-        <v>0.775805</v>
+        <v>0.778462</v>
       </c>
       <c r="E125" t="n">
-        <v>0.151001</v>
+        <v>0.149354</v>
       </c>
       <c r="F125" t="n">
-        <v>0.191563</v>
+        <v>0.192045</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.181242</v>
+        <v>0.180515</v>
       </c>
       <c r="C126" t="n">
-        <v>0.225959</v>
+        <v>0.223895</v>
       </c>
       <c r="D126" t="n">
-        <v>0.801959</v>
+        <v>0.805055</v>
       </c>
       <c r="E126" t="n">
-        <v>0.155809</v>
+        <v>0.156334</v>
       </c>
       <c r="F126" t="n">
-        <v>0.198161</v>
+        <v>0.195737</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.180939</v>
+        <v>0.184056</v>
       </c>
       <c r="C127" t="n">
-        <v>0.228131</v>
+        <v>0.232141</v>
       </c>
       <c r="D127" t="n">
-        <v>0.82875</v>
+        <v>0.832198</v>
       </c>
       <c r="E127" t="n">
-        <v>0.155511</v>
+        <v>0.156343</v>
       </c>
       <c r="F127" t="n">
-        <v>0.201632</v>
+        <v>0.200524</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.190621</v>
+        <v>0.190426</v>
       </c>
       <c r="C128" t="n">
-        <v>0.240982</v>
+        <v>0.243346</v>
       </c>
       <c r="D128" t="n">
-        <v>0.856503</v>
+        <v>0.85915</v>
       </c>
       <c r="E128" t="n">
-        <v>0.161063</v>
+        <v>0.16032</v>
       </c>
       <c r="F128" t="n">
-        <v>0.205023</v>
+        <v>0.205303</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.197717</v>
+        <v>0.198324</v>
       </c>
       <c r="C129" t="n">
-        <v>0.250002</v>
+        <v>0.250948</v>
       </c>
       <c r="D129" t="n">
-        <v>0.885377</v>
+        <v>0.887344</v>
       </c>
       <c r="E129" t="n">
-        <v>0.158587</v>
+        <v>0.159832</v>
       </c>
       <c r="F129" t="n">
-        <v>0.209593</v>
+        <v>0.210542</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.205552</v>
+        <v>0.207422</v>
       </c>
       <c r="C130" t="n">
-        <v>0.263568</v>
+        <v>0.264803</v>
       </c>
       <c r="D130" t="n">
-        <v>0.9143790000000001</v>
+        <v>0.9173480000000001</v>
       </c>
       <c r="E130" t="n">
-        <v>0.164514</v>
+        <v>0.162626</v>
       </c>
       <c r="F130" t="n">
-        <v>0.214544</v>
+        <v>0.215836</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.224843</v>
+        <v>0.216566</v>
       </c>
       <c r="C131" t="n">
-        <v>0.2795</v>
+        <v>0.284106</v>
       </c>
       <c r="D131" t="n">
-        <v>0.944572</v>
+        <v>0.947453</v>
       </c>
       <c r="E131" t="n">
-        <v>0.164795</v>
+        <v>0.168346</v>
       </c>
       <c r="F131" t="n">
-        <v>0.220578</v>
+        <v>0.226236</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.233343</v>
+        <v>0.232473</v>
       </c>
       <c r="C132" t="n">
-        <v>0.302296</v>
+        <v>0.304583</v>
       </c>
       <c r="D132" t="n">
-        <v>0.975638</v>
+        <v>0.978577</v>
       </c>
       <c r="E132" t="n">
-        <v>0.174533</v>
+        <v>0.171717</v>
       </c>
       <c r="F132" t="n">
-        <v>0.233883</v>
+        <v>0.233124</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.261216</v>
+        <v>0.257334</v>
       </c>
       <c r="C133" t="n">
-        <v>0.335439</v>
+        <v>0.335455</v>
       </c>
       <c r="D133" t="n">
-        <v>1.00791</v>
+        <v>1.01069</v>
       </c>
       <c r="E133" t="n">
-        <v>0.179765</v>
+        <v>0.182524</v>
       </c>
       <c r="F133" t="n">
-        <v>0.241571</v>
+        <v>0.241863</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.288289</v>
+        <v>0.285646</v>
       </c>
       <c r="C134" t="n">
-        <v>0.371658</v>
+        <v>0.372005</v>
       </c>
       <c r="D134" t="n">
-        <v>1.04069</v>
+        <v>1.04371</v>
       </c>
       <c r="E134" t="n">
-        <v>0.18691</v>
+        <v>0.187179</v>
       </c>
       <c r="F134" t="n">
-        <v>0.255952</v>
+        <v>0.255597</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.324747</v>
+        <v>0.321751</v>
       </c>
       <c r="C135" t="n">
-        <v>0.428289</v>
+        <v>0.42511</v>
       </c>
       <c r="D135" t="n">
-        <v>0.697979</v>
+        <v>0.700414</v>
       </c>
       <c r="E135" t="n">
-        <v>0.200053</v>
+        <v>0.202764</v>
       </c>
       <c r="F135" t="n">
-        <v>0.275697</v>
+        <v>0.273685</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.394536</v>
+        <v>0.383699</v>
       </c>
       <c r="C136" t="n">
-        <v>0.505807</v>
+        <v>0.507225</v>
       </c>
       <c r="D136" t="n">
-        <v>0.715785</v>
+        <v>0.7186360000000001</v>
       </c>
       <c r="E136" t="n">
-        <v>0.225074</v>
+        <v>0.2203</v>
       </c>
       <c r="F136" t="n">
-        <v>0.305106</v>
+        <v>0.304382</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.491044</v>
+        <v>0.475391</v>
       </c>
       <c r="C137" t="n">
-        <v>0.628798</v>
+        <v>0.6355460000000001</v>
       </c>
       <c r="D137" t="n">
-        <v>0.734935</v>
+        <v>0.737771</v>
       </c>
       <c r="E137" t="n">
-        <v>0.281137</v>
+        <v>0.277574</v>
       </c>
       <c r="F137" t="n">
-        <v>0.319691</v>
+        <v>0.325459</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.313782</v>
+        <v>0.31479</v>
       </c>
       <c r="C138" t="n">
-        <v>0.358998</v>
+        <v>0.35718</v>
       </c>
       <c r="D138" t="n">
-        <v>0.7550519999999999</v>
+        <v>0.757838</v>
       </c>
       <c r="E138" t="n">
-        <v>0.280072</v>
+        <v>0.275141</v>
       </c>
       <c r="F138" t="n">
-        <v>0.327653</v>
+        <v>0.327432</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.32175</v>
+        <v>0.318001</v>
       </c>
       <c r="C139" t="n">
-        <v>0.364075</v>
+        <v>0.364746</v>
       </c>
       <c r="D139" t="n">
-        <v>0.775976</v>
+        <v>0.7791360000000001</v>
       </c>
       <c r="E139" t="n">
-        <v>0.282285</v>
+        <v>0.282151</v>
       </c>
       <c r="F139" t="n">
-        <v>0.331839</v>
+        <v>0.334275</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.324847</v>
+        <v>0.32411</v>
       </c>
       <c r="C140" t="n">
-        <v>0.37015</v>
+        <v>0.372523</v>
       </c>
       <c r="D140" t="n">
-        <v>0.797828</v>
+        <v>0.8006490000000001</v>
       </c>
       <c r="E140" t="n">
-        <v>0.282058</v>
+        <v>0.281554</v>
       </c>
       <c r="F140" t="n">
-        <v>0.336387</v>
+        <v>0.337895</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.327855</v>
+        <v>0.329215</v>
       </c>
       <c r="C141" t="n">
-        <v>0.377524</v>
+        <v>0.379276</v>
       </c>
       <c r="D141" t="n">
-        <v>0.820338</v>
+        <v>0.823638</v>
       </c>
       <c r="E141" t="n">
-        <v>0.287494</v>
+        <v>0.286918</v>
       </c>
       <c r="F141" t="n">
-        <v>0.34174</v>
+        <v>0.344424</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.332316</v>
+        <v>0.333263</v>
       </c>
       <c r="C142" t="n">
-        <v>0.388431</v>
+        <v>0.392219</v>
       </c>
       <c r="D142" t="n">
-        <v>0.844097</v>
+        <v>0.847483</v>
       </c>
       <c r="E142" t="n">
-        <v>0.29054</v>
+        <v>0.289639</v>
       </c>
       <c r="F142" t="n">
-        <v>0.348564</v>
+        <v>0.350443</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.338567</v>
+        <v>0.338713</v>
       </c>
       <c r="C143" t="n">
-        <v>0.399259</v>
+        <v>0.399134</v>
       </c>
       <c r="D143" t="n">
-        <v>0.868936</v>
+        <v>0.8723070000000001</v>
       </c>
       <c r="E143" t="n">
-        <v>0.290436</v>
+        <v>0.289992</v>
       </c>
       <c r="F143" t="n">
-        <v>0.352561</v>
+        <v>0.354806</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Scattered unsuccessful looukp.xlsx
+++ b/clang-x86/Scattered unsuccessful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0951806</v>
+        <v>0.0963174</v>
       </c>
       <c r="C2" t="n">
-        <v>0.09846539999999999</v>
+        <v>0.098054</v>
       </c>
       <c r="D2" t="n">
-        <v>0.184584</v>
+        <v>0.187909</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0838361</v>
+        <v>0.0837759</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0843742</v>
+        <v>0.0848121</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.101704</v>
+        <v>0.103177</v>
       </c>
       <c r="C3" t="n">
-        <v>0.10614</v>
+        <v>0.105303</v>
       </c>
       <c r="D3" t="n">
-        <v>0.19192</v>
+        <v>0.195864</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0846635</v>
+        <v>0.0846711</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0851865</v>
+        <v>0.08549760000000001</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.11141</v>
+        <v>0.113643</v>
       </c>
       <c r="C4" t="n">
-        <v>0.114156</v>
+        <v>0.113548</v>
       </c>
       <c r="D4" t="n">
-        <v>0.200138</v>
+        <v>0.202948</v>
       </c>
       <c r="E4" t="n">
-        <v>0.08588510000000001</v>
+        <v>0.0858439</v>
       </c>
       <c r="F4" t="n">
-        <v>0.08667229999999999</v>
+        <v>0.0868741</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.132038</v>
+        <v>0.133949</v>
       </c>
       <c r="C5" t="n">
-        <v>0.131572</v>
+        <v>0.132989</v>
       </c>
       <c r="D5" t="n">
-        <v>0.210889</v>
+        <v>0.210517</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0875348</v>
+        <v>0.08710850000000001</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0879023</v>
+        <v>0.0884046</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.158941</v>
+        <v>0.161815</v>
       </c>
       <c r="C6" t="n">
-        <v>0.162538</v>
+        <v>0.165303</v>
       </c>
       <c r="D6" t="n">
-        <v>0.215999</v>
+        <v>0.21706</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0894113</v>
+        <v>0.0892785</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0901217</v>
+        <v>0.0903306</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.189063</v>
+        <v>0.192408</v>
       </c>
       <c r="C7" t="n">
-        <v>0.191334</v>
+        <v>0.193568</v>
       </c>
       <c r="D7" t="n">
-        <v>0.159856</v>
+        <v>0.164818</v>
       </c>
       <c r="E7" t="n">
-        <v>0.09578</v>
+        <v>0.0949595</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09494610000000001</v>
+        <v>0.09635340000000001</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.22812</v>
+        <v>0.230456</v>
       </c>
       <c r="C8" t="n">
-        <v>0.225563</v>
+        <v>0.227621</v>
       </c>
       <c r="D8" t="n">
-        <v>0.166445</v>
+        <v>0.173457</v>
       </c>
       <c r="E8" t="n">
-        <v>0.106681</v>
+        <v>0.106546</v>
       </c>
       <c r="F8" t="n">
-        <v>0.107145</v>
+        <v>0.109008</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.272829</v>
+        <v>0.273602</v>
       </c>
       <c r="C9" t="n">
-        <v>0.268147</v>
+        <v>0.27338</v>
       </c>
       <c r="D9" t="n">
-        <v>0.173887</v>
+        <v>0.179082</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0820697</v>
+        <v>0.08200639999999999</v>
       </c>
       <c r="F9" t="n">
-        <v>0.08277909999999999</v>
+        <v>0.0826156</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0861928</v>
+        <v>0.0862314</v>
       </c>
       <c r="C10" t="n">
-        <v>0.08691309999999999</v>
+        <v>0.0868791</v>
       </c>
       <c r="D10" t="n">
-        <v>0.181714</v>
+        <v>0.185496</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0822319</v>
+        <v>0.08235240000000001</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0831725</v>
+        <v>0.0829589</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0865692</v>
+        <v>0.08703139999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>0.08823789999999999</v>
+        <v>0.08795020000000001</v>
       </c>
       <c r="D11" t="n">
-        <v>0.189765</v>
+        <v>0.192496</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0826698</v>
+        <v>0.0827117</v>
       </c>
       <c r="F11" t="n">
-        <v>0.08357249999999999</v>
+        <v>0.08347</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0881125</v>
+        <v>0.0885997</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0898375</v>
+        <v>0.0895982</v>
       </c>
       <c r="D12" t="n">
-        <v>0.197544</v>
+        <v>0.199984</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0828977</v>
+        <v>0.083011</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0838161</v>
+        <v>0.0836611</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.08948970000000001</v>
+        <v>0.0907287</v>
       </c>
       <c r="C13" t="n">
-        <v>0.09152</v>
+        <v>0.0919257</v>
       </c>
       <c r="D13" t="n">
-        <v>0.204623</v>
+        <v>0.20566</v>
       </c>
       <c r="E13" t="n">
-        <v>0.08321149999999999</v>
+        <v>0.08323460000000001</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0840043</v>
+        <v>0.0839105</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.091831</v>
+        <v>0.0926444</v>
       </c>
       <c r="C14" t="n">
-        <v>0.093001</v>
+        <v>0.0936062</v>
       </c>
       <c r="D14" t="n">
-        <v>0.212414</v>
+        <v>0.212697</v>
       </c>
       <c r="E14" t="n">
-        <v>0.08350100000000001</v>
+        <v>0.0836137</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0843742</v>
+        <v>0.0844536</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0955584</v>
+        <v>0.096223</v>
       </c>
       <c r="C15" t="n">
-        <v>0.09644320000000001</v>
+        <v>0.0978594</v>
       </c>
       <c r="D15" t="n">
-        <v>0.220458</v>
+        <v>0.221462</v>
       </c>
       <c r="E15" t="n">
-        <v>0.08417239999999999</v>
+        <v>0.08392230000000001</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08495179999999999</v>
+        <v>0.08548840000000001</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.100882</v>
+        <v>0.101504</v>
       </c>
       <c r="C16" t="n">
-        <v>0.101659</v>
+        <v>0.102871</v>
       </c>
       <c r="D16" t="n">
-        <v>0.229258</v>
+        <v>0.226887</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0843694</v>
+        <v>0.08438</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08533640000000001</v>
+        <v>0.0856827</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.109061</v>
+        <v>0.110857</v>
       </c>
       <c r="C17" t="n">
-        <v>0.110484</v>
+        <v>0.110967</v>
       </c>
       <c r="D17" t="n">
-        <v>0.236575</v>
+        <v>0.232737</v>
       </c>
       <c r="E17" t="n">
-        <v>0.08558830000000001</v>
+        <v>0.08549089999999999</v>
       </c>
       <c r="F17" t="n">
-        <v>0.086464</v>
+        <v>0.08712830000000001</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.120542</v>
+        <v>0.122649</v>
       </c>
       <c r="C18" t="n">
-        <v>0.122931</v>
+        <v>0.123383</v>
       </c>
       <c r="D18" t="n">
-        <v>0.242482</v>
+        <v>0.239442</v>
       </c>
       <c r="E18" t="n">
-        <v>0.08691210000000001</v>
+        <v>0.0867723</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0879646</v>
+        <v>0.08901249999999999</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.134645</v>
+        <v>0.137105</v>
       </c>
       <c r="C19" t="n">
-        <v>0.137408</v>
+        <v>0.138248</v>
       </c>
       <c r="D19" t="n">
-        <v>0.250147</v>
+        <v>0.247062</v>
       </c>
       <c r="E19" t="n">
-        <v>0.088738</v>
+        <v>0.08848010000000001</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0898969</v>
+        <v>0.09051430000000001</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.154465</v>
+        <v>0.157051</v>
       </c>
       <c r="C20" t="n">
-        <v>0.157061</v>
+        <v>0.158066</v>
       </c>
       <c r="D20" t="n">
-        <v>0.255194</v>
+        <v>0.251598</v>
       </c>
       <c r="E20" t="n">
-        <v>0.091623</v>
+        <v>0.0913281</v>
       </c>
       <c r="F20" t="n">
-        <v>0.09252000000000001</v>
+        <v>0.0937935</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.183448</v>
+        <v>0.186344</v>
       </c>
       <c r="C21" t="n">
-        <v>0.18322</v>
+        <v>0.183554</v>
       </c>
       <c r="D21" t="n">
-        <v>0.183856</v>
+        <v>0.182933</v>
       </c>
       <c r="E21" t="n">
-        <v>0.09780460000000001</v>
+        <v>0.0974989</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09894120000000001</v>
+        <v>0.100136</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.215945</v>
+        <v>0.217549</v>
       </c>
       <c r="C22" t="n">
-        <v>0.221367</v>
+        <v>0.221789</v>
       </c>
       <c r="D22" t="n">
-        <v>0.193084</v>
+        <v>0.190634</v>
       </c>
       <c r="E22" t="n">
-        <v>0.10989</v>
+        <v>0.109278</v>
       </c>
       <c r="F22" t="n">
-        <v>0.110895</v>
+        <v>0.112187</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.262417</v>
+        <v>0.262928</v>
       </c>
       <c r="C23" t="n">
-        <v>0.260114</v>
+        <v>0.262493</v>
       </c>
       <c r="D23" t="n">
-        <v>0.200376</v>
+        <v>0.198935</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0830654</v>
+        <v>0.0831607</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0842487</v>
+        <v>0.0842228</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0903134</v>
+        <v>0.09064560000000001</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0920942</v>
+        <v>0.0922593</v>
       </c>
       <c r="D24" t="n">
-        <v>0.208097</v>
+        <v>0.205599</v>
       </c>
       <c r="E24" t="n">
-        <v>0.08327809999999999</v>
+        <v>0.08338909999999999</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0847019</v>
+        <v>0.0845916</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.09122860000000001</v>
+        <v>0.0917245</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0932644</v>
+        <v>0.09323770000000001</v>
       </c>
       <c r="D25" t="n">
-        <v>0.215284</v>
+        <v>0.213234</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0835245</v>
+        <v>0.0835982</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0849782</v>
+        <v>0.0851614</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0928065</v>
+        <v>0.0934156</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0947308</v>
+        <v>0.0942081</v>
       </c>
       <c r="D26" t="n">
-        <v>0.222292</v>
+        <v>0.221094</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0838846</v>
+        <v>0.0839659</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08559650000000001</v>
+        <v>0.0855223</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.09447419999999999</v>
+        <v>0.0951593</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0965406</v>
+        <v>0.0963369</v>
       </c>
       <c r="D27" t="n">
-        <v>0.2315</v>
+        <v>0.228693</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0843522</v>
+        <v>0.0844355</v>
       </c>
       <c r="F27" t="n">
-        <v>0.086339</v>
+        <v>0.08608449999999999</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0971405</v>
+        <v>0.09779789999999999</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0995451</v>
+        <v>0.09911970000000001</v>
       </c>
       <c r="D28" t="n">
-        <v>0.238387</v>
+        <v>0.234531</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0848655</v>
+        <v>0.08484700000000001</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0871063</v>
+        <v>0.0868058</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.100448</v>
+        <v>0.101431</v>
       </c>
       <c r="C29" t="n">
-        <v>0.104566</v>
+        <v>0.103661</v>
       </c>
       <c r="D29" t="n">
-        <v>0.243761</v>
+        <v>0.242517</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0853646</v>
+        <v>0.08541600000000001</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0877247</v>
+        <v>0.0872947</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.106041</v>
+        <v>0.107266</v>
       </c>
       <c r="C30" t="n">
-        <v>0.110498</v>
+        <v>0.109719</v>
       </c>
       <c r="D30" t="n">
-        <v>0.25178</v>
+        <v>0.24616</v>
       </c>
       <c r="E30" t="n">
-        <v>0.08610139999999999</v>
+        <v>0.0861118</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08868910000000001</v>
+        <v>0.0882656</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.113618</v>
+        <v>0.114987</v>
       </c>
       <c r="C31" t="n">
-        <v>0.115537</v>
+        <v>0.115249</v>
       </c>
       <c r="D31" t="n">
-        <v>0.258486</v>
+        <v>0.252137</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0872372</v>
+        <v>0.0871827</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09012240000000001</v>
+        <v>0.08922620000000001</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.121411</v>
+        <v>0.122993</v>
       </c>
       <c r="C32" t="n">
-        <v>0.126532</v>
+        <v>0.125132</v>
       </c>
       <c r="D32" t="n">
-        <v>0.262502</v>
+        <v>0.257652</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0888784</v>
+        <v>0.0886443</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0923921</v>
+        <v>0.09122520000000001</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.13494</v>
+        <v>0.137223</v>
       </c>
       <c r="C33" t="n">
-        <v>0.137916</v>
+        <v>0.137495</v>
       </c>
       <c r="D33" t="n">
-        <v>0.269293</v>
+        <v>0.262668</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0910668</v>
+        <v>0.09106690000000001</v>
       </c>
       <c r="F33" t="n">
-        <v>0.094551</v>
+        <v>0.0941115</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.150494</v>
+        <v>0.153003</v>
       </c>
       <c r="C34" t="n">
-        <v>0.15418</v>
+        <v>0.157573</v>
       </c>
       <c r="D34" t="n">
-        <v>0.274836</v>
+        <v>0.271404</v>
       </c>
       <c r="E34" t="n">
-        <v>0.09519909999999999</v>
+        <v>0.09505909999999999</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09869989999999999</v>
+        <v>0.0978758</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.176297</v>
+        <v>0.178712</v>
       </c>
       <c r="C35" t="n">
-        <v>0.181111</v>
+        <v>0.176077</v>
       </c>
       <c r="D35" t="n">
-        <v>0.196694</v>
+        <v>0.195756</v>
       </c>
       <c r="E35" t="n">
-        <v>0.102262</v>
+        <v>0.101862</v>
       </c>
       <c r="F35" t="n">
-        <v>0.105728</v>
+        <v>0.105067</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.208619</v>
+        <v>0.211077</v>
       </c>
       <c r="C36" t="n">
-        <v>0.209863</v>
+        <v>0.221509</v>
       </c>
       <c r="D36" t="n">
-        <v>0.204906</v>
+        <v>0.202595</v>
       </c>
       <c r="E36" t="n">
-        <v>0.115081</v>
+        <v>0.113111</v>
       </c>
       <c r="F36" t="n">
-        <v>0.116969</v>
+        <v>0.117087</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.25312</v>
+        <v>0.25378</v>
       </c>
       <c r="C37" t="n">
-        <v>0.254534</v>
+        <v>0.255284</v>
       </c>
       <c r="D37" t="n">
-        <v>0.212934</v>
+        <v>0.210578</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0837001</v>
+        <v>0.0840349</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08758539999999999</v>
+        <v>0.08618820000000001</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0936864</v>
+        <v>0.09263689999999999</v>
       </c>
       <c r="C38" t="n">
-        <v>0.09616479999999999</v>
+        <v>0.0947358</v>
       </c>
       <c r="D38" t="n">
-        <v>0.220116</v>
+        <v>0.217171</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0840318</v>
+        <v>0.0841828</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0873037</v>
+        <v>0.0862111</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0938267</v>
+        <v>0.0937481</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0978516</v>
+        <v>0.0961342</v>
       </c>
       <c r="D39" t="n">
-        <v>0.228565</v>
+        <v>0.22474</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0847521</v>
+        <v>0.08439820000000001</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0879813</v>
+        <v>0.08653909999999999</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.09494180000000001</v>
+        <v>0.095441</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0990243</v>
+        <v>0.0978031</v>
       </c>
       <c r="D40" t="n">
-        <v>0.236109</v>
+        <v>0.232324</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0845728</v>
+        <v>0.0847241</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0882498</v>
+        <v>0.0870967</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0971775</v>
+        <v>0.09749090000000001</v>
       </c>
       <c r="C41" t="n">
-        <v>0.101081</v>
+        <v>0.09999710000000001</v>
       </c>
       <c r="D41" t="n">
-        <v>0.242699</v>
+        <v>0.238872</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0850986</v>
+        <v>0.08514819999999999</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0888528</v>
+        <v>0.0876402</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.10009</v>
+        <v>0.100778</v>
       </c>
       <c r="C42" t="n">
-        <v>0.104171</v>
+        <v>0.102886</v>
       </c>
       <c r="D42" t="n">
-        <v>0.249412</v>
+        <v>0.245473</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0855129</v>
+        <v>0.085548</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0893843</v>
+        <v>0.0883741</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.104328</v>
+        <v>0.105193</v>
       </c>
       <c r="C43" t="n">
-        <v>0.108388</v>
+        <v>0.107218</v>
       </c>
       <c r="D43" t="n">
-        <v>0.257015</v>
+        <v>0.252131</v>
       </c>
       <c r="E43" t="n">
-        <v>0.086073</v>
+        <v>0.0860923</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0901301</v>
+        <v>0.08909590000000001</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.110379</v>
+        <v>0.110344</v>
       </c>
       <c r="C44" t="n">
-        <v>0.113982</v>
+        <v>0.113882</v>
       </c>
       <c r="D44" t="n">
-        <v>0.263295</v>
+        <v>0.258445</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0873559</v>
+        <v>0.08664280000000001</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0908882</v>
+        <v>0.0901676</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.116568</v>
+        <v>0.116841</v>
       </c>
       <c r="C45" t="n">
-        <v>0.120239</v>
+        <v>0.118758</v>
       </c>
       <c r="D45" t="n">
-        <v>0.270175</v>
+        <v>0.264217</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0879548</v>
+        <v>0.08774750000000001</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0922651</v>
+        <v>0.0914755</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.12802</v>
+        <v>0.125609</v>
       </c>
       <c r="C46" t="n">
-        <v>0.12857</v>
+        <v>0.128438</v>
       </c>
       <c r="D46" t="n">
-        <v>0.275538</v>
+        <v>0.270125</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0894086</v>
+        <v>0.0895777</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0937679</v>
+        <v>0.0932052</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.140153</v>
+        <v>0.137083</v>
       </c>
       <c r="C47" t="n">
-        <v>0.139771</v>
+        <v>0.138903</v>
       </c>
       <c r="D47" t="n">
-        <v>0.281173</v>
+        <v>0.275168</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0917321</v>
+        <v>0.0915782</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0962866</v>
+        <v>0.09585780000000001</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.150504</v>
+        <v>0.152917</v>
       </c>
       <c r="C48" t="n">
-        <v>0.154422</v>
+        <v>0.154249</v>
       </c>
       <c r="D48" t="n">
-        <v>0.286876</v>
+        <v>0.281423</v>
       </c>
       <c r="E48" t="n">
-        <v>0.09519</v>
+        <v>0.0951336</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0997986</v>
+        <v>0.09962219999999999</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.173161</v>
+        <v>0.175899</v>
       </c>
       <c r="C49" t="n">
-        <v>0.176127</v>
+        <v>0.175549</v>
       </c>
       <c r="D49" t="n">
-        <v>0.29401</v>
+        <v>0.287339</v>
       </c>
       <c r="E49" t="n">
-        <v>0.101029</v>
+        <v>0.100768</v>
       </c>
       <c r="F49" t="n">
-        <v>0.105485</v>
+        <v>0.105636</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.214591</v>
+        <v>0.206363</v>
       </c>
       <c r="C50" t="n">
-        <v>0.205024</v>
+        <v>0.205149</v>
       </c>
       <c r="D50" t="n">
-        <v>0.205946</v>
+        <v>0.202006</v>
       </c>
       <c r="E50" t="n">
-        <v>0.110758</v>
+        <v>0.110409</v>
       </c>
       <c r="F50" t="n">
-        <v>0.115249</v>
+        <v>0.115507</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.24338</v>
+        <v>0.244182</v>
       </c>
       <c r="C51" t="n">
-        <v>0.248479</v>
+        <v>0.249123</v>
       </c>
       <c r="D51" t="n">
-        <v>0.212688</v>
+        <v>0.209475</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0858828</v>
+        <v>0.0866879</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0893974</v>
+        <v>0.0896216</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.295068</v>
+        <v>0.291724</v>
       </c>
       <c r="C52" t="n">
-        <v>0.302685</v>
+        <v>0.295216</v>
       </c>
       <c r="D52" t="n">
-        <v>0.219674</v>
+        <v>0.216279</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0859911</v>
+        <v>0.0869486</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0901004</v>
+        <v>0.0892102</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.09724670000000001</v>
+        <v>0.096639</v>
       </c>
       <c r="C53" t="n">
-        <v>0.100204</v>
+        <v>0.1</v>
       </c>
       <c r="D53" t="n">
-        <v>0.227674</v>
+        <v>0.223439</v>
       </c>
       <c r="E53" t="n">
-        <v>0.08687159999999999</v>
+        <v>0.0864158</v>
       </c>
       <c r="F53" t="n">
-        <v>0.09013210000000001</v>
+        <v>0.090271</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0992793</v>
+        <v>0.0984646</v>
       </c>
       <c r="C54" t="n">
-        <v>0.102168</v>
+        <v>0.101884</v>
       </c>
       <c r="D54" t="n">
-        <v>0.235031</v>
+        <v>0.23037</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0868027</v>
+        <v>0.0875071</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0912965</v>
+        <v>0.0920247</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.101489</v>
+        <v>0.09993440000000001</v>
       </c>
       <c r="C55" t="n">
-        <v>0.10544</v>
+        <v>0.104499</v>
       </c>
       <c r="D55" t="n">
-        <v>0.241776</v>
+        <v>0.23719</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0868637</v>
+        <v>0.0873859</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0917589</v>
+        <v>0.09113930000000001</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.104981</v>
+        <v>0.103344</v>
       </c>
       <c r="C56" t="n">
-        <v>0.10753</v>
+        <v>0.107874</v>
       </c>
       <c r="D56" t="n">
-        <v>0.248015</v>
+        <v>0.243671</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0870788</v>
+        <v>0.0880957</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0921802</v>
+        <v>0.0924919</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.107283</v>
+        <v>0.107269</v>
       </c>
       <c r="C57" t="n">
-        <v>0.113291</v>
+        <v>0.111544</v>
       </c>
       <c r="D57" t="n">
-        <v>0.254123</v>
+        <v>0.249692</v>
       </c>
       <c r="E57" t="n">
-        <v>0.08856269999999999</v>
+        <v>0.0877419</v>
       </c>
       <c r="F57" t="n">
-        <v>0.0933248</v>
+        <v>0.09268759999999999</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.114827</v>
+        <v>0.112922</v>
       </c>
       <c r="C58" t="n">
-        <v>0.115876</v>
+        <v>0.116203</v>
       </c>
       <c r="D58" t="n">
-        <v>0.260773</v>
+        <v>0.255576</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0881419</v>
+        <v>0.0885992</v>
       </c>
       <c r="F58" t="n">
-        <v>0.09425749999999999</v>
+        <v>0.09434339999999999</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.117023</v>
+        <v>0.118752</v>
       </c>
       <c r="C59" t="n">
-        <v>0.122417</v>
+        <v>0.121585</v>
       </c>
       <c r="D59" t="n">
-        <v>0.267079</v>
+        <v>0.26114</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0899544</v>
+        <v>0.0896202</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0949218</v>
+        <v>0.09440659999999999</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.125218</v>
+        <v>0.126372</v>
       </c>
       <c r="C60" t="n">
-        <v>0.130273</v>
+        <v>0.129567</v>
       </c>
       <c r="D60" t="n">
-        <v>0.27271</v>
+        <v>0.265721</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0914092</v>
+        <v>0.09109929999999999</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0969235</v>
+        <v>0.0969042</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.14002</v>
+        <v>0.139585</v>
       </c>
       <c r="C61" t="n">
-        <v>0.142065</v>
+        <v>0.141773</v>
       </c>
       <c r="D61" t="n">
-        <v>0.27833</v>
+        <v>0.271729</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0930098</v>
+        <v>0.0947558</v>
       </c>
       <c r="F61" t="n">
-        <v>0.0995499</v>
+        <v>0.09898659999999999</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.148734</v>
+        <v>0.151299</v>
       </c>
       <c r="C62" t="n">
-        <v>0.16046</v>
+        <v>0.154625</v>
       </c>
       <c r="D62" t="n">
-        <v>0.284702</v>
+        <v>0.278148</v>
       </c>
       <c r="E62" t="n">
-        <v>0.0969812</v>
+        <v>0.0973666</v>
       </c>
       <c r="F62" t="n">
-        <v>0.103232</v>
+        <v>0.103612</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.177393</v>
+        <v>0.171573</v>
       </c>
       <c r="C63" t="n">
-        <v>0.175607</v>
+        <v>0.1764</v>
       </c>
       <c r="D63" t="n">
-        <v>0.290302</v>
+        <v>0.284188</v>
       </c>
       <c r="E63" t="n">
-        <v>0.102229</v>
+        <v>0.103037</v>
       </c>
       <c r="F63" t="n">
-        <v>0.108703</v>
+        <v>0.108654</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.207305</v>
+        <v>0.200507</v>
       </c>
       <c r="C64" t="n">
-        <v>0.20704</v>
+        <v>0.204412</v>
       </c>
       <c r="D64" t="n">
-        <v>0.212594</v>
+        <v>0.210692</v>
       </c>
       <c r="E64" t="n">
-        <v>0.110587</v>
+        <v>0.110657</v>
       </c>
       <c r="F64" t="n">
-        <v>0.117231</v>
+        <v>0.117372</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.236887</v>
+        <v>0.238721</v>
       </c>
       <c r="C65" t="n">
-        <v>0.246858</v>
+        <v>0.246203</v>
       </c>
       <c r="D65" t="n">
-        <v>0.219339</v>
+        <v>0.217107</v>
       </c>
       <c r="E65" t="n">
-        <v>0.125036</v>
+        <v>0.124721</v>
       </c>
       <c r="F65" t="n">
-        <v>0.131175</v>
+        <v>0.131345</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.28447</v>
+        <v>0.29169</v>
       </c>
       <c r="C66" t="n">
-        <v>0.293717</v>
+        <v>0.294196</v>
       </c>
       <c r="D66" t="n">
-        <v>0.225208</v>
+        <v>0.224968</v>
       </c>
       <c r="E66" t="n">
-        <v>0.09336560000000001</v>
+        <v>0.09331150000000001</v>
       </c>
       <c r="F66" t="n">
-        <v>0.0975164</v>
+        <v>0.09757</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.107366</v>
+        <v>0.107511</v>
       </c>
       <c r="C67" t="n">
-        <v>0.112767</v>
+        <v>0.112695</v>
       </c>
       <c r="D67" t="n">
-        <v>0.236966</v>
+        <v>0.235064</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0939542</v>
+        <v>0.0934589</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0981107</v>
+        <v>0.09851559999999999</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.111044</v>
+        <v>0.108573</v>
       </c>
       <c r="C68" t="n">
-        <v>0.114928</v>
+        <v>0.113565</v>
       </c>
       <c r="D68" t="n">
-        <v>0.244573</v>
+        <v>0.242373</v>
       </c>
       <c r="E68" t="n">
-        <v>0.09404079999999999</v>
+        <v>0.09419959999999999</v>
       </c>
       <c r="F68" t="n">
-        <v>0.0991469</v>
+        <v>0.0984703</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.112425</v>
+        <v>0.112351</v>
       </c>
       <c r="C69" t="n">
-        <v>0.116601</v>
+        <v>0.11673</v>
       </c>
       <c r="D69" t="n">
-        <v>0.252364</v>
+        <v>0.252842</v>
       </c>
       <c r="E69" t="n">
-        <v>0.095291</v>
+        <v>0.0948218</v>
       </c>
       <c r="F69" t="n">
-        <v>0.09960289999999999</v>
+        <v>0.09948</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.115611</v>
+        <v>0.114</v>
       </c>
       <c r="C70" t="n">
-        <v>0.121702</v>
+        <v>0.119311</v>
       </c>
       <c r="D70" t="n">
-        <v>0.257102</v>
+        <v>0.26433</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0950406</v>
+        <v>0.0951191</v>
       </c>
       <c r="F70" t="n">
-        <v>0.101022</v>
+        <v>0.100151</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.116822</v>
+        <v>0.118348</v>
       </c>
       <c r="C71" t="n">
-        <v>0.12429</v>
+        <v>0.124654</v>
       </c>
       <c r="D71" t="n">
-        <v>0.266982</v>
+        <v>0.27561</v>
       </c>
       <c r="E71" t="n">
-        <v>0.09621</v>
+        <v>0.0955474</v>
       </c>
       <c r="F71" t="n">
-        <v>0.101952</v>
+        <v>0.101821</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.121917</v>
+        <v>0.121183</v>
       </c>
       <c r="C72" t="n">
-        <v>0.129944</v>
+        <v>0.127408</v>
       </c>
       <c r="D72" t="n">
-        <v>0.276222</v>
+        <v>0.286345</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0962358</v>
+        <v>0.0969382</v>
       </c>
       <c r="F72" t="n">
-        <v>0.103653</v>
+        <v>0.103473</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.128</v>
+        <v>0.129841</v>
       </c>
       <c r="C73" t="n">
-        <v>0.134806</v>
+        <v>0.134116</v>
       </c>
       <c r="D73" t="n">
-        <v>0.287006</v>
+        <v>0.299569</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0978147</v>
+        <v>0.0969665</v>
       </c>
       <c r="F73" t="n">
-        <v>0.105701</v>
+        <v>0.105288</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.138013</v>
+        <v>0.136272</v>
       </c>
       <c r="C74" t="n">
-        <v>0.145797</v>
+        <v>0.142021</v>
       </c>
       <c r="D74" t="n">
-        <v>0.301679</v>
+        <v>0.311047</v>
       </c>
       <c r="E74" t="n">
-        <v>0.0995605</v>
+        <v>0.09918299999999999</v>
       </c>
       <c r="F74" t="n">
-        <v>0.106797</v>
+        <v>0.107394</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.14847</v>
+        <v>0.1469</v>
       </c>
       <c r="C75" t="n">
-        <v>0.153081</v>
+        <v>0.152668</v>
       </c>
       <c r="D75" t="n">
-        <v>0.314029</v>
+        <v>0.326402</v>
       </c>
       <c r="E75" t="n">
-        <v>0.100954</v>
+        <v>0.100933</v>
       </c>
       <c r="F75" t="n">
-        <v>0.108916</v>
+        <v>0.108814</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.163587</v>
+        <v>0.160131</v>
       </c>
       <c r="C76" t="n">
-        <v>0.167889</v>
+        <v>0.168252</v>
       </c>
       <c r="D76" t="n">
-        <v>0.32943</v>
+        <v>0.341895</v>
       </c>
       <c r="E76" t="n">
-        <v>0.10433</v>
+        <v>0.103698</v>
       </c>
       <c r="F76" t="n">
-        <v>0.11266</v>
+        <v>0.112838</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.176538</v>
+        <v>0.180419</v>
       </c>
       <c r="C77" t="n">
-        <v>0.190132</v>
+        <v>0.190488</v>
       </c>
       <c r="D77" t="n">
-        <v>0.349754</v>
+        <v>0.358748</v>
       </c>
       <c r="E77" t="n">
-        <v>0.109171</v>
+        <v>0.109514</v>
       </c>
       <c r="F77" t="n">
-        <v>0.118664</v>
+        <v>0.118975</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.213531</v>
+        <v>0.207744</v>
       </c>
       <c r="C78" t="n">
-        <v>0.217755</v>
+        <v>0.219414</v>
       </c>
       <c r="D78" t="n">
-        <v>0.266938</v>
+        <v>0.273463</v>
       </c>
       <c r="E78" t="n">
-        <v>0.11644</v>
+        <v>0.116208</v>
       </c>
       <c r="F78" t="n">
-        <v>0.126244</v>
+        <v>0.127035</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.252768</v>
+        <v>0.247077</v>
       </c>
       <c r="C79" t="n">
-        <v>0.259316</v>
+        <v>0.2634</v>
       </c>
       <c r="D79" t="n">
-        <v>0.286719</v>
+        <v>0.289558</v>
       </c>
       <c r="E79" t="n">
-        <v>0.13016</v>
+        <v>0.130285</v>
       </c>
       <c r="F79" t="n">
-        <v>0.141016</v>
+        <v>0.141714</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.301837</v>
+        <v>0.301049</v>
       </c>
       <c r="C80" t="n">
-        <v>0.316017</v>
+        <v>0.330668</v>
       </c>
       <c r="D80" t="n">
-        <v>0.304811</v>
+        <v>0.309272</v>
       </c>
       <c r="E80" t="n">
-        <v>0.101557</v>
+        <v>0.101799</v>
       </c>
       <c r="F80" t="n">
-        <v>0.106859</v>
+        <v>0.10675</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.119594</v>
+        <v>0.119882</v>
       </c>
       <c r="C81" t="n">
-        <v>0.126788</v>
+        <v>0.125981</v>
       </c>
       <c r="D81" t="n">
-        <v>0.325475</v>
+        <v>0.326401</v>
       </c>
       <c r="E81" t="n">
-        <v>0.102198</v>
+        <v>0.101939</v>
       </c>
       <c r="F81" t="n">
-        <v>0.107186</v>
+        <v>0.10813</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.122206</v>
+        <v>0.121767</v>
       </c>
       <c r="C82" t="n">
-        <v>0.128129</v>
+        <v>0.128898</v>
       </c>
       <c r="D82" t="n">
-        <v>0.346261</v>
+        <v>0.345915</v>
       </c>
       <c r="E82" t="n">
-        <v>0.102598</v>
+        <v>0.102332</v>
       </c>
       <c r="F82" t="n">
-        <v>0.107863</v>
+        <v>0.109124</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.123175</v>
+        <v>0.12465</v>
       </c>
       <c r="C83" t="n">
-        <v>0.130202</v>
+        <v>0.131969</v>
       </c>
       <c r="D83" t="n">
-        <v>0.36815</v>
+        <v>0.36526</v>
       </c>
       <c r="E83" t="n">
-        <v>0.103074</v>
+        <v>0.103011</v>
       </c>
       <c r="F83" t="n">
-        <v>0.108941</v>
+        <v>0.11083</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.127744</v>
+        <v>0.12686</v>
       </c>
       <c r="C84" t="n">
-        <v>0.133933</v>
+        <v>0.136172</v>
       </c>
       <c r="D84" t="n">
-        <v>0.388781</v>
+        <v>0.387422</v>
       </c>
       <c r="E84" t="n">
-        <v>0.10402</v>
+        <v>0.10408</v>
       </c>
       <c r="F84" t="n">
-        <v>0.109936</v>
+        <v>0.112992</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.129453</v>
+        <v>0.130876</v>
       </c>
       <c r="C85" t="n">
-        <v>0.137692</v>
+        <v>0.143067</v>
       </c>
       <c r="D85" t="n">
-        <v>0.411601</v>
+        <v>0.408238</v>
       </c>
       <c r="E85" t="n">
-        <v>0.104274</v>
+        <v>0.105108</v>
       </c>
       <c r="F85" t="n">
-        <v>0.111343</v>
+        <v>0.115421</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.133584</v>
+        <v>0.137614</v>
       </c>
       <c r="C86" t="n">
-        <v>0.142968</v>
+        <v>0.148203</v>
       </c>
       <c r="D86" t="n">
-        <v>0.434891</v>
+        <v>0.431942</v>
       </c>
       <c r="E86" t="n">
-        <v>0.105442</v>
+        <v>0.10637</v>
       </c>
       <c r="F86" t="n">
-        <v>0.113137</v>
+        <v>0.118737</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.139318</v>
+        <v>0.141864</v>
       </c>
       <c r="C87" t="n">
-        <v>0.150995</v>
+        <v>0.157584</v>
       </c>
       <c r="D87" t="n">
-        <v>0.458057</v>
+        <v>0.455217</v>
       </c>
       <c r="E87" t="n">
-        <v>0.106388</v>
+        <v>0.108117</v>
       </c>
       <c r="F87" t="n">
-        <v>0.11538</v>
+        <v>0.122311</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.146938</v>
+        <v>0.150681</v>
       </c>
       <c r="C88" t="n">
-        <v>0.159883</v>
+        <v>0.168467</v>
       </c>
       <c r="D88" t="n">
-        <v>0.483069</v>
+        <v>0.478622</v>
       </c>
       <c r="E88" t="n">
-        <v>0.108176</v>
+        <v>0.110175</v>
       </c>
       <c r="F88" t="n">
-        <v>0.118259</v>
+        <v>0.126524</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.156678</v>
+        <v>0.164747</v>
       </c>
       <c r="C89" t="n">
-        <v>0.174948</v>
+        <v>0.182855</v>
       </c>
       <c r="D89" t="n">
-        <v>0.507703</v>
+        <v>0.503856</v>
       </c>
       <c r="E89" t="n">
-        <v>0.110029</v>
+        <v>0.11377</v>
       </c>
       <c r="F89" t="n">
-        <v>0.121944</v>
+        <v>0.132164</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.170118</v>
+        <v>0.176912</v>
       </c>
       <c r="C90" t="n">
-        <v>0.191171</v>
+        <v>0.202173</v>
       </c>
       <c r="D90" t="n">
-        <v>0.5331</v>
+        <v>0.530323</v>
       </c>
       <c r="E90" t="n">
-        <v>0.113695</v>
+        <v>0.117578</v>
       </c>
       <c r="F90" t="n">
-        <v>0.129236</v>
+        <v>0.13834</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.192473</v>
+        <v>0.197527</v>
       </c>
       <c r="C91" t="n">
-        <v>0.218249</v>
+        <v>0.22558</v>
       </c>
       <c r="D91" t="n">
-        <v>0.5623860000000001</v>
+        <v>0.558287</v>
       </c>
       <c r="E91" t="n">
-        <v>0.11832</v>
+        <v>0.124303</v>
       </c>
       <c r="F91" t="n">
-        <v>0.137105</v>
+        <v>0.146894</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.225103</v>
+        <v>0.231886</v>
       </c>
       <c r="C92" t="n">
-        <v>0.255822</v>
+        <v>0.259328</v>
       </c>
       <c r="D92" t="n">
-        <v>0.422866</v>
+        <v>0.419368</v>
       </c>
       <c r="E92" t="n">
-        <v>0.12592</v>
+        <v>0.13191</v>
       </c>
       <c r="F92" t="n">
-        <v>0.148992</v>
+        <v>0.15849</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.266273</v>
+        <v>0.275127</v>
       </c>
       <c r="C93" t="n">
-        <v>0.310388</v>
+        <v>0.308243</v>
       </c>
       <c r="D93" t="n">
-        <v>0.44155</v>
+        <v>0.436152</v>
       </c>
       <c r="E93" t="n">
-        <v>0.140631</v>
+        <v>0.146953</v>
       </c>
       <c r="F93" t="n">
-        <v>0.16867</v>
+        <v>0.176125</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.328047</v>
+        <v>0.333316</v>
       </c>
       <c r="C94" t="n">
-        <v>0.396444</v>
+        <v>0.37926</v>
       </c>
       <c r="D94" t="n">
-        <v>0.459377</v>
+        <v>0.456338</v>
       </c>
       <c r="E94" t="n">
-        <v>0.107475</v>
+        <v>0.112345</v>
       </c>
       <c r="F94" t="n">
-        <v>0.120201</v>
+        <v>0.128204</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.127735</v>
+        <v>0.13403</v>
       </c>
       <c r="C95" t="n">
-        <v>0.143559</v>
+        <v>0.151362</v>
       </c>
       <c r="D95" t="n">
-        <v>0.478274</v>
+        <v>0.475752</v>
       </c>
       <c r="E95" t="n">
-        <v>0.108898</v>
+        <v>0.11411</v>
       </c>
       <c r="F95" t="n">
-        <v>0.123659</v>
+        <v>0.130937</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.130162</v>
+        <v>0.137225</v>
       </c>
       <c r="C96" t="n">
-        <v>0.149786</v>
+        <v>0.155433</v>
       </c>
       <c r="D96" t="n">
-        <v>0.5000790000000001</v>
+        <v>0.497565</v>
       </c>
       <c r="E96" t="n">
-        <v>0.11008</v>
+        <v>0.115948</v>
       </c>
       <c r="F96" t="n">
-        <v>0.127973</v>
+        <v>0.134666</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.133209</v>
+        <v>0.140181</v>
       </c>
       <c r="C97" t="n">
-        <v>0.155868</v>
+        <v>0.160386</v>
       </c>
       <c r="D97" t="n">
-        <v>0.520223</v>
+        <v>0.5174260000000001</v>
       </c>
       <c r="E97" t="n">
-        <v>0.111498</v>
+        <v>0.117423</v>
       </c>
       <c r="F97" t="n">
-        <v>0.133587</v>
+        <v>0.137361</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.137567</v>
+        <v>0.144311</v>
       </c>
       <c r="C98" t="n">
-        <v>0.164308</v>
+        <v>0.16539</v>
       </c>
       <c r="D98" t="n">
-        <v>0.542802</v>
+        <v>0.539044</v>
       </c>
       <c r="E98" t="n">
-        <v>0.114115</v>
+        <v>0.119711</v>
       </c>
       <c r="F98" t="n">
-        <v>0.138219</v>
+        <v>0.140441</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.145588</v>
+        <v>0.148859</v>
       </c>
       <c r="C99" t="n">
-        <v>0.174723</v>
+        <v>0.172026</v>
       </c>
       <c r="D99" t="n">
-        <v>0.564566</v>
+        <v>0.561298</v>
       </c>
       <c r="E99" t="n">
-        <v>0.116267</v>
+        <v>0.121931</v>
       </c>
       <c r="F99" t="n">
-        <v>0.144672</v>
+        <v>0.143907</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.150182</v>
+        <v>0.154958</v>
       </c>
       <c r="C100" t="n">
-        <v>0.185416</v>
+        <v>0.179201</v>
       </c>
       <c r="D100" t="n">
-        <v>0.5872230000000001</v>
+        <v>0.585053</v>
       </c>
       <c r="E100" t="n">
-        <v>0.1191</v>
+        <v>0.123445</v>
       </c>
       <c r="F100" t="n">
-        <v>0.150758</v>
+        <v>0.146583</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.158733</v>
+        <v>0.161513</v>
       </c>
       <c r="C101" t="n">
-        <v>0.20014</v>
+        <v>0.189152</v>
       </c>
       <c r="D101" t="n">
-        <v>0.611882</v>
+        <v>0.610353</v>
       </c>
       <c r="E101" t="n">
-        <v>0.123136</v>
+        <v>0.125674</v>
       </c>
       <c r="F101" t="n">
-        <v>0.157345</v>
+        <v>0.150534</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.170886</v>
+        <v>0.170446</v>
       </c>
       <c r="C102" t="n">
-        <v>0.215395</v>
+        <v>0.199507</v>
       </c>
       <c r="D102" t="n">
-        <v>0.63751</v>
+        <v>0.6339320000000001</v>
       </c>
       <c r="E102" t="n">
-        <v>0.1285</v>
+        <v>0.128544</v>
       </c>
       <c r="F102" t="n">
-        <v>0.165078</v>
+        <v>0.155844</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.18349</v>
+        <v>0.182223</v>
       </c>
       <c r="C103" t="n">
-        <v>0.230993</v>
+        <v>0.216078</v>
       </c>
       <c r="D103" t="n">
-        <v>0.664747</v>
+        <v>0.662099</v>
       </c>
       <c r="E103" t="n">
-        <v>0.13315</v>
+        <v>0.131407</v>
       </c>
       <c r="F103" t="n">
-        <v>0.172919</v>
+        <v>0.160586</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.201012</v>
+        <v>0.196116</v>
       </c>
       <c r="C104" t="n">
-        <v>0.253298</v>
+        <v>0.236711</v>
       </c>
       <c r="D104" t="n">
-        <v>0.693128</v>
+        <v>0.69073</v>
       </c>
       <c r="E104" t="n">
-        <v>0.139305</v>
+        <v>0.135567</v>
       </c>
       <c r="F104" t="n">
-        <v>0.181796</v>
+        <v>0.168001</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.223465</v>
+        <v>0.218253</v>
       </c>
       <c r="C105" t="n">
-        <v>0.280396</v>
+        <v>0.265559</v>
       </c>
       <c r="D105" t="n">
-        <v>0.724596</v>
+        <v>0.7223889999999999</v>
       </c>
       <c r="E105" t="n">
-        <v>0.148382</v>
+        <v>0.141974</v>
       </c>
       <c r="F105" t="n">
-        <v>0.191909</v>
+        <v>0.17783</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.255054</v>
+        <v>0.251798</v>
       </c>
       <c r="C106" t="n">
-        <v>0.317662</v>
+        <v>0.305965</v>
       </c>
       <c r="D106" t="n">
-        <v>0.757169</v>
+        <v>0.755486</v>
       </c>
       <c r="E106" t="n">
-        <v>0.158409</v>
+        <v>0.150599</v>
       </c>
       <c r="F106" t="n">
-        <v>0.205872</v>
+        <v>0.192029</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.29813</v>
+        <v>0.2878</v>
       </c>
       <c r="C107" t="n">
-        <v>0.371676</v>
+        <v>0.361056</v>
       </c>
       <c r="D107" t="n">
-        <v>0.596337</v>
+        <v>0.593236</v>
       </c>
       <c r="E107" t="n">
-        <v>0.173794</v>
+        <v>0.162416</v>
       </c>
       <c r="F107" t="n">
-        <v>0.224335</v>
+        <v>0.213021</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.368728</v>
+        <v>0.351811</v>
       </c>
       <c r="C108" t="n">
-        <v>0.447274</v>
+        <v>0.450421</v>
       </c>
       <c r="D108" t="n">
-        <v>0.617695</v>
+        <v>0.614256</v>
       </c>
       <c r="E108" t="n">
-        <v>0.128869</v>
+        <v>0.121709</v>
       </c>
       <c r="F108" t="n">
-        <v>0.159867</v>
+        <v>0.14557</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.45635</v>
+        <v>0.443785</v>
       </c>
       <c r="C109" t="n">
-        <v>0.564648</v>
+        <v>0.559996</v>
       </c>
       <c r="D109" t="n">
-        <v>0.639022</v>
+        <v>0.637508</v>
       </c>
       <c r="E109" t="n">
-        <v>0.131664</v>
+        <v>0.123308</v>
       </c>
       <c r="F109" t="n">
-        <v>0.163664</v>
+        <v>0.149301</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.155115</v>
+        <v>0.145358</v>
       </c>
       <c r="C110" t="n">
-        <v>0.188818</v>
+        <v>0.175052</v>
       </c>
       <c r="D110" t="n">
-        <v>0.6640509999999999</v>
+        <v>0.659504</v>
       </c>
       <c r="E110" t="n">
-        <v>0.134036</v>
+        <v>0.124593</v>
       </c>
       <c r="F110" t="n">
-        <v>0.167202</v>
+        <v>0.15395</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.158825</v>
+        <v>0.148558</v>
       </c>
       <c r="C111" t="n">
-        <v>0.194933</v>
+        <v>0.181801</v>
       </c>
       <c r="D111" t="n">
-        <v>0.688961</v>
+        <v>0.686456</v>
       </c>
       <c r="E111" t="n">
-        <v>0.136789</v>
+        <v>0.125833</v>
       </c>
       <c r="F111" t="n">
-        <v>0.171014</v>
+        <v>0.157982</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.163268</v>
+        <v>0.153361</v>
       </c>
       <c r="C112" t="n">
-        <v>0.20158</v>
+        <v>0.189261</v>
       </c>
       <c r="D112" t="n">
-        <v>0.713486</v>
+        <v>0.7110649999999999</v>
       </c>
       <c r="E112" t="n">
-        <v>0.138918</v>
+        <v>0.127706</v>
       </c>
       <c r="F112" t="n">
-        <v>0.175078</v>
+        <v>0.163241</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.168604</v>
+        <v>0.15718</v>
       </c>
       <c r="C113" t="n">
-        <v>0.209739</v>
+        <v>0.198317</v>
       </c>
       <c r="D113" t="n">
-        <v>0.73961</v>
+        <v>0.737893</v>
       </c>
       <c r="E113" t="n">
-        <v>0.141163</v>
+        <v>0.129917</v>
       </c>
       <c r="F113" t="n">
-        <v>0.178818</v>
+        <v>0.169018</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.174773</v>
+        <v>0.163552</v>
       </c>
       <c r="C114" t="n">
-        <v>0.216749</v>
+        <v>0.208309</v>
       </c>
       <c r="D114" t="n">
-        <v>0.766142</v>
+        <v>0.7648430000000001</v>
       </c>
       <c r="E114" t="n">
-        <v>0.143819</v>
+        <v>0.133011</v>
       </c>
       <c r="F114" t="n">
-        <v>0.183392</v>
+        <v>0.174379</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.182408</v>
+        <v>0.171664</v>
       </c>
       <c r="C115" t="n">
-        <v>0.227085</v>
+        <v>0.220013</v>
       </c>
       <c r="D115" t="n">
-        <v>0.792965</v>
+        <v>0.792278</v>
       </c>
       <c r="E115" t="n">
-        <v>0.146888</v>
+        <v>0.135734</v>
       </c>
       <c r="F115" t="n">
-        <v>0.188263</v>
+        <v>0.181013</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.191792</v>
+        <v>0.184686</v>
       </c>
       <c r="C116" t="n">
-        <v>0.241177</v>
+        <v>0.233568</v>
       </c>
       <c r="D116" t="n">
-        <v>0.821665</v>
+        <v>0.820374</v>
       </c>
       <c r="E116" t="n">
-        <v>0.150194</v>
+        <v>0.138886</v>
       </c>
       <c r="F116" t="n">
-        <v>0.193453</v>
+        <v>0.187387</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.20402</v>
+        <v>0.195769</v>
       </c>
       <c r="C117" t="n">
-        <v>0.256034</v>
+        <v>0.250626</v>
       </c>
       <c r="D117" t="n">
-        <v>0.8502769999999999</v>
+        <v>0.848173</v>
       </c>
       <c r="E117" t="n">
-        <v>0.154092</v>
+        <v>0.143297</v>
       </c>
       <c r="F117" t="n">
-        <v>0.199818</v>
+        <v>0.194622</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.219509</v>
+        <v>0.213237</v>
       </c>
       <c r="C118" t="n">
-        <v>0.278544</v>
+        <v>0.27191</v>
       </c>
       <c r="D118" t="n">
-        <v>0.8796310000000001</v>
+        <v>0.878211</v>
       </c>
       <c r="E118" t="n">
-        <v>0.158968</v>
+        <v>0.150237</v>
       </c>
       <c r="F118" t="n">
-        <v>0.207262</v>
+        <v>0.203169</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.240462</v>
+        <v>0.240717</v>
       </c>
       <c r="C119" t="n">
-        <v>0.303859</v>
+        <v>0.299588</v>
       </c>
       <c r="D119" t="n">
-        <v>0.911012</v>
+        <v>0.909402</v>
       </c>
       <c r="E119" t="n">
-        <v>0.16542</v>
+        <v>0.157576</v>
       </c>
       <c r="F119" t="n">
-        <v>0.216812</v>
+        <v>0.213208</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.269602</v>
+        <v>0.26655</v>
       </c>
       <c r="C120" t="n">
-        <v>0.341325</v>
+        <v>0.33702</v>
       </c>
       <c r="D120" t="n">
-        <v>0.94336</v>
+        <v>0.942291</v>
       </c>
       <c r="E120" t="n">
-        <v>0.174548</v>
+        <v>0.167931</v>
       </c>
       <c r="F120" t="n">
-        <v>0.229922</v>
+        <v>0.22696</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.310841</v>
+        <v>0.315586</v>
       </c>
       <c r="C121" t="n">
-        <v>0.394995</v>
+        <v>0.391107</v>
       </c>
       <c r="D121" t="n">
-        <v>0.684057</v>
+        <v>0.681273</v>
       </c>
       <c r="E121" t="n">
-        <v>0.18837</v>
+        <v>0.184327</v>
       </c>
       <c r="F121" t="n">
-        <v>0.248805</v>
+        <v>0.246986</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.371874</v>
+        <v>0.380629</v>
       </c>
       <c r="C122" t="n">
-        <v>0.477256</v>
+        <v>0.472537</v>
       </c>
       <c r="D122" t="n">
-        <v>0.706269</v>
+        <v>0.702895</v>
       </c>
       <c r="E122" t="n">
-        <v>0.210876</v>
+        <v>0.210246</v>
       </c>
       <c r="F122" t="n">
-        <v>0.279532</v>
+        <v>0.277983</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.463153</v>
+        <v>0.470169</v>
       </c>
       <c r="C123" t="n">
-        <v>0.59858</v>
+        <v>0.59292</v>
       </c>
       <c r="D123" t="n">
-        <v>0.729104</v>
+        <v>0.726036</v>
       </c>
       <c r="E123" t="n">
-        <v>0.148737</v>
+        <v>0.146429</v>
       </c>
       <c r="F123" t="n">
-        <v>0.184791</v>
+        <v>0.185502</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.170176</v>
+        <v>0.171541</v>
       </c>
       <c r="C124" t="n">
-        <v>0.2091</v>
+        <v>0.212591</v>
       </c>
       <c r="D124" t="n">
-        <v>0.753279</v>
+        <v>0.750399</v>
       </c>
       <c r="E124" t="n">
-        <v>0.147364</v>
+        <v>0.147684</v>
       </c>
       <c r="F124" t="n">
-        <v>0.187927</v>
+        <v>0.187014</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.174734</v>
+        <v>0.178023</v>
       </c>
       <c r="C125" t="n">
-        <v>0.219819</v>
+        <v>0.21596</v>
       </c>
       <c r="D125" t="n">
-        <v>0.778462</v>
+        <v>0.7755570000000001</v>
       </c>
       <c r="E125" t="n">
-        <v>0.149354</v>
+        <v>0.151726</v>
       </c>
       <c r="F125" t="n">
-        <v>0.192045</v>
+        <v>0.192424</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.180515</v>
+        <v>0.184163</v>
       </c>
       <c r="C126" t="n">
-        <v>0.223895</v>
+        <v>0.223015</v>
       </c>
       <c r="D126" t="n">
-        <v>0.805055</v>
+        <v>0.80165</v>
       </c>
       <c r="E126" t="n">
-        <v>0.156334</v>
+        <v>0.155352</v>
       </c>
       <c r="F126" t="n">
-        <v>0.195737</v>
+        <v>0.194513</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.184056</v>
+        <v>0.184559</v>
       </c>
       <c r="C127" t="n">
-        <v>0.232141</v>
+        <v>0.232129</v>
       </c>
       <c r="D127" t="n">
-        <v>0.832198</v>
+        <v>0.828885</v>
       </c>
       <c r="E127" t="n">
-        <v>0.156343</v>
+        <v>0.155743</v>
       </c>
       <c r="F127" t="n">
-        <v>0.200524</v>
+        <v>0.203097</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.190426</v>
+        <v>0.191255</v>
       </c>
       <c r="C128" t="n">
-        <v>0.243346</v>
+        <v>0.238917</v>
       </c>
       <c r="D128" t="n">
-        <v>0.85915</v>
+        <v>0.857051</v>
       </c>
       <c r="E128" t="n">
-        <v>0.16032</v>
+        <v>0.159972</v>
       </c>
       <c r="F128" t="n">
-        <v>0.205303</v>
+        <v>0.205292</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.198324</v>
+        <v>0.203636</v>
       </c>
       <c r="C129" t="n">
-        <v>0.250948</v>
+        <v>0.248961</v>
       </c>
       <c r="D129" t="n">
-        <v>0.887344</v>
+        <v>0.885493</v>
       </c>
       <c r="E129" t="n">
-        <v>0.159832</v>
+        <v>0.163733</v>
       </c>
       <c r="F129" t="n">
-        <v>0.210542</v>
+        <v>0.213794</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.207422</v>
+        <v>0.211081</v>
       </c>
       <c r="C130" t="n">
-        <v>0.264803</v>
+        <v>0.263754</v>
       </c>
       <c r="D130" t="n">
-        <v>0.9173480000000001</v>
+        <v>0.914923</v>
       </c>
       <c r="E130" t="n">
-        <v>0.162626</v>
+        <v>0.16757</v>
       </c>
       <c r="F130" t="n">
-        <v>0.215836</v>
+        <v>0.217124</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.216566</v>
+        <v>0.222647</v>
       </c>
       <c r="C131" t="n">
-        <v>0.284106</v>
+        <v>0.278248</v>
       </c>
       <c r="D131" t="n">
-        <v>0.947453</v>
+        <v>0.944797</v>
       </c>
       <c r="E131" t="n">
-        <v>0.168346</v>
+        <v>0.169019</v>
       </c>
       <c r="F131" t="n">
-        <v>0.226236</v>
+        <v>0.225097</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.232473</v>
+        <v>0.235396</v>
       </c>
       <c r="C132" t="n">
-        <v>0.304583</v>
+        <v>0.303027</v>
       </c>
       <c r="D132" t="n">
-        <v>0.978577</v>
+        <v>0.976447</v>
       </c>
       <c r="E132" t="n">
-        <v>0.171717</v>
+        <v>0.173151</v>
       </c>
       <c r="F132" t="n">
-        <v>0.233124</v>
+        <v>0.230601</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.257334</v>
+        <v>0.260192</v>
       </c>
       <c r="C133" t="n">
-        <v>0.335455</v>
+        <v>0.331958</v>
       </c>
       <c r="D133" t="n">
-        <v>1.01069</v>
+        <v>1.00907</v>
       </c>
       <c r="E133" t="n">
-        <v>0.182524</v>
+        <v>0.180749</v>
       </c>
       <c r="F133" t="n">
-        <v>0.241863</v>
+        <v>0.24568</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.285646</v>
+        <v>0.290979</v>
       </c>
       <c r="C134" t="n">
-        <v>0.372005</v>
+        <v>0.374742</v>
       </c>
       <c r="D134" t="n">
-        <v>1.04371</v>
+        <v>1.04117</v>
       </c>
       <c r="E134" t="n">
-        <v>0.187179</v>
+        <v>0.191305</v>
       </c>
       <c r="F134" t="n">
-        <v>0.255597</v>
+        <v>0.256896</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.321751</v>
+        <v>0.32656</v>
       </c>
       <c r="C135" t="n">
-        <v>0.42511</v>
+        <v>0.423242</v>
       </c>
       <c r="D135" t="n">
-        <v>0.700414</v>
+        <v>0.69783</v>
       </c>
       <c r="E135" t="n">
-        <v>0.202764</v>
+        <v>0.200243</v>
       </c>
       <c r="F135" t="n">
-        <v>0.273685</v>
+        <v>0.2724</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.383699</v>
+        <v>0.385028</v>
       </c>
       <c r="C136" t="n">
-        <v>0.507225</v>
+        <v>0.503468</v>
       </c>
       <c r="D136" t="n">
-        <v>0.7186360000000001</v>
+        <v>0.715957</v>
       </c>
       <c r="E136" t="n">
-        <v>0.2203</v>
+        <v>0.220947</v>
       </c>
       <c r="F136" t="n">
-        <v>0.304382</v>
+        <v>0.301243</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.475391</v>
+        <v>0.477733</v>
       </c>
       <c r="C137" t="n">
-        <v>0.6355460000000001</v>
+        <v>0.632861</v>
       </c>
       <c r="D137" t="n">
-        <v>0.737771</v>
+        <v>0.735104</v>
       </c>
       <c r="E137" t="n">
-        <v>0.277574</v>
+        <v>0.275898</v>
       </c>
       <c r="F137" t="n">
-        <v>0.325459</v>
+        <v>0.322881</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.31479</v>
+        <v>0.309786</v>
       </c>
       <c r="C138" t="n">
-        <v>0.35718</v>
+        <v>0.35362</v>
       </c>
       <c r="D138" t="n">
-        <v>0.757838</v>
+        <v>0.755672</v>
       </c>
       <c r="E138" t="n">
-        <v>0.275141</v>
+        <v>0.279928</v>
       </c>
       <c r="F138" t="n">
-        <v>0.327432</v>
+        <v>0.326798</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.318001</v>
+        <v>0.317919</v>
       </c>
       <c r="C139" t="n">
-        <v>0.364746</v>
+        <v>0.364581</v>
       </c>
       <c r="D139" t="n">
-        <v>0.7791360000000001</v>
+        <v>0.776158</v>
       </c>
       <c r="E139" t="n">
-        <v>0.282151</v>
+        <v>0.27634</v>
       </c>
       <c r="F139" t="n">
-        <v>0.334275</v>
+        <v>0.329038</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.32411</v>
+        <v>0.319383</v>
       </c>
       <c r="C140" t="n">
-        <v>0.372523</v>
+        <v>0.367917</v>
       </c>
       <c r="D140" t="n">
-        <v>0.8006490000000001</v>
+        <v>0.79826</v>
       </c>
       <c r="E140" t="n">
-        <v>0.281554</v>
+        <v>0.282863</v>
       </c>
       <c r="F140" t="n">
-        <v>0.337895</v>
+        <v>0.33753</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.329215</v>
+        <v>0.326339</v>
       </c>
       <c r="C141" t="n">
-        <v>0.379276</v>
+        <v>0.378685</v>
       </c>
       <c r="D141" t="n">
-        <v>0.823638</v>
+        <v>0.82094</v>
       </c>
       <c r="E141" t="n">
-        <v>0.286918</v>
+        <v>0.286817</v>
       </c>
       <c r="F141" t="n">
-        <v>0.344424</v>
+        <v>0.342746</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.333263</v>
+        <v>0.332071</v>
       </c>
       <c r="C142" t="n">
-        <v>0.392219</v>
+        <v>0.388953</v>
       </c>
       <c r="D142" t="n">
-        <v>0.847483</v>
+        <v>0.844486</v>
       </c>
       <c r="E142" t="n">
-        <v>0.289639</v>
+        <v>0.287215</v>
       </c>
       <c r="F142" t="n">
-        <v>0.350443</v>
+        <v>0.347489</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.338713</v>
+        <v>0.339262</v>
       </c>
       <c r="C143" t="n">
-        <v>0.399134</v>
+        <v>0.39699</v>
       </c>
       <c r="D143" t="n">
-        <v>0.8723070000000001</v>
+        <v>0.868943</v>
       </c>
       <c r="E143" t="n">
-        <v>0.289992</v>
+        <v>0.292933</v>
       </c>
       <c r="F143" t="n">
-        <v>0.354806</v>
+        <v>0.353696</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Scattered unsuccessful looukp.xlsx
+++ b/clang-x86/Scattered unsuccessful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.09510689999999999</v>
+        <v>0.09806330000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0979698</v>
+        <v>0.09863089999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>0.186124</v>
+        <v>0.190727</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0836824</v>
+        <v>0.0856813</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0842697</v>
+        <v>0.0855752</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.10249</v>
+        <v>0.104409</v>
       </c>
       <c r="C3" t="n">
-        <v>0.104906</v>
+        <v>0.105115</v>
       </c>
       <c r="D3" t="n">
-        <v>0.194801</v>
+        <v>0.198841</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0844707</v>
+        <v>0.0866518</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0849816</v>
+        <v>0.0865774</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.111941</v>
+        <v>0.114831</v>
       </c>
       <c r="C4" t="n">
-        <v>0.116314</v>
+        <v>0.11321</v>
       </c>
       <c r="D4" t="n">
-        <v>0.201542</v>
+        <v>0.202431</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0856698</v>
+        <v>0.0882116</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0863264</v>
+        <v>0.0879861</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.132074</v>
+        <v>0.128026</v>
       </c>
       <c r="C5" t="n">
-        <v>0.131072</v>
+        <v>0.12568</v>
       </c>
       <c r="D5" t="n">
-        <v>0.210318</v>
+        <v>0.210985</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0872352</v>
+        <v>0.08995930000000001</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0875933</v>
+        <v>0.08960319999999999</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.159301</v>
+        <v>0.147761</v>
       </c>
       <c r="C6" t="n">
-        <v>0.164138</v>
+        <v>0.146782</v>
       </c>
       <c r="D6" t="n">
-        <v>0.214344</v>
+        <v>0.218474</v>
       </c>
       <c r="E6" t="n">
-        <v>0.08907089999999999</v>
+        <v>0.0926056</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0895519</v>
+        <v>0.09195780000000001</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.189112</v>
+        <v>0.17703</v>
       </c>
       <c r="C7" t="n">
-        <v>0.191707</v>
+        <v>0.175062</v>
       </c>
       <c r="D7" t="n">
-        <v>0.161276</v>
+        <v>0.167823</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0954599</v>
+        <v>0.0980345</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0948952</v>
+        <v>0.09792339999999999</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.229125</v>
+        <v>0.220314</v>
       </c>
       <c r="C8" t="n">
-        <v>0.225744</v>
+        <v>0.212468</v>
       </c>
       <c r="D8" t="n">
-        <v>0.168918</v>
+        <v>0.175459</v>
       </c>
       <c r="E8" t="n">
-        <v>0.107023</v>
+        <v>0.10955</v>
       </c>
       <c r="F8" t="n">
-        <v>0.106808</v>
+        <v>0.110293</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.272131</v>
+        <v>0.261503</v>
       </c>
       <c r="C9" t="n">
-        <v>0.267612</v>
+        <v>0.263796</v>
       </c>
       <c r="D9" t="n">
-        <v>0.175531</v>
+        <v>0.182526</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0818448</v>
+        <v>0.0833464</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0827261</v>
+        <v>0.0837514</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.08579829999999999</v>
+        <v>0.08079169999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0868883</v>
+        <v>0.0817377</v>
       </c>
       <c r="D10" t="n">
-        <v>0.183052</v>
+        <v>0.188921</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0821361</v>
+        <v>0.0837432</v>
       </c>
       <c r="F10" t="n">
-        <v>0.08285090000000001</v>
+        <v>0.0842164</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0865242</v>
+        <v>0.0824771</v>
       </c>
       <c r="C11" t="n">
-        <v>0.088029</v>
+        <v>0.083671</v>
       </c>
       <c r="D11" t="n">
-        <v>0.19069</v>
+        <v>0.195653</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0825896</v>
+        <v>0.0842236</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0833182</v>
+        <v>0.0847899</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.08807719999999999</v>
+        <v>0.08439629999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0904306</v>
+        <v>0.0856198</v>
       </c>
       <c r="D12" t="n">
-        <v>0.197936</v>
+        <v>0.203242</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0828414</v>
+        <v>0.08445800000000001</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0835925</v>
+        <v>0.085115</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0894858</v>
+        <v>0.08657769999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0913766</v>
+        <v>0.0877574</v>
       </c>
       <c r="D13" t="n">
-        <v>0.204649</v>
+        <v>0.208651</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0830129</v>
+        <v>0.08474660000000001</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0840477</v>
+        <v>0.08532969999999999</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0915938</v>
+        <v>0.090096</v>
       </c>
       <c r="C14" t="n">
-        <v>0.09345589999999999</v>
+        <v>0.091017</v>
       </c>
       <c r="D14" t="n">
-        <v>0.210877</v>
+        <v>0.215494</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0832871</v>
+        <v>0.08517230000000001</v>
       </c>
       <c r="F14" t="n">
-        <v>0.08430790000000001</v>
+        <v>0.08575679999999999</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.09505619999999999</v>
+        <v>0.0938423</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0968683</v>
+        <v>0.0947228</v>
       </c>
       <c r="D15" t="n">
-        <v>0.220383</v>
+        <v>0.222797</v>
       </c>
       <c r="E15" t="n">
-        <v>0.08404300000000001</v>
+        <v>0.0857134</v>
       </c>
       <c r="F15" t="n">
-        <v>0.084787</v>
+        <v>0.08652940000000001</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.1013</v>
+        <v>0.0997755</v>
       </c>
       <c r="C16" t="n">
-        <v>0.101235</v>
+        <v>0.100159</v>
       </c>
       <c r="D16" t="n">
-        <v>0.227037</v>
+        <v>0.229338</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0844977</v>
+        <v>0.08622829999999999</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0854125</v>
+        <v>0.0871716</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.109177</v>
+        <v>0.106377</v>
       </c>
       <c r="C17" t="n">
-        <v>0.110602</v>
+        <v>0.106722</v>
       </c>
       <c r="D17" t="n">
-        <v>0.233187</v>
+        <v>0.234505</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0854232</v>
+        <v>0.0873709</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0863462</v>
+        <v>0.0885504</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.120641</v>
+        <v>0.115964</v>
       </c>
       <c r="C18" t="n">
-        <v>0.122139</v>
+        <v>0.116708</v>
       </c>
       <c r="D18" t="n">
-        <v>0.238196</v>
+        <v>0.239807</v>
       </c>
       <c r="E18" t="n">
-        <v>0.08666459999999999</v>
+        <v>0.0888124</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0874861</v>
+        <v>0.0899151</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.134941</v>
+        <v>0.128792</v>
       </c>
       <c r="C19" t="n">
-        <v>0.137553</v>
+        <v>0.130808</v>
       </c>
       <c r="D19" t="n">
-        <v>0.245367</v>
+        <v>0.246219</v>
       </c>
       <c r="E19" t="n">
-        <v>0.08964999999999999</v>
+        <v>0.09089999999999999</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0894243</v>
+        <v>0.09223199999999999</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.154285</v>
+        <v>0.155054</v>
       </c>
       <c r="C20" t="n">
-        <v>0.157509</v>
+        <v>0.149427</v>
       </c>
       <c r="D20" t="n">
-        <v>0.251796</v>
+        <v>0.252277</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0918173</v>
+        <v>0.0940063</v>
       </c>
       <c r="F20" t="n">
-        <v>0.09282219999999999</v>
+        <v>0.0954309</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.184149</v>
+        <v>0.174582</v>
       </c>
       <c r="C21" t="n">
-        <v>0.191831</v>
+        <v>0.177867</v>
       </c>
       <c r="D21" t="n">
-        <v>0.182468</v>
+        <v>0.187802</v>
       </c>
       <c r="E21" t="n">
-        <v>0.09729500000000001</v>
+        <v>0.0996172</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0989048</v>
+        <v>0.101773</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.217989</v>
+        <v>0.212517</v>
       </c>
       <c r="C22" t="n">
-        <v>0.219631</v>
+        <v>0.2147</v>
       </c>
       <c r="D22" t="n">
-        <v>0.190679</v>
+        <v>0.195036</v>
       </c>
       <c r="E22" t="n">
-        <v>0.109767</v>
+        <v>0.111371</v>
       </c>
       <c r="F22" t="n">
-        <v>0.111407</v>
+        <v>0.115382</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.274887</v>
+        <v>0.258231</v>
       </c>
       <c r="C23" t="n">
-        <v>0.258933</v>
+        <v>0.265688</v>
       </c>
       <c r="D23" t="n">
-        <v>0.199028</v>
+        <v>0.20286</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0829657</v>
+        <v>0.084615</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0842058</v>
+        <v>0.08535230000000001</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.09139799999999999</v>
+        <v>0.0842369</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0927622</v>
+        <v>0.0868845</v>
       </c>
       <c r="D24" t="n">
-        <v>0.206338</v>
+        <v>0.20875</v>
       </c>
       <c r="E24" t="n">
-        <v>0.08323079999999999</v>
+        <v>0.0848559</v>
       </c>
       <c r="F24" t="n">
-        <v>0.084564</v>
+        <v>0.0859714</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0912872</v>
+        <v>0.084831</v>
       </c>
       <c r="C25" t="n">
-        <v>0.09316439999999999</v>
+        <v>0.0880957</v>
       </c>
       <c r="D25" t="n">
-        <v>0.213572</v>
+        <v>0.21669</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0834493</v>
+        <v>0.0851908</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0849791</v>
+        <v>0.0862528</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0928099</v>
+        <v>0.0869147</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0957783</v>
+        <v>0.09012530000000001</v>
       </c>
       <c r="D26" t="n">
-        <v>0.221267</v>
+        <v>0.222541</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0838185</v>
+        <v>0.0855057</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08565109999999999</v>
+        <v>0.08688</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0943272</v>
+        <v>0.0893989</v>
       </c>
       <c r="C27" t="n">
-        <v>0.09698660000000001</v>
+        <v>0.0926466</v>
       </c>
       <c r="D27" t="n">
-        <v>0.228849</v>
+        <v>0.230629</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0842878</v>
+        <v>0.0858688</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0866529</v>
+        <v>0.08743529999999999</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.09704889999999999</v>
+        <v>0.0917772</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0995461</v>
+        <v>0.0948046</v>
       </c>
       <c r="D28" t="n">
-        <v>0.235503</v>
+        <v>0.236632</v>
       </c>
       <c r="E28" t="n">
-        <v>0.084732</v>
+        <v>0.0863839</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0868183</v>
+        <v>0.0890854</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.100529</v>
+        <v>0.0956838</v>
       </c>
       <c r="C29" t="n">
-        <v>0.104586</v>
+        <v>0.0992657</v>
       </c>
       <c r="D29" t="n">
-        <v>0.241424</v>
+        <v>0.245156</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0852784</v>
+        <v>0.086988</v>
       </c>
       <c r="F29" t="n">
-        <v>0.087771</v>
+        <v>0.0891459</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.106046</v>
+        <v>0.101721</v>
       </c>
       <c r="C30" t="n">
-        <v>0.11123</v>
+        <v>0.105591</v>
       </c>
       <c r="D30" t="n">
-        <v>0.247729</v>
+        <v>0.250726</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0859308</v>
+        <v>0.0882927</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08882619999999999</v>
+        <v>0.0895811</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.1135</v>
+        <v>0.109575</v>
       </c>
       <c r="C31" t="n">
-        <v>0.115288</v>
+        <v>0.111698</v>
       </c>
       <c r="D31" t="n">
-        <v>0.252538</v>
+        <v>0.253743</v>
       </c>
       <c r="E31" t="n">
-        <v>0.087073</v>
+        <v>0.0888212</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0900725</v>
+        <v>0.0910265</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.121367</v>
+        <v>0.117764</v>
       </c>
       <c r="C32" t="n">
-        <v>0.125824</v>
+        <v>0.120521</v>
       </c>
       <c r="D32" t="n">
-        <v>0.25805</v>
+        <v>0.26095</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0886984</v>
+        <v>0.0903804</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0925546</v>
+        <v>0.09337429999999999</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.134989</v>
+        <v>0.130021</v>
       </c>
       <c r="C33" t="n">
-        <v>0.137819</v>
+        <v>0.13506</v>
       </c>
       <c r="D33" t="n">
-        <v>0.263111</v>
+        <v>0.266554</v>
       </c>
       <c r="E33" t="n">
-        <v>0.091126</v>
+        <v>0.09275659999999999</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0946548</v>
+        <v>0.0957938</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.150569</v>
+        <v>0.147726</v>
       </c>
       <c r="C34" t="n">
-        <v>0.154153</v>
+        <v>0.151676</v>
       </c>
       <c r="D34" t="n">
-        <v>0.2699</v>
+        <v>0.271958</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0950826</v>
+        <v>0.0966539</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0987225</v>
+        <v>0.0993285</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.176388</v>
+        <v>0.172138</v>
       </c>
       <c r="C35" t="n">
-        <v>0.177208</v>
+        <v>0.175318</v>
       </c>
       <c r="D35" t="n">
-        <v>0.196407</v>
+        <v>0.198028</v>
       </c>
       <c r="E35" t="n">
-        <v>0.101936</v>
+        <v>0.103509</v>
       </c>
       <c r="F35" t="n">
-        <v>0.105875</v>
+        <v>0.106497</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.208685</v>
+        <v>0.205135</v>
       </c>
       <c r="C36" t="n">
-        <v>0.209391</v>
+        <v>0.210984</v>
       </c>
       <c r="D36" t="n">
-        <v>0.20347</v>
+        <v>0.205081</v>
       </c>
       <c r="E36" t="n">
-        <v>0.113867</v>
+        <v>0.114869</v>
       </c>
       <c r="F36" t="n">
-        <v>0.116865</v>
+        <v>0.118604</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.258817</v>
+        <v>0.24589</v>
       </c>
       <c r="C37" t="n">
-        <v>0.25633</v>
+        <v>0.256105</v>
       </c>
       <c r="D37" t="n">
-        <v>0.211754</v>
+        <v>0.212237</v>
       </c>
       <c r="E37" t="n">
-        <v>0.08367289999999999</v>
+        <v>0.08546670000000001</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0869129</v>
+        <v>0.086891</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0923727</v>
+        <v>0.0860204</v>
       </c>
       <c r="C38" t="n">
-        <v>0.095849</v>
+        <v>0.08933290000000001</v>
       </c>
       <c r="D38" t="n">
-        <v>0.218692</v>
+        <v>0.22071</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0839516</v>
+        <v>0.0858799</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0873659</v>
+        <v>0.0873133</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.09364989999999999</v>
+        <v>0.0876099</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0980109</v>
+        <v>0.0908294</v>
       </c>
       <c r="D39" t="n">
-        <v>0.225879</v>
+        <v>0.227994</v>
       </c>
       <c r="E39" t="n">
-        <v>0.08421090000000001</v>
+        <v>0.086064</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0877947</v>
+        <v>0.08802359999999999</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0949913</v>
+        <v>0.0890283</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0987286</v>
+        <v>0.0927188</v>
       </c>
       <c r="D40" t="n">
-        <v>0.233511</v>
+        <v>0.23539</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0845374</v>
+        <v>0.0864267</v>
       </c>
       <c r="F40" t="n">
-        <v>0.08828510000000001</v>
+        <v>0.0882188</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0970684</v>
+        <v>0.09115180000000001</v>
       </c>
       <c r="C41" t="n">
-        <v>0.102429</v>
+        <v>0.0947973</v>
       </c>
       <c r="D41" t="n">
-        <v>0.239564</v>
+        <v>0.24177</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0849979</v>
+        <v>0.08681220000000001</v>
       </c>
       <c r="F41" t="n">
-        <v>0.08891209999999999</v>
+        <v>0.08889809999999999</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.100077</v>
+        <v>0.0940512</v>
       </c>
       <c r="C42" t="n">
-        <v>0.104133</v>
+        <v>0.098054</v>
       </c>
       <c r="D42" t="n">
-        <v>0.247025</v>
+        <v>0.24981</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0857607</v>
+        <v>0.087591</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0893341</v>
+        <v>0.0895976</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.104456</v>
+        <v>0.09802520000000001</v>
       </c>
       <c r="C43" t="n">
-        <v>0.108158</v>
+        <v>0.102227</v>
       </c>
       <c r="D43" t="n">
-        <v>0.253346</v>
+        <v>0.256445</v>
       </c>
       <c r="E43" t="n">
-        <v>0.08591849999999999</v>
+        <v>0.0886049</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0900102</v>
+        <v>0.09114700000000001</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.109099</v>
+        <v>0.103092</v>
       </c>
       <c r="C44" t="n">
-        <v>0.113299</v>
+        <v>0.10717</v>
       </c>
       <c r="D44" t="n">
-        <v>0.259525</v>
+        <v>0.262472</v>
       </c>
       <c r="E44" t="n">
-        <v>0.08683299999999999</v>
+        <v>0.0886214</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0908979</v>
+        <v>0.0920484</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.115406</v>
+        <v>0.109555</v>
       </c>
       <c r="C45" t="n">
-        <v>0.121504</v>
+        <v>0.11396</v>
       </c>
       <c r="D45" t="n">
-        <v>0.26537</v>
+        <v>0.268749</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0878143</v>
+        <v>0.08968669999999999</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0920892</v>
+        <v>0.0935231</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.123681</v>
+        <v>0.119015</v>
       </c>
       <c r="C46" t="n">
-        <v>0.128683</v>
+        <v>0.125367</v>
       </c>
       <c r="D46" t="n">
-        <v>0.271784</v>
+        <v>0.273978</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0893732</v>
+        <v>0.091114</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0937697</v>
+        <v>0.0949671</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.136337</v>
+        <v>0.129821</v>
       </c>
       <c r="C47" t="n">
-        <v>0.13983</v>
+        <v>0.137021</v>
       </c>
       <c r="D47" t="n">
-        <v>0.277076</v>
+        <v>0.27942</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0917019</v>
+        <v>0.0934253</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0962293</v>
+        <v>0.098149</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.152533</v>
+        <v>0.145985</v>
       </c>
       <c r="C48" t="n">
-        <v>0.154176</v>
+        <v>0.152009</v>
       </c>
       <c r="D48" t="n">
-        <v>0.282696</v>
+        <v>0.285362</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0965086</v>
+        <v>0.0968789</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0998551</v>
+        <v>0.101571</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.173063</v>
+        <v>0.16854</v>
       </c>
       <c r="C49" t="n">
-        <v>0.182387</v>
+        <v>0.173605</v>
       </c>
       <c r="D49" t="n">
-        <v>0.289216</v>
+        <v>0.29121</v>
       </c>
       <c r="E49" t="n">
-        <v>0.100987</v>
+        <v>0.102595</v>
       </c>
       <c r="F49" t="n">
-        <v>0.105493</v>
+        <v>0.106664</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.204621</v>
+        <v>0.200556</v>
       </c>
       <c r="C50" t="n">
-        <v>0.204967</v>
+        <v>0.205284</v>
       </c>
       <c r="D50" t="n">
-        <v>0.203615</v>
+        <v>0.203906</v>
       </c>
       <c r="E50" t="n">
-        <v>0.11399</v>
+        <v>0.112477</v>
       </c>
       <c r="F50" t="n">
-        <v>0.115306</v>
+        <v>0.116716</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.243862</v>
+        <v>0.253524</v>
       </c>
       <c r="C51" t="n">
-        <v>0.247873</v>
+        <v>0.248855</v>
       </c>
       <c r="D51" t="n">
-        <v>0.210924</v>
+        <v>0.210836</v>
       </c>
       <c r="E51" t="n">
-        <v>0.08562350000000001</v>
+        <v>0.08805689999999999</v>
       </c>
       <c r="F51" t="n">
-        <v>0.08915869999999999</v>
+        <v>0.091362</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.291502</v>
+        <v>0.287547</v>
       </c>
       <c r="C52" t="n">
-        <v>0.294893</v>
+        <v>0.298067</v>
       </c>
       <c r="D52" t="n">
-        <v>0.217246</v>
+        <v>0.218108</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0865667</v>
+        <v>0.0878444</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0897608</v>
+        <v>0.09210119999999999</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.097164</v>
+        <v>0.0908863</v>
       </c>
       <c r="C53" t="n">
-        <v>0.100787</v>
+        <v>0.0955594</v>
       </c>
       <c r="D53" t="n">
-        <v>0.224932</v>
+        <v>0.225728</v>
       </c>
       <c r="E53" t="n">
-        <v>0.08609020000000001</v>
+        <v>0.0891921</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0903815</v>
+        <v>0.0920401</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0987088</v>
+        <v>0.0916472</v>
       </c>
       <c r="C54" t="n">
-        <v>0.102994</v>
+        <v>0.0968806</v>
       </c>
       <c r="D54" t="n">
-        <v>0.231671</v>
+        <v>0.232437</v>
       </c>
       <c r="E54" t="n">
-        <v>0.08671810000000001</v>
+        <v>0.0880813</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0905548</v>
+        <v>0.09204859999999999</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.100406</v>
+        <v>0.0944387</v>
       </c>
       <c r="C55" t="n">
-        <v>0.106908</v>
+        <v>0.0992364</v>
       </c>
       <c r="D55" t="n">
-        <v>0.238288</v>
+        <v>0.238925</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0868868</v>
+        <v>0.0895021</v>
       </c>
       <c r="F55" t="n">
-        <v>0.09115379999999999</v>
+        <v>0.0935486</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.103864</v>
+        <v>0.0964188</v>
       </c>
       <c r="C56" t="n">
-        <v>0.108607</v>
+        <v>0.102554</v>
       </c>
       <c r="D56" t="n">
-        <v>0.245029</v>
+        <v>0.245562</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0872381</v>
+        <v>0.0887973</v>
       </c>
       <c r="F56" t="n">
-        <v>0.09244810000000001</v>
+        <v>0.0936989</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.105903</v>
+        <v>0.101353</v>
       </c>
       <c r="C57" t="n">
-        <v>0.113693</v>
+        <v>0.105107</v>
       </c>
       <c r="D57" t="n">
-        <v>0.251187</v>
+        <v>0.251332</v>
       </c>
       <c r="E57" t="n">
-        <v>0.087866</v>
+        <v>0.09047819999999999</v>
       </c>
       <c r="F57" t="n">
-        <v>0.0931714</v>
+        <v>0.09409430000000001</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.113097</v>
+        <v>0.105467</v>
       </c>
       <c r="C58" t="n">
-        <v>0.117529</v>
+        <v>0.112408</v>
       </c>
       <c r="D58" t="n">
-        <v>0.256981</v>
+        <v>0.256888</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0885387</v>
+        <v>0.0906449</v>
       </c>
       <c r="F58" t="n">
-        <v>0.09409389999999999</v>
+        <v>0.0953519</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.117714</v>
+        <v>0.110281</v>
       </c>
       <c r="C59" t="n">
-        <v>0.122071</v>
+        <v>0.119827</v>
       </c>
       <c r="D59" t="n">
-        <v>0.262633</v>
+        <v>0.262348</v>
       </c>
       <c r="E59" t="n">
-        <v>0.08976770000000001</v>
+        <v>0.09177059999999999</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0949091</v>
+        <v>0.09800780000000001</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.12584</v>
+        <v>0.118642</v>
       </c>
       <c r="C60" t="n">
-        <v>0.134043</v>
+        <v>0.128845</v>
       </c>
       <c r="D60" t="n">
-        <v>0.267901</v>
+        <v>0.267524</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0914739</v>
+        <v>0.0933298</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0974052</v>
+        <v>0.0978798</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.135963</v>
+        <v>0.133459</v>
       </c>
       <c r="C61" t="n">
-        <v>0.140752</v>
+        <v>0.138916</v>
       </c>
       <c r="D61" t="n">
-        <v>0.273999</v>
+        <v>0.272674</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0934084</v>
+        <v>0.0964421</v>
       </c>
       <c r="F61" t="n">
-        <v>0.0997902</v>
+        <v>0.101726</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.151038</v>
+        <v>0.144258</v>
       </c>
       <c r="C62" t="n">
-        <v>0.15487</v>
+        <v>0.156505</v>
       </c>
       <c r="D62" t="n">
-        <v>0.279804</v>
+        <v>0.278405</v>
       </c>
       <c r="E62" t="n">
-        <v>0.0970589</v>
+        <v>0.0989318</v>
       </c>
       <c r="F62" t="n">
-        <v>0.103592</v>
+        <v>0.104111</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.171317</v>
+        <v>0.165773</v>
       </c>
       <c r="C63" t="n">
-        <v>0.175252</v>
+        <v>0.178127</v>
       </c>
       <c r="D63" t="n">
-        <v>0.285335</v>
+        <v>0.285399</v>
       </c>
       <c r="E63" t="n">
-        <v>0.102386</v>
+        <v>0.104328</v>
       </c>
       <c r="F63" t="n">
-        <v>0.108213</v>
+        <v>0.110176</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.196649</v>
+        <v>0.195782</v>
       </c>
       <c r="C64" t="n">
-        <v>0.203908</v>
+        <v>0.206336</v>
       </c>
       <c r="D64" t="n">
-        <v>0.208907</v>
+        <v>0.208248</v>
       </c>
       <c r="E64" t="n">
-        <v>0.111255</v>
+        <v>0.112352</v>
       </c>
       <c r="F64" t="n">
-        <v>0.11634</v>
+        <v>0.119317</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.241688</v>
+        <v>0.235976</v>
       </c>
       <c r="C65" t="n">
-        <v>0.245792</v>
+        <v>0.251267</v>
       </c>
       <c r="D65" t="n">
-        <v>0.216234</v>
+        <v>0.217052</v>
       </c>
       <c r="E65" t="n">
-        <v>0.126137</v>
+        <v>0.126424</v>
       </c>
       <c r="F65" t="n">
-        <v>0.132889</v>
+        <v>0.133068</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.285685</v>
+        <v>0.284046</v>
       </c>
       <c r="C66" t="n">
-        <v>0.295538</v>
+        <v>0.297306</v>
       </c>
       <c r="D66" t="n">
-        <v>0.222468</v>
+        <v>0.22669</v>
       </c>
       <c r="E66" t="n">
-        <v>0.093616</v>
+        <v>0.0942244</v>
       </c>
       <c r="F66" t="n">
-        <v>0.09766950000000001</v>
+        <v>0.099549</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.10855</v>
+        <v>0.100317</v>
       </c>
       <c r="C67" t="n">
-        <v>0.112754</v>
+        <v>0.105657</v>
       </c>
       <c r="D67" t="n">
-        <v>0.234596</v>
+        <v>0.235928</v>
       </c>
       <c r="E67" t="n">
-        <v>0.09430189999999999</v>
+        <v>0.0946603</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0982326</v>
+        <v>0.0997352</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.10888</v>
+        <v>0.101467</v>
       </c>
       <c r="C68" t="n">
-        <v>0.116691</v>
+        <v>0.108858</v>
       </c>
       <c r="D68" t="n">
-        <v>0.239601</v>
+        <v>0.246776</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0941554</v>
+        <v>0.0946782</v>
       </c>
       <c r="F68" t="n">
-        <v>0.0988853</v>
+        <v>0.0997531</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.11133</v>
+        <v>0.103813</v>
       </c>
       <c r="C69" t="n">
-        <v>0.117665</v>
+        <v>0.110708</v>
       </c>
       <c r="D69" t="n">
-        <v>0.250012</v>
+        <v>0.253698</v>
       </c>
       <c r="E69" t="n">
-        <v>0.09497559999999999</v>
+        <v>0.0955824</v>
       </c>
       <c r="F69" t="n">
-        <v>0.09997730000000001</v>
+        <v>0.101269</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.115232</v>
+        <v>0.106205</v>
       </c>
       <c r="C70" t="n">
-        <v>0.119517</v>
+        <v>0.113509</v>
       </c>
       <c r="D70" t="n">
-        <v>0.259398</v>
+        <v>0.266388</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0956072</v>
+        <v>0.0961882</v>
       </c>
       <c r="F70" t="n">
-        <v>0.100666</v>
+        <v>0.102506</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.117205</v>
+        <v>0.111327</v>
       </c>
       <c r="C71" t="n">
-        <v>0.123332</v>
+        <v>0.118812</v>
       </c>
       <c r="D71" t="n">
-        <v>0.271079</v>
+        <v>0.278351</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0962466</v>
+        <v>0.0965452</v>
       </c>
       <c r="F71" t="n">
-        <v>0.101662</v>
+        <v>0.102612</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.122168</v>
+        <v>0.116113</v>
       </c>
       <c r="C72" t="n">
-        <v>0.13011</v>
+        <v>0.122947</v>
       </c>
       <c r="D72" t="n">
-        <v>0.282413</v>
+        <v>0.291893</v>
       </c>
       <c r="E72" t="n">
-        <v>0.09682730000000001</v>
+        <v>0.09725979999999999</v>
       </c>
       <c r="F72" t="n">
-        <v>0.103158</v>
+        <v>0.104484</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.126791</v>
+        <v>0.120865</v>
       </c>
       <c r="C73" t="n">
-        <v>0.134908</v>
+        <v>0.129843</v>
       </c>
       <c r="D73" t="n">
-        <v>0.289701</v>
+        <v>0.303923</v>
       </c>
       <c r="E73" t="n">
-        <v>0.097791</v>
+        <v>0.09800540000000001</v>
       </c>
       <c r="F73" t="n">
-        <v>0.104593</v>
+        <v>0.106431</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.136737</v>
+        <v>0.125801</v>
       </c>
       <c r="C74" t="n">
-        <v>0.1428</v>
+        <v>0.137884</v>
       </c>
       <c r="D74" t="n">
-        <v>0.306112</v>
+        <v>0.314674</v>
       </c>
       <c r="E74" t="n">
-        <v>0.09963080000000001</v>
+        <v>0.100373</v>
       </c>
       <c r="F74" t="n">
-        <v>0.106708</v>
+        <v>0.108068</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.144214</v>
+        <v>0.137488</v>
       </c>
       <c r="C75" t="n">
-        <v>0.153345</v>
+        <v>0.148961</v>
       </c>
       <c r="D75" t="n">
-        <v>0.320103</v>
+        <v>0.325923</v>
       </c>
       <c r="E75" t="n">
-        <v>0.101938</v>
+        <v>0.10208</v>
       </c>
       <c r="F75" t="n">
-        <v>0.109374</v>
+        <v>0.110362</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.157124</v>
+        <v>0.151313</v>
       </c>
       <c r="C76" t="n">
-        <v>0.167582</v>
+        <v>0.163791</v>
       </c>
       <c r="D76" t="n">
-        <v>0.333727</v>
+        <v>0.34583</v>
       </c>
       <c r="E76" t="n">
-        <v>0.104299</v>
+        <v>0.104934</v>
       </c>
       <c r="F76" t="n">
-        <v>0.112958</v>
+        <v>0.115663</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.183642</v>
+        <v>0.178286</v>
       </c>
       <c r="C77" t="n">
-        <v>0.18869</v>
+        <v>0.185701</v>
       </c>
       <c r="D77" t="n">
-        <v>0.348112</v>
+        <v>0.363657</v>
       </c>
       <c r="E77" t="n">
-        <v>0.109492</v>
+        <v>0.110228</v>
       </c>
       <c r="F77" t="n">
-        <v>0.118203</v>
+        <v>0.12065</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.207401</v>
+        <v>0.208341</v>
       </c>
       <c r="C78" t="n">
-        <v>0.219189</v>
+        <v>0.21628</v>
       </c>
       <c r="D78" t="n">
-        <v>0.270091</v>
+        <v>0.27786</v>
       </c>
       <c r="E78" t="n">
-        <v>0.116406</v>
+        <v>0.117657</v>
       </c>
       <c r="F78" t="n">
-        <v>0.126078</v>
+        <v>0.129029</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.252193</v>
+        <v>0.240281</v>
       </c>
       <c r="C79" t="n">
-        <v>0.258308</v>
+        <v>0.265382</v>
       </c>
       <c r="D79" t="n">
-        <v>0.286588</v>
+        <v>0.295418</v>
       </c>
       <c r="E79" t="n">
-        <v>0.131114</v>
+        <v>0.130883</v>
       </c>
       <c r="F79" t="n">
-        <v>0.141843</v>
+        <v>0.144963</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.294576</v>
+        <v>0.30014</v>
       </c>
       <c r="C80" t="n">
-        <v>0.31588</v>
+        <v>0.329085</v>
       </c>
       <c r="D80" t="n">
-        <v>0.306528</v>
+        <v>0.31467</v>
       </c>
       <c r="E80" t="n">
-        <v>0.10176</v>
+        <v>0.102156</v>
       </c>
       <c r="F80" t="n">
-        <v>0.106234</v>
+        <v>0.108113</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.120211</v>
+        <v>0.113213</v>
       </c>
       <c r="C81" t="n">
-        <v>0.125989</v>
+        <v>0.122848</v>
       </c>
       <c r="D81" t="n">
-        <v>0.325926</v>
+        <v>0.328402</v>
       </c>
       <c r="E81" t="n">
-        <v>0.102265</v>
+        <v>0.102915</v>
       </c>
       <c r="F81" t="n">
-        <v>0.107549</v>
+        <v>0.109914</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.122162</v>
+        <v>0.114654</v>
       </c>
       <c r="C82" t="n">
-        <v>0.12833</v>
+        <v>0.124047</v>
       </c>
       <c r="D82" t="n">
-        <v>0.346155</v>
+        <v>0.349228</v>
       </c>
       <c r="E82" t="n">
-        <v>0.10256</v>
+        <v>0.103614</v>
       </c>
       <c r="F82" t="n">
-        <v>0.107728</v>
+        <v>0.110837</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.123237</v>
+        <v>0.117114</v>
       </c>
       <c r="C83" t="n">
-        <v>0.130791</v>
+        <v>0.128055</v>
       </c>
       <c r="D83" t="n">
-        <v>0.368528</v>
+        <v>0.369883</v>
       </c>
       <c r="E83" t="n">
-        <v>0.103088</v>
+        <v>0.104078</v>
       </c>
       <c r="F83" t="n">
-        <v>0.108669</v>
+        <v>0.11251</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.126615</v>
+        <v>0.119966</v>
       </c>
       <c r="C84" t="n">
-        <v>0.133673</v>
+        <v>0.131631</v>
       </c>
       <c r="D84" t="n">
-        <v>0.389271</v>
+        <v>0.390586</v>
       </c>
       <c r="E84" t="n">
-        <v>0.103915</v>
+        <v>0.10518</v>
       </c>
       <c r="F84" t="n">
-        <v>0.109668</v>
+        <v>0.114227</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.128914</v>
+        <v>0.125429</v>
       </c>
       <c r="C85" t="n">
-        <v>0.137585</v>
+        <v>0.137617</v>
       </c>
       <c r="D85" t="n">
-        <v>0.411917</v>
+        <v>0.411291</v>
       </c>
       <c r="E85" t="n">
-        <v>0.104189</v>
+        <v>0.106372</v>
       </c>
       <c r="F85" t="n">
-        <v>0.11174</v>
+        <v>0.11727</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.133293</v>
+        <v>0.129369</v>
       </c>
       <c r="C86" t="n">
-        <v>0.14285</v>
+        <v>0.142907</v>
       </c>
       <c r="D86" t="n">
-        <v>0.435292</v>
+        <v>0.43437</v>
       </c>
       <c r="E86" t="n">
-        <v>0.105097</v>
+        <v>0.108123</v>
       </c>
       <c r="F86" t="n">
-        <v>0.11369</v>
+        <v>0.11926</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.139157</v>
+        <v>0.13532</v>
       </c>
       <c r="C87" t="n">
-        <v>0.150389</v>
+        <v>0.15289</v>
       </c>
       <c r="D87" t="n">
-        <v>0.459233</v>
+        <v>0.455195</v>
       </c>
       <c r="E87" t="n">
-        <v>0.106577</v>
+        <v>0.109777</v>
       </c>
       <c r="F87" t="n">
-        <v>0.115505</v>
+        <v>0.124012</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.146719</v>
+        <v>0.143106</v>
       </c>
       <c r="C88" t="n">
-        <v>0.159902</v>
+        <v>0.162792</v>
       </c>
       <c r="D88" t="n">
-        <v>0.483754</v>
+        <v>0.477743</v>
       </c>
       <c r="E88" t="n">
-        <v>0.107852</v>
+        <v>0.112043</v>
       </c>
       <c r="F88" t="n">
-        <v>0.118254</v>
+        <v>0.127591</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.159687</v>
+        <v>0.154802</v>
       </c>
       <c r="C89" t="n">
-        <v>0.176009</v>
+        <v>0.179507</v>
       </c>
       <c r="D89" t="n">
-        <v>0.50885</v>
+        <v>0.50251</v>
       </c>
       <c r="E89" t="n">
-        <v>0.109854</v>
+        <v>0.114867</v>
       </c>
       <c r="F89" t="n">
-        <v>0.122841</v>
+        <v>0.132598</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.17014</v>
+        <v>0.169476</v>
       </c>
       <c r="C90" t="n">
-        <v>0.191796</v>
+        <v>0.199015</v>
       </c>
       <c r="D90" t="n">
-        <v>0.534887</v>
+        <v>0.526114</v>
       </c>
       <c r="E90" t="n">
-        <v>0.113589</v>
+        <v>0.11997</v>
       </c>
       <c r="F90" t="n">
-        <v>0.128643</v>
+        <v>0.139758</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.189479</v>
+        <v>0.191537</v>
       </c>
       <c r="C91" t="n">
-        <v>0.222835</v>
+        <v>0.220989</v>
       </c>
       <c r="D91" t="n">
-        <v>0.562858</v>
+        <v>0.551684</v>
       </c>
       <c r="E91" t="n">
-        <v>0.118533</v>
+        <v>0.126012</v>
       </c>
       <c r="F91" t="n">
-        <v>0.137019</v>
+        <v>0.148815</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.217333</v>
+        <v>0.219852</v>
       </c>
       <c r="C92" t="n">
-        <v>0.255442</v>
+        <v>0.260514</v>
       </c>
       <c r="D92" t="n">
-        <v>0.421638</v>
+        <v>0.41747</v>
       </c>
       <c r="E92" t="n">
-        <v>0.126281</v>
+        <v>0.134538</v>
       </c>
       <c r="F92" t="n">
-        <v>0.149711</v>
+        <v>0.159356</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.267988</v>
+        <v>0.266886</v>
       </c>
       <c r="C93" t="n">
-        <v>0.310812</v>
+        <v>0.304632</v>
       </c>
       <c r="D93" t="n">
-        <v>0.440661</v>
+        <v>0.434912</v>
       </c>
       <c r="E93" t="n">
-        <v>0.139936</v>
+        <v>0.14896</v>
       </c>
       <c r="F93" t="n">
-        <v>0.168376</v>
+        <v>0.179132</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.327899</v>
+        <v>0.318049</v>
       </c>
       <c r="C94" t="n">
-        <v>0.390124</v>
+        <v>0.37605</v>
       </c>
       <c r="D94" t="n">
-        <v>0.45994</v>
+        <v>0.453259</v>
       </c>
       <c r="E94" t="n">
-        <v>0.107598</v>
+        <v>0.113278</v>
       </c>
       <c r="F94" t="n">
-        <v>0.12093</v>
+        <v>0.129037</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.128748</v>
+        <v>0.126723</v>
       </c>
       <c r="C95" t="n">
-        <v>0.145247</v>
+        <v>0.147224</v>
       </c>
       <c r="D95" t="n">
-        <v>0.479408</v>
+        <v>0.473725</v>
       </c>
       <c r="E95" t="n">
-        <v>0.108706</v>
+        <v>0.11472</v>
       </c>
       <c r="F95" t="n">
-        <v>0.123663</v>
+        <v>0.132356</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.132248</v>
+        <v>0.129584</v>
       </c>
       <c r="C96" t="n">
-        <v>0.150416</v>
+        <v>0.150742</v>
       </c>
       <c r="D96" t="n">
-        <v>0.500299</v>
+        <v>0.493364</v>
       </c>
       <c r="E96" t="n">
-        <v>0.110261</v>
+        <v>0.116864</v>
       </c>
       <c r="F96" t="n">
-        <v>0.127629</v>
+        <v>0.13545</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.133859</v>
+        <v>0.133061</v>
       </c>
       <c r="C97" t="n">
-        <v>0.156454</v>
+        <v>0.155879</v>
       </c>
       <c r="D97" t="n">
-        <v>0.520953</v>
+        <v>0.515964</v>
       </c>
       <c r="E97" t="n">
-        <v>0.112214</v>
+        <v>0.118203</v>
       </c>
       <c r="F97" t="n">
-        <v>0.132499</v>
+        <v>0.138956</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.137871</v>
+        <v>0.136865</v>
       </c>
       <c r="C98" t="n">
-        <v>0.164733</v>
+        <v>0.161201</v>
       </c>
       <c r="D98" t="n">
-        <v>0.543405</v>
+        <v>0.535254</v>
       </c>
       <c r="E98" t="n">
-        <v>0.114332</v>
+        <v>0.120612</v>
       </c>
       <c r="F98" t="n">
-        <v>0.138376</v>
+        <v>0.141496</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.143235</v>
+        <v>0.141496</v>
       </c>
       <c r="C99" t="n">
-        <v>0.17423</v>
+        <v>0.16815</v>
       </c>
       <c r="D99" t="n">
-        <v>0.563623</v>
+        <v>0.559078</v>
       </c>
       <c r="E99" t="n">
-        <v>0.116929</v>
+        <v>0.122423</v>
       </c>
       <c r="F99" t="n">
-        <v>0.144152</v>
+        <v>0.14524</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.151135</v>
+        <v>0.146655</v>
       </c>
       <c r="C100" t="n">
-        <v>0.186735</v>
+        <v>0.175314</v>
       </c>
       <c r="D100" t="n">
-        <v>0.588762</v>
+        <v>0.581534</v>
       </c>
       <c r="E100" t="n">
-        <v>0.119087</v>
+        <v>0.124585</v>
       </c>
       <c r="F100" t="n">
-        <v>0.151338</v>
+        <v>0.148124</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.158376</v>
+        <v>0.153485</v>
       </c>
       <c r="C101" t="n">
-        <v>0.198115</v>
+        <v>0.184093</v>
       </c>
       <c r="D101" t="n">
-        <v>0.6129829999999999</v>
+        <v>0.602956</v>
       </c>
       <c r="E101" t="n">
-        <v>0.123276</v>
+        <v>0.126933</v>
       </c>
       <c r="F101" t="n">
-        <v>0.157328</v>
+        <v>0.152599</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.169796</v>
+        <v>0.162309</v>
       </c>
       <c r="C102" t="n">
-        <v>0.21508</v>
+        <v>0.19647</v>
       </c>
       <c r="D102" t="n">
-        <v>0.637775</v>
+        <v>0.627831</v>
       </c>
       <c r="E102" t="n">
-        <v>0.127684</v>
+        <v>0.129801</v>
       </c>
       <c r="F102" t="n">
-        <v>0.164686</v>
+        <v>0.156893</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.183446</v>
+        <v>0.172943</v>
       </c>
       <c r="C103" t="n">
-        <v>0.230885</v>
+        <v>0.212566</v>
       </c>
       <c r="D103" t="n">
-        <v>0.664764</v>
+        <v>0.653798</v>
       </c>
       <c r="E103" t="n">
-        <v>0.132895</v>
+        <v>0.131952</v>
       </c>
       <c r="F103" t="n">
-        <v>0.172531</v>
+        <v>0.162266</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.200971</v>
+        <v>0.187893</v>
       </c>
       <c r="C104" t="n">
-        <v>0.25311</v>
+        <v>0.23296</v>
       </c>
       <c r="D104" t="n">
-        <v>0.691976</v>
+        <v>0.67841</v>
       </c>
       <c r="E104" t="n">
-        <v>0.138966</v>
+        <v>0.13719</v>
       </c>
       <c r="F104" t="n">
-        <v>0.181154</v>
+        <v>0.169689</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.223651</v>
+        <v>0.211697</v>
       </c>
       <c r="C105" t="n">
-        <v>0.279828</v>
+        <v>0.267433</v>
       </c>
       <c r="D105" t="n">
-        <v>0.723005</v>
+        <v>0.708789</v>
       </c>
       <c r="E105" t="n">
-        <v>0.147415</v>
+        <v>0.1429</v>
       </c>
       <c r="F105" t="n">
-        <v>0.191528</v>
+        <v>0.179637</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.254785</v>
+        <v>0.238412</v>
       </c>
       <c r="C106" t="n">
-        <v>0.319132</v>
+        <v>0.30304</v>
       </c>
       <c r="D106" t="n">
-        <v>0.756235</v>
+        <v>0.737688</v>
       </c>
       <c r="E106" t="n">
-        <v>0.159742</v>
+        <v>0.149451</v>
       </c>
       <c r="F106" t="n">
-        <v>0.205591</v>
+        <v>0.194297</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.307128</v>
+        <v>0.284533</v>
       </c>
       <c r="C107" t="n">
-        <v>0.370042</v>
+        <v>0.360176</v>
       </c>
       <c r="D107" t="n">
-        <v>0.594198</v>
+        <v>0.599317</v>
       </c>
       <c r="E107" t="n">
-        <v>0.174103</v>
+        <v>0.165813</v>
       </c>
       <c r="F107" t="n">
-        <v>0.224243</v>
+        <v>0.215562</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.363043</v>
+        <v>0.341716</v>
       </c>
       <c r="C108" t="n">
-        <v>0.447157</v>
+        <v>0.440451</v>
       </c>
       <c r="D108" t="n">
-        <v>0.617595</v>
+        <v>0.623019</v>
       </c>
       <c r="E108" t="n">
-        <v>0.129082</v>
+        <v>0.122774</v>
       </c>
       <c r="F108" t="n">
-        <v>0.15949</v>
+        <v>0.146699</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.450133</v>
+        <v>0.428129</v>
       </c>
       <c r="C109" t="n">
-        <v>0.5615830000000001</v>
+        <v>0.561115</v>
       </c>
       <c r="D109" t="n">
-        <v>0.6395189999999999</v>
+        <v>0.646257</v>
       </c>
       <c r="E109" t="n">
-        <v>0.131253</v>
+        <v>0.124175</v>
       </c>
       <c r="F109" t="n">
-        <v>0.1633</v>
+        <v>0.150642</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.154819</v>
+        <v>0.138928</v>
       </c>
       <c r="C110" t="n">
-        <v>0.189519</v>
+        <v>0.16758</v>
       </c>
       <c r="D110" t="n">
-        <v>0.6614719999999999</v>
+        <v>0.671797</v>
       </c>
       <c r="E110" t="n">
-        <v>0.134048</v>
+        <v>0.125343</v>
       </c>
       <c r="F110" t="n">
-        <v>0.166992</v>
+        <v>0.153674</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.158538</v>
+        <v>0.141696</v>
       </c>
       <c r="C111" t="n">
-        <v>0.194433</v>
+        <v>0.177382</v>
       </c>
       <c r="D111" t="n">
-        <v>0.687651</v>
+        <v>0.696195</v>
       </c>
       <c r="E111" t="n">
-        <v>0.136207</v>
+        <v>0.127394</v>
       </c>
       <c r="F111" t="n">
-        <v>0.171045</v>
+        <v>0.159746</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.163082</v>
+        <v>0.145783</v>
       </c>
       <c r="C112" t="n">
-        <v>0.202273</v>
+        <v>0.18384</v>
       </c>
       <c r="D112" t="n">
-        <v>0.7133699999999999</v>
+        <v>0.722479</v>
       </c>
       <c r="E112" t="n">
-        <v>0.138507</v>
+        <v>0.129401</v>
       </c>
       <c r="F112" t="n">
-        <v>0.174688</v>
+        <v>0.164341</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.168392</v>
+        <v>0.150894</v>
       </c>
       <c r="C113" t="n">
-        <v>0.207988</v>
+        <v>0.194225</v>
       </c>
       <c r="D113" t="n">
-        <v>0.740206</v>
+        <v>0.749044</v>
       </c>
       <c r="E113" t="n">
-        <v>0.141474</v>
+        <v>0.13162</v>
       </c>
       <c r="F113" t="n">
-        <v>0.17878</v>
+        <v>0.170806</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.174763</v>
+        <v>0.155901</v>
       </c>
       <c r="C114" t="n">
-        <v>0.218572</v>
+        <v>0.204231</v>
       </c>
       <c r="D114" t="n">
-        <v>0.766764</v>
+        <v>0.776711</v>
       </c>
       <c r="E114" t="n">
-        <v>0.143652</v>
+        <v>0.130379</v>
       </c>
       <c r="F114" t="n">
-        <v>0.183178</v>
+        <v>0.17562</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.182388</v>
+        <v>0.164686</v>
       </c>
       <c r="C115" t="n">
-        <v>0.227639</v>
+        <v>0.216319</v>
       </c>
       <c r="D115" t="n">
-        <v>0.793699</v>
+        <v>0.805486</v>
       </c>
       <c r="E115" t="n">
-        <v>0.14665</v>
+        <v>0.136625</v>
       </c>
       <c r="F115" t="n">
-        <v>0.188056</v>
+        <v>0.183263</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.191822</v>
+        <v>0.171481</v>
       </c>
       <c r="C116" t="n">
-        <v>0.239832</v>
+        <v>0.23093</v>
       </c>
       <c r="D116" t="n">
-        <v>0.821994</v>
+        <v>0.8328759999999999</v>
       </c>
       <c r="E116" t="n">
-        <v>0.149934</v>
+        <v>0.140689</v>
       </c>
       <c r="F116" t="n">
-        <v>0.193323</v>
+        <v>0.189737</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.203914</v>
+        <v>0.185418</v>
       </c>
       <c r="C117" t="n">
-        <v>0.256025</v>
+        <v>0.247978</v>
       </c>
       <c r="D117" t="n">
-        <v>0.851566</v>
+        <v>0.85438</v>
       </c>
       <c r="E117" t="n">
-        <v>0.153847</v>
+        <v>0.145289</v>
       </c>
       <c r="F117" t="n">
-        <v>0.199911</v>
+        <v>0.197354</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.219369</v>
+        <v>0.201747</v>
       </c>
       <c r="C118" t="n">
-        <v>0.276529</v>
+        <v>0.270251</v>
       </c>
       <c r="D118" t="n">
-        <v>0.880243</v>
+        <v>0.883064</v>
       </c>
       <c r="E118" t="n">
-        <v>0.158857</v>
+        <v>0.151603</v>
       </c>
       <c r="F118" t="n">
-        <v>0.207368</v>
+        <v>0.206055</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.240254</v>
+        <v>0.22872</v>
       </c>
       <c r="C119" t="n">
-        <v>0.304006</v>
+        <v>0.298854</v>
       </c>
       <c r="D119" t="n">
-        <v>0.911983</v>
+        <v>0.924185</v>
       </c>
       <c r="E119" t="n">
-        <v>0.165266</v>
+        <v>0.160582</v>
       </c>
       <c r="F119" t="n">
-        <v>0.216558</v>
+        <v>0.216535</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.26935</v>
+        <v>0.259889</v>
       </c>
       <c r="C120" t="n">
-        <v>0.341183</v>
+        <v>0.336768</v>
       </c>
       <c r="D120" t="n">
-        <v>0.944621</v>
+        <v>0.9555169999999999</v>
       </c>
       <c r="E120" t="n">
-        <v>0.174598</v>
+        <v>0.171191</v>
       </c>
       <c r="F120" t="n">
-        <v>0.229763</v>
+        <v>0.23098</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.315599</v>
+        <v>0.305207</v>
       </c>
       <c r="C121" t="n">
-        <v>0.396869</v>
+        <v>0.390469</v>
       </c>
       <c r="D121" t="n">
-        <v>0.683569</v>
+        <v>0.694061</v>
       </c>
       <c r="E121" t="n">
-        <v>0.188549</v>
+        <v>0.187296</v>
       </c>
       <c r="F121" t="n">
-        <v>0.248646</v>
+        <v>0.250431</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.372458</v>
+        <v>0.366601</v>
       </c>
       <c r="C122" t="n">
-        <v>0.483687</v>
+        <v>0.476235</v>
       </c>
       <c r="D122" t="n">
-        <v>0.705874</v>
+        <v>0.71607</v>
       </c>
       <c r="E122" t="n">
-        <v>0.211729</v>
+        <v>0.210731</v>
       </c>
       <c r="F122" t="n">
-        <v>0.279252</v>
+        <v>0.281915</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.473987</v>
+        <v>0.460584</v>
       </c>
       <c r="C123" t="n">
-        <v>0.598539</v>
+        <v>0.597248</v>
       </c>
       <c r="D123" t="n">
-        <v>0.728479</v>
+        <v>0.739689</v>
       </c>
       <c r="E123" t="n">
-        <v>0.146641</v>
+        <v>0.147846</v>
       </c>
       <c r="F123" t="n">
-        <v>0.185066</v>
+        <v>0.186717</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.16926</v>
+        <v>0.160893</v>
       </c>
       <c r="C124" t="n">
-        <v>0.21224</v>
+        <v>0.195591</v>
       </c>
       <c r="D124" t="n">
-        <v>0.752739</v>
+        <v>0.754309</v>
       </c>
       <c r="E124" t="n">
-        <v>0.153135</v>
+        <v>0.150068</v>
       </c>
       <c r="F124" t="n">
-        <v>0.190246</v>
+        <v>0.189513</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.173153</v>
+        <v>0.167175</v>
       </c>
       <c r="C125" t="n">
-        <v>0.215612</v>
+        <v>0.198541</v>
       </c>
       <c r="D125" t="n">
-        <v>0.77793</v>
+        <v>0.780214</v>
       </c>
       <c r="E125" t="n">
-        <v>0.149804</v>
+        <v>0.154261</v>
       </c>
       <c r="F125" t="n">
-        <v>0.190012</v>
+        <v>0.191199</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.180774</v>
+        <v>0.169522</v>
       </c>
       <c r="C126" t="n">
-        <v>0.221727</v>
+        <v>0.208388</v>
       </c>
       <c r="D126" t="n">
-        <v>0.804163</v>
+        <v>0.80566</v>
       </c>
       <c r="E126" t="n">
-        <v>0.152283</v>
+        <v>0.154016</v>
       </c>
       <c r="F126" t="n">
-        <v>0.197202</v>
+        <v>0.192551</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.183416</v>
+        <v>0.173131</v>
       </c>
       <c r="C127" t="n">
-        <v>0.230848</v>
+        <v>0.212728</v>
       </c>
       <c r="D127" t="n">
-        <v>0.830915</v>
+        <v>0.845643</v>
       </c>
       <c r="E127" t="n">
-        <v>0.155153</v>
+        <v>0.154948</v>
       </c>
       <c r="F127" t="n">
-        <v>0.202525</v>
+        <v>0.200504</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.188385</v>
+        <v>0.180371</v>
       </c>
       <c r="C128" t="n">
-        <v>0.239511</v>
+        <v>0.236664</v>
       </c>
       <c r="D128" t="n">
-        <v>0.858599</v>
+        <v>0.873957</v>
       </c>
       <c r="E128" t="n">
-        <v>0.161339</v>
+        <v>0.158671</v>
       </c>
       <c r="F128" t="n">
-        <v>0.208455</v>
+        <v>0.205792</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.198117</v>
+        <v>0.178877</v>
       </c>
       <c r="C129" t="n">
-        <v>0.249568</v>
+        <v>0.243839</v>
       </c>
       <c r="D129" t="n">
-        <v>0.88734</v>
+        <v>0.903058</v>
       </c>
       <c r="E129" t="n">
-        <v>0.16378</v>
+        <v>0.167156</v>
       </c>
       <c r="F129" t="n">
-        <v>0.21171</v>
+        <v>0.222591</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.208587</v>
+        <v>0.199547</v>
       </c>
       <c r="C130" t="n">
-        <v>0.262955</v>
+        <v>0.256089</v>
       </c>
       <c r="D130" t="n">
-        <v>0.917223</v>
+        <v>0.93229</v>
       </c>
       <c r="E130" t="n">
-        <v>0.163407</v>
+        <v>0.169522</v>
       </c>
       <c r="F130" t="n">
-        <v>0.216746</v>
+        <v>0.223356</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.219144</v>
+        <v>0.201205</v>
       </c>
       <c r="C131" t="n">
-        <v>0.28583</v>
+        <v>0.275284</v>
       </c>
       <c r="D131" t="n">
-        <v>0.94731</v>
+        <v>0.963009</v>
       </c>
       <c r="E131" t="n">
-        <v>0.169731</v>
+        <v>0.171163</v>
       </c>
       <c r="F131" t="n">
-        <v>0.224644</v>
+        <v>0.223796</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.233654</v>
+        <v>0.223102</v>
       </c>
       <c r="C132" t="n">
-        <v>0.303017</v>
+        <v>0.297595</v>
       </c>
       <c r="D132" t="n">
-        <v>0.979282</v>
+        <v>0.985079</v>
       </c>
       <c r="E132" t="n">
-        <v>0.173823</v>
+        <v>0.171191</v>
       </c>
       <c r="F132" t="n">
-        <v>0.236584</v>
+        <v>0.241226</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.257627</v>
+        <v>0.240137</v>
       </c>
       <c r="C133" t="n">
-        <v>0.331551</v>
+        <v>0.320401</v>
       </c>
       <c r="D133" t="n">
-        <v>1.0116</v>
+        <v>1.02585</v>
       </c>
       <c r="E133" t="n">
-        <v>0.179297</v>
+        <v>0.179963</v>
       </c>
       <c r="F133" t="n">
-        <v>0.240728</v>
+        <v>0.24489</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.286939</v>
+        <v>0.278406</v>
       </c>
       <c r="C134" t="n">
-        <v>0.368619</v>
+        <v>0.34808</v>
       </c>
       <c r="D134" t="n">
-        <v>1.04454</v>
+        <v>1.05823</v>
       </c>
       <c r="E134" t="n">
-        <v>0.189065</v>
+        <v>0.194033</v>
       </c>
       <c r="F134" t="n">
-        <v>0.257097</v>
+        <v>0.256934</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.324738</v>
+        <v>0.319434</v>
       </c>
       <c r="C135" t="n">
-        <v>0.424301</v>
+        <v>0.419932</v>
       </c>
       <c r="D135" t="n">
-        <v>0.7009030000000001</v>
+        <v>0.697608</v>
       </c>
       <c r="E135" t="n">
-        <v>0.201778</v>
+        <v>0.206723</v>
       </c>
       <c r="F135" t="n">
-        <v>0.275524</v>
+        <v>0.271888</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.381444</v>
+        <v>0.380996</v>
       </c>
       <c r="C136" t="n">
-        <v>0.507969</v>
+        <v>0.498454</v>
       </c>
       <c r="D136" t="n">
-        <v>0.719042</v>
+        <v>0.721866</v>
       </c>
       <c r="E136" t="n">
-        <v>0.222649</v>
+        <v>0.22322</v>
       </c>
       <c r="F136" t="n">
-        <v>0.305598</v>
+        <v>0.308519</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.482353</v>
+        <v>0.468659</v>
       </c>
       <c r="C137" t="n">
-        <v>0.629258</v>
+        <v>0.628152</v>
       </c>
       <c r="D137" t="n">
-        <v>0.737899</v>
+        <v>0.740053</v>
       </c>
       <c r="E137" t="n">
-        <v>0.27607</v>
+        <v>0.290704</v>
       </c>
       <c r="F137" t="n">
-        <v>0.322645</v>
+        <v>0.334001</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.314108</v>
+        <v>0.311925</v>
       </c>
       <c r="C138" t="n">
-        <v>0.357654</v>
+        <v>0.348174</v>
       </c>
       <c r="D138" t="n">
-        <v>0.758773</v>
+        <v>0.759186</v>
       </c>
       <c r="E138" t="n">
-        <v>0.277954</v>
+        <v>0.286976</v>
       </c>
       <c r="F138" t="n">
-        <v>0.327675</v>
+        <v>0.32579</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.321323</v>
+        <v>0.311891</v>
       </c>
       <c r="C139" t="n">
-        <v>0.363635</v>
+        <v>0.360872</v>
       </c>
       <c r="D139" t="n">
-        <v>0.779991</v>
+        <v>0.779133</v>
       </c>
       <c r="E139" t="n">
-        <v>0.281569</v>
+        <v>0.278787</v>
       </c>
       <c r="F139" t="n">
-        <v>0.332512</v>
+        <v>0.33135</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.326333</v>
+        <v>0.306207</v>
       </c>
       <c r="C140" t="n">
-        <v>0.373185</v>
+        <v>0.352361</v>
       </c>
       <c r="D140" t="n">
-        <v>0.801628</v>
+        <v>0.800082</v>
       </c>
       <c r="E140" t="n">
-        <v>0.284559</v>
+        <v>0.273191</v>
       </c>
       <c r="F140" t="n">
-        <v>0.338253</v>
+        <v>0.354895</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.327591</v>
+        <v>0.310917</v>
       </c>
       <c r="C141" t="n">
-        <v>0.379817</v>
+        <v>0.370638</v>
       </c>
       <c r="D141" t="n">
-        <v>0.824173</v>
+        <v>0.820237</v>
       </c>
       <c r="E141" t="n">
-        <v>0.286187</v>
+        <v>0.27898</v>
       </c>
       <c r="F141" t="n">
-        <v>0.343384</v>
+        <v>0.353707</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.338226</v>
+        <v>0.317713</v>
       </c>
       <c r="C142" t="n">
-        <v>0.391751</v>
+        <v>0.374102</v>
       </c>
       <c r="D142" t="n">
-        <v>0.848237</v>
+        <v>0.843894</v>
       </c>
       <c r="E142" t="n">
-        <v>0.291221</v>
+        <v>0.312334</v>
       </c>
       <c r="F142" t="n">
-        <v>0.350334</v>
+        <v>0.350636</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.34254</v>
+        <v>0.321339</v>
       </c>
       <c r="C143" t="n">
-        <v>0.401533</v>
+        <v>0.376454</v>
       </c>
       <c r="D143" t="n">
-        <v>0.873367</v>
+        <v>0.8598710000000001</v>
       </c>
       <c r="E143" t="n">
-        <v>0.289508</v>
+        <v>0.304766</v>
       </c>
       <c r="F143" t="n">
-        <v>0.357176</v>
+        <v>0.361514</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Scattered unsuccessful looukp.xlsx
+++ b/clang-x86/Scattered unsuccessful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.09806330000000001</v>
+        <v>0.09799629999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>0.09863089999999999</v>
+        <v>0.09828389999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>0.190727</v>
+        <v>0.191187</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0856813</v>
+        <v>0.0856784</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0855752</v>
+        <v>0.0856278</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.104409</v>
+        <v>0.104311</v>
       </c>
       <c r="C3" t="n">
-        <v>0.105115</v>
+        <v>0.105359</v>
       </c>
       <c r="D3" t="n">
-        <v>0.198841</v>
+        <v>0.19782</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0866518</v>
+        <v>0.0866928</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0865774</v>
+        <v>0.0865326</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.114831</v>
+        <v>0.114766</v>
       </c>
       <c r="C4" t="n">
-        <v>0.11321</v>
+        <v>0.112989</v>
       </c>
       <c r="D4" t="n">
-        <v>0.202431</v>
+        <v>0.203867</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0882116</v>
+        <v>0.0882386</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0879861</v>
+        <v>0.0879337</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.128026</v>
+        <v>0.127861</v>
       </c>
       <c r="C5" t="n">
-        <v>0.12568</v>
+        <v>0.125966</v>
       </c>
       <c r="D5" t="n">
-        <v>0.210985</v>
+        <v>0.211596</v>
       </c>
       <c r="E5" t="n">
-        <v>0.08995930000000001</v>
+        <v>0.08986420000000001</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08960319999999999</v>
+        <v>0.08951290000000001</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.147761</v>
+        <v>0.147617</v>
       </c>
       <c r="C6" t="n">
-        <v>0.146782</v>
+        <v>0.147509</v>
       </c>
       <c r="D6" t="n">
-        <v>0.218474</v>
+        <v>0.219719</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0926056</v>
+        <v>0.09257460000000001</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09195780000000001</v>
+        <v>0.0917794</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.17703</v>
+        <v>0.177101</v>
       </c>
       <c r="C7" t="n">
-        <v>0.175062</v>
+        <v>0.177454</v>
       </c>
       <c r="D7" t="n">
-        <v>0.167823</v>
+        <v>0.16915</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0980345</v>
+        <v>0.09815649999999999</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09792339999999999</v>
+        <v>0.0976798</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.220314</v>
+        <v>0.220439</v>
       </c>
       <c r="C8" t="n">
-        <v>0.212468</v>
+        <v>0.215564</v>
       </c>
       <c r="D8" t="n">
-        <v>0.175459</v>
+        <v>0.17605</v>
       </c>
       <c r="E8" t="n">
-        <v>0.10955</v>
+        <v>0.109576</v>
       </c>
       <c r="F8" t="n">
-        <v>0.110293</v>
+        <v>0.110558</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.261503</v>
+        <v>0.261581</v>
       </c>
       <c r="C9" t="n">
-        <v>0.263796</v>
+        <v>0.268447</v>
       </c>
       <c r="D9" t="n">
-        <v>0.182526</v>
+        <v>0.182272</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0833464</v>
+        <v>0.0833537</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0837514</v>
+        <v>0.0837252</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.08079169999999999</v>
+        <v>0.08076560000000001</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0817377</v>
+        <v>0.0818315</v>
       </c>
       <c r="D10" t="n">
-        <v>0.188921</v>
+        <v>0.191132</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0837432</v>
+        <v>0.08373029999999999</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0842164</v>
+        <v>0.0841176</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0824771</v>
+        <v>0.0824455</v>
       </c>
       <c r="C11" t="n">
-        <v>0.083671</v>
+        <v>0.08373129999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>0.195653</v>
+        <v>0.199033</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0842236</v>
+        <v>0.084124</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0847899</v>
+        <v>0.0847576</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.08439629999999999</v>
+        <v>0.084386</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0856198</v>
+        <v>0.08581569999999999</v>
       </c>
       <c r="D12" t="n">
-        <v>0.203242</v>
+        <v>0.205496</v>
       </c>
       <c r="E12" t="n">
-        <v>0.08445800000000001</v>
+        <v>0.0845156</v>
       </c>
       <c r="F12" t="n">
-        <v>0.085115</v>
+        <v>0.0850426</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.08657769999999999</v>
+        <v>0.08656270000000001</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0877574</v>
+        <v>0.0880215</v>
       </c>
       <c r="D13" t="n">
-        <v>0.208651</v>
+        <v>0.209044</v>
       </c>
       <c r="E13" t="n">
-        <v>0.08474660000000001</v>
+        <v>0.08473749999999999</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08532969999999999</v>
+        <v>0.08537690000000001</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.090096</v>
+        <v>0.0901349</v>
       </c>
       <c r="C14" t="n">
-        <v>0.091017</v>
+        <v>0.0912819</v>
       </c>
       <c r="D14" t="n">
-        <v>0.215494</v>
+        <v>0.216408</v>
       </c>
       <c r="E14" t="n">
-        <v>0.08517230000000001</v>
+        <v>0.0851693</v>
       </c>
       <c r="F14" t="n">
-        <v>0.08575679999999999</v>
+        <v>0.0858213</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0938423</v>
+        <v>0.0937881</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0947228</v>
+        <v>0.0950495</v>
       </c>
       <c r="D15" t="n">
-        <v>0.222797</v>
+        <v>0.222712</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0857134</v>
+        <v>0.0859251</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08652940000000001</v>
+        <v>0.08676010000000001</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0997755</v>
+        <v>0.0998773</v>
       </c>
       <c r="C16" t="n">
-        <v>0.100159</v>
+        <v>0.101019</v>
       </c>
       <c r="D16" t="n">
-        <v>0.229338</v>
+        <v>0.232051</v>
       </c>
       <c r="E16" t="n">
-        <v>0.08622829999999999</v>
+        <v>0.0863602</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0871716</v>
+        <v>0.08774410000000001</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.106377</v>
+        <v>0.106348</v>
       </c>
       <c r="C17" t="n">
-        <v>0.106722</v>
+        <v>0.107395</v>
       </c>
       <c r="D17" t="n">
-        <v>0.234505</v>
+        <v>0.234029</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0873709</v>
+        <v>0.0874924</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0885504</v>
+        <v>0.0891029</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.115964</v>
+        <v>0.116044</v>
       </c>
       <c r="C18" t="n">
-        <v>0.116708</v>
+        <v>0.117622</v>
       </c>
       <c r="D18" t="n">
-        <v>0.239807</v>
+        <v>0.241489</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0888124</v>
+        <v>0.0888959</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0899151</v>
+        <v>0.0903837</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.128792</v>
+        <v>0.128895</v>
       </c>
       <c r="C19" t="n">
-        <v>0.130808</v>
+        <v>0.131494</v>
       </c>
       <c r="D19" t="n">
-        <v>0.246219</v>
+        <v>0.246072</v>
       </c>
       <c r="E19" t="n">
-        <v>0.09089999999999999</v>
+        <v>0.0910458</v>
       </c>
       <c r="F19" t="n">
-        <v>0.09223199999999999</v>
+        <v>0.0927152</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.155054</v>
+        <v>0.147405</v>
       </c>
       <c r="C20" t="n">
-        <v>0.149427</v>
+        <v>0.151339</v>
       </c>
       <c r="D20" t="n">
-        <v>0.252277</v>
+        <v>0.253143</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0940063</v>
+        <v>0.0941652</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0954309</v>
+        <v>0.0957078</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.174582</v>
+        <v>0.1747</v>
       </c>
       <c r="C21" t="n">
-        <v>0.177867</v>
+        <v>0.180752</v>
       </c>
       <c r="D21" t="n">
-        <v>0.187802</v>
+        <v>0.187225</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0996172</v>
+        <v>0.09963760000000001</v>
       </c>
       <c r="F21" t="n">
-        <v>0.101773</v>
+        <v>0.101783</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.212517</v>
+        <v>0.212558</v>
       </c>
       <c r="C22" t="n">
-        <v>0.2147</v>
+        <v>0.214833</v>
       </c>
       <c r="D22" t="n">
-        <v>0.195036</v>
+        <v>0.194058</v>
       </c>
       <c r="E22" t="n">
-        <v>0.111371</v>
+        <v>0.11145</v>
       </c>
       <c r="F22" t="n">
-        <v>0.115382</v>
+        <v>0.114206</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.258231</v>
+        <v>0.256303</v>
       </c>
       <c r="C23" t="n">
-        <v>0.265688</v>
+        <v>0.265918</v>
       </c>
       <c r="D23" t="n">
-        <v>0.20286</v>
+        <v>0.202247</v>
       </c>
       <c r="E23" t="n">
-        <v>0.084615</v>
+        <v>0.08473849999999999</v>
       </c>
       <c r="F23" t="n">
-        <v>0.08535230000000001</v>
+        <v>0.0850631</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0842369</v>
+        <v>0.0839805</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0868845</v>
+        <v>0.086893</v>
       </c>
       <c r="D24" t="n">
-        <v>0.20875</v>
+        <v>0.20857</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0848559</v>
+        <v>0.08492429999999999</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0859714</v>
+        <v>0.08538220000000001</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.084831</v>
+        <v>0.0848851</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0880957</v>
+        <v>0.0878895</v>
       </c>
       <c r="D25" t="n">
-        <v>0.21669</v>
+        <v>0.214828</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0851908</v>
+        <v>0.0851329</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0862528</v>
+        <v>0.0858517</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0869147</v>
+        <v>0.08695609999999999</v>
       </c>
       <c r="C26" t="n">
-        <v>0.09012530000000001</v>
+        <v>0.08992550000000001</v>
       </c>
       <c r="D26" t="n">
-        <v>0.222541</v>
+        <v>0.222297</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0855057</v>
+        <v>0.0854934</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08688</v>
+        <v>0.08638469999999999</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0893989</v>
+        <v>0.08915099999999999</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0926466</v>
+        <v>0.09200270000000001</v>
       </c>
       <c r="D27" t="n">
-        <v>0.230629</v>
+        <v>0.230006</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0858688</v>
+        <v>0.08607480000000001</v>
       </c>
       <c r="F27" t="n">
-        <v>0.08743529999999999</v>
+        <v>0.0870479</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0917772</v>
+        <v>0.09219869999999999</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0948046</v>
+        <v>0.0952711</v>
       </c>
       <c r="D28" t="n">
-        <v>0.236632</v>
+        <v>0.236689</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0863839</v>
+        <v>0.0865887</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0890854</v>
+        <v>0.0876152</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0956838</v>
+        <v>0.0960466</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0992657</v>
+        <v>0.0993091</v>
       </c>
       <c r="D29" t="n">
-        <v>0.245156</v>
+        <v>0.244062</v>
       </c>
       <c r="E29" t="n">
-        <v>0.086988</v>
+        <v>0.0871199</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0891459</v>
+        <v>0.08825669999999999</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.101721</v>
+        <v>0.101194</v>
       </c>
       <c r="C30" t="n">
-        <v>0.105591</v>
+        <v>0.105144</v>
       </c>
       <c r="D30" t="n">
-        <v>0.250726</v>
+        <v>0.248442</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0882927</v>
+        <v>0.0878948</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0895811</v>
+        <v>0.0891853</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.109575</v>
+        <v>0.10899</v>
       </c>
       <c r="C31" t="n">
-        <v>0.111698</v>
+        <v>0.113115</v>
       </c>
       <c r="D31" t="n">
-        <v>0.253743</v>
+        <v>0.253517</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0888212</v>
+        <v>0.0889089</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0910265</v>
+        <v>0.0904645</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.117764</v>
+        <v>0.117755</v>
       </c>
       <c r="C32" t="n">
-        <v>0.120521</v>
+        <v>0.120373</v>
       </c>
       <c r="D32" t="n">
-        <v>0.26095</v>
+        <v>0.260234</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0903804</v>
+        <v>0.0904652</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09337429999999999</v>
+        <v>0.0923229</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.130021</v>
+        <v>0.130032</v>
       </c>
       <c r="C33" t="n">
-        <v>0.13506</v>
+        <v>0.132885</v>
       </c>
       <c r="D33" t="n">
-        <v>0.266554</v>
+        <v>0.266416</v>
       </c>
       <c r="E33" t="n">
-        <v>0.09275659999999999</v>
+        <v>0.09285119999999999</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0957938</v>
+        <v>0.09500989999999999</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.147726</v>
+        <v>0.14772</v>
       </c>
       <c r="C34" t="n">
-        <v>0.151676</v>
+        <v>0.15248</v>
       </c>
       <c r="D34" t="n">
-        <v>0.271958</v>
+        <v>0.273069</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0966539</v>
+        <v>0.0969092</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0993285</v>
+        <v>0.0992642</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.172138</v>
+        <v>0.170184</v>
       </c>
       <c r="C35" t="n">
-        <v>0.175318</v>
+        <v>0.174004</v>
       </c>
       <c r="D35" t="n">
-        <v>0.198028</v>
+        <v>0.19788</v>
       </c>
       <c r="E35" t="n">
-        <v>0.103509</v>
+        <v>0.103531</v>
       </c>
       <c r="F35" t="n">
-        <v>0.106497</v>
+        <v>0.10632</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.205135</v>
+        <v>0.205078</v>
       </c>
       <c r="C36" t="n">
-        <v>0.210984</v>
+        <v>0.2111</v>
       </c>
       <c r="D36" t="n">
-        <v>0.205081</v>
+        <v>0.205106</v>
       </c>
       <c r="E36" t="n">
-        <v>0.114869</v>
+        <v>0.114845</v>
       </c>
       <c r="F36" t="n">
-        <v>0.118604</v>
+        <v>0.117971</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.24589</v>
+        <v>0.244538</v>
       </c>
       <c r="C37" t="n">
-        <v>0.256105</v>
+        <v>0.255967</v>
       </c>
       <c r="D37" t="n">
-        <v>0.212237</v>
+        <v>0.2127</v>
       </c>
       <c r="E37" t="n">
-        <v>0.08546670000000001</v>
+        <v>0.0855919</v>
       </c>
       <c r="F37" t="n">
-        <v>0.086891</v>
+        <v>0.08672970000000001</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0860204</v>
+        <v>0.0860539</v>
       </c>
       <c r="C38" t="n">
-        <v>0.08933290000000001</v>
+        <v>0.089186</v>
       </c>
       <c r="D38" t="n">
-        <v>0.22071</v>
+        <v>0.220509</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0858799</v>
+        <v>0.0858589</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0873133</v>
+        <v>0.0868835</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0876099</v>
+        <v>0.08750239999999999</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0908294</v>
+        <v>0.09100370000000001</v>
       </c>
       <c r="D39" t="n">
-        <v>0.227994</v>
+        <v>0.228155</v>
       </c>
       <c r="E39" t="n">
-        <v>0.086064</v>
+        <v>0.08617809999999999</v>
       </c>
       <c r="F39" t="n">
-        <v>0.08802359999999999</v>
+        <v>0.0875306</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0890283</v>
+        <v>0.0890982</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0927188</v>
+        <v>0.0928655</v>
       </c>
       <c r="D40" t="n">
-        <v>0.23539</v>
+        <v>0.235593</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0864267</v>
+        <v>0.0864109</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0882188</v>
+        <v>0.0881506</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.09115180000000001</v>
+        <v>0.09123340000000001</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0947973</v>
+        <v>0.094806</v>
       </c>
       <c r="D41" t="n">
-        <v>0.24177</v>
+        <v>0.241668</v>
       </c>
       <c r="E41" t="n">
-        <v>0.08681220000000001</v>
+        <v>0.0868794</v>
       </c>
       <c r="F41" t="n">
-        <v>0.08889809999999999</v>
+        <v>0.08914320000000001</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0940512</v>
+        <v>0.0941473</v>
       </c>
       <c r="C42" t="n">
-        <v>0.098054</v>
+        <v>0.09850730000000001</v>
       </c>
       <c r="D42" t="n">
-        <v>0.24981</v>
+        <v>0.249726</v>
       </c>
       <c r="E42" t="n">
-        <v>0.087591</v>
+        <v>0.0873492</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0895976</v>
+        <v>0.0891609</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.09802520000000001</v>
+        <v>0.09841569999999999</v>
       </c>
       <c r="C43" t="n">
-        <v>0.102227</v>
+        <v>0.101679</v>
       </c>
       <c r="D43" t="n">
-        <v>0.256445</v>
+        <v>0.255845</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0886049</v>
+        <v>0.0902111</v>
       </c>
       <c r="F43" t="n">
-        <v>0.09114700000000001</v>
+        <v>0.09000329999999999</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.103092</v>
+        <v>0.102827</v>
       </c>
       <c r="C44" t="n">
-        <v>0.10717</v>
+        <v>0.106694</v>
       </c>
       <c r="D44" t="n">
-        <v>0.262472</v>
+        <v>0.261696</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0886214</v>
+        <v>0.0886715</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0920484</v>
+        <v>0.0912256</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.109555</v>
+        <v>0.109532</v>
       </c>
       <c r="C45" t="n">
-        <v>0.11396</v>
+        <v>0.113526</v>
       </c>
       <c r="D45" t="n">
-        <v>0.268749</v>
+        <v>0.268089</v>
       </c>
       <c r="E45" t="n">
-        <v>0.08968669999999999</v>
+        <v>0.089835</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0935231</v>
+        <v>0.0925319</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.119015</v>
+        <v>0.118877</v>
       </c>
       <c r="C46" t="n">
-        <v>0.125367</v>
+        <v>0.123343</v>
       </c>
       <c r="D46" t="n">
-        <v>0.273978</v>
+        <v>0.273804</v>
       </c>
       <c r="E46" t="n">
-        <v>0.091114</v>
+        <v>0.0912294</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0949671</v>
+        <v>0.0944492</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.129821</v>
+        <v>0.129714</v>
       </c>
       <c r="C47" t="n">
-        <v>0.137021</v>
+        <v>0.135093</v>
       </c>
       <c r="D47" t="n">
-        <v>0.27942</v>
+        <v>0.279729</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0934253</v>
+        <v>0.09354990000000001</v>
       </c>
       <c r="F47" t="n">
-        <v>0.098149</v>
+        <v>0.097105</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.145985</v>
+        <v>0.145476</v>
       </c>
       <c r="C48" t="n">
-        <v>0.152009</v>
+        <v>0.150362</v>
       </c>
       <c r="D48" t="n">
-        <v>0.285362</v>
+        <v>0.285113</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0968789</v>
+        <v>0.09692720000000001</v>
       </c>
       <c r="F48" t="n">
-        <v>0.101571</v>
+        <v>0.100883</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.16854</v>
+        <v>0.16852</v>
       </c>
       <c r="C49" t="n">
-        <v>0.173605</v>
+        <v>0.174389</v>
       </c>
       <c r="D49" t="n">
-        <v>0.29121</v>
+        <v>0.291572</v>
       </c>
       <c r="E49" t="n">
-        <v>0.102595</v>
+        <v>0.103612</v>
       </c>
       <c r="F49" t="n">
-        <v>0.106664</v>
+        <v>0.106566</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.200556</v>
+        <v>0.199501</v>
       </c>
       <c r="C50" t="n">
-        <v>0.205284</v>
+        <v>0.204227</v>
       </c>
       <c r="D50" t="n">
-        <v>0.203906</v>
+        <v>0.203434</v>
       </c>
       <c r="E50" t="n">
-        <v>0.112477</v>
+        <v>0.112329</v>
       </c>
       <c r="F50" t="n">
-        <v>0.116716</v>
+        <v>0.116718</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.253524</v>
+        <v>0.243411</v>
       </c>
       <c r="C51" t="n">
-        <v>0.248855</v>
+        <v>0.249709</v>
       </c>
       <c r="D51" t="n">
-        <v>0.210836</v>
+        <v>0.210561</v>
       </c>
       <c r="E51" t="n">
-        <v>0.08805689999999999</v>
+        <v>0.0876214</v>
       </c>
       <c r="F51" t="n">
-        <v>0.091362</v>
+        <v>0.0907983</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.287547</v>
+        <v>0.287676</v>
       </c>
       <c r="C52" t="n">
-        <v>0.298067</v>
+        <v>0.299874</v>
       </c>
       <c r="D52" t="n">
-        <v>0.218108</v>
+        <v>0.217641</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0878444</v>
+        <v>0.0878594</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09210119999999999</v>
+        <v>0.0909087</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0908863</v>
+        <v>0.0900059</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0955594</v>
+        <v>0.0947369</v>
       </c>
       <c r="D53" t="n">
-        <v>0.225728</v>
+        <v>0.225</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0891921</v>
+        <v>0.0879476</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0920401</v>
+        <v>0.09112140000000001</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0916472</v>
+        <v>0.090909</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0968806</v>
+        <v>0.09649149999999999</v>
       </c>
       <c r="D54" t="n">
-        <v>0.232437</v>
+        <v>0.232303</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0880813</v>
+        <v>0.0883753</v>
       </c>
       <c r="F54" t="n">
-        <v>0.09204859999999999</v>
+        <v>0.09211999999999999</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0944387</v>
+        <v>0.0938118</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0992364</v>
+        <v>0.09937070000000001</v>
       </c>
       <c r="D55" t="n">
-        <v>0.238925</v>
+        <v>0.239125</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0895021</v>
+        <v>0.0891289</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0935486</v>
+        <v>0.09301039999999999</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0964188</v>
+        <v>0.0960744</v>
       </c>
       <c r="C56" t="n">
-        <v>0.102554</v>
+        <v>0.104148</v>
       </c>
       <c r="D56" t="n">
-        <v>0.245562</v>
+        <v>0.245413</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0887973</v>
+        <v>0.0890214</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0936989</v>
+        <v>0.0928932</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.101353</v>
+        <v>0.100162</v>
       </c>
       <c r="C57" t="n">
-        <v>0.105107</v>
+        <v>0.107024</v>
       </c>
       <c r="D57" t="n">
-        <v>0.251332</v>
+        <v>0.251324</v>
       </c>
       <c r="E57" t="n">
-        <v>0.09047819999999999</v>
+        <v>0.08933389999999999</v>
       </c>
       <c r="F57" t="n">
-        <v>0.09409430000000001</v>
+        <v>0.0937766</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.105467</v>
+        <v>0.106191</v>
       </c>
       <c r="C58" t="n">
-        <v>0.112408</v>
+        <v>0.111074</v>
       </c>
       <c r="D58" t="n">
-        <v>0.256888</v>
+        <v>0.256902</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0906449</v>
+        <v>0.0901732</v>
       </c>
       <c r="F58" t="n">
-        <v>0.0953519</v>
+        <v>0.0948726</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.110281</v>
+        <v>0.111204</v>
       </c>
       <c r="C59" t="n">
-        <v>0.119827</v>
+        <v>0.116817</v>
       </c>
       <c r="D59" t="n">
-        <v>0.262348</v>
+        <v>0.262028</v>
       </c>
       <c r="E59" t="n">
-        <v>0.09177059999999999</v>
+        <v>0.09178649999999999</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09800780000000001</v>
+        <v>0.09554600000000001</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.118642</v>
+        <v>0.118496</v>
       </c>
       <c r="C60" t="n">
-        <v>0.128845</v>
+        <v>0.127202</v>
       </c>
       <c r="D60" t="n">
-        <v>0.267524</v>
+        <v>0.267136</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0933298</v>
+        <v>0.0930883</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0978798</v>
+        <v>0.0979893</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.133459</v>
+        <v>0.128604</v>
       </c>
       <c r="C61" t="n">
-        <v>0.138916</v>
+        <v>0.140314</v>
       </c>
       <c r="D61" t="n">
-        <v>0.272674</v>
+        <v>0.27253</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0964421</v>
+        <v>0.0945314</v>
       </c>
       <c r="F61" t="n">
-        <v>0.101726</v>
+        <v>0.09977</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.144258</v>
+        <v>0.145142</v>
       </c>
       <c r="C62" t="n">
-        <v>0.156505</v>
+        <v>0.151596</v>
       </c>
       <c r="D62" t="n">
-        <v>0.278405</v>
+        <v>0.278209</v>
       </c>
       <c r="E62" t="n">
-        <v>0.0989318</v>
+        <v>0.0983371</v>
       </c>
       <c r="F62" t="n">
-        <v>0.104111</v>
+        <v>0.10342</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.165773</v>
+        <v>0.165533</v>
       </c>
       <c r="C63" t="n">
-        <v>0.178127</v>
+        <v>0.173545</v>
       </c>
       <c r="D63" t="n">
-        <v>0.285399</v>
+        <v>0.283573</v>
       </c>
       <c r="E63" t="n">
-        <v>0.104328</v>
+        <v>0.103603</v>
       </c>
       <c r="F63" t="n">
-        <v>0.110176</v>
+        <v>0.109658</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.195782</v>
+        <v>0.19566</v>
       </c>
       <c r="C64" t="n">
-        <v>0.206336</v>
+        <v>0.200193</v>
       </c>
       <c r="D64" t="n">
-        <v>0.208248</v>
+        <v>0.206783</v>
       </c>
       <c r="E64" t="n">
-        <v>0.112352</v>
+        <v>0.112485</v>
       </c>
       <c r="F64" t="n">
-        <v>0.119317</v>
+        <v>0.117621</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.235976</v>
+        <v>0.232542</v>
       </c>
       <c r="C65" t="n">
-        <v>0.251267</v>
+        <v>0.246691</v>
       </c>
       <c r="D65" t="n">
-        <v>0.217052</v>
+        <v>0.214641</v>
       </c>
       <c r="E65" t="n">
-        <v>0.126424</v>
+        <v>0.126306</v>
       </c>
       <c r="F65" t="n">
-        <v>0.133068</v>
+        <v>0.13244</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.284046</v>
+        <v>0.280488</v>
       </c>
       <c r="C66" t="n">
-        <v>0.297306</v>
+        <v>0.29427</v>
       </c>
       <c r="D66" t="n">
-        <v>0.22669</v>
+        <v>0.222644</v>
       </c>
       <c r="E66" t="n">
-        <v>0.0942244</v>
+        <v>0.0937979</v>
       </c>
       <c r="F66" t="n">
-        <v>0.099549</v>
+        <v>0.0978614</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.100317</v>
+        <v>0.0994351</v>
       </c>
       <c r="C67" t="n">
-        <v>0.105657</v>
+        <v>0.105802</v>
       </c>
       <c r="D67" t="n">
-        <v>0.235928</v>
+        <v>0.234564</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0946603</v>
+        <v>0.0949676</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0997352</v>
+        <v>0.0988947</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.101467</v>
+        <v>0.101358</v>
       </c>
       <c r="C68" t="n">
-        <v>0.108858</v>
+        <v>0.108582</v>
       </c>
       <c r="D68" t="n">
-        <v>0.246776</v>
+        <v>0.241432</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0946782</v>
+        <v>0.0950265</v>
       </c>
       <c r="F68" t="n">
-        <v>0.0997531</v>
+        <v>0.09949520000000001</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.103813</v>
+        <v>0.102695</v>
       </c>
       <c r="C69" t="n">
-        <v>0.110708</v>
+        <v>0.1102</v>
       </c>
       <c r="D69" t="n">
-        <v>0.253698</v>
+        <v>0.252742</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0955824</v>
+        <v>0.0958512</v>
       </c>
       <c r="F69" t="n">
-        <v>0.101269</v>
+        <v>0.100444</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.106205</v>
+        <v>0.10636</v>
       </c>
       <c r="C70" t="n">
-        <v>0.113509</v>
+        <v>0.113614</v>
       </c>
       <c r="D70" t="n">
-        <v>0.266388</v>
+        <v>0.261339</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0961882</v>
+        <v>0.0956809</v>
       </c>
       <c r="F70" t="n">
-        <v>0.102506</v>
+        <v>0.101632</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.111327</v>
+        <v>0.110788</v>
       </c>
       <c r="C71" t="n">
-        <v>0.118812</v>
+        <v>0.119188</v>
       </c>
       <c r="D71" t="n">
-        <v>0.278351</v>
+        <v>0.271119</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0965452</v>
+        <v>0.0969825</v>
       </c>
       <c r="F71" t="n">
-        <v>0.102612</v>
+        <v>0.10248</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.116113</v>
+        <v>0.113892</v>
       </c>
       <c r="C72" t="n">
-        <v>0.122947</v>
+        <v>0.123454</v>
       </c>
       <c r="D72" t="n">
-        <v>0.291893</v>
+        <v>0.282018</v>
       </c>
       <c r="E72" t="n">
-        <v>0.09725979999999999</v>
+        <v>0.0980385</v>
       </c>
       <c r="F72" t="n">
-        <v>0.104484</v>
+        <v>0.103805</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.120865</v>
+        <v>0.119477</v>
       </c>
       <c r="C73" t="n">
-        <v>0.129843</v>
+        <v>0.129339</v>
       </c>
       <c r="D73" t="n">
-        <v>0.303923</v>
+        <v>0.294185</v>
       </c>
       <c r="E73" t="n">
-        <v>0.09800540000000001</v>
+        <v>0.09899719999999999</v>
       </c>
       <c r="F73" t="n">
-        <v>0.106431</v>
+        <v>0.104717</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.125801</v>
+        <v>0.127703</v>
       </c>
       <c r="C74" t="n">
-        <v>0.137884</v>
+        <v>0.138242</v>
       </c>
       <c r="D74" t="n">
-        <v>0.314674</v>
+        <v>0.306589</v>
       </c>
       <c r="E74" t="n">
-        <v>0.100373</v>
+        <v>0.101005</v>
       </c>
       <c r="F74" t="n">
-        <v>0.108068</v>
+        <v>0.107538</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.137488</v>
+        <v>0.138532</v>
       </c>
       <c r="C75" t="n">
-        <v>0.148961</v>
+        <v>0.150271</v>
       </c>
       <c r="D75" t="n">
-        <v>0.325923</v>
+        <v>0.320319</v>
       </c>
       <c r="E75" t="n">
-        <v>0.10208</v>
+        <v>0.103291</v>
       </c>
       <c r="F75" t="n">
-        <v>0.110362</v>
+        <v>0.110252</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.151313</v>
+        <v>0.153126</v>
       </c>
       <c r="C76" t="n">
-        <v>0.163791</v>
+        <v>0.166008</v>
       </c>
       <c r="D76" t="n">
-        <v>0.34583</v>
+        <v>0.333595</v>
       </c>
       <c r="E76" t="n">
-        <v>0.104934</v>
+        <v>0.10599</v>
       </c>
       <c r="F76" t="n">
-        <v>0.115663</v>
+        <v>0.115539</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.178286</v>
+        <v>0.174162</v>
       </c>
       <c r="C77" t="n">
-        <v>0.185701</v>
+        <v>0.185657</v>
       </c>
       <c r="D77" t="n">
-        <v>0.363657</v>
+        <v>0.351555</v>
       </c>
       <c r="E77" t="n">
-        <v>0.110228</v>
+        <v>0.111231</v>
       </c>
       <c r="F77" t="n">
-        <v>0.12065</v>
+        <v>0.120149</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.208341</v>
+        <v>0.207463</v>
       </c>
       <c r="C78" t="n">
-        <v>0.21628</v>
+        <v>0.221691</v>
       </c>
       <c r="D78" t="n">
-        <v>0.27786</v>
+        <v>0.268571</v>
       </c>
       <c r="E78" t="n">
-        <v>0.117657</v>
+        <v>0.118721</v>
       </c>
       <c r="F78" t="n">
-        <v>0.129029</v>
+        <v>0.128707</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.240281</v>
+        <v>0.243574</v>
       </c>
       <c r="C79" t="n">
-        <v>0.265382</v>
+        <v>0.259088</v>
       </c>
       <c r="D79" t="n">
-        <v>0.295418</v>
+        <v>0.286069</v>
       </c>
       <c r="E79" t="n">
-        <v>0.130883</v>
+        <v>0.1334</v>
       </c>
       <c r="F79" t="n">
-        <v>0.144963</v>
+        <v>0.143399</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.30014</v>
+        <v>0.291999</v>
       </c>
       <c r="C80" t="n">
-        <v>0.329085</v>
+        <v>0.319888</v>
       </c>
       <c r="D80" t="n">
-        <v>0.31467</v>
+        <v>0.306444</v>
       </c>
       <c r="E80" t="n">
-        <v>0.102156</v>
+        <v>0.102527</v>
       </c>
       <c r="F80" t="n">
-        <v>0.108113</v>
+        <v>0.107824</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.113213</v>
+        <v>0.112946</v>
       </c>
       <c r="C81" t="n">
-        <v>0.122848</v>
+        <v>0.121531</v>
       </c>
       <c r="D81" t="n">
-        <v>0.328402</v>
+        <v>0.325196</v>
       </c>
       <c r="E81" t="n">
-        <v>0.102915</v>
+        <v>0.103225</v>
       </c>
       <c r="F81" t="n">
-        <v>0.109914</v>
+        <v>0.108937</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.114654</v>
+        <v>0.114988</v>
       </c>
       <c r="C82" t="n">
-        <v>0.124047</v>
+        <v>0.123724</v>
       </c>
       <c r="D82" t="n">
-        <v>0.349228</v>
+        <v>0.346793</v>
       </c>
       <c r="E82" t="n">
-        <v>0.103614</v>
+        <v>0.10409</v>
       </c>
       <c r="F82" t="n">
-        <v>0.110837</v>
+        <v>0.110132</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.117114</v>
+        <v>0.116919</v>
       </c>
       <c r="C83" t="n">
-        <v>0.128055</v>
+        <v>0.126742</v>
       </c>
       <c r="D83" t="n">
-        <v>0.369883</v>
+        <v>0.367714</v>
       </c>
       <c r="E83" t="n">
-        <v>0.104078</v>
+        <v>0.104741</v>
       </c>
       <c r="F83" t="n">
-        <v>0.11251</v>
+        <v>0.111126</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.119966</v>
+        <v>0.120258</v>
       </c>
       <c r="C84" t="n">
-        <v>0.131631</v>
+        <v>0.130336</v>
       </c>
       <c r="D84" t="n">
-        <v>0.390586</v>
+        <v>0.388809</v>
       </c>
       <c r="E84" t="n">
-        <v>0.10518</v>
+        <v>0.105529</v>
       </c>
       <c r="F84" t="n">
-        <v>0.114227</v>
+        <v>0.113291</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.125429</v>
+        <v>0.123351</v>
       </c>
       <c r="C85" t="n">
-        <v>0.137617</v>
+        <v>0.135539</v>
       </c>
       <c r="D85" t="n">
-        <v>0.411291</v>
+        <v>0.41087</v>
       </c>
       <c r="E85" t="n">
-        <v>0.106372</v>
+        <v>0.10629</v>
       </c>
       <c r="F85" t="n">
-        <v>0.11727</v>
+        <v>0.115238</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.129369</v>
+        <v>0.128056</v>
       </c>
       <c r="C86" t="n">
-        <v>0.142907</v>
+        <v>0.142053</v>
       </c>
       <c r="D86" t="n">
-        <v>0.43437</v>
+        <v>0.431225</v>
       </c>
       <c r="E86" t="n">
-        <v>0.108123</v>
+        <v>0.107787</v>
       </c>
       <c r="F86" t="n">
-        <v>0.11926</v>
+        <v>0.118169</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.13532</v>
+        <v>0.135216</v>
       </c>
       <c r="C87" t="n">
-        <v>0.15289</v>
+        <v>0.150729</v>
       </c>
       <c r="D87" t="n">
-        <v>0.455195</v>
+        <v>0.455483</v>
       </c>
       <c r="E87" t="n">
-        <v>0.109777</v>
+        <v>0.109606</v>
       </c>
       <c r="F87" t="n">
-        <v>0.124012</v>
+        <v>0.122002</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.143106</v>
+        <v>0.143676</v>
       </c>
       <c r="C88" t="n">
-        <v>0.162792</v>
+        <v>0.164541</v>
       </c>
       <c r="D88" t="n">
-        <v>0.477743</v>
+        <v>0.478835</v>
       </c>
       <c r="E88" t="n">
-        <v>0.112043</v>
+        <v>0.112284</v>
       </c>
       <c r="F88" t="n">
-        <v>0.127591</v>
+        <v>0.125141</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.154802</v>
+        <v>0.15373</v>
       </c>
       <c r="C89" t="n">
-        <v>0.179507</v>
+        <v>0.175201</v>
       </c>
       <c r="D89" t="n">
-        <v>0.50251</v>
+        <v>0.503673</v>
       </c>
       <c r="E89" t="n">
-        <v>0.114867</v>
+        <v>0.11519</v>
       </c>
       <c r="F89" t="n">
-        <v>0.132598</v>
+        <v>0.131039</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.169476</v>
+        <v>0.168398</v>
       </c>
       <c r="C90" t="n">
-        <v>0.199015</v>
+        <v>0.194499</v>
       </c>
       <c r="D90" t="n">
-        <v>0.526114</v>
+        <v>0.528222</v>
       </c>
       <c r="E90" t="n">
-        <v>0.11997</v>
+        <v>0.117307</v>
       </c>
       <c r="F90" t="n">
-        <v>0.139758</v>
+        <v>0.136608</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.191537</v>
+        <v>0.193367</v>
       </c>
       <c r="C91" t="n">
-        <v>0.220989</v>
+        <v>0.218999</v>
       </c>
       <c r="D91" t="n">
-        <v>0.551684</v>
+        <v>0.554209</v>
       </c>
       <c r="E91" t="n">
-        <v>0.126012</v>
+        <v>0.125426</v>
       </c>
       <c r="F91" t="n">
-        <v>0.148815</v>
+        <v>0.144938</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.219852</v>
+        <v>0.218589</v>
       </c>
       <c r="C92" t="n">
-        <v>0.260514</v>
+        <v>0.258299</v>
       </c>
       <c r="D92" t="n">
-        <v>0.41747</v>
+        <v>0.418005</v>
       </c>
       <c r="E92" t="n">
-        <v>0.134538</v>
+        <v>0.131587</v>
       </c>
       <c r="F92" t="n">
-        <v>0.159356</v>
+        <v>0.157647</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.266886</v>
+        <v>0.268462</v>
       </c>
       <c r="C93" t="n">
-        <v>0.304632</v>
+        <v>0.302713</v>
       </c>
       <c r="D93" t="n">
-        <v>0.434912</v>
+        <v>0.436295</v>
       </c>
       <c r="E93" t="n">
-        <v>0.14896</v>
+        <v>0.149669</v>
       </c>
       <c r="F93" t="n">
-        <v>0.179132</v>
+        <v>0.174225</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.318049</v>
+        <v>0.321992</v>
       </c>
       <c r="C94" t="n">
-        <v>0.37605</v>
+        <v>0.375901</v>
       </c>
       <c r="D94" t="n">
-        <v>0.453259</v>
+        <v>0.455758</v>
       </c>
       <c r="E94" t="n">
-        <v>0.113278</v>
+        <v>0.1118</v>
       </c>
       <c r="F94" t="n">
-        <v>0.129037</v>
+        <v>0.127512</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.126723</v>
+        <v>0.124177</v>
       </c>
       <c r="C95" t="n">
-        <v>0.147224</v>
+        <v>0.145325</v>
       </c>
       <c r="D95" t="n">
-        <v>0.473725</v>
+        <v>0.473292</v>
       </c>
       <c r="E95" t="n">
-        <v>0.11472</v>
+        <v>0.115241</v>
       </c>
       <c r="F95" t="n">
-        <v>0.132356</v>
+        <v>0.130826</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.129584</v>
+        <v>0.130011</v>
       </c>
       <c r="C96" t="n">
-        <v>0.150742</v>
+        <v>0.149132</v>
       </c>
       <c r="D96" t="n">
-        <v>0.493364</v>
+        <v>0.494508</v>
       </c>
       <c r="E96" t="n">
-        <v>0.116864</v>
+        <v>0.11668</v>
       </c>
       <c r="F96" t="n">
-        <v>0.13545</v>
+        <v>0.13328</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.133061</v>
+        <v>0.132147</v>
       </c>
       <c r="C97" t="n">
-        <v>0.155879</v>
+        <v>0.153629</v>
       </c>
       <c r="D97" t="n">
-        <v>0.515964</v>
+        <v>0.515339</v>
       </c>
       <c r="E97" t="n">
-        <v>0.118203</v>
+        <v>0.117727</v>
       </c>
       <c r="F97" t="n">
-        <v>0.138956</v>
+        <v>0.136184</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.136865</v>
+        <v>0.136856</v>
       </c>
       <c r="C98" t="n">
-        <v>0.161201</v>
+        <v>0.158858</v>
       </c>
       <c r="D98" t="n">
-        <v>0.535254</v>
+        <v>0.536508</v>
       </c>
       <c r="E98" t="n">
-        <v>0.120612</v>
+        <v>0.119646</v>
       </c>
       <c r="F98" t="n">
-        <v>0.141496</v>
+        <v>0.139191</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.141496</v>
+        <v>0.138476</v>
       </c>
       <c r="C99" t="n">
-        <v>0.16815</v>
+        <v>0.165177</v>
       </c>
       <c r="D99" t="n">
-        <v>0.559078</v>
+        <v>0.560586</v>
       </c>
       <c r="E99" t="n">
-        <v>0.122423</v>
+        <v>0.122856</v>
       </c>
       <c r="F99" t="n">
-        <v>0.14524</v>
+        <v>0.14278</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.146655</v>
+        <v>0.147103</v>
       </c>
       <c r="C100" t="n">
-        <v>0.175314</v>
+        <v>0.172971</v>
       </c>
       <c r="D100" t="n">
-        <v>0.581534</v>
+        <v>0.581329</v>
       </c>
       <c r="E100" t="n">
-        <v>0.124585</v>
+        <v>0.125153</v>
       </c>
       <c r="F100" t="n">
-        <v>0.148124</v>
+        <v>0.14622</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.153485</v>
+        <v>0.153518</v>
       </c>
       <c r="C101" t="n">
-        <v>0.184093</v>
+        <v>0.183104</v>
       </c>
       <c r="D101" t="n">
-        <v>0.602956</v>
+        <v>0.604212</v>
       </c>
       <c r="E101" t="n">
-        <v>0.126933</v>
+        <v>0.127498</v>
       </c>
       <c r="F101" t="n">
-        <v>0.152599</v>
+        <v>0.150468</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.162309</v>
+        <v>0.161856</v>
       </c>
       <c r="C102" t="n">
-        <v>0.19647</v>
+        <v>0.195897</v>
       </c>
       <c r="D102" t="n">
-        <v>0.627831</v>
+        <v>0.631281</v>
       </c>
       <c r="E102" t="n">
-        <v>0.129801</v>
+        <v>0.129794</v>
       </c>
       <c r="F102" t="n">
-        <v>0.156893</v>
+        <v>0.155823</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.172943</v>
+        <v>0.173262</v>
       </c>
       <c r="C103" t="n">
-        <v>0.212566</v>
+        <v>0.213235</v>
       </c>
       <c r="D103" t="n">
-        <v>0.653798</v>
+        <v>0.653876</v>
       </c>
       <c r="E103" t="n">
-        <v>0.131952</v>
+        <v>0.133529</v>
       </c>
       <c r="F103" t="n">
-        <v>0.162266</v>
+        <v>0.162301</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.187893</v>
+        <v>0.187654</v>
       </c>
       <c r="C104" t="n">
-        <v>0.23296</v>
+        <v>0.235071</v>
       </c>
       <c r="D104" t="n">
-        <v>0.67841</v>
+        <v>0.679851</v>
       </c>
       <c r="E104" t="n">
-        <v>0.13719</v>
+        <v>0.131473</v>
       </c>
       <c r="F104" t="n">
-        <v>0.169689</v>
+        <v>0.169834</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.211697</v>
+        <v>0.209185</v>
       </c>
       <c r="C105" t="n">
-        <v>0.267433</v>
+        <v>0.264047</v>
       </c>
       <c r="D105" t="n">
-        <v>0.708789</v>
+        <v>0.710193</v>
       </c>
       <c r="E105" t="n">
-        <v>0.1429</v>
+        <v>0.14311</v>
       </c>
       <c r="F105" t="n">
-        <v>0.179637</v>
+        <v>0.180012</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.238412</v>
+        <v>0.240352</v>
       </c>
       <c r="C106" t="n">
-        <v>0.30304</v>
+        <v>0.304236</v>
       </c>
       <c r="D106" t="n">
-        <v>0.737688</v>
+        <v>0.738809</v>
       </c>
       <c r="E106" t="n">
-        <v>0.149451</v>
+        <v>0.151675</v>
       </c>
       <c r="F106" t="n">
-        <v>0.194297</v>
+        <v>0.19456</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.284533</v>
+        <v>0.283384</v>
       </c>
       <c r="C107" t="n">
-        <v>0.360176</v>
+        <v>0.364353</v>
       </c>
       <c r="D107" t="n">
-        <v>0.599317</v>
+        <v>0.60162</v>
       </c>
       <c r="E107" t="n">
-        <v>0.165813</v>
+        <v>0.165312</v>
       </c>
       <c r="F107" t="n">
-        <v>0.215562</v>
+        <v>0.216965</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.341716</v>
+        <v>0.350973</v>
       </c>
       <c r="C108" t="n">
-        <v>0.440451</v>
+        <v>0.447647</v>
       </c>
       <c r="D108" t="n">
-        <v>0.623019</v>
+        <v>0.6225039999999999</v>
       </c>
       <c r="E108" t="n">
-        <v>0.122774</v>
+        <v>0.119963</v>
       </c>
       <c r="F108" t="n">
-        <v>0.146699</v>
+        <v>0.146168</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.428129</v>
+        <v>0.434278</v>
       </c>
       <c r="C109" t="n">
-        <v>0.561115</v>
+        <v>0.561839</v>
       </c>
       <c r="D109" t="n">
-        <v>0.646257</v>
+        <v>0.647138</v>
       </c>
       <c r="E109" t="n">
-        <v>0.124175</v>
+        <v>0.124392</v>
       </c>
       <c r="F109" t="n">
-        <v>0.150642</v>
+        <v>0.150446</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.138928</v>
+        <v>0.139005</v>
       </c>
       <c r="C110" t="n">
-        <v>0.16758</v>
+        <v>0.171249</v>
       </c>
       <c r="D110" t="n">
-        <v>0.671797</v>
+        <v>0.670669</v>
       </c>
       <c r="E110" t="n">
-        <v>0.125343</v>
+        <v>0.126069</v>
       </c>
       <c r="F110" t="n">
-        <v>0.153674</v>
+        <v>0.154822</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.141696</v>
+        <v>0.141836</v>
       </c>
       <c r="C111" t="n">
-        <v>0.177382</v>
+        <v>0.177859</v>
       </c>
       <c r="D111" t="n">
-        <v>0.696195</v>
+        <v>0.696005</v>
       </c>
       <c r="E111" t="n">
-        <v>0.127394</v>
+        <v>0.12732</v>
       </c>
       <c r="F111" t="n">
-        <v>0.159746</v>
+        <v>0.160656</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.145783</v>
+        <v>0.145576</v>
       </c>
       <c r="C112" t="n">
-        <v>0.18384</v>
+        <v>0.182267</v>
       </c>
       <c r="D112" t="n">
-        <v>0.722479</v>
+        <v>0.7224</v>
       </c>
       <c r="E112" t="n">
-        <v>0.129401</v>
+        <v>0.128782</v>
       </c>
       <c r="F112" t="n">
-        <v>0.164341</v>
+        <v>0.165333</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.150894</v>
+        <v>0.150509</v>
       </c>
       <c r="C113" t="n">
-        <v>0.194225</v>
+        <v>0.19136</v>
       </c>
       <c r="D113" t="n">
-        <v>0.749044</v>
+        <v>0.750716</v>
       </c>
       <c r="E113" t="n">
-        <v>0.13162</v>
+        <v>0.130936</v>
       </c>
       <c r="F113" t="n">
-        <v>0.170806</v>
+        <v>0.170593</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.155901</v>
+        <v>0.156627</v>
       </c>
       <c r="C114" t="n">
-        <v>0.204231</v>
+        <v>0.204804</v>
       </c>
       <c r="D114" t="n">
-        <v>0.776711</v>
+        <v>0.778636</v>
       </c>
       <c r="E114" t="n">
-        <v>0.130379</v>
+        <v>0.133383</v>
       </c>
       <c r="F114" t="n">
-        <v>0.17562</v>
+        <v>0.172922</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.164686</v>
+        <v>0.163791</v>
       </c>
       <c r="C115" t="n">
-        <v>0.216319</v>
+        <v>0.21744</v>
       </c>
       <c r="D115" t="n">
-        <v>0.805486</v>
+        <v>0.805746</v>
       </c>
       <c r="E115" t="n">
-        <v>0.136625</v>
+        <v>0.136749</v>
       </c>
       <c r="F115" t="n">
-        <v>0.183263</v>
+        <v>0.183843</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.171481</v>
+        <v>0.171138</v>
       </c>
       <c r="C116" t="n">
-        <v>0.23093</v>
+        <v>0.232089</v>
       </c>
       <c r="D116" t="n">
-        <v>0.8328759999999999</v>
+        <v>0.83575</v>
       </c>
       <c r="E116" t="n">
-        <v>0.140689</v>
+        <v>0.140363</v>
       </c>
       <c r="F116" t="n">
-        <v>0.189737</v>
+        <v>0.190501</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.185418</v>
+        <v>0.184352</v>
       </c>
       <c r="C117" t="n">
-        <v>0.247978</v>
+        <v>0.248508</v>
       </c>
       <c r="D117" t="n">
-        <v>0.85438</v>
+        <v>0.863879</v>
       </c>
       <c r="E117" t="n">
-        <v>0.145289</v>
+        <v>0.145321</v>
       </c>
       <c r="F117" t="n">
-        <v>0.197354</v>
+        <v>0.197199</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.201747</v>
+        <v>0.204448</v>
       </c>
       <c r="C118" t="n">
-        <v>0.270251</v>
+        <v>0.269827</v>
       </c>
       <c r="D118" t="n">
-        <v>0.883064</v>
+        <v>0.894062</v>
       </c>
       <c r="E118" t="n">
-        <v>0.151603</v>
+        <v>0.151162</v>
       </c>
       <c r="F118" t="n">
-        <v>0.206055</v>
+        <v>0.20565</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.22872</v>
+        <v>0.225378</v>
       </c>
       <c r="C119" t="n">
-        <v>0.298854</v>
+        <v>0.301812</v>
       </c>
       <c r="D119" t="n">
-        <v>0.924185</v>
+        <v>0.9259810000000001</v>
       </c>
       <c r="E119" t="n">
-        <v>0.160582</v>
+        <v>0.155446</v>
       </c>
       <c r="F119" t="n">
-        <v>0.216535</v>
+        <v>0.216198</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.259889</v>
+        <v>0.258413</v>
       </c>
       <c r="C120" t="n">
-        <v>0.336768</v>
+        <v>0.336555</v>
       </c>
       <c r="D120" t="n">
-        <v>0.9555169999999999</v>
+        <v>0.949278</v>
       </c>
       <c r="E120" t="n">
-        <v>0.171191</v>
+        <v>0.17</v>
       </c>
       <c r="F120" t="n">
-        <v>0.23098</v>
+        <v>0.229733</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.305207</v>
+        <v>0.30109</v>
       </c>
       <c r="C121" t="n">
-        <v>0.390469</v>
+        <v>0.39532</v>
       </c>
       <c r="D121" t="n">
-        <v>0.694061</v>
+        <v>0.684003</v>
       </c>
       <c r="E121" t="n">
-        <v>0.187296</v>
+        <v>0.18655</v>
       </c>
       <c r="F121" t="n">
-        <v>0.250431</v>
+        <v>0.249743</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.366601</v>
+        <v>0.362749</v>
       </c>
       <c r="C122" t="n">
-        <v>0.476235</v>
+        <v>0.476006</v>
       </c>
       <c r="D122" t="n">
-        <v>0.71607</v>
+        <v>0.717204</v>
       </c>
       <c r="E122" t="n">
-        <v>0.210731</v>
+        <v>0.211032</v>
       </c>
       <c r="F122" t="n">
-        <v>0.281915</v>
+        <v>0.281418</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.460584</v>
+        <v>0.457985</v>
       </c>
       <c r="C123" t="n">
-        <v>0.597248</v>
+        <v>0.59951</v>
       </c>
       <c r="D123" t="n">
-        <v>0.739689</v>
+        <v>0.740798</v>
       </c>
       <c r="E123" t="n">
-        <v>0.147846</v>
+        <v>0.14593</v>
       </c>
       <c r="F123" t="n">
-        <v>0.186717</v>
+        <v>0.192782</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.160893</v>
+        <v>0.160446</v>
       </c>
       <c r="C124" t="n">
-        <v>0.195591</v>
+        <v>0.203273</v>
       </c>
       <c r="D124" t="n">
-        <v>0.754309</v>
+        <v>0.75605</v>
       </c>
       <c r="E124" t="n">
-        <v>0.150068</v>
+        <v>0.150504</v>
       </c>
       <c r="F124" t="n">
-        <v>0.189513</v>
+        <v>0.180968</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.167175</v>
+        <v>0.163464</v>
       </c>
       <c r="C125" t="n">
-        <v>0.198541</v>
+        <v>0.201138</v>
       </c>
       <c r="D125" t="n">
-        <v>0.780214</v>
+        <v>0.792135</v>
       </c>
       <c r="E125" t="n">
-        <v>0.154261</v>
+        <v>0.147711</v>
       </c>
       <c r="F125" t="n">
-        <v>0.191199</v>
+        <v>0.198799</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.169522</v>
+        <v>0.177918</v>
       </c>
       <c r="C126" t="n">
-        <v>0.208388</v>
+        <v>0.207555</v>
       </c>
       <c r="D126" t="n">
-        <v>0.80566</v>
+        <v>0.807021</v>
       </c>
       <c r="E126" t="n">
-        <v>0.154016</v>
+        <v>0.162601</v>
       </c>
       <c r="F126" t="n">
-        <v>0.192551</v>
+        <v>0.204642</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.173131</v>
+        <v>0.171998</v>
       </c>
       <c r="C127" t="n">
-        <v>0.212728</v>
+        <v>0.222105</v>
       </c>
       <c r="D127" t="n">
-        <v>0.845643</v>
+        <v>0.845211</v>
       </c>
       <c r="E127" t="n">
-        <v>0.154948</v>
+        <v>0.149895</v>
       </c>
       <c r="F127" t="n">
-        <v>0.200504</v>
+        <v>0.204875</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.180371</v>
+        <v>0.191722</v>
       </c>
       <c r="C128" t="n">
-        <v>0.236664</v>
+        <v>0.236238</v>
       </c>
       <c r="D128" t="n">
-        <v>0.873957</v>
+        <v>0.865726</v>
       </c>
       <c r="E128" t="n">
-        <v>0.158671</v>
+        <v>0.162788</v>
       </c>
       <c r="F128" t="n">
-        <v>0.205792</v>
+        <v>0.210369</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.178877</v>
+        <v>0.188345</v>
       </c>
       <c r="C129" t="n">
-        <v>0.243839</v>
+        <v>0.243364</v>
       </c>
       <c r="D129" t="n">
-        <v>0.903058</v>
+        <v>0.894451</v>
       </c>
       <c r="E129" t="n">
-        <v>0.167156</v>
+        <v>0.16999</v>
       </c>
       <c r="F129" t="n">
-        <v>0.222591</v>
+        <v>0.221904</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.199547</v>
+        <v>0.196799</v>
       </c>
       <c r="C130" t="n">
-        <v>0.256089</v>
+        <v>0.25397</v>
       </c>
       <c r="D130" t="n">
-        <v>0.93229</v>
+        <v>0.933572</v>
       </c>
       <c r="E130" t="n">
-        <v>0.169522</v>
+        <v>0.156847</v>
       </c>
       <c r="F130" t="n">
-        <v>0.223356</v>
+        <v>0.21848</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.201205</v>
+        <v>0.202053</v>
       </c>
       <c r="C131" t="n">
-        <v>0.275284</v>
+        <v>0.275294</v>
       </c>
       <c r="D131" t="n">
-        <v>0.963009</v>
+        <v>0.954309</v>
       </c>
       <c r="E131" t="n">
-        <v>0.171163</v>
+        <v>0.170494</v>
       </c>
       <c r="F131" t="n">
-        <v>0.223796</v>
+        <v>0.224359</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.223102</v>
+        <v>0.233699</v>
       </c>
       <c r="C132" t="n">
-        <v>0.297595</v>
+        <v>0.298196</v>
       </c>
       <c r="D132" t="n">
-        <v>0.985079</v>
+        <v>0.9948050000000001</v>
       </c>
       <c r="E132" t="n">
-        <v>0.171191</v>
+        <v>0.184157</v>
       </c>
       <c r="F132" t="n">
-        <v>0.241226</v>
+        <v>0.23351</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.240137</v>
+        <v>0.250476</v>
       </c>
       <c r="C133" t="n">
-        <v>0.320401</v>
+        <v>0.329271</v>
       </c>
       <c r="D133" t="n">
-        <v>1.02585</v>
+        <v>1.02702</v>
       </c>
       <c r="E133" t="n">
-        <v>0.179963</v>
+        <v>0.181199</v>
       </c>
       <c r="F133" t="n">
-        <v>0.24489</v>
+        <v>0.246473</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.278406</v>
+        <v>0.273982</v>
       </c>
       <c r="C134" t="n">
-        <v>0.34808</v>
+        <v>0.362117</v>
       </c>
       <c r="D134" t="n">
-        <v>1.05823</v>
+        <v>1.05893</v>
       </c>
       <c r="E134" t="n">
-        <v>0.194033</v>
+        <v>0.188652</v>
       </c>
       <c r="F134" t="n">
-        <v>0.256934</v>
+        <v>0.257817</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.319434</v>
+        <v>0.311767</v>
       </c>
       <c r="C135" t="n">
-        <v>0.419932</v>
+        <v>0.428051</v>
       </c>
       <c r="D135" t="n">
-        <v>0.697608</v>
+        <v>0.6997409999999999</v>
       </c>
       <c r="E135" t="n">
-        <v>0.206723</v>
+        <v>0.205175</v>
       </c>
       <c r="F135" t="n">
-        <v>0.271888</v>
+        <v>0.279692</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.380996</v>
+        <v>0.378645</v>
       </c>
       <c r="C136" t="n">
-        <v>0.498454</v>
+        <v>0.492376</v>
       </c>
       <c r="D136" t="n">
-        <v>0.721866</v>
+        <v>0.7224159999999999</v>
       </c>
       <c r="E136" t="n">
-        <v>0.22322</v>
+        <v>0.224464</v>
       </c>
       <c r="F136" t="n">
-        <v>0.308519</v>
+        <v>0.313063</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.468659</v>
+        <v>0.459813</v>
       </c>
       <c r="C137" t="n">
-        <v>0.628152</v>
+        <v>0.630027</v>
       </c>
       <c r="D137" t="n">
-        <v>0.740053</v>
+        <v>0.734701</v>
       </c>
       <c r="E137" t="n">
-        <v>0.290704</v>
+        <v>0.279072</v>
       </c>
       <c r="F137" t="n">
-        <v>0.334001</v>
+        <v>0.329398</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.311925</v>
+        <v>0.285547</v>
       </c>
       <c r="C138" t="n">
-        <v>0.348174</v>
+        <v>0.353287</v>
       </c>
       <c r="D138" t="n">
-        <v>0.759186</v>
+        <v>0.754305</v>
       </c>
       <c r="E138" t="n">
-        <v>0.286976</v>
+        <v>0.288856</v>
       </c>
       <c r="F138" t="n">
-        <v>0.32579</v>
+        <v>0.335423</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.311891</v>
+        <v>0.30805</v>
       </c>
       <c r="C139" t="n">
-        <v>0.360872</v>
+        <v>0.332915</v>
       </c>
       <c r="D139" t="n">
-        <v>0.779133</v>
+        <v>0.773299</v>
       </c>
       <c r="E139" t="n">
-        <v>0.278787</v>
+        <v>0.283888</v>
       </c>
       <c r="F139" t="n">
-        <v>0.33135</v>
+        <v>0.341704</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.306207</v>
+        <v>0.314698</v>
       </c>
       <c r="C140" t="n">
-        <v>0.352361</v>
+        <v>0.341286</v>
       </c>
       <c r="D140" t="n">
-        <v>0.800082</v>
+        <v>0.800739</v>
       </c>
       <c r="E140" t="n">
-        <v>0.273191</v>
+        <v>0.285915</v>
       </c>
       <c r="F140" t="n">
-        <v>0.354895</v>
+        <v>0.34739</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.310917</v>
+        <v>0.309469</v>
       </c>
       <c r="C141" t="n">
-        <v>0.370638</v>
+        <v>0.375352</v>
       </c>
       <c r="D141" t="n">
-        <v>0.820237</v>
+        <v>0.822649</v>
       </c>
       <c r="E141" t="n">
-        <v>0.27898</v>
+        <v>0.285616</v>
       </c>
       <c r="F141" t="n">
-        <v>0.353707</v>
+        <v>0.354013</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.317713</v>
+        <v>0.294967</v>
       </c>
       <c r="C142" t="n">
-        <v>0.374102</v>
+        <v>0.378499</v>
       </c>
       <c r="D142" t="n">
-        <v>0.843894</v>
+        <v>0.844078</v>
       </c>
       <c r="E142" t="n">
-        <v>0.312334</v>
+        <v>0.275469</v>
       </c>
       <c r="F142" t="n">
-        <v>0.350636</v>
+        <v>0.352478</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.321339</v>
+        <v>0.320105</v>
       </c>
       <c r="C143" t="n">
-        <v>0.376454</v>
+        <v>0.392726</v>
       </c>
       <c r="D143" t="n">
-        <v>0.8598710000000001</v>
+        <v>0.867139</v>
       </c>
       <c r="E143" t="n">
-        <v>0.304766</v>
+        <v>0.279386</v>
       </c>
       <c r="F143" t="n">
-        <v>0.361514</v>
+        <v>0.368142</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Scattered unsuccessful looukp.xlsx
+++ b/clang-x86/Scattered unsuccessful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0963174</v>
+        <v>0.087575</v>
       </c>
       <c r="C2" t="n">
-        <v>0.098054</v>
+        <v>0.0910315</v>
       </c>
       <c r="D2" t="n">
-        <v>0.187909</v>
+        <v>0.189848</v>
       </c>
       <c r="E2" t="n"